--- a/Debats_CDF_EFK.xlsx
+++ b/Debats_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -41,25 +41,127 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
+    <t xml:space="preserve">364841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20251202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ständerat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hegglin Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bundesrat hat uns für 2026 einen Voranschlag mit einem schuldenbremsenkonformen Budget mit einem Handlungsspielraum von 108 Millionen Franken unterbreitet. Dabei darf aber nicht übersehen werden, dass wir 2026 trotzdem ein Finanzierungsdefizit von 845 Millionen Franken haben, zumal sich der Bund dann in diesem Umfang neu verschulden muss. Dieses Ergebnis kommt aber auch nur dank umfangreichen Bereinigungsmassnahmen in den Jahren 2024 und 2025, der guten Einnahmenentwicklung und einer teilwei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bundesrat hat uns für 2026 einen Voranschlag mit einem schuldenbremsenkonformen Budget mit einem Handlungsspielraum von 108 Millionen Franken unterbreitet. Dabei darf aber nicht übersehen werden, dass wir 2026 trotzdem ein Finanzierungsdefizit von 845 Millionen Franken haben, zumal sich der Bund dann in diesem Umfang neu verschulden muss. Dieses Ergebnis kommt aber auch nur dank umfangreichen Bereinigungsmassnahmen in den Jahren 2024 und 2025, der guten Einnahmenentwicklung und einer teilweisen Verbuchung der Ausgaben zugunsten der Schutzsuchenden aus der Ukraine im ausserordentlichen Haushalt zustande.
+Für die Jahre 2027 und 2028 werden die Vorgaben der Schuldenbremse ebenfalls eingehalten, wenn wir das Entlastungspaket 2027 so umsetzen, wie es uns der Bundesrat vorgeschlagen hat. Leider wird dem nicht so sein, denn nach den Beratungen des EP 27 in unserer Finanzkommission [PAGE 1098] dürfte der finanzielle Fehlbetrag in den Jahren 2027 und 2028 schon über 600 Millionen Franken betragen. Im Jahr 2029 würde der Bereinigungsbedarf bei 2 Milliarden Franken zu liegen kommen. Das sind beträchtliche Summen, die in den kommenden Jahren nicht einfach bei den ungebundenen Ausgaben eingespart werden dürfen. Die zusätzlichen Einnahmen aus dem Kanton Genf sind zwar erfreulich, verbessern die Ergebnisse 2025 und 2026, sind aber für die Jahre 2027 bis 2029 nicht hilfreich. Die Erträge werden dannzumal tiefer ausfallen und den Sanierungsbedarf zusätzlich erhöhen.
+Wie können wir darauf reagieren? Aus meiner Sicht gibt es mehrere Möglichkeiten. 
+1.[NB]Wir müssen schon im Voranschlag 2026 zusätzliche Einsparungen erwirken oder dürfen zumindest nicht mehr Ausgaben beschliessen, um die Lage der Ausgaben nicht zu verschlechtern.
+2.[NB]Es sind auch unkonventionelle Ideen einzubringen und zu prüfen, etwa ob öffentlich-rechtliche Körperschaften, die vor allem oder nur privatwirtschaftliche Dienstleistungen erbringen, der Steuerpflicht unterstellt werden sollen oder ob z.[NB]B. SBB Immobilien einen höheren Anteil zur Finanzierung der Bahninfrastruktur leisten soll.
+3.[NB]Es sind heute auch nicht substanziell höhere Mittel für Rüstungsgüter zu beschliessen. Davor müssten zumindest die strategischen Ziele des Bundesrates zur Sicherheitspolitik bekannt sein.
+4.[NB]Die Schuldenbremse ist nach wie vor unter allen Umständen einzuhalten. Stabile Finanzen sind ein wichtiger Pfeiler der Sicherheitspolitik. Wenn alle Massnahmen letztlich nicht reichen, müsste zumindest das Volk darüber befinden können, ob es Rüstungsbeschaffungen als notwendig erachtet oder bereit ist, dafür mehr Steuern zu bezahlen.
+Gerne gehe ich auf einzelne Aspekte näher ein. Im Budgetjahr 2026 haben wir eine Ausgabensteigerung von 5,2 Prozent. Über die ganze Finanzplanperiode sind es immer noch 3,1 Prozent, und dies erst noch unter Einhaltung des Entlastungsprogramms 2027 und gegenüber den Zahlen des Voranschlages 2025. Haupttreiber für diese Kostensteigerung sind die Bereiche Bildung und Forschung, soziale Wohlfahrt und Sicherheit. Diese haben Wachstumsraten zwischen 5 und 8 Prozent.
+Auf der Einnahmenseite sollen die Fiskalerträge für das nächste Jahr ebenfalls um 5 Prozent steigen, über die kommenden vier Jahre immer noch um 3,2 Prozent. Angesichts der wirtschaftlichen Situation in unseren Nachbarstaaten, aber auch auf den Absatzmärkten, angesichts der wirtschaftlichen Konflikte mit anderen Ländern, vor allem auch in Übersee, sind das ambitionierte Annahmen. Es wäre aber vermessen, wenn das Parlament die Schätzungen des Eidgenössischen Finanzdepartements und der Eidgenössischen Steuerverwaltung verändern würde. Ich glaube, sie haben in der Vergangenheit gezeigt, dass diese doch ziemlich genau sind. Ich gehe auch davon aus, dass die Kenngrössen, die aufgeführt sind, im nächsten Jahr erreicht werden können. Schwieriger dürfte es in den Finanzdebatten der späteren Jahre werden. Vorsorgen ist deshalb angesagt, um dann nicht bei den ungebundenen Ausgaben übermässig korrigieren zu müssen.
+Ich beziehe mich heute deshalb vor allem auch auf den Eigenbereich. Das sind vornehmlich Personal- und Sachkosten. Über das Entlastungspaket 2027 plant der Bundesrat, im Eigenbereich 300 Millionen Franken einzusparen. Das ist respektabel und verdient Unterstützung. Trotzdem soll es erlaubt sein, im Budgetprozess zusätzliche Ausgabenpositionen zu hinterfragen. Dazu gehört sicher die Anzahl der Beschäftigten bei der Verwaltung; diese steigt unaufhörlich. Im Jahr 2015 lag sie noch bei 36[NB]522. Sie soll von diesem Jahr auf das nächste Jahr um weitere 378 Vollzeitstellen auf 39[NB]453 anwachsen, allein beim VBS um 232 Stellen. Bald werden wir die vierzigtausendste Vollzeitstelle bei der Verwaltung feiern können.
+Wir sind an dieser Entwicklung nicht ganz unschuldig. Mit Beschlüssen für laufend neue Aufgaben für den Bund sind wir einerseits Treiber dieser Entwicklung, andererseits versuchen wir, durch die Digitalisierung Effizienzgewinne zu realisieren. Leider aber bleiben die Effizienzsteigerungen in einem bescheidenen Rahmen. Das Projekt Dazit ist diesbezüglich eine erwähnenswerte Ausnahme. Dieses Projekt spielte über 300 Personalstellen frei. 
+Wie können wir nun korrigierend eingreifen? Mit dem Neuen Führungsmodell des Bundes beschliessen wir nicht über Personalstellen, sondern nur über die Budgethöhe. Der Bundesrat wünscht keine Kürzungen nach der Rasenmähermethode, sondern erwartet konkrete Hinweise von uns. Die[NB]Mehrheit[NB]der[NB]Kommission schlägt solche Massnahmen vor. 
+So will sie erstens beim Bundesverwaltungsgericht das Wachstum des Funktionsaufwandes - das sind Personalstellen und Sachaufwände - auf 2 Millionen Franken begrenzen. Die Erwartung, die ich als Kommissionsmitglied auch teile, ist, dass das Bundesverwaltungsgericht seine drängenden organisatorischen Probleme löst, seine Effizienz steigert und die Abteilungen sich bei der Pendenzenlast gegenseitig unterstützen. So wurde es auch in einem anonymen Schreiben aus dieser Institution an die Kommissionsmitglieder verlangt. 
+Eine zweite Kürzung betrifft den Kommunikationsbereich. Die Massnahme soll im Verhältnis zu den Kommunikationsaufwänden umgesetzt werden. Gemäss der vorliegenden Jahresrechnung 2024 gab es in der Verwaltung allein für die Öffentlichkeitsarbeit über 420 Vollzeitstellen, was Kosten von über 100 Millionen Franken verursachte. Mit einem Absenkpfad sollen diese Stellen und die Aufwände schrittweise reduziert werden.
+Das sind kleine Versuche, das Personalstellenwachstum zu bremsen. Die Finanzkommission und auch ich sind aber bereit, bei Bedarf zusätzliche Stellen zuzulassen, so zum Beispiel beim Fedpol. Für dieses ist ein Bericht der Eidgenössischen Finanzkontrolle vorliegend, der besagt, dass dort mehr Personal notwendig sei. Dort sind 63 zusätzliche Stellen beantragt, die nicht infrage gestellt sind.
+Ein weiterer Bereich im Eigenbereich ist die Teuerung. Eingestellt sind 0,5 Prozent Teuerungsausgleich, das entspricht 34 Millionen Franken. Während der Debatte, während der Arbeit in der Kommission sank die Teuerungsrate immer mehr, auf 0,3, auf 0,2 bis auf aktuell 0,1 Prozent. Auch in Anbetracht der guten Besoldungshöhe, die verschiedene Gutachten belegen, ist es vertretbar, auf einen Teuerungsausgleich, eine generelle Lohnerhöhung, zu verzichten. Eine individuelle Lohnentwicklung ist aber unabhängig davon möglich, und diese möchte ich explizit nicht infrage stellen. Das soll nach wie vor möglich sein.
+Mit einer Anpassung der Bundespersonalverordnung hat der Bundesrat auf Anfang 2026 ein neues Lohnmodell eingeführt und dabei auch den Ortszuschlag integriert. Als Finanzkommission waren wir, abgesehen von einer Information im November 2022, nicht eingebunden. Wir haben über Umwege bei den Budgetvorbesprechungen davon erfahren. Nach den Kompetenzregelungen wäre auch die SPK unseres Rates zuständig gewesen. Wie ich aber informiert bin, liess auch sie sich nicht konsultieren, wahrscheinlich war sie über den Vorgang gar nicht informiert. Es besteht in diesem Bereich auch keine Konsultationspflicht des Bundesrates gegenüber den eidgenössischen Räten.
+Gemäss den Aussagen des Eidgenössischen Personalamtes sollen aus den neuen Personalregelungen keine höheren Kosten entstehen. Das kann ich aber schwerlich nachvollziehen: Einerseits gibt es höhere Einstiegslöhne, ein anderes Lohnband, andererseits haben uns die eidgenössischen Gerichte in den Budgetbesprechungen darauf hingewiesen, dass sie die Lohnsteigerungen, die ab Lohnklasse 33 rund 10 Prozent betragen können, ab 2027 nicht werden kompensieren können. Es braucht in diesem Bereich, ich glaube, vor allem seitens der eidgenössischen Gerichte, also noch Korrekturmassnahmen. In Zeiten des Sparprogramms hätte ich hier mehr Sensibilität oder auch einen Einbezug unserer Kommissionen gewünscht.
+Das waren jetzt zwei Schienen, auf welchen man, meine ich, korrigieren kann, sogar korrigieren soll: einerseits das Stellenwachstum - aber über das Budget, nicht über die Anzahl Stellen -, andererseits die Teuerungszulage. [PAGE 1099] 
+Nicht unerwähnt lassen möchte ich bei den Eigenausgaben noch die Spesen - diese wachsen ja auch beträchtlich. 2021 waren es noch 98 Millionen Franken, im vergangenen Jahr waren es über die gesamte Verwaltung hinweg 132 Millionen Franken. Ich meine, auch in diesem Bereich wäre es möglich, gewisse Einsparungen vorzunehmen - ohne eine konkrete Massnahme anzustossen.
+Damit komme ich zum Schluss. Ich glaube, insgesamt können wir einen guten Voranschlag beraten. Ich danke dem Bundesrat und der Verwaltung für die grosse Vorarbeit und bitte Sie, jeweils der Mehrheit Ihrer Kommission oder dem Bundesrat zu folgen und dem Voranschlag in der Gesamtabstimmung zuzustimmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binder-Keller Marianne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Einschätzung, dass das Fedpol mehr Mittel braucht, ist nicht aus der Luft gegriffen. Der Bundesrat hat die Ressourcensituation selbst analysiert, dies aufgrund eines Postulates, wie das auch der Vertreter der Minderheit II erwähnt hat. Die EFK überprüfte das dann und kam zum klaren Schluss, dass das Fedpol seinen Auftrag mit den aktuellen Mitteln nicht erfüllen kann.[NB]Es[NB]wurden[NB]auch strukturelle Defizite festgestellt - auch das wurde erwähnt -, die analysiert und angegangen worden si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Einschätzung, dass das Fedpol mehr Mittel braucht, ist nicht aus der Luft gegriffen. Der Bundesrat hat die Ressourcensituation selbst analysiert, dies aufgrund eines Postulates, wie das auch der Vertreter der Minderheit II erwähnt hat. Die EFK überprüfte das dann und kam zum klaren Schluss, dass das Fedpol seinen Auftrag mit den aktuellen Mitteln nicht erfüllen kann.[NB]Es[NB]wurden[NB]auch strukturelle Defizite festgestellt - auch das wurde erwähnt -, die analysiert und angegangen worden sind.
+Nichtsdestotrotz braucht das Fedpol mehr Mittel. Die Sicherheitslage eskaliert generell. Wir haben einen Krieg in Europa, darauf muss ich ja wohl nicht weiter eingehen. Die Eidgenössische Finanzkontrolle kam klar zum Schluss, dass die personellen Ressourcen in den Bereichen Terrorismus, organisierte Kriminalität, Wirtschaftskriminalität und Cyberkriminalität nicht ausreichen. Das führt dazu, dass Strafverfahren verzögert oder gar nicht eröffnet werden, und unter diesen Umständen verstehe ich eine Kürzung wirklich nicht. Das hat massive Auswirkungen auf die innere Sicherheit, und dass diese geschützt werden muss, steht klar in Artikel 2 der Bundesverfassung, dem Zweckartikel.
+Als Präsidentin der Subkommission Gerichte/BA habe ich mir die Problematik vom Bundesanwalt und von der Aufsichtsbehörde über die Bundesanwaltschaft eingehend schildern lassen; Kollege Zopfi hat mich darauf angesprochen. Ebenso haben wir die Probleme in der Sicherheitspolitischen Kommission analysiert.
+Ich erachte eine Erhöhung der Mittel aufgrund der allgemein eskalierenden sicherheitspolitischen Lage für mehr als gerechtfertigt. Es ist eine Zeitfrage. Die Zeit läuft uns davon, was die Finanzierung der Armee und die Verteidigungsfähigkeit betrifft, und das ist sträflich. Die Zeit läuft uns aber auch davon, was die innere Sicherheit betrifft, und diese beiden Anliegen sind miteinander verzahnt. Wir können in solch eskalierenden Zeiten nicht zu einer internationalen Drehscheibe werden.
+Deshalb werde ich die Minderheit II (Zopfi) unterstützen. [PAGE 1113] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zopfi Mathias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Antrag meiner Minderheit II dürfte vielen von Ihnen bekannt vorkommen. Diejenigen von Ihnen, die in der GPK sind, haben sich damit schon beschäftigt, und diejenigen von Ihnen, die in der SiK sind, haben sich auch bereits mit dieser Problematik beschäftigt. Die Minderheit II will mit ihrem Konzept, das sich dann auch im Finanzplan niederschlägt, jährlich zehn bis zwanzig Stellen beim Fedpol aufbauen, insbesondere im Bereich der Bundeskriminalpolizei. 
+Ich habe Ihnen gesagt, dass sich viele vo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Antrag meiner Minderheit II dürfte vielen von Ihnen bekannt vorkommen. Diejenigen von Ihnen, die in der GPK sind, haben sich damit schon beschäftigt, und diejenigen von Ihnen, die in der SiK sind, haben sich auch bereits mit dieser Problematik beschäftigt. Die Minderheit II will mit ihrem Konzept, das sich dann auch im Finanzplan niederschlägt, jährlich zehn bis zwanzig Stellen beim Fedpol aufbauen, insbesondere im Bereich der Bundeskriminalpolizei. 
+Ich habe Ihnen gesagt, dass sich viele von Ihnen bereits damit auseinandergesetzt haben. Ich sage nur so viel: Bei der Anhörung in der Kommission und an verschiedenen anderen Orten hörte ich immer wieder, dass wir uns in Richtung von Ländern mit sehr hoher organisierter Kriminalität bewegen. Ich nenne ein Land, das ein enormes Problem hat. Sie denken vielleicht an Italien, Sie denken vielleicht an Albanien. Nein, ich nenne Schweden als Beispiel. Schweden ist heute im Bereich der organisierten Kriminalität absolut problematisch unterwegs. Wenn ich höre, dass wir auch in der Schweiz in diese Richtung unterwegs sind und es sich um Jahre, vielleicht sogar nur um Monate handelt, bis sich solche Entwicklungen auch bei uns ergeben, dann lässt mich das aufhorchen. 
+Ich höre, dass wir vierzig Fälle nicht behandeln können, weil die Ressourcen bei der Bundeskriminalpolizei schlicht und einfach fehlen. Das lässt mich aufhorchen. Bei diesen vierzig Fällen handelt es sich nicht etwa um Bagatellfälle. Es sind Fälle organisierter Kriminalität, das müssen Sie einfach sehen. Es geht nicht um ein gestohlenes Portemonnaie oder so etwas. 
+Letztlich geht es darum, dass das Fedpol eine wichtige Aufgabe für die Sicherheit unseres Landes übernimmt, insbesondere, um unser Land vor organisierter Kriminalität zu bewahren oder möglichst gut zu schützen. Dass es dabei auch um Terrorismus und um Terrorismusfinanzierung usw. geht, wissen Sie bereits. 
+Vor Kurzem habe ich ein sehr interessantes Interview mit einem Spezialisten gelesen. Ich weiss nicht mehr, ob es in der "NZZ" oder im "Tages-Anzeiger" war. Er hat bestätigt, dass sich die organisierte Kriminalität, die wir vielleicht immer noch in Süditalien vermuten, in ganz Europa massiv ausgebreitet hat. Wir haben heute an vielen Orten Zustände, die nichts mehr mit einer heilen Welt zu tun haben oder mit Aussagen wie "Bei uns ist es ja nicht so schlimm" erklärt werden können. 
+Ich sage Ihnen das, und Sie hören mir einigermassen aufmerksam zu. Aber ich kann Ihnen sagen: Nicht nur ich sage Ihnen das. Ich habe bereits erwähnt, dass diejenigen von Ihnen, die in der GPK sind, sich damit auseinandergesetzt haben. Die GPK hat ein Schreiben an die Finanzkommission verfasst. Ich zitiere daraus nur einen Satz: "Auch die GPK kommt ebenfalls zum Schluss, dass die personellen Ressourcen der BKP rasch erhöht werden müssen." Die GPK, die sich mit der Sache auseinandergesetzt hat, ist offenbar zum Schluss gekommen, dass wir rasch etwas tun müssen. Auch in der generellen Stellungnahme der Bundesanwaltschaft steht zum Beispiel: "Der Mangel an Ermittlerressourcen bei der BKP ist eine allseits unbestrittene Erkenntnis." 
+Und was sagt die Eidgenössische Finanzkontrolle? Sie ist ihres Zeichens nicht unbedingt dafür bekannt, ausufernde Stellenbegehren gutzuheissen oder den Ausbau des Staates zu forcieren. Vielmehr nimmt sie auch für die Finanzkommission die Rolle ein, genau hinzuschauen und eher kritisch zu sein. Auch die EFK kommt in ihrem Bericht zum Schluss, dass es beim Fedpol neben Effizienzmassnahmen - die notabene vom Fedpol schon teilweise umgesetzt werden; deren Potenzial wurde bestätigt - mehr Ressourcen für die Ermittlung braucht. Die EFK sieht das also genau gleich. [PAGE 1112] 
+Zuletzt spreche ich noch diejenigen von Ihnen an, die in der SiK sitzen. Sie haben ohne Gegenstimme und mit klarer Mehrheit eine Motion beschlossen. Diese wird am 11.[NB]Dezember 2025 in diesem Rat behandelt. Die Motion fordert eigentlich nichts anderes als das, was meine Minderheit[NB]II ebenfalls fordert. Wir können schon noch zuwarten, oder wir können heute irgendwas entscheiden. Am 11.[NB]Dezember kann uns dann die Berichterstatterin - es ist die ehemalige Präsidentin der SiK, Kollegin Andrea Gmür-Schönenberger - erläutern, weshalb es wichtig ist, dass wir diese Motion wie die SiK möglichst ohne Gegenstimme annehmen. Aber dann ist es mit dem Voranschlag schon gelaufen, dann haben wir dieses Thema hier schon behandelt. Sie merken es, ich spreche die Mitglieder der SiK an, und ich habe es ihnen bereits gesagt: Die Musik spielt beim Voranschlag, die Musik spielt genau jetzt. 
+Natürlich ist es wichtig, dass wir die Finanzen im Griff behalten. Da stimme ich meinem Vorredner zu. Es ist wichtig, dass wir nicht einfach ausufernde Stellenbegehren gutheissen, nur weil ein bisschen Druck gemacht wird. Aber hier haben wir es mit einem Problem zu tun. Sie haben es von allen Seiten gehört.
+Jetzt könnten Sie, wenn Sie den Entwurf des Bundesrates und den Antrag der Minderheit I anschauen, zur Auffassung kommen, dass der Bundesrat ja bereits etwas unternimmt, denn die Minderheit I (Mühlemann) will hier kürzen. Dazu müssen Sie aber berücksichtigen: Diese 51 Stellen, die gemäss Antrag des Bundesrates geschaffen werden sollen, dienen nicht dem Aufbau der Bundeskriminalpolizei, um dieser erhöhten Bedrohungs- und Sicherheitslage Herr zu werden. Sondern 44 dieser 51 Stellen werden benötigt, um Projekte, die wir bewilligt haben - zum Beispiel die Schengen-Weiterentwicklungen, die Weiterentwicklung des automatisierten Fingerabdrucksystems usw. -, umzusetzen. Mit dem Antrag des Bundesrates setzen Sie also gerade einmal das um, was wir beschlossen haben, Sie schaffen aber keine zusätzlichen Ressourcen bei der Bundeskriminalpolizei für die Themen, die ich soeben erwähnt habe. Die übrigen 7 dieser 51 Stellen werden benötigt, um am Verwaltungszentrum Guisanplatz, wo ein neues Gebäude in Betrieb genommen worden ist, die Loge zu betreiben. Das wird dann vom VBS wieder rückerstattet und ist in dem Sinn also kostenneutral. Aber Sie werden sich auch vorstellen können, dass die 7[NB]Personen,[NB]die[NB]die[NB]Loge[NB]betreiben, nicht unbedingt der Bundeskriminalpolizei zur Bekämpfung der organisierten Kriminalität ausserhalb des Sichtradius der Loge zur Verfügung stehen. 
+Damit will ich Ihnen sagen: Die Variante Bundesrat bedeutet im Bereich der Bundeskriminalpolizei überhaupt keine Aufstockung, sondern Bewahrung des Status quo. Wenn Sie berücksichtigen wollen, was Ihnen die GPK, die SiK und alle anderen empfehlen, dann müssen Sie hier mit der Minderheit II stimmen. 
+Wenn Sie mit der Minderheit I stimmen, wovon ich Ihnen trotz klarer Sympathie natürlich wärmstens abrate, dann werden Sie die zusätzlichen Stellen, die für die Umsetzung dieser Projekte notwendig sind, beim laufenden Betrieb bei der Bundeskriminalpolizei und an anderen Orten kompensieren müssen, was dazu führt, dass im Resultat sogar weniger Ressourcen zur Verfügung stehen werden, um der genannten Herausforderungen Herr zu werden. 
+Wenn man jetzt die Zahl der Meldungen ins Spiel bringt und sagt, es werde halt zu viel gemeldet, dann kommt mir das folgendermassen vor: Es gibt eine Sicherheitslage, in der sich die Kriminalität erhöht, in der die Leute nach mehr Polizei rufen und in der das Sicherheitsgefühl sinkt. Sie sehen, dass es ein Problem gibt, aber anstatt mehr Polizei anzustellen, sagen Sie zu den Menschen: Gebt halt weniger Strafanzeigen auf, dann haben wir das Problem gelöst. So schaffen Sie einfach eine Dunkelziffer, ein Dunkelfeld. 
+Ich sage damit nicht, dass der Effekt, den Kollege Mühlemann beschrieben hat, nicht ein Stück weit eintreten kann. Aber die Tatsache ist, dass wir es hier mit organisierter Kriminalität zu tun haben, und daher ist es wichtig, dass wir nicht in die Vogel-Strauss-Politik verfallen und sagen: Gebt halt weniger Anzeigen auf, ihr macht zu viele Anzeigen; wenn wir weniger davon wissen, dann wird es weniger schlimm sein. Das wäre das Prinzip "Augen zu und durch", und dazu rate ich Ihnen im Namen unserer Sicherheit nicht.
+Ich bitte Sie deshalb, mit der Minderheit II zu stimmen und zu berücksichtigen, was bereits die GPK, die SiK und viele andere empfehlen und empfohlen haben, und hier entsprechend konsequent zu sein. Dann können Sie am 11.[NB]Dezember auch der erwähnten Motion zustimmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn man Kollege Zopfi zuhört, könnte man meinen, wir hätten in den vergangenen Jahren zu wenig oder nichts getan. Das stimmt einfach nicht. Betrachten Sie die Personalstellen beim Fedpol: Im Jahr 2019 lag der Personalbestand bei 899 Vollzeitstellen. Im Jahr 2026 soll er auf 1060 Stellen aufgestockt werden. Im Jahr 2026 sollen im Vergleich zum Vorjahr 63 Stellen hinzukommen. Die Frage ist, wo sie eingesetzt werden. Aber wir beschliessen ja über das Gesamtbudget. Der Bundesrat hat die Verantwortu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn man Kollege Zopfi zuhört, könnte man meinen, wir hätten in den vergangenen Jahren zu wenig oder nichts getan. Das stimmt einfach nicht. Betrachten Sie die Personalstellen beim Fedpol: Im Jahr 2019 lag der Personalbestand bei 899 Vollzeitstellen. Im Jahr 2026 soll er auf 1060 Stellen aufgestockt werden. Im Jahr 2026 sollen im Vergleich zum Vorjahr 63 Stellen hinzukommen. Die Frage ist, wo sie eingesetzt werden. Aber wir beschliessen ja über das Gesamtbudget. Der Bundesrat hat die Verantwortung und die Aufgabe, die zur Verfügung gestellten Mittel sachgerecht einzusetzen.
+Ich habe gesagt, dass 63 zusätzliche Stellen vorgesehen sind - das entspricht einem Wachstum von 6,3 Prozent. Das ist ein sehr viel stärkeres Wachstum als in der übrigen Bundesverwaltung. Über den Zeithorizont von 2019 bis 2026 lag das Personalwachstum beim Fedpol bei 2,9 Prozent im Jahr, also bei fast 3 Prozent. In der Bundesverwaltung lag es im gleichen Zeitraum bei 0,8 Prozent im Jahr. Das Fedpol wächst also im Vergleich zur übrigen Bundesverwaltung überdurchschnittlich. Von daher kommen wir den Empfehlungen der EFK nach, und wir kommen mit dem Antrag der Mehrheit Ihrer Finanzkommission auch dem Anliegen und[NB]dem[NB]Auftrag in diesem Sektor nach. Denn die Sicherheit und die Bekämpfung der kriminellen Organisationen sind wichtig.
+Ich empfehle Ihnen also, der Mehrheit Ihrer Kommission zu folgen und damit, wie gesagt, den Rahmen dafür zu schaffen, dass 63 zusätzliche Stellen geschaffen werden können.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">365198</t>
   </si>
   <si>
-    <t xml:space="preserve">20251202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conseil des Etats</t>
-  </si>
-  <si>
     <t xml:space="preserve">Engler Stefan</t>
   </si>
   <si>
-    <t xml:space="preserve">M-E</t>
-  </si>
-  <si>
     <t xml:space="preserve">GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
   </si>
   <si>
     <t xml:space="preserve">Angenommen - Adopté
@@ -585,97 +687,32 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">365062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ständerat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binder-Keller Marianne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Einschätzung, dass das Fedpol mehr Mittel braucht, ist nicht aus der Luft gegriffen. Der Bundesrat hat die Ressourcensituation selbst analysiert, dies aufgrund eines Postulates, wie das auch der Vertreter der Minderheit II erwähnt hat. Die EFK überprüfte das dann und kam zum klaren Schluss, dass das Fedpol seinen Auftrag mit den aktuellen Mitteln nicht erfüllen kann.[NB]Es[NB]wurden[NB]auch strukturelle Defizite festgestellt - auch das wurde erwähnt -, die analysiert und angegangen worden si</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Die Einschätzung, dass das Fedpol mehr Mittel braucht, ist nicht aus der Luft gegriffen. Der Bundesrat hat die Ressourcensituation selbst analysiert, dies aufgrund eines Postulates, wie das auch der Vertreter der Minderheit II erwähnt hat. Die EFK überprüfte das dann und kam zum klaren Schluss, dass das Fedpol seinen Auftrag mit den aktuellen Mitteln nicht erfüllen kann.[NB]Es[NB]wurden[NB]auch strukturelle Defizite festgestellt - auch das wurde erwähnt -, die analysiert und angegangen worden sind.
-Nichtsdestotrotz braucht das Fedpol mehr Mittel. Die Sicherheitslage eskaliert generell. Wir haben einen Krieg in Europa, darauf muss ich ja wohl nicht weiter eingehen. Die Eidgenössische Finanzkontrolle kam klar zum Schluss, dass die personellen Ressourcen in den Bereichen Terrorismus, organisierte Kriminalität, Wirtschaftskriminalität und Cyberkriminalität nicht ausreichen. Das führt dazu, dass Strafverfahren verzögert oder gar nicht eröffnet werden, und unter diesen Umständen verstehe ich eine Kürzung wirklich nicht. Das hat massive Auswirkungen auf die innere Sicherheit, und dass diese geschützt werden muss, steht klar in Artikel 2 der Bundesverfassung, dem Zweckartikel.
-Als Präsidentin der Subkommission Gerichte/BA habe ich mir die Problematik vom Bundesanwalt und von der Aufsichtsbehörde über die Bundesanwaltschaft eingehend schildern lassen; Kollege Zopfi hat mich darauf angesprochen. Ebenso haben wir die Probleme in der Sicherheitspolitischen Kommission analysiert.
-Ich erachte eine Erhöhung der Mittel aufgrund der allgemein eskalierenden sicherheitspolitischen Lage für mehr als gerechtfertigt. Es ist eine Zeitfrage. Die Zeit läuft uns davon, was die Finanzierung der Armee und die Verteidigungsfähigkeit betrifft, und das ist sträflich. Die Zeit läuft uns aber auch davon, was die innere Sicherheit betrifft, und diese beiden Anliegen sind miteinander verzahnt. Wir können in solch eskalierenden Zeiten nicht zu einer internationalen Drehscheibe werden.
-Deshalb werde ich die Minderheit II (Zopfi) unterstützen. [PAGE 1113] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">365066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zopfi Mathias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Antrag meiner Minderheit II dürfte vielen von Ihnen bekannt vorkommen. Diejenigen von Ihnen, die in der GPK sind, haben sich damit schon beschäftigt, und diejenigen von Ihnen, die in der SiK sind, haben sich auch bereits mit dieser Problematik beschäftigt. Die Minderheit II will mit ihrem Konzept, das sich dann auch im Finanzplan niederschlägt, jährlich zehn bis zwanzig Stellen beim Fedpol aufbauen, insbesondere im Bereich der Bundeskriminalpolizei. 
-Ich habe Ihnen gesagt, dass sich viele vo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Antrag meiner Minderheit II dürfte vielen von Ihnen bekannt vorkommen. Diejenigen von Ihnen, die in der GPK sind, haben sich damit schon beschäftigt, und diejenigen von Ihnen, die in der SiK sind, haben sich auch bereits mit dieser Problematik beschäftigt. Die Minderheit II will mit ihrem Konzept, das sich dann auch im Finanzplan niederschlägt, jährlich zehn bis zwanzig Stellen beim Fedpol aufbauen, insbesondere im Bereich der Bundeskriminalpolizei. 
-Ich habe Ihnen gesagt, dass sich viele von Ihnen bereits damit auseinandergesetzt haben. Ich sage nur so viel: Bei der Anhörung in der Kommission und an verschiedenen anderen Orten hörte ich immer wieder, dass wir uns in Richtung von Ländern mit sehr hoher organisierter Kriminalität bewegen. Ich nenne ein Land, das ein enormes Problem hat. Sie denken vielleicht an Italien, Sie denken vielleicht an Albanien. Nein, ich nenne Schweden als Beispiel. Schweden ist heute im Bereich der organisierten Kriminalität absolut problematisch unterwegs. Wenn ich höre, dass wir auch in der Schweiz in diese Richtung unterwegs sind und es sich um Jahre, vielleicht sogar nur um Monate handelt, bis sich solche Entwicklungen auch bei uns ergeben, dann lässt mich das aufhorchen. 
-Ich höre, dass wir vierzig Fälle nicht behandeln können, weil die Ressourcen bei der Bundeskriminalpolizei schlicht und einfach fehlen. Das lässt mich aufhorchen. Bei diesen vierzig Fällen handelt es sich nicht etwa um Bagatellfälle. Es sind Fälle organisierter Kriminalität, das müssen Sie einfach sehen. Es geht nicht um ein gestohlenes Portemonnaie oder so etwas. 
-Letztlich geht es darum, dass das Fedpol eine wichtige Aufgabe für die Sicherheit unseres Landes übernimmt, insbesondere, um unser Land vor organisierter Kriminalität zu bewahren oder möglichst gut zu schützen. Dass es dabei auch um Terrorismus und um Terrorismusfinanzierung usw. geht, wissen Sie bereits. 
-Vor Kurzem habe ich ein sehr interessantes Interview mit einem Spezialisten gelesen. Ich weiss nicht mehr, ob es in der "NZZ" oder im "Tages-Anzeiger" war. Er hat bestätigt, dass sich die organisierte Kriminalität, die wir vielleicht immer noch in Süditalien vermuten, in ganz Europa massiv ausgebreitet hat. Wir haben heute an vielen Orten Zustände, die nichts mehr mit einer heilen Welt zu tun haben oder mit Aussagen wie "Bei uns ist es ja nicht so schlimm" erklärt werden können. 
-Ich sage Ihnen das, und Sie hören mir einigermassen aufmerksam zu. Aber ich kann Ihnen sagen: Nicht nur ich sage Ihnen das. Ich habe bereits erwähnt, dass diejenigen von Ihnen, die in der GPK sind, sich damit auseinandergesetzt haben. Die GPK hat ein Schreiben an die Finanzkommission verfasst. Ich zitiere daraus nur einen Satz: "Auch die GPK kommt ebenfalls zum Schluss, dass die personellen Ressourcen der BKP rasch erhöht werden müssen." Die GPK, die sich mit der Sache auseinandergesetzt hat, ist offenbar zum Schluss gekommen, dass wir rasch etwas tun müssen. Auch in der generellen Stellungnahme der Bundesanwaltschaft steht zum Beispiel: "Der Mangel an Ermittlerressourcen bei der BKP ist eine allseits unbestrittene Erkenntnis." 
-Und was sagt die Eidgenössische Finanzkontrolle? Sie ist ihres Zeichens nicht unbedingt dafür bekannt, ausufernde Stellenbegehren gutzuheissen oder den Ausbau des Staates zu forcieren. Vielmehr nimmt sie auch für die Finanzkommission die Rolle ein, genau hinzuschauen und eher kritisch zu sein. Auch die EFK kommt in ihrem Bericht zum Schluss, dass es beim Fedpol neben Effizienzmassnahmen - die notabene vom Fedpol schon teilweise umgesetzt werden; deren Potenzial wurde bestätigt - mehr Ressourcen für die Ermittlung braucht. Die EFK sieht das also genau gleich. [PAGE 1112] 
-Zuletzt spreche ich noch diejenigen von Ihnen an, die in der SiK sitzen. Sie haben ohne Gegenstimme und mit klarer Mehrheit eine Motion beschlossen. Diese wird am 11.[NB]Dezember 2025 in diesem Rat behandelt. Die Motion fordert eigentlich nichts anderes als das, was meine Minderheit[NB]II ebenfalls fordert. Wir können schon noch zuwarten, oder wir können heute irgendwas entscheiden. Am 11.[NB]Dezember kann uns dann die Berichterstatterin - es ist die ehemalige Präsidentin der SiK, Kollegin Andrea Gmür-Schönenberger - erläutern, weshalb es wichtig ist, dass wir diese Motion wie die SiK möglichst ohne Gegenstimme annehmen. Aber dann ist es mit dem Voranschlag schon gelaufen, dann haben wir dieses Thema hier schon behandelt. Sie merken es, ich spreche die Mitglieder der SiK an, und ich habe es ihnen bereits gesagt: Die Musik spielt beim Voranschlag, die Musik spielt genau jetzt. 
-Natürlich ist es wichtig, dass wir die Finanzen im Griff behalten. Da stimme ich meinem Vorredner zu. Es ist wichtig, dass wir nicht einfach ausufernde Stellenbegehren gutheissen, nur weil ein bisschen Druck gemacht wird. Aber hier haben wir es mit einem Problem zu tun. Sie haben es von allen Seiten gehört.
-Jetzt könnten Sie, wenn Sie den Entwurf des Bundesrates und den Antrag der Minderheit I anschauen, zur Auffassung kommen, dass der Bundesrat ja bereits etwas unternimmt, denn die Minderheit I (Mühlemann) will hier kürzen. Dazu müssen Sie aber berücksichtigen: Diese 51 Stellen, die gemäss Antrag des Bundesrates geschaffen werden sollen, dienen nicht dem Aufbau der Bundeskriminalpolizei, um dieser erhöhten Bedrohungs- und Sicherheitslage Herr zu werden. Sondern 44 dieser 51 Stellen werden benötigt, um Projekte, die wir bewilligt haben - zum Beispiel die Schengen-Weiterentwicklungen, die Weiterentwicklung des automatisierten Fingerabdrucksystems usw. -, umzusetzen. Mit dem Antrag des Bundesrates setzen Sie also gerade einmal das um, was wir beschlossen haben, Sie schaffen aber keine zusätzlichen Ressourcen bei der Bundeskriminalpolizei für die Themen, die ich soeben erwähnt habe. Die übrigen 7 dieser 51 Stellen werden benötigt, um am Verwaltungszentrum Guisanplatz, wo ein neues Gebäude in Betrieb genommen worden ist, die Loge zu betreiben. Das wird dann vom VBS wieder rückerstattet und ist in dem Sinn also kostenneutral. Aber Sie werden sich auch vorstellen können, dass die 7[NB]Personen,[NB]die[NB]die[NB]Loge[NB]betreiben, nicht unbedingt der Bundeskriminalpolizei zur Bekämpfung der organisierten Kriminalität ausserhalb des Sichtradius der Loge zur Verfügung stehen. 
-Damit will ich Ihnen sagen: Die Variante Bundesrat bedeutet im Bereich der Bundeskriminalpolizei überhaupt keine Aufstockung, sondern Bewahrung des Status quo. Wenn Sie berücksichtigen wollen, was Ihnen die GPK, die SiK und alle anderen empfehlen, dann müssen Sie hier mit der Minderheit II stimmen. 
-Wenn Sie mit der Minderheit I stimmen, wovon ich Ihnen trotz klarer Sympathie natürlich wärmstens abrate, dann werden Sie die zusätzlichen Stellen, die für die Umsetzung dieser Projekte notwendig sind, beim laufenden Betrieb bei der Bundeskriminalpolizei und an anderen Orten kompensieren müssen, was dazu führt, dass im Resultat sogar weniger Ressourcen zur Verfügung stehen werden, um der genannten Herausforderungen Herr zu werden. 
-Wenn man jetzt die Zahl der Meldungen ins Spiel bringt und sagt, es werde halt zu viel gemeldet, dann kommt mir das folgendermassen vor: Es gibt eine Sicherheitslage, in der sich die Kriminalität erhöht, in der die Leute nach mehr Polizei rufen und in der das Sicherheitsgefühl sinkt. Sie sehen, dass es ein Problem gibt, aber anstatt mehr Polizei anzustellen, sagen Sie zu den Menschen: Gebt halt weniger Strafanzeigen auf, dann haben wir das Problem gelöst. So schaffen Sie einfach eine Dunkelziffer, ein Dunkelfeld. 
-Ich sage damit nicht, dass der Effekt, den Kollege Mühlemann beschrieben hat, nicht ein Stück weit eintreten kann. Aber die Tatsache ist, dass wir es hier mit organisierter Kriminalität zu tun haben, und daher ist es wichtig, dass wir nicht in die Vogel-Strauss-Politik verfallen und sagen: Gebt halt weniger Anzeigen auf, ihr macht zu viele Anzeigen; wenn wir weniger davon wissen, dann wird es weniger schlimm sein. Das wäre das Prinzip "Augen zu und durch", und dazu rate ich Ihnen im Namen unserer Sicherheit nicht.
-Ich bitte Sie deshalb, mit der Minderheit II zu stimmen und zu berücksichtigen, was bereits die GPK, die SiK und viele andere empfehlen und empfohlen haben, und hier entsprechend konsequent zu sein. Dann können Sie am 11.[NB]Dezember auch der erwähnten Motion zustimmen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">365070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hegglin Peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenn man Kollege Zopfi zuhört, könnte man meinen, wir hätten in den vergangenen Jahren zu wenig oder nichts getan. Das stimmt einfach nicht. Betrachten Sie die Personalstellen beim Fedpol: Im Jahr 2019 lag der Personalbestand bei 899 Vollzeitstellen. Im Jahr 2026 soll er auf 1060 Stellen aufgestockt werden. Im Jahr 2026 sollen im Vergleich zum Vorjahr 63 Stellen hinzukommen. Die Frage ist, wo sie eingesetzt werden. Aber wir beschliessen ja über das Gesamtbudget. Der Bundesrat hat die Verantwortu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenn man Kollege Zopfi zuhört, könnte man meinen, wir hätten in den vergangenen Jahren zu wenig oder nichts getan. Das stimmt einfach nicht. Betrachten Sie die Personalstellen beim Fedpol: Im Jahr 2019 lag der Personalbestand bei 899 Vollzeitstellen. Im Jahr 2026 soll er auf 1060 Stellen aufgestockt werden. Im Jahr 2026 sollen im Vergleich zum Vorjahr 63 Stellen hinzukommen. Die Frage ist, wo sie eingesetzt werden. Aber wir beschliessen ja über das Gesamtbudget. Der Bundesrat hat die Verantwortung und die Aufgabe, die zur Verfügung gestellten Mittel sachgerecht einzusetzen.
-Ich habe gesagt, dass 63 zusätzliche Stellen vorgesehen sind - das entspricht einem Wachstum von 6,3 Prozent. Das ist ein sehr viel stärkeres Wachstum als in der übrigen Bundesverwaltung. Über den Zeithorizont von 2019 bis 2026 lag das Personalwachstum beim Fedpol bei 2,9 Prozent im Jahr, also bei fast 3 Prozent. In der Bundesverwaltung lag es im gleichen Zeitraum bei 0,8 Prozent im Jahr. Das Fedpol wächst also im Vergleich zur übrigen Bundesverwaltung überdurchschnittlich. Von daher kommen wir den Empfehlungen der EFK nach, und wir kommen mit dem Antrag der Mehrheit Ihrer Finanzkommission auch dem Anliegen und[NB]dem[NB]Auftrag in diesem Sektor nach. Denn die Sicherheit und die Bekämpfung der kriminellen Organisationen sind wichtig.
-Ich empfehle Ihnen also, der Mehrheit Ihrer Kommission zu folgen und damit, wie gesagt, den Rahmen dafür zu schaffen, dass 63 zusätzliche Stellen geschaffen werden können.
+    <t xml:space="preserve">365786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20251208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundesrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keller-Sutter Karin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufgrund eines Einstellungsfehlers in der Veranlagungssoftware konnte die kantonale Steuerverwaltung Genf für rund 60 Unternehmen, die in den vorangegangenen Steuerperioden noch nicht definitiv veranlagt worden waren, keine provisorischen Rechnungen gemäss Artikel 162 des Bundesgesetzes über die direkte Bundessteuer ausstellen. Dieser technische Fehler konnte mittlerweile behoben werden, sodass nun ordnungsgemäss provisorische Rechnungen ausgestellt werden können.
+Der Gesetzgeber hat die Finanza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aufgrund eines Einstellungsfehlers in der Veranlagungssoftware konnte die kantonale Steuerverwaltung Genf für rund 60 Unternehmen, die in den vorangegangenen Steuerperioden noch nicht definitiv veranlagt worden waren, keine provisorischen Rechnungen gemäss Artikel 162 des Bundesgesetzes über die direkte Bundessteuer ausstellen. Dieser technische Fehler konnte mittlerweile behoben werden, sodass nun ordnungsgemäss provisorische Rechnungen ausgestellt werden können.
+Der Gesetzgeber hat die Finanzaufsicht über die direkte Bundessteuer den 26 kantonalen Finanzkontrollen übertragen. Sie sind gehalten, jährlich die Ordnungs- und Rechtmässigkeit der Erhebung der direkten Bundessteuer und der Ablieferung des Bundesanteils zu prüfen und der Eidgenössischen Steuerverwaltung sowie der Eidgenössischen Finanzkontrolle darüber Bericht zu erstatten. Als Oberaufsicht hat die Eidgenössische Steuerverwaltung hierzu eine Richtlinie sowie ein verbindliches Prüfraster zuhanden der kantonalen Finanzkontrollen erlassen. Der erwähnte Softwarefehler wurde von der kantonalen Finanzkontrolle nicht festgestellt. Die Eidgenössische Steuerverwaltung ist derzeit daran, die Zusammenarbeit mit den kantonalen Finanzkontrollen zu intensivieren, und prüft übergeordnet, gemeinsam mit der Eidgenössischen Finanzverwaltung, weitergehende Massnahmen im Bereich der Rechnungsstellung für die direkte Bundessteuer. 
+Was die finanziellen Auswirkungen anbelangt, so steht der sogenannte Vergütungszins im Vordergrund. Dieser ist geschuldet, wenn Steuerpflichtige höhere Vorauszahlungen machen, als ihnen in Rechnung gestellt wurden. In welchem Ausmass dies tatsächlich erfolgte, kann erst bei der Erstellung der definitiven Veranlagung berechnet werden. Zu berücksichtigen ist jedoch, dass der Zinssatz für die Vergütungen tief ist: Für die primär betroffenen Kalenderjahre 2019 bis 2023 lag er bei 0,00 Prozent, für 2024 bei 1,25 Prozent und für 2025 bei 0,75 Prozent.
 </t>
   </si>
   <si>
     <t xml:space="preserve">366164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20251208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundesrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keller-Sutter Karin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SG</t>
   </si>
   <si>
     <t xml:space="preserve">Ich äussere mich zu ausgewählten Minderheiten, da wir ja auch mit der Zeit etwas sorgsam umgehen sollten. Ich beginne beim Staatssekretariat für Migration (SEM) mit dem Ziel "Erfüllung der Qualitätsstandards im Bereich Unterbringung"; der Bundesrat ist hier einverstanden.
@@ -697,45 +734,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">366073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conseil national</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolet Jacques</t>
+    <t xml:space="preserve">365999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nationalrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürgi Roman</t>
   </si>
   <si>
     <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ce deuxième bloc traite de la sécurité, de la justice et de la migration. Treize propositions vous sont soumises. Je vais traiter les premières et Peter Schilliger commentera les dernières.
-Concernant le DFJP, dans l'unité administrative 402, l'Office fédéral de la justice, à la position "Valeurs patrimoniales confisquées", à la page A11 du dépliant, il s'agit de valeurs qui peuvent être confisquées à des bandes criminelles organisées. Tenant compte du résultat des comptes 2024 et du fait de l'a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ce deuxième bloc traite de la sécurité, de la justice et de la migration. Treize propositions vous sont soumises. Je vais traiter les premières et Peter Schilliger commentera les dernières.
-Concernant le DFJP, dans l'unité administrative 402, l'Office fédéral de la justice, à la position "Valeurs patrimoniales confisquées", à la page A11 du dépliant, il s'agit de valeurs qui peuvent être confisquées à des bandes criminelles organisées. Tenant compte du résultat des comptes 2024 et du fait de l'augmentation des effectifs de l'Office fédéral de la police, Fedpol, la majorité de la commission propose de majorer de 12,8 millions de francs les valeurs patrimoniales confisquées afin de les porter à 100 millions. Une minorité Farinelli propose d'en rester au montant de 87 millions, comme le prévoit le Conseil fédéral, jugé plus réaliste. Cette proposition vaut également pour le plan financier 2027-2029. Par 13 voix contre 11 et 0 abstention, la Commission des finances vous demande de suivre la proposition de la majorité, à 100 millions.
-Toujours à la page A11, à la position "Subventions de construction pour la détention administrative", le Conseil des États a décidé, par 40 voix contre 2 et 1 abstention, d'une coupe de 10 millions de francs. Il s'agit d'une réduction de 10 millions pour le centre de détention administrative en vue d'expulsion de l'aéroport de Zurich. Ces contributions méritent d'être réexaminées sous l'angle de leur nécessité et de leur envergure, et, pour l'heure, en attendant des éclaircissements, par 15 voix contre 10, la commission vous demande de suivre la position du Conseil des États, soit une coupe de 10 millions. La minorité Fehlmann Rielle demande d'en rester au montant proposé par le Conseil fédéral.
-Pour l'unité administrative 403, Fedpol, à la page A11, à la position "Charges de fonctionnement", une minorité Bürgi Roman propose d'en rester au montant de 294,5 millions de francs, comme le propose le Conseil fédéral. La question du nombre de postes pour Fedpol en général, et à la police judiciaire plus particulièrement, n'est pas nouvelle. Tant l'examen des ressources de Fedpol que le rapport du Contrôle fédéral des finances l'attestent. Bien que plus de 50 postes soient prévus, 15 autres postes doivent être supprimés dans le cadre des mesures d'allégement 2027. Cette proposition vaut également pour le plan financier 2027-2029. La commission, par 16 voix contre 8 et 0 abstention, propose de majorer de 1,8 million les moyens pour Fedpol.
-Pour l'unité administrative 420, le Secrétariat d'État aux migrations (SEM), à la page A11, dans le domaine des dépenses courantes, estimant qu'il faut impérativement faire des économies dans le domaine migratoire, une minorité Sollberger propose de réduire de 600 millions de francs cette position budgétaire pour la ramener à 3,36 milliards. La commission, par 16 voix contre 8 et 0 abstention, estime qu'il n'est pas adéquat de faire une demande de coupe et propose d'en rester au montant de 3,96 milliards demandé par le Conseil fédéral.
-Toujours pour le SEM, à la page A12, dans le domaine de l'aide sociale pour les requérants admis à titre provisoire comme réfugiés, le Conseil fédéral a porté au budget un montant de 2,089 milliards de francs ainsi que de 600 millions dans la contribution aux cantons pour l'Ukraine. La majorité de notre commission propose un transfert comptable de 130 millions, qui seraient prélevés dans la contribution aux cantons pour l'Ukraine, dans les dépenses extraordinaires, pour les réaffecter aux dépenses ordinaires dans le domaine de l'aide sociale pour les requérants d'asile admis à titre provisoire. Cela permettra de soulager de 130 millions les dépenses extraordinaires. Dans le même temps, la majorité propose de diminuer de 130 millions aussi les indemnités versées aux cantons au titre de l'aide sociale dans le domaine de la migration, cela en raison des prévisions à la baisse concernant les demandes d'asile en 2026. Cette proposition a été soutenue par 14 voix contre 11. La minorité Funiciello souhaite en rester aux propositions initiales du Conseil fédéral, soit renoncer au transfert de 130 millions et maintenir 2,089 milliards en dépenses ordinaires et 600 millions en dépenses extraordinaires. Cette proposition a été refusée par 14 voix contre[NB]11.
-La minorité II (Sollberger) souhaite rapatrier les 600 millions de francs de la contribution des cantons à l'Ukraine dans l'aide sociale pour les personnes admises à titre provisoire, portant cette position à 2,69 milliards de francs, cela afin que l'ensemble des dépenses soient comptabilisées dans les dépenses ordinaires.
-Estimant qu'il y a un risque important que la Confédération doive tout de même indemniser obligatoirement les cantons, cette proposition a été rejetée, par 15 voix contre 8 et 1 abstention.
-À la page C2, s'agissant des objectifs et de la valeur-cible du Secrétariat d'État aux migrations, la commission, sans avis contraire, propose, en ce qui concerne les procédures d'asile, de porter les objectifs en matière de respect des normes de qualité dans le domaine de l'hébergement à 95 pour cent, contre 90 pour cent pour le Conseil fédéral.
-S'agissant des indicateurs relatifs aux demandes pendantes en première instance depuis plus d'un an, la minorité Kälin a été retirée.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">365999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationalrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgi Roman</t>
   </si>
   <si>
     <t xml:space="preserve">SZ</t>
@@ -758,6 +766,9 @@
   </si>
   <si>
     <t xml:space="preserve">Andrey Gerhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
   </si>
   <si>
     <t xml:space="preserve">Ja, dieser wichtige EFK-Bericht ist der Finanzkommission natürlich bekannt. Ich würde Ihnen antworten: das eine tun, das andere nicht lassen. Ich bin mit Ihnen natürlich völlig einig, dass die Ressourcen möglichst effizient eingesetzt werden müssen. Aber wenn man genau hinschaut, auch bei den anderen Staatsebenen, sieht man, dass es sich tatsächlich um ein substanzielles Ressourcenproblem handelt. Entsprechend helfen wir da mit.
@@ -829,6 +840,9 @@
   </si>
   <si>
     <t xml:space="preserve">367062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conseil des Etats</t>
   </si>
   <si>
     <t xml:space="preserve">Juillard Charles</t>
@@ -944,6 +958,9 @@
   </si>
   <si>
     <t xml:space="preserve">Parmelin Guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VD</t>
   </si>
   <si>
     <t xml:space="preserve">Les temps actuels sont caractérisés par une forte incertitude et de grands défis, surtout sur le plan international, avec les tensions géopolitiques, la politique commerciale des États-Unis, des actualités comme l'imposition minimale de l'OCDE et j'en oublie. La réduction des droits de douane américains est un élément important, mais la situation va rester volatile. Avec toutes les actualités internationales, il est essentiel de ne pas perdre le focus sur notre pays, notre économie, nos travaill</t>
@@ -1006,10 +1023,42 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">367979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20251217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rösti Albert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich möchte einleitend klar festhalten, dass der Bundesrat und auch ich persönlich zur Dekarbonisierung und zum Fahrplan, den unser Volk verabschiedet hat, stehen. Da besteht kein Zweifel. Ich erinnere aber gleichzeitig daran, dass wir diese Debatte - und ich danke dafür, dass wir sie führen können, es ist eine wichtige Debatte - rund einen Monat nach der Klimakonferenz in Belém abhalten. In Belém ist es nicht gelungen, international mindestens einen Fahrplan, eine Roadmap mit verbindlichen Punkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich möchte einleitend klar festhalten, dass der Bundesrat und auch ich persönlich zur Dekarbonisierung und zum Fahrplan, den unser Volk verabschiedet hat, stehen. Da besteht kein Zweifel. Ich erinnere aber gleichzeitig daran, dass wir diese Debatte - und ich danke dafür, dass wir sie führen können, es ist eine wichtige Debatte - rund einen Monat nach der Klimakonferenz in Belém abhalten. In Belém ist es nicht gelungen, international mindestens einen Fahrplan, eine Roadmap mit verbindlichen Punkten, wo wann was zu geschehen hat, aufzustellen; es ist nicht gelungen, auch nur zu sagen, dass sich die Länder für eine Roadmap entscheiden und eine solche aufstellen sollen. Die wichtigsten Produzenten von fossiler Energie, die grossen Mächte China, USA, Indien und Saudi-Arabien, waren nicht bereit, in diese Richtung zu gehen. Das muss man wissen. Unsere Debatte hier findet auch einen Tag nachdem die Europäische Union das Verbrennerverbot rückgängig gemacht hat, statt.
+Wir müssen einfach auch vom Umfeld sprechen. Denn eines möchte ich am Anfang in aller Klarheit sagen: Wir stehen zur Dekarbonisierung. Aber sie bringt der Schweiz nur etwas, wenn sie weltweit geschieht. Sie wissen es alle haargenau: Die Schweiz alleine wird das Klima nicht ändern, kein Jota ändern. Deshalb bin ich jetzt schon erstaunt, wenn man hier hört, dass sich der Bundesrat weigere, Verantwortung zu übernehmen.
+Ihre Initiative für den Klimaschutz, die 0,5 bis 1 Prozent des Bruttoinlandproduktes für Klimamassnahmen verwenden will, bedeutet, dass der Bund die Verantwortung alleine übernehmen und jährlich 3,5 bis über 7 Milliarden Franken für den Klimaschutz einsetzen soll. Es ist absolut legitim, das zu fordern. Aber jetzt sage ich Ihnen, was wir heute machen, auch wenn Sie es als fehlende Verantwortung quantifizieren oder darstellen: Der Bund bezahlt jährlich, das wurde von Ihnen entschieden, 2 Milliarden Franken für die Dekarbonisierung und den Klimaschutz. Dazu kommen 600 Millionen Franken für die Biodiversität und noch 800 Millionen Franken für den internationalen Klimaschutz. Das heisst, die Schweiz, die gemäss Ihren Voten und den Interpellationen offenbar nichts tut, investiert bereits heute jährlich 3,4 Milliarden Franken, dies kombiniert mit Anreizmassnahmen, mit Abbaupfaden, mit Sanktionen für die Autohersteller, mit einem Emissionshandelssystem. Es ist eine Kombination verschiedener Massnahmen. Es wird nicht einfach nur der Bund in die Verantwortung gestellt. Ich kann durchaus nachvollziehen, dass man das in der Debatte so bringt, aber ich möchte es schon klar zurückweisen, dass der Bundesrat die Verantwortung verweigert. 
+Wir haben die Interpellationen entsprechend beantwortet. Ich danke Ihnen für die entsprechenden Fragen und werde mich gesamthaft dazu äussern, weil wir nicht allzu viel Zeit haben. 
+Zur Interpellation der Fraktionen der SP und der Grünen: Die Klimaszenarien zeigen, dass die Schweiz vom Klimawandel betroffen ist, das ist unbestritten. Die Szenarien verdeutlichen die Notwendigkeit globaler - nochmals: globaler - Anstrengungen zur Verminderung der Treibhausgasemissionen und auch der Anpassung der Klimamassnahmen. Die Klimaszenarien bilden auch für den Bundesrat die Grundlage für seine Strategie zur Dekarbonisierung und zur Anpassung an den Klimawandel. 
+Der Bundesrat anerkennt den Investitionsbedarf; vorhin habe ich bereits die jährlichen Investitionen erwähnt. In den letzten Jahren haben Sie mit wichtigen Gesetzesvorlagen - dafür danke ich - klare Vorgaben gemacht. Anfang dieses Jahres haben wir vier Vorlagen unverzüglich durch Verordnungen in Kraft gesetzt: das Klima- und Innovationsgesetz, das revidierte CO2-Gesetz für die Periode 2025-2030, das Bundesgesetz über eine sichere Stromversorgung mit erneuerbaren Energien sowie das Umweltschutzgesetz zur Stärkung der Kreislaufmassnahmen. Bei Letzterem sind zwar noch einige Punkte nicht vollständig umgesetzt, doch wir sind daran, sie anzugehen. Es sind also vier Gesetze, die Sie in Kraft gesetzt haben und die der Bundesrat unverzüglich mit Verordnungen umsetzt, ebenso wie Investitionen in der Höhe von jährlich 3,4 Milliarden Franken in den Klimaschutz und die Erneuerung unseres Energiesystems. Und Sie sagen, der Bundesrat verweigere hier die Verantwortung? Mit Verlaub, das kann ich so einfach nicht stehenlassen.
+Nochmals zur Erinnerung: Heute stellt der Bund jährlich 2 Milliarden Franken für den Klimaschutz und den Umbau des Energiesystems bereit. Diese Zahl berücksichtigt bereits die Kürzungen infolge des Entlastungspaketes. Sie werden über die rund 400 Millionen Franken diskutieren und demokratisch entscheiden, die wir als Gegenpart einsparen wollen. Wenn Sie diese 400 Millionen Franken nicht einsparen, liegen wir nicht bei 3,4 Milliarden, sondern bei 3,8 Milliarden Franken. Dieser Betrag ist also bereits eingerechnet. 
+Ehrlich gesagt bin ich mir nicht sicher, ob die Schweiz ihre Klimaziele bis 2030 erreichen kann. Es braucht zusätzliche Investitionen, und diese fallen in ein finanzpolitisches Umfeld, das es uns nicht leichtmacht, angesichts der Bedürfnisse in der Armee und im Sozialbereich. Der Bundesrat wird diesbezüglich am Ball bleiben, alles analysieren und sich 2027 dazu äussern, wo wir stehen. Ich meine, heute, ein Jahr nach Inkrafttreten des revidierten CO2-Gesetzes, ist es noch zu früh, um über die Zielerreichung zu sprechen.
+Das Klima- und Innovationsgesetz verpflichtet den Bundesrat, dem Parlament rechtzeitig Vorschläge zur Weiterentwicklung der Klimapolitik vorzulegen. Das Parlament behält jederzeit die Kompetenz, hier auch zu intervenieren. Zur Weiterentwicklung der Klimapolitik hat der Bundesrat denn auch verzugslos gehandelt. Am 12.[NB]September dieses Jahres haben wir zwei Aussprachen geführt. Zum einen haben wir über die Revision des CO2-Gesetzes ab 2031 bis 2040 diskutiert und bereits Eckwerte festgehalten, die dann in eine Vernehmlassung auf Mitte nächstes Jahr einfliessen, bei der Sie Stellung nehmen können, sodass wir Ihnen 2027 auch rechtzeitig eine Botschaft werden vorlegen können. Dann werden wir sicher auch Bilanz ziehen, wo wir stehen. Zukünftig sollen gemäss diesen Eckwerten CO2-Emissionen aus Gebäuden und aus dem Verkehr respektive Brenn- und Treibstoffe in ein neues Emissionshandelssystem eingebunden werden. Dadurch können gemäss unseren Überlegungen deutlich mehr Mittel generiert werden, ohne Steuern zu erhöhen. Mehr Mittel können natürlich aus den heute bestehenden Abgaben generiert werden, indem man diese dann auch effektiv für Klimamassnahmen einsetzen kann. Der Bundesrat anerkennt das und will auf diesem Pfad weitergehen. Die Einnahmen sollen, wie gesagt, zur Dekarbonisierung in den bekannten Sektoren Gebäude, Verkehr und Industrie eingesetzt werden. Wir sind als UVEK jetzt beauftragt, für den Bundesrat bis [PAGE 2390] spätestens Sommer 2026 eine Vernehmlassungsvorlage vorzulegen.
+Ich habe vorhin die globale Situation angesprochen, und die ist wirklich schwierig und aktuell in einigen Bereichen blockiert. Deshalb bin ich dankbar, dass Frau Nationalrätin Wismer eine Interpellation zu den Anpassungsmassnahmen eingereicht hat. Es ist so: Wir brauchen zusätzliche Anpassungsmassnahmen, wir kommen nicht darum herum. Auch wenn das 1,5-Grad-Ziel erreicht wird, braucht es Anpassungsmassnahmen. Wenn es nicht erreicht wird, braucht es entsprechend mehr Anpassungsmassnahmen.
+Aber bereits heute setzen Bund, Kantone und Gemeinden jährlich 600 Millionen Franken ein. Wir stellen fest, dass diese Summe aktuell ausreicht. Mit diesen Mitteln wollen wir in Zukunft mehr erreichen, indem sie risikobasiert eingesetzt werden. Indem wir eine risikobasierte, bessere Planung machen, über die Raumplanung die Risiken auch abschwächen, wollen wir den einzelnen Franken also effizienter einsetzen. Das haben Sie letztes Jahr mit der Änderung des Wasserbaugesetzes so entschieden. Die Kantone sind zudem seit dem 1.[NB]August dieses Jahres verpflichtet, bei der Gefahrenbeurteilung und Massnahmenplanung den Klimawandel zu berücksichtigen. Gemeinsam mit dem Bund setzen die Kantone auch die nationale Strategie zur Anpassung an den Klimawandel um. Diese wird derzeit aktualisiert. 
+Zudem wurden in der Herbstsession das Postulat Wandfluh 25.3489, "Naturgefahren. Kriterien für eine differenzierte Nutzung von Gefahrengebieten", und das Postulat 25.3669 der FDP-Liberalen Fraktion, "Überprüfung und allfällige Ergänzung der gesetzlichen Grundlagen für eine rasche Katastrophenhilfe des Bundes", angenommen. Wir werden diese Postulate detailliert beantworten, dazu Bericht erstatten und daraus allfällige Schlussfolgerungen ziehen, ob es im Anpassungsbereich zusätzliche Massnahmen braucht. 
+Der Bundesrat nimmt die Erkenntnisse aus den Klimaszenarien ernst. Sie verdeutlichen den Handlungsbedarf bei der Verminderung der Treibhausgasemissionen und der Anpassung an den Klimawandel. 
+Ich möchte nun nochmals auf das Sparprogramm eingehen und erklären, weshalb die Massnahmen, die wir vorgesehen haben, für den Bundesrat und für mich verantwortbar und durchaus kohärent zum jetzt von mir Gesagten sind. Im Bericht Gaillard wurde vorgeschlagen, die 400 Millionen Franken, über die vom Volk in der Abstimmung über das Klima- und Innovationsgesetz entschieden wurde, einzusparen. Der Bundesrat hat schliesslich gesagt: Wir wollen das nicht einsparen, wir brauchen diese Mittel für den Ölheizungsersatz in Mehrparteiengebäuden, und wir brauchen sie für Innovationen. Und hier ist für mich eben die internationale Komponente sehr wichtig: dass wir mit Innovationen nicht nur in der Schweiz zur Dekarbonisierung beitragen, sondern auch international. 
+Ich war aber gezwungen, im Gegenzug zu sagen, wo wir stattdessen sparen, denn jeder Bereich musste einen Beitrag leisten. Was haben wir also genommen? Wir haben den Gebäudebereich genommen, da das Gebäudeprogramm schon sehr lange läuft und alle, die rasch ihre Heizung umstellen wollten, die Subventionen und Unterstützung längst abgeholt haben. Und bei jenen, die nicht "first movers" waren, die das noch nicht gemacht haben, kommt genau der Mitnahmeeffekt ins Spiel: Sie machen den Ersatz auch, aber erst dann, wenn ihre Heizung abgeschrieben ist; dann nehmen sie einfach die Subvention, aber das ist ohne Wirkung, weil sie die Heizung sowieso ersetzen müssen. Das ist der Mitnahmeeffekt. Wir haben in einem Bericht der Eidgenössischen Finanzkontrolle und in verschiedenen Studien gesehen, wie gross dieser Mitnahmeeffekt in etwa ist: Je nach Studie - es ist schwierig zu berechnen - sind es 40 bis 70 Prozent. Sie wollen doch nicht, dass der Bund Leuten Geld sozusagen schenkt, die es einfach nehmen, weil es der Bund anbietet, die aber ihre Heizung ohnehin umstellen würden. Das einfach zu den Sparmassnahmen. 
+Es wurden auch die 200 Millionen Franken Einsparung beim Bahninfrastrukturfonds erwähnt. Sie haben dazu bereits eine Motion angenommen, damit hier in Zukunft, ab 2029, wieder mehr Geld zur Verfügung steht. Wenn wir die Finanzierung mit dem Mehrwertsteuerpromille weiterführen, sind es 400 Millionen Franken, die jährlich dazukommen. Ich habe das ausgeführt, um einfach etwas die Relationen hier in diesem Bereich aufzuzeigen.
+Ich danke Ihnen für die Debatte und dafür, dass ich die Haltung des Bundesrates hier transparent darstellen durfte.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">368245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20251217</t>
   </si>
   <si>
     <t xml:space="preserve">Das ist ein bisschen ein Streit um des Kaisers Bart. Der Präsident der Finanzkommission hat es gesagt: Es geht um ein Rahmengesetz. An sich wollte der Bundesrat im Gesetz klarer festhalten, dass die Empfänger von Finanzhilfen ihre Aufgaben soweit möglich selbst finanzieren; das war auch immer ein Wunsch der Eidgenössischen Finanzkontrolle (EFK). Der Herr Präsident hat es gesagt: Es kamen dann Ängste aus dem Kultur- und dem Umweltbereich, dass durchgehend nur noch 50 Prozent Subventionen ausbezah</t>
@@ -1017,6 +1066,23 @@
   <si>
     <t xml:space="preserve">Das ist ein bisschen ein Streit um des Kaisers Bart. Der Präsident der Finanzkommission hat es gesagt: Es geht um ein Rahmengesetz. An sich wollte der Bundesrat im Gesetz klarer festhalten, dass die Empfänger von Finanzhilfen ihre Aufgaben soweit möglich selbst finanzieren; das war auch immer ein Wunsch der Eidgenössischen Finanzkontrolle (EFK). Der Herr Präsident hat es gesagt: Es kamen dann Ängste aus dem Kultur- und dem Umweltbereich, dass durchgehend nur noch 50 Prozent Subventionen ausbezahlt würden. Das wäre nicht der Fall gewesen.
 Wenn Sie das streichen, ist das nicht gravierend, weil auch das aktuelle Recht davon ausgeht, und das ist wichtig, dass Subventionsempfänger nach Kräften und ihrer wirtschaftlichen Leistungsfähigkeit mitbeteiligt werden. In der Regel, nach ständiger Praxis der Eidgenössischen Finanzverwaltung, sind das 50 Prozent, aber das muss im Einzelfall festgelegt werden. Ich verzichte hier auf eine Abstimmung, wir können mit dem geltenden Recht leben, es war der Versuch einer Präzisierung. In der Sache wird das nicht viel daran ändern, dass man immer noch darum feilschen wird, welcher Subventionssatz im Einzelfall angewendet wird.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stark Jakob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bundesrat beantragt, auf Finanzhilfen des Bundes im Bereich der Weiterbildung zu verzichten. Die Gründe sind folgende: Der Weiterbildungsmarkt ist weitgehend privatwirtschaftlich organisiert. Es gibt in diesem Bereich sehr namhafte Mitnahmeeffekte. Mehrfach schon gab es Kritik der Eidgenössischen Finanzkontrolle daran, wie und wofür diese Beiträge an die Organisationen der Weiterbildung gehen und wie ihre Wirkung ist. Schwergewichtig geht es hier ja um die Förderung der Grundkompetenzen, und</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bundesrat beantragt, auf Finanzhilfen des Bundes im Bereich der Weiterbildung zu verzichten. Die Gründe sind folgende: Der Weiterbildungsmarkt ist weitgehend privatwirtschaftlich organisiert. Es gibt in diesem Bereich sehr namhafte Mitnahmeeffekte. Mehrfach schon gab es Kritik der Eidgenössischen Finanzkontrolle daran, wie und wofür diese Beiträge an die Organisationen der Weiterbildung gehen und wie ihre Wirkung ist. Schwergewichtig geht es hier ja um die Förderung der Grundkompetenzen, und dabei ist zu beachten, dass das eine ureigene Aufgabe der Kantone ist und dass sich der Bund mit Spezialgesetzen im Ausländerrecht, in der ALV und IV hier schon engagiert. Aus diesem Grund beantragt der Bundesrat, die Bestimmungen aufzuheben. Die Entlastungswirkung ist bei 19,8 Millionen Franken.
+Diese drei Anträge, die Sie hier vor sich haben, sehen alle vor, auf die Gesetzesänderung zu verzichten, mit Verweis auf die Kann-Bestimmung in Artikel 12 Absatz 1 WeBiG. Es ist also ohne Weiteres möglich, das Gesetz so zu belassen und bei der entsprechenden Position im Voranschlag den Betrag anzupassen. Die Kommissionsmehrheit möchte die volle Entlastungswirkung beibehalten, also die gut 19 Millionen Franken. Die Minderheit I (Herzog Eva) möchte die Entlastungswirkung knapp halbieren, sie möchte hier weiterhin 10[NB]Millionen[NB]Franken budgetieren. Die Minderheit II (Maillard Pierre-Yves) empfiehlt Ihnen, auf eine Kürzung ganz zu verzichten.
 </t>
   </si>
   <si>
@@ -1053,6 +1119,29 @@
 Die Ruag-Affäre ist dabei nur die Spitze des Eisbergs. Die Eidgenössische Finanzkontrolle hat gravierende Missstände aufgezeigt: fehlende Compliance, Mängel in der Governance, sogar Betrugsverdacht. Dass ein bundeseigenes Unternehmen mit Leopard-Panzern dubiose Geschäfte tätigen wollte, zeigt, dass Kontrolle und Verantwortung nicht funktionieren. Wir haben es hier nicht mit kleinen Schönheitsfehlern zu tun, sondern mit wiederkehrenden Mustern - Beschaffung ohne Reife, Kostenüberschreitungen, jahrelange Verzögerungen. Es ist immer dasselbe Muster: Verantwortung wird abgeschoben, niemand ist zuständig. 
 Ja, das Parlament hat mit GPK und FinDel starke Aufsichtsorgane. Aber sie stossen hier an ihre Grenzen. Nur eine PUK hat die vollen Rechte und ausreichend Ressourcen. Sie kann Bundesratsprotokolle einsehen, Zeugen vorladen und die ganze Führungskette unter die Lupe nehmen. Genau das braucht es, wenn wir verlorenes Vertrauen zurückgewinnen wollen. Es geht nicht darum, das VBS zu schwächen, sondern darum, es endlich zu stärken: durch Transparenz, klare Verantwortlichkeiten und eine Kultur, die Fehler nicht vertuscht, sondern aus ihnen lernt. Unser Ziel ist es, die Struktur zu verbessern, damit die Armee ihren Auftrag zuverlässig erfüllen kann, ohne dass Milliarden versickern. Die Schweiz kennt die Lehren aus der Mirage-Affäre von 1964. [PAGE 2478] Nur eine PUK kann das Vertrauen in das VBS wiederherstellen. Heute stehen wir an einem ähnlichen Punkt. Wenn wir jetzt nicht handeln, drohen neue Skandale. Die Zeche zahlen am Schluss die Steuerzahlenden und die Sicherheit unseres Landes. 
 Ich bitte Sie deshalb, diesen parlamentarischen Initiativen Folge zu geben. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Büchel Roland Rino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Büro des Nationalrates hat die parlamentarischen Initiativen 25.407 und 25.414 an seiner Sitzung vom 22.[NB]August 2025 vorgeprüft. Diese waren von der Sozialdemokratischen Fraktion am 10.[NB]März 2025 bzw. von der Grünen Fraktion am[NB]21.[NB]März 2025 eingereicht worden. Sie fordern je die Einsetzung einer PUK mit dem Zweck, die Probleme bei der Rüstungsbeschaffung sowie die Führungs-, Kontroll- und Aufsichtsstrukturen innerhalb des VBS zu untersuchen. Sie haben es gehört von Herrn Bendaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Büro des Nationalrates hat die parlamentarischen Initiativen 25.407 und 25.414 an seiner Sitzung vom 22.[NB]August 2025 vorgeprüft. Diese waren von der Sozialdemokratischen Fraktion am 10.[NB]März 2025 bzw. von der Grünen Fraktion am[NB]21.[NB]März 2025 eingereicht worden. Sie fordern je die Einsetzung einer PUK mit dem Zweck, die Probleme bei der Rüstungsbeschaffung sowie die Führungs-, Kontroll- und Aufsichtsstrukturen innerhalb des VBS zu untersuchen. Sie haben es gehört von Herrn Bendahan: Er denkt, dass eigentlich 15 PUK das Richtige wären - dazu gibt es aber keinen Antrag. Konkret geht es um zwei PUK, die verlangt werden.
+Das Büro des Nationalrates beantragt mit 9 zu 3 Stimmen, beiden Initiativen keine Folge zu geben. Die Minderheiten beantragen - Sie haben es gehört -, diesen Folge zu geben.
+Eine parlamentarische Untersuchungskommission einzusetzen, um die Missstände im Bereich der Ruag und Probleme bei der Rüstungsbeschaffung zu untersuchen, ist für die Minderheiten das richtige Vorgehen. Auch die Probleme bei den Führungs-, Kontroll- und Aufsichtsstrukturen innerhalb des VBS könnten von einer PUK besser untersucht werden als von der GPK und der FinDel.
+In Bezug auf die Oberaufsicht beim VBS liess sich das Büro von den GPK und der FinDel als zuständige Organe über deren laufende Arbeiten informieren. In beiden GPK gibt es je eine ständige Subkommission zur parlamentarischen Kontrolle der Geschäftsführung des VBS. Aktuelle Schwerpunktthemen sind die Inspektion zum Fixpreis des F-35A und die [PAGE 2479] Untersuchung der Governance der Ruag MRO durch den Eigner. Die beiden Berichte werden voraussichtlich im kommenden Jahr veröffentlicht.
+Mit ihrer Inspektion zum Fixpreis des F-35A will die GPK-N unter anderem klären, ob bei der Aushandlung der Verträge rückblickend Mängel in der Geschäftsführung des Bundesrates festgestellt werden können. Die GPK-S nimmt vertiefte Abklärungen zur Aufsicht und Steuerung der Ruag MRO durch den Bundesrat vor. Auslöser für diese Untersuchungen waren Unstimmigkeiten beim versuchten Verkauf - auf der anderen Seite auch beim Kauf - von 96 Leopard-1-Panzern an Deutschland im Jahr 2023, aber auch weiter zurückreichende Betrugsvorwürfe, welche von der Eidgenössischen Finanzkontrolle aufgedeckt worden waren.
+Die GPK beschäftigen sich zudem wiederkehrend und teils über Jahre hinweg mit der Mehrheit der Top-Projekte des VBS. Beispiele dafür sind das ehemalige Munitionslager Mitholz, das Aufklärungsdrohnensystem ADS 15, die Neue Digitalisierungsplattform und das Sicherheitsfunknetz Polycom. Weitere wichtige Projekte des VBS werden von den beiden GPK im Rahmen ihrer Oberaufsicht begleitet. Dabei handelt es sich unter anderem um die Planung der Rüstungsbeschaffung oder um den Schutz kritischer Infrastrukturen und um die Berechnung des Armeebestandes. An einer speziellen Sitzung befassen sich die beiden GPK jährlich mit den Berichten des Bundesrates über die Zielerreichung der Ruag MRO und der Ruag International. Dort müssen neben den Spitzen von VBS und EFD auch die beiden Unternehmungen Red und Antwort stehen.
+Aber auch die FinDel befasst sich im Rahmen ihrer Finanzoberaufsicht mit den Schlüssel- und Top-Projekten des VBS. Weil es sich beim VBS um das Departement - das wurde zu Recht erwähnt - mit den grössten finanziellen Risiken handelt und das Parlament die Rüstungsausgaben für 2025 aufgestockt hat, wird die FinDel die Finanz- und Investitionsplanung im Rüstungsbereich richtigerweise verstärkt beaufsichtigen.
+Aufgrund dieser Informationen zu den laufenden Arbeiten in den GPK und der FinDel kommt das Büro zum Schluss, dass die aufgeworfenen Problemstellungen im VBS von den entsprechenden Aufsichtsorganen des Parlamentes bereits im Detail beaufsichtigt werden.
+Für die beiden Minderheiten Widmer Céline und Glättli handelt es sich bei den aufgezählten Missständen im VBS um ein Systemversagen. Für sie kann nur eine PUK das verlorene Vertrauen in das VBS wiederherstellen; die Minderheitssprecherin hat das noch einmal unterstrichen. Für das Büro hingegen sollten die GPK und die FinDel mit ihren weitreichenden Kompetenzen und den ordentlichen Mitteln in der Lage sein, ihre Aufsichtspflicht gegenüber dem VBS wahrzunehmen. Zudem würde die Konstituierung einer PUK einen zu hohen finanziellen und zeitlichen Aufwand bedeuten, ohne einen wirklichen Mehrwert zu generieren.
+Aus diesen Gründen beantragt Ihnen das Büro, wie eingangs gesagt, den beiden Initiativen keine Folge zu geben.
+[VS]
 </t>
   </si>
 </sst>
@@ -1101,8 +1190,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I23" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I27" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I27"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="MeetingDate"/>
@@ -1472,592 +1561,704 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
         <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
         <v>39</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E8"/>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
         <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13"/>
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
         <v>72</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
+      <c r="E14"/>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19"/>
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
         <v>116</v>
       </c>
-      <c r="B22" t="s">
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
         <v>117</v>
       </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="I22" t="s">
         <v>118</v>
-      </c>
-      <c r="E22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s">
         <v>121</v>
       </c>
-      <c r="B23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
         <v>122</v>
       </c>
-      <c r="E23" t="s">
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
         <v>84</v>
       </c>
-      <c r="F23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" t="s">
-        <v>124</v>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" t="s">
+        <v>134</v>
+      </c>
+      <c r="I26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Debats_CDF_EFK.xlsx
+++ b/Debats_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">MeetingDate</t>
   </si>
   <si>
-    <t xml:space="preserve">CouncilName</t>
+    <t xml:space="preserve">MeetingCouncilAbbreviation</t>
   </si>
   <si>
     <t xml:space="preserve">SpeakerFullName</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">20251202</t>
   </si>
   <si>
-    <t xml:space="preserve">Ständerat</t>
+    <t xml:space="preserve">S</t>
   </si>
   <si>
     <t xml:space="preserve">Hegglin Peter</t>
@@ -693,7 +693,7 @@
     <t xml:space="preserve">20251208</t>
   </si>
   <si>
-    <t xml:space="preserve">Bundesrat</t>
+    <t xml:space="preserve">N</t>
   </si>
   <si>
     <t xml:space="preserve">Keller-Sutter Karin</t>
@@ -709,6 +709,83 @@
     <t xml:space="preserve">Aufgrund eines Einstellungsfehlers in der Veranlagungssoftware konnte die kantonale Steuerverwaltung Genf für rund 60 Unternehmen, die in den vorangegangenen Steuerperioden noch nicht definitiv veranlagt worden waren, keine provisorischen Rechnungen gemäss Artikel 162 des Bundesgesetzes über die direkte Bundessteuer ausstellen. Dieser technische Fehler konnte mittlerweile behoben werden, sodass nun ordnungsgemäss provisorische Rechnungen ausgestellt werden können.
 Der Gesetzgeber hat die Finanzaufsicht über die direkte Bundessteuer den 26 kantonalen Finanzkontrollen übertragen. Sie sind gehalten, jährlich die Ordnungs- und Rechtmässigkeit der Erhebung der direkten Bundessteuer und der Ablieferung des Bundesanteils zu prüfen und der Eidgenössischen Steuerverwaltung sowie der Eidgenössischen Finanzkontrolle darüber Bericht zu erstatten. Als Oberaufsicht hat die Eidgenössische Steuerverwaltung hierzu eine Richtlinie sowie ein verbindliches Prüfraster zuhanden der kantonalen Finanzkontrollen erlassen. Der erwähnte Softwarefehler wurde von der kantonalen Finanzkontrolle nicht festgestellt. Die Eidgenössische Steuerverwaltung ist derzeit daran, die Zusammenarbeit mit den kantonalen Finanzkontrollen zu intensivieren, und prüft übergeordnet, gemeinsam mit der Eidgenössischen Finanzverwaltung, weitergehende Massnahmen im Bereich der Rechnungsstellung für die direkte Bundessteuer. 
 Was die finanziellen Auswirkungen anbelangt, so steht der sogenannte Vergütungszins im Vordergrund. Dieser ist geschuldet, wenn Steuerpflichtige höhere Vorauszahlungen machen, als ihnen in Rechnung gestellt wurden. In welchem Ausmass dies tatsächlich erfolgte, kann erst bei der Erstellung der definitiven Veranlagung berechnet werden. Zu berücksichtigen ist jedoch, dass der Zinssatz für die Vergütungen tief ist: Für die primär betroffenen Kalenderjahre 2019 bis 2023 lag er bei 0,00 Prozent, für 2024 bei 1,25 Prozent und für 2025 bei 0,75 Prozent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürgi Roman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich begründe meinen Minderheitsantrag zum Funktionsaufwand des Bundesamts für Polizei. Der Bundesrat beantragt ein Globalbudget von 294 Millionen Franken. Die Mehrheit der Kommission möchte diesen Betrag nun um weitere 1,8 Millionen Franken erhöhen. Die SVP-Fraktion lehnt diese Aufstockung ab und beantragt, dem Bundesrat zu folgen. 
+Aus Sicht der SVP-Fraktion ist unbestritten, dass die Bundeskriminalpolizei zusätzliche Manpower an der Front benötigt. Das steht aber nicht zur Diskussion. Die Frag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich begründe meinen Minderheitsantrag zum Funktionsaufwand des Bundesamts für Polizei. Der Bundesrat beantragt ein Globalbudget von 294 Millionen Franken. Die Mehrheit der Kommission möchte diesen Betrag nun um weitere 1,8 Millionen Franken erhöhen. Die SVP-Fraktion lehnt diese Aufstockung ab und beantragt, dem Bundesrat zu folgen. 
+Aus Sicht der SVP-Fraktion ist unbestritten, dass die Bundeskriminalpolizei zusätzliche Manpower an der Front benötigt. Das steht aber nicht zur Diskussion. Die Frage ist vielmehr, ob wir eine strukturelle Budgeterhöhung sprechen sollen, bevor klar ist, wo und wie das Fedpol die zusätzlichen Stellen tatsächlich einsetzt. 
+Die Beratungen haben deutlich gezeigt, dass das Fedpol in der Vergangenheit primär hinsichtlich der Verwaltung und in der Kommunikation und nicht bei der operativen Kriminalpolizei ausgebaut wurde. Das Fedpol hat in den letzten Jahren Ressourcen erhalten, aber eben nicht für die Bereiche, in denen der eigentliche Bedarf besteht. Auch der EFK-Bericht bestätigt, dass intern bereits Effizienzsteigerungen im Gang und Kompensationen vorgenommen worden sind. Gleichzeitig aber bleibt unklar, weshalb genau jetzt externe Mittel über zusätzliche Stellen gesprochen werden müssen, bevor das Fedpol intern das vorhandene Potenzial ausgeschöpft hat. 
+Die Bundeskriminalpolizei verfügt heute über rund 700 Stellen, und der Bundesrat plant bereits 51 neue Stellen im Jahr 2026. Doch gemäss den Unterlagen entfallen davon nur sehr wenige auf die Ermittlungsarbeit, während der Rest für neue Projekte, für die IT-Weiterentwicklung und für die Bewirtschaftung des Verwaltungszentrums vorgesehen ist. Das hat mit der eigentlichen Kriminalbekämpfung wenig zu tun. 
+Bevor wir also zusätzliche Mittel bewilligen, erwarten wir zwei Dinge: Erstens muss das Fedpol intern jene Stellenprozente kompensieren, die es gemäss eigenen Aussagen einsparen kann, und zweitens braucht es ein klares Konzept, das detailliert aufzeigt, wo die zusätzlichen Ermittlungsstellen tatsächlich eingesetzt werden sollen. Wir fragten zu Recht, weshalb das Fedpol im ordentlichen Voranschlag nicht selbst mehr Ermittlungsstellen beantragte und weshalb im Entwicklungsrahmen zwar mehr Stellen gefordert wurden, diese dann aber nicht priorisiert wurden. Solange diese Fragen nicht beantwortet sind, ist eine Erhöhung des Budgets um 1,8 Millionen Franken nicht nachvollziehbar. Ich möchte betonen: Es geht nicht darum, die Sicherheit zu schwächen oder die Bedrohungslage zu verharmlosen. Es geht darum, dass wir zuerst sicherstellen müssen, dass die Bundesverwaltung ihre Mittel richtig einsetzt. Wenn das Fedpol erklärt, dass es intern noch Kompensationspotenzial hat, und gleichzeitig bestimmte Stellenpriorisierungen nicht vorgenommen wurden, ist es nicht sachgerecht, jetzt zusätzliches Geld zu sprechen. [PAGE 2100] 
+Der Bundesrat hat diese Abwägung gemacht und ist zum Schluss gekommen, dass 294 Millionen Franken ausreichend sind. Die SVP-Fraktion folgt dieser Einschätzung.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrey Gerhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, dieser wichtige EFK-Bericht ist der Finanzkommission natürlich bekannt. Ich würde Ihnen antworten: das eine tun, das andere nicht lassen. Ich bin mit Ihnen natürlich völlig einig, dass die Ressourcen möglichst effizient eingesetzt werden müssen. Aber wenn man genau hinschaut, auch bei den anderen Staatsebenen, sieht man, dass es sich tatsächlich um ein substanzielles Ressourcenproblem handelt. Entsprechend helfen wir da mit.
+Es ist eine spezielle Situation, dass Ihre Fraktion, die Law-and-Or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, dieser wichtige EFK-Bericht ist der Finanzkommission natürlich bekannt. Ich würde Ihnen antworten: das eine tun, das andere nicht lassen. Ich bin mit Ihnen natürlich völlig einig, dass die Ressourcen möglichst effizient eingesetzt werden müssen. Aber wenn man genau hinschaut, auch bei den anderen Staatsebenen, sieht man, dass es sich tatsächlich um ein substanzielles Ressourcenproblem handelt. Entsprechend helfen wir da mit.
+Es ist eine spezielle Situation, dass Ihre Fraktion, die Law-and-Order-Fraktion, hier kritisch ist, wo es um mehr Polizei geht, und wir mit der Kommissionsmehrheit dafür sind. Das ist eine interessante Ausgangslage. Aber ich würde auf jeden Fall meinen: das eine tun, das andere nicht lassen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fischer Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geschätzter Kollege Andrey, ist Ihnen der EFK-Prüfbericht zur Ressourcensituation des Fedpol bekannt? Darin stellt die Eidgenössische Finanzkontrolle Mängel fest und hält auch klar fest, dass es ein Ressourcenproblem, aber auch ein grosses Potenzial gebe und[NB]man[NB]zuerst[NB]intern diese Ressourcen freispielen müsse, bevor das Parlament für das Fedpol wieder zusätzliche Gelder spricht. [PAGE 2103] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bürgin Yvonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich spreche für die Mitte-Fraktion. Die Mitte. EVP zu Block 2, "Justiz, Sicherheit und Migration". Dieser Block betrifft zentrale Aufgaben unseres Staates, den Schutz des Rechtsstaats, die innere Sicherheit, die Cyberresilienz und die Steuerung der Migration. Unsere Haltung ist klar und ziemlich einfach. Wir unterstützen alle Mehrheitsanträge der Finanzkommission und lehnen alle Minderheitsanträge ab.
+Ein Punkt ist uns besonders wichtig. Neue Stellen betrachten wir grundsätzlich kritisch. Die Ve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich spreche für die Mitte-Fraktion. Die Mitte. EVP zu Block 2, "Justiz, Sicherheit und Migration". Dieser Block betrifft zentrale Aufgaben unseres Staates, den Schutz des Rechtsstaats, die innere Sicherheit, die Cyberresilienz und die Steuerung der Migration. Unsere Haltung ist klar und ziemlich einfach. Wir unterstützen alle Mehrheitsanträge der Finanzkommission und lehnen alle Minderheitsanträge ab.
+Ein Punkt ist uns besonders wichtig. Neue Stellen betrachten wir grundsätzlich kritisch. Die Verwaltung wächst seit Jahren. Es braucht Prioritäten und Effizienz, nicht reflexartige Aufstockungen. Gleichzeitig gilt: Wo Sicherheit und Funktionsfähigkeit des Staates gefährdet sind, müssen wir handeln. Das betrifft insbesondere das Fedpol und das Bundesamt für Cybersicherheit (BACS). Dort unterstützen wir zusätzliche Stellen ausdrücklich. Und ich möchte auch noch eine Antwort auf die Frage von vorhin von Herrn Fischer an Herrn Andrey geben: Ja, intern wurde schon sehr viel gemacht, aber das Fedpol braucht mehr Stellen.
+Beim Budget müssen aber auch die Einnahmen betrachtet werden. Wir unterstützen eine Erhöhung, und zwar mithilfe der eingezogenen Vermögenswerte beim Bundesamt für Justiz. Die realisierten Werte lagen in den letzten Jahren regelmässig über dem Budget. Mit diesem Durchschnittswert der Vergangenheit ist eine realistische Planung möglich.
+Beim Staatssekretariat für Migration sehen wir die bekannten Dynamiken. Die Sozialhilfekosten im Asylbereich hängen direkt von den Zugangszahlen ab. Bei den Beiträgen an die Kantone bezüglich der Ukraine-Flüchtlinge sind die Zahlen stabil, aber ein Teil der Kosten wird immer noch ausserordentlich verbucht. Wir unterstützen den Ansatz, dass diese Finanzierung schrittweise ins ordentliche Budget zu überführen ist. Gleich auf null zu gehen, geht uns zu weit. Wir möchten den Antrag unterstützen, dies entsprechend dem Beschluss des Ständerates schneller zu tun, d.[NB]h., nur 470 Millionen statt 600 Millionen Franken ausserordentlich zu verbuchen. Die dadurch ordentlich verbuchten 130 Millionen Franken kompensieren wir beim Kredit "Sozialhilfe Asylsuchende, vorläufig Aufgenommene, Flüchtlinge"; dies ist aufgrund der Erwartung tieferer Zugangszahlen möglich.
+Kern dieses Blocks ist die Sicherheit. Beim Fedpol zeigt sich klar: Wir wollen nicht einfach kürzen, wir wollen dort stärken, wo es nötig ist. Der Personalbestand, besonders bei der Bundeskriminalpolizei, ist zu tief. Das belegen der EFK-Bericht, die Antwort auf das Postulat der Finanzkommission und weitere Unterlagen eindeutig. Die Bekämpfung der Schwerstkriminalität ist gefährdet. Operativ ist eine Aufstockung schon 2026 möglich. Der Bundesrat plant sie erst ab 2027. Wir, die Mitte-Fraktion. Die Mitte. EVP, unterstützen die Erhöhung um 1,8 Millionen Franken für 10 zusätzliche Ermittlerstellen bereits ab nächstem Jahr sowie einen gestaffelten Ausbau ab 2027 zur Stärkung der inneren Sicherheit. Ein Zuwarten wäre fahrlässig. 
+Ähnlich ist es beim BACS. Die Cyberbedrohungslage verschärft sich massiv, und zentrale Wirtschaftssektoren benötigen Unterstützung. Auch hier zeigt ein Zusatzbericht klar Handlungsbedarf. Wir unterstützen auch hier eine Aufstockung um zusätzliche 10 Millionen Franken im Funktionsaufwand zur Stärkung der Cyberresilienz.
+Bei der Verteidigung geht es um die Umsetzung des parlamentarischen Auftrags des letzten Jahres: mehr Rüstungsinvestitionen und tiefere Betriebsausgaben durch Effizienzmassnahmen. Wir unterstützen den Antrag, bei der Position "Rüstungsaufwand und -investitionen" 50 Millionen Franken mehr zu sprechen und 25 Millionen Franken bei der Position "Funktionsaufwand (Globalbudget)" zu kompensieren oder zu sparen. Der Ständerat möchte weiter gehen. Er möchte 70 Millionen Franken zusätzlich investieren. Hier liegt nun auch der Einzelantrag Nause vor. Angesichts der sicherheitspolitischen Lage und Bedrohung - Stichwort Drohnen über Belgien, Deutschland, Dänemark und sogar auch über der Schweiz, über dem Flugplatz Meiringen - müssen wir bei den Investitionen tatsächlich einen Zacken zulegen. Wir unterstützen den Einzelantrag Nause, zusätzliche 70 Millionen Franken bereits in diesem Budget einzustellen. Der Pfad, 1 Prozent des BIP bis 2032 für die Armee aufzuwenden, bleibt unverändert.
+Die Mitte-Fraktion steht für eine verantwortungsvolle Finanzpolitik. Wir sparen dort, wo es möglich ist, und investieren dort, wo es für Sicherheit und Stabilität notwendig ist.
 </t>
   </si>
   <si>
@@ -734,157 +811,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">365999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nationalrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgi Roman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich begründe meinen Minderheitsantrag zum Funktionsaufwand des Bundesamts für Polizei. Der Bundesrat beantragt ein Globalbudget von 294 Millionen Franken. Die Mehrheit der Kommission möchte diesen Betrag nun um weitere 1,8 Millionen Franken erhöhen. Die SVP-Fraktion lehnt diese Aufstockung ab und beantragt, dem Bundesrat zu folgen. 
-Aus Sicht der SVP-Fraktion ist unbestritten, dass die Bundeskriminalpolizei zusätzliche Manpower an der Front benötigt. Das steht aber nicht zur Diskussion. Die Frag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich begründe meinen Minderheitsantrag zum Funktionsaufwand des Bundesamts für Polizei. Der Bundesrat beantragt ein Globalbudget von 294 Millionen Franken. Die Mehrheit der Kommission möchte diesen Betrag nun um weitere 1,8 Millionen Franken erhöhen. Die SVP-Fraktion lehnt diese Aufstockung ab und beantragt, dem Bundesrat zu folgen. 
-Aus Sicht der SVP-Fraktion ist unbestritten, dass die Bundeskriminalpolizei zusätzliche Manpower an der Front benötigt. Das steht aber nicht zur Diskussion. Die Frage ist vielmehr, ob wir eine strukturelle Budgeterhöhung sprechen sollen, bevor klar ist, wo und wie das Fedpol die zusätzlichen Stellen tatsächlich einsetzt. 
-Die Beratungen haben deutlich gezeigt, dass das Fedpol in der Vergangenheit primär hinsichtlich der Verwaltung und in der Kommunikation und nicht bei der operativen Kriminalpolizei ausgebaut wurde. Das Fedpol hat in den letzten Jahren Ressourcen erhalten, aber eben nicht für die Bereiche, in denen der eigentliche Bedarf besteht. Auch der EFK-Bericht bestätigt, dass intern bereits Effizienzsteigerungen im Gang und Kompensationen vorgenommen worden sind. Gleichzeitig aber bleibt unklar, weshalb genau jetzt externe Mittel über zusätzliche Stellen gesprochen werden müssen, bevor das Fedpol intern das vorhandene Potenzial ausgeschöpft hat. 
-Die Bundeskriminalpolizei verfügt heute über rund 700 Stellen, und der Bundesrat plant bereits 51 neue Stellen im Jahr 2026. Doch gemäss den Unterlagen entfallen davon nur sehr wenige auf die Ermittlungsarbeit, während der Rest für neue Projekte, für die IT-Weiterentwicklung und für die Bewirtschaftung des Verwaltungszentrums vorgesehen ist. Das hat mit der eigentlichen Kriminalbekämpfung wenig zu tun. 
-Bevor wir also zusätzliche Mittel bewilligen, erwarten wir zwei Dinge: Erstens muss das Fedpol intern jene Stellenprozente kompensieren, die es gemäss eigenen Aussagen einsparen kann, und zweitens braucht es ein klares Konzept, das detailliert aufzeigt, wo die zusätzlichen Ermittlungsstellen tatsächlich eingesetzt werden sollen. Wir fragten zu Recht, weshalb das Fedpol im ordentlichen Voranschlag nicht selbst mehr Ermittlungsstellen beantragte und weshalb im Entwicklungsrahmen zwar mehr Stellen gefordert wurden, diese dann aber nicht priorisiert wurden. Solange diese Fragen nicht beantwortet sind, ist eine Erhöhung des Budgets um 1,8 Millionen Franken nicht nachvollziehbar. Ich möchte betonen: Es geht nicht darum, die Sicherheit zu schwächen oder die Bedrohungslage zu verharmlosen. Es geht darum, dass wir zuerst sicherstellen müssen, dass die Bundesverwaltung ihre Mittel richtig einsetzt. Wenn das Fedpol erklärt, dass es intern noch Kompensationspotenzial hat, und gleichzeitig bestimmte Stellenpriorisierungen nicht vorgenommen wurden, ist es nicht sachgerecht, jetzt zusätzliches Geld zu sprechen. [PAGE 2100] 
-Der Bundesrat hat diese Abwägung gemacht und ist zum Schluss gekommen, dass 294 Millionen Franken ausreichend sind. Die SVP-Fraktion folgt dieser Einschätzung.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">366005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrey Gerhard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja, dieser wichtige EFK-Bericht ist der Finanzkommission natürlich bekannt. Ich würde Ihnen antworten: das eine tun, das andere nicht lassen. Ich bin mit Ihnen natürlich völlig einig, dass die Ressourcen möglichst effizient eingesetzt werden müssen. Aber wenn man genau hinschaut, auch bei den anderen Staatsebenen, sieht man, dass es sich tatsächlich um ein substanzielles Ressourcenproblem handelt. Entsprechend helfen wir da mit.
-Es ist eine spezielle Situation, dass Ihre Fraktion, die Law-and-Or</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja, dieser wichtige EFK-Bericht ist der Finanzkommission natürlich bekannt. Ich würde Ihnen antworten: das eine tun, das andere nicht lassen. Ich bin mit Ihnen natürlich völlig einig, dass die Ressourcen möglichst effizient eingesetzt werden müssen. Aber wenn man genau hinschaut, auch bei den anderen Staatsebenen, sieht man, dass es sich tatsächlich um ein substanzielles Ressourcenproblem handelt. Entsprechend helfen wir da mit.
-Es ist eine spezielle Situation, dass Ihre Fraktion, die Law-and-Order-Fraktion, hier kritisch ist, wo es um mehr Polizei geht, und wir mit der Kommissionsmehrheit dafür sind. Das ist eine interessante Ausgangslage. Aber ich würde auf jeden Fall meinen: das eine tun, das andere nicht lassen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">366006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fischer Benjamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geschätzter Kollege Andrey, ist Ihnen der EFK-Prüfbericht zur Ressourcensituation des Fedpol bekannt? Darin stellt die Eidgenössische Finanzkontrolle Mängel fest und hält auch klar fest, dass es ein Ressourcenproblem, aber auch ein grosses Potenzial gebe und[NB]man[NB]zuerst[NB]intern diese Ressourcen freispielen müsse, bevor das Parlament für das Fedpol wieder zusätzliche Gelder spricht. [PAGE 2103] 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">366067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bürgin Yvonne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich spreche für die Mitte-Fraktion. Die Mitte. EVP zu Block 2, "Justiz, Sicherheit und Migration". Dieser Block betrifft zentrale Aufgaben unseres Staates, den Schutz des Rechtsstaats, die innere Sicherheit, die Cyberresilienz und die Steuerung der Migration. Unsere Haltung ist klar und ziemlich einfach. Wir unterstützen alle Mehrheitsanträge der Finanzkommission und lehnen alle Minderheitsanträge ab.
-Ein Punkt ist uns besonders wichtig. Neue Stellen betrachten wir grundsätzlich kritisch. Die Ve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich spreche für die Mitte-Fraktion. Die Mitte. EVP zu Block 2, "Justiz, Sicherheit und Migration". Dieser Block betrifft zentrale Aufgaben unseres Staates, den Schutz des Rechtsstaats, die innere Sicherheit, die Cyberresilienz und die Steuerung der Migration. Unsere Haltung ist klar und ziemlich einfach. Wir unterstützen alle Mehrheitsanträge der Finanzkommission und lehnen alle Minderheitsanträge ab.
-Ein Punkt ist uns besonders wichtig. Neue Stellen betrachten wir grundsätzlich kritisch. Die Verwaltung wächst seit Jahren. Es braucht Prioritäten und Effizienz, nicht reflexartige Aufstockungen. Gleichzeitig gilt: Wo Sicherheit und Funktionsfähigkeit des Staates gefährdet sind, müssen wir handeln. Das betrifft insbesondere das Fedpol und das Bundesamt für Cybersicherheit (BACS). Dort unterstützen wir zusätzliche Stellen ausdrücklich. Und ich möchte auch noch eine Antwort auf die Frage von vorhin von Herrn Fischer an Herrn Andrey geben: Ja, intern wurde schon sehr viel gemacht, aber das Fedpol braucht mehr Stellen.
-Beim Budget müssen aber auch die Einnahmen betrachtet werden. Wir unterstützen eine Erhöhung, und zwar mithilfe der eingezogenen Vermögenswerte beim Bundesamt für Justiz. Die realisierten Werte lagen in den letzten Jahren regelmässig über dem Budget. Mit diesem Durchschnittswert der Vergangenheit ist eine realistische Planung möglich.
-Beim Staatssekretariat für Migration sehen wir die bekannten Dynamiken. Die Sozialhilfekosten im Asylbereich hängen direkt von den Zugangszahlen ab. Bei den Beiträgen an die Kantone bezüglich der Ukraine-Flüchtlinge sind die Zahlen stabil, aber ein Teil der Kosten wird immer noch ausserordentlich verbucht. Wir unterstützen den Ansatz, dass diese Finanzierung schrittweise ins ordentliche Budget zu überführen ist. Gleich auf null zu gehen, geht uns zu weit. Wir möchten den Antrag unterstützen, dies entsprechend dem Beschluss des Ständerates schneller zu tun, d.[NB]h., nur 470 Millionen statt 600 Millionen Franken ausserordentlich zu verbuchen. Die dadurch ordentlich verbuchten 130 Millionen Franken kompensieren wir beim Kredit "Sozialhilfe Asylsuchende, vorläufig Aufgenommene, Flüchtlinge"; dies ist aufgrund der Erwartung tieferer Zugangszahlen möglich.
-Kern dieses Blocks ist die Sicherheit. Beim Fedpol zeigt sich klar: Wir wollen nicht einfach kürzen, wir wollen dort stärken, wo es nötig ist. Der Personalbestand, besonders bei der Bundeskriminalpolizei, ist zu tief. Das belegen der EFK-Bericht, die Antwort auf das Postulat der Finanzkommission und weitere Unterlagen eindeutig. Die Bekämpfung der Schwerstkriminalität ist gefährdet. Operativ ist eine Aufstockung schon 2026 möglich. Der Bundesrat plant sie erst ab 2027. Wir, die Mitte-Fraktion. Die Mitte. EVP, unterstützen die Erhöhung um 1,8 Millionen Franken für 10 zusätzliche Ermittlerstellen bereits ab nächstem Jahr sowie einen gestaffelten Ausbau ab 2027 zur Stärkung der inneren Sicherheit. Ein Zuwarten wäre fahrlässig. 
-Ähnlich ist es beim BACS. Die Cyberbedrohungslage verschärft sich massiv, und zentrale Wirtschaftssektoren benötigen Unterstützung. Auch hier zeigt ein Zusatzbericht klar Handlungsbedarf. Wir unterstützen auch hier eine Aufstockung um zusätzliche 10 Millionen Franken im Funktionsaufwand zur Stärkung der Cyberresilienz.
-Bei der Verteidigung geht es um die Umsetzung des parlamentarischen Auftrags des letzten Jahres: mehr Rüstungsinvestitionen und tiefere Betriebsausgaben durch Effizienzmassnahmen. Wir unterstützen den Antrag, bei der Position "Rüstungsaufwand und -investitionen" 50 Millionen Franken mehr zu sprechen und 25 Millionen Franken bei der Position "Funktionsaufwand (Globalbudget)" zu kompensieren oder zu sparen. Der Ständerat möchte weiter gehen. Er möchte 70 Millionen Franken zusätzlich investieren. Hier liegt nun auch der Einzelantrag Nause vor. Angesichts der sicherheitspolitischen Lage und Bedrohung - Stichwort Drohnen über Belgien, Deutschland, Dänemark und sogar auch über der Schweiz, über dem Flugplatz Meiringen - müssen wir bei den Investitionen tatsächlich einen Zacken zulegen. Wir unterstützen den Einzelantrag Nause, zusätzliche 70 Millionen Franken bereits in diesem Budget einzustellen. Der Pfad, 1 Prozent des BIP bis 2032 für die Armee aufzuwenden, bleibt unverändert.
-Die Mitte-Fraktion steht für eine verantwortungsvolle Finanzpolitik. Wir sparen dort, wo es möglich ist, und investieren dort, wo es für Sicherheit und Stabilität notwendig ist.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367087</t>
+    <t xml:space="preserve">367075</t>
   </si>
   <si>
     <t xml:space="preserve">20251211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jans Beat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mit dieser Motion ist ja vorgesehen, dass die Bundeskriminalpolizei (BKP) personell etappenweise verstärkt wird. Aus unserer Sicht ist das zwingend nötig. Sie und der Nationalrat sehen das erfreulicherweise gleich. Sie haben an der diesjährigen Budgetberatung in beiden Räten beschlossen, dass das Fedpol für das Jahr 2026 vorbehältlich der Schlussabstimmung 1,8 Millionen Franken mehr personelle Mittel bekommt; das entspricht zehn Ermittlerinnen und Ermittlern für die BKP. Das ist ein wichtiger Sc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mit dieser Motion ist ja vorgesehen, dass die Bundeskriminalpolizei (BKP) personell etappenweise verstärkt wird. Aus unserer Sicht ist das zwingend nötig. Sie und der Nationalrat sehen das erfreulicherweise gleich. Sie haben an der diesjährigen Budgetberatung in beiden Räten beschlossen, dass das Fedpol für das Jahr 2026 vorbehältlich der Schlussabstimmung 1,8 Millionen Franken mehr personelle Mittel bekommt; das entspricht zehn Ermittlerinnen und Ermittlern für die BKP. Das ist ein wichtiger Schritt hin zu einer wirksameren Bekämpfung der Schwerkriminalität. 
-Der Bundesrat will für den Aufbau der Bundeskriminalpolizei aber eben die ordentlichen Prozesse nutzen. Das heisst, eine solche personelle Verstärkung müssen wir als EJPD in den ordentlichen Budgetprozess eingeben und eine Genehmigung beantragen. Deshalb empfiehlt der Bundesrat die vorliegende Motion zur Ablehnung. Das heisst aber auch, Herr Salzmann, dass der Bundesrat dann Anfang 2026 über Prioritäten entscheiden muss; denn es ist jetzt schon klar, dass die verfügbaren Ressourcen bei Weitem nicht genügen, um alle Stellenanträge der Departemente zu erfüllen. Sollte der Bundesrat eine Erhöhung der Stellen bei der BKP genehmigen, wie wir das als EJPD beantragen - auch aufgrund der verschiedenen Berichte, die uns zugrunde liegen -, so würden die entsprechenden Mittel aber in jedem Fall frühestens 2027 zur Verfügung stehen. Mit zusätzlichen Ressourcen für das Fedpol und namentlich für die BKP, gestaffelt über die nächsten Jahre, können gezielt Stellen geschaffen werden - dort, wo die Not am grössten ist und wo sie den grössten Beitrag zur Sicherheit leisten. Mir als Departementsvorsteher ist es ein wichtiges Anliegen, dass wir klar darlegen können, wofür genau es diese Stellen braucht, welchen Nutzen sie haben und wie wir die Prioritäten entsprechend setzen. Wir sind gemeinsam auf diesem Weg, die innere Sicherheit dort, wo es ihrer bedarf, zu stärken. 
-Ich möchte mich aber gegen die Vorwürfe, dass strategisches oder konzeptionelles Vorgehen fehlt, doch ein bisschen wehren, Herr Hegglin. Der EFK-Bericht war für mich zwingend. Bevor ich überhaupt Stellen beantrage, wollte ich diesen Bericht hören und sehen. Ich gehöre nicht zu den Departementsvorstehern, die in den letzten Jahren einfach gesagt haben: "Wir brauchen, wir brauchen, und wir stellen ein", sondern ich habe gesagt, dass wir das anders machen müssen, dass wir das abstützen müssen, dass wir das strategisch korrekt machen müssen. Da haben wir eben von der EFK klar - und das gibt es selten - den Hinweis erhalten, dass die BKP zusätzliche Mittel braucht, um in der aktuellen Situation die Aufgaben zu erfüllen; das ist klar. Sie sagt aber auch, dass wir eine Reorganisation machen müssen, dass wir auch Stellen im Bereich Kopf wegnehmen müssen und in den Bereich der Ermittler bringen. Auch das gehen wir an, die neue Fedpol-Leitung ist an diesem Vorhaben dran. Das sind nicht einfache Entscheide, das wissen Sie auch; man kann Leute nicht einfach von einem Tag auf den anderen zu Spezialisten machen. Das sind anstrengende, wichtige Prozesse, die wir sehr ernst nehmen. Also wir sind da unterwegs. 
-Aber was ich wirklich wichtig finde, ist, dass wir das alle sehen, auch Sie bitte, Herr Rieder: Der Bedarf ist da, und das ist nicht nur mit diesen neuesten Statistiken zu erfassen. Wir haben heute ein ganz anderes Lagebild, das sagt uns Europol in all ihren Untersuchungen. Wir haben verschiedene Länder, die es verpasst haben, rechtzeitig gegen die organisierte Kriminalität vorzugehen. Diese haben auch Unterlassungen gemacht und sind in ihren Strafverfahren zu wenig [PAGE 1322] streng gewesen. Das hat dazu geführt, dass sie heute zum Teil - ich rede jetzt von Holland, ich rede von Dänemark und von Schweden - offene Bandenkriminalität in ihren Städten bekämpfen müssen.
-Wenn Sie damit zu spät anfangen oder spät anfangen, kann es sein, dass Sie dann zu spät sind. Das ist das, was mir die EU-Innenminister letzte Woche alle gesagt haben. Da müssen wir rechtzeitig sein, und da müssen wir genau hinschauen. Die Schweiz ist als Finanzplatz für die organisierte Kriminalität exponiert. Wir werden mit dieser Strategie kommen, und zwar schon sehr bald: erstens mit der Sicherheitsstrategie und darin eingebettet mit der Strategie für organisierte Kriminalität. Wir werden zweitens - das ist Teil dieser Strategie - Gesetzesänderungen vorschlagen, um den Strafverfolgungsbehörden auch bessere Instrumente an die Hand zu geben, nicht nur mehr Personal. Das ist etwas, das wir feststellen: Die Fälle insbesondere zur Bekämpfung der organisierten Kriminalität sind auch sehr viel komplizierter geworden.
-Der Bundesanwalt, mit dem ich heute Morgen noch telefonieren konnte, begrüsst es sehr, dass es für Fälle, die er zum Teil heute einfach nicht bewältigen kann, mehr Ermittler geben soll, Fälle, bei denen er zum Teil bis zu 20 oder sogar mehr Ermittler braucht - das für einen einzigen Fall. Sie stellen sich wahrscheinlich immer vor, ein Fall, ein Ermittler. Das ist leider nicht so. Die Fälle sind unglaublich kompliziert, und gerade die Netzwerke der organisierten Kriminalität nehmen ihre Verteidigungsrechte, die sie mit der Strafprozessordnung neu erhalten haben, sehr exzessiv wahr. Die machen mit einem Heer von besten Anwälten alles, um die Prozesse zu verlängern und komplizierter zu machen, um weitere Berichte und Untersuchungen einzufordern. Das ist die Realität, der wir uns stellen müssen. Diese wurde noch durch die Tatsache verschärft - das ist ganz wichtig, was Frau Gmür-Schönenberger gesagt hat -, dass die organisierte Kriminalität im Internet stattfindet. Dort müssen wir besser werden. Es ist enorm kompliziert und aufwendig, die grenzüberschreitend im virtuellen Bereich tätigen Banden zu knacken. Aber es ist wegen des Risikos für die Sicherheit unserer Bevölkerung, aber auch wegen des Image unseres Landes, wegen der Reputation, die auf der Kippe steht, unglaublich wichtig. 
-Deshalb ist es wichtig, dass wir hier vorangehen und dass wir schrittweise vorgehen. Der Bundesrat braucht diese Motion nicht dafür, wir werden diese Entscheide schrittweise im Rahmen der ordentlichen Budgetprozesse fällen, aber es ist wichtig, das möchte ich doch noch sagen, dass Sie den Handlungsbedarf wirklich erkennen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conseil des Etats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juillard Charles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je vais m'exprimer en tant que membre de la Commission de la politique de sécurité, mais aussi en tant que membre et ancien président de la Commission de gestion, puisque nous avons abordé la question des effectifs de Fedpol à plusieurs reprises lors des séances de la Commission de gestion, et que nous sommes arrivés à la conclusion qu'il y avait un vrai problème d'effectifs concernant les enquêteurs de Fedpol. C'est aussi dans cet esprit que nous avons écrit au Conseil fédéral pour qu'il envisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je vais m'exprimer en tant que membre de la Commission de la politique de sécurité, mais aussi en tant que membre et ancien président de la Commission de gestion, puisque nous avons abordé la question des effectifs de Fedpol à plusieurs reprises lors des séances de la Commission de gestion, et que nous sommes arrivés à la conclusion qu'il y avait un vrai problème d'effectifs concernant les enquêteurs de Fedpol. C'est aussi dans cet esprit que nous avons écrit au Conseil fédéral pour qu'il envisage l'augmentation des effectifs, ce qui va dans le même sens que cette motion. Je dois cependant vous dire que nous n'avons pas examiné dans le détail si ces postes supplémentaires, - ces postes d'enquêteurs, parce que c'est surtout là qu'il y a un problème -, pouvaient être en tout ou partie compensés par une réorganisation de Fedpol - qui s'impose, selon le Contrôle fédéral des finances -, et s'il serait possible de diminuer les postes dans le domaine administratif pour les concentrer sur le terrain, là où les besoins se font particulièrement sentir, si l'on écoute aussi le Ministère public de la Confédération. Je voulais vous donner ces informations.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sommaruga Carlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je prends la parole en tant que président de la sous-commission de la Commission de gestion qui s'occupe du DFJP et de la Chancellerie fédérale. Ce sujet, nous l'avons traité à plusieurs reprises et le faisons depuis fort longtemps. Nous avons entendu le procureur général de la Confédération, nous avons entendu l'ancienne et la nouvelle directrice de Fedpol et différentes autres personnes. Sur cette base-là, nous avons pu constater de manière claire que les personnes entendues relevaient qu'il y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je prends la parole en tant que président de la sous-commission de la Commission de gestion qui s'occupe du DFJP et de la Chancellerie fédérale. Ce sujet, nous l'avons traité à plusieurs reprises et le faisons depuis fort longtemps. Nous avons entendu le procureur général de la Confédération, nous avons entendu l'ancienne et la nouvelle directrice de Fedpol et différentes autres personnes. Sur cette base-là, nous avons pu constater de manière claire que les personnes entendues relevaient qu'il y a aujourd'hui un déficit de personnel pour assurer la sécurité de la Suisse au niveau des infractions qui sont de la compétence fédérale et donc de la compétence du DFJP.
-J'entends bien les chiffres de notre collègue Rieder, mais ces chiffres ne reflètent pas la réalité qui nous est décrite par le procureur général de la Confédération et dont les termes ont été rappelés par notre collègue Dittli, à savoir que, aujourd'hui, il y a des procédures pénales concernant surtout la criminalité organisée internationale qui ne peuvent pas être ouvertes parce qu'il n'y a pas assez de personnel spécialisé. Je pense que cet élément doit être pris en compte.
-Si cette motion est aujourd'hui sur la table, c'est parce qu'il y a non seulement le rapport du Contrôle fédéral des finances, mais également des rapports de la Commission de gestion. Ce sont des éléments essentiels, et j'avoue que je suis surpris que l'on conteste les travaux faits par la Commission de gestion, et au Conseil national et au Conseil des États, sur la situation au niveau du procureur général et au niveau de Fedpol.
-J'aimerais juste dire que l'élément central qui a été évoqué par notre collègue, ce n'est pas la stabilité des plaintes ou des procédures qui ont été ouvertes de manière générale, c'est la criminalité organisée. Il a confirmé qu'il y avait une augmentation de 8 pour cent des affaires. Or, ce ne sont pas seulement les chiffres qu'il faut regarder, mais aussi la complexité des procédures qui sont ouvertes. Aujourd'hui, elles sont de plus en plus complexes dans le cadre de la poursuite pénale.
-J'aimerais juste relever que ce ne sont pas seulement des gigabits ou des mégabits qu'il faut examiner dans le cadre de toutes ces saisies de données faites en rapport avec la criminalité organisée, mais aussi les boîtes mail et les téléphones cryptés, et que cela nécessite des spécialistes. Aujourd'hui, le problème est immédiat. Il n'y a pas lieu d'attendre ou de compter sur le fait que des personnes vont partir à la retraite, même dans d'autres domaines, pour pouvoir engager du personnel.
-Je prends juste un exemple[NB]: il n'y a pas très longtemps, Fedpol a dû s'occuper d'un cas très particulier, celui des bombes qui avaient été placées pour faire chanter Patek Philippe. Pour rappel, cela s'est passé à Genève. Des bombes artisanales ont été mises dans des boîtes aux lettres et il y a eu des blessés. Il a fallu déployer des moyens extrêmement importants, non seulement à Genève, mais également au niveau de Fedpol qui disposait de spécialiste, pour enfin trouver la personne responsable de ces actes. J'aimerais relever que ce sont aussi des procédures qui, en général, demandent beaucoup, beaucoup de ressources humaines, et des ressources humaines spécialisées.
-Dès lors, je veux simplement vous dire que si l'on veut avoir une sécurité de la Suisse non seulement extérieure mais aussi intérieure, je crois qu'il faut entendre le message qui nous est donné par Fedpol, par le procureur général et par la Commission de gestion.
-Je vous invite donc à accepter cette motion, comme le propose la majorité de la commission.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">367075</t>
   </si>
   <si>
     <t xml:space="preserve">Gmür-Schönenberger Andrea</t>
@@ -925,6 +855,28 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">367087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jans Beat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit dieser Motion ist ja vorgesehen, dass die Bundeskriminalpolizei (BKP) personell etappenweise verstärkt wird. Aus unserer Sicht ist das zwingend nötig. Sie und der Nationalrat sehen das erfreulicherweise gleich. Sie haben an der diesjährigen Budgetberatung in beiden Räten beschlossen, dass das Fedpol für das Jahr 2026 vorbehältlich der Schlussabstimmung 1,8 Millionen Franken mehr personelle Mittel bekommt; das entspricht zehn Ermittlerinnen und Ermittlern für die BKP. Das ist ein wichtiger Sc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit dieser Motion ist ja vorgesehen, dass die Bundeskriminalpolizei (BKP) personell etappenweise verstärkt wird. Aus unserer Sicht ist das zwingend nötig. Sie und der Nationalrat sehen das erfreulicherweise gleich. Sie haben an der diesjährigen Budgetberatung in beiden Räten beschlossen, dass das Fedpol für das Jahr 2026 vorbehältlich der Schlussabstimmung 1,8 Millionen Franken mehr personelle Mittel bekommt; das entspricht zehn Ermittlerinnen und Ermittlern für die BKP. Das ist ein wichtiger Schritt hin zu einer wirksameren Bekämpfung der Schwerkriminalität. 
+Der Bundesrat will für den Aufbau der Bundeskriminalpolizei aber eben die ordentlichen Prozesse nutzen. Das heisst, eine solche personelle Verstärkung müssen wir als EJPD in den ordentlichen Budgetprozess eingeben und eine Genehmigung beantragen. Deshalb empfiehlt der Bundesrat die vorliegende Motion zur Ablehnung. Das heisst aber auch, Herr Salzmann, dass der Bundesrat dann Anfang 2026 über Prioritäten entscheiden muss; denn es ist jetzt schon klar, dass die verfügbaren Ressourcen bei Weitem nicht genügen, um alle Stellenanträge der Departemente zu erfüllen. Sollte der Bundesrat eine Erhöhung der Stellen bei der BKP genehmigen, wie wir das als EJPD beantragen - auch aufgrund der verschiedenen Berichte, die uns zugrunde liegen -, so würden die entsprechenden Mittel aber in jedem Fall frühestens 2027 zur Verfügung stehen. Mit zusätzlichen Ressourcen für das Fedpol und namentlich für die BKP, gestaffelt über die nächsten Jahre, können gezielt Stellen geschaffen werden - dort, wo die Not am grössten ist und wo sie den grössten Beitrag zur Sicherheit leisten. Mir als Departementsvorsteher ist es ein wichtiges Anliegen, dass wir klar darlegen können, wofür genau es diese Stellen braucht, welchen Nutzen sie haben und wie wir die Prioritäten entsprechend setzen. Wir sind gemeinsam auf diesem Weg, die innere Sicherheit dort, wo es ihrer bedarf, zu stärken. 
+Ich möchte mich aber gegen die Vorwürfe, dass strategisches oder konzeptionelles Vorgehen fehlt, doch ein bisschen wehren, Herr Hegglin. Der EFK-Bericht war für mich zwingend. Bevor ich überhaupt Stellen beantrage, wollte ich diesen Bericht hören und sehen. Ich gehöre nicht zu den Departementsvorstehern, die in den letzten Jahren einfach gesagt haben: "Wir brauchen, wir brauchen, und wir stellen ein", sondern ich habe gesagt, dass wir das anders machen müssen, dass wir das abstützen müssen, dass wir das strategisch korrekt machen müssen. Da haben wir eben von der EFK klar - und das gibt es selten - den Hinweis erhalten, dass die BKP zusätzliche Mittel braucht, um in der aktuellen Situation die Aufgaben zu erfüllen; das ist klar. Sie sagt aber auch, dass wir eine Reorganisation machen müssen, dass wir auch Stellen im Bereich Kopf wegnehmen müssen und in den Bereich der Ermittler bringen. Auch das gehen wir an, die neue Fedpol-Leitung ist an diesem Vorhaben dran. Das sind nicht einfache Entscheide, das wissen Sie auch; man kann Leute nicht einfach von einem Tag auf den anderen zu Spezialisten machen. Das sind anstrengende, wichtige Prozesse, die wir sehr ernst nehmen. Also wir sind da unterwegs. 
+Aber was ich wirklich wichtig finde, ist, dass wir das alle sehen, auch Sie bitte, Herr Rieder: Der Bedarf ist da, und das ist nicht nur mit diesen neuesten Statistiken zu erfassen. Wir haben heute ein ganz anderes Lagebild, das sagt uns Europol in all ihren Untersuchungen. Wir haben verschiedene Länder, die es verpasst haben, rechtzeitig gegen die organisierte Kriminalität vorzugehen. Diese haben auch Unterlassungen gemacht und sind in ihren Strafverfahren zu wenig [PAGE 1322] streng gewesen. Das hat dazu geführt, dass sie heute zum Teil - ich rede jetzt von Holland, ich rede von Dänemark und von Schweden - offene Bandenkriminalität in ihren Städten bekämpfen müssen.
+Wenn Sie damit zu spät anfangen oder spät anfangen, kann es sein, dass Sie dann zu spät sind. Das ist das, was mir die EU-Innenminister letzte Woche alle gesagt haben. Da müssen wir rechtzeitig sein, und da müssen wir genau hinschauen. Die Schweiz ist als Finanzplatz für die organisierte Kriminalität exponiert. Wir werden mit dieser Strategie kommen, und zwar schon sehr bald: erstens mit der Sicherheitsstrategie und darin eingebettet mit der Strategie für organisierte Kriminalität. Wir werden zweitens - das ist Teil dieser Strategie - Gesetzesänderungen vorschlagen, um den Strafverfolgungsbehörden auch bessere Instrumente an die Hand zu geben, nicht nur mehr Personal. Das ist etwas, das wir feststellen: Die Fälle insbesondere zur Bekämpfung der organisierten Kriminalität sind auch sehr viel komplizierter geworden.
+Der Bundesanwalt, mit dem ich heute Morgen noch telefonieren konnte, begrüsst es sehr, dass es für Fälle, die er zum Teil heute einfach nicht bewältigen kann, mehr Ermittler geben soll, Fälle, bei denen er zum Teil bis zu 20 oder sogar mehr Ermittler braucht - das für einen einzigen Fall. Sie stellen sich wahrscheinlich immer vor, ein Fall, ein Ermittler. Das ist leider nicht so. Die Fälle sind unglaublich kompliziert, und gerade die Netzwerke der organisierten Kriminalität nehmen ihre Verteidigungsrechte, die sie mit der Strafprozessordnung neu erhalten haben, sehr exzessiv wahr. Die machen mit einem Heer von besten Anwälten alles, um die Prozesse zu verlängern und komplizierter zu machen, um weitere Berichte und Untersuchungen einzufordern. Das ist die Realität, der wir uns stellen müssen. Diese wurde noch durch die Tatsache verschärft - das ist ganz wichtig, was Frau Gmür-Schönenberger gesagt hat -, dass die organisierte Kriminalität im Internet stattfindet. Dort müssen wir besser werden. Es ist enorm kompliziert und aufwendig, die grenzüberschreitend im virtuellen Bereich tätigen Banden zu knacken. Aber es ist wegen des Risikos für die Sicherheit unserer Bevölkerung, aber auch wegen des Image unseres Landes, wegen der Reputation, die auf der Kippe steht, unglaublich wichtig. 
+Deshalb ist es wichtig, dass wir hier vorangehen und dass wir schrittweise vorgehen. Der Bundesrat braucht diese Motion nicht dafür, wir werden diese Entscheide schrittweise im Rahmen der ordentlichen Budgetprozesse fällen, aber es ist wichtig, das möchte ich doch noch sagen, dass Sie den Handlungsbedarf wirklich erkennen.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">367106</t>
   </si>
   <si>
@@ -948,13 +900,49 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">367062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juillard Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vais m'exprimer en tant que membre de la Commission de la politique de sécurité, mais aussi en tant que membre et ancien président de la Commission de gestion, puisque nous avons abordé la question des effectifs de Fedpol à plusieurs reprises lors des séances de la Commission de gestion, et que nous sommes arrivés à la conclusion qu'il y avait un vrai problème d'effectifs concernant les enquêteurs de Fedpol. C'est aussi dans cet esprit que nous avons écrit au Conseil fédéral pour qu'il envisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vais m'exprimer en tant que membre de la Commission de la politique de sécurité, mais aussi en tant que membre et ancien président de la Commission de gestion, puisque nous avons abordé la question des effectifs de Fedpol à plusieurs reprises lors des séances de la Commission de gestion, et que nous sommes arrivés à la conclusion qu'il y avait un vrai problème d'effectifs concernant les enquêteurs de Fedpol. C'est aussi dans cet esprit que nous avons écrit au Conseil fédéral pour qu'il envisage l'augmentation des effectifs, ce qui va dans le même sens que cette motion. Je dois cependant vous dire que nous n'avons pas examiné dans le détail si ces postes supplémentaires, - ces postes d'enquêteurs, parce que c'est surtout là qu'il y a un problème -, pouvaient être en tout ou partie compensés par une réorganisation de Fedpol - qui s'impose, selon le Contrôle fédéral des finances -, et s'il serait possible de diminuer les postes dans le domaine administratif pour les concentrer sur le terrain, là où les besoins se font particulièrement sentir, si l'on écoute aussi le Ministère public de la Confédération. Je voulais vous donner ces informations.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">367096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sommaruga Carlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je prends la parole en tant que président de la sous-commission de la Commission de gestion qui s'occupe du DFJP et de la Chancellerie fédérale. Ce sujet, nous l'avons traité à plusieurs reprises et le faisons depuis fort longtemps. Nous avons entendu le procureur général de la Confédération, nous avons entendu l'ancienne et la nouvelle directrice de Fedpol et différentes autres personnes. Sur cette base-là, nous avons pu constater de manière claire que les personnes entendues relevaient qu'il y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je prends la parole en tant que président de la sous-commission de la Commission de gestion qui s'occupe du DFJP et de la Chancellerie fédérale. Ce sujet, nous l'avons traité à plusieurs reprises et le faisons depuis fort longtemps. Nous avons entendu le procureur général de la Confédération, nous avons entendu l'ancienne et la nouvelle directrice de Fedpol et différentes autres personnes. Sur cette base-là, nous avons pu constater de manière claire que les personnes entendues relevaient qu'il y a aujourd'hui un déficit de personnel pour assurer la sécurité de la Suisse au niveau des infractions qui sont de la compétence fédérale et donc de la compétence du DFJP.
+J'entends bien les chiffres de notre collègue Rieder, mais ces chiffres ne reflètent pas la réalité qui nous est décrite par le procureur général de la Confédération et dont les termes ont été rappelés par notre collègue Dittli, à savoir que, aujourd'hui, il y a des procédures pénales concernant surtout la criminalité organisée internationale qui ne peuvent pas être ouvertes parce qu'il n'y a pas assez de personnel spécialisé. Je pense que cet élément doit être pris en compte.
+Si cette motion est aujourd'hui sur la table, c'est parce qu'il y a non seulement le rapport du Contrôle fédéral des finances, mais également des rapports de la Commission de gestion. Ce sont des éléments essentiels, et j'avoue que je suis surpris que l'on conteste les travaux faits par la Commission de gestion, et au Conseil national et au Conseil des États, sur la situation au niveau du procureur général et au niveau de Fedpol.
+J'aimerais juste dire que l'élément central qui a été évoqué par notre collègue, ce n'est pas la stabilité des plaintes ou des procédures qui ont été ouvertes de manière générale, c'est la criminalité organisée. Il a confirmé qu'il y avait une augmentation de 8 pour cent des affaires. Or, ce ne sont pas seulement les chiffres qu'il faut regarder, mais aussi la complexité des procédures qui sont ouvertes. Aujourd'hui, elles sont de plus en plus complexes dans le cadre de la poursuite pénale.
+J'aimerais juste relever que ce ne sont pas seulement des gigabits ou des mégabits qu'il faut examiner dans le cadre de toutes ces saisies de données faites en rapport avec la criminalité organisée, mais aussi les boîtes mail et les téléphones cryptés, et que cela nécessite des spécialistes. Aujourd'hui, le problème est immédiat. Il n'y a pas lieu d'attendre ou de compter sur le fait que des personnes vont partir à la retraite, même dans d'autres domaines, pour pouvoir engager du personnel.
+Je prends juste un exemple[NB]: il n'y a pas très longtemps, Fedpol a dû s'occuper d'un cas très particulier, celui des bombes qui avaient été placées pour faire chanter Patek Philippe. Pour rappel, cela s'est passé à Genève. Des bombes artisanales ont été mises dans des boîtes aux lettres et il y a eu des blessés. Il a fallu déployer des moyens extrêmement importants, non seulement à Genève, mais également au niveau de Fedpol qui disposait de spécialiste, pour enfin trouver la personne responsable de ces actes. J'aimerais relever que ce sont aussi des procédures qui, en général, demandent beaucoup, beaucoup de ressources humaines, et des ressources humaines spécialisées.
+Dès lors, je veux simplement vous dire que si l'on veut avoir une sécurité de la Suisse non seulement extérieure mais aussi intérieure, je crois qu'il faut entendre le message qui nous est donné par Fedpol, par le procureur général et par la Commission de gestion.
+Je vous invite donc à accepter cette motion, comme le propose la majorité de la commission.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">367621</t>
   </si>
   <si>
     <t xml:space="preserve">20251215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conseil fédéral</t>
   </si>
   <si>
     <t xml:space="preserve">Parmelin Guy</t>
@@ -1058,6 +1046,23 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">368193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stark Jakob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bundesrat beantragt, auf Finanzhilfen des Bundes im Bereich der Weiterbildung zu verzichten. Die Gründe sind folgende: Der Weiterbildungsmarkt ist weitgehend privatwirtschaftlich organisiert. Es gibt in diesem Bereich sehr namhafte Mitnahmeeffekte. Mehrfach schon gab es Kritik der Eidgenössischen Finanzkontrolle daran, wie und wofür diese Beiträge an die Organisationen der Weiterbildung gehen und wie ihre Wirkung ist. Schwergewichtig geht es hier ja um die Förderung der Grundkompetenzen, und</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bundesrat beantragt, auf Finanzhilfen des Bundes im Bereich der Weiterbildung zu verzichten. Die Gründe sind folgende: Der Weiterbildungsmarkt ist weitgehend privatwirtschaftlich organisiert. Es gibt in diesem Bereich sehr namhafte Mitnahmeeffekte. Mehrfach schon gab es Kritik der Eidgenössischen Finanzkontrolle daran, wie und wofür diese Beiträge an die Organisationen der Weiterbildung gehen und wie ihre Wirkung ist. Schwergewichtig geht es hier ja um die Förderung der Grundkompetenzen, und dabei ist zu beachten, dass das eine ureigene Aufgabe der Kantone ist und dass sich der Bund mit Spezialgesetzen im Ausländerrecht, in der ALV und IV hier schon engagiert. Aus diesem Grund beantragt der Bundesrat, die Bestimmungen aufzuheben. Die Entlastungswirkung ist bei 19,8 Millionen Franken.
+Diese drei Anträge, die Sie hier vor sich haben, sehen alle vor, auf die Gesetzesänderung zu verzichten, mit Verweis auf die Kann-Bestimmung in Artikel 12 Absatz 1 WeBiG. Es ist also ohne Weiteres möglich, das Gesetz so zu belassen und bei der entsprechenden Position im Voranschlag den Betrag anzupassen. Die Kommissionsmehrheit möchte die volle Entlastungswirkung beibehalten, also die gut 19 Millionen Franken. Die Minderheit I (Herzog Eva) möchte die Entlastungswirkung knapp halbieren, sie möchte hier weiterhin 10[NB]Millionen[NB]Franken budgetieren. Die Minderheit II (Maillard Pierre-Yves) empfiehlt Ihnen, auf eine Kürzung ganz zu verzichten.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">368245</t>
   </si>
   <si>
@@ -1066,23 +1071,6 @@
   <si>
     <t xml:space="preserve">Das ist ein bisschen ein Streit um des Kaisers Bart. Der Präsident der Finanzkommission hat es gesagt: Es geht um ein Rahmengesetz. An sich wollte der Bundesrat im Gesetz klarer festhalten, dass die Empfänger von Finanzhilfen ihre Aufgaben soweit möglich selbst finanzieren; das war auch immer ein Wunsch der Eidgenössischen Finanzkontrolle (EFK). Der Herr Präsident hat es gesagt: Es kamen dann Ängste aus dem Kultur- und dem Umweltbereich, dass durchgehend nur noch 50 Prozent Subventionen ausbezahlt würden. Das wäre nicht der Fall gewesen.
 Wenn Sie das streichen, ist das nicht gravierend, weil auch das aktuelle Recht davon ausgeht, und das ist wichtig, dass Subventionsempfänger nach Kräften und ihrer wirtschaftlichen Leistungsfähigkeit mitbeteiligt werden. In der Regel, nach ständiger Praxis der Eidgenössischen Finanzverwaltung, sind das 50 Prozent, aber das muss im Einzelfall festgelegt werden. Ich verzichte hier auf eine Abstimmung, wir können mit dem geltenden Recht leben, es war der Versuch einer Präzisierung. In der Sache wird das nicht viel daran ändern, dass man immer noch darum feilschen wird, welcher Subventionssatz im Einzelfall angewendet wird.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">368193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stark Jakob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Bundesrat beantragt, auf Finanzhilfen des Bundes im Bereich der Weiterbildung zu verzichten. Die Gründe sind folgende: Der Weiterbildungsmarkt ist weitgehend privatwirtschaftlich organisiert. Es gibt in diesem Bereich sehr namhafte Mitnahmeeffekte. Mehrfach schon gab es Kritik der Eidgenössischen Finanzkontrolle daran, wie und wofür diese Beiträge an die Organisationen der Weiterbildung gehen und wie ihre Wirkung ist. Schwergewichtig geht es hier ja um die Förderung der Grundkompetenzen, und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Der Bundesrat beantragt, auf Finanzhilfen des Bundes im Bereich der Weiterbildung zu verzichten. Die Gründe sind folgende: Der Weiterbildungsmarkt ist weitgehend privatwirtschaftlich organisiert. Es gibt in diesem Bereich sehr namhafte Mitnahmeeffekte. Mehrfach schon gab es Kritik der Eidgenössischen Finanzkontrolle daran, wie und wofür diese Beiträge an die Organisationen der Weiterbildung gehen und wie ihre Wirkung ist. Schwergewichtig geht es hier ja um die Förderung der Grundkompetenzen, und dabei ist zu beachten, dass das eine ureigene Aufgabe der Kantone ist und dass sich der Bund mit Spezialgesetzen im Ausländerrecht, in der ALV und IV hier schon engagiert. Aus diesem Grund beantragt der Bundesrat, die Bestimmungen aufzuheben. Die Entlastungswirkung ist bei 19,8 Millionen Franken.
-Diese drei Anträge, die Sie hier vor sich haben, sehen alle vor, auf die Gesetzesänderung zu verzichten, mit Verweis auf die Kann-Bestimmung in Artikel 12 Absatz 1 WeBiG. Es ist also ohne Weiteres möglich, das Gesetz so zu belassen und bei der entsprechenden Position im Voranschlag den Betrag anzupassen. Die Kommissionsmehrheit möchte die volle Entlastungswirkung beibehalten, also die gut 19 Millionen Franken. Die Minderheit I (Herzog Eva) möchte die Entlastungswirkung knapp halbieren, sie möchte hier weiterhin 10[NB]Millionen[NB]Franken budgetieren. Die Minderheit II (Maillard Pierre-Yves) empfiehlt Ihnen, auf eine Kürzung ganz zu verzichten.
 </t>
   </si>
   <si>
@@ -1195,7 +1183,7 @@
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="MeetingDate"/>
-    <tableColumn id="3" name="CouncilName"/>
+    <tableColumn id="3" name="MeetingCouncilAbbreviation"/>
     <tableColumn id="4" name="SpeakerFullName"/>
     <tableColumn id="5" name="ParlGroupAbbreviation"/>
     <tableColumn id="6" name="CantonAbbreviation"/>
@@ -1733,75 +1721,77 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9"/>
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
         <v>61</v>
@@ -1815,22 +1805,22 @@
         <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
         <v>65</v>
@@ -1844,235 +1834,233 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E13"/>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
       <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
         <v>68</v>
-      </c>
-      <c r="I13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>72</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14" t="s">
-        <v>73</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
       <c r="H14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
         <v>74</v>
-      </c>
-      <c r="I14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
         <v>82</v>
-      </c>
-      <c r="B16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" t="s">
         <v>97</v>
       </c>
-      <c r="E19" t="s">
+      <c r="I19" t="s">
         <v>98</v>
-      </c>
-      <c r="F19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -2085,168 +2073,168 @@
         <v>15</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23"/>
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E24"/>
       <c r="F24" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I26" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
         <v>44</v>
@@ -2255,10 +2243,10 @@
         <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Debats_CDF_EFK.xlsx
+++ b/Debats_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="660">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -41,25 +41,3226 @@
     <t xml:space="preserve">Text</t>
   </si>
   <si>
+    <t xml:space="preserve">329747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20231205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herzog Eva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art.[NB]2bis [GZ]
+Antrag Gapany [GZ]
+Titel [GZ]
+Kreditsperre
+Abs. 1 [GZ]
+Die nach den Artikeln 1 und 2 bewilligten Aufwände und Investitionsausgaben (Voranschlagkredite) werden gestützt auf Artikel 37a des Finanzhaushaltgesetzes vom 7.[NB]Oktober 2005 im Umfang von XXX Millionen Franken gesperrt.
+Abs. 2 [GZ]
+Die Einzelheiten der Kreditsperrung sind im Anhang 1 geregelt.
+[VS]
+Art.[NB]2bis [GZ]
+Proposition Gapany [GZ]
+Titre [GZ]
+Blocage des crédits
+Al. 1 [GZ]
+Les charges et les dépenses d'investis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art.[NB]2bis [GZ]
+Antrag Gapany [GZ]
+Titel [GZ]
+Kreditsperre
+Abs. 1 [GZ]
+Die nach den Artikeln 1 und 2 bewilligten Aufwände und Investitionsausgaben (Voranschlagkredite) werden gestützt auf Artikel 37a des Finanzhaushaltgesetzes vom 7.[NB]Oktober 2005 im Umfang von XXX Millionen Franken gesperrt.
+Abs. 2 [GZ]
+Die Einzelheiten der Kreditsperrung sind im Anhang 1 geregelt.
+[VS]
+Art.[NB]2bis [GZ]
+Proposition Gapany [GZ]
+Titre [GZ]
+Blocage des crédits
+Al. 1 [GZ]
+Les charges et les dépenses d'investissement (crédits budgétaires) autorisées en vertu des articles 1 et 2 sont bloquées, sur la base de l'article 37a de la loi du 7 octobre 2005 sur les finances de la Confédération, à hauteur de XXX (le montant définitif sera annoncé par oral par la rapporteuse) millions de francs.
+Al. 2 [GZ]
+Les modalités du blocage des crédits sont précisées dans l'annexe 1.
+[VS]
+[VS]
+Anhang 1 - Annexe 1 [GZ]
+[VS][GZ]
+Antrag Gapany [GZ]
+Art. 2bis [GZ]
+Die Kreditsperre wird anteilmässig bei allen Departementen, Behörden und Gerichten sowie der Eidgenössischen Finanzkontrolle vollzogen, und zwar proportional bei den Eigen- und Transferausgaben. 
+Von der Kreditsperre ausgenommen sind die stark gebundenen Ausgaben.
+[VS]
+Proposition Gapany [GZ]
+Art. 2bis [GZ]
+Le blocage des crédits est appliqué de manière proportionnelle à tous les départements, autorités et tribunaux ainsi qu'au Contrôle fédéral des finances, et ce au prorata des dépenses propres et des dépenses de transfert. 
+Les dépenses fortement liées sont exemptées du blocage des crédits. [PAGE 1061] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">329841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20231206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baume-Schneider Elisabeth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie beraten heute die Übernahme einer europäischen Verordnung zur Schaffung eines Instruments für finanzielle Hilfe im Bereich Grenzverwaltung und Visumpolitik. Es handelt sich dabei um eine [PAGE 2213] Weiterentwicklung des Schengen-Besitzstands. Diese Verordnung löst den bisherigen Fonds für die innere Sicherheit ab. Ich möchte Ihnen die wichtigsten Punkte zu diesem Geschäft erläutern. 
+Il est primordial que les contrôles aux frontières extérieures de l'espace Schengen fonctionnent, et fonctio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie beraten heute die Übernahme einer europäischen Verordnung zur Schaffung eines Instruments für finanzielle Hilfe im Bereich Grenzverwaltung und Visumpolitik. Es handelt sich dabei um eine [PAGE 2213] Weiterentwicklung des Schengen-Besitzstands. Diese Verordnung löst den bisherigen Fonds für die innere Sicherheit ab. Ich möchte Ihnen die wichtigsten Punkte zu diesem Geschäft erläutern. 
+Il est primordial que les contrôles aux frontières extérieures de l'espace Schengen fonctionnent, et fonctionnent bien. C'est d'autant plus vrai aujourd'hui, eu égard, comme cela a été mentionné, à la migration irrégulière à laquelle nous avons à faire face. Un contrôle efficace des entrées aux frontières extérieures est indispensable à la pérennisation de la liberté de voyager sans restriction au sein de l'espace Schengen. Cette liberté de circuler au sein d'un espace commun, sans devoir passer de contrôles aux frontières, est l'un des acquis significatifs de la coopération européenne. L'importance de cette liberté de mouvement pour l'économie suisse et pour notre société n'est d'ailleurs plus à démontrer. Il est donc nécessaire de préserver cet acquis.
+L'espace Schengen compte près de 8000 kilomètres de frontières extérieures terrestres et 43[NB]000 kilomètres de frontières extérieures maritimes. Or, chaque Etat Schengen est responsable de la gestion de ses frontières extérieures et contribue de ce fait à la sécurité globale en Europe. Vous imaginez aisément que cette tâche ne représente pas une charge de même importance pour les 27 pays concernés. De par sa situation géographique, notre pays n'a comme frontières extérieures que ses aéroports. De ce fait, nous profitons des mesures prises par d'autres Etats. Parallèlement, nous devons impérativement pouvoir compter sur le fait que tous les Etats Schengen s'acquittent de leurs obligations liées à la protection des frontières extérieures. Dans ce contexte, certains Etats sont obligés de consacrer des moyens supérieurs à la moyenne pour financer les mesures de protection des frontières extérieures de l'espace Schengen, mesures dont profite l'ensemble des Etats membres. De fait, les coûts liés à la gestion des frontières impactent les pays de manière inégale.
+Par rapport à l'intervention de M. le conseiller national Erich Hess, effectivement, cela a été précisé. Die Schweiz beteiligt sich im Verhältnis des Prozentsatzes ihres BIP zum BIP aller Teilnehmenden. On ne peut pas, comme cela, changer cette règle et décider que ce n'est plus le PIB qui doit être pris en considération, mais que c'est la population. Cette règle a été fixée, et - si je peux me permettre -, du point de vue économique, personne ne contestera le fait que la Suisse a également une position intéressante au sein de l'Europe dans le cadre du marché économique et financier.
+J'en reviens à l'instrument de soutien financier à la gestion des frontières et à la politique des visas (IGFV) dont il est question aujourd'hui. Cet instrument vise principalement à continuer de soutenir les Etats Schengen qui doivent durablement supporter des coûts élevés pour la protection des frontières extérieures de l'espace Schengen. Comme par le passé, la Suisse - cela a été dit - recevra des moyens financiers qui proviennent de ce nouveau fonds. Les montants versés seront calculés proportionnellement à l'importance de nos frontières. Le fonds doit permettre d'accroître l'efficacité des contrôles afin d'améliorer la protection aux frontières extérieures et de réduire le nombre d'entrées irrégulières, tout en facilitant et accélérant les entrées légales. Dans un contexte de pression migratoire persistante, la question de la solidarité tout comme celle de la protection efficiente des frontières extérieures de l'espace Schengen sont capitales.
+Vous l'avez entendu: ce fonds n'est en soi pas une nouveauté. Il succède au Fonds pour la sécurité intérieure, auquel la Suisse participait déjà depuis 2018 et qui est arrivé à échéance fin 2020. Nous avons déjà mené des projets qui ont bénéficié à l'époque d'un soutien du Fonds pour la sécurité intérieure. Il s'agissait notamment - je me permets de le rappeler - de l'extension de l'infrastructure de contrôle des frontières à l'aéroport de Zurich, de la mise en place de la deuxième génération du système d'information Schengen et d'autres systèmes informatiques à grande échelle, ou encore de l'envoi d'agents de liaison dans des Etats tiers.
+En termes financiers, le bilan est le suivant.
+La Suisse a contribué à hauteur de 134 millions de francs au Fonds européen pour la sécurité intérieure et, en contrepartie, nous avons reçu des subventions à hauteur de 37 millions de francs pour soutenir la réalisation des différents projets dont j'ai fait mention.
+L'équilibre politique est réalisé du fait que la Suisse, n'ayant pas de frontières dites extérieures hormis ses aéroports, bénéficie des mesures prises par d'autres Etats concernant les frontières extérieures.
+J'aimerais peut-être encore donner une indication par rapport à l'espace Schengen. On le sait, la Suisse bénéficie par exemple, depuis le début de la mise en oeuvre, en 2009, d'un ratio de 3,5: on renvoie 3,5 fois plus de personnes dans l'espace Schengen qu'on en reprend. De fin décembre 2022 à fin octobre de cette année, ce ratio est toujours encore en faveur de notre pays: il est de 2,7. Nous avons 1810 renvois Dublin et 663 reprises. Donc, l'espace Schengen, même s'il doit être amélioré, même s'il n'a plus la résilience qu'on souhaiterait, doit impérativement être maintenu dans les critères de solidarité, car nous en sommes bénéficiaires.
+Les ressources allouées à ce nouveau fonds pour l'ensemble de sa durée, de 2021 à 2027, se montent à plus de 6,2 milliards d'euros au total. Le calcul des contributions pour chaque Etat associé, dont notre pays, se base sur la clé de répartition Schengen. Comme je l'ai indiqué, c'est la proportion de la part du produit intérieur brut (PIB) national par rapport à la somme totale des produits intérieurs bruts de tous les Etats participants. Je comprends donc qu'on veuille jouer sur la question du coût par habitant, mais en fait les règles sont claires: c'est le PIB.
+Pour l'heure, il n'est pas encore possible de chiffrer de manière définitive le coût de la participation de la Suisse à l'IGFV vu que cela dépendra des différents produits intérieurs bruts. Par contre, dans les conditions actuelles, il devrait s'élever à environ 4,55 pour cent du volume total de la dotation du fonds. Cela correspond à 284 millions d'euros. Sur la base d'une estimation prospective, et en conservant une certaine marge, un montant de 300 millions de francs, tel qu'il a été inscrit, à ce titre, au budget 2024 et au plan financier 2025-2027 de la Confédération, est correct. Plus précisément, le montant définitif de la contribution financière sera calculé en 2026 en fonction, justement, des chiffres du PIB des années 2020 à 2024, lesquels seront disponibles à partir de mars 2026. En raison de la participation tardive de notre pays au fonds, le premier versement n'aura vraisemblablement lieu qu'au cours du deuxième semestre de l'année prochaine, et ce, avec effet rétroactif à l'année 2021.
+Je souhaite encore, à titre de transparence, indiquer que, vu les flux migratoires auxquels l'Europe est confrontée actuellement et vu le potentiel des conséquences pour la sécurité intérieure en Europe, il n'est pas exclu qu'une augmentation de l'enveloppe soit sollicitée. En juin de cette année, la Commission européenne a déposé une proposition visant à relever le cadre financier pluriannuel, en allouant au fonds des moyens financiers supplémentaires. Cependant, cette proposition est encore en débat actuellement au sein du Conseil de l'UE, et une hausse de la dotation du fonds entraînerait une augmentation pour l'ensemble des Etats Schengen, y compris de la Suisse. Toutefois, c'est important de le préciser, grâce à la force du franc suisse, et par rapport à la marge de manoeuvre offerte par l'estimation prospective que nous avons réalisée et qui figure dans les budgets, cette augmentation devrait, d'après les dernières estimations, être limitée. Il n'y aurait que des modifications mineures au budget.
+Je l'ai indiqué: en contrepartie de sa participation, la Suisse devrait recevoir des ressources qui proviennent du nouveau fonds d'un montant total d'environ 50 millions de francs. Je ne vais pas revenir sur les projets qui sont plutôt de nature informatique ou qui concernent la numérisation. Par contre, il est important d'indiquer, à titre de comparaison, que l'Italie qui, elle, est fortement exposée à la migration irrégulière, avec ses frontières extérieures maritimes étendues, recevra environ 315 millions d'euros, tandis que l'Autriche, qui n'a que peu de frontières extérieures, si ce n'est ses aéroports, obtiendrait environ 28 millions d'euros. On voit donc comment le dispositif fonctionne en matière de solidarité et de calcul.
+J'en viens à un élément sensible, à savoir la crainte exprimée sur l'utilisation par certains pays des moyens financiers du [PAGE 2214] fonds. Cela a été dit à la tribune, mais aussi par une minorité de participants à la consultation: il y a des craintes quant aux risques d'utilisation des moyens du fonds pour financer des pratiques qui violeraient les droits humains ou les droits fondamentaux. Le Conseil fédéral attache une très grande importance à la protection des droits fondamentaux. Pour contribuer au renforcement du respect de ces droits aux frontières extérieures, la Suisse a par exemple détaché deux de ses experts auprès de l'office des droits fondamentaux de Frontex. Il incombe à chaque Etat Schengen de respecter les normes européennes en matière de protection des droits fondamentaux. L'obligation de respecter ces droits et le principe de non-refoulement est d'ailleurs explicitement inscrite à l'article 4 du règlement européen qui nous intéresse ici et aujourd'hui. De façon générale, l'utilisation conforme au droit des ressources provenant du fonds européen est en outre vérifiée par des autorités de contrôle indépendantes. En Suisse, il s'agit du Contrôle fédéral des finances. Dans le cadre de la mise en oeuvre du fonds, les Etats membres doivent aussi présenter à la Commission européenne des bilans annuels de performance, qui contiennent des informations précises et documentées sur le respect des droits fondamentaux.
+En ce qui concerne la prévention des utilisations abusives des fonds de l'Union européenne, cette dernière a créé l'Office européen de lutte antifraude, qui jouera ici un rôle important. La Suisse s'engage activement pour que les droits fondamentaux soient pleinement respectés lors de l'élaboration des mesures liées au fonds.
+En conclusion, la mise en oeuvre de ce développement de l'acquis Schengen nécessite la conclusion d'un accord additionnel. En effet, n'étant pas membre de l'Union européenne, notre pays doit définir de manière séparée notre participation. Le Conseil fédéral a approuvé cet accord additionnel le 23 août 2023 et l'a signé tout récemment, le 28 novembre 2023. Cet accord additionnel comporte en particulier des dispositions portant sur la méthode de calcul de la participation financière et sur le début du versement des contributions. Nous avions déjà conclu un même accord dans le cadre de notre participation au fonds précédent. Vous l'aviez adopté au Parlement en 2018.
+Der Bundesrat ist sich bewusst, dass die Schweiz mit dieser Vorlage einen erheblichen finanziellen Beitrag zu diesem Fonds leistet. Als Binnenstaat profitieren wir jedoch von einer effizienteren Kontrolle an den Schengen-Aussengrenzen, die wesentlich zur Sicherheit unseres Landes beiträgt. Es ist somit wichtig, dass wir uns gegenüber den an den Schengen-Aussengrenzen stark belasteten Staaten solidarisch zeigen und damit zur Aufrechterhaltung und zur[NB]Verbesserung[NB]der[NB]Sicherheit[NB]im gemeinsamen Schengen-Raum beitragen.
+Ich beantrage Ihnen, der Mehrheit Ihrer Kommission zu folgen, auf das Geschäft einzutreten und es anzunehmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">329885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20231207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guggisberg Lars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir befinden uns finanzpolitisch im Dauerregen, und die Wolken, die im Finanzplan aufziehen, werden immer dunkler. Die Aussichten sind mehr als düster, und der Grat, auf dem wir bezüglich des Budgets 2024 wandern, ist mehr als schmal. Wenn die Anträge der Mehrheit Ihrer Finanzkommission durchkommen, dann liegen wir weniger als 10 Millionen Franken unter dem Ausgabenplafond gemäss Schuldenbremse. Das ist bei einem Budgetvolumen von rund 85 Milliarden Franken praktisch nichts, nämlich nur etwa 0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir befinden uns finanzpolitisch im Dauerregen, und die Wolken, die im Finanzplan aufziehen, werden immer dunkler. Die Aussichten sind mehr als düster, und der Grat, auf dem wir bezüglich des Budgets 2024 wandern, ist mehr als schmal. Wenn die Anträge der Mehrheit Ihrer Finanzkommission durchkommen, dann liegen wir weniger als 10 Millionen Franken unter dem Ausgabenplafond gemäss Schuldenbremse. Das ist bei einem Budgetvolumen von rund 85 Milliarden Franken praktisch nichts, nämlich nur etwa 0,1 Promille.
+Wie konnte es so weit kommen? Wie konnten wir uns in eine derart missliche Lage manövrieren? Die Antwort auf diese Frage ist klar: Es ist die hemmungslose, verantwortungslose und kurzsichtige Ausgabenpolitik, welche nun unsere finanzpolitische Stabilität gefährdet. Die Bereiche Landesverteidigung und Landwirtschaft wurden hingegen während Jahrzehnten zu Tode gespart, und vor lauter Überfluss wurde die Basis vergessen. Jetzt, da die geopolitische Lage aus dem Ruder läuft, da die Selbstversorgung mit Lebensmitteln und Medikamenten plötzlich wieder wichtig wird und da das Bestehen einer intakten Landesverteidigung plötzlich über Sein oder Nichtsein entscheidet, besteht enormer Handlungsbedarf.
+Demgegenüber hat man in den Bereichen Entwicklungshilfe und soziale Wohlfahrt in den letzten Jahren mit immer grösserer Kelle angerührt. Bei der sozialen Wohlfahrt haben sich die Ausgaben in den letzten dreissig Jahren vervierfacht, jene bei der Entwicklungshilfe verzweieinhalbfacht. Wie ein Bumerang trifft uns das jetzt mit voller Kraft. Es ist an der Zeit, endlich Weitsicht walten zu lassen und das ungebremste Ausgabenwachstum zu stoppen. Wir müssen zurück zur haushälterischen Vernunft. Wir müssen den Fokus wieder mehr auf die Schweiz legen, damit wir unsere Bevölkerung weiterhin verlässlich versorgen und verteidigen können. Dieser Fokus auf die Lebensversicherung, wie ich es nenne, basiert im Wesentlichen auf drei Säulen: auf einer starken produzierenden Landwirtschaft, welche die Selbstversorgung sichert; auf intakten KMU, die unseren Wohlstand sichern; auf einer glaubwürdigen, gut ausgerüsteten Armee, die unsere Sicherheit garantiert.
+La politique de dépenses irresponsable met aujourd'hui en danger notre stabilité financière. Les domaines de la défense nationale et de l'agriculture ont été oubliés. En revanche, dans les domaines de l'aide au développement et de l'aide sociale, nous avons toujours mis les bouchées doubles ces dernières années. Au cours des trente dernières années, les dépenses en matière d'aide sociale ont quadruplé et celles en matière d'aide au développement ont été multipliées par deux et demi. 
+Nous devons revenir à la raison budgétaire. Nous devons accorder la priorité à la Suisse, afin de pouvoir continuer à approvisionner et à protéger notre population de manière fiable. Cette priorité, que je nomme assurance-vie, repose [PAGE 2222] essentiellement sur trois piliers: sur une agriculture productrice forte, qui garantit l'autosuffisance; sur des PME stables, qui assurent notre prospérité; et sur une armée crédible et bien équipée, qui garantit notre sécurité.
+In unserer misslichen Lage sollten wir uns nicht dazu hinreissen lassen, unsere finanzpolitische Seele zu verkaufen. Unsere finanzpolitische Seele ist die bewährte Schuldenbremse. Auf immer waghalsigere Experimente und abenteuerlichere Begründungen dafür, die bewährte Schuldenbremse zu umgehen, ist zu verzichten. Vor allem gilt das auch für die Unmengen an Steuergelder, die viele in diesem Raum in die Ukraine schicken wollen. Ebenfalls ist auf die blinde und unaufhörliche Äufnung von Fonds zu verzichten, obwohl diese gemäss der Eidgenössischen Finanzkontrolle aus allen Nähten platzen. Als Beispiel lässt sich hier der Fonds für die neue Regionalpolitik erwähnen. Diese "Kässelipolitik" zur Umgehung der Schuldenbremse ist nicht zielführend. Genau gleich sieht es aus bezüglich der Anhäufung von Reserven im Umfang von Hunderten von Millionen Franken bei[NB]der[NB]ETH.[NB]Die[NB]Zeiten[NB]sind vorbei, in welchen das verkraftbar war.
+Dans notre situation difficile, nous ne devrions pas nous laisser entraîner à vendre notre âme financière. Notre âme financière est le frein à l'endettement, qui a fait ses preuves. Il faut renoncer à des expériences toujours plus aventureuses et à des justifications osées pour contourner le frein à l'endettement.
+Im Weiteren müssen wir das jährliche Wachstum der Personalkosten endlich - endlich! - in den Griff bekommen. Die Verwaltung muss abgespeckt werden, und mindestens eine Annäherung des Personalrechts an das Obligationenrecht tut not. Hier soll auch die Justiz ihren Beitrag leisten. Es kann nicht sein, dass das Bundesgericht und das Bundesverwaltungsgericht diesbezüglich eine Extrawurst bekommen. Das Ignorieren von Sparforderungen des Bundesrates und ein überhebliches Auftreten gegenüber Parlamentariern sind kaum zielführend.
+Schliesslich müssen die gebundenen Ausgaben raschestmöglich gesenkt werden, damit unser finanzpolitischer Handlungsspielraum wieder grösser wird. Ich danke dem Bundesrat an dieser Stelle, dass er diesbezüglich erste Schritte eingeleitet hat. Ausserdem braucht es eine rasche Entflechtung der Aufgaben zwischen Bund und Kantonen. Es kann nicht sein, dass Anschubfinanzierungen plötzlich zu jährlich wiederkehrenden Ausgaben mutieren, wie dies letzthin bei der Kita-Finanzierung geschehen ist, die das Bundesbudget künftig über 700 Millionen Franken kosten soll.
+Par ailleurs, nous devons enfin maîtriser la croissance annuelle des frais de personnel. L'administration doit être allégée et il faut au moins rapprocher le droit du personnel du code des obligations. A ce propos, la justice doit également apporter sa contribution. Ignorer les demandes d'économies du Conseil fédéral et faire preuve d'arrogance envers les parlementaires n'apporte rien. Enfin, les dépenses liées doivent être réduites le plus rapidement possible afin que notre marge de manoeuvre en matière de politique financière soit à nouveau plus grande. En outre, il faut rapidement séparer clairement les tâches de la Confédération et celles des cantons.
+Zum Schluss noch dies: Wir sollten mit gutem Beispiel vorangehen und auch bei uns selbst den Gürtel enger schnallen. Sie haben bereits bei Block 1 die Chance dazu, bei den Minderheitsanträgen Strupler.
+Ich fasse zusammen: Wir brauchen nach Jahren der Masslosigkeit wieder mehr Ausgabendisziplin; wir müssen die Schuldenbremse respektieren, die Personalkosten in den Griff bekommen, mit der "Kässelipolitik" aufhören, die Aufgaben zwischen Bund und Kantonen entflechten und die gebundenen Ausgaben senken. Wenn wir diese Massnahmen rasch und konsequent umsetzen, dann werden sich die düsteren Wolken bald verziehen. Andernfalls werden wir finanzpolitisch noch lange im Regen stehen und auf Sonnenschein warten müssen.
+Si nous mettons en oeuvre ces mesures rapidement et de manière conséquente, les nuages sombres se dissiperont bientôt. Dans le cas contraire, nous devrons attendre encore longtemps avant que le soleil brille en matière de politique financière.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rückblende: Anfang 2020 kam Corona. Es brauchte plötzlich Masken und Wirkstoffe für Medikamente und Desinfektionsmittel. Was ist dann passiert? Unsere Nachbarländer stoppten Lieferungen in die Schweiz und wollten plötzlich von Verträgen nichts mehr wissen, weil sie die Masken und Wirkstoffe selber benötigten, um ihre eigenen Leute damit zu versorgen und zu schützen. 
+Bei der aktuellen geopolitischen Lage ist es nicht auszuschliessen, dass Gleiches plötzlich mit Lebensmitteln passiert. Der Nettos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rückblende: Anfang 2020 kam Corona. Es brauchte plötzlich Masken und Wirkstoffe für Medikamente und Desinfektionsmittel. Was ist dann passiert? Unsere Nachbarländer stoppten Lieferungen in die Schweiz und wollten plötzlich von Verträgen nichts mehr wissen, weil sie die Masken und Wirkstoffe selber benötigten, um ihre eigenen Leute damit zu versorgen und zu schützen. 
+Bei der aktuellen geopolitischen Lage ist es nicht auszuschliessen, dass Gleiches plötzlich mit Lebensmitteln passiert. Der Nettoselbstversorgungsgrad mit Lebensmitteln in der Schweiz liegt aktuell nur bei 45 Prozent. Wir können aktuell also nicht einmal die Hälfte unserer Bevölkerung mit eigenen Lebensmitteln versorgen. Das ist alarmierend und muss zu denken geben. 
+Wenn wir nun unsere Landwirtschaft, die uns notabene unter Wahrung hoher Umweltstandards regional und lokal mit gesunden, qualitativ hochstehenden Lebensmitteln versorgt, weiter schwächen, dann schneiden wir uns ins eigene Fleisch. Unsere Landwirtschaft garantiert uns Selbstversorgung. Viele in diesem Raum wollen immer mehr Menschen in unser Land lassen, und teilweise wollen dieselben gleichzeitig unsere Landwirtschaft schwächen, welche unsere eigenen Leute mit Lebensmitteln versorgen soll. Diese Rechnung geht nicht auf. Wir müssen unsere Landwirtschaft stützen, wenn wir möglichst unabhängig sein wollen. Kürzungen bei der Landwirtschaft kommen für die SVP-Fraktion daher nicht infrage.
+Bitte berücksichtigen Sie dabei, dass die Ausgaben im Bereich Landwirtschaft und Ernährung in den letzten dreissig Jahren um lediglich 46 Prozent gewachsen sind, währenddem sich die Bundesausgaben in der gleichen Zeit verzweieinhalbfacht haben. Bitte berücksichtigen Sie auch, dass sich die Kürzungen bei den Direktzahlungen unmittelbar in den Löhnen unserer Bauernfamilien niederschlagen. Das kann Rot-Grün kaum gut finden. Es geht also nicht um Erhöhungen. Lehnen Sie daher bitte alle Kürzungsanträge ab. Es geht nur darum, bei den landwirtschaftlichen Ausgaben das aktuelle Niveau zu halten.
+Erlauben Sie mir, als Fraktionssprecher noch ein paar Worte zu den Minderheitsanträgen I (Andrey) und II (Ritter) bei der Regionalpolitik zu verlieren. Ich bitte Sie, aus folgenden Gründen diese Minderheitsanträge abzulehnen: Es gibt einen Fonds für Regionalpolitik. Die Eidgenössische Finanzkontrolle hat vehement darauf hingewiesen, dass dieser Fonds massiv überdotiert ist. Im Fonds sind 1,115 Milliarden Franken. Der Fonds platzt aus allen Nähten. Wenn wir jetzt im Jahr 2024 ausnahmsweise darauf verzichten, 25 Millionen Franken in diesen Fonds einzubezahlen, hat das [PAGE 2245] überhaupt keinen Einfluss auf die Projekte im ländlichen Raum. Im Fonds liegt längst genug Geld, um diese Projekte im ländlichen Raum zu realisieren. Die NRP-Projekte, die Kollege Andrey vorhin angesprochen hat, können alle ohne diese 25 Millionen Franken im Jahr 2024 realisiert werden. Wenn etwas anderes behauptet wird, dann ist das schlicht und einfach falsch.
+Ich bitte Sie daher, die Minderheitsanträge I (Andrey) und II (Ritter) abzulehnen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrey Gerhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT-Projekte in der Armee haben immer wieder einen schweren Stand, und es ist schwierig, sie erfolgreich ins Ziel zu bringen, sei dies zeitlich, preislich oder in der Ausgestaltung. Mit aktuellen Programmen wie Fitania, ERP Systeme V/ar oder dem Breitband-Sicherheitskommunikationssystem sowie weiteren Projekten haben die aktuellen IKT-Ausgaben der Armee ein beeindruckendes Volumen von 4 Milliarden Franken erreicht. Ein wesentlicher Anteil der Rüstungsausgaben geht also in Digitalisierungsprojekte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT-Projekte in der Armee haben immer wieder einen schweren Stand, und es ist schwierig, sie erfolgreich ins Ziel zu bringen, sei dies zeitlich, preislich oder in der Ausgestaltung. Mit aktuellen Programmen wie Fitania, ERP Systeme V/ar oder dem Breitband-Sicherheitskommunikationssystem sowie weiteren Projekten haben die aktuellen IKT-Ausgaben der Armee ein beeindruckendes Volumen von 4 Milliarden Franken erreicht. Ein wesentlicher Anteil der Rüstungsausgaben geht also in Digitalisierungsprojekte, sei dies in der Kommunikation, in der Logistik oder bei anderen betrieblichen Prozessen.
+Die Eidgenössische Finanzkontrolle hält in ihren Berichten fest, dass die Zusammenhänge zwischen den verschiedenen IKT-Projekten in der Armee nicht wie gewünscht funktionierten, dies unter anderem deshalb, weil ein Portfolio-Controlling fehle. Das muss man sich vorstellen: Trotz diesen Dimensionen wird das Ganze nicht als Gesamtportfolio gemanagt. Es wird deshalb davon ausgegangen, dass dies in den Projekten zu Doppelspurigkeiten und zu genereller Ineffizienz führe. Einzelne Projekte geraten auch immer wieder in Schwierigkeiten: Beim SAP-Projekt ERP Systeme V/ar zum Beispiel, für welches wir hier im Rat vor drei Jahren einen Verpflichtungskredit über 240 Millionen Franken gesprochen hatten, wird kritisiert, dass das Budget zwar eingehalten, die Funktionalität aber bei Weitem nicht im geplanten Umfang geliefert wurde. Als Folge davon wird das VBS dem Parlament in naher Zukunft ein neues Vorhaben mit Kosten in derzeit unbekannter Höhe vorlegen müssen. Laut Eidgenössischer Finanzkontrolle sind auch bei anderen IT-Vorhaben der Armee Schwierigkeiten absehbar.
+Von den Querschnittkürzungen, welche das Parlament beschlossen hat, ist die Armee nicht betroffen. Allerdings befreit sie dieser Umstand nicht von einem effizienten Umgang mit den ihr zur Verfügung gestellten Mitteln.
+La réduction demandée avec ma minorité, dans le budget 2024, pour ces projets numériques, doit inciter à enfin réaliser des optimisations de processus urgents et à mettre en place un contrôle efficace du portefeuille des projets. Des économies d'au moins 2 pour cent, comme l'exigent les réductions transversales, devraient être relativement faciles à réaliser dans les conditions actuelles; grâce à une gestion de projets professionnelle, cela devrait être possible. D'ailleurs, 2 pour cent d'un volume de 4 milliards de francs constituent la base de la réduction proposée de 80 millions de francs, comme vous pouvez le constater sur le dépliant. Ce montant donnerait au budget 2024 la marge de manoeuvre nécessaire pour éviter le blocage des crédits. 
+Je vous prie de soutenir cette proposition de minorité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20231212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seiler Graf Priska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit der Motion Salzmann soll der Bundesrat beauftragt werden, keine Änderungen der Schiessverordnung VBS per[NB]1.[NB]Januar 2024 vorzunehmen und somit den Preis für die Munitionsgewehrpatrone 11, welche für das Sturmgewehr 57, den Karabiner und das Langgewehr verwendet wird, nicht zu erhöhen. Der Ständerat hat die Motion am 19.[NB]September 2023 mit 28 zu 10 Stimmen bei 4 Enthaltungen angenommen. Der Bundesrat hatte hingegen die Ablehnung der Motion beantragt. 
+Ihre Sicherheitspolitische Kommis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit der Motion Salzmann soll der Bundesrat beauftragt werden, keine Änderungen der Schiessverordnung VBS per[NB]1.[NB]Januar 2024 vorzunehmen und somit den Preis für die Munitionsgewehrpatrone 11, welche für das Sturmgewehr 57, den Karabiner und das Langgewehr verwendet wird, nicht zu erhöhen. Der Ständerat hat die Motion am 19.[NB]September 2023 mit 28 zu 10 Stimmen bei 4 Enthaltungen angenommen. Der Bundesrat hatte hingegen die Ablehnung der Motion beantragt. 
+Ihre Sicherheitspolitische Kommission hat die Motion am 6.[NB]November 2023 beraten und beantragt Ihnen mit 11 zu 10 Stimmen bei 3 Enthaltungen, also knapp, die Motion abzulehnen. Die Gewehrpatrone 11 (GP[NB]11) wird aktuell stärker subventioniert als die Munition, die von der Armee heute verwendet wird, nämlich die Gewehrpatrone 90 (GP[NB]90). Die Eidgenössische Finanzkontrolle (EFK) hat dies moniert und empfiehlt eine Senkung dieser Subvention. Diese Empfehlung soll nach Meinung des Bundesrates nun auch umgesetzt werden. In Absprache mit dem Schweizer Schiesssportverband erhalten Schiessvereine in Zukunft mehr direkte Finanzmittel. Beispielsweise erhalten sie höhere Beiträge, um das obligatorische Schiessprogramm, das Feldschiessen und die Jungschützenkurse durchführen zu können. Im Gegenzug aber wird die Subvention für die Munitionsgewehrpatrone 11, wie schon erwähnt, reduziert. Ich möchte hier klar betonen: Diese Subvention wird nicht aufgehoben, wie wird lediglich reduziert. Der Bund unterstützt damit die Schiessvereine weiterhin mit dieser Munition, obwohl sie für die Armee keinen Trainingseffekt mehr bringt. 
+Mit diesen Massnahmen wird der Zweck des Schiesswesens ausser Dienst mehr in den Vordergrund gerückt, nämlich die Förderung der Schiessfertigkeit der Armeeangehörigen mit dem Sturmgewehr 90, die regelmässige Überprüfung der Funktionstüchtigkeit der persönlichen Waffe und die Ergänzung und Entlastung der Schiessausbildung in den militärischen Kursen und Schulen. Die Kommissionsmehrheit ist der Meinung, dass die Situation mit der Lösung des Bundesrates sogar generell verbessert wird. Die Schiessvereine erhielten höhere Beiträge für das obligatorische Programm, das Feldschiessen, die Jungschützenkurse und die technischen Kurse mit dem Sturmgewehr 90. In den Augen der Mehrheit ist es nämlich absolut sinnvoll und auch zielführend, den Schwerpunkt auf die Unterstützung jener Aktivitäten zu legen, die für die Armee auch tatsächlich einen Mehrwert darstellen und einen Trainingseffekt bringen.
+Die Mehrheit der Kommission begrüsst auch diese gemeinsam mit dem Schweizer Schiesssportverband erarbeitete Lösung. Die Mehrheit betont, dass nur die GP-90-Munition für die heutige Armeewaffe, das Sturmgewehr 90, verwendet wird und dass die GP-11-Munition in erster Linie für das Sportschiessen eingesetzt wird. Der Nutzen für die Armee ist also klein. Die GP-11-Munition wird heute aber faktisch mehr subventioniert als die GP-90-Munition, nämlich mit 60 Rappen.
+Die Subvention soll in Zukunft auf 30 Rappen gesenkt werden. Diese Massnahme bringt keine Nachteile für die Armee, da der Preis für die GP-90-Munition mit 30 Rappen unverändert bleibt und der Trainingseffekt im Umgang mit der persönlichen Waffe gewährleistet werden kann. Letzten Endes kann der Bund mit der Umsetzung dieser Massnahmen unter dem Strich etwa 1,5 Millionen Franken sparen. Aber, das möchte ich betonen, es ist nicht in erster Linie eine Sparübung.
+Die Minderheit erachtet es hingegen als falsch, Einsparungen zulasten der Schützinnen und Schützen vorzunehmen. Sie warnt vor einer Abnahme sowohl der Schiesstätigkeit wie auch der Mitglieder der Schützenvereine und wehrt sich gegen ein Ausspielen der jüngeren gegen die älteren Schützinnen und Schützen.
+Die Minderheit weist auch darauf hin, dass es wichtig ist, die Schiessfertigkeit zu verbessern, um den Wehrwillen zu stärken - unabhängig davon, mit welcher Ordnungswaffe geschossen wird. Nach Meinung der Minderheit geht es hier auch nicht um eine symbolische Frage. Der Schiesssport hat einen engen Zusammenhang mit der Milizarmee und der Schiesskultur in der Schweiz.
+Ich bitte Sie nun aber nach all diesen Erwägungen, Ihrer Kommission zu folgen und die Motion Salzmann abzulehnen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amherd Viola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Gewehrpatrone 11 wird stärker subventioniert als die Munition, die von der Armee heute tatsächlich verwendet wird, also die Gewehrpatrone[NB]90. Die Eidgenössische Finanzkontrolle hat das moniert und empfiehlt eine Senkung dieser Subvention. Dafür soll das Schiessen mit der aktuellen Waffe stärker unterstützt werden. Dieser Empfehlung der EFK soll nun Rechnung getragen werden.
+Folgende neue Regelung ist vorgesehen: In Absprache mit dem Schweizer Schiesssportverband erhalten Schiessvereine in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Gewehrpatrone 11 wird stärker subventioniert als die Munition, die von der Armee heute tatsächlich verwendet wird, also die Gewehrpatrone[NB]90. Die Eidgenössische Finanzkontrolle hat das moniert und empfiehlt eine Senkung dieser Subvention. Dafür soll das Schiessen mit der aktuellen Waffe stärker unterstützt werden. Dieser Empfehlung der EFK soll nun Rechnung getragen werden.
+Folgende neue Regelung ist vorgesehen: In Absprache mit dem Schweizer Schiesssportverband erhalten Schiessvereine in Zukunft mehr direkte finanzielle Mittel. Beispielsweise erhalten sie höhere Beiträge, um das obligatorische Schiessprogramm, das Feldschiessen und Jungschützenkurse durchzuführen. Im Gegenzug wird die Subvention für die Gewehrpatrone 11 reduziert. Ich betone: nicht aufgehoben, nur reduziert. Konkret soll die Gewehrpatrone 11 im gleichen Verhältnis subventioniert werden wie die Gewehrpatrone 90, nämlich zu rund 40 Prozent anstatt wie bisher zu 70 Prozent. Damit subventioniert der Bund die Munition nach wie vor mit namhaften Beiträgen, obwohl damit ein bescheidener Trainingseffekt für die Armee erzielt wird. Mit diesen Massnahmen wird der Zweck des Schiesswesens ausser Dienst weiterhin erfüllt, nämlich die Förderung der Schiessfertigkeit der Armeeangehörigen, die regelmässige Überprüfung der Funktionstüchtigkeit der persönlichen Waffe und die Ergänzung und Entlastung der Schiessausbildung in den militärischen Kursen und Schulen.
+Ich fasse zusammen: Die Eidgenössische Finanzkontrolle hat die Subventionierung der Gewehrpatrone 11 kritisiert. Die Munition soll weniger stark als bisher subventioniert werden. In Absprache mit dem Schweizer Schiesssportverband sollen die Schiessvereine im Gegenzug mehr direkte Mittel erhalten, die dem Zweck des Schiessens ausser Dienst besser entsprechen.
+Das heisst, ich bitte Sie im Namen des Bundesrates und mit der Mehrheit Ihrer Kommission, die Motion abzulehnen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dieses Postulat, das ich von unserer ehemaligen Kollegin Franziska Roth übernommen habe, enthält drei Forderungen.
+Erstens soll der Bundesrat beauftragt werden, zu prüfen und darüber Bericht zu erstatten, welche IKT-Gesamtarchitektur und Digitalisierung der Armee auf kurze, mittlere und lange [PAGE 2356] Frist angestrebt wird und wie bestehende und künftige Fähigkeiten und Projekte sowie deren Schnittstellen, Leistungsanforderungen und Ziele ins Ganze eingefügt werden können.
+Zweitens soll in di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dieses Postulat, das ich von unserer ehemaligen Kollegin Franziska Roth übernommen habe, enthält drei Forderungen.
+Erstens soll der Bundesrat beauftragt werden, zu prüfen und darüber Bericht zu erstatten, welche IKT-Gesamtarchitektur und Digitalisierung der Armee auf kurze, mittlere und lange [PAGE 2356] Frist angestrebt wird und wie bestehende und künftige Fähigkeiten und Projekte sowie deren Schnittstellen, Leistungsanforderungen und Ziele ins Ganze eingefügt werden können.
+Zweitens soll in diesem Bericht aufgezeigt werden, wie dafür die Leadership und die Gouvernanz zu gestalten sind. Damit ist gemeint, dass klar ersichtlich sein muss, wer die Verantwortung für eine ganzheitliche Steuerung trägt, wer mittels Priorisierungen für die Kohärenz mit den langfristig verfügbaren personellen und finanziellen Ressourcen sorgt und wer Aufgaben, Kompetenzen und Verantwortungen verteilt und ein projektübergreifendes Risikomanagement einrichtet.
+Und drittens soll in diesem Bericht auch aufgezeigt werden, wie das angestrebte Ambitionsniveau der Digitalisierung der Armee und der militärischen IKT sowie die daraus abgeleiteten technischen Anforderungen so definiert werden, dass mit den verfügbaren Mitteln den tatsächlich vorhandenen Sicherheitsrisiken bestmöglich begegnet und die übergeordnete Kohärenz mit dem Gesamtsystem der Armee sowie mit den Partnern in Miliz, Industrie und Gesellschaft sichergestellt wird.
+Warum braucht es dieses Postulat zwingend? Der Untersuchungsbericht der Firma BDO AG vom 5.[NB]Januar 2023 über die Mehrkosten in Sachen Rechenzentrum VBS und Ersatz der Florako-Führungssysteme sowie die beiden EFK-Prüfberichte über die Ressourcensteuerung in der FUB und die Entflechtung der IKT-Basisleistungen VBS weisen auf ein grundsätzliches "IT-Desaster" hin. So nenne nicht ich es, so nannte es die "NZZ" in ihrer Ausgabe vom 12.[NB]Januar 2023. Als Ursache werden die fehlende übergreifende Vision der IKT-Gesamtarchitektur und Digitalisierung der Armee und die ungenügende strategische Gesamtsteuerung angegeben. Fehlende Leadership hatte bereits der Bericht der Beratungsfirma Deloitte vom Juni 2020 festgestellt. Es gibt viele, sehr viele Teilprojekte, es ist aber unklar, wer die Verantwortung für die Gesamtsteuerung wahrnimmt. Hier nur ein paar Beispiele der wichtigsten IT-Projekte: die Entflechtung der IKT-Basisleistungen VBS; der Aufbau des Kommandos Cyber und der neuen Digitalisierungsplattform; das Übergangssystem Legacy; die Digitalisierung der Miliz; Fitania mit den drei Teilprojekten Rechenzentren, Führungsnetz Schweiz und Telekommunikation der Armee; Skyview; das integrierte Planungs- und Lageverfolgungsinformationssystem; die Weiterentwicklung des Führungsinformationssystems des Heeres und noch viele mehr.
+Der mit dem Postulat angeforderte Bericht soll Klarheit über die Vision der angestrebten IKT-Gesamtarchitektur und Digitalisierung der Armee schaffen und endlich die Gouvernanz und Leadership über die gesamte Digitalisierungsstrategie hinweg klären. Wer ist für die Verteilung der Aufgaben, Kompetenzen, Verantwortlichkeiten zuständig? Wer richtet das Risikomanagement ein? Wer sorgt für eine strategische Gesamtkohärenz? Das sind die Fragen, die uns nicht egal sein können. 
+Ich bitte Sie daher, dieses Postulat anzunehmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fivaz Fabien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Commission de la politique de sécurité de notre conseil n'a pas accepté la motion de notre collègue Werner Salzmann, par 11 voix contre 10 et 3 abstentions. Pour rappel, le Conseil des Etats, lui, a accepté cette motion, par 28 voix contre 10. Le Conseil fédéral - Mme la conseillère fédérale le dira sans doute après - y est opposé.
+Que demande l'auteur du texte? Il souhaite que le Conseil fédéral revienne sur sa décision de modifier l'ordonnance sur le tir, pour ce qui concerne le tir hors du</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Commission de la politique de sécurité de notre conseil n'a pas accepté la motion de notre collègue Werner Salzmann, par 11 voix contre 10 et 3 abstentions. Pour rappel, le Conseil des Etats, lui, a accepté cette motion, par 28 voix contre 10. Le Conseil fédéral - Mme la conseillère fédérale le dira sans doute après - y est opposé.
+Que demande l'auteur du texte? Il souhaite que le Conseil fédéral revienne sur sa décision de modifier l'ordonnance sur le tir, pour ce qui concerne le tir hors du service. En effet, à la suite d'une intervention du Contrôle fédéral des finances et dans un souci budgétaire, le Conseil fédéral a revu les subventions pour les munitions GP 11, qui sont passées de 70 centimes par cartouche à 40 centimes par cartouche. La subvention ne sera donc pas totalement supprimée, mais comme une cartouche coûte grosso modo 1 franc, le coût pour les tireuses et les tireurs passera de 30 à 60 centimes par cartouche.
+Pourquoi la proposition de supprimer ce soutien a-t-elle été faite? Parce que cela n'est plus adéquat. Les cartouches GP 11 ne sont plus utilisées par l'armée. Elles étaient utilisées dans l'ancien fusil d'assaut 57. Elles ont été remplacées relativement récemment par la cartouche GP 90, dont le prix restera, lui, inchangé, soit d'environ 30 centimes. Ceci permettra de maintenir l'entraînement avec l'arme personnelle. C'est l'une des volontés; cela a été mis en évidence par le Contrôle fédéral des finances; on subventionne beaucoup plus ou un peu plus une munition qui n'est aujourd'hui plus utilisée par l'armée. Selon le Contrôle fédéral des finances, ceci doit donc permettre de favoriser l'arme actuellement utilisée par l'armée, dont l'utilisation sert véritablement les besoins sécuritaires de la Suisse. Les autres armes, dotées de la munition GP 11, sont avant tout employées par des [PAGE 2346] personnes qui n'effectuent plus leur service ou qui l'utilisent principalement dans le cadre du tir sportif.
+C'est aussi une économie pour la Confédération dans le contexte budgétaire actuellement difficile. La baisse est d'environ 1,5 million de francs par année pour les finances fédérales. La baisse de subventions réelle est de 3,5 millions de francs, mais elle est en fait compensée par un soutien supplémentaire aux sociétés de tir sous la forme de subventions à trois programmes - celui des tirs obligatoires, celui des tirs en campagne et celui des cours pour jeunes tireurs. Ceci a en réalité permis au Conseil fédéral d'obtenir le soutien de la Fédération sportive suisse de tir, qui a longuement travaillé sur ce projet avec les sections, dans les cantons et avec le département.
+Au sein de la commission, pour la majorité, ce projet du Conseil fédéral fait sens. Les deniers publics doivent être dépensés dans le but de soutenir les véritables tâches de la Confédération, en l'occurrence la défense. La Confédération n'a pas les moyens et, en réalité, aucun intérêt à subventionner une activité sportive comme une autre, qui, je le rappelle, n'apporte pas grand-chose à l'armée.
+Pour la minorité Addor par contre, il est inimaginable de faire des économies sur le dos des tireuses et des tireurs sportifs. Les sociétés de tir rencontrent aujourd'hui des difficultés à recruter de nouveaux membres. La minorité estime donc que le tir sportif n'est pas un sport comme un autre, mais entretient un lien important avec l'armée. C'est une institution culturelle dans notre pays.
+Je vous remercie de soutenir la majorité de votre commission.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addor Jean-Luc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que certains à gauche, chez les Verts, profitent de chaque occasion pour s'en prendre à la pratique du tir, n'a rien de bien nouveau. Ce qui est original, cette fois - et qui a suscité, par cette motion, la réaction du conseiller aux Etats Salzmann et d'une large majorité du Conseil des Etats -, est que le coup - c'est le cas de le dire - vient du Contrôle fédéral des finances, hélas relayé ensuite par le DDPS.
+Un fonctionnaire a fait une grande découverte - en réalité, il n'a rien découvert d'o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que certains à gauche, chez les Verts, profitent de chaque occasion pour s'en prendre à la pratique du tir, n'a rien de bien nouveau. Ce qui est original, cette fois - et qui a suscité, par cette motion, la réaction du conseiller aux Etats Salzmann et d'une large majorité du Conseil des Etats -, est que le coup - c'est le cas de le dire - vient du Contrôle fédéral des finances, hélas relayé ensuite par le DDPS.
+Un fonctionnaire a fait une grande découverte - en réalité, il n'a rien découvert d'original -: la GP 11 n'est plus utilisée dans notre armée pour le tir au fusil d'ordonnance. Il a cru avoir trouvé l'oeuf de Colomb des économies. L'oeuf de Colomb? Des bouts de chandelles, plutôt, oui. Alors qu'hier encore, nous parlions d'un budget de plus de 80 milliards de francs, c'est d'une économie de 1,5 million de francs dont nous parlons.
+Le DDPS a malheureusement réussi à faire avaler cette couleuvre à la Fédération suisse de tir, en contrepartie - cela a été relevé - d'une augmentation des subventions aux sociétés de tir. C'est l'argument sur lequel s'appuie la majorité de la commission, une majorité au nom de laquelle, aujourd'hui, s'expriment une socialiste et un Vert. Tiens donc; c'est bien la première fois que les socialistes et les Verts, adversaires historiques du tir et des tireurs, font la promotion du tir obligatoire, du tir en campagne ou encore des cours pour jeunes tireurs. De quoi dresser un peu l'oreille, non?
+En tout cas, le résultat de ce marchandage malheureux - on a joué les sociétés de tir contre les tireurs - pour une économie négligeable, est que pour les tireurs au fusil d'assaut 57 et au mousqueton surtout, la munition coûtera deux fois plus cher. La conséquence, sachant qu'une large majorité des tireurs vétérans - plus de 70 pour cent - tirent avec la GP 11? Une réduction du nombre des tireurs et des membres des sociétés de tir qui, en cette période où beaucoup, dans notre pays, sont pris à la gorge par l'augmentation du coût de la vie, seront découragés de pratiquer un sport tout de même coûteux.
+Le problème, c'est que - contrairement à ce que ceux qui nous vendent ce fâcheux compromis essaient de nous faire croire - on ne va pas juste favoriser les jeunes par rapport aux vétérans, car les vétérans ne sont pas juste des gens que certains jugent trop vieux pour être soutenus: ils sont l'ossature, la colonne vertébrale de nos sociétés de tir. On nous vend un soutien à ces sociétés. Mais - je le répète - en montant les sociétés contre les tireurs, nous prenons le risque de nous retrouver avec des sociétés sinon sans sociétaires, du moins saignées par l'hémorragie de leurs membres fidèles.
+Ce faisant, le DDPS - avec le soutien suspect de la gauche et du groupe des Verts - va à l'encontre de sa propre stratégie, celle de l'unité Tir et activités hors du service, dont l'augmentation des moyens, à coup sûr, vise à promouvoir les activités hors du service et non pas à les réduire comme ce sera immanquablement le cas.
+Ce qui est en jeu, au-delà de ferraille et de poudre, au-delà de 1,5 million de francs, c'est la valeur symbolique du soutien dont le DDPS veut priver des milliers de tireurs de ce pays. C'est le lien étroit, indissociable entre un sport, un loisir et notre armée, un lien aussi, de manière plus générale, avec l'esprit de défense et la volonté de servir, dont les tireurs sont le fer de lance. Ces milliers de tireurs que le DDPS juge aujourd'hui indignes de soutien resteront-ils ces soutiens fidèles de notre défense nationale qu'ils ont toujours été par tradition? 1,5 million de francs, c'est de l'argent, évidemment. Mais 1,5 million pour perdre des soutiens fidèles à notre défense nationale et pour porter un coup supplémentaire à la pratique du tir, c'est cher payé.
+Voilà pourquoi, voilà pour qui, au nom d'une forte minorité de la commission - 10 contre 11 et 3 abstentions -, je vous demande de soutenir la motion Salzmann et, avec le Conseil des Etats, de renoncer à ces économies de bouts de chandelles, pour ces milliers de tireurs qui aujourd'hui nous regardent.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20231218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le postulat 23.4314 de votre Commission de gestion demande qu'un bilan général et approfondi soit tiré de l'engagement de l'armée et de la protection civile pour le soutien à l'exécution cantonale lors de la pandémie de COVID-19. L'engagement de la protection civile, de l'armée et du service civil, aussi, pour soutenir les cantons durant la pandémie de COVID-19, a déjà fait l'objet de différents bilans au cours des dernières années.
+Das ist beispielsweise in der Botschaft zum zweiten Assistenzdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le postulat 23.4314 de votre Commission de gestion demande qu'un bilan général et approfondi soit tiré de l'engagement de l'armée et de la protection civile pour le soutien à l'exécution cantonale lors de la pandémie de COVID-19. L'engagement de la protection civile, de l'armée et du service civil, aussi, pour soutenir les cantons durant la pandémie de COVID-19, a déjà fait l'objet de différents bilans au cours des dernières années.
+Das ist beispielsweise in der Botschaft zum zweiten Assistenzdienst der Armee, in zwei Berichten der Bundeskanzlei zum Krisenmanagement des Bundes oder in einem Bericht der Eidgenössischen Finanzkontrolle der Fall. Die von Ihrer Geschäftsprüfungskommission gewünschte Bilanz soll nun die Resultate dieser Berichte mit einem besonderen Fokus auf den Zivilschutz und die Armee zusammentragen und, wo angezeigt, ergänzen. Insbesondere sollen die Lehren und Konsequenzen für die zukünftige Zusammenarbeit mit den Kantonen dargelegt werden. 
+Aus Sicht des VBS ist es wichtig und richtig, den umfangreichen Einsatz von Zivilschutz und Armee gründlich zu analysieren. Zentral ist dabei die Evaluation von verwaltungsinternen Prozessen für den Einsatz bzw. die Mobilmachung von Zivilschutz und Armee. Wir können und müssen für die Zukunft lernen und uns noch verbessern.
+Der Bundesrat beantragt aus diesen Gründen die Annahme des Postulates.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20231220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um was geht es bei der Armee und bei der Landesverteidigung? Es geht um nichts weniger als um die Sicherheit unserer Bevölkerung. Der Zustand unserer Armee ist besorgniserregend. Bis zum Ende des Kalten Kriegs 1989 wurde unsere Armee für die Landesverteidigung noch mehr oder weniger anständig ausgerüstet. Dann hatte man in diesem Land das Gefühl - jedenfalls die Mehrheit -, dass der ewige Frieden in Europa ausgebrochen sei. Leider sind wir hart gelandet in der Realität und haben festgestellt, da</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um was geht es bei der Armee und bei der Landesverteidigung? Es geht um nichts weniger als um die Sicherheit unserer Bevölkerung. Der Zustand unserer Armee ist besorgniserregend. Bis zum Ende des Kalten Kriegs 1989 wurde unsere Armee für die Landesverteidigung noch mehr oder weniger anständig ausgerüstet. Dann hatte man in diesem Land das Gefühl - jedenfalls die Mehrheit -, dass der ewige Frieden in Europa ausgebrochen sei. Leider sind wir hart gelandet in der Realität und haben festgestellt, dass das nicht der Fall ist. Trotzdem haben wir unsere Landesverteidigung seitdem, seit 1989, totgespart. [PAGE 2482] 
+Ich habe 1998 meine Ausbildung in der Rekrutenschule gemacht und bin dort als Panzerfahrer auf einem Leopard 2 ausgebildet worden. Bis heute fährt man immer noch diese Leopard-2-Panzer, und das sagt doch eigentlich alles. 25 Jahre später sind die Systeme und die Ausrüstung veraltet. Das Problem ist nun, dass wir diese Zeit, die wir verloren haben, um unsere Armee anständig auszurüsten, aufholen müssen. Dabei dürfen wir auch nicht vergessen, dass es, ich habe es gesagt, um die Sicherheit unserer Bevölkerung geht: Damals hatten wir 7 Millionen Einwohner, und heute müssen wir 9 Millionen Einwohner schützen. 
+1 Prozent des Bruttoinlandprodukts für die Armee bis 2030: So lautete der Beschluss dieses Parlamentes hier in diesem Haus, und an diesem Beschluss möchten wir festhalten. Es ist klar, dass es etwas kostet - es kostet sogar viel. Das Problem ist, dass wir in ganz vielen anderen Bereichen bei den Ausgaben nicht massgehalten haben, und wir erhalten jetzt die Quittung. Wir müssen innert kurzer Zeit hinsichtlich dieses Nachholbedarfs tätig werden. "Spare in der Zeit, so hast du in der Not"; das war der Leitsatz meiner Kollegin, Sarah Wyss. Als sie das gesagt hat, hat sie wohl nicht daran gedacht, dass die Armee in Zukunft mehr Geld braucht. Deshalb erhalten wir jetzt die Quittung. 
+Ich bitte Sie, an Ihrem Beschluss, dem Erreichen von 1 Prozent des Bruttoinlandprodukts bis 2030, festzuhalten. Bitte unterstützen Sie meine Minderheit.
+Ich komme zur UNRWA: Was ist die oberste Maxime der humanitären Hilfe? Es geht darum, Menschen zu helfen. Es geht nicht darum, Hass, Gewalt und Terrorismus zu schüren. Bei der UNRWA haben wir aktuell das Risiko, dass genau das passiert. Es wird immer wieder gesagt, der Ruf der Schweiz stehe auf dem Prüfstand bzw. auf dem Spiel, wenn wir jetzt diese 20 Millionen Franken nicht sprechen. Ich sage Ihnen hier und jetzt: Es ist richtig, dass der Ruf der Schweiz auf dem Spiel steht, und zwar dann, wenn wir in Hilfswerke investieren, bei denen die Problematik besteht, dass eben Hass, Terrorismus, Gewalt und Antisemitismus geschürt werden.
+Heute war in der Zeitung zu lesen, dass die humanitäre Rolle der Schweiz auf dem Spiel stehe, wie es genannt wurde. Es geht um 20 Millionen Franken. Wir schicken pro Jahr 4 Milliarden Franken ins Ausland. 4 Milliarden Franken und 20 Millionen Franken - wenn wir das in Relation setzen, dann geht es um 0,5 Prozent. Es kann ja wohl nicht sein, dass dadurch dann die Rolle der Schweiz auf dem Spiel stehen soll, und es ist sicher nicht Anlass dazu, den Teufel an die Wand zu malen. Ich habe "4 Milliarden Franken" gesagt. Vor zwanzig Jahren waren es nur 2 Milliarden Franken. Es gibt also eine Verdoppelung bei der humanitären Hilfe, bei der Entwicklungszusammenarbeit mit dem Ausland. Hier, bei diesen 20 Millionen Franken, geht es nur um ein Jahr. Es geht um ein Jahr, in dem wir diese 20 Millionen Franken nicht sprechen, damit wir überprüfen können, ob diese Hilfsorganisation unseren Ansprüchen genügt oder nicht. 
+Weiter im Raum steht die Frage der Zweckbindung. Es ist für uns eben gerade die Pièce de Résistance, dass diese Zweckbindung hier gemacht wird, weil wir nicht wollen, dass irgendwo 20 Millionen Franken gekürzt werden. Wir wollen, dass bei der UNRWA 20 Millionen gekürzt werden, um diese Überprüfung vorzunehmen. Diese Zweckbindung ist also unbedingt weiterhin beizubehalten. 
+Ich komme zum Thema Regionalpolitik: Jetzt will man hier einen faulen Kompromiss schmieden und diese 25 Millionen Franken halbieren. Ich muss Ihnen sagen: Schon diese 25 Millionen Franken sind lediglich ein Tropfen auf den heissen Stein. Auch hier müssen wir die Relationen sehen. Es gibt den Fonds für Regionalpolitik. Dieser Fonds ist übervoll, das hat die Eidgenössische Finanzkontrolle selber gesagt; wir haben 1,15 Milliarden Franken in diesem Fonds. Wenn man die 25 Millionen Franken jetzt nochmals auf 12,5 Millionen Franken halbiert, dann ist das nur noch ein halber Tropfen auf den heissen Stein, und das kann ja wohl nicht die Idee sein. Es wird von einem schlechten Signal an die ländlichen Regionen gesprochen. Aber das schlechte Signal, das wir hier abgeben würden, wenn wir jetzt diese 25 Millionen Franken nochmals halbieren, wäre, dass wir nicht in der Lage sind, abzuschätzen, welche der total überdotierten Fonds ins Auge zu fassen sind, um endlich eine nachhaltige und seriöse Finanzpolitik zu betreiben.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suter Gabriela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerne begründe ich Ihnen meinen Minderheitsantrag zu Artikel 11 Absatz 3 Buchstabe a. Es geht hier um die CO2-Flottenzielwerte. CO2-Flottenzielwerte verpflichten die Autoimporteure, die durchschnittlichen CO2-Emissionen der in der Schweiz neu zugelassenen Autos stetig abzusenken. Diese Massnahme ist enorm wichtig, weil der Verkehr momentan immer noch für über ein Drittel der in der Schweiz ausgestossenen CO2-Emissionen verantwortlich ist - 38 Prozent im Jahre 2021.
+Die Flottenelektrifizierung is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerne begründe ich Ihnen meinen Minderheitsantrag zu Artikel 11 Absatz 3 Buchstabe a. Es geht hier um die CO2-Flottenzielwerte. CO2-Flottenzielwerte verpflichten die Autoimporteure, die durchschnittlichen CO2-Emissionen der in der Schweiz neu zugelassenen Autos stetig abzusenken. Diese Massnahme ist enorm wichtig, weil der Verkehr momentan immer noch für über ein Drittel der in der Schweiz ausgestossenen CO2-Emissionen verantwortlich ist - 38 Prozent im Jahre 2021.
+Die Flottenelektrifizierung ist der wichtigste Hebel, um unsere Reduktionsziele im Verkehr zu erreichen. Um diese Flottenziele zu berechnen, werden verschiedene Kriterien berücksichtigt. Emissionsarme Fahrzeuge müssen bevorzugt werden; es darf nicht zu einer Verzerrung kommen.
+Der Bundesrat schlug vor, bei der Berechnung die Eigenschaften der Fahrzeuge in der Neuwagenflotte zu berücksichtigen: neben der Standfläche und der Nutzlast auch das Gewicht. Der Ständerat hat das Kriterium des Gewichts gestrichen. Warum das? Jahrelang hatten die schwersten Neuwagen auch den höchsten CO2-Ausstoss. Seit 2022 dominiert aber das Zusatzgewicht der Elektroauto-Batterie. Jetzt gilt: Je schwerer die Fahrzeuge, desto weniger CO2 stossen diese aus.
+Der Ständerat wollte das Flottenziel verschärfen, indem er das Gewicht herausstrich. Er hat damit aber eigentlich das Gegenteil bewirkt. Er wollte verhindern, dass Importeure von einem weniger strengen Flottenziel profitieren können. Unter anderem die Eidgenössische Finanzkontrolle hatte diese Korrektur auf der Grundlage der damaligen Datenlage empfohlen. Bei diesem Vorgehen ist der Ständerat davon ausgegangen, dass das Gewicht ausschliesslich als Bonus berücksichtigt wird. Mittlerweile ist das eben anders. Die EU hat ihre Kriterien angepasst. Die neuen Vorschriften sollen im Jahre 2025 in Kraft treten. Ab dann kann das Gewicht eben auch als Malus berücksichtigt werden. Schwere Hybridautos würden dann eben auch entsprechend benachteiligt.
+Alt Ständerätin Lisa Mazzone hat dies in der Ständeratsdebatte übrigens bereits erwähnt: "Entre-temps, on a pu apprendre que l'Union européenne avait évolué et qu'elle comptait également le poids de manière négative. Avant, on pouvait importer des voitures plus lourdes et cela réduisait l'effet. Par conséquent, il y avait un contre-incitatif à importer des voitures plus lourdes. L'Union européenne est en train de corriger ce critère. Je pense que le deuxième conseil devra également regarder plus précisément comment on peut mieux prendre en compte le travail de l'Union européenne." (AB 2023 S 903)
+Ich fasse zusammen: Im Ständerat wurde explizit gewünscht, dass der Nationalrat die Regelung noch einmal anschaue und an die neuen EU-Vorschriften anpasse. Es ist sinnvoll, die gleichen Kriterien wie in der EU anzuwenden. Dies wurde uns auch von Herrn Bundesrat Rösti in der Kommission zugesichert. Der Ständerat hat seinen Entscheid auf der Grundlage von mittlerweile veralteten Daten und veralteten EU-Vorschriften gefällt. Das müssen wir jetzt korrigieren.
+Ich bitte Sie deshalb, dem Antrag meiner Minderheit zuzustimmen - dies auch dann, wenn Sie noch nicht gänzlich überzeugt sind -, denn es ist wichtig, hier eine Differenz zum Ständerat zu schaffen, damit man das noch einmal genau prüfen kann.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Müller-Altermatt Stefan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block 1 behandelt - Herr Graber, ich kann Sie beruhigen - noch nicht die Privatjetabgabe, sondern neben dem Zweckartikel und den Zielen die Vorgaben für Fahrzeugimporteure sowie die Bestimmungen zum Emissionshandelssystem.
+In Artikel 2 Buchstabe h wird der Begriff der Senkenleistung definiert, der zur Diskussion steht. Die Kommission, die hier mit 13 zu 10 Stimmen entschieden hat, ist der Meinung, dass eine Senkenleistung nur dann eine solche ist, wenn das CO2 dauerhaft in einem Kohlenstoffspeic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block 1 behandelt - Herr Graber, ich kann Sie beruhigen - noch nicht die Privatjetabgabe, sondern neben dem Zweckartikel und den Zielen die Vorgaben für Fahrzeugimporteure sowie die Bestimmungen zum Emissionshandelssystem.
+In Artikel 2 Buchstabe h wird der Begriff der Senkenleistung definiert, der zur Diskussion steht. Die Kommission, die hier mit 13 zu 10 Stimmen entschieden hat, ist der Meinung, dass eine Senkenleistung nur dann eine solche ist, wenn das CO2 dauerhaft in einem Kohlenstoffspeicher gebunden wird und nicht nur während einer unbestimmten Zeit, wie dies die Minderheit Vincenz möchte. Aktuell wird auf Verordnungsstufe eine Dauer von dreissig Jahren als "dauerhaft" betrachtet. Das macht insofern Sinn, als es dann eben bis ins Netto-null-Jahr 2050 sicher gebunden sein wird. Relevant ist das beispielsweise bei Projekten im Wald, wo dann die Bewirtschaftung via Grundbucheintrag gesichert werden muss, damit nicht in kürzester Zeit die Bewirtschaftung geändert und die Senke sozusagen wieder vernichtet wird. Das sollte man auch auf Gesetzesstufe so schreiben. Deshalb ist die Kommission für die Beibehaltung des Begriffs "dauerhaft".
+Artikel 3 Absatz 2 beantwortet die Frage, wie konkret das Inlandziel sein soll. Während der Ständerat vage schrieb, dass "in erster Linie" Massnahmen in der Schweiz erfolgen sollen, will Ihre Kommission, die hier mit 14 zu 9 Stimmen bei 1 Enthaltung entschieden hat, im Gegensatz zur Minderheit Vincenz konkretisieren, dass mindestens 75 Prozent der Massnahmen zur Emissionsverminderung im Inland stattfinden sollen. Die Kommission ist sich bewusst, dass das ein ehrgeiziges Ziel ist. Gemäss der vom Ständerat verabschiedeten Version wären erst etwa zwei Drittel der Massnahmen im Inland zu leisten. Wir sind aber überzeugt, dass dieses Ziel erreicht werden und somit auch mehr Wertschöpfung im Inland erreicht werden kann, nicht zuletzt auch dank der im Klima- und Innovationsgesetz bereitgestellten Mittel.
+Zum Einzelantrag Wasserfallen Christian zu Artikel 7, der noch eingereicht wurde und der sich auf die Kompensationsprojekte bezieht, kann ich einfach sagen, dass die Weiterführung dieser Projekte in der Kommission völlig unbestritten ist. Wir haben dieses Gesetz sehr konsequent auf das Jahr 2030 ausgerichtet, aber darauf verzichtet, die Instrumente bereits jetzt für die Zeit danach zu definieren. Ich kann aber, um im Hinblick auf die Planungssicherheit dieser Projekte hier als Kommissionssprecher ein klein bisschen etwas beizutragen, versichern, dass Klik-Projekte überhaupt nicht bestritten sind und dass der Kompensationsmechanismus auch nach 2030 sicher zur Verfügung stehen wird. Eine Beendigung der Projekte steht nicht zur Diskussion. Die Finanzierung freilich ist offen.
+In Artikel 9 Absatz 3 geht es um die Frage, ob die Baubewilligungsbehörden verpflichtet werden sollen, das Eidgenössische Gebäude- und Wohnungsregister nachzuführen. Die Kommission hat diese Bestimmung, welche der Bundesrat auf Wunsch der Kantone eingefügt hat, mit 17 zu 7 Stimmen wieder aufgenommen, nachdem der Ständerat sie gestrichen hatte. Die Minderheit Strupler befürchtet jetzt eine übermässige Bürokratie und möchte die Bestimmung streichen. Ich mache einfach darauf aufmerksam, dass es die Kantone waren, welche zur Erlangung von Planungssicherheit für ihre Energieplanungen diese Nachführungen der Statistiken - notabene bereits bestehender Statistiken - verlangten.
+In Artikel 10 geht es um die Zielwerte, welche die Fahrzeugimporteure erfüllen müssen. Bundesrat und Ständerat haben vorgeschlagen, den Zielwert jeweils in Relation zum Ausgangswert von 2021 in der EU festzulegen. Die Kommissionsmehrheit schlägt Ihnen nun aber absolute Werte vor, und zwar für jedes Jahr bis 2030 auf einem linearen Absenkpfad. Die Kommission bleibt damit kongruent zum bisherigen System. Die Hauptüberlegung dahinter ist die, dass auch die in den nächsten Jahren in Betrieb genommenen Fahrzeuge sehr lange in Betrieb sein werden und während einer langen Zeit viele Treibhausgase ausstossen werden. Das gilt es zu verhindern. Die Minderheit Jauslin möchte auf die jährlichen Zwischenziele verzichten.
+In Artikel 11 geht es um die Frage, wie das Flottenziel für einen Importeur berechnet wird, und konkret um die Frage, ob das Gewicht hier auch hineinspielen soll. In der EU gab es bisher für schwerere Flotten einen Bonus. Die Hersteller schwerer Autos durften also etwas mehr CO2 ausstossen. Das Ziel dahinter war, die halt eher schweren Elektrofahrzeuge nicht zu benachteiligen. Zukünftig wird das Gewicht aber zum Malus, weil es sich auch bei Elektroautos negativ auf die Bilanz auswirkt. Alleine schon diese verwirrliche Situation zeigt, dass die Eigenschaft des Gewichts schwierig zu handhaben und die vom Ständerat beschlossene Streichung korrekt ist. Die Minderheit Suter unterlag entsprechend mit 14 zu 11 Stimmen.
+Ich kann mich noch zum Einzelantrag Giezendanner äussern, denn dieser wurde in der Kommission besprochen. Es war die Kommission, welche diese Einzelabtretung von Fahrzeugen explizit ausschliessen wollte, und zwar deshalb, weil dieses System schon von der Eidgenössischen Finanzkontrolle kritisiert worden war. Wenn man heute einen Tesla kauft, dann ermöglicht man einem anderen Importeur, der kein konkurrenzfähiges Elektroauto hat, einen Verbrenner zu [PAGE 2503] importieren. So werden pro Jahr 7100 Verbrenner sanktionsfrei in die Schweiz eingeführt, was dazu führt, dass unsere Flotten tatsächlich viel höhere Emissionswerte haben als die in der EU. Ich bitte Sie im Namen der Kommission also, diesen Einzelantrag Giezendanner abzulehnen.
+Die Bestimmungen zum Emissionshandelssystem schliesslich haben die Kommission ohne Minderheitsanträge verlassen. Die Kommission hat aber ein paar gewichtige Veränderungen gegenüber dem Ständerat vorgenommen:
+In Artikel 15 Absatz 3, in Artikel 16 Absätze 2bis und 3 sowie in Artikel 31 Absatz 5 wird für Unternehmen im Emissionshandelssystem und für solche mit einer Verminderungsverpflichtung die Möglichkeit geschaffen, Emissionsrechte durch ausländische Zertifikate für erneuerbares Gas einzusparen. Dabei handelt es sich um einen ersten Schritt zur Umsetzung der Motion Gugger 21.4318; diese fordert die Befreiung von importierten erneuerbaren Gasen von der CO2-Abgabe in sämtlichen Verbrauchssektoren und wurde in der Herbstsession 2023 vom Nationalrat angenommen.
+Im Weiteren beantragt Ihnen die Kommission, die kostenlose Zuteilung von Emissionsrechten zu reduzieren. Dadurch wird das Schweizer Emissionshandelssystem mit jenem der EU kompatibel bleiben. Es handelt sich bei diesen Ergänzungen zu Artikel 19 Absätze 3bis, 4 und 5bis um Anpassungen rein technischer Art, die lediglich dazu dienen, die Äquivalenz der beiden Emissionshandelssysteme der Schweiz und der EU zu gewährleisten. In der Schweiz werden damit keinerlei Verschärfungen gegenüber dem System in der EU umgesetzt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jans Beat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie beraten heute über die Übernahme der EU-Verordnung zur Schaffung eines Instruments für finanzielle Hilfe im Bereich Grenzverwaltung und Visumpolitik. Diese Weiterentwicklung des Schengen-Besitzstands löst[NB]den[NB]bisherigen Fonds für die innere Sicherheit ab. Ich möchte Ihnen die wichtigsten Punkte zu diesem Geschäft erläutern. 
+In Anbetracht der irregulären Migration sind funktionierende Grenzkontrollen an den Schengen-Aussengrenzen von entscheidender Bedeutung. Wirksame Einreisekontrolle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie beraten heute über die Übernahme der EU-Verordnung zur Schaffung eines Instruments für finanzielle Hilfe im Bereich Grenzverwaltung und Visumpolitik. Diese Weiterentwicklung des Schengen-Besitzstands löst[NB]den[NB]bisherigen Fonds für die innere Sicherheit ab. Ich möchte Ihnen die wichtigsten Punkte zu diesem Geschäft erläutern. 
+In Anbetracht der irregulären Migration sind funktionierende Grenzkontrollen an den Schengen-Aussengrenzen von entscheidender Bedeutung. Wirksame Einreisekontrollen sind unabdingbar, um die uneingeschränkte Reisefreiheit im Schengen-Raum weiterhin zu gewährleisten. Die Freiheit, sich ohne Grenzkontrollen innerhalb eines gemeinsamen Raums zu bewegen, ist eine wichtige Errungenschaft der europäischen Zusammenarbeit. Die Bedeutung der uneingeschränkten Reisefreiheit ist für unsere Wirtschaft und unsere Gesellschaft gross. Diesen Besitzstand gilt es zu wahren. 
+Die Schengen-Aussengrenzen umfassen rund 8000 Kilometer Landgrenzen und 43[NB]000 Kilometer Seegrenzen. Jeder Schengen-Staat ist für die Verwaltung seiner Aussengrenzen verantwortlich und trägt somit zur Sicherheit in Europa bei.
+Auch ist klar, dass die Überwachung der Aussengrenzen die 27 Schengen-Staaten auf unterschiedliche Weise belastet. Als Binnenstaat hat die Schweiz nur die Flughäfen als Aussengrenze. Wir profitieren also von den Überwachungsmassnahmen anderer Staaten. Gleichzeitig sind wir darauf angewiesen, dass alle Schengen-Staaten ihren [PAGE 54] Verpflichtungen zum Schutz der gemeinsamen Aussengrenzen nachkommen. 
+Die Kosten für die Grenzverwaltung wirken sich nicht auf alle Staaten gleich aus, sind doch einige Mitgliedstaaten gezwungen, überdurchschnittlich hohe finanzielle Mittel für die Sicherung ihrer Aussengrenzen aufzuwenden. Das Instrument für finanzielle Hilfe im Bereich Grenzverwaltung und Visumpolitik, das BMVI, soll daher in erster Linie Schengen-Staaten unterstützen, die dauerhaft hohe Kosten für den Schutz der Schengen-Aussengrenzen tragen müssen. Die Schweiz wird auch zukünftig finanzielle Mittel aus dem Fonds erhalten. Diese werden proportional zur Bedeutung unserer Grenzen berechnet.
+Le fonds doit permettre d'accroître l'efficacité des contrôles afin d'améliorer la protection aux frontières extérieures et de réduire le nombre d'entrées irrégulières, tout en facilitant et accélérant les entrées légales.
+Dans un contexte de pression migratoire persistante, la question de la solidarité et celle de la protection des frontières extérieures de l'espace Schengen sont capitales.
+Wie Sie wissen, ist dieser Fonds an sich nichts Neues. Er ist das Nachfolgeinstrument des Fonds für innere Sicherheit, an dem sich die Schweiz ab 2018 beteiligte und der Ende 2020 auslief. Bereits unter diesem Fonds führten wir verschiedene Projekte durch. Im Vordergrund standen dabei die Erweiterung der Grenzkontrollinfrastruktur am Flughafen Zürich, die Implementierung der zweiten Generation des Schengener Informationssystems und weiterer IT-Grossprojekte sowie die Entsendung von Verbindungsbeamten in Drittstaaten. Die Schweiz beteiligte sich mit insgesamt 134 Millionen Franken an diesem Fonds. Im Gegenzug erhielten wir Zuweisungen in der Höhe von 37 Millionen Franken für die Durchführung der Projekte. 
+Die Gesamtmittel für die Dauer des Fonds, also von 2021 bis 2027, betragen 6,2 Milliarden Euro. Als Grundlage für diese Berechnung, in die auch die Schweiz einbezogen wurde, dient der Schengen-Schlüssel, das heisst der Anteil des Bruttoinlandproduktes an der Gesamtsumme der Bruttoinlandprodukte aller teilnehmenden Staaten. Die Kosten der Beteiligung der Schweiz können zum jetzigen Zeitpunkt nicht genau und abschliessend beziffert werden. Nach heutigen Verhältnissen ist jedoch von einem Anteil von etwa 4,55 Prozent des Gesamtvolumens auszugehen. Dies entspricht 284 Millionen Euro.
+Im Voranschlag 2024 sowie im Finanzplan 2025-2027 des Bundes werden aufgrund der prospektiven Schätzung und eines Spielraums insgesamt 300 Millionen Franken für diesen Fonds eingestellt. Die definitive finanzielle Beteiligung der Schweiz am Fonds wird aber gestützt auf die am 31.[NB]März 2026 verfügbaren Zahlen für das Bruttoinlandprodukt der Jahre 2020 bis 2024 berechnet. Aufgrund der verzögerten Beteiligung der Schweiz am Fonds fällt die erste Zahlung voraussichtlich erst in der zweiten Hälfte dieses Jahres an, dies dann aber rückwirkend bis 2021. 
+Aus Gründen der Transparenz möchte ich noch Folgendes anmerken: Angesichts der Migrationsbewegungen und von deren möglichen Folgen für die innere Sicherheit in Europa ist davon auszugehen, dass die Finanzausstattung des Fonds erhöht wird. Die Europäische Kommission hat im Juni 2023 einen Vorschlag zur Erhöhung des mehrjährigen Finanzrahmens mit einer Zuweisung zusätzlicher Mittel vorgelegt. Eine Erhöhung der Finanzausstattung des Fonds würde eine Erhöhung der Beiträge aller Schengen-Staaten und somit auch der Schweiz zur Folge haben. Wegen des starken Schweizerfrankens und des bestehenden Spielraums bei der prospektiven Schätzung des Schweizer Beitrags sollte sich eine Erhöhung des Fonds gemäss aktueller Schätzung in Grenzen halten. Das Budget müsste - nach heutigem Stand - nur geringfügig angepasst werden.
+Die Schweiz wird aus dem neuen Fonds voraussichtlich Zuweisungen in der Höhe von insgesamt 50 Millionen Franken erhalten. Sollte sich das Fondsvolumen noch erhöhen, könnte die Schweiz entsprechend mit höheren Zuweisungen rechnen. Wir beabsichtigen, diese Mittel hauptsächlich für die folgenden Zwecke einzusetzen: für die Erweiterung der Grenzkontrollinfrastruktur am Flughafen Zürich, für die Implementierung neuer IT-Systeme zur Überwachung von Ein- und Ausreisen im Schengen-Raum, für die verstärkte Vernetzung bestehender IT-Systeme und den Betrieb des Schengener Informationssystems der zweiten Generation sowie für die Entsendung von Verbindungsbeamten in Drittstaaten.
+Zum Vergleich: Italien, das mit seinen ausgedehnten südlichen Schengen-Aussengrenzen schwer mit irregulärer Migration zu kämpfen hat, erhält gut 315 Millionen Euro. Österreich, das auch nur an den Flughäfen Aussengrenzen hat, erhält rund 28 Millionen Euro und bezahlt rund 157 Millionen Euro. Das Verhältnis zwischen den Zuweisungen und den Beitragszahlungen aus dem Fonds beträgt somit für die Schweiz und Österreich 1 zu 6.
+Une minorité de participants à la consultation a fait remarquer que les ressources du fonds pourraient être utilisées pour financer des pratiques contraires aux droits de l'homme et aux droits fondamentaux, comme l'a dit M. Schwander. Le Conseil fédéral attache une grande importance à la protection des droits fondamentaux. Afin de contribuer à un plus grand respect de ces droits aux frontières extérieures, la Suisse a, par exemple, envoyé deux experts au bureau des droits fondamentaux de Frontex.
+Es obliegt jedem Schengen-Staat, die europäischen Normen zum Schutz der Grundrechte zu respektieren. Die Pflicht zur Achtung der Grundrechte und des Non-Refoulement-Prinzips ist übrigens ausdrücklich in Artikel 4 der EU-Verordnung, um die es hier geht, verankert. Zudem wird der rechtmässige Einsatz der Mittel aus dem europäischen Fonds generell durch unabhängige Kontrollbehörden überprüft. In der Schweiz ist dies die Eidgenössische Finanzkontrolle.
+Bei der Umsetzung des Fonds müssen die Mitgliedstaaten der Europäischen Kommission jährliche Leistungsbilanzen einreichen, die Informationen zur Einhaltung der Grundrechte enthalten. Zur Verhinderung des Missbrauchs von EU-Geldern wurde das Europäische Amt für Betrugsbekämpfung, dem auch hier eine wichtige Rolle zukommt, geschaffen. Die Schweiz wird sich aktiv dafür einsetzen, dass bei der Ausarbeitung von Massnahmen im Rahmen des Fonds die Grundrechte voll und ganz gewahrt werden. Die Ergebnisse der Halbzeit- und der Ex-post-Evaluierung des BMVI-Fonds werden auf der Website des SEM veröffentlicht, sobald sie vorliegen. Diese Evaluierungen werden unter anderem Aussagen zur Einhaltung des Grundsatzes der Nichtdiskriminierung und zur Beachtung der Grundrechte beinhalten.
+Abschliessend möchte ich noch einen Punkt erwähnen. Bekanntlich ist zur Durchführung der Schengen-Weiterentwicklung der Abschluss einer Zusatzvereinbarung erforderlich. Da die Schweiz nicht Mitglied der EU ist, müssen die notwendigen Regeln für ihre Beteiligung am Fonds in einer Zusatzvereinbarung festgelegt werden. Der Bundesrat hat diese Zusatzvereinbarung am 23.[NB]August 2023 genehmigt und am 28.[NB]November 2023 unterzeichnet. Sie enthält insbesondere Bestimmungen über die Berechnungsmethode für die finanzielle Beteiligung sowie über den Beginn der Beitragszahlungen.
+Wie Sie wissen, haben wir bereits im Rahmen unserer Beteiligung am Vorgängerfonds ein ähnliches Abkommen abgeschlossen. Das Parlament hat dieses im Jahr 2018 verabschiedet. Heute gilt es auch, das vorliegende Abkommen zu genehmigen.
+Le Conseil fédéral est conscient du fait que le projet prévoit une participation financière considérable de la Suisse. Toutefois, en raison de notre situation géographique, nous avons tout intérêt à ce que les contrôles aux frontières extérieures de l'espace Schengen soient efficaces.
+Es ist daher auch wichtig, dass wir uns gegenüber den stark belasteten Staaten an den Schengen-Aussengrenzen solidarisch zeigen und damit zur Aufrechterhaltung und zur Verbesserung der Sicherheit im gemeinsamen Schengen-Raum beitragen.
+Ich beantrage Ihnen, der Mehrheit Ihrer Kommission zu folgen, auf das Geschäft einzutreten und es anzunehmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marti Min Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die parlamentarische Initiative Romano, übernommen von Herrn Pfister, will die SRG der Eidgenössischen Finanzkontrolle unterstellen, was mit der finanziellen Bedeutung, der umfangreichen Tätigkeit, dem öffentlichen Interesse und der aktuellen politischen Diskussion begründet wird. Der Initiant weist wie der Minderheitssprecher auch darauf hin, dass andere Organisationen, denen der Bund die Erfüllung öffentlicher Aufgaben übertragen habe, ebenfalls der Finanzaufsicht der EFK unterstellt seien.
+Di</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die parlamentarische Initiative Romano, übernommen von Herrn Pfister, will die SRG der Eidgenössischen Finanzkontrolle unterstellen, was mit der finanziellen Bedeutung, der umfangreichen Tätigkeit, dem öffentlichen Interesse und der aktuellen politischen Diskussion begründet wird. Der Initiant weist wie der Minderheitssprecher auch darauf hin, dass andere Organisationen, denen der Bund die Erfüllung öffentlicher Aufgaben übertragen habe, ebenfalls der Finanzaufsicht der EFK unterstellt seien.
+Dieses Anliegen ist nicht neu, sondern wurde schon etliche Male diskutiert, besonders intensiv auch bei der Beratung des Bundesgesetzes über Radio und Fernsehen (RTVG). Im RTVG ist auch die Finanzaufsicht geregelt, dies in Artikel 36 Absatz 6. Das schliesst die Anwendbarkeit des Bundesgesetzes über die Eidgenössische Finanzkontrolle (FKG) explizit aus und weist die Kontrolle der Finanzen dem UVEK zu. Diese Frage wurde in der parlamentarischen Beratung diskutiert, und man hat sich gegen eine Kontrolle durch die EFK ausgesprochen, weil man eben keine parlamentarische Einflussnahme durch die Finanzaufsicht haben wollte. Ein Gutachten des Bundesamtes für Justiz ist 1989 zum Schluss gekommen, dass eine Unterstellung unter das FKG problematisch wäre, weil das FKG im Rahmen der Wirtschaftlichkeitskontrolle auch eine Wirksamkeitsprüfung vorsieht. In diesem Rahmen ist die EFK verpflichtet, die Zweckmässigkeit bei der Verwendung der öffentlichen Mittel zu überprüfen. Durch die Unterstellung der SRG unter das FKG müsste die EFK beispielsweise auch kontrollieren, ob die Einrichtung eines bestimmten Programmgefässes oder die Einsetzung bestimmter Technologien zweckmässig ist. Das würde die Programmautonomie der SRG gefährden.
+Die Ausnahme der SRG vom Geltungsbereich des FKG und damit auch von der parlamentarischen Oberaufsicht erklärt sich auch durch das System der Radio- und Fernsehabgabe. Diese ist nicht in der Staatsrechnung ausgewiesen, weil man nicht will, dass das Parlament über die Budgetdebatten politischen Einfluss auf die Programmgestaltung hat. Die SRG ist sowohl durch Artikel 17 wie auch durch Artikel 93 der Bundesverfassung explizit vor staatlicher Einflussnahme geschützt. Hierzu gehört auch ein erhebliches Ermessen der SRG bei der Verwendung ihrer Mittel. Auch bei der Teilrevision des RTVG 2014 wurden entsprechende Anträge aus den gleichen Gründen abgelehnt. 
+Das BAKOM hat zuhanden der Kommission einen Bericht über die Implikationen der parlamentarischen Initiative erstellt. Darin wird auch festgehalten, dass das UVEK unabhängig von der jährlichen Finanzaufsicht bereits mehrere Wirtschaftlichkeitsprüfungen der SRG bei der EFK sowie beim Bundesamt für Kommunikation in Auftrag gegeben hat. Dabei wurde festgestellt, dass die SRG professionell aufgestellt ist und gesamthaft betrachtet über alle wichtigen Steuerungsinstrumente verfügt, die ein effizientes Management und eine wirtschaftliche Verwendung der ihr zur Verfügung stehenden Mittel erlauben. 
+Die Kommission für Verkehr und Fernmeldewesen des Nationalrates beriet die parlamentarische Initiative Romano an ihrer Sitzung vom 29.[NB]Januar 2024 und beschloss mit 12 zu 11 Stimmen, zu beantragen, ihr keine Folge zu geben. Die Mehrheit ist der Ansicht, dass die bisherige Finanzaufsicht funktioniert und eine Unterstellung unter die EFK für die redaktionelle Unabhängigkeit der SRG problematisch wäre. Die Minderheit ist der Meinung, dass eine Unterstellung unter die EFK sinnvoll und nicht problematisch wäre, weil dies auch bei anderen Organisationen wie der Post oder den Gerichten so gemacht werde. Die SRG werde mit öffentlichen Mitteln alimentiert, und daher sei eine wirksame Finanzaufsicht nötig.
+Ich bitte Sie im Namen der Mehrheit Ihrer KVF, der parlamentarischen Initiative keine Folge zu geben.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rutz Gregor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich möchte Ihnen namens der Kommissionsminderheit beantragen, den Ausführungen und der Empfehlung von Kollege Pfister zu folgen und der parlamentarischen Initiative Folge zu geben. Ich glaube, wenn man der SRG helfen und die SRG stärken möchte, ist es der falsche Weg, sie unter Heimatschutz zu stellen. Der richtige Weg ist es, Transparenz zu schaffen, wie es auch Kollege Pfister beschrieben hat. Transparenz, die ja auf linker Seite immer wieder gefordert wird, ist eben auch hier wichtig. Sie ist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich möchte Ihnen namens der Kommissionsminderheit beantragen, den Ausführungen und der Empfehlung von Kollege Pfister zu folgen und der parlamentarischen Initiative Folge zu geben. Ich glaube, wenn man der SRG helfen und die SRG stärken möchte, ist es der falsche Weg, sie unter Heimatschutz zu stellen. Der richtige Weg ist es, Transparenz zu schaffen, wie es auch Kollege Pfister beschrieben hat. Transparenz, die ja auf linker Seite immer wieder gefordert wird, ist eben auch hier wichtig. Sie ist[NB]besonders[NB]wichtig,[NB]weil wir hier mit öffentlichen Geldern arbeiten.
+Die SRG hat eine wichtige Aufgabe. Sie muss eine Grundversorgung erbringen, einen Service public. Subsidiär zu anderen Angeboten, die der Markt bereithält, muss sie Leistungen erbringen, welche wichtig sind für das Land. Dazu gehört unter anderem natürlich die Information. Damit die SRG stark ist und auch unsere Demokratie dadurch gestärkt wird, muss [PAGE 259] dieser Service public unabhängig und glaubwürdig und damit eben ausgewogen sein. Und glaubwürdig ist man dann, wenn man transparent und sauber arbeitet.
+Was wir in den vergangenen Jahren immer wieder kritisiert haben - ich glaube, der eine oder andere hat aus diesen Debatten etwas gelernt -, ist die "Pantoffel-Distanz" zwischen Departement, Bundesamt und Kontrollstellen. Sie schafft eben keine Glaubwürdigkeit, sondern weckt Misstrauen und wirft Fragen auf.
+Die Initiative von Kollege Romano erachten wir als gut überlegt und treffend. Wie Kollege Pfister ausgeführt hat, gibt es tatsächlich keinen Grund, warum für private Medien andere Massstäbe gelten sollten bzw. warum ausgerechnet die SRG, welche sich zum grösseren Teil mit öffentlichen Mitteln alimentiert, dieser Kontrolle nicht unterliegen sollte.
+Die Argumentation der Verwaltung bezüglich der Unabhängigkeit hat viel zu diskutieren gegeben und überzeugt die Minderheit nicht wirklich. Kollege Pfister hat es erwähnt: Auch die Gerichte unterstehen der EFK. Auch die Post, die einen Service-public-Auftrag hat, untersteht der EFK. Es ist beim besten Willen nicht ersichtlich, warum ein Gericht, dessen Finanzen kontrolliert werden, nicht mehr unabhängig urteilen sollte. Wenn Sie also finden, die Unabhängigkeit sei gefährdet, dann müssten Sie eigentlich bei allen Gerichten sagen, dass deren Finanzen überhaupt nicht mehr kontrolliert werden dürfen. Das wird ja niemand im Ernst in diesem Saal hier drin fordern.
+Schaffen Sie Transparenz, gerade wenn Ihnen der Service-public-Auftrag am Herzen liegt. Dann, glaube ich, kommen wir einen Schritt weiter, auch was die Glaubwürdigkeit der SRG anbelangt. 
+Ich danke Ihnen, wenn Sie der parlamentarischen Initiative Folge geben - sie war eine gute Idee von Kollege Romano.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pfister Gerhard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Anliegen unseres ehemaligen Kollegen Marco Romano ist meines Erachtens schon mindestens mal nicht ehrenrührig, auch wenn bestimmte Kreise so tun, wenn man gegenüber der SRG auch nur den Hauch eines möglichen kritischen Einwandes erhebt.
+Die parlamentarische Initiative verlangt im Grunde etwas völlig Selbstverständliches: dass dort, wo bei Unternehmen, die einen politisch bestimmten Leistungsauftrag haben, wo es um Steuer- oder Gebührengelder geht, die Politik sicherstellen muss, dass der Umg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Anliegen unseres ehemaligen Kollegen Marco Romano ist meines Erachtens schon mindestens mal nicht ehrenrührig, auch wenn bestimmte Kreise so tun, wenn man gegenüber der SRG auch nur den Hauch eines möglichen kritischen Einwandes erhebt.
+Die parlamentarische Initiative verlangt im Grunde etwas völlig Selbstverständliches: dass dort, wo bei Unternehmen, die einen politisch bestimmten Leistungsauftrag haben, wo es um Steuer- oder Gebührengelder geht, die Politik sicherstellen muss, dass der Umgang mit den Geldern sorgfältig, korrekt und effizient und nach den Regeln von Good Governance erfolgt. Diese Selbstverständlichkeit kann durch verschiedene Massnahmen verschiedener Instanzen kontrolliert werden. Dass sie kontrolliert werden sollte, ist unbestritten. Durch wen, kann man von Fall zu Fall diskutieren.
+Bei der SRG ist diese Instanz das BAKOM. Jetzt kann man bzw. muss man sich schon die Frage stellen, ob das[NB]BAKOM genügend Finanzwissen hat, um das Management von über einer Milliarde Franken wirklich zu kontrollieren. Man kann sich die Frage stellen, ob die Pannenserie bei der Einrichtung eines neuen TV-Studios, die erhebliche finanzielle Mittel verschlang, ob dieses auch finanzielle Debakel zulasten der Gebührenzahlenden hätte verhindert werden können, wenn die SRG über eine Aufsicht in Finanzfragen verfügen[NB]würde,[NB]die[NB]in[NB]Finanzfragen auch eine echte Kernkompetenz besitzt.
+Die Finanzkontrolle ist der dezidierten Meinung, dass die Aufsicht durch das BAKOM nicht gründlich genug ist. Das[NB]BAKOM beschränke sich laut einem Bericht vom Juli 2022 auf die Erstellung eines Gesamtbildes über die Finanzlage der SRG. Ob die Mittel jedoch bestimmungsgemäss und wirtschaftlich eingesetzt würden, wie es das Gesetz vorschreibe, werde gemäss Finanzkontrolle kaum überprüft - so zu lesen im "Tages-Anzeiger" vom 26.[NB]Februar 2024.
+Wer mit der Unabhängigkeit des journalistischen Schaffens, das natürlich extrem wichtig ist, argumentiert und deshalb diesen Vorschlag nicht einmal prüfen will, der oder die muss aber auch begründen, warum er oder sie der Meinung ist, die Kontrolle des Bundesgerichtes durch die Eidgenössische Finanzkontrolle (EFK) gefährde die Unabhängigkeit der Rechtsprechung. Das hat bis jetzt meines Wissens jedenfalls noch nie jemand behauptet.
+Und selbst denjenigen, die befürchten, diese parlamentarische Initiative schwäche die SRG, ist entgegenzuhalten, dass man das auch genau andersherum sehen kann. Die kommenden Jahre werden von der Debatte geprägt sein, wie viel Geld die SRG für ihren Leistungsauftrag erhalten soll. Wer der Meinung ist, es dürfe nicht weniger sein als heute oder es müsse gar mehr sein, der oder die hätte ein ganz starkes Argument in der Hand, wenn er oder sie darauf verweisen kann, dass nicht nur das BAKOM die SRG überprüft habe, sondern dass auch die EFK mit ihrem ganzen Know-how, ihrer Gründlichkeit und Akribie zum Schluss gekommen sei, dass die SRG mit den Gebührengeldern auftragsgemäss und wirtschaftlich umgehe. Es könnte ein entscheidendes Argument im Abstimmungsbüchlein sein, das die Stimmbürgerinnen und Stimmbürger dazu bewegen könnte, Initiativen abzulehnen, die verlangen, dass die SRG weniger Geld hat. Deshalb bitte ich Sie, der parlamentarischen Initiative Folge zu geben.
+Es ist, auch wenn das paradox scheinen mag, gerade auch im Interesse der SRG, dass sie eine unabhängige, starke und kompetente Finanzaufsicht hat. Die EFK wäre unangenehm für die SRG, genauso wie die Finma für die Banken unangenehm sein muss. Nur eine Finanzaufsicht, die für die Beaufsichtigten unangenehm ist, ist eine Kontrolle, die etwas taugt. Das gilt für Banken, Versicherungen, Bundesgerichte, und diese Selbstverständlichkeit gilt dann auch für die SRG, wenn Sie dieser parlamentarischen Initiative Folge geben.
+Eine kleine Anmerkung dazu, was das unabhängige Schaffen der Journalisten angeht: Private Medien, die Gebührengelder erhalten, sind bereits jetzt der EFK unterstellt. Das heisst, die EFK kann den gleichen Gebührenfranken, der an die Privaten geht, bereits überprüfen. Wenn die privaten Medien durch die EFK überprüft werden können, ohne dass ihre journalistische Unabhängigkeit tangiert ist, ist nicht einzusehen, warum das nicht auch bei der SRG möglich sein sollte.
+In diesem Sinne bitte ich Sie, dieser parlamentarischen Initiative Folge zu geben.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keller-Sutter Karin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich danke Ihnen, Herr Nationalrat Walti, dass Sie mich daran erinnern. In der Tat hat Herr Nationalrat Leo Müller auch die Frage gestellt, ob ich wisse, wie sich die Branche dazu stellt. Das weiss ich nicht. Die Briefe, die Sie erhalten haben, haben wir nicht erhalten. Ich kann Ihnen sagen, dass der Antrag der Minderheit Ryser den Empfehlungen der EFK entspricht.
+Die anderen Anträge wurden in der WAK ebenfalls besprochen. Ich habe sie aus verschiedenen Gründen bekämpft. Ich meine aber, dass dies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich danke Ihnen, Herr Nationalrat Walti, dass Sie mich daran erinnern. In der Tat hat Herr Nationalrat Leo Müller auch die Frage gestellt, ob ich wisse, wie sich die Branche dazu stellt. Das weiss ich nicht. Die Briefe, die Sie erhalten haben, haben wir nicht erhalten. Ich kann Ihnen sagen, dass der Antrag der Minderheit Ryser den Empfehlungen der EFK entspricht.
+Die anderen Anträge wurden in der WAK ebenfalls besprochen. Ich habe sie aus verschiedenen Gründen bekämpft. Ich meine aber, dass diese Fragen im Ständerat angeschaut werden müssen. Grundsätzlich bin ich jedoch der Meinung, dass dort der Mehrheit zu folgen ist.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich spreche wiederum zu ausgewählten Punkten. Zuerst zur Frage der Zollfreigrenze: Ich bitte Sie, hier die Kommissionsmehrheit zu unterstützen. Nach dem Antrag der Minderheit sollen Gegenstände in kleinen Mengen von unbedeutendem Wert oder mit geringfügigem Steuerbetrag nur steuerfrei sein, sofern für diese Gegenstände im Herkunftsland nachweislich keine Mehrwertsteuer zurückerstattet wurde. Artikel 53 Absatz 1 Buchstabe a des Mehrwertsteuergesetzes betrifft aber nicht nur die Wertfreigrenze im </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich spreche wiederum zu ausgewählten Punkten. Zuerst zur Frage der Zollfreigrenze: Ich bitte Sie, hier die Kommissionsmehrheit zu unterstützen. Nach dem Antrag der Minderheit sollen Gegenstände in kleinen Mengen von unbedeutendem Wert oder mit geringfügigem Steuerbetrag nur steuerfrei sein, sofern für diese Gegenstände im Herkunftsland nachweislich keine Mehrwertsteuer zurückerstattet wurde. Artikel 53 Absatz 1 Buchstabe a des Mehrwertsteuergesetzes betrifft aber nicht nur die Wertfreigrenze im Reiseverkehr. Wenn man diese Änderung, wie sie von der Minderheit beantragt wird, umsetzen würde, dann würden auch Bereiche beeinflusst, die nichts mit dem Einkaufstourismus zu tun haben. Bei Handelswaren müssten Steuerbeträge unter 5 Franken neu ebenfalls erhoben werden; heutzutage wird aus verwaltungsökonomischen Gründen auf eine solche Erhebung verzichtet. 
+Im Zeitpunkt der Einfuhr kann nicht abschliessend überprüft werden, ob die ausländische Mehrwertsteuer zurückerstattet wird, insbesondere nicht, wenn die Rückerstattung nachträglich oder elektronisch erfolgt. So wird es weder für private Geschenksendungen aus dem Ausland noch für Reiseproviant oder kleine Souvenirs eine Befreiung von der Einfuhrsteuer geben. Das wird zu zusätzlichen Veranlagungen für Kleinstbeträge führen. Zudem ist mit vermehrtem Schmuggel zu rechnen. Für eine wirkungsvolle Umsetzung müsste das BAZG zusätzliche Ressourcen für die Veranlagungen und für verstärkte Kontrollen einsetzen.
+Der Bundesrat erachtet eine generelle Senkung der Wertfreigrenze auf 150 Franken weiterhin als zielführendste Lösung zur Umsetzung aller Vorstösse bzw. Anträge im Bereich des Einkaufstourismus. Sie können sich erinnern: Die Motion 19.3975 der Finanzkommission des Nationalrates beauftragte den Bundesrat, hier eine Anpassung vorzunehmen, der Ständerat hat die Frage sistiert. In Ihrer Kommission wurde dieses Anliegen jetzt parallel zur Eröffnung der Vernehmlassung der Verordnungsänderung nochmals aufgenommen.
+Wir sind aktuell an der Auswertung der Vernehmlassungsantworten. Die Wertfreigrenze auf 150 Franken zu senken, war ein Kompromiss; ich kann Ihnen sagen, dass das auch in der Vernehmlassung umstritten ist, weil viele das als Bevormundung der Konsumentinnen und Konsumenten betrachten und auch den Mehraufwand fürchten. Aber die entsprechenden Kantone, die die Standesinitiativen 18.300 und 18.316 eingereicht haben, sind damit einverstanden. Wir sind also daran, das Vernehmlassungsergebnis auszuwerten, und ich möchte Sie bitten, der Mehrheit zu folgen und hier keine Änderung zu bewirken.
+Dann haben wir bei Ziffer 52, Artikel 36 Absatz 2 Buchstabe i EMKG, bei der Rolle des Zentralamts für [PAGE 296] Edelmetallkontrolle, einen Minderheitsantrag Ryser. Der Bundesrat ist damit einverstanden, weil es sich hier um eine Empfehlung der Eidgenössischen Finanzkontrolle handelt.
+Dann haben wir, wir haben es gehört, die Einzelanträge Bertschy und Munz. Diese betreffen eine Frage, die Sie bereits im letzten Dezember entschieden haben, nämlich im Rahmen der Motion Knecht 23.3833, "Die Stärkeproduktion in der Schweiz erhalten". Ich möchte Sie bitten, bei Ihrem Entscheid zu bleiben. Mit dem Antrag der Kommission soll eine rechtliche Grundlage geschaffen werden, um wieder auf die ursprüngliche Ausbeutenorm des Weichweizens zurückzukommen; bis Ende 2022 hat diese 55 Prozent betragen. Frau Nationalrätin Bertschy hat Ihnen das soeben erklärt. Mit der Umsetzung des Antrages würde zudem eine Subvention ermöglicht, die dem Subventionsgesetz widerspricht. Ich möchte die ganze Geschichte nicht wiederholen; ich habe es damals bei der Beratung der Motion Knecht im letzten Winter gesagt. Es gab hier verschiedene Rechtsverfahren, und es wäre etwas eine Stop-and-go-Politik, wenn man hier jetzt wieder zustimmen würde.
+Dann haben wir noch einen Minderheitsantrag Bertschy betreffend Fette und Öle. Dieser wurde in Zusammenarbeit mit der Verwaltung optimiert, es ist ein Alternativvorschlag zum Antrag der Mehrheit. Der Antrag der Mehrheit geht deutlich über die heutige Regelung hinaus, da tierische und pflanzliche Öle und Fette neu austauschbar wären und die rückzuerstattenden Beträge nicht beschränkt sein sollen. Das würde den Gatt- und WTO-Bestimmungen widersprechen. Die erstattungsberechtigte Menge sollte kleiner oder gleich sein als die eingeführte oder zollbelastete Menge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brenzikofer Florence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich äussere mich zur Position der Grünen Fraktion in Block 3. Ich nehme vorweg: Der Minderheitsantrag Ritter zum Einkaufstourismus wird von einer Mehrheit der Grünen Fraktion unterstützt. Das Anliegen stammt aus zwei Initiativen der Kantonsparlamente St.[NB]Gallen und Thurgau, welche wir Grünen unterstützt hatten und welche vom Nationalrat angenommen wurden. Den Minderheitsantrag Bertschy zu Artikel 9 werden wir ebenso unterstützen sowie auch die beiden Einzelanträge Munz und Bertschy. Ich erinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich äussere mich zur Position der Grünen Fraktion in Block 3. Ich nehme vorweg: Der Minderheitsantrag Ritter zum Einkaufstourismus wird von einer Mehrheit der Grünen Fraktion unterstützt. Das Anliegen stammt aus zwei Initiativen der Kantonsparlamente St.[NB]Gallen und Thurgau, welche wir Grünen unterstützt hatten und welche vom Nationalrat angenommen wurden. Den Minderheitsantrag Bertschy zu Artikel 9 werden wir ebenso unterstützen sowie auch die beiden Einzelanträge Munz und Bertschy. Ich erinnere daran, dass unser Rat vor nicht einmal drei Monaten die Motion Knecht 23.3833 abgelehnt hat.
+Ich möchte auf die Minderheitsanträge im vierten Abschnitt des Edelmetallkontrollgesetzes (EMKG) zu den Schmelzprodukten fokussieren. Es sind Anträge, die hier im Rat bereits im Rahmen der Behandlung des Geldwäschereigesetzes Gegenstand der Diskussion waren. Hier besteht aus unserer Sicht Handlungsbedarf. 75 Prozent des weltweiten Rohgoldes werden in der Schweiz raffiniert. Hier besteht ein grosses Geldwäschereirisiko. Nach der Raffinierung ist der Ursprung des Goldes nicht mehr nachvollziehbar. Unabhängig von der Herkunft trägt der Barren das Prädikat Schweizer Gold. Der Schweiz kommt hier eine weltweite Türwächterrolle zu, weshalb sie besonders in der Pflicht steht. Im EMKG und in der Edelmetallkontrollverordnung ist die Sorgfaltspflicht auf die Legalität der Ware und nur bis zum ersten Lieferanten beschränkt.
+Wir haben es gehört, der 2018 veröffentlichte Goldbericht des Bundesrates erläuterte, dass die Sorgfaltspflicht von Raffinerien sehr begrenzt ist und dass Lücken bestehen. Hier setzt die Minderheit Bendahan an. Die Sorgfaltspflicht soll auf dem OECD-Leitfaden basieren. Der Bundesrat bezieht sich in seiner Botschaft auf die Empfehlung 3 der Eidgenössischen Finanzkontrolle (EFK) und sagt, Umfang, Kriterien und Sanktionsmöglichkeiten im Bereich der Aufsicht der Edelmetallkontrolle über die Sorgfaltspflicht der Schmelzer und Schmelzprüfer sollen präzisiert werden und sich auf internationale Normen stützen. Wir haben es bei den letzten Voten gehört: Selbst die Branche unterstützt die Verschärfung des EMKG. Hier zitiere ich aus der Vernehmlassung, geschätzter Kollege Müller: "Der SVEH ist mit den Anpassungen im EMKG einverstanden und begrüsst den Willen zu einer stärkeren Kontrolle im Handel und Import von Schmelzprodukten." Die Schweiz ist im Vergleich zu anderen Plattformen für den internationalen Goldhandel im Rückstand, auch was die OECD-Leitlinie betrifft. Deshalb ist in Artikel 34 auch die Minderheit Glättli zu unterstützen. 
+Bei den weiteren Minderheiten in Artikel 36 geht es um verstärkte Kontrollen durch das Zentralamt für Edelmetallkontrolle. Wenn die Edelmetallkontrolle Mängel in der Sorgfaltspflicht der Raffinerien über den ersten Lieferanten hinaus oder gegenüber dem OECD-Leitfaden feststellt, können keine Sanktionen verhängt, sondern nur Empfehlungen ausgesprochen werden. Dieser Punkt wurde von der EFK im Bericht 2020 scharf kritisiert. Ich erinnere an die Aussage von alt Bundesrat und Finanzminister Ueli Maurer hier im Saal. Wenn Sie der Unterstellung der Schmelzer unter die Sorgfaltspflicht zustimmen, erfüllen Sie eigentlich ein Begehren der Branche. Dann hätten wir diese Frage, die international immer wieder zu Diskussionen führt, auch gelöst, was in Anbetracht der Entwicklung auch von der Branche explizit gewünscht wird.
+Der Handlungsbedarf ist offensichtlich. Um die Transparenz der Herkunft des deklarierten Goldes zu erhöhen und das tatsächliche Herkunftsland zu kennen, bitte ich Sie, die Minderheitsanträge Bendahan, Glättli und Ryser, übernommen von Michaud Gigon, zu unterstützen, denn es ist nicht in unserem Schweizer Interesse, wenn Geld der organisierten Kriminalität und Drogengelder über die Schweiz gewaschen werden. [PAGE 294] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michaud Gigon Sophie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérieusement, avec ce qu'on vient de voter au bloc précédent au niveau économique, et au niveau bureaucratique aussi, j'ai de la peine à imaginer comment nous allons pouvoir soutenir, lors du vote sur l'ensemble, une telle voie. Bref, on verra; on est environ à la moitié du débat.
+Je défends ici la minorité Ryser à l'article 36 alinéa 2 de la loi sur le contrôle des métaux précieux qui propose d'introduire une lettre i, afin de permettre au bureau central du contrôle des métaux précieux de surve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérieusement, avec ce qu'on vient de voter au bloc précédent au niveau économique, et au niveau bureaucratique aussi, j'ai de la peine à imaginer comment nous allons pouvoir soutenir, lors du vote sur l'ensemble, une telle voie. Bref, on verra; on est environ à la moitié du débat.
+Je défends ici la minorité Ryser à l'article 36 alinéa 2 de la loi sur le contrôle des métaux précieux qui propose d'introduire une lettre i, afin de permettre au bureau central du contrôle des métaux précieux de surveiller le respect des obligations qui incombent aux raffineries en matière de devoir de diligence.
+Actuellement, les contrôles du bureau central se limitent à regarder si le devoir de diligence basé sur la légalité de la marchandise a été soigneusement réalisé. Mais si des manquements au devoir de diligence sont constatés, il n'est aujourd'hui pas en mesure de surveiller cela et de prendre des sanctions.
+C'est pour cette raison que la volonté de l'Office fédéral de la douane et de la sécurité des frontières (OFDF), en tant qu'autorité de surveillance, et de la présente révision est d'augmenter le contrôle pour les métaux précieux.
+Le Conseil fédéral ainsi que le Contrôle fédéral des finances dans son rapport de 2020 ont déjà souligné le manque de mandats et de critères clairs pour permettre un plus grand contrôle des métaux précieux, et si besoin des sanctions.
+Cette proposition, qui est soutenue par l'administration, permet de renforcer ce qui est déjà prévu dans la révision de la loi, à savoir définir le bureau central comme une autorité de surveillance. Cela va donc dans le sens de la recommandation du Contrôle fédéral des finances.
+La minorité Glättli à l'article 34a alinéa 1 lettre e de la loi sur le contrôle des métaux précieux, elle, comme cela a été dit en allemand, vise à établir la transparence sur l'origine de l'or importé. Dans son rapport du 14 novembre 2018, le Conseil fédéral a formulé des recommandations claires dans le domaine de la transparence et des chaînes d'approvisionnement responsables. La première recommandation du Conseil fédéral est d'améliorer l'obtention et la publication d'informations sur l'origine de l'or importé en Suisse.
+Le Conseil fédéral ajoute que les raffineurs disposent d'informations précises sur l'origine de l'or des mines, mais que ces informations ne sont pas mentionnées dans les déclarations en douane. La minorité Glättli veut précisément instaurer cette transparence. C'est la traduction législative concrète d'une recommandation du Conseil fédéral.
+Aujourd'hui, il est vrai que lorsque les raffineurs importent en Suisse de l'or déjà raffiné, par exemple - comme l'a dit notre collègue Glättli - si de l'or est exporté du Mali vers Dubaï pour y être raffiné avant d'être exporté vers la Suisse, les Emirats seront déclarés à la douane suisse à la fois comme pays d'origine et comme pays d'expédition. Il ne sera pas possible d'établir que l'or provient du Mali.
+Le problème de la déclaration de l'origine réelle de l'or n'est donc toujours pas résolu. Des interventions ont été déposées à plusieurs reprises au Parlement, notamment la motion Mazzone 19.3523, "Adopter les mesures nécessaires pour connaître l'origine réelle de l'or importé en Suisse et lutter contre l'or 'sale'". Mais le Conseil fédéral a proposé de rejeter cette motion en déclarant que pour exiger des informations supplémentaires sur le pays d'extraction, il faudrait donc créer une base légale dans un autre cadre. Par exemple, la loi sur le contrôle des métaux précieux pourrait être une option. La branche partage en tout cas les préoccupations de Swissaid concernant les déclarations en douane relatives à l'origine de l'or, puisque le secteur aura lui aussi intérêt à ce que la Suisse apparaisse de manière transparente comme une place de négoce d'or propre. C'est ce que vise la minorité Glättli, qui a déjà été détaillée en allemand.
+Je vous remercie de soutenir les minorités Ryser, Glättli et Bertschy dans ce bloc. [PAGE 291] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weichelt Manuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Grüne Fraktion beantragt Ihnen, auf die Vorlage einzutreten und den Antrag Aeschi Thomas auf Nichteintreten abzulehnen. Spätestens in Zeiten von Covid-19 haben wir gemerkt, dass unser Gesundheitswesen mit Faxen nicht mehr sehr weit kommt und dass uns ein standardisierter digitaler Austausch fehlt. In der Schweiz ist die Digitalisierung des Gesundheitswesens langsamer vorangeschritten als in einigen Nachbarländern, um es nett auszudrücken. Im Digital Health Index 2019 der Bertelsmann-Stiftung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Grüne Fraktion beantragt Ihnen, auf die Vorlage einzutreten und den Antrag Aeschi Thomas auf Nichteintreten abzulehnen. Spätestens in Zeiten von Covid-19 haben wir gemerkt, dass unser Gesundheitswesen mit Faxen nicht mehr sehr weit kommt und dass uns ein standardisierter digitaler Austausch fehlt. In der Schweiz ist die Digitalisierung des Gesundheitswesens langsamer vorangeschritten als in einigen Nachbarländern, um es nett auszudrücken. Im Digital Health Index 2019 der Bertelsmann-Stiftung rangiert die Schweiz auf den hinteren Rängen - auf den hinteren Rängen, ich hoffe, Sie haben es gehört. Aber schauen wir nicht zurück, schauen wir nun vorwärts und sprechen wir den Verpflichtungskredit von 391,7 Millionen Franken für die Umsetzung von Digisanté. 
+Es ist eigentlich fünf vor zwölf für unseren Start der Digitalisierung. Zehn Jahre Laufzeit und fünfzig Massnahmen in vier Pakete aufgeteilt - wenn das nur gutgeht. Ich wünsche uns allen beste Gesundheit mit Digisanté. Die Aussicht, dass die letzte Phase bis 2034 gehen soll, erfreut die Grüne Fraktion nicht wirklich. Natürlich hoffe ich als GPK-Mitglied, dass wir dieses Projekt nicht auf der roten Liste sehen. 
+Ich werde nicht auf Details eingehen, dafür gibt es andere Fachleute. Aber wichtig ist mir neben dem, was bereits in der Botschaft erwähnt ist, dass einerseits die Programmorganisation deutlich transparenter wird, dass wir so schnell wie möglich auf ICD-11 umsteigen, dass wir eine Verknüpfung [PAGE 350] von Krebsregister und Kinderkrebsregister haben, dass Dritte von Beginn an mit einbezogen werden und dass wir endlich ein Palliative-Care-Register erhalten. Es fehlen uns Daten, und gleichzeitig verlangt die Bevölkerung zu Recht Palliative Care. Ein Datenmonitoring muss aufgebaut werden. Wie es der Bundesrat auch gefordert hat, soll eine Standardisierung der medizinischen Daten im Bereich Palliative Care gefördert werden. 
+Nun komme ich zu den beiden Minderheiten, welche die Grüne Fraktion ablehnt. Zur Minderheit Aeschi Thomas und zum Antrag der Finanzkommission: Wenn sämtliche zusätzlichen Stellen, die im Rahmen von Digisanté geschaffen werden, innerhalb des EDI kompensiert werden müssen, hat das zur Folge, dass Digisanté fallieren wird. Wollen wir das? Wenn Sie das wollen, dann müssen Sie der Finanzkommission und Kollege Aeschi zustimmen. Ich möchte nicht, dass es falliert. Ich möchte nicht, dass Digisanté auf die rote Liste des Bundesrates, der EFK, des EFD und der beiden GPK kommt und den fallierten Geschäften des VBS Gesellschaft leistet. Die Schweiz würde definitiv zum Schlusslicht bezüglich Digitalisierung im Gesundheitswesen, wenn Sie diesen Minderheitsantrag annehmen. Die Grüne Fraktion möchte dies nicht.
+Zur zweiten Minderheit Aeschi Thomas: Die Grüne Fraktion unterstützt die Mehrheit Ihrer Kommission und damit die Barrierefreiheit bei Digisanté. Artikel 14 des Bundesgesetzes über die Beseitigung von Benachteiligungen von Menschen mit Behinderungen (BehiG) hält fest, dass die Behörden im Verkehr mit der Bevölkerung Rücksicht auf die besonderen Anliegen der Sprach-, Hör- oder Sehbehinderten nehmen müssen. In der Botschaft zum Verpflichtungskredit für ein Programm zur Förderung der digitalen Transformation im Gesundheitswesen für die Jahre 2025-2034 finden sich keine Ausführungen dazu, wie der Bund die Umsetzung des BehiG garantiert.
+Rund 377[NB]000 Personen in der Schweiz sind sehbehindert oder blind, Tendenz steigend. Diese Menschen sind nicht nur Patientinnen und Patienten, sondern auch Leistungserbringende, Mitarbeitende von Kantonen und des Bundes sowie Angehörige und Elternteile mit Sehbehinderungen. Sie alle benötigen einen barrierefreien Zugang zu den digitalen Daten im Gesundheitswesen. Die digitalen Kommunikationskanäle sind das eigentliche Tor zu den Informationen für sehbehinderte Menschen. Die Barrierefreiheit muss von Anfang an prioritär mitgedacht werden. Es hat sich gezeigt, dass es nötig ist, diesen neuen Teil noch in den Verpflichtungskredit aufzunehmen. Sonst hätte der Bundesrat in der Botschaft etwas dazu geschrieben; das hat er nicht gemacht.
+Die Grüne Fraktion dankt Ihnen, wenn Sie die Kommissionsmehrheit unterstützen und die Anträge der Minderheiten[NB]Aeschi Thomas und der Finanzkommission ablehnen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juillard Charles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans l'énumération, nous pourrions encore ajouter le rapport annuel du Contrôle parlementaire de l'administration, que je traiterai tout à l'heure.
+Le rapport annuel des Commissions de gestion a pour objectif de donner un aperçu des activités de haute surveillance parlementaire exercées en 2023 - j'insiste sur la notion de haute surveillance, j'y reviendrai -, de même que sur les activités de la Délégation des Commissions de gestion et du Contrôle parlementaire de l'administration.
+En 2023, les </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans l'énumération, nous pourrions encore ajouter le rapport annuel du Contrôle parlementaire de l'administration, que je traiterai tout à l'heure.
+Le rapport annuel des Commissions de gestion a pour objectif de donner un aperçu des activités de haute surveillance parlementaire exercées en 2023 - j'insiste sur la notion de haute surveillance, j'y reviendrai -, de même que sur les activités de la Délégation des Commissions de gestion et du Contrôle parlementaire de l'administration.
+En 2023, les Commissions de gestion ont publié quinze rapports d'enquête, qui ont notamment porté sur les activités du Service suisse d'enquête de sécurité, sur la mesure de l'efficacité de la coopération internationale et sur la communication des autorités avant les votations. Les Commissions de gestion ont également publié les conclusions de leurs contrôles de suivi. En janvier 2023, les Commissions de gestion ont décidé de procéder à une inspection sur le thème des indiscrétions liées aux affaires du Conseil fédéral relatives au COVID-19. Elles ont à cet effet mis sur pied un groupe de travail spécifique. Dans leur séance de novembre, les commissions réunies ont adopté et publié leur rapport dans lequel figurent neuf recommandations.
+Le rapport de gestion a pour but, notamment, de rendre l'activité de la commission la plus transparente possible, en relatant des éléments en lien avec son activité en dehors des rapports spécifiques qui sont publiés séparément. Vous avez pu vous en rendre compte à la lecture du rapport d'activité 2023, les Commissions de gestion ont consacré beaucoup de temps à analyser le traitement du dossier du COVID-19 et de tout ce qui a focalisé l'attention du public et des autorités durant cette période particulièrement difficile. Les Commissions de gestion se sont aussi intéressées au dossier du rachat de Credit Suisse par UBS, jusqu'à la mise en place de la Commission d'enquête parlementaire sur ce dossier. Elles se sont aussi intéressées aux affaires compensatoires en lien avec l'acquisition de matériel de guerre, notamment à l'occasion de l'acquisition du nouvel avion de combat.
+Le présent rapport a été accepté par les deux commissions plénières réunies le 26 janvier 2024. Les autorités concernées ont reçu au préalable un exemplaire du texte les concernant pour avis. La Commission de gestion a pris en compte, dans toute la mesure du possible, les avis émis par les autorités.
+Quelques mots sur le mandat et l'organisation: pour rappel, les Commissions de gestion sont mandatées par les Chambres fédérales afin d'exercer la haute surveillance sur la gestion du Conseil fédéral et de l'administration, des tribunaux fédéraux et des autres organes auxquels sont confiées des tâches de la Confédération. Il s'agit bien d'exercer la haute surveillance. Il ne s'agit pas d'agir dans l'opérationnel et encore moins de faire de la cogestion. Ainsi, les Commissions de gestion vérifient si les autorités agissent conformément à la Constitution et à la loi et si les missions assignées par le législateur ont été fidèlement accomplies. Elles veillent également à ce que les mesures prises par l'Etat soient judicieuses. Elles s'assurent que les autorités font bon usage de leurs marges d'appréciation et examinent l'efficacité des mesures au regard des objectifs fixés par le législateur.
+Si les Commissions de gestion remplissent leurs tâches de surveillance en direct ou par l'intermédiaire du Contrôle parlementaire de l'administration - en quelque sorte son bras armé -, elles travaillent également en étroite collaboration et coordination avec les Commissions des finances des deux conseils et le Contrôle fédéral des finances. A mon avis, il y a encore une marge de progression afin de rendre le travail de ces deux autorités encore plus efficace et efficient. C'est d'ailleurs un thème qui revient régulièrement sur la table de discussion.
+En ce qui concerne l'organisation en tant que telle, vous en trouverez le descriptif détaillé dans le rapport. Rappelons toutefois que chacune des commissions des deux conseils travaille en cinq sous-commissions. Cela permet un travail plus large, mais nécessite aussi une bonne coordination par le secrétariat, que je remercie au passage pour sa disponibilité, son professionnalisme et ses hautes compétences. 
+Concernant le droit à l'information et la confidentialité des travaux, les Commissions de gestion disposent par la loi d'un droit à l'information étendu. Ainsi, elles peuvent interroger directement tous les représentants des autorités fédérales, y compris les conseillers fédéraux, le procureur général de la Confédération et les juges fédéraux.
+Certaines informations particulièrement sensibles sont réservées à un cercle restreint. C'est notamment le cas des activités du Service de renseignement de la Confédération, qui ne répond qu'à la Délégation des Commissions de gestion. Pour exercer leurs activités avec succès et efficacité, les Commissions de gestion doivent pouvoir agir en toute discrétion jusqu'au moment où elles décident de publier le résultat de leurs recherches et constatations. Or, nous devons constater avec regret que, de plus en plus souvent, des informations traitées en commission ou dans les sous-commissions se retrouvent dans la presse avant le terme des travaux des commissions. Les sources peuvent être très diverses et se trouvent le plus souvent au sein de l'administration et des entités qui ont été en relation avec les organes de surveillance. [PAGE 167] Il s'ensuit un problème de confiance entre les autorités. Ces situations sont jugées inacceptables par les Commissions de gestion. Plusieurs plaintes pour violation du secret de fonction ont été déposées dans l'année sous revue. Même s'il peut paraître difficile de retrouver les coupables, les Commissions de gestion ont décidé de se montrer intransigeantes et de dénoncer systématiquement les faits punissables pénalement.
+En ce qui concerne les publications des Commissions de gestion: aux pages 17 à 19 du rapport, vous trouverez la liste exhaustive des rapports et des communiqués de presse des Commissions de gestion pour l'année 2023. Je ne m'y arrête pas spécialement.
+En ce qui concerne les travaux des Commissions de gestion: après mon introduction et le survol que j'essaie de faire de manière fidèle, divers membres de la Commission de gestion du Conseil des Etats rapporteront sur l'activité de leur sous-commission et sur celle de la Délégation des Commissions de gestion. Cette année, nous nous pencherons plus spécialement sur les activités du DFAE et du DDPS, avec un rapport de notre collègue Josef Dittli, ainsi que sur celles du DFJP et de la Chancellerie fédérale, avec un rapport de notre collègue Carlo Sommaruga; enfin, notre collègue Werner Salzmann nous parlera des activités de la Délégation des Commissions de gestion.
+Permettez-moi de citer brièvement quelques dossiers qui nous ont passablement accaparés durant l'année 2023, dont vous trouverez le détail aux pages 51 à 60 du rapport.
+Comme je l'ai déjà dit, nous avons bouclé de nombreuses inspections en lien avec le COVID, et les premiers contrôles de suivi permettent déjà de dire que le Conseil fédéral a mis en oeuvre la plupart des nombreuses recommandations que nous lui avons adressées. D'autres contrôles de suivi seront réalisés ces prochaines années. Nous nous intéressons surtout à la manière de gérer les premiers instants de la crise au travers de la mise en place et du fonctionnement des états-majors de crise et à la manière d'associer les divers partenaires publics, les cantons en particulier, ou privés, tels que les entreprises, les milieux de la science ou les milieux des hautes écoles.
+L'organisation et les méthodes de travail des tribunaux, notamment la manière dont les dossiers sont répartis, ont retenu l'attention de notre Commission de gestion. Je tiens ici à rassurer les puristes, nous n'avons pas compétence pour parler des jugements, qui sont protégés par la séparation des pouvoirs.
+Nous nous sommes intéressés aussi aux très nombreux projets informatiques développés au sein de l'administration fédérale et aux quelques dossiers en lien avec des vols de données, toujours dans notre rôle de haute surveillance qui consiste à nous assurer que le Conseil fédéral et l'administration mettent tout en oeuvre pour prévenir les attaques et la divulgation de données sensibles de l'administration ou de données personnelles des citoyens. C'est un travail de longue haleine mais qui mérite une attention particulière, tant au niveau des risques encourus que des sommes d'argent engagées.
+Comme chaque année, nous avons examiné le rapport de gestion du Conseil fédéral, de même que ceux des entités devenues autonomes qui revêtent une importance économique et financière particulière. Il s'agit notamment de Swisscom, de la Poste, des CFF, de Skyguide, des EPF, de la Finma et de Ruag. Ruag a causé quelques soucis à notre commission, comme vous pouvez l'imaginer. Non seulement le départ de la directrice, mais aussi l'affaire des chars Leopard 1 ont retenu notre attention, notamment en ce qui concerne la manière dont les relations sont réglées avec les deux départements de référence que sont le DDPS et le DFF. A ce sujet, des décisions et des mesures ont été prises rapidement par les départements. On peut saluer cette réactivité.
+Nous poursuivrons notre travail de contrôle durant cette année. Conformément aux lois pertinentes, nous avons aussi examiné des rapports périodiques, comme le rapport détaillé sur l'exportation de matériel de guerre, celui sur la gestion du personnel, le rapport de gestion du Ministère public de la Confédération, le rapport d'activité de l'Autorité de surveillance du Ministère public de la Confédération et le rapport de la BNS. 
+Si l'examen de ces rapports peut paraître parfois rébarbatif, c'est l'occasion de se faire une idée assez précise de l'immense activité déployée par le Conseil fédéral, l'administration fédérale et les entités autonomes rattachées à l'Etat. Cela permet également d'affirmer que même si tout ne fonctionne pas très bien, on doit saluer et remercier pour le travail accompli en faveur de nos concitoyennes et nos concitoyens. 
+Madame la présidente, je vous propose de donner maintenant la parole à mes collègues de la commission afin de présenter le rapport dans l'ordre que vous souhaitez. Je reviendrai ensuite vous parler brièvement du rapport du Contrôle parlementaire de l'administration (CPA) et pour une conclusion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'aimerais encore dire quelques mots concernant le rapport du Contrôle parlementaire de l'administration (CPA): le CPA est l'organe [PAGE 170] d'évaluation de l'Assemblée fédérale. Il dispose des mêmes droits étendus à l'information et, vu son effectif limité, il peut confier des mandats à des experts externes, seul ou avec l'aval des Commissions de gestion. En principe, il agit sur mandat des Commissions de gestion, mais aussi d'autres commissions ou de l'administration elle-même. Il agit en to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'aimerais encore dire quelques mots concernant le rapport du Contrôle parlementaire de l'administration (CPA): le CPA est l'organe [PAGE 170] d'évaluation de l'Assemblée fédérale. Il dispose des mêmes droits étendus à l'information et, vu son effectif limité, il peut confier des mandats à des experts externes, seul ou avec l'aval des Commissions de gestion. En principe, il agit sur mandat des Commissions de gestion, mais aussi d'autres commissions ou de l'administration elle-même. Il agit en toute indépendance. Dans ses rapports, il émet des recommandations plutôt techniques à l'intention du Conseil fédéral ou des services. Les Commissions de gestion reprennent ou ne reprennent pas ses recommandations techniques et y apportent des considérations politiques. Cela peut déboucher sur des interventions parlementaires, des révisions de lois ou d'ordonnances ou, plus simplement, à des changements de pratique des services ou offices. Ces rapports sont en général publiés. 
+Durant l'année sous revue, le CPA a bouclé quatre évaluations: la première concerne l'utilisation des connaissances scientifiques par l'OFSP durant la crise du COVID-19. Le CPA est parvenu à la conclusion que l'utilisation des connaissances scientifiques par l'OFSP durant les premières phases de la crise du coronavirus a été partiellement adéquate. L'OFSP a cependant amélioré l'utilisation des connaissances scientifiques au cours de la crise. Le CPA constate également que l'office a impliqué de nombreux acteurs sans que la plus-value de chaque prestation soit claire. Certaines d'entre elles présentaient même des doublons. Des études de cas ont montré que les connaissances scientifiques n'ont pas toujours été présentées de manière transparente dans les bases de décision du Conseil fédéral. Enfin, ces connaissances ont généralement été peu valorisées dans la communication publique, notamment dans celle de l'OFSP.
+S'appuyant sur le rapport du Contrôle parlementaire de l'administration (CPA), la commission soeur du Conseil national a adressé huit recommandations à l'intention du Conseil fédéral. Ces rapports ont été publiés en juillet 2023. 
+Le deuxième point concerne le chômage partiel pendant la crise de coronavirus. Le CPA considère que le chômage partiel a, de manière générale, été utilisé de manière opportune pendant la crise du COVID-19. Lors de la crise du COVID-19, les procédures ont toutefois dû être simplifiées en raison du grand nombre d'entreprises concernées. Un très grand nombre de personnes, non seulement au sein de la Confédération, mais aussi des cantons, ont fourni d'énormes efforts afin de mettre en oeuvre de nombreuses adaptations. En matière de surveillance, le Secrétariat d'Etat à l'économie (SECO) a dû fixer des priorités et le Contrôle fédéral des finances a étendu ses activités. Les contrôles du SECO ne permettront probablement pas de déterminer avec certitude la part des indemnités en cas de réduction de l'horaire de travail (RHT) perçues de façon illicite par les entreprises. Ici aussi, la commission soeur du Conseil national a[NB]adressé[NB]cette[NB]recommandation à l'intention du Conseil fédéral et publié son rapport ainsi que celui du CPA en octobre 2023. 
+Le troisième point concerne la mesure de l'efficacité dans la coopération internationale. A noter que cet examen a porté sur le système d'évaluation et non pas sur l'évaluation des projets eux-mêmes. Dans l'ensemble, le CPA parvient à la conclusion que l'efficacité de la coopération internationale est mesurée de manière partiellement opportune par les évaluations. S'agissant de la qualité des évaluations externes, des points forts, mais aussi des points faibles ont été identifiés. Les outils pour gérer les évaluations et garantir leur qualité sont pour la plupart appropriés, mais leur volume est variable.
+L'utilisation des évaluations pour le pilotage à différents niveaux est appropriée dans l'ensemble. Les recommandations des évaluations externes sont toutefois traitées de manière lacunaire. L'utilisation des évaluations pour rendre des comptes au Parlement et au public n'est pas adéquate, notamment en ce qui concerne les taux de réussite publiés. Il s'ensuit des informations incomplètes ou parfois biaisées. Notre commission a donc adressé six recommandations au Conseil fédéral, notamment lui demandant d'en tenir déjà compte dans son prochain message en cours d'élaboration. Le rapport de notre commission et celui du CPA ont été publiés en novembre 2023.
+Le dernier point concerne la communication des autorités avant des votations. Vous savez que ce sujet est souvent controversé, selon le point de vue que l'on peut défendre. Dans l'ensemble, le CPA parvient à la conclusion que la communication des autorités avant des votations est partiellement opportune. La brochure contenant les explications du Conseil fédéral revêt une grande importance dans la formation de l'opinion des citoyennes et des citoyens, tandis que les médias sociaux jouent un rôle secondaire - cette information est intéressante. Les instructions de la Chancellerie pour la rédaction de la brochure concrétisent les principes de communication de manière adéquate, mais les départements les utilisent peu. Les contenus de la communication respectent majoritairement les principes juridiques, mais il existe ponctuellement des lacunes. Les conceptions qu'ont les départements d'une communication proportionnée et de la frontière entre information et campagne sont différentes. La communication des autorités varie en intensité, mais elle est globalement proportionnée par rapport à la couverture médiatique. Ici aussi, notre commission soeur du Conseil national a adressé quatre recommandations au Conseil fédéral. Son rapport ainsi que celui du CPA ont été publiés le 24 novembre dernier.
+Voilà une partie de l'activité du CPA. Je peux encore vous dire que trois évaluations sont en cours et que trois nouvelles débuteront cette année. Je tiens à remercier le CPA pour son travail et la très bonne collaboration entretenue avec notre commission.
+En résumé, vous avez pu vous rendre compte de l'intensité du travail des Commissions de gestion durant l'année 2023. En plus de l'activité habituelle, les dossiers liés à la débâcle de Credit Suisse et aux indiscrétions au DFI durant la période du COVID-19 ont généré des activités intenses. Ces dossiers ne sont évidemment pas encore clos. Je remercie encore une fois toutes les personnes du secrétariat, sur qui l'on peut compter en tout temps, et j'en fais de même pour le CPA. Dernier rappel, ce rapport vous est adressé non pas pour que vous l'approuviez, mais pour que vous en preniez connaissance.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Würth Benedikt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich berichte Ihnen über das Movetiagesetz. Sie haben gesehen, Ihre Kommission beantragt Ihnen Nichteintreten. Die Kommission hat sich intensiv mit der Vorlage auseinandergesetzt und ist zum Schluss gekommen, dass der Status quo besser ist als das Gesetz. 
+Wir haben Anhörungen durchgeführt, insbesondere haben wir uns mit der EDK ausgetauscht. Sie ist von der Übung mässig begeistert, hat ihren anfänglichen Widerstand aber aufgegeben. Die EDK bezeichnet die Entwicklung der heutigen privatrechtliche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich berichte Ihnen über das Movetiagesetz. Sie haben gesehen, Ihre Kommission beantragt Ihnen Nichteintreten. Die Kommission hat sich intensiv mit der Vorlage auseinandergesetzt und ist zum Schluss gekommen, dass der Status quo besser ist als das Gesetz. 
+Wir haben Anhörungen durchgeführt, insbesondere haben wir uns mit der EDK ausgetauscht. Sie ist von der Übung mässig begeistert, hat ihren anfänglichen Widerstand aber aufgegeben. Die EDK bezeichnet die Entwicklung der heutigen privatrechtlichen Stiftung Movetia als Erfolgsgeschichte. Die Kommission teilt diese Auffassung. 
+Die Minderheit wollte die Beratung der Vorlage auch mit Blick auf die hängigen Fragen rund um Erasmus sistieren. 
+Zur Bedeutung des Themas: Sprach- und Kulturaustausch ist selbstverständlich sehr wichtig. Als mehrsprachiges Land haben wir hier auch grosse Chancen - Chancen, die es zu nutzen gilt.
+Zur Vorgeschichte: Wenn wir die Vorlage annehmen, findet eine neuerliche Strukturänderung statt. Bund und Kantone haben die privatrechtliche Stiftung Movetia erst vor sieben Jahren gegründet. Die Stiftung hat insbesondere drei Ansprechpartner auf Bundesebene: das SBFI für den internationalen Austausch, das Bundesamt für Kultur für den nationalen Austausch und - von etwas untergeordneter Bedeutung - das Bundesamt für Sozialversicherungen für die ausserschulische Jugendförderung. 
+Die damalige Neuausrichtung und die Gründung der gemeinsamen Stiftung basierten auf dem Projekt "Strategie Austausch und Mobilität" von Bund und Kantonen. Die wichtigsten Hintergründe dieser Neukonzeption und Strategie waren die folgenden: 
+1.[NB]Im politischen Umfeld fehlte eine konsolidierte Strategie für Austausch und Mobilität. Bund und Kantone haben damals die Bereitschaft bekräftigt, hierfür mehr Mittel einzusetzen. Das wurde umgesetzt. In diesem Kontext sei auch das neue Sprachengesetz aus dem Jahr 2007 erwähnt; der Schüleraustausch wurde wichtiger. 
+2.[NB]Die Diskussion war aufgrund von Lehrplanentscheiden einzelner Kantone und aufgrund der neuen Bildungsverfassung von einer verstärkten Sensibilisierung in der Sprachenfrage geprägt.
+3.[NB]Im Bereich des europäischen Austausches ergab sich eine anhaltende Unsicherheit vor dem Hintergrund des Ja zur Masseneinwanderungs-Initiative. Bekanntlich ist die Schweiz seit diesem Volksentscheid nicht mehr an das Erasmus-Programm assoziiert und hat den eigenen sogenannten Schweizer Weg entwickelt. 
+Das Ergebnis des gemeinsamen Wirkens von Bund und Kantonen war, wie erwähnt, die Stiftung Movetia, die erst seit rund sieben Jahren in Funktion ist. Die WBK hat sich auch in der Vergangenheit verschiedentlich mit Vertretungen der Stiftung auseinandergesetzt und ausgetauscht. Die Kommission, der Bundesrat und auch die EDK kommen zum Ergebnis, dass sich die seinerzeitige Reform bewährt hat. In diesem Zusammenhang seien drei Elemente erwähnt: 
+1.[NB]Es gelang mit der Reform, das Engagement der Kantone zu stärken. Auch die stärkere Einbindung der kantonalen Erziehungsdirektorinnen und Erziehungsdirektoren war sehr wichtig.
+2.[NB]Die neue Organisation ist flexibel, sie ist auch offen für andere Partner, z.[NB]B. andere Stiftungen.
+3.[NB]Der Verbund von Bund und Kantonen hat sich bewährt. In diesem Zusammenhang sei auch an die Aufgabenteilung in diesem Bereich erinnert. Es geht bei der Förderung von Austausch und Mobilität im Wesentlichen um kantonale Aufgaben, denn die Verknüpfung mit der kantonalen Schulhoheit ist offensichtlich. Für eine hohe Wirksamkeit braucht es die Nähe zu den Akteuren: zur Schweizerischen Konferenz der kantonalen Erziehungsdirektoren, zu den Bildungsverwaltungen, zu den konkreten Schulen im Terrain. Wer schon konkret und praktisch mit Bildungsaustausch zu tun hatte, weiss: Entscheidend ist letztlich das Engagement der Lehrpersonen, die Sache anzupacken. Natürlich können auch gute strukturelle Rahmenbedingungen dabei helfen.
+Mit der vorliegenden Botschaft soll die gemeinsame Stiftung von Bund und Kantonen durch eine öffentlich-rechtliche Anstalt des Bundes abgelöst werden. Mit der Transformation von einer von Bund und Kantonen getragenen Stiftung hin zu einer öffentlich-rechtlichen Anstalt des Bundes wird die Verantwortung der Kantone reduziert, auch wenn die Kantone über ein Anhörungsrecht zu den strategischen Zielen des Bundesrates verfügen und Verwaltungsratsmitglieder vorschlagen können. Wir halten diese Reduktion der strategischen Verantwortung der Kantone für einen falschen Ansatz.
+Sie fragen sich nun, wieso uns diese Botschaft überhaupt vorliegt, wenn sich doch die heutige Struktur bewährt hat. Der Grund liegt in einem Bericht der Eidgenössischen Finanzkontrolle, welcher zum Schluss kam, dass die heutige Struktur nicht mit der Public Corporate Governance des Bundes konform sei. Es geht hier um 37 Leitlinien, wir hatten die Diskussion über diese Leitlinien teilweise auch im Parlament geführt. Ausgangspunkt war der Bericht des Bundesrates an das Parlament aus dem Jahre 2006. Zum letzten Mal haben wir beim Postulat Abate 18.4274, "Eignerstrategie des Bundesrates für die verselbstständigten Einheiten des Bundes", darüber diskutiert. Das war im Mai 2021. [PAGE 173] 
+Das ist im Wesentlichen aus Sicht des Parlamentes die normative Grundlage. Es handelt sich lediglich um Berichte des Bundesrates, es handelt sich nicht um Gesetze. Empfehlungen der EFK sind Empfehlungen an die Behörden, es sind keine Befehle. Das Parlament kann frei darüber diskutieren und entscheiden, ob es diesen Empfehlungen Rechnung tragen will oder nicht. Persönlich meine ich, dass sich hier auch der Bundesrat durchaus mehr Freiheiten herausnehmen sollte. Auch für den Bundesrat sind Empfehlungen der EFK Empfehlungen und keine Befehle.
+Wir haben das gerade letzte Woche unter Beweis gestellt, indem wir die Motion Rechsteiner Thomas 21.4595, "Akquisitionen innerhalb des Leistungsauftrags halten", angenommen haben. Ich erinnere auch an die Diskussion über die Aufsicht des Bundes beim kantonalen Vollzug der direkten Bundessteuer, wo wir ganz bewusst Empfehlungen der EFK nicht übernommen haben. Mit anderen Worten heisst das: Die Politik muss die Notwendigkeit und Zweckmässigkeit einer Reform nüchtern analysieren.
+Hier ist die Kommission zur Ansicht gelangt, dass die Schaffung einer öffentlich-rechtlichen Anstalt des Bundes in diesem Aufgabenbereich aus folgenden Gründen materiell falsch ist:
+1.[NB]Wenn man die Liste der öffentlich-rechtlichen Anstalten des Bundes anschaut, dann fällt auf, dass es sich ausschliesslich um Anstalten handelt, die Bundesaufgaben wahrnehmen. Hier haben wir hingegen eine relevante kantonale Aufgabe bzw. eine Verbundaufgabe zwischen Bund und Kantonen vor uns. Das war auch der Grund, wieso man bei der Schaffung der Stiftung Movetia eine spezifische Lösung gesucht hat und sich nicht in irgendein Schema der Public Corporate Governance pressen lassen wollte.
+2.[NB]Wir würden die Gewichte deutlich in Richtung Bund verschieben. Das ist bei diesem Thema aus Sicht der Kommission konzeptionell wie strategisch falsch. Die Einbindung und Nähe zu den schulischen Akteuren und die Option, auch weitere Dritte einzubinden, sind und bleiben essenziell. Die Kantone wären mit der Vorlage nur noch Konsultationspartner bei den Zielen und könnten drei Mitglieder für den Verwaltungsrat vorschlagen. Das alles ist angesichts der Bedeutung der kantonalen Schulhoheit für die Kommission zu wenig.
+3.[NB]Das von der EFK monierte Problem ist, wenn überhaupt, ein kleines Problem. Es handelt sich um sogenannte Dienstleistungen mit Monopolcharakter, hauptsächlich durch Bundesbeiträge finanziert. Wo sollen hier nun effektiv massgebliche Rollenkonflikte auftreten? Konkret sei an das angebliche Problem erinnert, dass es eine Personalunion zwischen Amtsleitungen und Mitgliedern des Stiftungsrates gibt. Mit Verlaub, das ist nicht wirklich weltbewegend. Man könnte dieses Delegationsproblem einfach mit einer Änderung der Delegation korrigieren. Hierfür braucht es keine grundlegend neue Struktur. Effektiv heikel wäre es, wenn es zahlreiche Destinatäre von Bundesmitteln gäbe, die miteinander in einer gewissen Konkurrenz stünden. Das ist hier aber nicht der Fall. 
+4.[NB]Wir haben festgestellt, dass dieser Bereich, wenn man der Vorlage zustimmen würde, innerhalb von zehn Jahren ungefähr dreimal umstrukturiert würde. Das kennen wir sonst eigentlich nur aus der Privatwirtschaft. Was soll das? Es ist ein unnötiger Ressourcenverschleiss, der hier stattfindet. 
+5.[NB]Mit Blick auf eine mögliche Erasmus-Assoziierung braucht es eine unabhängige Organisation. Die Anstalt ist offenkundig näher an der Verwaltung als die privatrechtliche Stiftung. Der Bund geht gemäss Botschaft und Aussagen in der Kommission davon aus, dass die neue Anstalt mit den Erasmus-Regulierungen konform ist. Bestätigt ist dies aber nicht. Im allerdümmsten Fall müsste man bei einer Assoziierung an Erasmus wieder umstrukturieren. 
+6.[NB]Bei einer Stiftung können die Kantone institutionell am einfachsten und insbesondere auf Augenhöhe mit einbezogen werden. Das ist der Kommission ein wichtiges Anliegen.
+Ich komme zum Fazit: Die Kommission kritisiert nicht den Bericht der EFK, sondern sie kritisiert höchstens, dass man solche Empfehlungen einfach relativ unkritisch umsetzt. Diese Reformübung kann vom Parlament in vollständiger Freiheit abgewogen werden. Wir sind in dieser Abwägung zum Schluss gekommen, dass sich die Stiftung Movetia bewährt hat und es keinen Grund gibt, daran etwas zu ändern. Aus Sicht der Kommission wäre die vorgeschlagene Reform tendenziell eher ein Rückschritt - darum nochmals die mit 9 zu 4 Stimmen beschlossene Empfehlung der Kommission, nicht[NB]auf[NB]die[NB]Vorlage einzutreten. Die Minderheit wollte die Vorlage, insbesondere mit Blick auf die Erasmus-Thematik, sistieren. 
+Ich bitte Sie daher, nicht einzutreten.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crevoisier Crelier Mathilde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous l'avez entendu, cela a été exposé de manière exhaustive par le rapporteur de la commission: plusieurs doutes se sont fait jour dans le cadre de nos discussions par rapport à la loi Movetia. Il y a une certaine surprise dans la commission, d'une certaine réticence du côté des cantons pour ce projet de loi, car ils souhaitent maintenir le niveau de collaboration élevé qu'ils entretiennent actuellement avec l'agence Movetia. Toutes les parties ont relevé le bon fonctionnement actuel de l'agenc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous l'avez entendu, cela a été exposé de manière exhaustive par le rapporteur de la commission: plusieurs doutes se sont fait jour dans le cadre de nos discussions par rapport à la loi Movetia. Il y a une certaine surprise dans la commission, d'une certaine réticence du côté des cantons pour ce projet de loi, car ils souhaitent maintenir le niveau de collaboration élevé qu'ils entretiennent actuellement avec l'agence Movetia. Toutes les parties ont relevé le bon fonctionnement actuel de l'agence, notamment pour ce qui est de la collaboration que j'ai mentionnée, mais également pour tous les autres aspects opérationnels. En outre, quelques doutes se sont fait jour, comme cela a été rapporté, par rapport à la nécessité de transformer l'agence en établissement de droit public dans l'optique d'une association à Erasmus plus. Partant, la minorité de la commission aurait souhaité, comme cela a été mentionné, avoir davantage d'informations du côté de l'administration par rapport à l'éventuelle adéquation de la structure actuelle, avec une future association pleine à Erasmus plus.
+Il n'empêche que les questions soulevées dans le rapport du Contrôle fédéral des finances, mais également lors des discussions en commission, par le projet de loi qui nous est soumis restent entières et ne sont pas résolues. Il s'agira de clarifier, notamment, la question du conflit des rôles au niveau du conseil d'administration de la fondation et de lui assurer l'autonomie nécessaire afin de lui permettre d'exécuter au mieux les tâches dont l'agence Movetia est investie.
+C'est pourquoi, au vu des doutes soulevés, aucune proposition de minorité n'a été déposée. Cela étant, nous relevons que la problématique reste entière et qu'il est important de trouver des solutions pour les points énumérés.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">336669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Würde ich eine Kolumne schreiben, dann würde sie den Titel tragen: "Auch heilige Kühe brauchen unsere Aufmerksamkeit". In der zweiten Sessionswoche hat unser Rat der parlamentarischen Initiative Romano 22.498, "Die Schweizerische Radio- und Fernsehgesellschaft der Eidgenössischen Finanzkontrolle unterstellen", Folge gegeben. Seien Sie jetzt kongruent, und stellen Sie auch die zweite Ausnahme, nämlich die Verwaltung der SNB, unter Aufsicht. Wie lautet denn unsere Bundesverfassung? Artikel 99 Absa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Würde ich eine Kolumne schreiben, dann würde sie den Titel tragen: "Auch heilige Kühe brauchen unsere Aufmerksamkeit". In der zweiten Sessionswoche hat unser Rat der parlamentarischen Initiative Romano 22.498, "Die Schweizerische Radio- und Fernsehgesellschaft der Eidgenössischen Finanzkontrolle unterstellen", Folge gegeben. Seien Sie jetzt kongruent, und stellen Sie auch die zweite Ausnahme, nämlich die Verwaltung der SNB, unter Aufsicht. Wie lautet denn unsere Bundesverfassung? Artikel 99 Absatz 2 der Bundesverfassung lautet: "Die Schweizerische Nationalbank [...] wird unter Mitwirkung und Aufsicht des Bundes verwaltet." Ich bitte Sie nur darum, diesen Artikel umzusetzen. Das Nationalbankgesetz hat nämlich keinen wirksamen Überwachungsmechanismus vorgesehen. Die Aufsicht über die Verwaltung der Nationalbank beschränkt sich heute auf die Ernennung eines Teils des Bankrates und auf die Diskussion des Jahresberichtes.
+Ich möchte klar festhalten: Es geht nicht, wirklich nicht darum, die schweizerische Währungs- und Geldpolitik zu überwachen, sondern die Verwaltung der Bank. Es soll sichergestellt werden, dass die Bank gut verwaltet wird. Aber vor allem soll eine Lücke bei der Überwachung unserer kritischen Infrastruktur geschlossen werden. Die Schweizerische Nationalbank betreibt oder lässt Infrastrukturen betreiben, die für den Schweizer Finanzplatz äusserst kritisch sind, insbesondere das Swiss Interbank Clearing. Diese Infrastrukturen entziehen sich heute vollständig der Aufsicht des Bundes und der Finma. Zum Beispiel besteht keine Meldepflicht bei Cyberangriffen. Stellen Sie sich das vor: keine Meldepflicht bei Cyberangriffen!
+Ich möchte nicht auf die nächste Krise oder auf die nächste PUK warten. Mit dieser Motion können wir jetzt handeln. Meine Motion verlangt nichts Aussergewöhnliches, sondern nur die Umsetzung der Bundesverfassung. Sie beauftragt den Bundesrat, eine Vorlage oder andere geeignete Massnahmen auszuarbeiten und dem Parlament zu unterbreiten. Diese sollen es ermöglichen, die Verwaltung der Schweizerischen Nationalbank wirksam zu beaufsichtigen.
+Ich danke Ihnen für Ihre Unterstützung meiner Motion, die auch Mitunterzeichner aus der SVP-, GLP- und FDP-Fraktion hat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">336759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich berichte Ihnen gerne anhand von zwei Kapiteln von den Tätigkeiten der Geschäftsprüfungsdelegation, unter Einhaltung der Geheimhaltung, die sich halt aus den Oberaufsichtsbereichen der GPDel ergibt. Insgesamt hat die GPDel als Oberaufsichtsorgan über die nachrichtendienstlichen Aktivitäten des Bundes ein ausgesprochen intensives Jahr hinter sich, und sie ist auch aktuell stark gefordert; Sie haben die Medienberichte in den letzten Wochen vielleicht auch mitverfolgt. Ich verzichte angesichts d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich berichte Ihnen gerne anhand von zwei Kapiteln von den Tätigkeiten der Geschäftsprüfungsdelegation, unter Einhaltung der Geheimhaltung, die sich halt aus den Oberaufsichtsbereichen der GPDel ergibt. Insgesamt hat die GPDel als Oberaufsichtsorgan über die nachrichtendienstlichen Aktivitäten des Bundes ein ausgesprochen intensives Jahr hinter sich, und sie ist auch aktuell stark gefordert; Sie haben die Medienberichte in den letzten Wochen vielleicht auch mitverfolgt. Ich verzichte angesichts der mir zustehenden Redezeit aber auf einen umfassenden Überblick, picke wie gesagt zwei Kapitel heraus und verweise im Weiteren auf den schriftlichen Bericht.
+Ich berichte zuerst über die Qualität der Dienstleistungsverträge, die der Nachrichtendienst des Bundes (NDB) eingegangen ist und die bereits im Jahr 2022 zu intensiven Diskussionen und nachfolgenden Untersuchungen geführt haben. Im Zeitraum 2019-2021 hatte der damalige Direktor des NDB einer Privatperson den Auftrag erteilt, ihm "unter aller Geheimhaltung und Verschwiegenheit" ein Kontaktnetz in unterschiedlichen Bereichen aufzubauen und Informationen daraus für den NDB nutzbar zu machen. Die GPDel stellte sich damals die Frage, inwiefern dieser sehr freihändige Auftrag für die Qualität der aktuellen Dienstleistungsverträge des NDB repräsentativ war. Insbesondere hatte die Oberaufsicht keine Gewähr, dass es sich beim besagten Auftrag um einen Einzelfall handelte und dass beim NDB nicht weitere problematische Verträge dieser Art, allenfalls in grösserer Anzahl, existierten.
+Im Auftrag von GPDel und FinDel untersuchte die Eidgenössische Finanzkontrolle (EFK) also die laufenden Dienstleistungsverträge des NDB. Den Bericht dazu nahm die GPDel im März 2023 zur Kenntnis. Das Resultat war: Aufgrund der Analyse von rund fünfzig laufenden Verträgen kam die EFK zum Schluss, dass die Qualität des genannten Vertrages mit einer Privatperson für den NDB nicht repräsentativ war. Die EFK fand keine weiteren vergleichbaren Verträge betreffend Politikberatung und konnte alle laufenden Verträge dem Grundauftrag des NDB bzw. seinen Aufgaben zuordnen - mit einer Ausnahme: Ein von 2010 bis 2018 laufender Beratungsvertrag wurde ohne rechtliche Basis, unter Umgehung der Finanzsysteme des NDB und ohne Kenntnis des Rechtsdiensts eingegangen.
+Die EFK empfahl dem NDB folgerichtig, Massnahmen zur Leistungsbeschreibung und Qualitätssicherung bei solchen Verträgen zu ergreifen. Die GPDel schloss sich sowohl der Analyse wie auch der Empfehlung der EFK an und betonte, wie Sie aus dem Jahresbericht ersehen können, insbesondere Artikel 15 des Nachrichtendienstgesetzes, der die Bestimmungen zur Führung der menschlichen Quellen enthält, welche bei den Dienstleistungsverträgen[NB]nicht[NB]umgangen[NB]werden[NB]dürfen.[NB](Zwischenruf des Präsidenten: Meine Damen und Herren, darf ich Sie bitten, Ihre Gespräche, auch wenn sie unterhaltsam sind, draussen zu führen?)
+Diese menschlichen Quellen waren auch Thema des Dienststellenbesuchs beim NDB, den ich als zweites Thema des Jahresberichtes herausstreiche. Die GPDel liess sich von betroffenen Quellenführern über Quellen, die verhaftet wurden, informieren und diskutierte mit ihnen, wie der NDB mit solchen Fällen umzugehen pflegt.
+Neben der exemplarischen Demonstration des sicheren und zeitgerechten Kommunikationsverkehrs waren beim Dienststellenbesuch auch China und Russland intensiv [PAGE 527] bearbeitete Themen. Die Delegation diskutierte mit dem NDB, mit welchen Instrumenten, Methoden und Ressourcen er die Entwicklungen rund um den politisch-militärischen Aufstieg Chinas und den russischen Angriffskrieg gegen die Ukraine verfolgt. Dabei wurde auch thematisiert, wie die aktuell laufende Transformation der Strukturen des NDB dazu beiträgt, die nachrichtendienstliche Bearbeitung solcher Herausforderungen zu meistern. Bezüglich der Transformation werden wir im nächsten Jahr sicherlich mehr wissen und Ihnen noch einiges mehr berichten können.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Conseil fédéral propose l'adoption du postulat.
+Je vais donner deux indications. Premièrement, l'ordonnance sur la prévoyance professionnelle vieillesse, survivants et invalidité, dans sa teneur actuelle, fixe des exigences élevées concernant l'indication des frais de gestion de la fortune. Deuxièmement, dans son évaluation des coûts administratifs dans le deuxième pilier réalisée l'année passée, le Contrôle fédéral des finances parvient également à la conclusion suivante: "Les différentes me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Conseil fédéral propose l'adoption du postulat.
+Je vais donner deux indications. Premièrement, l'ordonnance sur la prévoyance professionnelle vieillesse, survivants et invalidité, dans sa teneur actuelle, fixe des exigences élevées concernant l'indication des frais de gestion de la fortune. Deuxièmement, dans son évaluation des coûts administratifs dans le deuxième pilier réalisée l'année passée, le Contrôle fédéral des finances parvient également à la conclusion suivante: "Les différentes mesures prises par les autorités au cours des vingt dernières années permettent d'atteindre aujourd'hui un bon niveau de transparence des coûts de la prévoyance professionnelle dans les comptes des caisses." Toutefois - et c'est pour cela que le Conseil fédéral vous invite à adopter le postulat -, certains coûts résiduels ne figurent pas dans la présentation des comptes, en particulier parce qu'ils ne sont pas inclus dans les indicateurs des frais de fournisseurs de produits financiers. On peut penser, par exemple, aux frais des transactions immobilières des placements collectifs. 
+Le Conseil fédéral est donc disposé à solliciter une étude approfondie pour clarifier la question, certes complexe, du montant de ces coûts non transparents. Cette étude sera l'occasion d'examiner plus en détail la composition des frais de gestion de la fortune, c'est-à-dire des commissions de gestion, des frais de transaction et la rémunération liée à la performance.
+Mais - je tiens à le dire - il s'agit d'un postulat: il ne s'agit donc pas de dire aujourd'hui qu'il faut procéder à la suppression générale des frais de gestion demandée par l'auteur du postulat. Il s'agit de mener l'étude pour voir comment on peut avoir plus de transparence, parce qu'on pourrait imaginer que la suppression générale pourrait mener à des distorsions de concurrence.
+Mais indépendamment de cela, le Conseil fédéral estime qu'il est cohérent de mener une étude, et vous propose d'accepter le postulat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rossi Viktor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit der Motion soll der Bundesrat beauftragt werden, sogenannte - wie sie in der Motion genannt werden - Privilegien des Bundesrates darauf hin zu überprüfen, ob sie noch zeitgemäss sind. Sie sollen zudem mit entsprechenden Leistungen in der Privatwirtschaft verglichen werden. Gemeint sind damit vermutlich Lohnnebenleistungen von Führungspersonen mit vergleichbaren Aufgaben- und Verantwortungsbereichen in Unternehmen. Je nach Ergebnis dieses Vergleichs sollen die Leistungen zugunsten der Mitglie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit der Motion soll der Bundesrat beauftragt werden, sogenannte - wie sie in der Motion genannt werden - Privilegien des Bundesrates darauf hin zu überprüfen, ob sie noch zeitgemäss sind. Sie sollen zudem mit entsprechenden Leistungen in der Privatwirtschaft verglichen werden. Gemeint sind damit vermutlich Lohnnebenleistungen von Führungspersonen mit vergleichbaren Aufgaben- und Verantwortungsbereichen in Unternehmen. Je nach Ergebnis dieses Vergleichs sollen die Leistungen zugunsten der Mitglieder des Bundesrates entsprechend reduziert oder durch - wie es in der Motion heisst - effizientere Alternativen ersetzt werden.
+In Bezug auf die vom Motionär in diesem Zusammenhang genannte Ruhestandsregelung hat der Bundesrat in seinem Bericht "Zeitgemässe Besoldungs- und Ruhestandsregelungen für Magistratspersonen" vom Dezember 2021 in Erfüllung des gleichnamigen Postulates Hegglin Peter 20.4099 bereits mögliche Varianten für Anpassungen aufgezeigt. Sowohl die Finanzdelegation als auch die Staatspolitische Kommission des Ständerates haben gestützt auf diesen Bericht keinen Handlungsbedarf erkannt. Weiter hat auch die Eidgenössische Finanzkontrolle (EFK) in ihrem Bericht vom Mai 2021 zur Prüfung des Vollzugs beim Ruhegehalt für Magistratspersonen festgehalten, dass das heutige System der Ruhegehälter dazu beiträgt, dass Entscheidungen im Amt unabhängig von persönlichen finanziellen Überlegungen getroffen werden können. Das heutige System stellt gemäss der [PAGE 643] EFK eine Stütze der Unabhängigkeit bei Entscheidungen dar. Gerade diesbezüglich ist die Regelung für Magistratspersonen nur schwer mit solchen in der Privatwirtschaft zu vergleichen.
+Zu den Leistungen: Der Bundesrat hat am 27.[NB]März 2024 eine Aussprache über Leistungen zugunsten der Mitglieder des Bundesrates und des Bundeskanzlers geführt. Er hat, gestützt darauf, beschlossen, auf die Dauerfahrkarten des Verbands Seilbahnen Schweiz sowie auf die Loge im Stadttheater Bern zu verzichten. 
+Betreffend die weiteren vom Motionär erwähnten Leistungen ist der Bundesrat der Ansicht, dass es sich angesichts der mit dem in verschiedenster Hinsicht anspruchsvollen Amt einhergehenden Verantwortung und der Verfügbarkeits- sowie Erreichbarkeitsanforderungen - und ich denke, wenn wir hier von 7 mal 24 Stunden sprechen, ist das nicht eine Übertreibung - um angemessene Leistungen handelt.
+Weiter nehmen die Mitglieder des Bundesrates zur Erfüllung ihrer Amtspflichten eine sehr grosse Zahl von Terminen im In- und Ausland wahr, dabei müssen sie jederzeit erreichbar sein und benötigen entsprechende Transport- und weitere Hilfsmittel.
+Aus Sicht des Bundesrates sind diese Leistungen angebracht, und daher ist eine Reduktion dieser Leistungen nicht angezeigt. Eine weitere Überprüfung ist aus Sicht des Bundesrates heute nicht angezeigt. 
+Der Bundesrat beantragt Ihnen aus den dargelegten Gründen deshalb die Ablehnung der Motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich erlaube mir, einleitend einfach darauf hinzuweisen, dass die Stellungnahme des Bundesrates und nicht diejenige der Bundeskanzlei schriftlich abgegeben wurde - nicht, dass die Bundeskanzlei nichts[NB]damit[NB]zu[NB]tun[NB]hat, aber formell möchte ich das einfach richtigstellen. 
+Die Motion will unnötige administrative Aufwände in der Verwaltung abbauen und Regulierungen vereinfachen. Der Bundesrat unterstützt diese Stossrichtung. Er stellt aber auch fest, dass das Anliegen der Motion sich kau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich erlaube mir, einleitend einfach darauf hinzuweisen, dass die Stellungnahme des Bundesrates und nicht diejenige der Bundeskanzlei schriftlich abgegeben wurde - nicht, dass die Bundeskanzlei nichts[NB]damit[NB]zu[NB]tun[NB]hat, aber formell möchte ich das einfach richtigstellen. 
+Die Motion will unnötige administrative Aufwände in der Verwaltung abbauen und Regulierungen vereinfachen. Der Bundesrat unterstützt diese Stossrichtung. Er stellt aber auch fest, dass das Anliegen der Motion sich kaum durch den Bund verwirklichen lässt. Die in ihr genannten Sachgebiete - ich zähle sie jetzt nicht einzeln nochmals auf - beschlagen zu einem erheblichen Teil kantonale Kompetenzen, weshalb die Handlungsmöglichkeiten des Bundes in diesen Bereichen begrenzt sind. Was die Regulierung im Zuständigkeitsbereich des Bundes angeht, so ist der Bundesrat der Ansicht, dass ein Programm, wie es von der Motion verlangt wird, nicht geeignet ist, das angestrebte Ziel zu erreichen. 
+Das Teilprojekt "Entrümpelung des Bundesrechts" der Verwaltungsreform 2005-2007, das es mal gegeben hat und welches in das Bundesgesetz zur formellen Bereinigung des Bundesrechts vom 20.[NB]März 2008 mündete, hat gezeigt, dass einmalige Entrümpelungsaktionen einen unverhältnismässig grossen Aufwand generieren, dem ein eher bescheidener Nutzen gegenübersteht. Die für Rechtsetzungsprozesse geltenden Vorgaben und Prozesse, darunter namentlich die Pflicht zur Durchführung von Regulierungsfolgenabschätzungen, sollen jedoch gewährleisten, dass nur Regulierungen erlassen oder dem Parlament vorgelegt werden, welche dem gesetzlichen Auftrag zur Überprüfung der Bundesaufgaben entsprechen. Dem Bundesrat obliegt es nämlich bereits heute, er hat bereits heute die Pflicht, die Aufgaben des Bundes und ihre Erfüllung sowie die Organisation der Bundesverwaltung regelmässig auf ihre Notwendigkeit und ihre Übereinstimmung mit den Zielen, die sich aus Verfassung und Gesetz ergeben, zu überprüfen. Das ist, wie auch erwähnt wurde, eine ständige Führungsaufgabe.
+Diese Pflicht wird mit verschiedenen Massnahmen umgesetzt, es sind dies etwa die bereits erwähnte Regulierungsfolgenabschätzung, die regelmässige Durchführung von Subventionsüberprüfungen oder die Überprüfung und Neuregelung im Bereich der Aufgabenteilung zwischen Bund und Kantonen. Und diese Vorgaben gelten natürlich auch für Vorhaben, welche die Verwaltung und die Vollzugsorgane selber betreffen.
+Diese Vorgaben wurden jüngst mit dem Erlass des neuen Unternehmensentlastungsgesetzes vom 29.[NB]September 2023, welches ab dem 1.[NB]April 2024 gestaffelt in Kraft getreten ist, noch gestärkt. Die praktische Umsetzung des neuen Gesetzes soll unter anderem eben auch dem Ziel der Motion dienen.
+Ich erwähne zum Schluss noch, dass auch die Tätigkeiten der Eidgenössischen Finanzkontrolle sowie der parlamentarischen Oberaufsichtsorgane laufend einen Beitrag dazu leisten, die Aufgabenerfüllung auch in der Verwaltung effizienter zu gestalten.
+Der Bundesrat beantragt aus den dargelegten Gründen die Ablehnung der Motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candan Hasan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezüglich meiner Minderheitsanträge in Block 4 möchte ich vorausschicken, dass die Klima- und die Biodiversitätskrise zwei der dringendsten Krisen unserer Zeit sind. Laufend erscheinen neue Berichte mit Fakten, welche zeigen, dass sich diese Krisen verschärfen. Ebenso zeigt das kürzlich veröffentlichte Ergebnis einer Bevölkerungsbefragung des Bundesamtes für Statistik, dass die Bevölkerung Biodiversitätsverlust, Klimawandel und Wasserknappheit als die drei grössten Umweltgefahren ansieht und als</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezüglich meiner Minderheitsanträge in Block 4 möchte ich vorausschicken, dass die Klima- und die Biodiversitätskrise zwei der dringendsten Krisen unserer Zeit sind. Laufend erscheinen neue Berichte mit Fakten, welche zeigen, dass sich diese Krisen verschärfen. Ebenso zeigt das kürzlich veröffentlichte Ergebnis einer Bevölkerungsbefragung des Bundesamtes für Statistik, dass die Bevölkerung Biodiversitätsverlust, Klimawandel und Wasserknappheit als die drei grössten Umweltgefahren ansieht und als sehr gefährlich für Mensch und Umwelt einschätzt. Wir stehen deshalb in der Verantwortung, alles zu tun, um die Klima- und die Biodiversitätskrise abzuwenden und die Lebensgrundlagen von uns und den zukünftigen Generationen zu[NB]sichern.[NB]Dies[NB]bedingt,[NB]dass[NB]wir in dieser Legislatur unsere Anstrengungen hochfahren, um dieser Verantwortung gerecht zu werden. 
+Das Legislaturprogramm braucht insbesondere in den Bereichen Klima, Umwelt und Biodiversität wesentliche Verbesserungen: 
+1.[NB]Die Biodiversitäts- und die Klimakrise hören nicht an unserer Landesgrenze auf. Die Schweiz muss ihre Verantwortung wahrnehmen, ihren globalen Biodiversitäts- und Klimafussabdruck reduzieren und sich angemessen am globalen Klima- und Biodiversitätsschutz beteiligen. Mit der Unterzeichnung der internationalen Klima- und Biodiversitätsabkommen hat sich die Schweiz dazu verpflichtet. Um dieser[NB]Verpflichtung[NB]nachzukommen, soll der Bundesrat in dieser Legislatur eine gesetzliche Grundlage für die internationale Klima- und Biodiversitätsförderung schaffen. Es steht auch in der aussenpolitischen Strategie des Bundesrates, dass die Schweiz die Synergien zwischen den einzelnen Umweltabkommen stärkt und die Umsetzung sowie deren Finanzierungsmechanismen kohärent ausgestaltet.
+2.[NB]Auch mit Blick auf die Schweiz gilt es, die Biodiversität und unsere natürlichen Lebensgrundlagen zu sichern, denn diese sorgen für gesunde Böden und Nahrungsmittel, frische Luft, sauberes Trinkwasser und den Schutz vor Naturgefahren. Die Leistungen aber, welche die Natur für uns erbringt, sind aufgrund des Klimawandels und des Biodiversitätsverlusts keineswegs gesichert. Zudem ist in einer Zeit von zunehmenden geopolitischen und wirtschaftlichen Unsicherheiten und einer instabilen Sicherheitslage in Europa der ökologischen Funktion, verstanden als Gesamtheit der Leistungen, welche die Natur für uns erbringt, umso mehr der Status einer systemrelevanten und kritischen Infrastruktur beizumessen. Deshalb braucht es eine Strategie, welche die Ökosystemleistungen und deren Abhängigkeiten gesamtheitlich betrachtet.
+3.[NB]Ein starker Hebel liegt bei den Subventionen. Es ist bekannt, dass bis zu 160 Subventionen in der Summe von über 40 Milliarden Schweizerfranken der Biodiversität direkt oder indirekt schaden. Viele dieser Subventionen und Fehlanreize sind ebenfalls klima- und umweltschädlich. Zusätzlich identifizierte eine Studie der Schweizerischen Energiestiftung, dass 112 Subventionen mit energetischen Fehlanreizen bestehen, welche den Klima- und Umweltzielen entgegenlaufen.
+Neben dem Abbau der bestehenden Subventionen müssen wir sicherstellen, dass keine neuen schädlichen Subventionen beschlossen werden. Dies widerspricht dem Prinzip des Subventionsgesetzes, wonach Finanzhilfen und Abgeltungen nur gewährt werden, wenn sie ihren Zweck auf wirtschaftliche und wirkungsvolle Art erreichen. Dieses Prinzip ist verletzt, da diese Subventionen einen hohen Schaden verursachen, welcher hohe Reparationskosten nach sich zieht. Auch die Eidgenössische Finanzkontrolle kommt zum Schluss, dass ein Missstand bei der Subventionsvergabe [PAGE 707] besteht. Die bestehenden Instrumente sind unzureichend. Es braucht[NB]eine[NB]Strategie,[NB]welche dafür sorgt, dass keine neuen umwelt-, klima- oder biodiversitätsschädigenden Subventionen beschlossen werden.
+4.[NB]Zu guter Letzt haben wir mit der Alpen-Initiative ein wichtiges Instrument zum Schutz der Alpen und zum Schutz von Klima und Umwelt. Im vergangenen Jahr sind weniger Güter per Lastwagen und per Bahn durch die Alpen transportiert worden als im Vorjahr. Doch obwohl die Zahl der Lastwagenfahrten abgenommen hat, wurde das Verlagerungsziel von 650[NB]000 Fahrten pro Jahr wie in den Jahren zuvor wiederum deutlich verfehlt. Um die wichtigen Ziele der Alpen-Initiative zu erreichen, braucht es zusätzliche Anstrengungen. Der Bundesrat soll deshalb einen Aktionsplan verabschieden, um die Ziele der Alpen-Initiative, welche 1994 vom Volk angenommen wurde, endlich zu erreichen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wettstein Felix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Staatsrechnung 2023 schliesst mit Aufwendungen von rund 81 Milliarden Franken und mit Erträgen von 79,6 Milliarden Franken ab. Der Bund hatte also letztes Jahr ein negatives Finanzierungsergebnis im Umfang von 1,4 Milliarden Franken. In diesen Zahlen sind die ausserordentlichen Einnahmen und Ausgaben mit eingeschlossen. Stellt man allein die ordentlichen Einnahmen und Ausgaben einander gegenüber, beträgt das Defizit noch 672 Millionen Franken.
+Prognostiziert war im Voranschlag 2023 ein deutl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Staatsrechnung 2023 schliesst mit Aufwendungen von rund 81 Milliarden Franken und mit Erträgen von 79,6 Milliarden Franken ab. Der Bund hatte also letztes Jahr ein negatives Finanzierungsergebnis im Umfang von 1,4 Milliarden Franken. In diesen Zahlen sind die ausserordentlichen Einnahmen und Ausgaben mit eingeschlossen. Stellt man allein die ordentlichen Einnahmen und Ausgaben einander gegenüber, beträgt das Defizit noch 672 Millionen Franken.
+Prognostiziert war im Voranschlag 2023 ein deutlich schlechteres Resultat: Wir hatten uns auf ein negatives Ergebnis von mehr als 4,8 Milliarden Franken einstellen müssen. Dass das Resultat glimpflicher ausgefallen ist, hat weitgehend mit einer einzelnen Investitionsausgabe zu tun, die eben nicht getätigt werden musste: Im Budget hatten wir noch den Kreditrahmen für die Axpo Holding AG im Umfang von 4 Milliarden, der dann zum Glück nicht beansprucht wurde.
+Schaut man alleine die ordentliche Rechnung an, sieht man: Sowohl Ausgaben als auch Einnahmen waren leicht tiefer als budgetiert, und das Nettoergebnis entspricht bis auf 12 Millionen Franken genau den Erwartungen. Insofern kann man von einer Punktlandung sprechen.
+Unsere vier Subkommissionen der Finanzkommission schauten sich in der zweiten Aprilhälfte die Abschlüsse der Departemente und ihrer Ämter vertieft an. Übergreifende Themen, die verschiedentlich zu reden gaben, waren zum Beispiel die grossen Informatikvorhaben, die Stellenentwicklung und natürlich die unmittelbaren Auswirkungen der Krisen, welche wir letztes Jahr zu bewältigen hatten - zu nennen sind die Stichworte CS-Crash, Energieversorgung und die Folgen des Krieges - und die je nach Amt einen heftigeren oder sanfteren Einfluss hatten.
+Wir konnten uns in der Summe davon überzeugen, dass die Departemente mit dem Geld sehr haushälterisch umgehen. Gegenüber dem Vorjahr wuchsen die Ausgaben zwar um 2,8 Prozent, was aber hauptsächlich stark gebundene Mittel betrifft, namentlich die Transfergelder an die Sozialversicherungen und an die Kantone. Die Eigenausgaben des Bundes gingen sogar um eine halbe Milliarde Franken zurück. Das dürfte in einem Jahr mit im langjährigen Vergleich doch mässiger Inflation bemerkenswert sein. Dass auf der anderen Seite die ordentlichen Einnahmen nicht ganz das erreichten, was wir budgetiert hatten, ist mit der fehlenden SNB-Ausschüttung zu erklären. Verglichen mit dem Vorjahresabschluss gingen nämlich ganze 7,1 Prozent mehr an ordentlichen Einnahmen ein. Es stiegen vor allem die Einnahmen aus der direkten Bundessteuer und aus der Verrechnungssteuer.
+Die Eidgenössische Finanzkontrolle konnte uns in der Sitzung der Finanzkommission bestätigen, dass die Jahresrechnung den gesetzlichen Vorgaben entspricht. Sie entspricht ebenfalls den Vorgaben zur Schuldenbremse, wie sie in Artikel 126 der Bundesverfassung verankert sind.
+Wie erwähnt ist das Finanzierungsdefizit von 1,4 Milliarden Franken also mehrheitlich mit den ausserordentlichen Bewegungen erklärbar. Zwar hatte der Bund auf der einen Seite auch ausserordentliche Einnahmen im Umfang von 310 Millionen Franken. Aber auf der anderen Seite stehen die zusätzlichen 1,1 Milliarden Franken für die Schutzsuchenden aus der Ukraine; das sind Transfergelder an die Kantone. Auch hier hatten wir uns im Budget auf noch höhere Aufwände eingestellt; es ist glimpflicher abgelaufen. Dennoch ist es natürlich unvermeidlich: Der Ausgabenüberhang hat Einfluss auf das Amortisationskonto. Dessen Negativsaldo beträgt inzwischen 27 Milliarden Franken. Das ist immer noch zum grossen Teil die Folge der Corona-Zahlungen. Diese Schulden müssen wir mit Kreditresten und allfälligen Nationalbank-Ausschüttungen bis 2035, spätestens 2039, abtragen. Wie erwähnt und bekannt hat die SNB letztes Jahr nichts ausgeschüttet.
+Der Jahresabschluss beeinflusst auch das Ausgleichskonto. Es muss um 1,4 Milliarden Franken gekürzt werden, umfasst aber immer noch 20 Milliarden.
+Unser Rat befindet anschliessend über den Bundesbeschluss I über die Eidgenössische Staatsrechnung für das Jahr 2023. Darin enthalten sind Kreditüberschreitungen im Umfang von total 2251 Millionen Franken sowie die Bildung von Reserven im Umfang von 174 Millionen Franken. Die entsprechenden Zusammenstellungen und Tabellen haben in der Kommission zu keinen Diskussionen Anlass gegeben.
+Weiter haben wir über die Rechnungen 2023 der beiden Fonds BIF und NAF zu befinden, das sind die Bundesbeschlüsse II und III. Die Finanzkommission empfiehlt Ihnen einstimmig die Annahme dieser beiden Fonds-Jahresabschlüsse. 
+Beim Bundesbeschluss I zur Eidgenössischen Staatsrechnung für das Jahr 2023 ist es dann vorbei mit der Einstimmigkeit. Eine deutliche Kommissionsmehrheit - das kann ich bereits jetzt sagen - empfiehlt Ihnen aber auch hier die Zustimmung. Eine Minderheit will die Staatsrechnung 2023 ablehnen. Sie begründet das damit, dass ihre Vertreterinnen und Vertreter anlässlich der Budgetberatung im Dezember 2022 diverse Anträge auf Verringerung von Ausgaben gestellt hatten. Weil diese Kürzungsanträge keine Mehrheit erreichten und weil die Warnungen eingetroffen seien, wonach der Jahresabschluss negativ sein könne, lehnt nun diese Minderheit den Bundesbeschluss I ab.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur ganz kurz eine Korrektur bzw. eine Präzisierung: Der erste Fraktionssprecher hat von "sinkenden Einnahmen" gesprochen. Hierzu ist zu sagen, dass die ordentlichen Einnahmen im Jahr 2023 gegenüber dem Vorjahr um 7,1 Prozent gestiegen sind. In absoluten Zahlen sind das 5,2 Milliarden Franken gewesen. Das Finanzierungsdefizit von 1,4 Milliarden Franken, von dem wir verschiedentlich gesprochen haben, ist zwar ein Faktum, lässt sich aber nicht mit sinkenden Einnahmen erklären.
+Zum Abschluss dieser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur ganz kurz eine Korrektur bzw. eine Präzisierung: Der erste Fraktionssprecher hat von "sinkenden Einnahmen" gesprochen. Hierzu ist zu sagen, dass die ordentlichen Einnahmen im Jahr 2023 gegenüber dem Vorjahr um 7,1 Prozent gestiegen sind. In absoluten Zahlen sind das 5,2 Milliarden Franken gewesen. Das Finanzierungsdefizit von 1,4 Milliarden Franken, von dem wir verschiedentlich gesprochen haben, ist zwar ein Faktum, lässt sich aber nicht mit sinkenden Einnahmen erklären.
+Zum Abschluss dieser Debatte möchte ich im Namen der Kommission und auch im Namen meiner Mitkommissionssprecherin für die umfassenden, präzisen Unterlagen und Auskünfte danken, die wir erhalten haben. Der Dank geht an das Departement von Bundesrätin Karin Keller-Sutter, namentlich an die Eidgenössische Finanzverwaltung. Weiter geht der Dank an die Eidgenössische Finanzkontrolle. Ein besonderer Dank geht auch an die Parlamentsdienste, die uns in der Finanzkommission jeweils tatkräftig unterstützen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">338832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also ob dieser Auftrag, Frau Nationalrätin Badran, erteilt wird, entscheide ja nicht ich, sondern das Parlament. 
+Ich habe darauf hingewiesen, dass wir jetzt diese Expertengruppe haben. Sie wird auch Steuervergünstigungen anschauen. Ich habe auch darauf hingewiesen, dass es 2011 - Frau Nationalrätin Wyss hat das auch gesagt - bereits einen Bericht gab und dass wir im Moment keinen Mehrwert im Vergleich zu diesem Bericht sehen, weil die Datenbasis einfach nicht verbessert wurde. Es gibt übrigens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also ob dieser Auftrag, Frau Nationalrätin Badran, erteilt wird, entscheide ja nicht ich, sondern das Parlament. 
+Ich habe darauf hingewiesen, dass wir jetzt diese Expertengruppe haben. Sie wird auch Steuervergünstigungen anschauen. Ich habe auch darauf hingewiesen, dass es 2011 - Frau Nationalrätin Wyss hat das auch gesagt - bereits einen Bericht gab und dass wir im Moment keinen Mehrwert im Vergleich zu diesem Bericht sehen, weil die Datenbasis einfach nicht verbessert wurde. Es gibt übrigens noch eine Aktualisierung der Liste der Steuervergünstigungen von 2017 durch die Eidgenössische Finanzkontrolle. Sie hat auch ein Projekt zur Prüfung der Angemessenheit von Steuervergünstigungen und Ausnahmeregelungen bei Bundeseinnahmen aufgenommen, aber dann beschlossen, die Arbeiten nach Abschluss der Detailvorbereitungen einzustellen. Wir kommen immer wieder zum gleichen Thema und zur Frage der Verlässlichkeit der Datengrundlagen, die wir hier zur Verfügung haben.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">339510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolet Jacques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les soins médicaux de base sont généralement moins coûteux et présentent l'avantage que le patient est souvent bien connu par son médecin de famille, ce qui permet d'éviter des traitements multiples et inutiles. Or, la Suisse manque régulièrement de médecins de premier recours, alors que les urgences des hôpitaux sont surchargées. La revalorisation de la médecine de premier recours dans le domaine tarifaire est essentielle, car elle constitue une condition importante pour que davantage de futurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les soins médicaux de base sont généralement moins coûteux et présentent l'avantage que le patient est souvent bien connu par son médecin de famille, ce qui permet d'éviter des traitements multiples et inutiles. Or, la Suisse manque régulièrement de médecins de premier recours, alors que les urgences des hôpitaux sont surchargées. La revalorisation de la médecine de premier recours dans le domaine tarifaire est essentielle, car elle constitue une condition importante pour que davantage de futurs médecins choisissent cette discipline plutôt que des spécialités. Un nombre plus important de futurs médecins de premier recours est une condition importante pour garantir une meilleure prise en charge médicale décentralisée. Les régions rurales, parfois isolées, doivent également avoir de meilleures chances de disposer d'une couverture en soins de base proche des patients, ce d'autant plus que le vieillissement de la population génère souvent une problématique liée à la mobilité. Il faut donc un meilleur équilibre financier entre les spécialités médicales.
+Divers rapports, notamment du Contrôle fédéral des finances, font état d'une revalorisation souhaitée des soins de base et mettent le doigt sur une surtarification des interventions de médecins spécialistes, mais les associations de médecins sont quelque peu en difficulté pour mettre en oeuvre elles-mêmes un rééquilibrage, pourtant nécessaire, sans créer de distinctions internes dans leur rang. Des prescriptions légales contraignantes dans ce domaine doivent [PAGE 943] être formulées à l'attention des partenaires tarifaires et appliquées par le Conseil fédéral, si nécessaire de manière subsidiaire.
+Les mesures prises jusqu'à présent par le Conseil fédéral sont bienvenues, mais ne suffisent pas à rétablir un équilibre satisfaisant. Globalement, il faut s'assurer que la revalorisation financière des médecins de premier recours soit neutre en termes de coûts pour les payeurs de primes. Le caractère neutre en termes de coûts de cette mesure doit vraiment être garanti par la Confédération, selon le principe de la neutralité de la dynamique des coûts.
+Par cette motion, intitulée "LAMal. Renforcer la couverture de base avec une meilleure offre de médecins de famille", je cherche à apporter un bout de solution à la problématique des coûts de la santé, des assurances-maladie qui sont toujours plus onéreuses dans ce pays.
+L'objectif serait de décharger quelque peu les urgences de certaines tâches et de reporter l'exécution de celles-ci sur les médecins de famille ainsi que sur les cabinets de groupe. Vous savez qu'il y a des cabinets relativement bien organisés. Pourquoi dis-je "relativement bien organisés"? Parce que je me permets une petite pique, quand même, à l'endroit de certains cabinets médicaux, à savoir ceux organisés autour de trois ou quatre médecins, qui, pendant les vacances d'été, sont tous en vacances. Ce n'est pas idéal lorsque l'on veut assurer des prestations à l'endroit de la population et que, en période de vacances, les quatre médecins du[NB]cabinet[NB]sont[NB]loin.[NB]Tout[NB]se[NB]reporte sur les hôpitaux et les urgences.
+Je vous encourage à soutenir cette motion, qui pourrait apporter un bout de solution, plus particulièrement dans les régions reculées, où on peine à trouver des médecins de famille et des pédiatres, mais où on regorge par contre de médecins spécialisés.
+Je vous invite à soutenir cette motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">339538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffat Michaël</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souvenez-vous du début des téléphones mobiles et de ces immenses appareils, peu maniables, réservés à un petit nombre de privilégiés, car beaucoup trop chers pour la classe moyenne. Cependant, nous connaissons aujourd'hui le mécanisme de l'économie dans ce domaine. Les prototypes coûteux se transforment en appareils toujours moins chers, toujours plus performants, et leur prix deviennent rapidement assez abordables pour que chacun puisse se payer un smartphone.
+Le marché de la santé se comporte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Souvenez-vous du début des téléphones mobiles et de ces immenses appareils, peu maniables, réservés à un petit nombre de privilégiés, car beaucoup trop chers pour la classe moyenne. Cependant, nous connaissons aujourd'hui le mécanisme de l'économie dans ce domaine. Les prototypes coûteux se transforment en appareils toujours moins chers, toujours plus performants, et leur prix deviennent rapidement assez abordables pour que chacun puisse se payer un smartphone.
+Le marché de la santé se comporte en revanche tout autrement que le marché normal, et on ne peut pas vraiment dire qu'il fonctionne. Certes, les innovations sont rapides et accessibles à toute la population, ce qui est juste et solidaire. Mais les tarifs et les prix, eux, restent durant des années, voire des décennies, au même niveau que lors de leur lancement, parce que les prestataires ne sont pas prêts à baisser de leur propre initiative les tarifs qui ont été jadis négociés, quand bien même les progrès technologiques ont permis de réduire considérablement le temps d'une intervention par rapport à il y a dix ou quinze ans.
+Nous payons aujourd'hui nettement trop, notamment pour les interventions médicales techniques. Nous n'avons pas ce problème dans la médecine non technique, qui comprend des interventions moins complexes et de nombreux entretiens. Le médecin de famille ne peut effectivement pas parler à son patient cinq fois plus vite aujourd'hui que par le passé, et il ne le pourra jamais. Il serait faux de croire que le Tardoc, le nouveau tarif médical prévu, résoudra tous les problèmes, comme l'affirment certains de ses protagonistes. D'une part, bon nombre de positions qui concernent le problème évoqué deviendront obsolètes au cours des prochaines années. D'autre part, le rapport d'examen de l'Office fédéral de la santé publique (OFSP) dit en substance ceci: le Contrôle fédéral des finances a critiqué en 2010 déjà certaines positions du Tarmed comme étant trop élevées et nécessitant une révision. Aujourd'hui, force est de constater que les positions en question ont été tarifées au même niveau dans le Tardoc. Une partie des minutages estimés trop élevés par le Contrôle fédéral des finances ont encore été relevés dans le Tardoc, écrivait à ce sujet le Conseil fédéral le 3 juin 2022. Celui-ci a en outre constaté que de nombreuses positions ne sont pas basées sur les coûts et ne sont pas vérifiables.
+Je donne trois exemples pour illustrer ce point. Premièrement, l'opération de la hernie inguinale génère depuis longtemps des gains d'efficacité. Ceux-ci sont censés être redistribués aux payeurs de primes ou aux contribuables. Cependant, force est de constater que, dans le Tardoc, c'est le contraire qui se passe. Les prestations individuelles sont encore plus fractionnées et le point tarifaire correspondant est relevé de près de 20 pour cent. Deuxièmement, il en est de même pour les prestations d'anesthésie, qu'on a fractionnées encore davantage et renchéries dans le Tardoc plutôt que de répercuter les gains d'efficacité sur les agents payeurs.
+Enfin, dans le domaine de la dermatologie, les interventions ont été précisées par le Conseil fédéral dès 2018 dans un [PAGE 947] souci de transparence, afin que le volume fixe du point tarifaire trop élevé - 45,7 points de taxe - ne puisse plus être simplement facturé tel quel. Le Tardoc fait tout le contraire: il augmente le volume d'un peu plus de 20 pour cent, à 55,7 points, par rapport à la situation qui prévalait avant l'intervention du Conseil fédéral. Or, nous payons toujours plus d'argent pour l'assurance-maladie, que ce soit par le biais des primes ou des impôts cantonaux et fédéraux, et ce, dans une période de pénurie où d'autres secteurs doivent faire également face à des coupes budgétaires ou à une croissance zéro.
+Dans le domaine de la santé, nous devrions au minimum remédier aux principaux défauts bien identifiés du système, pour que nous puissions payer avec conviction ce qui est nécessaire et que nous ne soyons plus contraints de payer ce qu'il faut qualifier de pure arnaque, c'est-à-dire des prix exorbitants prévus dans les tarifs médicaux.
+Parmi les dysfonctionnements majeurs figure l'incidence financière des progrès médico-techniques en faveur des payeurs de primes, en ce sens que cette incidence est à sens unique depuis des années. Les nouveaux produits sont beaucoup plus chers, voire horriblement chers, ils sont utilisés toujours plus fréquemment et cependant leur prix ne baisse pas au fil des années malgré leur large diffusion, contrairement à ce qui se passe généralement en pareil cas dans l'économie. C'est pourquoi je vous invite à accepter ma motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">339340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stark Jakob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Staatsrechnung 2023 schliesst bei Gesamteinnahmen von 79,6 Milliarden Franken und Gesamtausgaben von 81 Milliarden Franken mit einem Finanzierungsdefizit von 1,4 Milliarden Franken ab. Das ist viel, aber das ist doch 3,4 Milliarden Franken besser als budgetiert, was insbesondere darauf zurückzuführen ist, dass die Axpo Holding AG den Schutzschirm-Kreditrahmen von 4 Milliarden Franken nicht beanspruchen musste. Das Finanzierungsdefizit lässt die Nettoschulden, ergänzt durch Eigenkapitaltransa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Staatsrechnung 2023 schliesst bei Gesamteinnahmen von 79,6 Milliarden Franken und Gesamtausgaben von 81 Milliarden Franken mit einem Finanzierungsdefizit von 1,4 Milliarden Franken ab. Das ist viel, aber das ist doch 3,4 Milliarden Franken besser als budgetiert, was insbesondere darauf zurückzuführen ist, dass die Axpo Holding AG den Schutzschirm-Kreditrahmen von 4 Milliarden Franken nicht beanspruchen musste. Das Finanzierungsdefizit lässt die Nettoschulden, ergänzt durch Eigenkapitaltransaktionen, auf 141,7 Milliarden Franken ansteigen. Das ergibt eine Nettoschuldenquote - also die Nettoschulden in Prozent des Bruttoinlandproduktes - von 17,8 Prozent. Im Jahr 2019, also vor fünf Jahren und vor Covid-19, lag die Nettoschuldenquote noch deutlich tiefer, nämlich bei 14,3 Prozent. 
+Das Ergebnis der ordentlichen Rechnung zeigt ein Defizit von 672 Millionen Franken, was im Vergleich zum Budget praktisch einer Punktlandung entspricht. Bereinigt um den Konjunkturfaktor beträgt das Defizit noch 434 Millionen Franken, das ist der sogenannte strukturelle Finanzierungssaldo. Dieser wird dem Ausgleichskonto, also der Kontrollstatistik für den ordentlichen Haushalt, zugeschrieben, welches sich damit von 20,477 Milliarden auf 20,043 Milliarden Franken reduziert. 
+Der Fehlbetrag auf dem Amortisationskonto, das ist die Kontrollstatistik für den ausserordentlichen Haushalt, steigt um den Saldo der ausserordentlichen Ausgaben und Einnahmen auf minus 27,216 Milliarden Franken an. Darin inbegriffen ist ein zusätzliches Minus von 3,8 Milliarden Franken an Rückstellungen, die aufgrund der revidierten Bestimmungen des Finanzhaushaltgesetzes neu schon bei ihrer Bildung und nicht erst bei ihrer Auflösung im Amortisationskonto nachgeführt werden. Derselbe Mechanismus führte auch in[NB]der[NB]ordentlichen[NB]Rechnung zu einer Korrektur von minus 1,4 Milliarden Franken, die im Ausgleichskonto nachgetragen wurde.
+Der Stand des Amortisationskontos bei minus 27,216 Milliarden Franken zeigt an, wie wichtig ein sorgfältiger Umgang mit der Schuldenbremse ist. Das ist die Lehre, die wir aus der Rechnung 2023 für die Zukunft ziehen können. Denn weitere ausserordentliche Ausgaben führen zu einem weiteren Anstieg des Fehlbetrags auf dem Amortisationskonto, der dann über die Jahre hinweg abgetragen werden muss, was den Finanzhaushalt immer wieder aufs Neue mit Milliardenbeträgen belastet. 
+Noch ein Wort zu den Einnahmen, die trotz der ausbleibenden SNB-Gewinnausschüttung um 4 Milliarden Franken zunahmen, das entspricht einem Wachstum von 5,2 Prozent: Hauptgrund dafür sind die deutlich höheren Einnahmen aus der direkten Bundessteuer und der Verrechnungssteuer.
+Beim Personal ist festzustellen, dass der durchschnittliche Stellenbestand in der Bundesverwaltung ein weiteres Mal markant gewachsen ist; er hat im Jahr 2023 um 538 auf insgesamt 38[NB]596 Stellen zugenommen. Die Personalausgaben sind um 127 Millionen Franken gestiegen, dies bei einem Teuerungsausgleich von 2,5 Prozent, womit die Teuerung von 2022 fast vollständig ausgeglichen worden ist. 
+Die Eidgenössische Finanzkontrolle (EFK) hält in ihrem Prüfbericht fest, dass die Jahresrechnung des Bundes den gesetzlichen Vorgaben und den Vorgaben der Schuldenbremse gemäss Artikel 126 der Bundesverfassung entspricht. Darum wird der Bundesversammlung empfohlen, die Jahresrechnung zu genehmigen. Weiter empfiehlt die EFK, die Kreditüberschreitungen im Umfang von 2,251 Milliarden Franken sowie die Bildung neuer Reserven in der Höhe von 174 Millionen Franken zu genehmigen.
+Gestützt auf diese Empfehlungen sowie auf die departementsweise erfolgten detaillierten Prüfungen der Rechnung 2023 inklusive Wahrnehmung der IKT-Finanzoberaufsicht durch die Subkommissionen, auf die ich aber hier nicht näher eingehen möchte, beantragt Ihnen die Finanzkommission einstimmig, die Bundesbeschlüsse I zur Staatsrechnung 2023, II zum Bahninfrastrukturfonds 2023 und III zum Nationalstrassen- und Agglomerationsverkehrsfonds 2023 zu genehmigen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">339639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La formulation "réaliser des mesures de prévention propres" porte sur la mise en place stratégique et sur l'attribution de mandats à des tiers, à savoir à des organisations. Celles-ci mettent en oeuvre les mesures de prévention de manière opérationnelle, comme les interventions en milieu scolaire, les actions de sensibilisation dans les clubs sportifs ou les conseils pour soutenir un arrêt du tabagisme. Cette formulation correspond à la pratique actuelle et reprend le sens de la formulation tell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La formulation "réaliser des mesures de prévention propres" porte sur la mise en place stratégique et sur l'attribution de mandats à des tiers, à savoir à des organisations. Celles-ci mettent en oeuvre les mesures de prévention de manière opérationnelle, comme les interventions en milieu scolaire, les actions de sensibilisation dans les clubs sportifs ou les conseils pour soutenir un arrêt du tabagisme. Cette formulation correspond à la pratique actuelle et reprend le sens de la formulation telle qu'elle était en vigueur jusqu'à la révision totale de l'ordonnance sur le Fonds de prévention du tabagisme en 2020.
+Comme la mise en oeuvre stratégique et la mise en oeuvre opérationnelle sont clairement séparées, les conflits d'intérêts peuvent être évités. Le Fonds de prévention du tabagisme est un fonds dépourvu d'autonomie juridique. Il dispose d'une comptabilité propre et il est surveillé par le Secrétariat général du Département fédéral de l'intérieur (DFI). Ses activités sont également soumises à la surveillance du Contrôle fédéral des finances.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Subkommissionen Gerichte/Bundesanwaltschaft haben den Geschäftsbericht 2023 des Bundesgerichtes ein erstes Mal im Mai in Lausanne mit den Gerichtspräsidien, dem Generalsekretär und den Mitgliedern der Verwaltungskommission behandelt. Ein zweites Mal haben wir den Geschäftsbericht in der Plenarversammlung Ihrer Geschäftsprüfungskommission diskutiert.
+Wie Sie wissen, übt die Bundesversammlung die Oberaufsicht über das Bundesgericht aus. Das Bundesgericht übt seinerseits die Aufsicht über das B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Subkommissionen Gerichte/Bundesanwaltschaft haben den Geschäftsbericht 2023 des Bundesgerichtes ein erstes Mal im Mai in Lausanne mit den Gerichtspräsidien, dem Generalsekretär und den Mitgliedern der Verwaltungskommission behandelt. Ein zweites Mal haben wir den Geschäftsbericht in der Plenarversammlung Ihrer Geschäftsprüfungskommission diskutiert.
+Wie Sie wissen, übt die Bundesversammlung die Oberaufsicht über das Bundesgericht aus. Das Bundesgericht übt seinerseits die Aufsicht über das Bundesstrafgericht, das Bundesverwaltungsgericht und das Bundespatentgericht aus. Ich möchte Sie nicht mit Zahlen langweilen; Sie alle haben Zugang zum sehr interessanten Geschäftsbericht, der in den Augen unserer Kommission für Rechtsfragen auch wichtige Hinweise für den Gesetzgeber enthält.
+Im vergangenen Jahr wurden beim Bundesgericht rund 7560 neue Fälle eingereicht, was leicht mehr ist als im Vorjahr. Ähnlich viele Fälle konnten erledigt werden, die Erledigungsquote liegt bei 98 Prozent. Der Überhang liegt bei etwa 200 Fällen pro Jahr, was sich kumuliert. Die Zahl der Pendenzen liegt gerundet bei 3600. Die durchschnittliche Verfahrensdauer beträgt unverändert knapp 200 Tage. Das Gericht ist seit 2020 an einer Reorganisation. Dies führte dazu, dass ab dem[NB]1.[NB]Januar 2023 das Steuerrecht von der überlasteten Zweiten öffentlich-rechtlichen Abteilung an die unterbesetzte Dritte öffentlich-rechtliche Abteilung in Luzern verlegt wurde, um die Belastung der Abteilungen auszugleichen. Es wurden aber auch noch andere Reorganisationsmassnahmen getroffen. In der Frühjahrssession wählten wir zwei Bundesrichter - eine Massnahme, die hoffentlich auch zur Entlastung führt.
+Das Bundesgericht hat uns auch immer wieder darauf aufmerksam gemacht, dass wir darüber nachdenken müssen, welche Funktion das oberste Gericht eines Staates wirklich haben soll: Sollen 40-Franken-Beschwerden in Strafsachen mit Strafzetteln wirklich das Bundesgericht beschäftigen? Und natürlich ist der Gesetzgeber bezüglich der Pendenzen auch nicht unschuldig, denken wir an die Gesetzesänderungen, gerade bei der Strafprozessordnung.
+Justitia 4.0 ist ein Thema, das uns, aber auch die Finanzkommission, schon länger beschäftigt. Das Projekt wird gemeinsam vom Bundesgericht, von den Kantonen, den Gerichten, den Staatsanwaltschaften und der Anwaltskammer getragen. Im letzten Herbst wurde das Projekt Justitia 4.0 von der Eidgenössischen Finanzkontrolle (EFK) geprüft. Die Projektleitung hat uns bestätigt, dass sie die Empfehlungen der EFK aufnehmen kann. Die Finanzen und die Gesamtverantwortung dieses Projektes bleiben aber für unser Parlament ein Thema.
+Wir haben weiterhin Probleme mit einzelnen Richterpersonen, deren Sozialverhalten immer wieder Anlass zu Diskussionen und Konflikten gibt. Sichtbar wird immer wieder die fehlende Organ- und Disziplinaraufsicht. Es gibt nur eine eingeschränkte Organaufsicht des Bundesgerichtes über die[NB]erstinstanzlichen eidgenössischen Gerichte. Eine klare Trennung zwischen Disziplinar- und Organaufsicht ist oft nicht möglich, so kann zum Beispiel ein personelles Problem zu einem strukturellen Problem werden.
+Die Disziplinaraufsicht gegenüber Richterpersonen auf Bundesebene stellt insbesondere aufgrund der richterlichen Unabhängigkeit und der Selbstverwaltung der Gerichte eine staatspolitische Herausforderung dar. Sanktionen gegenüber gewählten Richterpersonen sind gesetzlich nicht vorgesehen. Richterpersonen an erstinstanzlichen eidgenössischen Gerichten können einzig vom Parlament nicht wieder- oder abgewählt werden. Dieser Alles-oder-nichts-Mechanismus in Disziplinarangelegenheiten an erstinstanzlichen Gerichten wird sowohl von den GPK als auch von der Verwaltungskommission des Bundesgerichtes als unbefriedigend betrachtet. Reorganisationen aufgrund personeller Probleme sieht das Parlament nicht als Lösung.
+Da es sich bei der Organ- und Disziplinaraufsicht um eine Frage von grundlegender staatspolitischer Bedeutung handelt, haben die beiden GPK zwei juristische Gutachten in Auftrag gegeben, deren Analyse wir zurzeit vornehmen. Sie werden also bezüglich allfälliger Gesetzesänderungen in den nächsten zwei Jahren noch mehr hören.
+Zum Schluss bleibt mir, dem Präsidenten des Bundesgerichtes und allen Mitarbeitenden der eidgenössischen Gerichte ein grosses Dankeschön für ihre Arbeit auszusprechen. Eine gut funktionierende Justiz ist für eine Demokratie unabdingbar.
+Ich bitte Sie, den Geschäftsbericht zu genehmigen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wehrli Laurent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans sa séance plénière de mai 2024, en présence du président et du secrétaire général du Tribunal fédéral, votre Commission de gestion a pris connaissance et étudié le rapport de gestion du Tribunal fédéral pour l'année 2023. Votre sous-commission de gestion, en charge notamment du suivi des tribunaux fédéraux et du Ministère public de la Confédération, l'avait précédemment fait lors de sa séance, qui a eu lieu à Lausanne le 8 mai 2024, en présence du président et de divers autres responsables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans sa séance plénière de mai 2024, en présence du président et du secrétaire général du Tribunal fédéral, votre Commission de gestion a pris connaissance et étudié le rapport de gestion du Tribunal fédéral pour l'année 2023. Votre sous-commission de gestion, en charge notamment du suivi des tribunaux fédéraux et du Ministère public de la Confédération, l'avait précédemment fait lors de sa séance, qui a eu lieu à Lausanne le 8 mai 2024, en présence du président et de divers autres responsables.
+Pour mémoire, l'Assemblée fédérale exerce la haute surveillance sur le Tribunal fédéral, l'autorité judiciaire suprême de la Confédération. Le Tribunal fédéral exerce, quant à lui, la surveillance du Tribunal pénal fédéral, du Tribunal administratif fédéral et du Tribunal fédéral des brevets, sous réserve que le Tribunal fédéral n'ait toujours pas de compétence et de moyens pour intervenir sur des cas personnels. Or, deux cas posent toujours des problèmes.
+En 2023, les diverses cours du Tribunal fédéral ont reçu 7558 nouvelles affaires - en 2022, c'était 7392 -, soit un nombre toujours particulièrement élevé. Le taux de liquidation a été de l'ordre de 98 pour cent. Il en demeure donc une augmentation continue des dossiers en cours, qui culminent actuellement à quelque 3600.
+La durée moyenne de procédure est un autre sujet problématique; elle était, en 2023, de 195 jours. En comparaison, elle était, en 2022, de 194. La surcharge des chancelleries, notamment due aux réorganisations internes en cours, a eu pour conséquence directe le report à l'année suivante de 3631 affaires.
+Pour tenter d'y faire face, le Tribunal fédéral a poursuivi ses restructurations internes, bien que celles-ci aient leurs limites. Indiquons ici que le transfert du droit fiscal à Lucerne est jugé positif. Par ailleurs, deux postes supplémentaires de [PAGE 1039] juges ont été accordés par notre Parlement. Il n'en demeure pas moins qu'une réflexion de fond doit continuer à être menée, avec les cantons aussi, afin de reprendre l'ensemble des éléments contribuant à une telle situation.
+Au niveau du personnel, il convient de relever que le Tribunal fédéral est confronté au problème de recrutement de greffiers, comme le sont les tribunaux cantonaux.
+Le projet Justitia 4.0 vise à renforcer l'utilisation de la communication électronique dans le domaine judiciaire par la plateforme sécurisée Justitia.Swiss. Malgré de nombreuses complications, liées aussi au fait que l'ensemble des tribunaux cantonaux et fédéraux y sont liés, ce projet progresse selon le plan prévu initialement. En automne 2023, un audit à ce sujet a été mené par le Contrôle fédéral des finances. Ses recommandations concernent donc toute la chaîne judiciaire. La question de son coût demeure.
+Je vous livre quelques informations complémentaires sur les cours. Les différentes cours du Tribunal pénal fédéral ont traité 726 affaires, alors que 677 nouvelles affaires ont été introduites. Le Tribunal administratif fédéral a tranché 6655 affaires, tandis que 7324 ont été déposées. Enfin, le Tribunal fédéral des brevets a finalisé 32 affaires, alors que 31 nouvelles ont été enregistrées.
+Je ne saurais terminer ce bref rapport de la commission sans relever la collaboration intense avec les autorités judiciaires fédérales. Je remercie M. le président du Tribunal fédéral et toutes les personnes qui participent au bon fonctionnement de la justice fédérale pour leur travail et leur disponibilité, ainsi que le secrétariat de la Commission de gestion pour son travail.
+Je vous rappelle que votre commission vous recommande d'accepter le rapport de gestion 2023 du Tribunal fédéral.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dittli Josef</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich berichte Ihnen zuerst aus dem Bereich VBS zum Thema Ruag und anschliessend aus dem Bereich EDA zur Wirksamkeitsmessung[NB]in[NB]der[NB]internationalen Zusammenarbeit.
+Zur Ruag: Beim Geschäftsbericht 2023 zur Ruag handelt es sich um die letzte Jahresberichterstattung in der Strategieperiode 2020-2023. Übergeordnetes Ziel dieser Strategieperiode war die Entflechtung der Ruag Holding AG in die beiden eigenständigen Konzerne Ruag MRO und Ruag International. Dieses Ziel wurde gemäss Bundesrat im </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich berichte Ihnen zuerst aus dem Bereich VBS zum Thema Ruag und anschliessend aus dem Bereich EDA zur Wirksamkeitsmessung[NB]in[NB]der[NB]internationalen Zusammenarbeit.
+Zur Ruag: Beim Geschäftsbericht 2023 zur Ruag handelt es sich um die letzte Jahresberichterstattung in der Strategieperiode 2020-2023. Übergeordnetes Ziel dieser Strategieperiode war die Entflechtung der Ruag Holding AG in die beiden eigenständigen Konzerne Ruag MRO und Ruag International. Dieses Ziel wurde gemäss Bundesrat im Jahr 2022 erreicht.
+Nun zur Ruag MRO: Im Geschäftsjahr 2023 hat die Ruag MRO aus Sicht des Bundesrates die Zielsetzungen teilweise erreicht. Die durchzogene Gesamtbilanz weist auf die noch zu meisternden Herausforderungen des Unternehmens hin. Ihre Subkommission stellte zuhanden der GPK folgende sechs Punkte fest:
+1.[NB]Im finanziellen Bereich konnte die Ruag die Ebit-Marge im Vergleich zum Vorjahr von 2,1 Prozent auf immerhin 2,9 Prozent steigern. Dies entspricht einem Betriebsgewinn vor Steuern von 22 Millionen Franken. Dieses Ergebnis ist allerdings immer noch nicht genügend, um eine stabile und nachhaltige Entwicklung des Unternehmens zu gewährleisten. Der Bund erwartet eine Ebit-Marge von 6 bis 8 Prozent.
+2.[NB]Im Bereich des strategischen Kernauftrags zugunsten der Armee gelang es der Ruag MRO, die von der Armee geforderten Leistungen zu erfüllen. Die Verfügbarkeit der 130 Systeme, welche die Ruag MRO für die Armee betreut, konnte sie trotz Engpässen in globalen Lieferketten und trotz der steigenden Inflation zu stabilen Kosten sicherstellen. Erfreulich ist zudem, dass die Ruag die Kundenzufriedenheit wesentlich verbessern konnte.
+3.[NB]Weniger gut sieht es bei der Governance innerhalb der Ruag MRO aus. Dort sind mehrere Mängel, Unzulänglichkeiten und Ungereimtheiten zutage getreten. So hat Mitte 2023 CEO Brigitte Beck die Ruag MRO nach kontroversen Aussagen und Verhaltensweisen verlassen. Gleichzeitig war das vergangene Geschäftsjahr der Ruag MRO geprägt durch das vom Bundesrat letztlich abgelehnte Gesuch für den Export von 96 Panzern des Typs Leopard 1 A5 ab einem Lager in Italien. Das VBS hat daraufhin die Eidgenössische Finanzkontrolle ersucht, die Einhaltung der Vorgaben bei diesem Geschäft zu untersuchen. Der zwischenzeitlich vorliegende EFK-Bericht "Prüfung der Einhaltung der Vorgaben bei Geschäften mit dem Leopard-1-Panzer" hat Mängel im Compliance-System der Ruag MRO offengelegt. Das VBS hat nun Massnahmen angeordnet, um diese Mängel zu beheben, sodass die Ruag ihre Compliance stärken und noch bestehende Mängel in Organisation, Abläufen und Geschäftstätigkeit umgehend bereinigen kann.
+4.[NB]Ihre GPK hat des Weiteren zur Kenntnis genommen, dass die Eignerstellen angeordnet haben, dass das Zusammenwirken von Geschäftsleitung, Verwaltungsrat und Eignerstellen noch eingehend überprüft werden muss. Die GPK wartet mit Spannung auf die noch laufende zweite Prüfung der Eidgenössischen Finanzkontrolle zur Führung und Steuerung der Ruag MRO sowie auf die Untersuchung der juristischen Aspekte, welche die EFK gemeinsam mit der Kanzlei Niederer Kraft Frey in Abstimmung mit dem Verwaltungsrat der Ruag MRO durchführt.
+5.[NB]Auch als Folge des Berichtes der EFK hat der Verwaltungsratspräsident der Ruag MRO, Nicolas Perrin, entschieden, das Unternehmen zu verlassen, sobald eine Nachfolge bestimmt ist.
+6.[NB]Ihre GPK begrüsst es, dass im VBS entschieden wurde, den rechtlichen Rahmen der Ruag MRO zu prüfen. Dabei wird es in erster Linie darum gehen, ob die gesetzlichen Grundlagen für die Ruag noch dem heutigen Stand entsprechen.
+Ihre GPK stellt bei der Ruag MRO deutlichen Handlungsbedarf fest und wird sich nach Vorliegen des zweiten Berichtes der EFK zur Governance der Ruag MRO wieder über das Geschäft beugen.
+Nun zur Ruag International: Dieser Ruag-Konzern umfasst das zivile, nicht wehrtechnische Geschäft, und die Federführung für die Eignersteuerung liegt nun beim EFD. Ihre GPK nahm zur Kenntnis, dass die Ruag International im Geschäftsjahr 2023 die strategischen Ziele des Bundesrates in wesentlichen Teilen erreicht hat, mit Einschränkungen bezüglich des operativen Ergebnisses. Im Geschäftsjahr 2023 wurde insbesondere der Privatisierungsprozess erfolgreich weitergeführt. Nach dem Verkauf der Munitionsherstellerin Ruag Ammotec und des Geschäftsbereichs Ruag Simulation and Training im Jahr 2022 stand im vergangenen Jahr der Verkauf des Flugzeugstrukturbaus im Zentrum.
+Alle Auslandstandorte von Ruag Aerostructures konnten an das deutsche Unternehmen Mubea verkauft werden. Der Verkaufsvertrag wurde im Juli 2023 abgeschlossen und die Transaktion per Ende 2023 definitiv vollzogen. Für die Produktionsanlagen von Ruag Aerostructures am Standort Emmen wurde ein Verkaufsvertrag mit Pilatus ausgehandelt. Mit der Übernahme der Produktionsanlagen übernimmt Pilatus schrittweise auch alle Mitarbeitenden des Standortes Emmen. Der Vertrag mit Pilatus wurde im Januar 2024 unterzeichnet, der Abschluss der Transaktion soll bis Mitte 2024 erfolgen.
+Ihre GPK nahm zur Kenntnis, dass somit nur noch der Verkauf der Weltraumsparte bzw. des Unternehmens Beyond Gravity anstehend ist. Das ist der letzte Schritt im Devestitionsprozess der Ruag International. Danach erfolgt die Liquidation der Holding. Für diesen abschliessenden Verkauf von Beyond Gravity hat der Bundesrat im März 2023 die Rahmenbedingungen festgelegt. Diese Rahmenbedingungen wurden in den neuen strategischen Zielen des Bundesrates für die Ruag International für die Jahre 2024 bis 2027 festgehalten.
+Nach vorgängiger Konsultation der Sicherheitspolitischen Kommissionen beider Räte im August 2023 hat der Bundesrat die strategischen Ziele im November 2023 genehmigt. Er hält daran fest, dass Beyond Gravity bis Ende 2025 an einen westlichen Käufer verkauft werden soll. Beim Verkauf sollen die standort-, weltraum- und sicherheitspolitischen Interessen der Schweiz berücksichtigt werden. Ihre GPK erwartet, dass der Bundesrat den Verkaufsprozess über die Ruag International sorgfältig vorbereitet und gemäss den Vorgaben der strategischen Ziele umsetzt. Dabei sollen sich die laufende Transformation und die Weiterentwicklung der Weltraumsparte positiv im Verkaufspreis niederschlagen. Ihre GPK nahm auch davon Kenntnis, dass zurzeit, wenn es um den Verkauf von Beyond Gravity geht, politische Fragen diskutiert werden. Diese Diskussion ist jedoch im Zuständigkeitsbereich der Sachkommissionen anzusiedeln und liegt nicht im Zuständigkeitsbereich der GPK. Ihre GPK stellte fest, [PAGE 484] dass im Gegensatz zur Ruag MRO bei der Ruag International zurzeit kein zusätzlicher aufsichtsrechtlicher Handlungsbedarf besteht.
+Nun komme ich zur Wirksamkeitsmessung in der internationalen Zusammenarbeit; wir sind damit beim EDA. Der Bericht unserer GPK vom 14.[NB]November 2023 stützt sich auf einen Bericht der Parlamentarischen Verwaltungskontrolle zur Wirksamkeitsmessung in der internationalen Zusammenarbeit. Er kam zum Schluss, dass sich die externen Evaluationen in der gegenwärtigen Ausgestaltung der internationalen Zusammenarbeit nur teilweise zur Wirksamkeitsmessung und Steuerung auf Projektstufe eignen. Sie geben keine Auskunft darüber, ob das evaluierte Projekt zur Erreichung der übergeordneten IZA-Ziele beiträgt. Ihre GPK zeigte sich unzufrieden mit den Evaluationen des Bundesrates bei Projekten der internationalen Zusammenarbeit. Ihre Kommission stellte fest, dass erstens die Nutzung der Evaluationen für die Rechenschaftsablegung gegenüber Parlament und Öffentlichkeit nicht angemessen ist; dass zweitens die Erfolgsquoten, mit denen der Bund die Wirksamkeit der jeweiligen Projekte belegen will, intransparent, nicht repräsentativ und nicht aussagekräftig sind; dass es drittens vordringlich ist, die Rechenschaftsablegung des Bundesrates gegenüber Parlament und Öffentlichkeit auf solide Grundlagen zu stellen. Ihre GPK forderte den Bundesrat auf, die Evaluationen spätestens bis zur Berichterstattung über die Strategieperiode 2025-2028 zu verbessern.
+Der Bundesrat nahm den Ball rasch auf und reagierte. Auch er misst der Wirksamkeitsmessung hohe Bedeutung zu und erachtet die Empfehlungen Ihrer GPK als zielführend und umsetzbar. Der Bundesrat hat die GPK und die Öffentlichkeit dahin gehend orientiert, dass die zuständigen Departemente beauftragt wurden, die Methode für eine aussagekräftige Bewertung der Wirkung der internationalen Zusammenarbeit zu verbessern und im Rahmen der regelmässigen Berichterstattung darüber zu informieren.
+In seiner Stellungnahme zum Bericht führt der Bundesrat zwölf Massnahmen auf, mit welchen die Empfehlungen der GPK-S bis 2026 umgesetzt werden sollen. Diese Massnahmen umfassen höhere Qualitätsanforderungen in den Evaluationsleitlinien und eine gezielte Ausbildung im Bereich der Evaluation. Im Zeitraum der nächsten IZA-Strategie, 2025-2028, sollen auch Massnahmen getroffen werden, um die längerfristige Wirkung und die Nachhaltigkeit von Projekten zu beurteilen. 
+Ihre GPK hat kürzlich von der Stellungnahme des Bundesrates zu ihrem Bericht vom 14.[NB]November 2023 Kenntnis genommen und einen Brief mit einigen wenigen Nachfragen an den Bundesrat gerichtet. Die Frist für die Beantwortung dieses Briefes war Ende Mai 2024. Die GPK-S wird nun diesen Prozess begleiten, um sicherzustellen, dass die Wirksamkeit der internationalen Zusammenarbeit nachhaltig und aussagekräftig gemessen werden kann. Damit schliesse ich meine Berichterstattung.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binder-Keller Marianne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einmal im Jahr treffen sich die Subkommissionen Gerichte/Bundesanwaltschaft beider Räte mit den Gerichtspräsidien, dem Generalsekretär und Mitgliedern der Verwaltungskommission zur Aufsichtssitzung; diesmal war das im Mai 2024 in Lausanne. An dieser Sitzung werden die Geschäftsberichte der eidgenössischen Gerichte diskutiert. Die Geschäftsberichte 2023 wurden in der Folge in der Plenarversammlung Ihrer Geschäftsprüfungskommission besprochen.
+Die Oberaufsicht über das Bundesgericht obliegt, wie S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einmal im Jahr treffen sich die Subkommissionen Gerichte/Bundesanwaltschaft beider Räte mit den Gerichtspräsidien, dem Generalsekretär und Mitgliedern der Verwaltungskommission zur Aufsichtssitzung; diesmal war das im Mai 2024 in Lausanne. An dieser Sitzung werden die Geschäftsberichte der eidgenössischen Gerichte diskutiert. Die Geschäftsberichte 2023 wurden in der Folge in der Plenarversammlung Ihrer Geschäftsprüfungskommission besprochen.
+Die Oberaufsicht über das Bundesgericht obliegt, wie Sie wissen, dem Parlament. Das Bundesgericht seinerseits übt die Aufsicht über die erstinstanzlichen eidgenössischen Gerichte aus: das Bundesstrafgericht, das Bundesverwaltungsgericht und das Bundespatentgericht. Seit dem 1.[NB]September 2023 übt das Bundesgericht auch im Bereich des Datenschutzes die administrative Aufsicht über die anderen Gerichte der Eidgenossenschaft aus. Das Bundesgericht hat mit allen erstinstanzlichen Gerichten die Geschäftsberichte, die Rechnung 2022 und den Voranschlag 2024 besprochen und sich an einer jährlichen Sitzung auch mit der Aufsichtskommission koordiniert.
+Das Bundesstrafgericht verzeichnete ein intensives Geschäftsjahr mit einer weiterhin hohen Arbeitsbelastung, das Bundesverwaltungsgericht und das Bundespatentgericht ebenfalls. Aber über alle Abteilungen hinweg konnten mehr Fälle erledigt werden als eingegangen sind. Die Geschäftsberichte der eidgenössischen Gerichte liegen Ihnen vor. Sie dokumentieren Organisation und Geschäftslast der verschiedenen Gerichte und enthalten wichtige Grundlagen und Einordnungen für den Gesetzgeber, gerade auch für die Kommission für Rechtsfragen.
+Nun ein paar Zahlen: Im Berichtsjahr gingen beim Bundesgericht 7558 neue Beschwerden ein; gegenüber dem Vorjahr sind es knapp 200 mehr. 7420 Fälle wurden erledigt; gegenüber dem Vorjahr sind es beinahe 300 mehr. Diese Effizienzsteigerungen stehen im Zusammenhang mit den Umstrukturierungsmassnahmen des Bundesgerichtes: Per 1.[NB]Januar 2023 wurde die Behandlung von Beschwerden aus dem Bereich Steuern und Abgaben von der überlasteten Zweiten öffentlich-rechtlichen Abteilung in Lausanne zur unterbesetzten Dritten öffentlich-rechtlichen Abteilung in Luzern verschoben, und per 1.[NB]Juli 2023 nahm in Lausanne eine zweite strafrechtliche Abteilung ihre Tätigkeit auf. Die Richterzahl wurde von 38 auf 40 erhöht; zwei zusätzliche Richter hat das Parlament im Herbst gewählt. Das Modell von acht Abteilungen mit je fünf Gerichtsmitgliedern konnte verwirklicht werden.
+Der Anstieg der Zahl der Richterinnen und Richter und des Verwaltungspersonals machte es notwendig, ein zusätzliches Gebäude zu mieten, weil die im Gebäude Mon Repos zur Verfügung stehenden Räumlichkeiten nicht ausreichten.
+Die Zahl der pendenten Fälle stieg von 3493 im Vorjahr auf 3631 im Berichtsjahr. Die Erledigungsquote liegt bei 98 Prozent. Der Überhang liegt bei etwa 200 Fällen pro Jahr, was sich kumuliert. Die Pendenzen liegen somit gerundet bei 3600 Fällen. Die durchschnittliche Verfahrensdauer beträgt unverändert knapp 200 Tage. 11,9 Prozent der Beschwerden werden gutgeheissen.
+Bezüglich der Pendenzen verweist das Bundesgericht immer wieder auf die Funktion eines obersten Gerichtes im Staat, konkret: Sollen 40-Franken-Beschwerden in Strafsachen mit Strafzetteln wirklich das Bundesgericht beschäftigen?
+Weitere Themen im Berichtsjahr: Erstens geht es auch um das System der nebenamtlichen Richter. Im Februar informierte die Geschäftsprüfungskommission das Bundesgericht, dass sie, gestützt auf eine Evaluation der Parlamentarischen Verwaltungskontrolle (PVK), eine Inspektion zum System der nebenamtlichen Richterinnen und Richter durchführen werde. Diese betrifft neben dem Bundesgericht auch das Bundesstrafgericht und das Bundespatentgericht. Insbesondere soll die Zweckmässigkeit des Einsatzes nebenamtlicher Richterpersonen geprüft werden. Die Analyse soll grösstenteils bis am 1.[NB]Juni 2024 abgeschlossen sein. Im ersten Quartal 2025 soll der Bericht der PVK vorliegen.
+Ein zweites Thema ist eine mögliche Disziplinaraufsicht des Bundesgerichtes über die anderen Gerichte der Eidgenossenschaft. Das Sozialverhalten einiger Richterpersonen gibt immer wieder Anlass zu Diskussionen und führt dann auch zu Konflikten. Gerade das Bundesverwaltungsgericht stand in jüngster Zeit im Fokus. Die fehlende Organ- und Disziplinaraufsicht wird immer wieder sichtbar. Es gibt nur eine eingeschränkte Organaufsicht des Bundesgerichtes über die eidgenössischen erstinstanzlichen Gerichte; eine klare Trennung zwischen Disziplinar- und Organaufsicht ist oft nicht möglich. So kann ein personelles Problem zu einem strukturellen werden. Die Disziplinaraufsicht über Richterinnen und Richter auf Bundesebene stellt insbesondere aufgrund der richterlichen Unabhängigkeit und der Selbstverwaltung der Gerichte eine staatspolitische Herausforderung dar.
+Sanktionen gegenüber gewählten Richterpersonen sind gesetzlich nicht vorgesehen. Richterinnen und Richter an[NB]erstinstanzlichen eidgenössischen Gerichten können einzig vom Parlament nicht wiedergewählt oder abgewählt werden. Dieser Alles-oder-nichts-Mechanismus in Disziplinarangelegenheiten an erstinstanzlichen Gerichten wird immer wieder diskutiert, sowohl in der GPK als auch in der Verwaltungskommission des Bundesgerichtes, und er wird als unbefriedigend betrachtet. Eine Reorganisation aufgrund personeller Probleme sieht das Parlament aber nicht als Lösung. Da es sich bei der Organ- und Disziplinaraufsicht um eine Frage von grundlegender staatspolitischer Bedeutung handelt, haben die beiden GPK zwei juristische Gutachten in Auftrag gegeben, deren Analyse wir zurzeit vornehmen. Sie werden bezüglich allfälliger Gesetzesänderungen im Verlaufe der nächsten zwei Jahre mehr hören.
+Und dann, drittens, beschäftigt das Projekt Justitia 4.0 die Geschäftsprüfungskommissionen sowie die Finanzkommissionen schon länger. Es wird gemeinsam vom Bundesgericht, von den Kantonen, den Gerichten, den Staatsanwaltschaften und der Anwaltskammer getragen. Im Herbst 2023 wurde das Bundesgericht von der Eidgenössischen Finanzkontrolle bezüglich Justitia 4.0 geprüft. Die Projektleitung hat uns bestätigt, dass sie die Empfehlungen der Eidgenössischen Finanzkontrolle aufnehmen kann. Die Finanzen und die Gesamtverantwortung dieses Projekts sind eine Herausforderung und bleiben deshalb für das Parlament ein Thema.
+Ich danke dem Präsidenten des Bundesgerichtes und allen Mitarbeitenden der Gerichte für den aufschlussreichen, übersichtlichen und sehr informativen Jahresbericht. Dieser bildet [PAGE 504] ein eindrückliches Dokument ihres Engagements und ihres grossen Einsatzes für ein funktionierendes Rechtswesen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">341099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engler Stefan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei der Beratung dieses Geschäfts können wir uns kurzhalten. Ihre Staatspolitische Kommission hat die Motion Farinelli 23.3592, "Alle Berichte sollen zumindest eine Zusammenfassung in den drei Amtssprachen enthalten", vorgeprüft und ist zum Schluss gekommen, Ihnen die Annahme dieser Motion zu beantragen. Dasselbe hat der Nationalrat getan, und dasselbe will auch der Bundesrat tun, allerdings mit der Einschränkung, dass es sich um Berichte des Bundesrates und der Bundesverwaltung handeln müsse, d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei der Beratung dieses Geschäfts können wir uns kurzhalten. Ihre Staatspolitische Kommission hat die Motion Farinelli 23.3592, "Alle Berichte sollen zumindest eine Zusammenfassung in den drei Amtssprachen enthalten", vorgeprüft und ist zum Schluss gekommen, Ihnen die Annahme dieser Motion zu beantragen. Dasselbe hat der Nationalrat getan, und dasselbe will auch der Bundesrat tun, allerdings mit der Einschränkung, dass es sich um Berichte des Bundesrates und der Bundesverwaltung handeln müsse, die auf den Websites der Departemente veröffentlicht werden.
+In der Praxis soll es so sein, dass jeder Bericht eine Zusammenfassung von ein bis zwei Seiten enthält, welche die wichtigsten Aspekte in knapper Form erläutert. Derzeit würde diese Zusammenfassung jedoch nur in einer oder zwei Amtssprachen vorliegen, was den Anstoss für diese Motion gab. Er verlangt nicht mehr, aber auch nicht weniger, als dass all diese Berichte bzw. die Zusammenfassungen in den drei Amtssprachen und nicht wie heute nur in einer oder in zwei Amtssprachen erscheinen sollen. Insoweit hat die Staatspolitische Kommission des Ständerates selbstverständlich nichts dagegen einzuwenden und unterstützt die Motion.
+Ich erlaube mir aber noch eine Ergänzung dazu. Man wird sich in naher Zukunft und mit den heutigen Möglichkeiten bald einmal fragen dürfen, weshalb nicht auch die vierte Landessprache zum Zuge kommen soll. Dies gilt umso mehr, als es Departemente, Amtsstellen und Behörden gibt - genannt wird die Eidgenössische Finanzkontrolle -, die solche Zusammenfassungen auch noch ins Englische übersetzen. So gut, wie man es auf Englisch macht, kann man es auch in der vierten Landessprache machen. Wir werden darauf schauen, wie es mit der Umsetzung dieser Motion hinsichtlich der drei Amtssprachen geht, uns dann aber wünschen, dass auch die vierte Landessprache berücksichtigt wird.
+Die Kommission beantragt Zustimmung zu dieser Motion. Minderheiten gibt es keine. Die Kommission hat hier einstimmig entschieden.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">341480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On en fait encore des affaires personnelles. Je parle volontiers avec vous de ma campagne de manière bilatérale, qui n'est absolument pas opaque, puisqu'elle a été contrôlée par le Contrôle fédéral des finances, comme la vôtre peut-être.
+Je n'ai pas parlé de Greenpeace; j'ai parlé du financement d'ONG multiples qui interviennent d'une manière tout à fait opaque dans le processus d'élection des juges de la Cour européenne des droits de l'homme. Je tiens à votre disposition un excellent rapport de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On en fait encore des affaires personnelles. Je parle volontiers avec vous de ma campagne de manière bilatérale, qui n'est absolument pas opaque, puisqu'elle a été contrôlée par le Contrôle fédéral des finances, comme la vôtre peut-être.
+Je n'ai pas parlé de Greenpeace; j'ai parlé du financement d'ONG multiples qui interviennent d'une manière tout à fait opaque dans le processus d'élection des juges de la Cour européenne des droits de l'homme. Je tiens à votre disposition un excellent rapport de collègues français qui ont enquêté - mais cela ne vous intéresse pas, évidemment - sur les influences qui s'exercent sur la nomination des juges de cette cour, avec le résultat immanquable que cette cour, au lieu de rendre des décisions de justice, fait de la politique. Or la politique, c'est nous qui la faisons, c'est-à-dire nous les représentants du peuple ou, par le référendum, le peuple lui-même.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiesa Marco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Künftig darf der medizinisch-technische Fortschritt nicht nur Berücksichtigung finden, wenn es zu teuer wird. Wie auch sonst im Markt müssen die Effizienzgewinne der Kundschaft bzw. den Kostenträgern, den Prämienzahlern und der öffentlichen Hand, weitergegeben werden. Die Tarifpartner müssen diesbezüglich aktiv werden und Lösungen finden, auch wenn dies nicht allen Beteiligten passt. Der Bundesrat muss subsidiär, regelmässig und zeitnah eingreifen, wenn die Tarifpartner den präzisierten gesetzli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Künftig darf der medizinisch-technische Fortschritt nicht nur Berücksichtigung finden, wenn es zu teuer wird. Wie auch sonst im Markt müssen die Effizienzgewinne der Kundschaft bzw. den Kostenträgern, den Prämienzahlern und der öffentlichen Hand, weitergegeben werden. Die Tarifpartner müssen diesbezüglich aktiv werden und Lösungen finden, auch wenn dies nicht allen Beteiligten passt. Der Bundesrat muss subsidiär, regelmässig und zeitnah eingreifen, wenn die Tarifpartner den präzisierten gesetzlichen Anforderungen nicht nachkommen sollten. Bisher griff der Bundesrat zweimal ein, 2014 und 2018, teilweise mit Erfolg. 
+Tarmed ist bekanntermassen veraltet. Das wird auch bei allen künftigen Einzelleistungstarifen über kurz oder lang der Fall sein, wenn einer der wesentlichen Mängel bei den Vorgaben und Prozessen nicht korrigiert wird. Das Problem besteht darin, dass die Einzelleistungstarife bis heute nicht laufend an die Kostenrealität angepasst werden. Insbesondere die medizinisch-technischen Fortschritte führten bei Tarmed über die Jahre dazu, dass viele Behandlungen immer rascher und präziser durchgeführt werden konnten. Trotzdem haben sich die Tarifpartner bis heute nicht darauf einigen können, überholte Tarifpositionen systematisch anzupassen. Weil sie nicht angepasst wurden, sind viele technische Leistungen heute übertarifiert. Brauchte man vor 25 Jahren für die Operation des Grauen Stars noch rund drei Stunden, sind es heute mit der modernen Lasertechnik nur noch 20 Minuten. Verrechnet werden können pro Eingriff aber immer noch längst überholte und damit überhöhte Tarife. Das ist der Grund, weshalb heute viele technische Leistungen übertarifiert sind. 
+Bei der Arbeit der Grundversorger hingegen sind Effizienzgewinne nicht das grösste Thema. Das Gespräch mit den Patienten lässt sich technisch kaum beschleunigen, die Beruhigung eines Kleinkindes vor einer Blutentnahme auch nicht. 
+Gemäss dem Grundsatz nach Artikel 43 Absatz 4bis KVG orientieren sich Tarife und Preise an den Entschädigungen jener Leistungserbringer, welche die versicherte Leistung in der notwendigen Qualität effizient und günstig erbringen. Mit einer Tarifierung, die viele Jahre oder gar Jahrzehnte zurückliegt, wird dieser Grundsatz ausgehebelt. Auch die Eidgenössische Finanzkontrolle hat mehrfach die ungenügende Kostenrealität bzw. die ungenügende Anpassung und Aktualisierung der ambulanten Tarifstruktur durch die Tarifpartner kritisiert. Weiter hat sie eine aktive Haltung des Bundesrates angemahnt, wenn die Tarifpartner veraltete, insbesondere überholte Tarife nicht korrigieren.
+Zu meinen, dass der geplante Tardoc das Problem beheben könnte, wäre kurzsichtig. Selbst wenn die Tarifstruktur aktuell und datenbasiert tarifiert wäre, wäre sie in Bälde wieder veraltet, weil der medizinische und technische Fortschritt nicht stehenbleibt. Mit der vorgeschlagenen gesetzlichen Präzisierung würde allen betroffenen Akteuren klar werden, dass es auch im KVG kein Rosinenpicken gibt und dass der Gesetzgeber nicht tatenlos zuschaut, wenn das Gesetz missverstanden oder nicht umgesetzt wird. Zugunsten der Bevölkerung, der Prämien- und Steuerzahler, ist jetzt unbedingt Masshalten gefragt. Diese Präzisierungen sind ein wichtiger Beitrag dazu. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ettlin Erich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Grundsatz unterstützt die Kommission auch die vom Nationalrat vorgeschlagene vorläufige Vergütung von neuen Medikamenten, d.[NB]h. ab Tag null, und damit einen raschen und günstigen Zugang zu Arzneimitteln. Dazu ist zu wissen, dass sich das BAG und die Zulassungsinhaberin nach der Zulassung durch Swissmedic noch über den Preis einigen müssen, damit das Medikament in die Spezialitätenliste aufgenommen werden kann und so von der Grundversicherung vergütet wird. Dieser Prozess dauert in Einzelfä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Grundsatz unterstützt die Kommission auch die vom Nationalrat vorgeschlagene vorläufige Vergütung von neuen Medikamenten, d.[NB]h. ab Tag null, und damit einen raschen und günstigen Zugang zu Arzneimitteln. Dazu ist zu wissen, dass sich das BAG und die Zulassungsinhaberin nach der Zulassung durch Swissmedic noch über den Preis einigen müssen, damit das Medikament in die Spezialitätenliste aufgenommen werden kann und so von der Grundversicherung vergütet wird. Dieser Prozess dauert in Einzelfällen lang, da gibt es Verbesserungsbedarf. Deshalb wird ein Early-Access-Prozess vorgeschlagen, damit neue Medikamente mit einem hohen medizinischen Bedarf ab dem Tag der Zulassung durch Swissmedic auf eine provisorische Liste aufgenommen und vorläufig vergütet werden. Mit diesem Verfahren werden auch Empfehlungen der Eidgenössischen Finanzkontrolle aufgenommen. 
+Die SGK-S beantragt hier im Rat jedoch, dieses neue Vergütungsmodell in mehreren Punkten anzupassen. So soll die Eidgenössische Arzneimittelkommission angehört werden, bevor ein Medikament auf eine provisorische Liste aufgenommen und anschliessend während zwei Jahren zu einem vorläufigen Preis von der obligatorischen Krankenpflegeversicherung vergütet wird. Entsprechend sollen nicht alle Medikamente, die im beschleunigten Verfahren von Swissmedic zugelassen werden, auf diese provisorische Liste aufgenommen werden. Es ist eine Kann-Formulierung. Zudem soll es keine Beschwerdemöglichkeiten zur Aufnahme auf diese Liste und auch nicht zum Entfernen nach Ablauf der zwei Jahre geben. Wird das Medikament nach Ablauf der zwei Jahre nicht auf die Spezialitätenliste aufgenommen, soll der vorläufige Preis auch für eine allfällige Vergütung im Einzelfall massgeblich sein. Damit will die Kommission ein ausgewogenes Vergütungsmodell einführen, das auf dringend benötigte und besonders vielversprechende Therapien ausgerichtet ist. 
+Eine Streitfrage in der Kommission war die Festlegung des provisorischen Preises. Die Mehrheit möchte dies dem BAG überlassen. Die Minderheit möchte den Preis schon im Gesetz festlegen, und zwar anhand des Auslandpreisvergleichs. Das sei einfach und klar. Die Mehrheit befürchtet, dass damit der Verhandlungsspielraum für das BAG eingeschränkt wird, weil der Auslandpreisvergleich eigentlich ein Vergleich mit einem Schaufensterpreis ist, der nirgends bezahlt wird. Damit sei die Verhandlungsbasis für das BAG schon schlecht, weil eben der Einstieg zu hoch sei. 
+Mit einem Bericht des BAG wurde uns die Kostenfolge bei einer Annahme der Minderheit in Absatz 1 beziffert, das wären rund 260 Millionen Schweizerfranken zulasten der OKP. Dies würde eine Erhöhung des Bundesbeitrags für die Prämienverbilligung von über 2 Millionen Franken pro Jahr nach sich ziehen, da 7,5 Prozent von 260 Millionen 19,5 Millionen [PAGE 616] Franken ergeben. Sollte der Antrag der Minderheit also obsiegen, wäre die Ausgabenbremse zu lösen. Wir haben bei der Eintretensdebatte gehört, dass das infrage gestellt wird. Das waren unsere Informationen, und deshalb geht es hier dann um die Ausgabenbremse. 
+Mit Absatz 2bis, ich erwähne den auch schon, will die SGK-S verhindern, dass der Umweg über die Einzelfallvergütung gesucht wird, wenn das pharmazeutische Unternehmen keinen zufriedenstellenden Preis auf der Spezialitätenliste aushandeln kann. 
+Zudem hat die SGK-S die Verwaltung beauftragt, eine analoge Bestimmung für die Invalidenversicherung auszuarbeiten, das ist Artikel 14sexies IVG. Es geht hier um Medikamente, die bei Geburtsgebrechen von der Invalidenversicherung bezahlt werden. Dies war in der nationalrätlichen Version noch nicht vorgesehen.
+Den Beschluss zu Absatz 1 haben wir mit 9 zu 3 Stimmen gefasst. Bei den Absätzen 2 und 3 bis 5 haben wir ohne Gegenantrag dem Beschluss des Nationalrates zugestimmt. Bei Absatz 2bis fiel der Beschluss mit 10 zu 2 Stimmen aus.
+Ich bitte Sie, der Mehrheit zu folgen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maillard Pierre-Yves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vous prie d'excuser ma proposition individuelle comme membre de la commission, mais je n'étais pas dans la commission qui a traité de ce dossier pour la première fois, puisque c'était juste après l'élection au Conseil des Etats. C'est donc encore l'ancienne commission qui l'avait traité. Nous avons pu discuter d'une proposition de réexamen, mais on m'a expliqué qu'il n'était pas possible de déposer une proposition de minorité sur la proposition de réexamen. Je dois donc passer par une proposi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vous prie d'excuser ma proposition individuelle comme membre de la commission, mais je n'étais pas dans la commission qui a traité de ce dossier pour la première fois, puisque c'était juste après l'élection au Conseil des Etats. C'est donc encore l'ancienne commission qui l'avait traité. Nous avons pu discuter d'une proposition de réexamen, mais on m'a expliqué qu'il n'était pas possible de déposer une proposition de minorité sur la proposition de réexamen. Je dois donc passer par une proposition individuelle. 
+Comme cela a déjà été dit dans le débat d'entrée en matière, notre structure tarifaire est complètement obsolète. Elle est même illégale. Le Tarmed a été déclaré officiellement illégal en 2010, à la suite d'un contrôle du Contrôle fédéral des finances, qui a observé que le Tarmed ne remplissait plus les obligations légales. C'était en 2010. Nous sommes en 2024. Il y a donc quatorze ans que le système tarifaire en place, qui gère l'essentiel des dépenses du système de santé à charge de la LAMal, ne respecte pas la loi. 
+On peut discuter des heures afin de savoir comment cela se fait qu'un système illégal ait pu être pérennisé aussi longtemps. Bien sûr, une partie de la responsabilité est portée par les partenaires tarifaires, qui n'ont pas modifié cette structure tarifaire assez vite. La responsabilité peut également être imputée au Conseil fédéral, qui aurait pu faire usage de sa compétence subsidiaire plus souvent. Cependant, il faut bien reconnaître que la compétence subsidiaire du Conseil fédéral est de portée limitée. Lorsqu'un nouveau projet tarifaire est déposé, il semble que cela limite sa compétence subsidiaire. 
+La réalité est que nous continuons d'avoir des pratiques tarifaires complètement abusives. Je vous donne quelques exemples. Avant de déposer cette proposition, j'ai quand même voulu la tester auprès d'un assureur. J'ai demandé à un gros assureur: y a-t-il des exagérations entre le volume de points facturés et la réalité du temps de consultation? Cet assureur m'a donné cinq typologies d'exemples. Je vous donne quelques exemples: il m'a dit - oui - qu'une fois ils ont reçu une facture d'anesthésie de 20 heures - 1219 minutes - et que cela leur a paru être beaucoup. Ils ont donc demandé à la clinique d'aller voir le dossier et ils ont été étonnés d'apprendre que l'opération avait duré 3 heures 16. Ce serait donc 20 heures d'anesthésie pour 3 heures 16 d'opération. Ils ont donc poursuivi leurs enquêtes dans cette clinique et ont observé d'autres cas, par exemple 9 heures 18 d'anesthésie pour une opération de 2 heures ou 9 heures 23 d'anesthésie pour une opération de 1 heure 5. 
+Juste par un sondage, cet assureur a découvert cela dans un certain nombre de cliniques de mon canton. Il m'a dit qu'il y avait d'autres cas. Par exemple, dans le domaine de l'angiographie coronaire, une position tarifaire a été facturée à 45 minutes lorsque le Tarmed a été créé. Aujourd'hui, le temps nécessaire est de 3 à 4 minutes, mais certains médecins continuent d'utiliser cette position tarifaire de 45 minutes, alors que le temps effectif aujourd'hui est de 3 à 4 minutes. Ils m'ont également présenté des cas dans le domaine de la psychiatrie, où les séances de psychothérapie sont systématiquement facturées pour une durée de 70 minutes - plus 35 minutes de prestations en l'absence du patient -, alors que les patients, eux, lorsqu'on les interroge - ils l'ont fait dans une enquête -, disent que la consultation a duré 40 minutes. 
+Voilà le genre de situation qui existe, et je peux vous dire que ce ne sont pas des cas isolés. La majorité des médecins, notamment dans le domaine de la médecine générale, ont à peu près une adéquation entre ce qu'ils consacrent comme temps et les points Tarmed qu'ils facturent.
+Mais dans un certain nombre de situations, il y a une complète exagération. Le drame, c'est que ceux qui se comportent bien sont pénalisés à cause de ces exagérations, parce qu'ensuite, le volume des coûts augmente. Et que font les assureurs? Ils disent que l'on doit baisser la valeur du point, ce qui constitue une sanction collective visant à remédier à des attitudes qui concernent seulement une partie des prestataires. C'est la raison pour laquelle nous devons enfin traiter ce problème.
+J'aimerais dire ici une fois pour toutes qu'il ne s'agit pas d'être pour ou contre Tardoc - probablement que Tardoc améliorera un peu la situation, parce que c'est une nouvelle structure tarifaire, et on peut espérer que les valeurs de ces points aient été adaptées à la nouvelle réalité. Mais dans dix ans, Tardoc aura connu les mêmes évolutions, parce que la technologie continuera à progresser; si nous n'améliorons pas la dynamique d'adaptation à la réalité des pratiques, Tardoc posera dans dix ou quinze ans les mêmes problèmes que Tarmed. On peut donc introduire Tardoc si le Conseil fédéral pense que les conditions sont réunies, et les règles que nous fixons ici sont d'excellentes mesures d'accompagnement pour nous aider à introduire une nouvelle structure tarifaire avec un peu de sécurité.
+Voilà pourquoi je vous invite à vous rallier au Conseil national. Le Conseil national a accepté cette mesure; si nous faisons de même, elle entrera en vigueur. Nous aurons alors des factures transparentes, et les patients, sans avoir besoin d'un doctorat en économie de la santé, pourront eux-mêmes contrôler si tous ces points ont un peu de corrélation avec le temps. C'est également une possibilité que l'on ouvrira aux assureurs: ces derniers pourront mieux contrôler l'adéquation des points avec la durée réelle, sans avoir à faire une enquête et à demander le dossier opératoire, qui est entre les mains des prestataires. Ce n'est pas bien compliqué de mentionner dans une facture électronique le temps effectif d'une prestation; il me semble que les formules informatiques permettent de le faire simplement.
+Voilà pourquoi, si l'on veut vraiment une fois pour toutes régler ce problème, cette proposition est utile - comme la proposition que notre commission a adoptée pour introduire une disposition transitoire relative à un plafond global de prestations, mais on en parlera tout à l'heure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">343362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sauter Regine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Namen der Kommissionsminderheit beantrage ich Ihnen, dieser Kommissionsmotion nicht zuzustimmen. Die Gründe dafür liegen auf der Hand. Wir haben zu dieser Thematik nicht nur die Eidgenössische Finanzkontrolle (EFK), sondern auch das Bundesamt für Sozialversicherungen angehört. Es zeigt sich, dass kein gesetzgeberischer Handlungsbedarf besteht. Bereits gemäss den bestehenden rechtlichen Bestimmungen müssen die Vorsorgeeinrichtungen ihre Verwaltungskosten in ihrer Betriebsrechnung vollständig a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Im Namen der Kommissionsminderheit beantrage ich Ihnen, dieser Kommissionsmotion nicht zuzustimmen. Die Gründe dafür liegen auf der Hand. Wir haben zu dieser Thematik nicht nur die Eidgenössische Finanzkontrolle (EFK), sondern auch das Bundesamt für Sozialversicherungen angehört. Es zeigt sich, dass kein gesetzgeberischer Handlungsbedarf besteht. Bereits gemäss den bestehenden rechtlichen Bestimmungen müssen die Vorsorgeeinrichtungen ihre Verwaltungskosten in ihrer Betriebsrechnung vollständig ausweisen. Dabei müssen sie sowohl gemäss der Verordnung als auch gemäss dem Rechnungslegungsstandard Swiss GAAP FER zwischen den Kosten für die allgemeine Verwaltung, für die Vermögensverwaltung, für Marketing, für Werbung, für Makler- und Brokertätigkeiten, für die Revisionsstellen, für den Experten der beruflichen Vorsorge sowie für die Aufsichtsbehörde unterscheiden. Die EFK kommt zum Schluss, dass die Kostentransparenz insgesamt zufriedenstellend sei. So weit, so gut. 
+Etwas irritierend ist dann die Schlussfolgerung der EFK, die sinngemäss festhält, dass es einer proaktiveren, transparenteren Kommunikation der Kosten bedürfe, weil dies für mehr Klarheit sorgen würde. Die Versicherten sollten sich diese Informationen nicht zwingend holen müssen, sondern sie sollten damit bedient werden. Dies veranlasste dann auch die Mehrheit der Kommission zur Ausarbeitung der vorliegenden Motion. Darüber, muss ich Ihnen sagen, wundere ich mich doch sehr. Die geforderten Informationen sind also vorhanden, die Zahlen liegen, kann man sagen, auf dem Tisch. Nun wird von den Befürwortern dieser Motion vorgebracht, es sei zu aufwendig, diese Informationen zu erhalten respektive aufzufinden. Ich muss Sie Folgendes fragen: Haben Sie denn überhaupt schon einmal versucht, Infos über die Kosten Ihrer Pensionskasse zu erhalten? Ich kann Ihnen sagen, es ist recht simpel. Eine einfache Internetsuche genügt.
+Ich kann Ihnen ein Beispiel geben: Der Anhang des Geschäftsberichtes der Swiss Life, immerhin eine der grössten Einrichtungen für die berufliche Vorsorge in der Schweiz, gibt Auskunft über die Höhe der Provisionen an Broker und Makler, der Provisionen im eigenen Aussendienst, der Aufwendungen für Marketing und Werbung, der übrigen Aufwendungen für die allgemeine Verwaltung usw., dies transparent und absolut verständlich. Diese Informationen sind problemlos erhältlich, wenn sie denn jemanden interessieren. Sie stehen auch nicht im Kleingedruckten, wie Kollegin Marti das vorhin angeführt hat.
+Hier sind wir nun wohl beim entscheidenden Punkt: Die Leute, die Versicherten, interessieren sich leider zu wenig für ihre berufliche Vorsorge. Das ist leider auch eine Feststellung, die ich im Zusammenhang mit der Abstimmung über die Reform der beruflichen Vorsorge gerade mache. Auch die Eidgenössische Finanzkontrolle hält fest, dass die Versicherten ihren Kassen nie eine Frage zu den Kosten stellen würden und überhaupt nicht sensibel bezüglich Kostenfragen seien. Da nützen alle Informationen nichts. Mein Wunsch wäre also vielmehr, dass sich die Versicherten generell mehr[NB]für[NB]diese[NB]Themen[NB]interessieren und vor allem realisieren, dass es ihr Geld ist, um das es hier geht, dass das Geld ist, das ihnen gehört, und dass es deshalb für sie von Interesse ist.
+Das erreichen wir aber leider auch nicht mit einer solchen Kommissionsmotion, selbst wenn Sie jedem Vorsorgeausweis noch eine Beilage mit der Kostenaufstellung der Kasse beifügen. Auch deshalb sollten wir hier nicht unnötig gesetzgeberisch tätig werden. 
+Ich bitte Sie, dieser Motion nicht zuzustimmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">343315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La motion vise donc à ce que les institutions de prévoyance publient leurs frais d'administration. Ce principe est d'ores et déjà inscrit dans le droit en vigueur. L'organe suprême paritaire ou le conseil de fondation est informé du montant des frais. De même, les assurés peuvent, à tout moment, s'informer à cet égard. [PAGE 1456] 
+Les coûts de l'administration générale, les frais de gestion de fortune, de marketing, de publicité ou encore de courtage, les honoraires de l'organe de révision et d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La motion vise donc à ce que les institutions de prévoyance publient leurs frais d'administration. Ce principe est d'ores et déjà inscrit dans le droit en vigueur. L'organe suprême paritaire ou le conseil de fondation est informé du montant des frais. De même, les assurés peuvent, à tout moment, s'informer à cet égard. [PAGE 1456] 
+Les coûts de l'administration générale, les frais de gestion de fortune, de marketing, de publicité ou encore de courtage, les honoraires de l'organe de révision et des experts en matière de prévoyance professionnelle et, enfin, les émoluments de l'autorité de surveillance sont indiqués séparément. La présentation dans le compte d'exploitation est dès lors détaillée. Les frais qui n'étaient pas transparents auparavant - on peut penser aux frais des placements collectifs - doivent également être indiqués depuis début 2012.
+Die Verwaltungskosten unterscheiden sich von Vorsorgeeinrichtung zu Vorsorgeeinrichtung. Gemäss Pensionskassenstatistik betragen sie im Durchschnitt 186 Franken pro Versicherten, inklusive Rentenbezüger. Vorsorgeeinrichtungen weisen ab einer gewissen Grösse naturgemäss tiefere Verwaltungskosten auf. Kleinere Einrichtungen, komplexe Einrichtungen mit vielen Mutationen oder Leistungen sowie Sammeleinrichtungen, die mehrere Vorsorgewerke umfassen, weisen höhere Kosten auf. 
+Il existe aussi de grandes différences dans les frais de gestion de la fortune des institutions de prévoyance qui dépendent fortement de la composition des placements. Les placements non liquides, comme les biens immobiliers, ainsi que les placements alternatifs, comme le capital-risque ou l'infrastructure, sont plus coûteux.
+En 2022, les frais de gestion moyens des placements se sont élevés à environ 0,58 pour cent de la fortune de la prévoyance. La gestion de la fortune des investisseurs professionnels, tels que les institutions de prévoyance, est par ailleurs soumise à une concurrence mondiale. Dès lors, une réduction importante des coûts est peu probable, et des institutions de prévoyance devraient renoncer aux catégories de placements les plus coûteuses, ce qui pourrait avoir un effet négatif sur la diversification des risques et, dès lors, sur le rendement escompté.
+En conclusion, les frais d'administration sont aujourd'hui présentés de manière transparente dans le compte d'exploitation, ce que confirme également le Contrôle fédéral des finances. Ils sont à disposition de l'organe paritaire, qui peut prendre des décisions qu'il estime efficaces. Ils sont également à disposition des assurés qui peuvent les demander en tout temps. Les comparaisons de coûts simples, tels les coûts par personne, montrent qu'elles ne sont pas pertinentes et qu'elles n'apporteraient pas de plus-value.
+A la suite de ces considérations, le Conseil fédéral vous invite à suivre la proposition de la minorité de la commission et de rejeter la motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schwander Pirmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was soll ich nach den Ausführungen des Kommissionssprechers noch sagen? Es geht bei der Rückweisung insbesondere um die Frage der Verfassungsgrundlage. Die Minderheit ist klar der Auffassung, dass hier die Verfassungsgrundlage nicht gegeben ist. 
+Sie haben in den Ausführungen des Kommissionssprechers gehört, wie kompliziert im vorliegenden Fall die Bundeskompetenz begründet und hergeleitet werden muss. Ich stelle es mir eigentlich schon anders vor. Eine Bundeskompetenz soll nicht so kompliziert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was soll ich nach den Ausführungen des Kommissionssprechers noch sagen? Es geht bei der Rückweisung insbesondere um die Frage der Verfassungsgrundlage. Die Minderheit ist klar der Auffassung, dass hier die Verfassungsgrundlage nicht gegeben ist. 
+Sie haben in den Ausführungen des Kommissionssprechers gehört, wie kompliziert im vorliegenden Fall die Bundeskompetenz begründet und hergeleitet werden muss. Ich stelle es mir eigentlich schon anders vor. Eine Bundeskompetenz soll nicht so kompliziert hergeleitet und begründet werden müssen. Ich habe in den Verhandlungen auch immer wieder gehört, es sei gängige Praxis, dass man sich auf Artikel 173 der Bundesverfassung berufe - der Kommissionssprecher hat es auch erwähnt -, auch bei 46 anderen Vorlagen habe man sich auf diesen Artikel gestützt. [PAGE 785] 
+Nun, ich glaube, wir müssen uns auf den Wortlaut der Bundesverfassung berufen. Meines Erachtens ist die Bestimmung in Artikel 173 Absatz 2 der Bundesverfassung klar, einfach und nicht kompliziert, alle verstehen sie: "Die Bundesversammlung behandelt ausserdem Geschäfte, die in die Zuständigkeit des Bundes fallen und keiner anderen Behörde zugewiesen sind." Also da steht nichts von inhärent, implizit und so weiter, man braucht nichts zu erklären. 
+In Artikel 42 Absatz 1 der Bundesverfassung können wir lesen: "Der Bund erfüllt die Aufgaben, die ihm die Bundesverfassung zuweist." Eigentlich ist auch das nicht kompliziert, es ist ganz einfach. In der Bundesverfassung steht einfach nichts von einem nationalen Adressdienst, der in den Kompetenzbereich des Bundes fallen würde. Wenn es im öffentlichen Bereich eine Aufgabe wahrzunehmen gibt, ist es primär eine Aufgabe der Kantone und nicht des Bundes. Der Bund macht nur das, was in der Bundesverfassung steht - so einfach ist die Begründung der Minderheit respektive meine Begründung; die Herleitung ist letztlich nicht kompliziert. Ich glaube, wir sind es auch dem Parlament schuldig, uns auf die Einfachheit zu beschränken und nicht irgendwie Tür und Tor für komplizierte Begründungen dafür zu öffnen, warum jetzt der Bund zuständig sein sollte. Das wollte ich zur Verfassungsgrundlage sagen.
+Ich habe noch einen weiteren Punkt, bei dem es um die technische Seite geht. Es wird auch immer gesagt, man müsse bei der Digitalisierung vorwärtsmachen. Die Schnelligkeit ist natürlich gefährlich. Ich erinnere an das Projekt Dazit: Wir im Parlament, die Wirtschaft und der Gewerbeverband haben gesagt, man müsse schnell vorwärtsmachen. Wir haben jetzt hoffentlich gelernt, dass die Schnelligkeit nicht unbedingt an erster Stelle sein muss. 
+Auch bei diesem Geschäft braucht es nicht die Schnelligkeit. Wenn wir die Rückweisung an den Bundesrat gemäss Beschluss des Nationalrates unterstützen, verlieren wir keine Zeit. Warum nicht? Ich erinnere an das Projekt Digitale Verwaltung Schweiz; die Kantonsvertreter haben darauf hingewiesen. Dort geht es um das Once-only-Prinzip, das heisst, eine Adresse wird nur einmal erfasst. Dort geht es auch um eine gemeinsame Stammdatenverwaltung des Bundes. Und dies hat einen Zusammenhang: Das Once-only-Prinzip funktioniert nur, wenn das Stammdatenprojekt funktioniert, und das Stammdatenprojekt liegt momentan im Argen. Das können Sie auch im Bericht der Eidgenössischen Finanzkontrolle (EFK) nachlesen, wo dieses Projekt beschrieben ist. Wenn wir also hier den Rückweisungsantrag unterstützen, verzögern wir gar nichts, weil dieses Projekt Adressdienstgesetz nur zum Tragen kommt, wenn auch das Projekt Stammdaten funktioniert, und das funktioniert noch lange nicht. Also wir verlieren gar keine Zeit. Sie schütteln den Kopf, Frau Bundesrätin, aber ich empfehle Ihnen, den EFK-Bericht zu diesem Projekt zu lesen, also den neuesten EFK-Bericht. Also auch hier: Wir verlieren keine Zeit.
+Ich fasse nochmals zusammen: Nach Meinung der Minderheit besteht diese Verfassungsgrundlage eben gerade nicht, wenn wir, sagen wir es mal so, unsere Verfassung auf die einfache Art und Weise lesen; da steht Klartext, dass es diese Bundesaufgabe eben gar nicht gibt. Wir verlieren keine Zeit in der Umsetzung, wenn wir jetzt dem Nationalrat folgen.
+Ich bitte Sie, dem Beschluss des Nationalrates zu folgen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vous prie de continuer à suivre le Conseil fédéral et sa première proposition et de ne pas réduire les moyens de la fondation, mais de les maintenir à la somme qui était initialement proposée. 
+De manière très transparente, il est vrai que l'on ne peut pas être dans une dramaturgie. Je vous rejoins, M. le conseiller aux Etats Stark, ce n'est pas la fin de Pro Helvetia. Par contre, il ne faut pas non plus prendre ces montants pour quelque chose d'anecdotique. Si on les recontextualise en disan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vous prie de continuer à suivre le Conseil fédéral et sa première proposition et de ne pas réduire les moyens de la fondation, mais de les maintenir à la somme qui était initialement proposée. 
+De manière très transparente, il est vrai que l'on ne peut pas être dans une dramaturgie. Je vous rejoins, M. le conseiller aux Etats Stark, ce n'est pas la fin de Pro Helvetia. Par contre, il ne faut pas non plus prendre ces montants pour quelque chose d'anecdotique. Si on les recontextualise en disant, par exemple, que les données que nous avons sur le budget total de Pro Helvetia pour les antennes à l'étranger - c'était aussi une des thématiques sensibles - sont de 36,2 millions de francs pour la période 2025 à 2028 et qu'on les réduit de 6,5 millions, cela correspond à une baisse de plus de 15 pour cent. On n'est pas dans la diminution de l'ordre de moins de 1 pour cent, ce qui concernerait uniquement la question de la compensation du pouvoir d'achat. Je vous[NB]rejoins[NB]donc[NB]quelque[NB]peu,[NB]mais je vous invite aussi à me rejoindre sur le fait que cela dépend à quoi l'on corrèle les montants. 
+De même, le Contrôle fédéral des finances (CDF) observe et contrôle régulièrement ce qu'il se passe chez Pro Helvetia. On constate que les coûts administratifs sont totalement dans la marge qui est sollicitée par rapport aux différentes normes en la matière. Je mentionne l'exemple que j'ai donné en commission: il est vrai que Pro Helvetia a une mission de rayonnement de la culture au sein de la Suisse entre les différentes communautés linguistiques, mais elle a aussi cette mission à l'extérieur. Si l'on prend l'exemple du Goethe-Institut en Allemagne, dont la mission pourrait être un peu comparable, on constate que, pour la diffusion de la culture allemande à l'étranger, le Goethe-Institut gère 151 instituts dans 98 pays, avec plus de 4300 collaboratrices et collaborateurs et un budget de 379 millions de francs. 
+Tout cela pour dire que Pro Helvetia ne nage pas dans l'argent et n'est pas dans une situation de confort incroyable. Au contraire, Pro Helvetia a pris des décisions de coupes qui ont, d'ailleurs, provoqué beaucoup de questionnements, et pas seulement au Tessin. J'ai vécu toutes les sollicitations par rapport à l'Italianità, par rapport au Palais Trevisan, par rapport à l'Institut suisse de Rome. On a trouvé des manières de dialoguer qui ont permis de diminuer les coupes pour l'Institut suisse de Rome. On est sur un accord de principe. Effectivement, tout le monde peut économiser, mais je trouve que la proposition que vous faites ou que le Conseil national a faite est disproportionnée par rapport aux effets. A la fin, ce seront les acteurs culturels qui ne bénéficieront pas de ces moyens. 
+J'ai les données par rapport à ces différents éléments: concernant le contrôle des finances, on dit que 86,8 pour cent de l'ensemble des fonds sont alloués à des projets culturels. La valeur ZEWO est fixée à 13 pour cent. C'est donc géré de manière correcte sur le plan administratif. Comme je l'ai dit en séance de commission, si l'on a des questionnements sur la gouvernance, on doit les poser, et je ne manquerai pas de les poser au conseil de fondation. 
+Vu ces différents éléments, je vous suis reconnaissante et vous remercie de rester à la proposition initiale, de suivre le Conseil fédéral et de ne pas suivre la proposition de votre minorité. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roth Franziska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bevor ich dann die Minderheitsanträge begründe, sage ich einfach noch zur Klarstellung: Dafür, dass die Zivis, die Zivildienstleistenden, in Einsätzen während Notlagen und Krisen, die der Gesellschaft dienen, reüssieren, gibt es Beispiele; sie wurden uns in der Kommission dargelegt. Ich erinnere an den Felssturz in Bristen 2017, und ich erinnere an Corona.
+Man darf meines Erachtens nicht sagen, dass die Zivildienstleistenden, die in Schulen, Spitälern und Heimen sind, nicht fähig wären, ihren Ei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bevor ich dann die Minderheitsanträge begründe, sage ich einfach noch zur Klarstellung: Dafür, dass die Zivis, die Zivildienstleistenden, in Einsätzen während Notlagen und Krisen, die der Gesellschaft dienen, reüssieren, gibt es Beispiele; sie wurden uns in der Kommission dargelegt. Ich erinnere an den Felssturz in Bristen 2017, und ich erinnere an Corona.
+Man darf meines Erachtens nicht sagen, dass die Zivildienstleistenden, die in Schulen, Spitälern und Heimen sind, nicht fähig wären, ihren Einsatz in Krisen und Notlagen zu leisten. Zudem gibt es im Kanton Graubünden jetzt ein Pilotprojekt, mit dem versucht wird, die Zusammenarbeit, die von der EFK als verbesserungswürdig dargestellt wird, zu verbessern - jedoch ohne Änderung des Gesetzes, das ist von der EFK so klar dargelegt worden. Aber die Zivildienstleistenden sind bis jetzt in Notlagen erfolgreich eingesetzt worden.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit diesem Antrag wird die Anzahl Zivis, die jährlich zu ordentlichen Zivildienstleistungen in einer Zivilschutzorganisation verpflichtet werden dürfen, plafoniert. Die Anreize für Kantone, ihre Zivilschutzbestände mit eigenen Mitteln zu regulieren, bevor sie auf Mittel des Bundes zurückgreifen, genügen nicht. Falls die Vorlage B um alle Massnahmen zur Alimentierung des Zivilschutzes ergänzt wird, die sinnvoll sind, wird der Soll-Bestand erreicht. Deshalb genügt hier als zusätzliche Sicherheit e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit diesem Antrag wird die Anzahl Zivis, die jährlich zu ordentlichen Zivildienstleistungen in einer Zivilschutzorganisation verpflichtet werden dürfen, plafoniert. Die Anreize für Kantone, ihre Zivilschutzbestände mit eigenen Mitteln zu regulieren, bevor sie auf Mittel des Bundes zurückgreifen, genügen nicht. Falls die Vorlage B um alle Massnahmen zur Alimentierung des Zivilschutzes ergänzt wird, die sinnvoll sind, wird der Soll-Bestand erreicht. Deshalb genügt hier als zusätzliche Sicherheit ein Maximum von 200 Zivis.
+Zudem ist der Ausgleich von Unterbeständen auf Ebene der Kantone mit Mitteln des Bundes nicht angebracht, denn bei Ereignissen, die einen oder mehrere Kantone betreffen, können und müssen die Zivilschutzorganisationen der Kantone einander unterstützen. Auf diese Weise kann der notwendige personelle Bedarf ohne Unterstützung des Bundes gedeckt werden. Die Eidgenössische Finanzkontrolle hat ein geringes Mass an interkantonaler Unterstützung festgestellt. Dieses Potenzial ist auszuschöpfen. Die Bestimmung in der Vorlage, wonach die Kantone eine beliebige Anzahl Zivis erhalten können, würde die Kantone auch dazu verleiten, einen überhöhten Soll-Bestand zu definieren. Gemäss Vorlage sind sie diesbezüglich nämlich völlig frei, denn es fehlen gemeinsame Kriterien zur Definition der Soll-Bestände.
+Ich bitte Sie, hier dem Minderheitsantrag zu folgen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit diesem Antrag wird die Abgabepflicht für Zivilschutzorganisationen in Kantonen mit einem Unterbestand und für Ausbildungszentren des Zivilschutzes beibehalten. Der Bundesrat begründet die vorgesehene Befreiung von Zivilschutzorganisationen in Kantonen mit einem Unterbestand und von Ausbildungszentren des Zivilschutzes von der Abgabepflicht damit, dass diese Zivildienstleistungen im öffentlichen Interesse lägen. Das steht so in der Botschaft auf Seite 32. Diese Begründung ist nicht nachvollzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit diesem Antrag wird die Abgabepflicht für Zivilschutzorganisationen in Kantonen mit einem Unterbestand und für Ausbildungszentren des Zivilschutzes beibehalten. Der Bundesrat begründet die vorgesehene Befreiung von Zivilschutzorganisationen in Kantonen mit einem Unterbestand und von Ausbildungszentren des Zivilschutzes von der Abgabepflicht damit, dass diese Zivildienstleistungen im öffentlichen Interesse lägen. Das steht so in der Botschaft auf Seite 32. Diese Begründung ist nicht nachvollziehbar, denn alle Zivildienstleistungen liegen im öffentlichen Interesse; das steht so in Artikel 2 Absatz 3 des Zivildienstgesetzes. In der Logik des Bundesrates müssten sonst also sämtliche Einsatzbetriebe des Zivildienstes von der Abgabe befreit werden.
+Die Abgabe der Einsatzbetriebe als Ausgleich für die erhaltene Arbeitskraft ist ein wesentliches Element zur Sicherstellung der Arbeitsmarktneutralität. Die EFK hat in ihrer Evaluation des Einsatzes von Dienstpflichtigen der Armee, des Zivilschutzes und des Zivildienstes während der Covid-19-Pandemie festgestellt, dass der Zivilschutz das Subsidiaritätsprinzip zu wenig eingehalten hat und dass finanzielle Fehlanreize bestehen, weil der Einsatz von Dienstpflichtigen kaum mit Kosten verbunden ist. Die EFK hat deshalb dem Bundesamt für Bevölkerungsschutz empfohlen, Massnahmen zur Durchsetzung des Subsidiaritätsprinzips bei künftigen Zivilschutzeinsätzen zu ergreifen. Es ist daher nicht nachvollziehbar, dass der Bundesrat nun das Gegenteil davon vorschlägt. Der Zivildienst ist ein Mittel der zivilen Sicherheitspolitik des Bundes, der Zivilschutz ein Mittel der zivilen Sicherheitspolitik der Kantone. Wenn der Bund den Kantonen Zivildienstpflichtige gratis zur Verfügung stellt, verstärkt er die Fehlanreize und verstösst gegen elementare Grundsätze der Subsidiarität und des Föderalismus. 
+Ich bitte Sie, hier meiner Minderheit zuzustimmen. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Motion verlangt, dass bei staatlichen Tätigkeiten und Abläufen innerhalb der Verwaltung ein Programm einzuleiten sei, welches zusammengefasst als Abbau der Bürokratie verstanden wird. Dabei soll sich der Bundesrat auf fünf vom Motionär beschriebene Bereiche konzentrieren, die nicht als Vorschläge bezeichnet werden. 
+Wenn ich einen dieser Bereiche nehme, den Bereich Bildung und Forschung, kennen wir das vorhin genannte Beispiel der Lehrpersonen. Sie äussern sich regelmässig unzufrieden, dass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Motion verlangt, dass bei staatlichen Tätigkeiten und Abläufen innerhalb der Verwaltung ein Programm einzuleiten sei, welches zusammengefasst als Abbau der Bürokratie verstanden wird. Dabei soll sich der Bundesrat auf fünf vom Motionär beschriebene Bereiche konzentrieren, die nicht als Vorschläge bezeichnet werden. 
+Wenn ich einen dieser Bereiche nehme, den Bereich Bildung und Forschung, kennen wir das vorhin genannte Beispiel der Lehrpersonen. Sie äussern sich regelmässig unzufrieden, dass für ihr eigentliches Kerngeschäft, das Unterrichten, immer weniger Zeit bleibt, weil sie Berichte auszufüllen haben sowie in Konferenzen, Reformgruppen und andere häufig als "unnötig" bezeichnete Arbeiten eingebunden sind. Als ehemaliger Rektor einer kaufmännischen Berufsfachschule und einer höheren Fachschule für Wirtschaft kann ich diesen Unmut zumindest teilweise verstehen.
+Der Bundesrat teilt die Stossrichtung, unnötige administrative Aufgaben oder Regulierungen in Schulen, Spitälern oder bei der Polizei abzubauen, dies, obschon der Begriff "unnötig" wohl nicht von allen Akteuren gleich ausgelegt wird. Der Bundesrat stellt aber auch fest, dass sich das Anliegen des Motionärs kaum durch den Bund verwirklichen lässt. Die in der Motion genannten Sachgebiete beschlagen zu einem erheblichen Teil kantonale Kompetenzen. Die [PAGE 843] Handlungsmöglichkeiten des Bundes sind in diesen Bereichen begrenzt. Der Antrag des Bundesrates auf Ablehnung der Motion erfolgt also nicht etwa aus mangelndem Mut, wie der Motionär bei der Behandlung im Erstrat gesagt hat, sondern primär wegen der Wahrung der Eigenständigkeit der Kantone. 
+Was den Zuständigkeitsbereich des Bundes angeht, so hat der Bundesrat bereits heute die Pflicht, die Aufgaben des Bundes und ihre Erfüllung sowie die Organisation der Bundesverwaltung regelmässig auf ihre Notwendigkeit und Übereinstimmung mit den Zielen zu überprüfen, die sich aus der Verfassung und dem Gesetz ergeben. Das ist in Artikel 5 des Regierungs- und Verwaltungsorganisationsgesetzes auch so geregelt. In Artikel 3 des erwähnten Gesetzes - er regelt die Grundsätze der Regierungs- und Verwaltungstätigkeit und richtet sich explizit an den Bundesrat und die Bundesverwaltung - wird zudem verlangt, dass nach den Grundsätzen der Zweckmässigkeit und Wirtschaftlichkeit gehandelt wird.
+Diese Pflichten, die der Bundesrat hat, werden in der Praxis auf unterschiedliche Weise umgesetzt. So verfügen viele Verwaltungseinheiten über interne Revisionsstellen, teilweise mit Spezialisierung auf die Durchführung von Wirkungsanalysen. Und da gibt es verschiedene Beispiele: Ein praktisches Beispiel für eine solche Wirkungsanalyse zur Vollzugsoptimierung stellt die Evaluation des Medizinalberufegesetzes dar. Ziel dieser Evaluation ist es, allfälliges Optimierungspotenzial sowohl in den gesetzlichen Vorgaben als auch in deren Vollzug zu erkennen.
+Wie Herr Ständerat Schwander erwähnt hat, soll auch innerhalb der Verwaltung die Digitalisierung zu einer Vereinfachung der Geschäftsabläufe führen. Vor nicht allzu langer Zeit musste für die Einreichung eines Bundesratsgeschäfts ein Formular von Hand ausgefüllt werden. Das Formular wurde dann vom jeweiligen Generalsekretariat via Kurier der Bundeskanzlei übermittelt. Diese hat dann selber wieder ein Formular ausgefüllt, welches anschliessend via Kurier wieder allen Departementen zugestellt wurde, wo man dann wieder von vorne begonnen hat. Heute werden diese Daten strukturiert erhoben und automatisch nicht nur den Departementen, sondern auch den Parlamentsdiensten übermittelt, wo sie automatisch in deren Systeme aufgenommen werden. Solche Fortschritte in der Digitalisierung dienen dazu - davon bin ich überzeugt und auch der Bundesrat ist es -, auch Leerläufe, Bürokratie abzubauen.
+Sofern die Motion auch die Koordination zwischen Bund und Kantonen erfasst, wie das in der vorberatenden Kommission des Ständerates ausgeführt wurde, ist daran zu erinnern, dass die Aufgabenentflechtung zwischen Bund und Kantonen als Legislaturziel aufgenommen worden ist. Im Juni ist das Mandat mit den Eckwerten für dieses Projekt lanciert worden. Dieses Projekt sieht eine umfassende und ergebnisoffene Überprüfung dieser Aufgabenteilung in 21 Aufgabengebieten vor. Die meisten der von der Motion genannten Bereiche sind davon betroffen.
+Ich erwähne zum Schluss noch, dass auch die Tätigkeit der Eidgenössischen Finanzkontrolle sowie der parlamentarischen Oberaufsichtsorgane laufend einen Beitrag leistet, die Aufgabenerfüllung in der Bundesverwaltung effizienter zu gestalten. 
+Der Bundesrat beantragt daher aus den dargelegten Gründen die Ablehnung der Motion, also erstens aufgrund der Zuständigkeit der Kantone und zweitens aufgrund der laufenden Umsetzung in der Bundesverwaltung, gerade im Rahmen der Digitalisierung.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vous prie de continuer à suivre la proposition initiale, la proposition du Conseil fédéral. Le Conseil aux Etats et la majorité de votre commission mentionnent qu'il est important de ne pas réduire les moyens de la fondation Pro Helvetia, respectivement de maintenir la somme initialement proposée. Je précise et j'indique, par rapport aux différentes interventions, que le Contrôle fédéral des finances (CDF) observe et contrôle régulièrement les activités en fonction du mandat de Pro Helvetia. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je vous prie de continuer à suivre la proposition initiale, la proposition du Conseil fédéral. Le Conseil aux Etats et la majorité de votre commission mentionnent qu'il est important de ne pas réduire les moyens de la fondation Pro Helvetia, respectivement de maintenir la somme initialement proposée. Je précise et j'indique, par rapport aux différentes interventions, que le Contrôle fédéral des finances (CDF) observe et contrôle régulièrement les activités en fonction du mandat de Pro Helvetia. On constate que les coûts administratifs sont totalement dans la marge prise en considération dans les différentes normes en la matière. Le rapport annuel démontre que la fondation utilise ses fonds de manière efficiente: 86,8 pour cent de l'ensemble des fonds sont alloués à des projets culturels. La valeur ZEWO est fixée à 13 pour cent par le Conseil fédéral, nous sommes donc tout à fait dans cette marge, et cela a été mentionné par différentes personnes à la tribune.
+L'aide qui est versée concerne directement les acteurs culturels, soit dans le cadre du rayonnement de la culture au sein de la Confédération, soit par rapport à la diversité et à la richesse de nos régions linguistiques, mais également pour tout ce qui concerne la culture populaire et la création. Cela a été dit: si on soutient des artistes suisses en Suisse pour diffuser leur création à l'étranger, cela permet aussi à ces artistes de travailler, car le marché de notre pays s'avère, au vu des quatre langues nationales, parfois trop modeste.
+Pro Helvetia a donc une mission très claire de rayonnement au sein de la communauté en Suisse, mais aussi à l'étranger. Et je me suis permis de faire une comparaison au niveau d'une stratégie culturelle d'un pays voisin. Ainsi, si on prend l'exemple du Goethe-Institut en Allemagne, dont la mission pourrait être un peu comparable, on constate que, pour la diffusion de la culture allemande à l'étranger, le Goethe-Institut gère 151 instituts dans 98 pays, avec plus de 4300 collaboratrices et collaborateurs et un budget de 379 millions de francs.
+Comparaison n'est pas raison, mais la situation actuelle de Pro Helvetia n'est pas confortable ou excessivement confortable; elle correspond aux objectifs et au mandat que lui fixe la Confédération.
+Je voudrais encore indiquer de manière très pragmatique différents éléments qui ont été pris en considération et discutés depuis le début du traitement de ce message. Durant l'été, différentes difficultés ou appréciations sont apparues au sujet des économies et des coupes budgétaires proposées par Pro Helvetia, en particulier pour l'Institut Suisse de Rome et pour le Palazzo Trevisan.
+Nous avons pu observer, indépendamment de l'indépendance financière et institutionnelle de Pro Helvetia, à quel point ces questions qui concernent "l'italianità" étaient également des questions institutionnelles, identitaires, qui concernent non seulement le Tessin, mais la Suisse et la représentation de la Suisse en Italie. Nous nous sommes engagés, sur la base d'un mandat donnant suite à une proposition déposée par la conseillère nationale Sauter, à clarifier ces questions d'ici la fin de l'année et à préciser les options qui auront été retenues.
+Je peux d'ores et déjà vous informer que, pour l'Institut Suisse de Rome, un accord de principe a été trouvé, avec une approche positive et favorable de l'institut, et que, pour le Palazzo Trevisan, un groupe de travail réunissant le DFAE, mon département et l'office qui s'occupe de tout ce qui concerne les locations et les propriétés de la Confédération, travaille à une solution concertée.
+Au vu de ce qui précède, et par rapport à la proposition de la minorité Freymond, qui est extrêmement importante et significative pour le budget - je pense notamment aux antennes de Pro Helvetia -, je vous remercie de suivre la majorité de votre commission et la proposition initiale du Conseil fédéral. Et je peux assurer M. le conseiller national Freymond que je l'ai écouté avec beaucoup d'attention.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Conseil fédéral partage l'appréciation de Mme la conseillère nationale Gysi sur le fait qu'il est important d'avoir un accès équitable aux prestations complémentaires (PC), parce que c'est un droit et, également, que le devoir d'information est important. Par contre, comme cela a été dit, il n'y a pas d'automatisme à l'octroi des PC et les personnes qui sont concernées doivent donc déposer une demande. Une identification proactive des ayants droit potentiels des PC, comme le demande l'auteure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Conseil fédéral partage l'appréciation de Mme la conseillère nationale Gysi sur le fait qu'il est important d'avoir un accès équitable aux prestations complémentaires (PC), parce que c'est un droit et, également, que le devoir d'information est important. Par contre, comme cela a été dit, il n'y a pas d'automatisme à l'octroi des PC et les personnes qui sont concernées doivent donc déposer une demande. Une identification proactive des ayants droit potentiels des PC, comme le demande l'auteure de la motion, paraît difficilement réalisable, notamment en raison de la complexité des conditions personnelles et des conditions économiques ouvrant droit à ces prestations, la complexité des biographies de vie, mais aussi de la complexité pour différencier des données selon les régions ou cantons.
+Seules les données fiscales cantonales permettraient de connaître la situation économique des bénéficiaires de rentes. Toutefois, l'exploitation et le traitement de ces données relèvent de la compétence des cantons. Selon le [PAGE 1735] rapport d'évaluation de 2006 du Contrôle fédéral des finances (CDF), les cantons remplissent leur devoir d'information auprès des personnes concernées avec le développement des canaux d'information, et il semble peu probable que la situation se soit péjorée depuis. Toutefois, il est exact que certains cantons agissent de manière plus proactive que d'autres et, dans le cadre de l'exercice de sa surveillance, le Conseil fédéral s'est engagé à lancer une nouvelle étude pour faire un état des lieux sur les procédures cantonales, afin de les optimiser, de les "rendre plus accessibles", et ce, de la manière la plus aisée possible.
+Les causes du non-recours aux prestations complémentaires seront - et c'est important également - abordées, parce que - nous avons eu l'occasion d'en parler longuement et régulièrement dans le cadre du débat sur la 13e rente AVS - il n'est pas correct que des personnes renoncent à solliciter des PC parce qu'elles en auraient honte ou parce qu'elles ne sauraient pas comment obtenir lesdites prestations.
+L'étude est en cours et les résultats devraient être publiés à l'automne 2025. Une analyse du non-recours aux prestations est également opérée dans le cadre du monitoring de la pauvreté, dont le premier rapport est aussi attendu l'année prochaine, mais d'ici la fin de l'année. Compte tenu de ces différents éléments et des études menées, le Conseil fédéral propose de rejeter la motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compenswiss ist finanziell und organisatorisch selbstständig, und die Wahl der Depotbank gehört zu ihren Kompetenzen. In Erfüllung ihrer Aufgabe, die ordnungsgemässe Verwaltung der AHV/IV/EO-Ausgleichsfonds zu gewährleisten, arbeitet Compenswiss mit den bestmöglichen Partnern zusammen.
+Das Depotbankmandat wurde nach einer Ausschreibung, an der sich in- und ausländische Unternehmen beteiligten, an State Street Bank International, München, vergeben. Sie führt das Mandat über ihre von der Finma bea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compenswiss ist finanziell und organisatorisch selbstständig, und die Wahl der Depotbank gehört zu ihren Kompetenzen. In Erfüllung ihrer Aufgabe, die ordnungsgemässe Verwaltung der AHV/IV/EO-Ausgleichsfonds zu gewährleisten, arbeitet Compenswiss mit den bestmöglichen Partnern zusammen.
+Das Depotbankmandat wurde nach einer Ausschreibung, an der sich in- und ausländische Unternehmen beteiligten, an State Street Bank International, München, vergeben. Sie führt das Mandat über ihre von der Finma beaufsichtigte Niederlassung in Zürich aus. Die Neuausschreibung des Mandats war von der Eidgenössischen Finanzkontrolle empfohlen worden, da Compenswiss seit zwanzig Jahren mit der UBS zusammenarbeitet. Das Ziel der Ausschreibung bestand darin, die Depotbank zu finden, die den Bedürfnissen von Compenswiss und der Ausgleichsfonds am besten gerecht werden kann. Dabei wurde auch der Preis der Leistungen berücksichtigt. 
+Eine Depotbank nimmt rein administrative Aufgaben wahr, die kein Risiko für das Vermögen darstellen. Sie ist daher nicht mit einem Vermögensverwalter zu verwechseln. [PAGE 1742] 
+[VS]
+[VS]
+[VS]
+[VS]
+[VS]
+[VS]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regazzi Fabio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich danke dem Bundesrat für die Stellungnahme zu meiner Interpellation. Ich bin damit aber nicht zufrieden, daher möchte ich den Bundesrat um eine Klarstellung bitten. Es hat nämlich den Anschein, als ob der Kostenrahmen nur scheinbar eingehalten wird. Die Stellungnahme vermittelt den Eindruck, dass das Projekt inhaltlich und finanziell im Rahmen liegt, nur weil bisher nicht das gesamte Budget aufgewendet wurde. Der Verweis darauf, dass 71,8 Prozent der veranlagten Kosten verwendet wurden, sagt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich danke dem Bundesrat für die Stellungnahme zu meiner Interpellation. Ich bin damit aber nicht zufrieden, daher möchte ich den Bundesrat um eine Klarstellung bitten. Es hat nämlich den Anschein, als ob der Kostenrahmen nur scheinbar eingehalten wird. Die Stellungnahme vermittelt den Eindruck, dass das Projekt inhaltlich und finanziell im Rahmen liegt, nur weil bisher nicht das gesamte Budget aufgewendet wurde. Der Verweis darauf, dass 71,8 Prozent der veranlagten Kosten verwendet wurden, sagt nichts über den tatsächlichen Projektstatus bzw. den Entwicklungsstand aus.
+Die Stellungnahme, in der keine klare Angabe dazu gemacht wird, was für ein Budget für die verbleibenden Entwicklungsaufgaben vorgesehen und noch vorhanden ist, legt die Vermutung nahe, dass die tatsächlichen Projektkosten und der Fortschritt nicht mitgeteilt werden sollen. Wie alle wissen, führen die letzten 10 bis 15 Prozent eines Projektes zu einem riesigen Sprung bei den Kosten. Deshalb bitte ich den Bundesrat, erneut zu prüfen, wie viel Prozent der geplanten Funktionalitäten des Zielvereinbarungs- und Monitoring-Tools (ZVM-Tool) mit den bisher aufgewendeten 71,8 Prozent des Budgets tatsächlich und final umgesetzt worden sind und wie sichergestellt wird, dass die verbleibenden Funktionen innerhalb des Restbudgets realisiert werden.
+Zudem habe ich den Gesamtblick über das BFE hinaus auf das BAFU erweitert. Ich musste dabei feststellen, dass kürzlich eine freihändige Vergabe in der Höhe von rund 3 Millionen Franken für die Core-Software gesprochen wurde, mit der Begründung, es brauche dringend ein Update. Zur Information: Diese Core-Software wurde erst 2018 vom selben Entwickler erstellt. Mit diesem Betrag könnte man in der heutigen Zeit eine neue Software entwickeln und auf die alte[NB]Core-Software, die zudem weniger gekostet hat, verzichten. Die Software Peyk wurde von mehreren Seiten kritisiert, weil sie zu teuer sei und keine effektive Wirkung erzeuge. Darauf sollten das UVEK und die Eidgenössische Finanzkontrolle den Finger legen, das könnte sicher einen [PAGE 908] Sparbeitrag bei den Bundesfinanzen leisten. Unbefriedigend ist auch die Antwort zur freihändigen Vergabe von Los 3, das die[NB]Supportsoftware[NB]betrifft.[NB]Es[NB]ist nicht nachvollziehbar, warum dieser Auftrag ohne Ausschreibung an die Entwicklerfirma vergeben wurde. Das BFE sollte die freihändige Vergabe von Los 3 an die Entwicklerfirma ohne Ausschreibung erklären, sodass dies keinen Fehlanreiz für die Softwareentwicklungsfirma bietet.
+Die weiteren Antworten sind auch ausweichend. So seien zum Beispiel erst 160 Zielvereinbarungen im System registriert worden. Der Supportaufwand beträgt aber nur 51[NB]660 Franken. Bei 160 Zielvereinbarungen beträgt der Aufwand 320 Franken pro Zielvereinbarung. Die Kosten würden explodieren, wenn die angegebene Zahl von 10[NB]000 Zielvereinbarungen erreicht würde. Daher wird versucht, diese Zahl zu vereinfachen, indem man festhält, dass die Nutzer nur positives Feedback zum Tool gegeben hätten. Es gab keine Antwort zur Frage der Qualität, ausser dass sehr[NB]gute[NB]Rückmeldungen[NB]bezüglich Verwendung des Tools vorliegen. Irgendetwas stimmt in der Logik der Antworten nicht.
+Ich fasse zusammen: In der Interpellation habe ich Fragen gestellt, die vom Bundesrat entweder nicht oder nur ausweichend beantwortet werden. Es gibt daher nur eine Konsequenz: Das ZVM-Tool müsste sofort gestoppt und die Projektleitung müsste wieder den beiden Organisationen Act und Enaw übergeben werden. Ich bin davon überzeugt, dass nur so die Kosten für die Unternehmen und die Steuerzahler tief gehalten werden können. Dies wäre sicher auch ein Beitrag zur Sparübung des Bundesrates.
+Ich danke für die Aufmerksamkeit und bitte den Bundesrat um eine Klarstellung, in der Hoffnung, dass die entsprechenden Schlüsse gezogen werden. Ich werde auf jeden Fall am Ball bleiben.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diese parlamentarische Initiative nimmt ein altes Anliegen auf. Es war in den vergangenen 25 Jahren wiederholt Gegenstand parlamentarischer Vorstösse und Anträge. Die zu beratende parlamentarische Initiative zielt darauf ab, mittels einer Revision des Radio- und Fernsehgesetzes die SRG direkt dem Wirkungsbereich der Eidgenössischen Finanzkontrolle zu unterstellen. 
+Im Rahmen der letzten Teilrevision des RTVG wurde 2014 etwa im Ständerat ein entsprechender Antrag abgelehnt, weil eine Prüfung der </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diese parlamentarische Initiative nimmt ein altes Anliegen auf. Es war in den vergangenen 25 Jahren wiederholt Gegenstand parlamentarischer Vorstösse und Anträge. Die zu beratende parlamentarische Initiative zielt darauf ab, mittels einer Revision des Radio- und Fernsehgesetzes die SRG direkt dem Wirkungsbereich der Eidgenössischen Finanzkontrolle zu unterstellen. 
+Im Rahmen der letzten Teilrevision des RTVG wurde 2014 etwa im Ständerat ein entsprechender Antrag abgelehnt, weil eine Prüfung der SRG durch die EFK die verfassungsmässig garantierte Programmunabhängigkeit gefährden könnte. Aus demselben Grunde wurde die Motion[NB]Aeschi Thomas 15.3558, "Schweizerische Radio- und Fernsehgesellschaft. Mehr Transparenz und Beaufsichtigung durch[NB]die[NB]Eidgenössische[NB]Finanzkontrolle", vom Nationalrat abgelehnt. 
+Die KVF-S hat sich im Rahmen einer Anhörung mit den Argumenten der Mehrheit des Nationalrates auseinandergesetzt - dieser stimmte dem Anliegen mit 111 zu 77 Stimmen bei 5 Enthaltungen zu - und liess sich vom Chef der EFK und einer Vertretung der SRG über die Konsequenzen einer Ausdehnung des Wirkungsbereichs der EFK auf die SRG informieren. 
+Gemäss Artikel 36 RTVG übt das UVEK die Finanzaufsicht über die SRG aus. Unter den in Artikel 36 Absatz 5 [PAGE 910] genannten Voraussetzungen kann das UVEK die EFK mit der Finanzprüfung beauftragen. Die Anwendung des Finanzkontrollgesetzes ist aber ausdrücklich ausgeschlossen. Der Grund dafür liegt in der Wahrung der Unabhängigkeit von Radio und Fernsehen sowie der Programmautonomie. Damit wird - das war die Ratio Legis dieser aufsichtsrechtlichen Lex specialis - verhindert, dass das Parlament über den Weg der Finanzaufsicht Einfluss auf Radio- und Fernsehprogramme nehmen kann, insbesondere durch die Berichterstattung an die Finanzdelegation. 
+Eine Minderheit der KVF-S stützt die Überlegungen des Nationalrates und will den Wirkungsbereich der EFK auf die SRG ausweiten. Für sie gibt es keinen Grund für eine Ausnahme von der Finanzaufsicht durch die EFK. Die Prüfbefugnis seitens der EFK würde die Position der SRG als öffentliches Medienhaus sogar stärken, wird gesagt, und nicht schwächen. Der Vertreter der Minderheit wird die Argumente, die für die parlamentarische Initiative sprechen, noch ausführlich erläutern. 
+Für eine Mehrheit der Kommission ist allerdings der Mehrwert einer Unterstellung der SRG unter die Finanzaufsicht der EFK nicht ersichtlich, dies aus folgenden Gründen: 
+Die Aufsicht über die SRG ist bereits heute sehr umfassend geregelt, und zwar auf vier Stufen: über die interne Revision, die SRG-interne Prozesse und Projekte nach anerkannten Standards überprüft; über die externe Revision, die eine jährliche Finanzprüfung macht; über das BAKOM und[NB]das[NB]UVEK,[NB]die[NB]den wirtschaftlichen und zweckmässigen Mitteleinsatz der SRG prüfen. Bei Bedarf, ich habe es bereits erwähnt, kann das UVEK zudem bereits heute die EFK mit einer Überprüfung der SRG beauftragen. 
+Die SRG und die von ihr beherrschten Unternehmen führen ihre Bücher nach den Vorschriften, die für Aktiengesellschaften gelten, und nach den von der Schweizer Börse anerkannten Standards der Rechnungslegung. Die aktienrechtliche Revisionsstelle prüft jährlich die Rechnung, bestehend aus Bilanz, Erfolgsrechnung, Geldflussrechnung und Anhang. Der Bericht der Revisionsstelle zur Konzernrechnung wird jährlich publiziert. Es findet also bereits heute auf der Grundlage des Aktienrechts eine professionelle Finanzprüfung statt. 
+Mit der internen Revision, der aktienrechtlichen Revision, der Finanzaufsicht durch das UVEK sowie den Wirtschaftlichkeitsprüfungen wird eine umfassende Finanzaufsicht über die SRG ausgeübt. Die Publikation der Resultate aus der Wirtschaftlichkeitsprüfung wie auch die jährlich publizierten umfassenden Geschäftsberichte der SRG sorgen für die geforderte Transparenz. Das UVEK prüft den Finanzhaushalt der SRG. Es hat heute, wie bereits angedeutet, die Möglichkeit, risikobasierte Prüfungen im Sinne des vorliegenden parlamentarischen Vorstosses durchzuführen. 
+Schliesslich - das ist, glaube ich, das stärkste Argument der Kommissionsmehrheit gegen eine Ausdehnung des Wirkungsbereichs der EFK - birgt eine Kontrolle durch die EFK Risiken für die Unabhängigkeit der SRG. Ich zweifle nicht daran, dass die EFK in der Lage wäre, dies in einer unparteiischen, unabhängigen Art und Weise abzuwickeln. Für die SRG ist allerdings die institutionelle und redaktionelle Unabhängigkeit entscheidend. Sie ist Voraussetzung dafür, dass das öffentliche Medienhaus die staatspolitische Verantwortung, die es als öffentliches Medienhaus hat, überhaupt wahrnehmen kann. Die Budgetstruktur ist derart, dass sich die Ausgaben zu einem grossen Teil, zu 90 Prozent, direkt oder indirekt auf das Programm auswirken, beispielsweise auf die Infrastruktur der Studios, aber auch auf die Art der Programme. Wenn "Wirtschaftlichkeitsprüfung" bedeuten würde, überprüfen zu können, ob es zweckmässig sei, dezentral Fernsehen zu produzieren - was vielleicht betriebswirtschaftlich nicht optimal, aber aus politischen Überlegungen angezeigt ist -, so hätte eine solche Einflussnahme auf die Standorte und das Programm direkte Auswirkungen auf die Produktion von Radio- und Fernsehprogrammen. Bei einer Kontrolle durch die EFK, das wurde uns durch die Vertreter der SRG so bestätigt, wäre zu befürchten, dass die Öffentlichkeit dies als eine indirekte politische Einflussnahme verstehen könnte. 
+Das Parlament und der Bundesrat teilten bisher die Sorge, dass der Eindruck von zu viel Nähe zwischen Staat und Medien entstehen könne. Der Vorwurf oder das Vorurteil stammt just aus jenen Kreisen, die kritisieren, die SRG sei zu nahe beim Staat; das würde mit der Forderung, dass eine staatliche Kontrollstelle, die EFK, ein Auge auf die SRG werfe, noch unterstrichen. Die Distanz der Medien zum Staat beurteilt die Mehrheit Ihrer Kommission als derart wichtig, dass sie es ablehnt, den Wirkungsbereich der EFK auf die SRG auszudehnen. 
+Ich halte im Übrigen den Ansatz, dass das BAKOM die Aufsicht über die SRG wahrnimmt, eigentlich für zielführender, zumal dies letztmals im April 2022 von der EFK beurteilt worden ist. Bei dieser Gelegenheit hat die EFK Empfehlungen abgegeben, die durchaus plausibel sind. Den Bericht kann man im Netz herunterladen und lesen. Das BAKOM hat gute Anhaltspunkte dafür bekommen, wie es seine Prüfungsaufsicht über die SRG substanziell noch verstärken könnte.
+Letztendlich geht es darum, ob man der Unternehmung, der Institution SRG den unternehmerischen Raum lässt, den sie benötigt, um überhaupt unabhängig vom Staat und von der Politik Fernseh- und Radiosendungen zu produzieren. Jeder Entscheid, der in der Unternehmung getroffen wird, hat auch eine Auswirkung auf das Programm. Letztendlich geht es beim öffentlichen Medienhaus um den Service public. Ich habe es angedeutet: Es können sich bei einer Wirtschaftlichkeitsüberprüfung durchaus Erkenntnisse über Situationen ergeben, die betriebswirtschaftlich angezweifelt werden könnten, die aber unter dem Gesichtspunkt des Service public, der in einem kleinen Land ein gleichwertiges Angebot in drei Sprachen garantieren muss, gerechtfertigt sein können.
+Ich glaube, die SRG ist sich bewusst, dass sie im Fokus der Bevölkerung ist. Es werden von der Bevölkerung, von Unternehmungen und von Privaten erhebliche Mittel aus Gebühren zur Verfügung gestellt, und die Bevölkerung schaut zu Recht darauf, wie die SRG mit diesen Mitteln umgeht. Entsprechend sind in diesem Zusammenhang in den nächsten Monaten ja auch politische Prozesse zu erwarten. 
+Ich komme zum Schluss. Es wurde mir gesagt, mit der Unterstellung der SRG unter die Prüf- und Aufsichtspflicht durch die EFK wolle man die SRG das Fürchten lehren. Ich meine, das ist ein schlechtes Motiv, weil es einer freiheitlichen und auf Meinungsvielfalt ausgerichteten Publizistik unnötigerweise ein Korsett anlegt, das genau das Gegenteil bewirken könnte, nämlich eine staatlich oder besser politisch versuchte Einflussnahme und ungebührliche Nähe zum öffentlichen Medienhaus.
+Deshalb möchte ich Sie namens der Mehrheit bitten, der parlamentarischen Initiative keine Folge zu geben.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gmür-Schönenberger Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich bitte Sie, die Kommissionsmehrheit zu unterstützen. Ich erlaube mir, noch auf zwei, drei Punkte von Kollege Burkart einzugehen.
+Zu den Gerichten: Gerichte sind staatliche Behörden und nicht private Vereine, wie es zum Beispiel die SRG ist. Das ist ein grosser Unterschied, weshalb es sich eben auch rechtfertigt, den Staat und die SRG möglichst weit auseinanderhalten zu wollen, damit eben die verfassungsmässige Unabhängigkeit nicht geritzt wird.
+In unserer Kommission war wirklich nicht klar, w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich bitte Sie, die Kommissionsmehrheit zu unterstützen. Ich erlaube mir, noch auf zwei, drei Punkte von Kollege Burkart einzugehen.
+Zu den Gerichten: Gerichte sind staatliche Behörden und nicht private Vereine, wie es zum Beispiel die SRG ist. Das ist ein grosser Unterschied, weshalb es sich eben auch rechtfertigt, den Staat und die SRG möglichst weit auseinanderhalten zu wollen, damit eben die verfassungsmässige Unabhängigkeit nicht geritzt wird.
+In unserer Kommission war wirklich nicht klar, warum eine weitere Revision einen Mehrwert bringen sollte. Da bin ich schon erstaunt, dass ausgerechnet die Leute, die sich permanent gegen die Bürokratie wenden, jetzt eine zusätzliche Prüfung wollen.
+Noch zur Frage, warum die SRG und die Privaten quasi ungleich behandelt werden: Die Privaten sind der Subventionsgesetzgebung unterstellt, nicht wie der Bund; das ist ein weiterer sehr grosser Unterschied.
+Die letzte Prüfung der SRG durch die EFK fand 2005 statt, vor bald zwanzig Jahren. Ich möchte beliebt machen, dass das UVEK jetzt eine weitere Prüfung in Auftrag gibt. Dagegen habe ich überhaupt nichts einzuwenden. Ich glaube [PAGE 912] auch, es könnte der SRG durchaus helfen, dass man sieht, dass sie mit den Gebührengeldern sinnvoll umgeht. Es würde den Gegnern den Wind aus den Segeln nehmen. Ganz klar braucht es aber keine jährliche Prüfung. Das wäre massiv übertrieben, kontraproduktiv und würde natürlich nur zusätzliche Bürokratie fördern.
+Ich bitte Sie, wie gesagt, die Kommissionsmehrheit zu unterstützen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Häberli-Koller Brigitte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am Vormittag des 19.[NB]August 2024 konnte ich an der Sitzung der KVF-S nicht teilnehmen, weshalb mein Name nicht bei der Minderheit erscheint. Ich unterstütze diese aber. 
+Ja, eigentlich ist es doch selbstverständlich, dass bei Unternehmen, die einen politisch bestimmten Leistungsauftrag haben und bei denen es um Steuer- und Gebührengelder geht, sichergestellt und genau geprüft werden muss, dass die Mittel sorgfältig, effizient und korrekt eingesetzt werden und dass die Verwendung der Gelder au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Am Vormittag des 19.[NB]August 2024 konnte ich an der Sitzung der KVF-S nicht teilnehmen, weshalb mein Name nicht bei der Minderheit erscheint. Ich unterstütze diese aber. 
+Ja, eigentlich ist es doch selbstverständlich, dass bei Unternehmen, die einen politisch bestimmten Leistungsauftrag haben und bei denen es um Steuer- und Gebührengelder geht, sichergestellt und genau geprüft werden muss, dass die Mittel sorgfältig, effizient und korrekt eingesetzt werden und dass die Verwendung der Gelder auch kontrolliert wird. In keiner Art und Weise soll diese parlamentarische Initiative die SRG das Fürchten lehren. Nein, im Gegenteil: Ich bin überzeugt, dass die Prüfung durch die EFK gerade für die SRG eine Stärkung bedeuten wird und dass so viele kritische Stimmen verstummen oder zumindest leiser werden. 
+Wenn hier Bedenken betreffend die Unabhängigkeit geäussert werden, dann ist - der Minderheitssprecher hat es bereits ausgeführt - nochmals darauf hinzuweisen, dass auch alle Bundesgerichte der EFK unterstehen, dass die Unabhängigkeit allseits gelebt wird und nicht bestritten ist. In nächster Zeit werden wir intensiv über die Mittel und den Leistungsauftrag der SRG diskutieren und darüber befinden. Mit einer Prüfung und Begleitung durch die EFK kann die SRG wohl besser darlegen, dass sie ihre Gelder wirtschaftlich und auftragsgemäss einsetzt. Diese parlamentarische Initiative stärkt somit die SRG und stellt ihre Unabhängigkeit in keiner Art und Weise infrage.
+Ich bitte Sie aus diesen Gründen, die Minderheit zu unterstützen und der parlamentarischen Initiative Folge zu geben.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkart Thierry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich erlaube mir, zu versuchen, Sie davon zu überzeugen, dass es falsch wäre, diese von Nationalrat Gerhard Pfister übernommene parlamentarische Initiative zum heutigen Zeitpunkt abzulehnen. Der Mehrheitssprecher hat Ihnen ausgeführt, worum es grundsätzlich geht. Es ist etwas sehr Einfaches: Es geht nämlich um die Frage, wie wir mit Unternehmungen mit einem politisch bestimmten Leistungsauftrag und mit der Möglichkeit, Steuer- und Abgabengelder zu verwenden, umgehen. Die Frage im Zusammenhang mit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich erlaube mir, zu versuchen, Sie davon zu überzeugen, dass es falsch wäre, diese von Nationalrat Gerhard Pfister übernommene parlamentarische Initiative zum heutigen Zeitpunkt abzulehnen. Der Mehrheitssprecher hat Ihnen ausgeführt, worum es grundsätzlich geht. Es ist etwas sehr Einfaches: Es geht nämlich um die Frage, wie wir mit Unternehmungen mit einem politisch bestimmten Leistungsauftrag und mit der Möglichkeit, Steuer- und Abgabengelder zu verwenden, umgehen. Die Frage im Zusammenhang mit diesen Geldern ist, wie die Kontrolle aussehen muss, damit diese Gelder sorgfältig, korrekt und effizient sowie nach den Regeln der Good Governance eingesetzt werden. Das ist eine ganz simple Frage. 
+Alle hier drin würden selbstverständlich sagen, es sei klar: Unternehmungen, die dieses Privileg haben, müssen einerseits in Bezug auf die Verwendung der Mittel und andererseits in Bezug auf die Erfüllung des Leistungsauftrags beaufsichtigt werden. Gesteigert wird dieser Umstand natürlich gerade bei der SRG noch dadurch, dass die SRG das grosse und einmalige Privileg hat, mit Sanktionierung des Bundes öffentliche Gelder einzuziehen bzw. Abgaben direkt bei den Bürgerinnen und Bürgern und auch bei Unternehmungen zu erheben. Das ist unbestritten. Und es ist auch klar, wie das jetzt gemacht wird, nämlich durch das BAKOM. 
+Dabei stellen sich zwei Fragen. Erstens: Der Mehrheitssprecher sagt, es brauche die Unabhängigkeit der SRG [PAGE 911] gegenüber der Finanzkontrolle, gegenüber dem Staat, man wolle keine zu staatsnahe Aufsicht. Wenn man bedenkt, dass das BAKOM weiss Gott nicht gerade staatsfern ist, dann bricht in meinen Augen das Hauptargument des Mehrheitssprechers komplett in sich zusammen. Das BAKOM ist noch viel mehr in das Konzept des Bundes als eine auf Unabhängigkeit bedachte Finanzkontrolle integriert. Das BAKOM ist staatlich, die Distanz zwischen Medien und Staat ist demnach durch das BAKOM nicht garantiert, und der unternehmerische Raum ist selbstverständlich genauso viel oder genauso wenig von dieser Aufsicht betroffen, wie wenn die EFK sie machen würde. 
+Ich verweise zudem darauf, dass wir mit der Lösung mit dem BAKOM noch ein zusätzliches Problem haben. Das[NB]BAKOM ist nämlich ein Regulator. Das BAKOM gibt der Medienwelt in diesem Land und damit natürlich direkt auch der SRG Regeln vor. Wir haben hier eine Doppelrolle, nämlich Regulator und Aufsicht, was meines Erachtens nie im Sinne der Good Governance sein kann. Alleine aus diesem Grund[NB]müsste[NB]man[NB]eigentlich sagen, wir sollten diese von Nationalrat Pfister übernommene parlamentarische Initiative annehmen. 
+Der zweite Punkt in diesem Zusammenhang ist die Frage der Kompetenz. Hat denn das BAKOM die Kompetenz, die entsprechende Aufsicht wirklich zielführend ausüben zu können? Das BAKOM hat sehr viele Kompetenzen, das steht ausser Zweifel, aber wahrscheinlich eben nicht die Kompetenz, die Finanzkontrolle so ausüben zu können wie die EFK, die ja jeden Tag nichts anderes tut. Hier verweise ich auf eine Aussage von Nationalrat Pfister im Nationalrat. Er hat nämlich auf einen Bericht vom Juli 2022 hingewiesen, gemäss dem das BAKOM ein Gesamtbild der Finanzlage der SRG erstellt - ein Gesamtbild der Finanzlage der SRG, nicht weniger und nicht mehr. Sagen Sie mir: Ist das wirklich die notwendige Tiefe einer Finanzaufsicht, wenn es darum geht, die direkt eingezogenen Gelder von Bürgerinnen und Bürgern und Unternehmen zu kontrollieren? Ich meine: Nein, das ist es nicht. Deshalb würden wir gut daran tun, diese Aufsicht an einem anderen Ort anzusiedeln, und hierfür ist die professionellste Institution die EFK.
+Nun wird gesagt, es gebe ja auch noch die Revisionsstelle. Darauf ist schnell geantwortet: Die Revisionsstelle hat einen anderen Auftrag. Die Revisionsstelle überprüft nicht die Leistungserbringung gemäss Leistungsauftrag des Bundes und entsprechend die zielgerichtete Einsetzung der Mittel zur Erfüllung dieses Leistungsauftrags. Ihre Überprüfung ist einzig und alleine auf das ausgerichtet, was die[NB]Revisionsstellen[NB]eben[NB]tun[NB]müssen:[NB]Diese überprüfen lediglich den Finanzabschluss auf Gesetzes- und Regelkonformität.
+Ein zweites Hauptargument des Mehrheitssprechers war ja die Unabhängigkeit. Da frage ich Sie: Ist es denn eine Gefährdung der Unabhängigkeit, wenn überprüft wird, ob die Mittel richtig eingesetzt werden? Wenn Sie Ja sagen, dann bitte ich Sie, schnellstmöglich einen Vorstoss einzureichen mit dem Ziel, dass die EFK die Überprüfung des Bundesgerichtes nicht mehr vornehmen darf. Wo ist denn die Unabhängigkeit in unserem Land wichtiger als bei unseren Gerichten? Wenn Sie sagen würden, diese Überprüfung sei eine Beeinflussung der Unabhängigkeit, dann müssten wir dort sofort handeln. Die Erfahrung hat aber gezeigt, dass die Unabhängigkeit der Gerichte durch die Kontrolle der EFK nicht beeinträchtigt ist. Wenn Sie dieser Auffassung zustimmen, dann können Sie ja nicht sagen, bei der SRG sei es dann eben anders. Das ist doch wirklich auch ein Argument, das in sich zusammenbricht.
+Ich bin der Auffassung, dass die SRG politisch in den nächsten Wochen, Monaten und Jahren im Zentrum der Debatten in unserem Land sein wird. Ich bin überzeugt davon, dass die SRG selber ein Interesse daran hat, darauf verweisen zu können, dass sie die Mittel, die sie bei Bürgerinnen und Bürgern und bei Unternehmen eingetrieben hat, auch zielgerichtet einsetzt. Das kann sie dann tun, wenn sie darauf verweisen kann, dass ihre Finanzen eben auch in der notwendigen Tiefe, mit der notwendigen Kompetenz überprüft werden. Also muss es im Interesse der SRG sein, wenn wir hier dieser parlamentarischen Initiative Folge geben; davon bin ich überzeugt.
+Nun kann man sagen: Das ist natürlich etwas mühsam für die SRG. Ja, aber Aufsichtsbehörden haben ja die Eigenheit, etwas mühsam zu sein, zum Beispiel die Finma gegenüber den Banken. Dort würden Sie wahrscheinlich nicht sagen, dass die Banken eine möglichst nicht mühsame Aufsicht haben sollen.
+Die letzte Frage, die ich mir in die Runde zu werfen erlaube, ist folgende: Was erwidern Sie auf die Tatsache, dass die SRG in Bezug auf die Mittelverwendung nicht der Überprüfung der EFK untersteht, wohl aber die privaten Medienhäuser, die die genau gleichen Gebührengelder aus genau demselben Topf verwenden? Das ist eine Ungleichbehandlung, die sich nicht rechtfertigen lässt. Das ist eine Ungleichbehandlung, die bislang in keinem Argument der Gegner dieser parlamentarischen Initiative aufgenommen wurde, eine Ungleichbehandlung, von der ich bisher nichts gehört habe.
+In diesem Sinne und aus all diesen Gründen, davon bin ich überzeugt, sollten wir der parlamentarischen Initiative Romano, übernommen von Gerhard Pfister, Folge geben, also der Mehrheit des Nationalrates folgen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hegglin Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich empfehle Ihnen, der Minderheit zu folgen, und zwar aus folgenden Gründen: 
+Die SRG wird mit Gebührengeldern finanziert. Diese Gebührengelder sind obligatorisch geschuldet. Wir hier im Parlament definieren die Höhe der Abgabe, und wir definieren auch den Kreis der Abgabepflichtigen. Auf diesem Weg kommen 1,2 Milliarden Franken Gebührengelder zusammen, die dann, wie gesagt wurde, von dieser öffentlich-rechtlichen Gesellschaft oder von diesem Verein verwendet werden. Wie die Steuern sind auch d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich empfehle Ihnen, der Minderheit zu folgen, und zwar aus folgenden Gründen: 
+Die SRG wird mit Gebührengeldern finanziert. Diese Gebührengelder sind obligatorisch geschuldet. Wir hier im Parlament definieren die Höhe der Abgabe, und wir definieren auch den Kreis der Abgabepflichtigen. Auf diesem Weg kommen 1,2 Milliarden Franken Gebührengelder zusammen, die dann, wie gesagt wurde, von dieser öffentlich-rechtlichen Gesellschaft oder von diesem Verein verwendet werden. Wie die Steuern sind auch die Gebühren von Gesetzes wegen geschuldet. Ich meine, dass der Verwendung dieser Gelder deshalb eine besondere Aufmerksamkeit zu schenken ist. Die Verwendung soll daher von der EFK geprüft werden und dadurch auch der Oberaufsicht durch das Parlament unterstehen. Die Prüfberichte der EFK werden ja an die Finanzdelegation, an die Finanzkommissionen oder auch an die Geschäftsprüfungskommissionen weitergeleitet. 
+Ich kann nicht ganz nachvollziehen, weshalb sich die Kommissionsmehrheit und die SRG dagegen wehren, dass die SRG dieser Prüfung unterzogen werden soll. Hat die SRG etwas zu verstecken? Ich meine, das hat sie eigentlich nicht; das wurde zuvor auch mehrfach erwähnt. Es kann die Stellung der SRG auch stärken. Die EFK verfolgt nämlich gemäss Artikel 1 des Finanzkontrollgesetzes das Ziel, das Parlament und den Bundesrat in ihrer Aufsichtstätigkeit zu unterstützen. Denn wir als Aufsichtsbehörde können die Institutionen nicht selber prüfen. Die Finanzkommissionen machen das für uns vor Ort und erstatten jeweils Bericht. Aufgrund dieser Berichte können die Kommissionen erkennen, ob Handlungsbedarf besteht oder nicht. Ohne solche Prüftätigkeiten können wir gar nicht urteilen. 
+Nach Artikel 26 des Parlamentsgesetzes übt die Bundesversammlung die Oberaufsicht nach folgenden Kriterien aus: Rechtmässigkeit, Ordnungsmässigkeit, Zweckmässigkeit, Wirksamkeit und Wirtschaftlichkeit. Aber uns ist auch klar, dass wir und auch die EFK aufgrund solcher Berichte keine Entscheide aufheben können. Die EFK kann sie auch nicht ändern. Sie kann höchstens Empfehlungen abgeben. Wenn ich sage, dass sie Empfehlungen abgibt, dann heisst das auch, dass sie sich bewusst ist, dass sie nicht direkt eingreifen kann, dass sie unabhängig sein muss und dass sie Instanzen und Institutionen in dem Sinne berücksichtigen muss, dass sie nur administrativ prüft. Das macht sie zum Beispiel auch bei den Bundesgerichten, bei Stiftungen oder bei der Finma. Auch dort hat sie einen Prüfauftrag. Sie führt bei vielen solchen Institutionen Prüfungen durch. Mir wäre noch nie aufgefallen, dass sie in die Kompetenz der entsprechenden Institutionen eingegriffen hätte. 
+Ich denke, auch bei der SRG würde sie sicher nicht in das Programm, in den Informationsauftrag eingreifen. Hingegen könnte sie dann besser prüfen, ob zum Beispiel bei Materialbeschaffungen oder bei Bauprojekten korrekt vorgegangen wurde, ob man die Submissionsverfahren richtig durchgeführt hat, ob man wirtschaftlich günstige Lösungen getroffen hat oder ob vielleicht im Bereich der Cybersicherheit ergänzend gewisse Prüfungen vorgenommen werden sollten. Sie könnte der SRG dann auch entsprechende Empfehlungen abgeben. Ich meine eher, dass eine Prüfung durch die EFK angesichts der emotional geführten Diskussionen um die Höhe der SRG-Gebühren als vertrauensbildende Massnahme dienen könnte - so, wie ich auch bei anderen Institutionen davon überzeugt bin, dass eine Prüfung entsprechende Auswirkungen hat.
+Kollege Burkart hat es gesagt: Die privaten Radio- und Fernsehgesellschaften sind dieser Prüfung unterstellt. Sie bekommen rund 80 Millionen Franken pro Jahr und werden geprüft. Die SRG erhält demgegenüber über eine Milliarde Franken und wird nicht geprüft. Ich kann das, ehrlich gesagt, nicht nachvollziehen. Hier braucht es, glaube ich, eine Gleichstellung. 
+Abschliessend noch dies: Es wird gesagt, es würde veradministriert, es würde verkompliziert. Ich meine, das ist nicht so. Die EFK ist sich gewohnt, bei anderen Institutionen, die ebenfalls ein engmaschiges Aufsichtsnetz haben - so zum Beispiel bei der Post, bei den SBB oder bei Swissmedic -, entsprechend vorzugehen, indem sie Prüfungen, die schon gemacht worden sind, nicht nochmals durchführt, sondern vielmehr Lücken schliesst und damit eben einen veritablen Mehrwert generiert. 
+Es wurde auch gesagt, dass es schon Prüfmöglichkeiten gebe, beispielsweise die interne Revision. Darauf ist zu antworten, dass das halt ein Instrument des Verwaltungsrates ist: Die interne Revision prüft nur, was der Verwaltungsrat zu prüfen entscheidet. Das ist natürlich nicht vergleichbar mit Prüfungen der EFK, die zu hundert Prozent unabhängig ist.
+Und ganz zum Schluss noch dieser Hinweis: Es wurde gesagt, dass das UVEK und das BAKOM die EFK mit der Durchführung von Prüfungshandlungen beauftragen könnten. Hierzu sei erwähnt, dass das UVEK die EFK letztmals vor zwanzig Jahren mit einer Prüfung beauftragt hat. Ein kürzerer Zeitabstand zwischen den Prüfungen wäre, denke ich, sicher auch hier angebracht gewesen. 
+In diesem Sinne empfehle ich Ihnen, der Minderheit der Kommission zu folgen und die SRG von dieser Ausnahme auszunehmen, um sie auch der Prüfung durch die EFK und letztlich unserer Oberaufsicht zu unterstellen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germann Hannes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich kann an Originalität jetzt nicht viel mehr beitragen. Es wurden doch einige Voten gehalten, auch für die Minderheit. Ich habe mich zu einem Votum entschlossen, da die Minderheit in der Kommission doch relativ schwach war. Es war ja nur eine Zweierminderheit, respektive es sind drei, die unterzeichnet haben. 
+Ich habe die Ausführungen des Kommissionssprechers gut mitverfolgt. Er hat einige Punkte aufgeführt, die wirklich eine Überlegung wert sind. Er sagte, die Unabhängigkeit sei gefährdet; d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich kann an Originalität jetzt nicht viel mehr beitragen. Es wurden doch einige Voten gehalten, auch für die Minderheit. Ich habe mich zu einem Votum entschlossen, da die Minderheit in der Kommission doch relativ schwach war. Es war ja nur eine Zweierminderheit, respektive es sind drei, die unterzeichnet haben. 
+Ich habe die Ausführungen des Kommissionssprechers gut mitverfolgt. Er hat einige Punkte aufgeführt, die wirklich eine Überlegung wert sind. Er sagte, die Unabhängigkeit sei gefährdet; das darf natürlich nicht sein. Die Bürokratie wurde erwähnt. Ja, vielleicht gibt es einen zusätzlichen Kontrollaufwand respektive eine weitere Kontrollinstanz; das erleichtert die Sache sicher nicht, aber ich denke, alle, die Kontrollen durchführen, werden sich auch entsprechend aufeinander abstimmen - das erwarten wir. Wenn wir schon dabei sind, möchte ich apropos Bürokratie sagen: Wenn ich sehe, dass die SRG eine dreizehnköpfige Geschäftsleitung hat, dann frage ich mich, ob man vielleicht nicht doch bei der Bürokratie ansetzen sollte. 
+Die verfassungsmässig garantierte Programmautonomie darf selbstverständlich nicht angetastet werden; das steht für mich ausser Diskussion. Aber das heisst ja nicht, dass man deswegen nichts kontrollieren darf. Die zentrale und die dezentrale Bundesverwaltung werden durch die EFK kontrolliert, ebenso die Parlamentsdienste, die Empfängerinnen von Subventionen, zum Beispiel im Strassenbau oder auch bei der Landwirtschaft, die Trägerinnen von vom Bund übertragenen öffentlichen Aufgaben, zum Beispiel der Schweizerische Nationalfonds; auch dieser darf deswegen selbstverständlich nicht in seiner Entscheidungsautonomie eingeschränkt werden. Weiter kontrolliert die EFK Unternehmen mit einer Mehrheitsbeteiligung des Bundes, die Bundesgerichte, die selbstverständlich auch unabhängig sein müssen, die Finma und die Eidgenössische Revisionsaufsichtsbehörde, aber dies natürlich nur, soweit die Aufsicht durch die EFK der Ausübung der Oberaufsicht durch die Bundesversammlung dient. Ausgenommen ist die Schweizerische Nationalbank; sie hat gewiss einen Sonderstatus. Teilweise ausgenommen ist auch die Suva, mit Ausnahme des Bereichs Militärversicherung.
+Um auf die SRG zurückzukommen: Die EFK kontrolliert auch die Träger und Trägerinnen von vom Bund übertragenen öffentlichen Aufgaben. Die SRG hat ja einen entsprechenden Informationsauftrag, insofern ist das durchaus vergleichbar. Also begehen wir keine Sünde, wenn wir der EFK diese zusätzliche Aufgabe übergeben. 
+Die EFK macht einen guten Job, auch wenn er für uns nicht immer angenehm ist. Manchmal müssen wir uns auch einen Spiegel vorhalten lassen. Aber ich denke, genau das braucht es, da das die Institutionen auch weiterbringt. Deshalb erwarte ich eigentlich eher, dass die Stellung der SRG mit der neuen Kontrolle durch die EFK nicht geschwächt, sondern tendenziell gestärkt wird. Denn eine gute Aufsicht - so wird auch immer die Aufgabe der Finma im Finanzbereich begründet - stärkt letztlich die beaufsichtigten Player. So müsste es eigentlich sein. Das verspreche ich mir auch von dieser Ausweitung des Mandates der EFK. 
+In diesem Sinne bitte ich Sie, der Minderheit Burkart zu folgen, ohne dafür allzu grosse Emotionen zu haben. Für mich ist das einfach ein praktischer Schritt. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich möchte einige Argumente, die seitens der Minderheit vorgebracht wurden, aufnehmen und darauf replizieren.
+Von Kollege Germann wurde zu Recht gesagt, dass drei Institutionen vom Wirkungsbereich der EFK gesetzlich ausgenommen sind: die Nationalbank, die Suva und die SRG, alle drei mit unterschiedlichen Begründungen. Die SRG kann sich auf die Programmautonomie abstützen. Letztendlich geht es um die Medienfreiheit. Diese ist in der Bundesverfassung verankert und wurde ins RTVG übernommen. Deshal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich möchte einige Argumente, die seitens der Minderheit vorgebracht wurden, aufnehmen und darauf replizieren.
+Von Kollege Germann wurde zu Recht gesagt, dass drei Institutionen vom Wirkungsbereich der EFK gesetzlich ausgenommen sind: die Nationalbank, die Suva und die SRG, alle drei mit unterschiedlichen Begründungen. Die SRG kann sich auf die Programmautonomie abstützen. Letztendlich geht es um die Medienfreiheit. Diese ist in der Bundesverfassung verankert und wurde ins RTVG übernommen. Deshalb profitiert die SRG von dieser Lex specialis.
+Es wurde gesagt, private Medienunternehmen würden nicht über dieses Privileg verfügen. Ich habe mich gestern erkundigt, ob je ein privates Medienunternehmen durch die EFK geprüft worden sei. Man hat das verneint und mir gesagt, das sei noch nie gemacht worden. Es würden unterschiedliche Rechtsauffassungen darüber bestehen, ob die EFK das überhaupt machen dürfte. Ich würde mich auch wundern, wenn sich private Medienhäuser und -unternehmer nicht wehren würden, wenn die EFK in ihre Bücher schaute, auch mit dem Argument der Nichtverpolitisierung der Medienarbeit. 
+Ebenfalls wurde gesagt, es müssen obligatorisch Gebühren bezahlt werden, ergo bestünde ein Anspruch auf staatliche [PAGE 914] Kontrolle. Ich habe aufzuzeigen versucht, dass diese Kontrolle schon über das BAKOM und das UVEK gewährleistet ist. Ich frage Sie, da Sie auch obligatorische Krankenkassenprämien bezahlen: Hätte die EFK bei den Leistungserbringern bzw. den Versicherern dieselbe Kompetenz, die Bücher und die Wirtschaftlichkeit zu prüfen? Mein Freund und Kollege Peter Hegglin sagt mir, das sei Aufgabe des Bundesamtes für Gesundheit und der Finma, aber nicht der EFK. Für meinen Strombezug bezahle ich obligatorisch Netzgebühren. Diese Gebühren, die insgesamt übrigens auch mehr als eine Milliarde Franken einbringen, werden in der Folge für die Förderung erneuerbarer Energien verwendet. Ich habe noch nie davon gehört, dass die EFK bei einem Elektrizitätswerk oder einem Stromunternehmen prüfen könnte, was mit den Netzabgaben am Ende konkret geschieht.
+Das Problem ist nicht, dass die EFK ihren Job nicht kompetent und unabhängig machen könnte; da habe ich keine Zweifel. Wenn wir von bedrohter Unabhängigkeit sprechen, so geht es um Folgendes: Das Problem besteht darin, dass für das in Vereinsform organisierte öffentliche Medienhaus nur schon der Anschein von zu grosser Staatsnähe entstehen könnte, wenn es von der staatlichen Kontrollbehörde überprüft werden könnte. Ich gehe davon aus, dass die SRG nichts zu befürchten hätte; die Befürchtung liegt mehr darin begründet, dass sich die Politik die Wirtschaftlichkeits- und Zweckmässigkeitsprüfung zunutze machen könnte, um mittels Vorstössen die Programmgestaltung zu verpolitisieren. Der Anschein einer zu grossen Nähe zwischen Politik und Medien - das ist die Befürchtung. Deshalb hat sich die Mehrheit davon überzeugen lassen, dass die heutige Situation gut ist und dass mit der Erweiterung des Geltungsbereichs der EFK kein Mehrwert geschaffen wird. 
+Ich kann Sie nur nochmals bitten, die Mehrheit zu unterstützen, obwohl ich auch spüre, dass die Versuchung gross ist, die SRG das Fürchten zu lehren, indem man ihr die EFK ins Haus stellt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Forderung dieser parlamentarischen Initiative ist klar: Die SRG muss auch der Aufsicht durch die EFK unterstellt werden. Damit wird im Grunde etwas Selbstverständliches verlangt: Bei Unternehmen, die einen politisch bestimmten Leistungsauftrag haben und Steuer- oder Gebührengelder erhalten, muss die Politik sicherstellen, dass der Umgang mit den Geldern sorgfältig, korrekt und effizient sowie nach den Regeln der Good Governance erfolgt. Das hat mit Bürokratie nichts zu tun, Kollegin Gmür.
+Un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Forderung dieser parlamentarischen Initiative ist klar: Die SRG muss auch der Aufsicht durch die EFK unterstellt werden. Damit wird im Grunde etwas Selbstverständliches verlangt: Bei Unternehmen, die einen politisch bestimmten Leistungsauftrag haben und Steuer- oder Gebührengelder erhalten, muss die Politik sicherstellen, dass der Umgang mit den Geldern sorgfältig, korrekt und effizient sowie nach den Regeln der Good Governance erfolgt. Das hat mit Bürokratie nichts zu tun, Kollegin Gmür.
+Unsere KVF hat in der ersten Phase den Ball an den Nationalrat zurückgespielt; eine Mehrheit will der parlamentarischen Initiative keine Folge geben. Ich schliesse mich hingegen der Minderheit an, die Zustimmung zum Beschluss des Nationalrates beantragt. Sie erachtet es aufgrund des Umfangs der jährlich an die SRG ausbezahlten Gebührengelder als angezeigt, sie der Kontrolle durch die EFK zu unterstellen. 
+Ich erlaube mir, Ihnen vier Gründe für die Unterstützung dieses Anliegens zu nennen und aufzuzeigen, dass sowohl politischer als auch gesetzgeberischer Handlungsbedarf gegeben ist. 
+1.[NB]Entgegen den Behauptungen des Bundesrates und des Berichterstatters der Kommission werden die Programmautonomie und die Unabhängigkeit der SRG durch die EFK in keiner Weise infrage gestellt oder gefährdet. Die EFK prüft - das wurde erwähnt - gestützt auf das Finanzkontrollgesetz zum Beispiel das Bundesgericht. So, wie die EFK keinen Einfluss auf die Richter und die richterlichen Entscheide hat, so wären auch die Autonomie und die journalistische Unabhängigkeit der SRG nicht gefährdet. Es geht um die Überprüfung der bestimmungsgemässen und wirtschaftlichen Verwendung der Gelder, namentlich um das Risikomanagement, die Prozesse, die Beschaffungen und die Investitionen in Immobilien und Technologien, um über eine Milliarde Schweizerfranken, welche in jeder Ecke der Schweiz durch eine Zwangsabgabe bei Bürgern und Firmen einkassiert werden. 
+2.[NB]Entgegen den Behauptungen des Bundesrates ist es staatspolitisch fragwürdig, dass heute das UVEK und das BAKOM - wobei das BAKOM zum UVEK gehört - den Auftrag zur Kontrolle der SRG haben; sie sind Teil des Systems. Dazu hat sich auch die EFK selbst in einem Bericht im April 2022 geäussert. Die Lücken sind gross und die Konstellationen fragwürdig.
+3.[NB]Man sagt immer wieder, dass man die EFK schon heute beauftragen könnte, bei der SRG Kontrollen durchzuführen. Das stimmt aber leider nicht zu hundert Prozent. Das sind Ad-hoc-Mandate, auf die das Finanzkontrollgesetz nicht [PAGE 913] anwendbar ist. Die letzte Prüfung der SRG durch die EFK fand 2005 statt, ist also fast zwanzig Jahre her. Heute ist eine solche Kontrolle eine potestative und begrenzte Möglichkeit. Ich glaube, dass die Rahmenbedingungen und die Entwicklungen, die stattgefunden haben, es rechtfertigen, die SRG Artikel 8 FKG zu unterstellen. 
+4.[NB]Schliesslich sind wir heute in der Situation, dass die SRG aus politischen Gründen von der Aufsicht durch die EFK ausgenommen ist, während private Radio- und Fernsehveranstalter, die einen geringen Teil der Gebühren erhalten, der Kontrolle durch die EFK unterliegen. Das kann man objektiv absolut nicht vertreten. Die finanzielle Quelle ist dieselbe. Niemand bezweifelt, dass die SRG alles daransetzt, mit den Gebühren das Beste zu machen, aber es müssen alle gleich lange Spiesse haben. Eine Sonderbehandlung der SRG ist politisch nicht erklärbar, vor allem nicht unter den heutigen politischen Rahmenbedingungen und im internationalen Vergleich.
+Ce que vise cette initiative est en faveur de la Société suisse de radiodiffusion et télévision (SSR). L'exclusion actuelle du Contrôle fédéral des finances (CDF) est anachronique du point de vue de la gouvernance. La délégation complète au DETEC et à l'Office fédéral de la communication est très fragile. Les télévisions et radios qui reçoivent un pourcentage minimum de la redevance sont contrôlées, ce qui n'est pas le cas de la SSR. C'est clairement une incohérence. Le CDF travaille selon les principes constitutionnels et, sur cette base, comme il le fait avec le Tribunal fédéral, il ne met pas en cause l'autonomie et la liberté journalistique. Le CDF doit aussi pouvoir contrôler la SSR, à laquelle vont 1,2 milliard de francs provenant des citoyens et des entreprises. Il en va aujourd'hui de l'intérêt de l'entreprise elle-même.
+Aus all diesen Gründen bitte ich Sie, die Minderheit Burkart zu unterstützen und der parlamentarischen Initiative Romano, übernommen von Nationalrat Pfister, Folge zu geben.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20240926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meier Andreas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivé par mon voisin valaisan, je commencerai à parler en français en cette journée du multilinguisme. La mise en oeuvre de la stratégie en matière d'échanges et de mobilité, notamment la création et le développement de l'agence nationale Movetia, est une réussite, même si les objectifs que la Confédération et les cantons se sont fixés dans ce domaine ne sont pas encore pleinement atteints. Les dernières années ont été difficiles s'agissant des travaux dans le domaine des échanges et de la mobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivé par mon voisin valaisan, je commencerai à parler en français en cette journée du multilinguisme. La mise en oeuvre de la stratégie en matière d'échanges et de mobilité, notamment la création et le développement de l'agence nationale Movetia, est une réussite, même si les objectifs que la Confédération et les cantons se sont fixés dans ce domaine ne sont pas encore pleinement atteints. Les dernières années ont été difficiles s'agissant des travaux dans le domaine des échanges et de la mobilité. Heureusement, on peut désormais enregistrer une augmentation des activités d'échange. Malgré les circonstances, l'agence spécialisée a réussi à se faire connaître et à s'imposer, dès ses premières années, comme une force incontournable dans ce domaine.
+Seit dem Jahr 2016 besteht die Schweizerische Stiftung für die Förderung von Austausch und Mobilität als Trägerin von Movetia. Die Rechtsform hat mit Blick auf den Zweck und die Qualität der Arbeit zu keinen Beanstandungen geführt. Seit fünf Jahren liegt nun ein Kontrollbericht zur Governance durch die Eidgenössische Finanzkontrolle (EFK) vor. Die fehlende personelle Trennung zwischen der Amtsführung von SBFI, also dem Staatssekretariat für Bildung, Forschung und Innovation, BAK, dem Bundesamt für Kultur, BSV, dem Bundesamt für Sozialversicherungen, und dem Stiftungsrat sei mit guter Governance-Praxis nicht vereinbar. Die EFK fordert eine Anpassung der Organisation und der Führungsstruktur im Rahmen eines institutionellen Veränderungsprozesses. 
+Auch nach Kenntnisnahme der Begründung für eine neue Trägerschaft ist nicht zuletzt mit Blick auf die begrenzten Ressourcen aller Beteiligten schwer nachvollziehbar, weshalb eine Weiterführung als privatrechtliche Stiftung, die von Bund und Kantonen getragen wird, unter aktuellen Corporate-Governance-Grundsätzen nicht möglich sei. Heute fordern die drei Bundesstellen SBFI, BAK und BSV von Movetia drei separate Leistungsvereinbarungen. Damit stellt sich jede Bundesstelle eine eigene Leistungsvereinbarung aus. Die drei Bundesämter sitzen auch gleich selber zusammen mit der Erziehungsdirektorenkonferenz im Stiftungsrat. Solange sich die Ämter einig sind, kann das funktionieren. Aber was, wenn nicht? Wer hat letztlich die Entscheidungsbefugnis? Mit der Änderung würde der Bundesrat strategisch führen und nicht mehr drei Bundesämter. 
+Für die Bildung sind zum grossen Teil die Kantone verantwortlich. Die neue Form mit drei Sitzen - heute ein Sitz - bezieht die Kantone besser ein. In Form einer öffentlich-rechtlichen Anstalt würden die Vorgaben der EU erfüllt. Movetia würde die nötigen Akkreditierungsgrundsätze für Erasmus plus erfüllen. 
+Die Vernehmlassung fand bei fast allen Zustimmung für die Umwandlung. Die Mitte unterstützt zwecks Vermeidung von Interessenkonflikten die Überführung von Movetia in eine öffentlich-rechtliche Anstalt des Bundes. Dabei fordern wir eine Kostenneutralität und eine angemessene Vertretung der Wirtschaft im Verwaltungsrat. 
+Zusammenfassend: Die Umwandlung der nationalen Agentur in eine öffentlich-rechtliche Anstalt des Bundes bringt die nötige rechtliche Stärkung zugunsten des Zusammenhalts der mehrsprachigen und multikulturellen Schweiz und ihrer Verbindung zum Ausland. Wichtig ist zudem, dass die Kantone in die Vorbereitung der vierjährigen strategischen Ziele einbezogen werden und sie im Verwaltungsrat mitwirken. Der Entwurf respektiert die gute Kompetenzverteilung und die ausgewogene Vertretung zwischen Bund und Kantonen. 
+Wir empfehlen Eintreten auf die Vorlage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hug Roman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die nationale Agentur Movetia setzt die Fördermassnahmen im Bereich Austausch und Mobilität in der Bildung um. Sie wird gegenwärtig als privatrechtliche Stiftung von Bund und Kantonen getragen und stellt ein wichtiges Bildungsangebot innerhalb der kantonalen Hoheit sicher. Die Eidgenössische Finanzkontrolle nahm 2019 eine Governance-Prüfung vor, um Aspekte der Führung und Steuerung der Agentur zu prüfen. Dabei ging es insbesondere um die Vereinbarkeit oder Unvereinbarkeit der Personalunion zwisc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die nationale Agentur Movetia setzt die Fördermassnahmen im Bereich Austausch und Mobilität in der Bildung um. Sie wird gegenwärtig als privatrechtliche Stiftung von Bund und Kantonen getragen und stellt ein wichtiges Bildungsangebot innerhalb der kantonalen Hoheit sicher. Die Eidgenössische Finanzkontrolle nahm 2019 eine Governance-Prüfung vor, um Aspekte der Führung und Steuerung der Agentur zu prüfen. Dabei ging es insbesondere um die Vereinbarkeit oder Unvereinbarkeit der Personalunion zwischen Amtsleitung und Stiftungsrat. Um den Corporate-Governance-Grundsätzen des Bundes zu[NB]entsprechen,[NB]soll[NB]dieses[NB]funktionierende Angebot nun neu in eine öffentlich-rechtliche Anstalt des Bundes überführt werden.
+Nach Abschluss der Kommissionsarbeit ist aus Sicht der SVP-Fraktion auf die Vorlage aus drei Gründen nicht einzutreten.
+1.[NB]Wenn man die Liste der öffentlich-rechtlichen Anstalten des Bundes anschaut, fällt auf, dass es sich ausschliesslich um Anstalten handelt, die Bundesaufgaben wahrnehmen. Hier haben wir hingegen eine relevante kantonale Aufgabe bzw. eine Verbundaufgabe zwischen Bund und Kantonen vor uns. Das war auch der Grund, wieso man bei der Schaffung der Stiftung Movetia eine spezifische Lösung gesucht hat und sich nicht in irgendein Schema der Public Corporate Governance pressen lassen wollte.
+2.[NB]Wir würden die Gewichte deutlich in Richtung Bund verschieben. Das ist bei diesem Thema konzeptionell wie strategisch falsch. Die Einbindung und Nähe zu den schulischen Akteuren und die Option, auch weitere Dritte einzubinden, sind und bleiben essenziell. Die Kantone wären mit der Vorlage nur noch Konsultationspartner bei den Zielen und könnten, wie bereits erwähnt, drei Mitglieder für den Verwaltungsrat vorschlagen. Das alles ist angesichts der Bedeutung der kantonalen Schulhoheit aus unserer Sicht zu wenig. Dies waren wohl auch die Hauptgründe für den Ständerat, in der Frühjahrssession grossmehrheitlich nicht auf die Vorlage einzutreten. [PAGE 1915] 
+3.[NB]Das von der Eidgenössischen Finanzkontrolle monierte Problem ist, wenn überhaupt, ein kleines Problem. Es handelt sich um sogenannte Dienstleistungen mit Monopolcharakter, hauptsächlich durch Bundesbeiträge finanziert. Wo sollen hier nun effektiv massgebliche Rollenkonflikte auftreten? Konkret sei an das angebliche Problem erinnert, dass es eine Personalunion zwischen Amtsleitungen und Mitgliedern des Stiftungsrates gibt. Mit Verlaub, das ist nicht wirklich weltbewegend. Man könnte dieses Delegationsproblem einfach mit einer Änderung der Delegation korrigieren. Hierfür braucht es keine grundlegend neue Struktur. Effektiv heikel wäre es, wenn es zahlreiche Destinatäre von Bundesmitteln gäbe, die in einer gewissen Konkurrenz zueinander stünden. Das ist hier aber offensichtlich nicht der Fall.
+Ich bitte Sie deshalb, selbst auferlegte Bedenken nicht über föderale Grundsätze zu stellen und auf die Vorlage nicht einzutreten.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balmer Bettina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movetia unterstützt als nationale Agentur die Förderung von Austausch und Mobilität im Bildungssystem in der Schweiz, in Europa und weltweit. Die Agentur ist in allen Bildungsbereichen von der Primar- bis zur Tertiärstufe sowie in der Erwachsenenbildung und im ausserschulischen Bereich aktiv. Der grundsätzliche Auftrag und die Inhalte von Movetia sind eigentlich unumstritten: Austausch und Mobilität in der Bildung sind wichtig und helfen mit, damit die Schweiz in der Bildungslandschaft weiterhin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movetia unterstützt als nationale Agentur die Förderung von Austausch und Mobilität im Bildungssystem in der Schweiz, in Europa und weltweit. Die Agentur ist in allen Bildungsbereichen von der Primar- bis zur Tertiärstufe sowie in der Erwachsenenbildung und im ausserschulischen Bereich aktiv. Der grundsätzliche Auftrag und die Inhalte von Movetia sind eigentlich unumstritten: Austausch und Mobilität in der Bildung sind wichtig und helfen mit, damit die Schweiz in der Bildungslandschaft weiterhin an der Spitze bleibt.
+Bei der Behandlung des vorliegenden Geschäfts - das haben wir nun mehrheitlich gehört - geht es um die Organisationsform von Movetia: Soll die Agentur eine privatrechtliche Stiftung bleiben oder, wie es der Bundesrat vorschlägt, in eine öffentlich-rechtliche Anstalt umgewandelt werden?
+Aus einer freisinnig-liberalen Sicht gefallen privatrechtlich organisierte Strukturen grundsätzlich besser. Der Staat soll nur dort subsidiär seine Rolle ausfüllen, wo es Private nicht richten. Beim Movetiagesetz ist dies aber nicht die Kernfrage, die sich stellt. Die Agentur ist heute bereits ein staatliches Konstrukt: Bund und Kantone setzen seit 2017 gemeinsam Fördermassnahmen des Bundes um. Auch die [PAGE 1916] Finanzierungsmechanismen sollen nicht verändert werden. Der Bund soll den Betrieb von Movetia weiterhin vollumfänglich finanzieren und die Fördermittel für die Bundesaufgaben zur Verfügung stellen. Die Kantone sollen weiterhin ausschliesslich ihre eigenen Strukturen und Aufgaben bezahlen.
+Es soll also alles so belassen werden, wie es ist. Damit würden bei einer Umwandlung in eine öffentlich-rechtliche Anstalt einfach die strategisch-politische Aufsicht und die Oberaufsicht des Parlamentes verbessert. Die Governance wäre neu mit den bereits heute staatlich durchgeführten Aufgaben stringent. Heute liegt keine Situation vor, die man mit guten Corporate-Governance-Grundsätzen des Bundes in Einklang bringen könnte. Auch wenn die bisherige Organisationsform gut funktioniert hat, so besteht doch ein Reputationsrisiko für den Bund, das die Eidgenössische Finanzkontrolle klar als solches benannt hat und das man nicht kleinreden sollte.
+Selbstverständlich muss den Kantonen auch im Falle einer Umwandlung in eine öffentlich-rechtliche Anstalt ein genügend grosser Spielraum gewährt werden. Sie sollen bei der strategischen Steuerung, bei der Organisation und bei strategischen Prozessen adäquat einbezogen werden und auch Einsitz im Verwaltungsrat haben. Insbesondere mit diesem Punkt haben wir uns in der Kommission gründlich auseinandergesetzt und um einen Zusatzbericht gebeten. Es wurde uns versichert, dass die Aufgaben- und Kompetenzzuteilung an Kantone und Bund auch in der neuen Organisationsform klar und zur Zufriedenheit von Bund und Kantonen geregelt werden kann. Die Zusammensetzung des Verwaltungsrates wird dabei sicherlich eine entscheidende Rolle spielen.
+Kurz noch ein Wort zur Vereinbarkeit von Movetia mit den Anforderungen der EU für nationale Agenturen: Bei der Assoziierung an Erasmus plus wäre eine öffentlich-rechtliche Anstalt einfacher mit den Anforderungen der EU in Einklang zu bringen - ein weiterer Punkt, der in der Gesamtabwägung für eine Umwandlung in eine öffentlich-rechtliche Anstalt spricht.
+Last, but not least ein Wort zu den Kostenfolgen, die mit einer Umwandlung einer privatrechtlichen Stiftung in eine öffentlich-rechtliche Anstalt einhergehen: Diese Kosten dürfen nicht ausufern und sollten intern kompensiert werden. Die Finanzlage des Bundes ist weiterhin nicht rosig, entsprechend müssen zusätzliche Kosten vermieden werden.
+Zusammenfassend halte ich fest: Die FDP-Liberale Fraktion wird dem Movetiagesetz zustimmen, erwartet aber, dass die Kantone wie bisher mitbestimmen können und die jährlichen Kosten als Folge des neuen Gesetzes insgesamt nicht höher sein werden, als dies zurzeit der Fall ist.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brizzi Simona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir feiern heute den Tag der Mehrsprachigkeit - ich habe sogar den entsprechenden Pin an meiner Jacke befestigt -, und die Vision von Movetia passt wunderbar dazu. Es wurde gesagt: Jede Jugendliche und jeder Jugendliche in der Schweiz soll im Verlauf der Schulkarriere mindestens einmal an einem Austausch- und Mobilitätsprojekt teilnehmen. Diese Vision unterstützen wir sehr, und sie passt wunderbar zum heutigen Tag. 
+Die bestehende nationale Agentur Movetia soll in eine öffentlich-rechtliche Anst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir feiern heute den Tag der Mehrsprachigkeit - ich habe sogar den entsprechenden Pin an meiner Jacke befestigt -, und die Vision von Movetia passt wunderbar dazu. Es wurde gesagt: Jede Jugendliche und jeder Jugendliche in der Schweiz soll im Verlauf der Schulkarriere mindestens einmal an einem Austausch- und Mobilitätsprojekt teilnehmen. Diese Vision unterstützen wir sehr, und sie passt wunderbar zum heutigen Tag. 
+Die bestehende nationale Agentur Movetia soll in eine öffentlich-rechtliche Anstalt umgewandelt werden. Ich finde es wichtig, dass wir einen Blick zurück machen und schauen, wie es zu dieser Vorlage kam. Vor neun Jahren wurden im Bereich Austausch und Mobilität die Aufträge neu vergeben. Movetia bekam damals den Zuschlag und musste sich ganz schnell neu organisieren. Man beschloss, eine Stiftung zu gründen. Diese Stiftung wurde 2016 gegründet. Es war aber schon damals klar, dass das nur eine vorübergehende Form sein kann. Wir haben es gehört, 2019 bemängelte die Eidgenössische Finanzkontrolle in einem Bericht diese Organisationsform. 
+Wie funktioniert die Agentur heute? Movetia wird aktuell mittels Budgetvorgaben über drei Departemente gesteuert, nämlich über das Staatssekretariat für Bildung, Forschung und Innovation, das Bundesamt für Kultur und das Bundesamt für Sozialversicherungen. Sie sehen, wie aufwendig und kostenintensiv das Ganze ist. Es müssen drei parallele Leistungsverträge ausgearbeitet werden. Bei der Prüfung der Förderbeiträge gehen die Anträge zuerst über den Tisch von Movetia, dann werden sie den einzelnen Bundesämtern zugestellt, diese geben sie wieder zurück - und dieses Spiel muss jedes Jahr gemacht werden. Dieser Prozess ist aufwendig und ressourcenintensiv.
+Mit der Umwandlung der Stiftung in eine öffentlich-rechtliche Anstalt werden die Entscheidungswege verkürzt und die Ressourcen gebündelt. Ich denke, das ist im Interesse von uns [PAGE 1917] allen. Die strategischen Ziele werden auf vier Jahre festgelegt; im Verwaltungsrat sitzen neu auch die Vertreterinnen der Kantone - das wünschen sich alle, die Kantone möchten mehr mitbestimmen, sie möchten mitreden - sowie aller weiteren Akteure; und die Förderanträge gehen nur noch über den Tisch von Movetia, welche diese prüft. Die Wege werden also kürzer, Doppelspurigkeiten in den Steuerungsprozessen werden abgeschafft und die strategisch-politischen von den operativen Aufgaben entflochten; diese Verflechtung ist auch kritisiert worden. Die Finanzierungsmechanismen[NB]bleiben[NB]unverändert. Die Gesetzesgrundlage für die neue öffentlich-rechtliche Anstalt des Bundes ist zudem so ausgestaltet - das finde ich auch wichtig - dass im Falle einer Assoziierung an Erasmus plus keine gesetzlichen Änderungen nötig wären. Bei einer Stiftung wären solche Änderungen nötig. 
+Sie sehen also: Das sind alles Vorteile. Das Nichteintreten der WBK-S und des Ständerates hat uns sehr erstaunt. Es liegt eine solide und gute Gesetzesvorlage vor. Ich fasse zusammen: Das vorliegende Gesetz zur Überführung von Movetia in eine öffentlich-rechtliche Anstalt deckt alle Anforderungen und die Interessen aller Akteure ab, auch der Kantone. Mit der Umwandlung der Stiftung in eine öffentlich-rechtliche Anstalt werden die Entscheidungswege verkürzt, die Ressourcen gebündelt und die Effizienz zugunsten des Bundes und der Kantone gesteigert. Die Umwandlung in eine öffentlich-rechtliche Anstalt des Bundes ist aus staats- und finanzpolitischer Sicht wichtig, richtig und sinnvoll. 
+Wir treten auf das Geschäft ein und bitten Sie, dem vorliegenden Gesetz zuzustimmen. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Durrer Regina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welches Geschäft würde besser zum Tag der Mehrsprachigkeit passen als das vorliegende Geschäft zu Movetia, der Organisation, die sich für Sprachaufenthalte einsetzt? Da ich leider nie einen Sprachaufenthalt absolviert habe, fahre ich nun auf Deutsch weiter. 
+Wie bereits gesagt wurde, unterstützt die nationale Agentur Movetia Jugendliche, die Fremdsprachenaufenthalte absolvieren wollen, und die Kantone bei den entsprechenden Aufgaben. Sie fördert die Mobilität in der Bildung. Vom gesetzten Ziel, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welches Geschäft würde besser zum Tag der Mehrsprachigkeit passen als das vorliegende Geschäft zu Movetia, der Organisation, die sich für Sprachaufenthalte einsetzt? Da ich leider nie einen Sprachaufenthalt absolviert habe, fahre ich nun auf Deutsch weiter. 
+Wie bereits gesagt wurde, unterstützt die nationale Agentur Movetia Jugendliche, die Fremdsprachenaufenthalte absolvieren wollen, und die Kantone bei den entsprechenden Aufgaben. Sie fördert die Mobilität in der Bildung. Vom gesetzten Ziel, dass jeder und jede Jugendliche einen Sprachaufenthalt absolvieren kann, sind wir noch ein grosses Stück entfernt. Aber es finden jedes Jahr zahlreiche Austauschprogramme und Sprachaufenthalte auf verschiedensten Bildungsstufen statt. 
+Die privatrechtliche nationale Agentur Movetia wurde 2016 von Bund und Kantonen gegründet. 2019 bemängelte die Eidgenössische Finanzkontrolle, dass die Organisationsform von Movetia als privatrechtliche Stiftung mit den Gouvernanzgrundsätzen des Bundes Unvereinbarkeiten aufweise. Sie hat deshalb einen Gesetzentwurf zur Umwandlung der Agentur Movetia in eine öffentlich-rechtliche Anstalt ausgearbeitet, der in einem öffentlichen Vernehmlassungsverfahren breit abgestützte Zustimmung fand. Sowohl die WBK-S als auch die WBK-N haben dieses Geschäft intensiv diskutiert und weitergehende Berichte verlangt. Im Gegensatz zur WBK-S ist die WBK-N mit 16 zu 8 Stimmen auf das Geschäft eingetreten und hat den Gesetzentwurf nach der zweiten Beratung am 28.[NB]Juni 2024 mit 17 zu 8 Stimmen angenommen. 
+Die Minderheit Hug beantragt Nichteintreten. Innerhalb des Gesetzentwurfes gab es nur einen Antrag auf Seite 4 der Fahne zu Artikel 6. Neu soll in Absatz 2bis konkretisiert werden, dass bei der Wahl der sieben Verwaltungsräte, die Arbeitnehmer- und Arbeitgeberorganisationen, die Hochschulen, die Berufsbildung, die ausserschulischen Organisationen sowie die Kantone vertreten sollen, auch die Kompetenzen und Erfahrungen bezüglich Austausch und Mobilität eine Rolle spielen sollen. Dieser neue Absatz war unbestritten. Wie im Ständerat wurde aber vor allem darüber diskutiert, ob ein Wechsel von einer privatrechtlichen Stiftung, die funktioniert, in eine öffentlich-rechtliche Anstalt überhaupt notwendig ist. Die WBK-N stellt sich aus den folgenden Gründen mehrheitlich hinter die Umwandlung. 
+Zuerst zum Stiftungsrat: Der heutige Stiftungsrat besteht aus drei Bundesamtsvorsteherinnen und -vorstehern und der Generalsekretärin der Konferenz der kantonalen Erziehungsdirektorinnen und -direktoren. Der Einfluss der Kantone mit einem Stiftungsratssitz ist rein vom Stimmenverhältnis her marginal. Im neuen Verwaltungsrat sollen sieben Personen Einsitz nehmen, welche konkrete Kompetenzen und Erfahrungen im Bereich Austausch und Mobilität mitbringen und vonseiten der Arbeitnehmer, der Arbeitgeber, der Bildung, der ausserschulischen Organisationen und der Kantone kommen sollen. Drei der sieben Verwaltungsräte können die Kantone stellen. So wird der Einfluss der Kantone gegenüber heute ausgedehnt. Das Argument, dass die neue Rechtsform sich von den Kantonen entferne und diese entmachte, kann nicht nachvollzogen werden. Der Austausch zwischen Bund, Kantonen und Movetia ist institutionalisiert und findet unabhängig von der Rechtsform statt. 
+Zu den Leistungsverträgen: Die drei heutigen Stiftungsräte und Amtsvorsteherinnen und -vorsteher des Staatssekretariats für Bildung, Forschung und Innovation, des Bundesamtes für Gesundheit und des Bundesamtes für Sozialversicherungen verantworten auch die Leistungsanforderungen, welche an Movetia gestellt werden. Das heisst einerseits, dass es drei separate Leistungsverträge gibt, die inhaltlich nicht unbedingt aufeinander abgestimmt sind, andererseits - und das ist der eigentliche Knackpunkt - bringen die drei heutigen Stiftungsräte Anträge ein, welche sie nachher selbst genehmigen. Einfach den Stiftungsrat auszuwechseln, so wie es der Ständerat vorschlägt, ist nicht so einfach, da in den Statuten von Movetia steht, dass sich der Stiftungsrat selbst konstituiert. 
+Nun noch zu Erasmus: Das Programm Erasmus plus macht klare Vorgaben, welche eingehalten werden müssen, damit man sich bei ihm assoziieren kann. Gemäss dem zusätzlichen Bericht der Verwaltung erfüllt die öffentlich-rechtliche Organisation praktisch alle Anforderungen, wohingegen eine privatrechtliche Stiftung viele Anforderungen nicht oder nur bedingt erfüllt. 
+Aus den genannten Gründen beantragt die Mehrheit der WBK-N, auf das Geschäft einzutreten und dem Entwurf inklusive des Antrages zu Artikel 6 Absatz 2bis zuzustimmen und damit weiterhin dazu beizutragen, dass möglichst alle Jugendlichen in den Genuss eines Sprachaufenthaltes kommen dürfen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christ Katja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie wir bereits von den Berichterstattern der Kommission gehört haben, setzt die nationale Agentur Movetia sowohl auf nationaler als auch auf internationaler Ebene Massnahmen zur Förderung des Austauschs und der Mobilität im Bildungsbereich um. Für uns Grünliberale ist es eine Selbstverständlichkeit, dass Mobilität ein essenzieller Bestandteil jeder Ausbildung ist, unabhängig von der Art der Ausbildung. Ein Semester oder länger in einem anderen Teil des Landes oder im Ausland zu verbringen, eine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie wir bereits von den Berichterstattern der Kommission gehört haben, setzt die nationale Agentur Movetia sowohl auf nationaler als auch auf internationaler Ebene Massnahmen zur Förderung des Austauschs und der Mobilität im Bildungsbereich um. Für uns Grünliberale ist es eine Selbstverständlichkeit, dass Mobilität ein essenzieller Bestandteil jeder Ausbildung ist, unabhängig von der Art der Ausbildung. Ein Semester oder länger in einem anderen Teil des Landes oder im Ausland zu verbringen, eine neue Sprache zu lernen und die Vielfalt der Perspektiven zu[NB]erfahren,[NB]also[NB]wie[NB]ein[NB]Thema je nach Ort und Kultur unterschiedlich behandelt wird, sind bereichernde und wertvolle Erfahrungen.
+Dies gilt insbesondere für ein Land wie die Schweiz, das von vier Landessprachen geprägt ist. Mobilität während der Ausbildung trägt entscheidend zur Einheit und zum Zusammenhalt unseres Landes bei. Es ist daher unerlässlich, eine Institution zu haben, die diese Austausche fördert und verwaltet. Aus diesem Grund stellen wir Grünliberalen die Notwendigkeit von Movetia nicht infrage.
+Die Debatten im Ständerat und in unserer Kommission nehmen allerdings eine etwas eigenartige Wendung. Derzeit ist Movetia eine privatrechtliche Stiftung. Doch wie der Bundesrat in seiner Botschaft zum Gesetz ausführte, ist diese Struktur - das hat auch die Eidgenössische Finanzkontrolle betont - nicht mit den Prinzipien der Corporate Governance des Bundes vereinbar. Zudem wies diese Kontrolle auf potenzielle Interessenkonflikte auf personeller Ebene hin. Der Bundesrat beantragt daher, Movetia in eine öffentlich-rechtliche Anstalt des Bundes umzuwandeln, und hier beginnt die Komplexität.
+Erstens stellt sich die Frage, warum dieser Wechsel erst jetzt beantragt wird, obwohl Movetia bereits 2016 gegründet wurde und das Ergebnis umfassender Überlegungen von Bund und Kantonen ist. Zweitens überrascht es, dass die Kantone, die von Anfang an in die Arbeiten zu dieser Umstrukturierung eingebunden waren, gegenüber der beantragten neuen Rechtsform nun plötzlich zurückhaltend sind. Dieser Sinneswandel wirft berechtigte Fragen auf. Drittens hat der Ständerat den Eintritt in die Materie mit überwältigender Mehrheit abgelehnt, obwohl die neue Struktur für Ordnung sorgen und insbesondere Interessenkonflikte vermeiden soll. Viertens garantiert auch eine öffentlich-rechtliche Anstalt des Bundes nicht immer eine einwandfreie Governance, wie wir in der Debatte über die Kulturförderung mit Pro Helvetia gesehen haben.
+Trotz dieser Bedenken empfehlen wir Ihnen, auf die Materie einzutreten und das Projekt anzunehmen, und zwar aus folgenden Gründen: Die von der Eidgenössischen Finanzkontrolle erwähnten Interessenkonflikte dürfen nicht auf die leichte Schulter genommen werden. Die beantragte neue Rechtsform ermöglicht eine bessere Kontrolle durch den Bundesrat und das Parlament. Die neue Rechtsform schafft die Voraussetzungen für eine engere Anbindung an Erasmus plus, was weiterhin von der Bildungsgemeinschaft angestrebt und gewünscht wird. Die Zurückhaltung der Kantone ist umso unverständlicher, als die Kosten für den Betrieb von Movetia und die verteilten Subventionen zu 99 Prozent vom Bund getragen werden. Aus unserer Sicht ist es keine konstruktive Haltung, den Eintritt in die Materie abzulehnen, nur weil das Projekt die Kantone nicht vollständig zufriedenstellt oder weil die bisherige Rechtsform bislang funktioniert hat.
+Regieren heisst vorausschauend handeln. Wir sollten nicht warten, bis ein tatsächliches Problem auftritt, um dann im Nachhinein zu bedauern, dass wir nicht früher gehandelt haben. Denn wie schon Molière zu sagen pflegte: "Wir sind nicht nur verantwortlich für das, was wir tun, sondern auch für das, was wir nicht tun." Tun wir es also, und nehmen wir das Gesetz an.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rösti Albert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich schliesse mich namens des Bundesrates der Minderheit an, zwar nicht beim letzten Begründungspunkt, aber bei den anderen schon. Wir haben im Moment kein Problem, wenn wir hier die Analyse machen. Das Seilbahngesetz regelt zwei Verfahren unter der Federführung des Bundesamtes für Verkehr, zum einen jenes zur Erteilung der Konzession und zum andern jenes zur Bewilligung von Bau und Betrieb eidgenössisch konzessionierter Seilbahnen. Das aktuelle Seilbahngesetz vereinfacht gegenüber dem vorherige</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich schliesse mich namens des Bundesrates der Minderheit an, zwar nicht beim letzten Begründungspunkt, aber bei den anderen schon. Wir haben im Moment kein Problem, wenn wir hier die Analyse machen. Das Seilbahngesetz regelt zwei Verfahren unter der Federführung des Bundesamtes für Verkehr, zum einen jenes zur Erteilung der Konzession und zum andern jenes zur Bewilligung von Bau und Betrieb eidgenössisch konzessionierter Seilbahnen. Das aktuelle Seilbahngesetz vereinfacht gegenüber dem vorherigen System die Verfahren und vereinheitlicht die Rechtsanwendung. 
+In Artikel 19 des Seilbahngesetzes wurde eine Rückbaupflicht für den Eigentümer der Seilbahnanlage eingeführt, wenn deren Betrieb eingestellt wird. Diese Rückbaupflicht gilt seit dem 1.[NB]Januar 2007 für eidgenössisch konzessionierte Seilbahnanlagen und für kantonal bewilligte Seilbahnen. Es sind nur wenige Seilbahnen betroffen: Von den rund 650 Seilbahnanlagen mit Bundeskonzession sind aktuell 14 Anlagen ausser Betrieb, dies teilweise aber nur temporär. Bisher gab es nur, das wurde bereits gesagt, bei der Seilbahnanlage am Grossen St.[NB]Bernhard im Kanton Wallis Probleme beim Rückbau. Es laufen momentan Gespräche zur Klärung mit den Betroffenen. Hier hat das Bundesamt für Verkehr die Federführung und wird sicher eine Lösung finden. 
+Dem Bundesrat ist nicht bekannt, wie viele kantonal bewilligte Anlagen nicht mehr betrieben werden. Es handelt sich wohl vorwiegend um Skilifte in unteren Lagen. Der Verein Mountain Wilderness schätzt hierzu, dass es sich um mehr als fünfzig Anlagen handelt. Auch das ist nicht eine riesige Zahl. Dabei ist oft unklar, ob der Betrieb der Seilbahnanlagen definitiv eingestellt ist. Falls dies zutrifft, liegt die Kompetenz für den gesetzlich vorgesehenen Rückbau bei den Kantonen. 
+Ich möchte Sie hier auch bitten, die Kompetenz den Kantonen zu überlassen und uns nicht mit einem Bericht zu beauftragen. Übrigens hat die Eidgenössische Finanzkontrolle 2023 die Aufsicht über die Seilbahnen geprüft und dabei einen Schwerpunkt auf die Finanzierung des Rückbaus gelegt. Im Schlussbericht vom Dezember 2023 hält die EFK fest, dass alle Rückbauten von stillgelegten Seilbahnen mit Bundeskonzessionen selbstständig durch die Eigentümer erfolgt sind. Der Bericht enthält keine Empfehlung betreffend Verzögerungen beim Rückbau. 
+Ich bitte Sie, wie der Minderheitssprecher vorhin, aus all diesen Gründen das Postulat abzulehnen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avec son message, que nous traitons ce matin, le Conseil fédéral vous propose d'adopter la loi sur Movetia. Movetia est l'agence en charge des échanges au niveau national et international. Ces échanges sont l'un des axes importants de la politique suisse de formation. Aussi longtemps que la Suisse n'est pas associée à Erasmus plus, Movetia est en charge des échanges au niveau international, à travers le "Swiss European Mobility Programme". Si la Suisse parvient à un accord avec l'Union européenn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avec son message, que nous traitons ce matin, le Conseil fédéral vous propose d'adopter la loi sur Movetia. Movetia est l'agence en charge des échanges au niveau national et international. Ces échanges sont l'un des axes importants de la politique suisse de formation. Aussi longtemps que la Suisse n'est pas associée à Erasmus plus, Movetia est en charge des échanges au niveau international, à travers le "Swiss European Mobility Programme". Si la Suisse parvient à un accord avec l'Union européenne, Movetia deviendra de fait l'agence chargée de mettre en place le programme. Au niveau suisse, Movetia est aussi chargée de coordonner les échanges au niveau national. Movetia réalise ces différentes tâches de manière totalement satisfaisante.
+Le Contrôle fédéral des finances (CDF) a toutefois relevé un problème: le statut de fondation de l'agence n'est pas compatible avec les principes de gouvernance de la Confédération. Ce statut pose la question de la surveillance d'une agence financée exclusivement par la Confédération, donc aussi de notre capacité, autant celle du Conseil fédéral que celle de la haute surveillance du Parlement, de contrôler les plus de 60 millions de francs qu'allouent annuellement le Secrétariat d'Etat à la formation, à la recherche et à l'innovation et l'Office fédéral de la culture à l'agence. Un des problèmes majeurs relevés par le CDF est le double rôle des offices fédéraux, qui sont à la fois mandants et organes de supervision. Cela implique des risques considérables d'atteinte à la réputation de la Confédération. Cela a conduit le Conseil[NB]fédéral[NB]à[NB]proposer[NB]de[NB]modifier[NB]le[NB]statut juridique de l'agence, en transformant la structure en établissement de droit public de la Confédération. C'est ce dont nous discutons aujourd'hui.
+Votre commission a siégé deux fois pour discuter de cet objet. Après le débat d'entrée en matière, elle a transmis un mandat important à l'administration afin de clarifier de nombreux points et de comprendre la position du Conseil des Etats. Ce dernier a en effet refusé l'entrée en matière en mars de cette année. Pourquoi? Le Conseil des Etats a avant tout argumenté dans le sens d'une perte de responsabilité stratégique pour les cantons, même s'ils restent consultés et seront représentés au conseil d'administration de la nouvelle structure. La majorité du Conseil des Etats a en outre estimé qu'il était tout à fait possible de ne pas suivre les recommandations du CDF. [PAGE 1914] 
+Votre commission n'est pas de cet avis. Elle estime que ce changement de statut juridique règle les problèmes de gouvernance actuels dans un esprit qui reste fédéraliste, au sens où les cantons continueront d'être impliqués. Cela, sans coûts supplémentaires inutiles, permettra en outre à Movetia d'être mieux préparée en cas d'association à Erasmus plus.
+La commission est entrée en matière sur cet objet, par 16 voix contre 8 et 0 abstention; elle l'a accepté, par 17 voix contre 8, au vote final. La minorité Hug vous propose de ne pas entrer en matière. Comme le Conseil des Etats, cette minorité estime que le système actuel fonctionne et respecte le fédéralisme et qu'aucun changement n'est nécessaire.
+Je vous propose de traiter aussi tout de suite la discussion par article. La commission a modifié le projet du Conseil fédéral sur un seul point. A l'article 6, elle a introduit un nouvel alinéa 2bis, qui charge le Conseil fédéral de fixer un profil d'exigences en matière de compétences et d'expériences pour les futurs membres du conseil d'administration. Cela permettra également de clarifier les rôles des différents groupes d'intérêt, comme les cantons, la Confédération, etc., qui souhaiteraient siéger au conseil d'administration. Cette modification n'a pas été contestée, elle a été acceptée à l'unanimité des 25 membres présents.
+Ich lade Sie ein, dem Gesetzentwurf zuzustimmen, so, wie er von Ihrer Kommission beantragt wird.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parmelin Guy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je me réjouis que vous discutiez aujourd'hui du projet de loi sur Movetia. Il ne s'agit pas d'un dossier particulièrement spectaculaire, néanmoins il est important. Ce dossier a pour but de renforcer les bases pour favoriser le développement de la politique d'encouragement des échanges et de la mobilité dans le domaine de la formation. En effet, cet encouragement au plan national et international est un pilier de la politique de formation de la Confédération et des cantons. Il s'agit d'une tâche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je me réjouis que vous discutiez aujourd'hui du projet de loi sur Movetia. Il ne s'agit pas d'un dossier particulièrement spectaculaire, néanmoins il est important. Ce dossier a pour but de renforcer les bases pour favoriser le développement de la politique d'encouragement des échanges et de la mobilité dans le domaine de la formation. En effet, cet encouragement au plan national et international est un pilier de la politique de formation de la Confédération et des cantons. Il s'agit d'une tâche commune importante pour maintenir la performance de notre système éducatif.
+L'agence nationale Movetia, que nous avons fondée avec les cantons en 2016, est chargée de mettre en oeuvre une large partie des mesures de cette politique d'encouragement. Au plan international, cela comprend actuellement la mise en oeuvre de ce qu'on appelle la solution suisse, tant que nous ne sommes pas associés au programme européen Erasmus plus. Une association à Erasmus plus dans les meilleurs délais reste cependant un objectif du Conseil fédéral et du Parlement. Movetia, le cas échéant, serait, comme cela a été rappelé, l'agence chargée de mettre en oeuvre cette participation.
+Cependant, et comme l'atteste le CDF, le statut de fondation privée de Movetia n'est pas compatible avec les principes de gouvernement d'entreprise de la Confédération. L'organisation actuelle présente des lacunes dans la gestion stratégique, la surveillance, le contrôle, la reddition des comptes et la transparence. Par conséquent, le Conseil fédéral a décidé de faire élaborer une nouvelle forme juridique et un modèle de pilotage qui respecte au mieux ces principes. Le processus pour élaborer cette bonne solution a pris du temps et, il est important de le rappeler, la Conférence des directeurs et directrices cantonaux de l'instruction publique (CDIP), y a été étroitement associée.
+La proposition qui vous est soumise aujourd'hui est la seule option qui a été retenue comme étant conforme aux différents critères. Nous proposons ainsi de transformer l'agence nationale Movetia en un établissement fédéral de droit public, comme le sont la Haute école fédérale en formation professionnelle ou Swissmedic.
+Ce modèle de pilotage est connu, il a fait ses preuves par le passé. D'une part, il garantit un contrôle politique et la surveillance par le Conseil fédéral, mais aussi par vous, Mesdames et Messieurs, par le Parlement. D'autre part, il règle les responsabilités et les processus de pilotage de façon claire et globale, et il évite de potentiels conflits de rôle.
+Cela a été rappelé, le Conseil des Etats n'est pas entré en matière sur ce projet. Je ne vous cache pas que cette décision m'a surpris, vu les longs travaux préparatoires et la consultation qui a recueilli un large soutien, notamment de la part des cantons.
+Votre commission a également posé plusieurs questions sur ces éléments, ainsi que sur d'autres aspects du projet. Nous avons fourni, sous la forme d'un rapport complémentaire, différentes réponses et explications. Je tiens à en résumer quelques-unes à la tribune, parce que c'est quelque chose qui sera important dans la perspective du débat suivant au Conseil des Etats. En ce qui concerne l'organe responsable de Movetia, l'implication des cantons dans le pilotage est incontestée. Les cantons et leurs institutions de formation sont très importants pour la mobilité. Ils sont les partenaires centraux, ils apportent une contribution indispensable aux activités d'échange et de mobilité par le biais de leurs propres structures et mesures. La Confédération, elle, met à disposition les moyens d'encouragement nécessaires aux activités nationales et internationales.
+Actuellement, le financement de Movetia et de ses programmes d'encouragement est du ressort exclusif de la Confédération. Les cantons financent leurs propres structures et mesures. Les cantons et la CDIP ont toujours clairement souligné que cela devait rester le cas. En ce sens, la nouvelle organisation est le reflet de la situation présente. Pratiquement toutes les tâches de Movetia sont des tâches fédérales, financées par des fonds fédéraux. Le modèle de pilotage, vous l'avez vu, a cependant été adapté de façon ciblée afin de garantir l'implication stratégique - et j'insiste sur ce terme - l'implication des cantons dans le pilotage stratégique.
+Cela passera, comme cela a été rappelé, par la nomination de trois membres dans le futur conseil d'administration qui seront proposés par les cantons, par une consultation obligatoire lors de la préparation des objectifs stratégiques et par la possibilité d'inviter la CDIP à participer aux entretiens annuels de propriétaires.
+A propos de la valeur ajoutée, la transformation de Movetia s'impose du point de vue de la politique institutionnelle et budgétaire. Il s'agit de garantir un pilotage et une surveillance politiques efficaces et transparents. Actuellement, il y a aussi certains chevauchements, des doublons dans les instruments et dans les processus de pilotage, qui sont inefficaces et qui diluent les responsabilités. Avec le modèle actuel, des tâches importantes de la Confédération ne sont pas soumises à la surveillance directe du Conseil fédéral et elles sont aussi soustraites de la surveillance du Parlement. Le respect des principes de gouvernement d'entreprise de la Confédération est indispensable pour une institution qui dispose tout de même d'un budget de plus de 60 millions de francs. Ce budget sera certainement appelé à croître encore, vu que la Confédération et les cantons accordent une grande importance aux échanges et à la mobilité en matière de formation. Il s'agit directement de l'argent des contribuables sur le plan fédéral. Il vaut mieux ne pas attendre que des erreurs se produisent pour garantir le respect de règles qui ont fait leurs preuves dans d'autres institutions plus ou moins grandes. La valeur ajoutée du modèle que vous avez devant vous réside précisément dans le fait que ce modèle remédie à ces faiblesses et ces lacunes.
+Sur le plan opérationnel de Movetia, la valeur ajoutée se matérialisera par une plus grande autonomie dans la gestion, un gain d'efficacité et d'agilité et un renforcement de la légitimité du positionnement de l'institution en tant qu'agence nationale.
+Enfin, à propos de la compatibilité de la forme juridique de Movetia avec les exigences de l'Union européenne en cas d'association à Erasmus plus, nous avons vérifié à plusieurs reprises, de manière approfondie, que le modèle d'établissement de droit public est le modèle le plus conforme aux exigences de l'Union européenne pour une agence mettant en oeuvre une association à Erasmus plus. La fondation de droit privé actuelle pourrait aussi, en principe, concilier ces [PAGE 1918] exigences, mais cela nécessiterait un effort d'adaptation nettement plus élevé et plus compliqué, que ce soit sur le plan de son conseil de fondation ou des structures et processus internes. Nous avons donc élaboré une solution sur mesure, qui tient compte des spécificités du système éducatif suisse, garantissant une forte implication des cantons.
+Je remercie encore votre commission, qui a examiné ce dossier en profondeur, ce qui a permis de clarifier les questions en suspens. Je vous propose donc d'entrer en matière, d'accepter le projet de loi tel que présenté, avec l'ajout proposé par votre commission à l'article 6 alinéa 2bis. Le Conseil fédéral se déclare d'accord avec cet ajout. Cela nous permettra, si vous entrez en matière - ce que j'espère vivement - de mener un débat dépassionné et factuel avec le Conseil des Etats, qui est la chambre de réflexion. Je pense qu'ils auront réfléchi d'ici là.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20241202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuerst gratuliere ich dem Präsidenten zu seiner glanzvollen Wahl und freue mich auf gute Debatten im kommenden Jahr.
+Ich entschuldige mich für die Disharmonie, die jetzt durch meinen Antrag entsteht. Aber das gehört zum Spiel. Vielleicht kommen Sie dann auch verspätet zum Apéro, aber dieser ist dann umso köstlicher. Ich erachte es als angezeigt, dass wir heute auch über die Finanzen sprechen und nicht erst in der kommenden Woche bei der Beratung des Voranschlags. Deshalb beantrage ich Ihnen beim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuerst gratuliere ich dem Präsidenten zu seiner glanzvollen Wahl und freue mich auf gute Debatten im kommenden Jahr.
+Ich entschuldige mich für die Disharmonie, die jetzt durch meinen Antrag entsteht. Aber das gehört zum Spiel. Vielleicht kommen Sie dann auch verspätet zum Apéro, aber dieser ist dann umso köstlicher. Ich erachte es als angezeigt, dass wir heute auch über die Finanzen sprechen und nicht erst in der kommenden Woche bei der Beratung des Voranschlags. Deshalb beantrage ich Ihnen beim Bundesbeschluss 5 über den Zahlungsrahmen der Armee 2025-2028, sich bei Artikel 1a dem Nationalrat anzuschliessen und gleichzeitig bei Artikel 1b nicht dem Beschluss des Nationalrates zu folgen, sondern der Formulierung, die Sie erhalten haben. 
+Ich begründe meine Anträge wie folgt: Der Bundesrat hat uns ein ambitioniertes Wachstum bei den Armeeausgaben bis 2035 vorgeschlagen. Schon aus diesem Grund haben wir in den kommenden Jahren strukturelle Defizite, die wir zu bereinigen haben. Das ist schon eine sehr grosse Herausforderung. Die Mehrheit hier im Ständerat, aber auch im Nationalrat will die Armeeausgaben noch schneller wachsen lassen und hat die entsprechenden Mittel im bundesrätlichen Entwurf[NB]um[NB]4[NB]Milliarden[NB]auf[NB]29,8[NB]Milliarden Franken aufgestockt.
+Keine der Kommissionen, weder die SiK-S noch die FK-S, unterbreitet uns aber eine verlässliche Gegenfinanzierung. Sowohl der angedachte neue Verteilschlüssel für die Einnahmen aus der OECD-Mindeststeuer als auch ein höherer Anteil des Bundes bei der direkten Bundessteuer werden kaum mehrheitsfähig sein. Eine Aushebelung der Schuldenbremse, davon bin ich überzeugt, kommt nicht infrage. Der einzig erfolgreiche Weg, die von Ihnen beschlossene Zusatzfinanzierung der Armee sicherzustellen, wäre also eine höhere Mehrwertsteuer. 
+Das Volk soll doch mitentscheiden, ob ihm zusätzliche Ausgaben für die Sicherheit wichtig sind und ob es bereit ist, dafür höhere Steuern zu bezahlen. Ich verstehe nicht, weshalb Sie davor zurückschrecken, das Volk als unmündig bezeichnen und ihm dieses Recht vorenthalten. Wenn das Sicherheitsbedürfnis in der Bevölkerung derart gross ist, wie es hier in unserer Diskussion erscheint, trägt das Volk doch die Überlegungen mit. 
+Selbst wenn wir zu dieser Einsicht kommen und dem Bundesrat den Auftrag erteilen, eine Botschaft zu erarbeiten - und das ist ja mein Antrag -, wenn der Bundesrat diesen Auftrag bekommt und wir dann darüber beschliessen, dauert das doch noch einige Zeit. Mein Antrag führt noch zu keiner Steuererhöhung, es ist erst ein Antrag auf eine Botschaft. Wenn Sie aber zuwarten, wird sich das Problem der Finanzierung nicht von selbst lösen. Es wird nämlich nur grösser, und Sie werden diesen Beschluss dann halt im nächsten Frühling oder Sommer fassen müssen. Deshalb muss aber auch eine Gegenfinanzierung über Sparmassnahmen bei den laufenden Ausgaben der Armee schon früher erfolgen. Der Nationalrat eröffnet uns da mit seinem Beschluss eine kleine Möglichkeit. Von 2025 bis 2028 sollen 500 Millionen Franken eingespart werden. Das ist doch sicher möglich, einerseits im Betrieb, andererseits bei den vielen Projekten. Von den insgesamt 22 Schlüsselprojekten der Bundesverwaltung mit einem Volumen von rund 7,6 Milliarden Franken sind aktuell 9 beim VBS angesiedelt, wobei deren Anteil mit rund 5 Milliarden Franken 65 Prozent des Gesamtvolumens ausmacht. Insgesamt sprechen wir beim VBS von 9 aktiven Schlüssel- und 10 Top-Projekten mit einem Kostenvolumen von 19,2 Milliarden Franken.
+Wie Sie der Presse immer wieder entnehmen können, sind aber viele Projekte der Armee risikobehaftet. Im Sinne einer mitschreitenden Finanzoberaufsicht begleitet die Finanzdelegation, deren Präsident ich noch bis Ende 2024 bin, diese Projekte. Die FinDel lässt sich dabei informieren, fragt nach und konsultiert vorliegende Berichte der Eidgenössischen Finanzkontrolle. Dabei möchte ich betonen, dass die Verantwortung für die Projekte aber immer beim VBS und nicht bei der parlamentarischen Oberaufsicht liegt. Es freut mich, dass die SiK des Ständerates und des Nationalrates aufgrund unserer Hinweise und ob der kritischen Medienberichte ebenfalls sensibilisiert sind und sich vierteljährlich über den Stand der risikobehafteten Projekte informieren lassen.
+Letzten Montag fand die letzte Sitzung der Finanzdelegation statt. Dabei standen diese Projekte wieder auf der Traktandenliste. Die Vertretung des VBS erläuterte den aktuellen Stand der Projekte, eingeleitete Massnahmen und äusserte sich zuversichtlich über die Erreichung der Projektziele. Dabei konnten unsere Vorbehalte und Unsicherheiten aber nicht ausgeräumt werden. Die Finanzdelegation wird in einem Schreiben an das VBS ihre Bedenken ausdrücken. Trotzdem erstaunte mich die Heftigkeit der Medienberichte in der vergangenen Woche. Sie vermittelten ein problematischeres Bild des Projektes C2Air, als es uns das VBS skizzierte. Die Beschaffung unserer Drohnen haben wir 2015 beschlossen. Sie hätten 2019 einsatzbereit sein sollen. Im besten Fall fliegen sie 2026. Wir kaufen sechs Drohnen für 300 Millionen Franken, das sind 50 Millionen Franken pro Stück. In der Ukraine beschaffen sie für das gleiche Geld Hunderttausende von Drohnen.
+Ich könnte noch weitere Projekte erwähnen, die risikobehaftet sind. Die Beispiele zeigen aber, wie schwierig es ist, die Projekte erfolgreich umzusetzen. Das liegt einerseits an der Swissness, an Eigenentwicklungen, an unterschiedlichen konzeptionellen Zielbildern und an fehlender Kompetenz der Projektführung. Es fehlt meiner Meinung nach nicht vor allem an Geld, sondern auch am kostenbewussten Umgang damit und an einer Koordination und Abstimmung der verschiedenen Fähigkeiten. Bedenken Sie bitte auch: Das VBS hat noch immer kein Projektportfolio-Controlling, das Abstimmungen und Priorisierungen erlaubt, wie es die FinDel schon länger fordert, und zwar für das ganze Departement. Umso dringender ist eine aktuelle, konzeptionelle Diskussion über die Ausrichtung der Armee.
+Mit der Motion Dittli hat der Bundesrat den Auftrag erhalten, unsere Armee auf die Bedrohungen hin auszurichten. Das ist dringend notwendig. [PAGE 993] 
+Wie gesagt, ich bin schon für mehr Geld für die Armee, es muss einfach kostenbewusster eingesetzt werden. Ich glaube, meine Forderung, die auch der Nationalrat postuliert hat, ist ein Weg in die richtige Richtung. Das reicht aber noch nicht. Wenn wir meinen, wir könnten mit Sparen den Finanzhaushalt im Lot halten, dann wird das nicht reichen, nicht bei der Armee und auch nicht bei der gesamten Bundesverwaltung. Deshalb ist es eben richtig, jetzt frühzeitig zu handeln und dem Bundesrat den Auftrag zu geben, eine Vorlage auszuarbeiten, um eben die zusätzlichen finanziellen Mittel für die Aufrüstung der Armee sicherzustellen. Das Volk soll dann darüber befinden und uns den Auftrag geben, entsprechend weiterzugehen.
+In diesem Sinne empfehle ich Ihnen, Artikel 1a gemäss Nationalrat anzunehmen und bei Artikel 1b meinem Antrag zu folgen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20241203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riniker Maja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.[NB]Bundesbeschluss Ib über die Planungsgrössen im Voranschlag für das Jahr 2025[GZ]
+3.[NB]Arrêté fédéral Ib concernant le cadre financier inscrit au budget 2025[GZ]
+[VS] [GZ]
+Eintreten wird ohne Gegenantrag beschlossen [GZ]
+L'entrée en matière est décidée sans opposition
+[VS]
+Detailberatung - Discussion par article [GZ]
+[VS][GZ]
+Titel und Ingress [GZ]
+Antrag der Kommission [GZ]
+Zustimmung zum Entwurf des Bundesrates
+[VS]
+Titre et préambule[GZ]
+Proposition de la commission [GZ]
+Adhérer au proj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.[NB]Bundesbeschluss Ib über die Planungsgrössen im Voranschlag für das Jahr 2025[GZ]
+3.[NB]Arrêté fédéral Ib concernant le cadre financier inscrit au budget 2025[GZ]
+[VS] [GZ]
+Eintreten wird ohne Gegenantrag beschlossen [GZ]
+L'entrée en matière est décidée sans opposition
+[VS]
+Detailberatung - Discussion par article [GZ]
+[VS][GZ]
+Titel und Ingress [GZ]
+Antrag der Kommission [GZ]
+Zustimmung zum Entwurf des Bundesrates
+[VS]
+Titre et préambule[GZ]
+Proposition de la commission [GZ]
+Adhérer au projet du Conseil fédéral [GZ]
+[VS][GZ]
+Angenommen - Adopté
+[VS]
+Anhang 2 - Annexe 2[GZ]
+[VS][GZ]
+Kontengruppen [GZ]
+Groupes de comptes[GZ]
+[VS][GZ]
+Antrag der Mehrheit [GZ]
+Personalausgaben[GZ]
+Die Behörden und Gerichte sowie die Eidgenössische Finanzkontrolle sind von der Querschnittkürzung in der Höhe von 70[NB]000[NB]000 Franken ausgenommen. [PAGE 2074] 
+Sach- und Betriebsaufwand[GZ]
+Die Querschnittkürzung in der Höhe von 20[NB]000[NB]000 Franken ist in allen Departementen, Behörden und Gerichten[NB]sowie[NB]bei[NB]der[NB]Eidgenössischen Finanzkontrolle umzusetzen.
+Beratung und externe Dienstleistungen[GZ]
+Die Querschnittkürzung in der Höhe von 35[NB]000[NB]000 Franken ist in allen Departementen, Behörden und Gerichten[NB]sowie[NB]bei[NB]der[NB]Eidgenössischen Finanzkontrolle umzusetzen.
+[VS]
+Antrag der Minderheit [GZ]
+(Funiciello, Andrey, Fehlmann Rielle, Kälin, Wermuth, Wettstein, Wyss, Zybach)[GZ]
+Personalausgaben[GZ]
+Zustimmung zum Entwurf des Bundesrates
+[VS]
+Antrag der Minderheit [GZ]
+(Wyss, Andrey, Fehlmann Rielle, Funiciello, Kälin, Wermuth, Wettstein, Zybach)[GZ]
+Sach- und Betriebsaufwand[GZ]
+Zustimmung zum Entwurf des Bundesrates
+[VS]
+Antrag der Minderheit [GZ]
+(Wyss, Andrey, Fehlmann Rielle, Funiciello, Kälin, Wermuth, Wettstein, Zybach)[GZ]
+Beratung und externe Dienstleistungen[GZ]
+Zustimmung zum Entwurf des Bundesrates
+[VS]
+Proposition de la majorité [GZ]
+Dépenses de personnel [GZ]
+Les autorités et les tribunaux ainsi que le Contrôle fédéral des finances sont exclus de la réduction transversale d'un montant de 70[NB]000[NB]000 de francs.
+Dépenses de biens et services et dépenses d'exploitation[GZ]
+La coupe transversale d'un montant de 20[NB]000[NB]000 de francs est à mettre en oeuvre dans tous les départements,[NB]autorités[NB]et[NB]tribunaux ainsi qu'au Contrôle fédéral des finances.
+Conseil et prestations de service externes[GZ]
+La coupe transversale d'un montant de 35[NB]000[NB]000 de francs est à mettre en oeuvre dans tous les départements,[NB]autorités[NB]et[NB]tribunaux ainsi qu'au Contrôle fédéral des finances.
+[VS]
+Proposition de la minorité [GZ]
+(Funiciello, Andrey, Fehlmann Rielle, Kälin, Wermuth, Wettstein, Wyss, Zybach)[GZ]
+Dépenses de personnel[GZ]
+Adhérer au projet du Conseil fédéral
+[VS]
+Proposition de la minorité [GZ]
+(Wyss, Andrey, Fehlmann Rielle, Funiciello, Kälin, Wermuth, Wettstein, Zybach)[GZ]
+Dépenses de biens et services et dépenses d'exploitation[GZ]
+Adhérer au projet du Conseil fédéral
+[VS]
+Proposition de la minorité [GZ]
+(Wyss, Andrey, Fehlmann Rielle, Funiciello, Kälin, Wermuth, Wettstein, Zybach)[GZ]
+Conseil et prestations de service externes[GZ]
+Adhérer au projet du Conseil fédéral
+[VS]
+Präsidentin (Riniker Maja, Präsidentin): Über die Anträge der Minderheiten haben wir beim Voranschlag der Verwaltungseinheiten abgestimmt.[GZ]
+[VS][GZ]
+Angenommen gemäss Antrag der Mehrheit [GZ]
+Adopté selon la proposition de la majorité
+[VS]
+[VS]
+4.[NB]Bundesbeschluss II über den Finanzplan für die Jahre 2026-2028[GZ]
+4.[NB]Arrêté fédéral II concernant le plan financier pour les années 2026-2028[GZ]
+[VS] [GZ]
+Art. 2 [GZ]
+[VS][GZ]
+Departement des Innern - Département de l'intérieur [GZ]
+[VS][GZ]
+317 Bundesamt für Statistik[GZ]
+317 Office fédéral de la statistique
+[VS]
+Antrag der Mehrheit [GZ]
+A200.0001 Funktionsaufwand (Globalbudget)[GZ]
+Kein Auftrag an den Bundesrat
+[VS]
+Antrag der Minderheit [GZ]
+(Nicolet, Bürgi Roman, Gafner, Götte, Guggisberg, Pahud, Sollberger, Stettler)[GZ]
+A200.0001 Funktionsaufwand (Globalbudget)[GZ]
+FP 2026: Fr. 165 000 000[GZ]
+FP 2027: Fr. 157 000 000[GZ]
+FP 2028: Fr. 150 000 000
+[VS]
+Proposition de la majorité [GZ]
+A200.0001 Charges de fonctionnement (enveloppe budgétaire)[GZ]
+Pas de mandat au Conseil fédéral
+[VS]
+Proposition de la minorité [GZ]
+(Nicolet, Bürgi Roman, Gafner, Götte, Guggisberg, Pahud, Sollberger, Stettler)[GZ]
+A200.0001 Charges de fonctionnement (enveloppe budgétaire)[GZ]
+PF 2026: Fr. 165 000 000[GZ]
+PF 2027: Fr. 157 000 000[GZ]
+PF 2028: Fr. 150 000 000
+[VS]
+Präsidentin (Riniker Maja, Präsidentin): Über den Antrag der Minderheit Nicolet haben wir beim Voranschlag der Verwaltungseinheiten abgestimmt. [GZ]
+[VS][GZ]
+Angenommen gemäss Antrag der Mehrheit [GZ]
+Adopté selon la proposition de la majorité
+[VS]
+[VS]
+Justiz- und Polizeidepartement [GZ]
+Département de justice et police[GZ]
+[VS][GZ]
+413 Schweizerisches Institut für Rechtsvergleichung[GZ]
+413 Institut suisse de droit comparé
+[VS]
+Antrag der Mehrheit [GZ]
+A200.0001 Funktionsaufwand (Globalbudget)[GZ]
+FP 2026: Fr. 7 000 000[GZ]
+FP 2027: Fr. 7 000 000[GZ]
+FP 2028: Fr. 7 000 000
+[VS]
+Antrag der Minderheit [GZ]
+(Funiciello, Andrey, Fehlmann Rielle, Kälin, Wermuth, Wettstein, Wyss, Zybach)[GZ]
+A200.0001 Funktionsaufwand (Globalbudget)[GZ]
+Kein Auftrag an den Bundesrat
+[VS]
+Proposition de la majorité [GZ]
+A200.0001 Charges de fonctionnement (enveloppe budgétaire)[GZ]
+PF 2026: Fr. 7 000 000[GZ]
+PF 2027: Fr. 7 000 000[GZ]
+PF 2028: Fr. 7 000 000 [PAGE 2075] 
+[VS]
+Proposition de la minorité [GZ]
+(Funiciello, Andrey, Fehlmann Rielle, Kälin, Wermuth, Wettstein, Wyss, Zybach)[GZ]
+A200.0001 Charges de fonctionnement (enveloppe budgétaire)[GZ]
+Pas de mandat au Conseil fédéral
+[VS]
+Präsidentin (Riniker Maja, Präsidentin): Über den Antrag der Minderheit Funiciello haben wir beim Voranschlag der Verwaltungseinheiten abgestimmt. [GZ]
+[VS][GZ]
+Angenommen gemäss Antrag der Mehrheit [GZ]
+Adopté selon la proposition de la majorité
+[VS]
+[VS]
+Departement für Wirtschaft, Bildung und Forschung[GZ]
+Département de l'économie, de la formation et de la recherche[GZ]
+[VS][GZ]
+701 Generalsekretariat WBF[GZ]
+701 Secrétariat général du DEFR
+[VS]
+Antrag der Mehrheit [GZ]
+A202.0137 Büro für Konsumentenfragen[GZ]
+FP 2026: Fr. 766 700[GZ]
+FP 2027: Fr. 633 400[GZ]
+FP 2028: Fr. 500 000
+[VS]
+Antrag der Minderheit [GZ]
+(Fehlmann Rielle, Andrey, Funiciello, Kälin, Wermuth, Wettstein, Wyss, Zybach)[GZ]
+A202.0137 Büro für Konsumentenfragen[GZ]
+Kein Auftrag an den Bundesrat
+[VS]
+Proposition de la majorité [GZ]
+A202.0137 Bureau de la consommation[GZ]
+PF 2026: Fr. 766 700[GZ]
+PF 2027: Fr. 633 400[GZ]
+PF 2028: Fr. 500 000
+[VS]
+Proposition de la minorité [GZ]
+(Fehlmann Rielle, Andrey, Funiciello, Kälin, Wermuth, Wettstein, Wyss, Zybach)[GZ]
+A202.0137 Bureau de la consommation[GZ]
+Pas de mandat au Conseil fédéral
+[VS]
+Präsidentin (Riniker Maja, Präsidentin): Über den Antrag der Minderheit Fehlmann Rielle haben wir beim Voranschlag der Verwaltungseinheiten abgestimmt.[GZ]
+[VS][GZ]
+Angenommen gemäss Antrag der Mehrheit [GZ]
+Adopté selon la proposition de la majorité
+[VS]
+[VS]
+Kontengruppen[GZ]
+Groupes de comptes[GZ]
+[VS][GZ]
+Antrag der Mehrheit [GZ]
+Personalausgaben[GZ]
+2026: Fr. 6 628 634 800[GZ]
+2027: Fr. 6 729 607 200[GZ]
+2028: Fr. 6 798 476 000[GZ]
+Die Behörden und Gerichte sowie die Eidgenössische Finanzkontrolle sind von der Querschnittkürzung in der Höhe von jährlich 70[NB]000[NB]000 Franken ausgenommen.
+Beratung und externe Dienstleistungen[GZ]
+FP 2026: Fr. 696 180 800[GZ]
+FP 2027: Fr. 622 389 600[GZ]
+FP 2028: Fr. 623 723 400[GZ]
+Die Querschnittkürzung in der Höhe von jährlich 35[NB]000[NB]000 Franken ist in allen Departementen, Behörden und Gerichten sowie bei der Eidgenössischen Finanzkontrolle umzusetzen.
+[VS]
+Antrag der Minderheit [GZ]
+(Funiciello, Andrey, Fehlmann Rielle, Kälin, Wermuth, Wettstein, Wyss, Zybach)[GZ]
+Personalausgaben[GZ]
+Kein Auftrag an den Bundesrat
+[VS]
+Antrag der Minderheit [GZ]
+(Wyss, Andrey, Fehlmann Rielle, Funiciello, Kälin, Wermuth, Wettstein, Zybach)[GZ]
+Beratung und externe Dienstleistungen[GZ]
+Kein Auftrag an den Bundesrat
+[VS]
+Proposition de la majorité [GZ]
+Dépenses de personnel [GZ]
+2026: Fr. 6 628 634 800[GZ]
+2027: Fr. 6 729 607 200[GZ]
+2028: Fr. 6 798 476 000[GZ]
+Les autorités et les tribunaux ainsi que le Contrôle fédéral des finances sont exclus de la réduction transversale d'un montant de 70[NB]000[NB]000 de francs par an.
+Conseil et prestations de service externes[GZ]
+PF 2026: Fr. 696 180 800[GZ]
+PF 2027: Fr. 622 389 600[GZ]
+PF 2028: Fr. 623 723 400[GZ]
+La coupe transversale d'un montant de 35[NB]000[NB]000 de francs par an est à mettre en oeuvre dans tous les départements, autorités et tribunaux ainsi qu'au Contrôle fédéral des finances.
+[VS]
+Proposition de la minorité [GZ]
+(Funiciello, Andrey, Fehlmann Rielle, Kälin, Wermuth, Wettstein, Wyss, Zybach)[GZ]
+Dépenses de personnel [GZ]
+Pas de mandat au Conseil fédéral
+[VS]
+Proposition de la minorité [GZ]
+(Wyss, Andrey, Fehlmann Rielle, Funiciello, Kälin, Wermuth, Wettstein, Zybach)[GZ]
+Conseil et prestations de service externes[GZ]
+Pas de mandat au Conseil fédéral
+[VS]
+Präsidentin (Riniker Maja, Präsidentin): Über die Anträge der Minderheiten haben wir beim Voranschlag der Verwaltungseinheiten befunden.[GZ]
+[VS][GZ]
+Angenommen gemäss Antrag der Mehrheit [GZ]
+Adopté selon la proposition de la majorité
+[VS]
+[VS]
+Block 2 - Bloc 2[GZ]
+Sicherheit und Justiz[GZ]
+Sécurité et justice
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geschätzte Frau Bürgin, ich habe eine Frage bezüglich des Bundesamtes für Cybersicherheit: Sie haben der Verhandlung beigewohnt, in der wir die Rahmenbedingungen definiert haben, wo diese 10 Millionen Franken einzusparen wären. Das VBS respektive die Armee hat ein Portefeuille an laufenden IT-Projekten im Umfang von etwa 4 Milliarden Franken. Die Eidgenössische Finanzkontrolle hat uns an x Orten gesagt, dass innerhalb dieser [PAGE 2080] IT-Projekte Einsparungen möglich sein müssten. Finden Sie, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geschätzte Frau Bürgin, ich habe eine Frage bezüglich des Bundesamtes für Cybersicherheit: Sie haben der Verhandlung beigewohnt, in der wir die Rahmenbedingungen definiert haben, wo diese 10 Millionen Franken einzusparen wären. Das VBS respektive die Armee hat ein Portefeuille an laufenden IT-Projekten im Umfang von etwa 4 Milliarden Franken. Die Eidgenössische Finanzkontrolle hat uns an x Orten gesagt, dass innerhalb dieser [PAGE 2080] IT-Projekte Einsparungen möglich sein müssten. Finden Sie, die Armee sollte in diesen IT-Projekten gar keine Effizienzgewinne realisieren?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">348823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20241209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeschi Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich spreche zuerst über die Anträge der Minderheit Amaudruz und der Minderheit II (Amaudruz) bei Artikel 52d, "Vorläufige Vergütung von Arzneimitteln". Dieser Artikel wurde ursprünglich nicht vom Bundesrat, sondern vom Nationalrat im Rahmen seiner Beratungen eingefügt.
+Der rückvergütete Innovationszugang ist ein Fortschritt, der den Innovationsstandort Schweiz stärkt und die Sicherheit bringt, dass auch Schweizer Patienten direkt ab Zulassung eines Medikaments durch Swissmedic von der Innovation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich spreche zuerst über die Anträge der Minderheit Amaudruz und der Minderheit II (Amaudruz) bei Artikel 52d, "Vorläufige Vergütung von Arzneimitteln". Dieser Artikel wurde ursprünglich nicht vom Bundesrat, sondern vom Nationalrat im Rahmen seiner Beratungen eingefügt.
+Der rückvergütete Innovationszugang ist ein Fortschritt, der den Innovationsstandort Schweiz stärkt und die Sicherheit bringt, dass auch Schweizer Patienten direkt ab Zulassung eines Medikaments durch Swissmedic von der Innovation profitieren können. Er beinhaltet ebenso ein grosses Entgegenkommen der heimischen Pharmaindustrie, welche Rückvergütungen nach Abschluss des ordentlichen Preisfestsetzungsverfahrens durch das BAG bereits vorläufig zustimmt. Das ist bemerkenswert. Der Tag-null-Ansatz darf aber nicht zum Papiertiger werden, was er mit den vom Ständerat beschlossenen Ergänzungen und Zusatzauflagen zu werden droht. In der Fassung des Ständerates wird diese Bestimmung kaum je angewandt werden. Bis Medikamente in der Schweiz auf der Spezialitätenliste aufgeführt werden - was sehr lange dauert -, sind sie nur über die Einzelfallvergütung erhältlich. Das ist nicht im Sinn der kranken Menschen in der Schweiz.
+Es gibt Vorbilder, namentlich Deutschland, die den rückvergüteten Innovationszugang schon haben. Ohne dieses Modell gemäss Beschluss des Nationalrates müssen wir den betroffenen, schwer kranken Menschen erklären, wieso sie [PAGE 2237] lebensnotwendige Medikamente immer noch über die Einzelfallvergütung beantragen und die Unsicherheit erleiden müssen, ob ein Medikament von der Kasse übernommen wird oder nicht, und wieso innovative Medikamente in der Schweiz nicht ab dem Tag der Zulassung provisorisch vergütet werden, wie das in Nachbarländern der Fall ist.
+Die Menschen verstehen nicht, wieso ein in der Schweiz zugelassenes Medikament noch nicht vergütet werden kann; vor allem verstehen sie das nicht, wenn es sich um ein innovatives Medikament handelt und ein Menschenleben auf dem Spiel steht. Es geht aber nicht nur um die Gesundheit der Menschen, sondern indirekt auch um die Kosten: Werden Menschen weniger schnell gesund, weil man ihnen wirksame Medikamente vorenthält, steigen die Kosten. Letztlich wird es nach wie vor Monate, wenn nicht Jahre dauern, bis die Medikamente endlich auf der Spezialitätenliste und für alle zugänglich sind.
+Wer der Ansicht ist, im Paket müssten alle Prozesse enthalten sein, die bei neuen Medikamenten und Indikationserweiterungen auf eine rasche Zulassung abzielen, der sollte auch hier die Anträge der Minderheiten entsprechend unterstützen. Die Eidgenössische Finanzkontrolle empfiehlt ebenfalls, dass Swissmedic und das BAG ihre beschleunigten Verfahren harmonisieren. Die rückwirkende Rückerstattung garantiert den schnellen Zugang, die Harmonisierung und die Kostenneutralität. Ich bitte Sie deshalb, beim Beschluss des Nationalrates zu bleiben. Eventualiter stimmen wir auch der Präzisierung gemäss Antrag der Minderheit I (Silberschmidt) zu.
+Damit komme ich noch zu meiner Minderheit in Artikel 52e Absatz 1 KVG zu den Kostenfolgemodellen. Hier bitte ich Sie, dem Antrag meiner Minderheit zuzustimmen, die Frage der Kostenfolgemodelle von der Hauptvorlage abzuspalten und als ausgegliederten Entwurf an die Kommission zurückzuweisen, damit zu dieser Fragestellung Anhörungen durchgeführt werden.
+Die Umsetzung der Kostenfolgemodelle auf Basis der Formulierung von Artikel 52e KVG ist heute unklar, insbesondere in Bezug auf die Frage, wann und wie im gesamten Preisfindungsprozess solche Kostenfolgemodelle zur Anwendung kommen sollen. Zudem wurde zu den Kostenfolgemodellen keine Vernehmlassung durchgeführt. Sie waren auch nicht Bestandteil der Botschaft des Bundesrates. Mit einer Rückweisung an die Kommission geben Sie uns die Gelegenheit, diese Fragestellung seriös zu erörtern und nach Anhörung der betroffenen Kreise darüber zu beschliessen.
+Ich danke Ihnen, dass Sie diesbezüglich den Antrag meiner Minderheit unterstützen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">348791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir sprechen über die Rahmenbedingungen zur Kreditverwendung. Es geht also nicht um Beitragshöhen, sondern um die Frage, ob bei den beschlossenen Querschnittkürzungen die Behörden, das heisst die Bundesversammlung, aber auch die Gerichte und die Eidgenössische Finanzkontrolle ausgenommen werden sollen oder nicht. 
+Der Nationalrat hat bei den Personalausgaben festgehalten, dass die Behörden, die Gerichte und die Eidgenössische Finanzkontrolle nicht davon betroffen sein sollen, mit gutem Grund, wi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wir sprechen über die Rahmenbedingungen zur Kreditverwendung. Es geht also nicht um Beitragshöhen, sondern um die Frage, ob bei den beschlossenen Querschnittkürzungen die Behörden, das heisst die Bundesversammlung, aber auch die Gerichte und die Eidgenössische Finanzkontrolle ausgenommen werden sollen oder nicht. 
+Der Nationalrat hat bei den Personalausgaben festgehalten, dass die Behörden, die Gerichte und die Eidgenössische Finanzkontrolle nicht davon betroffen sein sollen, mit gutem Grund, wie ich meine. Ich spreche hier namens der Verwaltungsdelegation, welche für das Budget der Bundesversammlung und der Parlamentsdienste zuständig ist.
+Wir sollten dringend davon absehen, unsere Institutionen selber zu schwächen. Das betrifft die Bundesversammlung, also das Parlament, das betrifft aber auch das Bundesgericht. Wir würden damit nämlich am Fundament, das unser Staatswesen trägt, ohne Not rütteln. Ein selbstbewusstes Parlament, das der Regierung und der Verwaltung auf Augenhöhe begegnet und seine Aufgaben als Gesetzgeber, aber auch in der Aufsicht kraftvoll wahrnehmen will, schwächt sich nicht selber, indem es aus Spargründen Sessions- oder Fraktionstage kürzt. Genau dazu käme es, würde man nicht dem Nationalrat folgen und die Bundesversammlung, aber auch die Gerichte von den Querschnitteinsparungen bei den Personalausgaben ausnehmen. 
+Der Voranschlag der Bundesversammlung für die kommenden Jahre weist eine positive Entwicklung auf. Der Aufwand reduziert sich gegenüber dem Vorjahr um 1,4 Millionen Franken und wird über die kommenden Finanzplanjahre gar um 3,4 Millionen Franken abnehmen. Der Hauptgrund dafür ist der Abschluss der PUK "Geschäftsführung der Behörden - CS-Notfusion". 
+Ich glaube, auch feststellen zu dürfen, dass ein Parlament nicht wie eine Verwaltungseinheit funktioniert, sondern dass es sich um eine zentrale Institution unserer Demokratie handelt. Die vorgeschlagenen Querschnittkürzungen würden das Parlament in seiner Tätigkeit beschneiden, gegenüber dem Bundesrat und der Bundesverwaltung schwächen und könnten so auch zu einer Einschränkung unseres Einflusses führen. Ein funktionsfähiges, effizientes und stabiles Parlament ist eine der tragenden Säulen unserer Demokratie. Es liegt in unserer gemeinsamen Verantwortung, diese Institution zu schützen und sicherzustellen, dass sie ihre Aufgaben ohne Einschränkungen wahrnehmen kann. 
+Deshalb beantrage ich Ihnen namens der Verwaltungsdelegation, bei "Personalausgaben", bei "Sach- und Betriebsaufwand" sowie auch bei "Beratung und externe Dienstleistungen" die Bundesversammlung, die Gerichte und die Eidgenössische Finanzkontrolle von den Querschnittkürzungen auszunehmen. Andernfalls müsste die Verwaltungsdelegation hingehen und im Personalbereich der Bundesversammlung Kürzungen vornehmen. Diese Kürzungen wären wahrscheinlich damit verbunden, dass auf Sitzungstage des Parlamentes oder auch auf Fraktionstage verzichtet werden müsste, um den Personalaufwand zu reduzieren.
+Eine zweite Konsequenz wäre, dass neben der Reduktion von Sessions- und Fraktionstagen auf Expertisen im Beratungs- und Dienstleistungsbereich verzichtet werden müsste, die dem Parlament zugutekommen, wenn wir beispielsweise in den Kommissionen gegenüber der Verwaltung argumentieren. 
+Ein Wort noch zu den Gerichten: Auch bei den Gerichten ist es gerechtfertigt, sie von generellen Querschnittkürzungen auszunehmen. Das Budget der Gerichte entwickelt sich nämlich nicht derart, dass einschneidende Massnahmen notwendig würden. Die Ausgaben im Budget 2025 sind im Vergleich zum Vorjahresbudget um 0,8 Prozent gestiegen. Es handelt sich dabei vornehmlich um Personalkosten bei den Gerichten. Es gibt beim Bundesgericht gute Gründe dafür: Aufgrund der erheblichen Arbeitsmehrbelastung in den strafrechtlichen Abteilungen ist das Bundesgericht gezwungen, zusätzliche Gerichtsschreiberstellen zu schaffen. Ein ähnliches Phänomen der Überlastung der Strafjustiz lässt sich auch auf der Ebene der kantonalen Justizbehörden beobachten. Das hat die Konferenz der kantonalen Justiz- und Polizeidirektorinnen und -direktoren veranlasst, eine Studie zur Ermittlung der Ursachen in Auftrag zu geben.
+Bei den Gerichten ist zusätzlich zu erwähnen, dass das Bundesgericht im nächsten Jahr sein 150-Jahr-Jubiläum feiert. Dieses besondere Jahr bietet auch eine gute Gelegenheit, das oberste Gericht des Bundes der Bevölkerung näherzubringen.
+Das sind zusammengefasst die Gründe, weshalb ich Sie ersuche, wie der Nationalrat bei der Kürzung der Personalausgaben auf den Miteinbezug von Behörden und Gerichten sowie der Eidgenössischen Finanzkontrolle zu verzichten und konsequenterweise beim Sach- und Betriebsaufwand sowie beim Bereich Beratung und externe Dienstleistungen gleich zu verfahren. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">348806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, Herr Kollege Engler hat auch in der Finanzkommission referiert. Niemand nahm diesen Antrag auf. Wir hatten gut zugehört. Nun hat der Nationalrat, wie Sie gesagt haben, beschlossen, bei "Personalausgaben" Behörden und Gerichte sowie die Eidgenössische Finanzkontrolle auszunehmen, hingegen gelten die Querschnittkürzungen bei "Sach- und Betriebsaufwand" und bei "Beratung und externe Dienstleistungen" für alle. Ihre Finanzkommission beantragt Ihnen, diese Bedingungen des Nationalrates bei "Sach-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ja, Herr Kollege Engler hat auch in der Finanzkommission referiert. Niemand nahm diesen Antrag auf. Wir hatten gut zugehört. Nun hat der Nationalrat, wie Sie gesagt haben, beschlossen, bei "Personalausgaben" Behörden und Gerichte sowie die Eidgenössische Finanzkontrolle auszunehmen, hingegen gelten die Querschnittkürzungen bei "Sach- und Betriebsaufwand" und bei "Beratung und externe Dienstleistungen" für alle. Ihre Finanzkommission beantragt Ihnen, diese Bedingungen des Nationalrates bei "Sach- und Betriebsaufwand" und bei "Personalausgaben" zu streichen. Weshalb?
+Wenn die finanzielle Lage schlecht ist und das Parlament an allen Ecken und Enden kürzen muss, stellt sich die Frage, ob es dann sachgerecht ist, wenn das Parlament bei sich selbst nicht kürzt. Bei den Behörden stellt sich die Frage, ob man glaubwürdig sein möchte. Eine weitere Frage ist: Sind die Gerichte hier einfach auszunehmen? Kann man nicht auch von den Gerichten erwarten, dass sie irgendwo den Gürtel enger schnallen, dass sie vielleicht etwas effizienter arbeiten und vielleicht die Prioritäten anders setzen? Kann man das nicht auch von der Eidgenössischen Finanzkontrolle erwarten?
+Von allen wissen wir, dass da gute Arbeit gemacht wird. Das können wir aber auch von der ganzen Verwaltung sagen, und [PAGE 1135] deshalb ist es nach Ansicht der Finanzkommission sachgerecht, wenn man bei den Kürzungen alle einbezieht, wenn man die Gerichte einbezieht, die Eidgenössische Finanzkontrolle und auch die Behörden. Es ist eben sachgerecht, dass alle ihren Beitrag leisten müssen, damit sich die finanzielle Lage für unser Land wieder besser präsentieren wird.
+Darum bitte ich Sie, die beiden Streichungsanträge der Finanzkommission zu unterstützen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">348916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caroni Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement für Umwelt, Verkehr, Energie und Kommunikation [GZ]
+Département de l'environnement, des transports, de l'énergie et de la communication [GZ]
+[VS][GZ]
+810 Bundesamt für Umwelt[GZ]
+810 Office fédéral de l'environnement [GZ]
+[VS][GZ]
+Antrag der Kommission [GZ]
+A231.0323 Wildtiere und Jagd[GZ]
+Die zusätzlichen Mittel in der Höhe von 500[NB]000 Franken sind zugunsten der Förderung der Massnahmen zur Arten- und Lebensraumförderung in Jagdbanngebieten und Wasser- und Zugvogelreservaten einz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement für Umwelt, Verkehr, Energie und Kommunikation [GZ]
+Département de l'environnement, des transports, de l'énergie et de la communication [GZ]
+[VS][GZ]
+810 Bundesamt für Umwelt[GZ]
+810 Office fédéral de l'environnement [GZ]
+[VS][GZ]
+Antrag der Kommission [GZ]
+A231.0323 Wildtiere und Jagd[GZ]
+Die zusätzlichen Mittel in der Höhe von 500[NB]000 Franken sind zugunsten der Förderung der Massnahmen zur Arten- und Lebensraumförderung in Jagdbanngebieten und Wasser- und Zugvogelreservaten einzusetzen.
+[VS]
+Proposition de la commission [GZ]
+A231.0323 Animaux sauvages et chasse[GZ]
+Les moyens supplémentaires d'un montant de 500[NB]000 francs doivent être utilisés en faveur de la promotion des[NB]mesures[NB]de[NB]conservation des espèces et des habitats [PAGE 1134] dans les districts francs et les réserves d'oiseaux d'eau et de migrateurs. [GZ]
+[VS][GZ]
+Angenommen - Adopté
+[VS]
+[VS]
+Kontengruppen [GZ]
+Groupes de comptes [GZ]
+[VS] [GZ]
+Antrag der Kommission [GZ]
+Personalausgaben[GZ]
+Sach- und Betriebsaufwand[GZ]
+Streichen
+Beratung und externe Dienstleistungen[GZ]
+Zustimmung zum Beschluss des Nationalrates
+[VS]
+Antrag Engler [GZ]
+Personalausgaben [GZ]
+Sach- und Betriebsaufwand [GZ]
+Beratung und externe Dienstleistungen [GZ]
+Die Behörden und Gerichte sowie die Eidgenössische Finanzkontrolle sind von den Querschnittkürzungen ausgenommen.
+[VS]
+Proposition de la commission [GZ]
+Dépenses de personnel [GZ]
+Dépenses de biens et services et dépenses d'exploitation[GZ]
+Biffer
+Conseil et prestations de service externes[GZ]
+Adhérer à la décision du Conseil national
+[VS]
+Proposition Engler [GZ]
+Dépenses de personnel [GZ]
+Dépenses de biens et services et dépenses d'exploitation [GZ]
+Conseil et prestations de service externes [GZ]
+Les autorités et les tribunaux ainsi que le Contrôle fédéral des finances sont exclus des réductions transversales.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20241212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie haben es gehört, mit der SGC ist der Aufbau einer neuen, auf die Anforderungen und Bedürfnisse des Bundes zugeschnittenen Hybrid-Multi-Cloud-Infrastruktur geplant. In der SGC werden mehrere Public-Cloud-Angebote von externen Cloud-Dienstleistern und bundesverwaltungseigene Private-Cloud-Dienste vereint. Private-Cloud-Angebote sind Angebote, die in den Rechenzentren der Bundesverwaltung betrieben werden. Es gibt also Public-Cloud-Angebote von externen, privatwirtschaftlichen Anbietern, und es</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sie haben es gehört, mit der SGC ist der Aufbau einer neuen, auf die Anforderungen und Bedürfnisse des Bundes zugeschnittenen Hybrid-Multi-Cloud-Infrastruktur geplant. In der SGC werden mehrere Public-Cloud-Angebote von externen Cloud-Dienstleistern und bundesverwaltungseigene Private-Cloud-Dienste vereint. Private-Cloud-Angebote sind Angebote, die in den Rechenzentren der Bundesverwaltung betrieben werden. Es gibt also Public-Cloud-Angebote von externen, privatwirtschaftlichen Anbietern, und es gibt Private-Cloud-Angebote in den Rechenzentren der Bundesverwaltung. Diese werden auch dort betrieben. Damit soll es dem Bund möglich sein, künftig das Massengeschäft im Cloud-Bereich über eine einheitliche Gesamtlösung abzuwickeln. 
+Datenschutz und Informationssicherheit stehen dabei als zentrale Kernanforderungen an die zukünftigen IT-Infrastrukturen im Vordergrund. Deshalb nimmt das ja auch bei den Krediten einen entsprechenden Teilbereich ein. 
+Sie haben der Botschaft sicher entnommen, dass das Vorhaben über den Aufbau der SGC hinausgeht und Investitionen in weitere Bereiche vorsieht, ich habe es bereits erwähnt: in die Cybersicherheit, in die Netzwerkinfrastruktur; das sind integrale Bestandteile. Dem Bundesrat war es wichtig, ein Gesamtpaket zu schnüren, welches transparent alle Bereiche ausweist, in denen Investitionen anfallen, um die SGC zielgerichtet nutzen zu können. Insgesamt fallen über die gesamte Laufzeit von acht Jahren Kosten in der Höhe von 319,4 Millionen Franken an. Davon beantragt der Bundesrat dem Parlament 246,9[NB]Millionen[NB]Franken[NB]als[NB]Verpflichtungskredit. 
+Zu Ständerat Schwander: Sie haben ja gelesen, auch in der Botschaft, dass eigentlich ab 2026 die ersten Ergebnisse nutzbar sein sollen. Das ist für ein so grosses Projekt - ich bin keine Informatikspezialistin - relativ früh. Ab diesem Zeitpunkt werden Neuentwicklungen und Erneuerungen von Fachanwendungen wenn immer möglich direkt auf dieser Cloud realisiert. Nachher erfolgt dann die Migration; das haben[NB]Sie[NB]auch[NB]gesehen.[NB]Es[NB]ist ein aufwendiges Vorhaben. 
+Sie haben die Risiken angesprochen. Auf Seite 25 der Botschaft spricht der Bundesrat diese Risiken selber an; er spricht auch von "technischen Risiken", von "disruptiven Innovationen". Ich denke, es ist dann Sache der Projektleitung, das immer mitzuberücksichtigen und mitzudenken. Das passiert dann bei der operativen Umsetzung; Sie haben das von Ständerat Hegglin gehört. Ich begrüsse es sehr, dass das sehr eng begleitet wird. Bei IKT-Projekten dieser Grössenordnung gibt es genaue Vorschriften, wie das abgewickelt werden muss. Ich bin auch froh, wenn die FinDel und die EFK das eng begleiten. Da habe ich nichts dagegen, mir macht das keine Angst, im Gegenteil. Es ist auch wichtig für die Departementsleitung. Wir können ja hier nicht bei jedem Detail [PAGE 1228] nahe dran sein, und deshalb ist es wichtig für uns, auch diese Rückmeldungen zu haben. 
+Mit diesen Investitionen in die SGC leistet der Bund einen wichtigen Beitrag zur Zukunftsfähigkeit der Bundes-IT, auch über das unmittelbare Cloud-Umfeld hinaus. So liefert die SGC das geeignete technische Fundament, um künftige Digitalisierungsvorhaben aufbauen zu können. 
+Auch Kantone, Städte und Gemeinden sollen bei Interesse für ihre Digitalisierung auf die SGC setzen können. Wir haben hier ja auch entsprechende Anträge. Es haben mehrere Kantone, insbesondere Kantone der Romandie, ihr Interesse bekundet. Aber ich muss schon sagen, dass es eine Infrastruktur des Bundes ist; es ist die IT-Infrastruktur des Bundes. Es hat niemand etwas dagegen, dass sich die Kantone anhängen können. Aber teilweise - weniger im Ständerat als im Nationalrat - kam plötzlich die Vorstellung auf, dass das jetzt das grosse Digitalisierungsvorhaben sei. Das ist es nicht. Es ist die IT-Infrastruktur des Bundes, es sind sozusagen die Schienen des Bundes, auf denen die Züge fahren.
+Berechnungen zeigen, dass die Kosten für eine Weiterführung der derzeitigen Situation die Kosten für eine Erneuerung, sprich für den Aufbau einer SGC, langfristig übersteigen werden. Es lohnt sich nicht, in eine alte Infrastruktur zu investieren, die nicht mehr funktioniert. Deshalb braucht es frühzeitig eine Lösung.
+Ich habe es bereits gesagt: Die SGC ist zwar für die Anforderungen und Bedürfnisse der Bundesbehörden konzipiert, vorgesehen ist aber, dass sie dereinst allen föderalen Ebenen zur Verfügung steht. Eine Nutzung der SGC bietet den Kantonen auch eine Reihe von Vorteilen. Die SGC ist eine Investition in die Zukunft der gesamten Schweiz. Sie stärkt die digitale Souveränität, fördert die Innovation und steigert die Effizienz der öffentlichen Verwaltung.
+Im Auftrag der nationalrätlichen Finanzkommission hat das Finanzdepartement in einem Bericht vom 26.[NB]August 2024 festgehalten, dass der Bund die Kantone nicht dazu verpflichten kann, die SGC zu nutzen; ich habe vorhin erwähnt, dass plötzlich eine Diskussion darüber aufkam. Falls die Kantone Interesse an einer Nutzung haben, können sie jedoch dazu verpflichtet werden, bestimmte Normen und Standards einzuhalten. Das ist logisch; man kann nicht mitmachen, wenn man nicht gewisse Standards für die Erfassung von digitalen Daten erfüllt.
+Noch ein Wort zu den neuen Artikeln, die der Nationalrat eingefügt hat, ich muss später dann nicht mehr viel hinzufügen, Herr Präsident.
+Bei den Beratungen im Nationalrat vom 25.[NB]September wurde Artikel 1 des Entwurfes des Bundesbeschlusses zu einem Zweckartikel ausgebaut. Man hat hier teilweise das Wording der Botschaft übernommen. Der Bundesrat war mit dieser Ergänzung einverstanden. Damit werden die mit der SGC verfolgten Ziele und ihr Zweck korrekt beschrieben.
+In Absatz 4 des vorgeschlagenen neuen Artikels wird festgehalten, dass bei Beschaffungen im Zusammenhang mit der SGC wenn möglich offene Standards, Open-Source-Software und Unternehmen mit Sitz in der Schweiz bevorzugt behandelt werden sollen. Der Bundesrat begrüsst die Formulierung "wenn möglich". Die Nutzung von offenen Standards und Open-Source-Software in staatlichen Private-Cloud-Lösungen bietet zahlreiche Vorteile, vor allem Transparenz, Flexibilität und Kosteneffizienz. Dennoch ist es für die Verwaltung wichtig, die notwendige Flexibilität zu erhalten, um je nach Anforderungen auch auf proprietäre Lösungen zurückgreifen zu können. Nur so kann sichergestellt werden, dass das Potenzial beider Welten zielgerichtet ausgeschöpft werden kann. Eine Kombination aus Open-Source- und kommerziellen Lösungen liefert in vielen Fällen die besten Ergebnisse. Das wird in der Praxis schon heute so gehandhabt.
+Bei der Auflage, wenn möglich Unternehmen mit Sitz in der Schweiz zu bevorzugen, gilt es zu beachten, dass wir uns hier in einem Spannungsfeld mit dem Beschaffungsrecht befinden. Eine Bevorzugung von Unternehmen in der Schweiz einzig aus dem Grund, die Wertschöpfung in der Schweiz zu behalten, würde dem Bundesgesetz über das öffentliche Beschaffungswesen und dem übergeordneten Staatsvertragsrecht widersprechen.
+Unser Verständnis der Formulierung des Nationalrates ist - und das blieb unwidersprochen -, dass die Beschaffungen so ausgestaltet werden sollen, dass Unternehmen, die der hiesigen Jurisdiktion unterworfen sind, wenn immer möglich bevorzugt werden. Sie wissen das, Herr Juillard: Es ist auch etwas eine Frage der Ausschreibung. Man kann andere aufgrund des Völkerrechts und des Bundesgesetzes über das öffentliche Beschaffungswesen nicht von Anfang an völlig ausschliessen. Es ist aber etwas eine Frage der Redaktion der Ausschreibung.
+Ihre Finanzkommission hat sich entschieden, zwei Anpassungen zu beantragen: Einerseits wird beantragt, die Formulierung betreffend die Reduktion des ökologischen Fussabdrucks durch die SGC etwas zu entschärfen. Andererseits sollen die Konditionen für die Nutzung der SGC durch die Kantone präzisiert werden. Der Bundesrat ist mit diesen Anpassungen einverstanden.
+In Bezug auf die beantragte Präzisierung von Artikel 1 Absatz 5 betreffend Kostendeckung kann festgehalten werden, dass sie im Einklang mit dem heute schon geltenden Grundsatz von Vollkostenrechnung und Marktkonformität für die Leistungen des Bundes zugunsten von Dritten steht. Das ist bereits heute im Finanzhaushaltgesetz so vorgesehen. In Artikel 11 Absatz 4 EMBAG wird ferner festgehalten, dass sich die Kantone anteilmässig an den Kosten beteiligen müssen, wenn sie IKT-Mittel des Bundes nutzen.
+Die zweite Präzisierung in Artikel 1 Absatz 5, die vorsieht, dass der Bund den Kantonen und Gemeinden die SGC zur Verfügung stellen kann, ist ebenfalls zu begrüssen. Die Kann-Bestimmung - und damit habe ich das schon ausgeführt, Herr Präsident, ich muss mich dann bei der Detailberatung nicht mehr melden - entspricht der Konzeption von Artikel 11 Absatz 3 EMBAG, wonach der Bund den Kantonen und Gemeinden IKT-Mittel für bestimmte Aufgaben zur Verfügung stellen kann. Der Bund kann die Kantone und Gemeinden jedoch, wie erwähnt, nicht zur Nutzung der SGC verpflichten. Als Pendant dazu sollte der Bund seinerseits auch im[NB]Hinblick[NB]auf[NB]Haftungsrisiken nicht dazu verpflichtet werden, die SGC den Kantonen und Gemeinden zur Verfügung zu stellen.
+Damit habe ich geschlossen.
+Ich bitte Sie, auf die Vorlage einzutreten und Beschlüsse gemäss meinen Ausführungen zu fassen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mühlemann Benjamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namens der Kommissionsminderheit beantrage ich Ihnen, dass wir die Behörden, das heisst die Bundesversammlung, aber auch die Gerichte und die EFK von diesen Querschnittkürzungen ausnehmen. Eine grössere Minderheit will dies bei der Position "Sach- und Betriebsaufwand" deklarieren, eine kleinere Minderheit bei der Position "Beratung und externe Dienstleistungen". Ich spreche gerade für beide Minderheiten. 
+Entgegen dem Beschluss des Nationalrates möchten wir an dieser Rahmenbedingung für die Kred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namens der Kommissionsminderheit beantrage ich Ihnen, dass wir die Behörden, das heisst die Bundesversammlung, aber auch die Gerichte und die EFK von diesen Querschnittkürzungen ausnehmen. Eine grössere Minderheit will dies bei der Position "Sach- und Betriebsaufwand" deklarieren, eine kleinere Minderheit bei der Position "Beratung und externe Dienstleistungen". Ich spreche gerade für beide Minderheiten. 
+Entgegen dem Beschluss des Nationalrates möchten wir an dieser Rahmenbedingung für die Kredite festhalten. Die Argumente hat uns der Vizepräsident, Kollege Engler, in der letzten Runde ausführlich dargelegt, und wir haben dies tatsächlich auch in der Kommission nochmals sehr ernsthaft diskutiert. Ich fasse kurz die Argumente der Minderheit zusammen und lege den Fokus auf das Parlament. Insbesondere das Parlament sollte sich nicht selber schwächen, sondern sich so aufstellen, dass es der Regierung und der Verwaltung auf Augenhöhe begegnen kann und gerade auch die Aufsichtstätigkeit, seine Kernaufgabe, möglichst effektiv wahrnehmen kann. Man darf - das ist auch eine sehr wichtige Information - auch würdigen, dass sich das Budget der Bundesversammlung für die kommenden Jahre positiv entwickelt und eben nicht wächst. 
+Mit zusätzlichen Kürzungen müssten gemäss Auskunft der Verwaltungsdelegation die Sessionstage reduziert und Fraktionstage gestrichen werden, und es könnten weniger Expertisen im Beratungs- und Dienstleistungsbereich in Anspruch genommen werden. Die Minderheit sieht dies kritisch, weil das eine Schwächung bedeuten würde. 
+Vielleicht noch ein Wort zur EFK: Ich bin selber Mitglied der Finanzdelegation, die sehr intensiv mit der EFK zusammenarbeitet. Uns steht ein enorm wertvolles Instrumentarium zur Verfügung, das uns eine effiziente Aufsichtstätigkeit überhaupt erst ermöglicht, und die EFK - das schauen wir in der FinDel jeweils an - ist selber auch effizient aufgestellt. Hier gilt also genau das Gleiche: bitte nicht schwächen.
+Bitte stimmen Sie mit der Minderheit. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hier geht es darum, ob die Behörden, die Gerichte und die Eidgenössische [PAGE 1221] Finanzkontrolle (EFK) von den Querschnittkürzungen ausgenommen sein sollen. Kollege Engler hat letztes Mal einen entsprechenden Antrag gestellt, der vom Ständerat angenommen wurde. Nun hat der Nationalrat daran festgehalten, dass diese Querschnittkürzungen bei "Sach- und Betriebsaufwand" und bei "Beratung und externe Dienstleistungen" für alle Instanzen gelten sollen. Die Personalausgaben, sprich der Personalber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hier geht es darum, ob die Behörden, die Gerichte und die Eidgenössische [PAGE 1221] Finanzkontrolle (EFK) von den Querschnittkürzungen ausgenommen sein sollen. Kollege Engler hat letztes Mal einen entsprechenden Antrag gestellt, der vom Ständerat angenommen wurde. Nun hat der Nationalrat daran festgehalten, dass diese Querschnittkürzungen bei "Sach- und Betriebsaufwand" und bei "Beratung und externe Dienstleistungen" für alle Instanzen gelten sollen. Die Personalausgaben, sprich der Personalbereich, sind davon ausgenommen. Aber bei "Sach- und Betriebsaufwand" und bei "Beratung und externe Dienstleistungen" sollen auch die Behörden, die Gerichte und die EFK den Kürzungen unterliegen. 
+Die Finanzkommission hat diesen Punkt noch einmal kontrovers diskutiert. Die Mehrheit empfiehlt Ihnen, entgegen dem Beschluss des Ständerates vom letzten Mal, hier nun dem Nationalrat zu folgen. Eine Kommissionsminderheit möchte hingegen die Behörden und Gerichte sowie die EFK generell ausnehmen. 
+Vielleicht noch ein Hinweis zu den Überlegungen der Kommissionsmehrheit: Wir sind der Ansicht, dass die Budgetverantwortung generell wahrgenommen werden soll, insbesondere auch bei den Gerichten. Dies hat unserer Meinung nach nichts mit der Unabhängigkeit der Gerichte zu tun. Die Budgetverantwortung liegt beim Parlament. Wir haben vonseiten unserer "Bundespräsidentin-elect" gehört, dass sie die Gerichte immer wieder dazu aufgefordert habe, diese Massnahmen freiwillig mitzutragen, und dass dies bisher nie erfolgt sei. 
+Deshalb stellt die Mehrheit der Kommission den Antrag, hier dem Nationalrat zu folgen. Die Minderheit wird ihre Meinung selbstverständlich auch noch darlegen. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Bundesverwaltung ist mit einer wachsenden Nachfrage nach IT-Lösungen und mit gesteigerten Anforderungen an eine leistungsfähige, zuverlässige und sichere IT-Infrastruktur konfrontiert. Cloud-Dienste gewinnen in diesem Zusammenhang als Schlüsselelemente der digitalen Transformation zunehmend an Bedeutung. Aus diesem Grund hat der Bundesrat am 11.[NB]Dezember 2020 die Cloud-Strategie des Bundes verabschiedet. 
+Diese Strategie gilt es auch beim grössten IKT-Leistungserbringer der Bundesverwaltu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Bundesverwaltung ist mit einer wachsenden Nachfrage nach IT-Lösungen und mit gesteigerten Anforderungen an eine leistungsfähige, zuverlässige und sichere IT-Infrastruktur konfrontiert. Cloud-Dienste gewinnen in diesem Zusammenhang als Schlüsselelemente der digitalen Transformation zunehmend an Bedeutung. Aus diesem Grund hat der Bundesrat am 11.[NB]Dezember 2020 die Cloud-Strategie des Bundes verabschiedet. 
+Diese Strategie gilt es auch beim grössten IKT-Leistungserbringer der Bundesverwaltung, beim BIT, umzusetzen. Dessen aktuelle Cloud-Infrastruktur ist jedoch technologisch zunehmend veraltet und kann den Anforderungen an eine leistungsfähige IKT-Infrastruktur immer weniger gerecht werden. Der geringe Industrialisierungsgrad der heutigen Cloud-Lösung führt aufgrund von Kapazitätserhöhungen zu einem massiven Anstieg der Betriebskosten. Es gilt daher, rechtzeitig eine geeignete Hybrid-Multi-Cloud-Infrastruktur bereitzustellen. "Hybrid" bedeutet, dass die Swiss Government Cloud (SGC) sowohl Public-Cloud-Dienste von externen Cloud-Dienstleistern als auch bundesverwaltungseigene Private-Cloud-Dienste in sich vereint. "Multi" impliziert, dass die Angebote mehrerer externer Cloud-Anbieter zur Verfügung stehen, sodass Abhängigkeiten reduziert werden können. 
+Dies soll es der SGC der Bundesverwaltung künftig ermöglichen, das Massengeschäft im Cloud-Bereich über eine einheitliche Gesamtlösung abzuwickeln. Zu diesem Zweck wird ein ganzheitlicher Ansatz verfolgt. Nebst dem Aufbau der Hybrid-Multi-Cloud-Infrastruktur werden auch Investitionen in die Bereiche Ausbildung, Beratung und Governance, Betriebs- und kommerzielle Prozesse, Cybersicherheit und Netzwerkinfrastruktur getätigt. Damit wird sichergestellt, dass die SGC zielgerichtet, effizient und sicher aufgebaut und genutzt werden kann. 
+Kantone, Städte und Gemeinden sollen bei Interesse ebenfalls vom Angebot dieser Cloud-Lösungen profitieren können. Mehrere Kantone haben diesbezüglich bereits ihr Interesse bekundet. Eine Nutzung der Bundes-Cloud bietet auch den Kantonen eine Reihe von Vorteilen. Das wurde auch in unserem Schwesterrat diskutiert. In einer zunehmend vernetzten Welt ist die digitale Transformation auch für die Kantone unerlässlich. Die damit verbundenen finanziellen Herausforderungen betreffen sie dabei besonders stark. So sind für moderne IT-Infrastrukturen hohe Anfangsinvestitionen notwendig, bevor man überhaupt von der Effizienz profitieren kann. Die gemeinsame Nutzung der Clouds könnte dazu führen, dass die Kantone ihre Investitionen für den Aufbau einer IT-Infrastruktur verringern können. Dies würde die Kantonsbudgets erheblich entlasten. Zudem würde es den Kantonen eine flexible Anpassung ihrer IT-Ressourcen an die jeweiligen Bedürfnisse ermöglichen, wodurch Überkapazitäten vermieden und wiederum Kosten eingespart werden könnten. Die Kommissionsmehrheit möchte es den Kantonen ermöglichen, an der Bundeslösung teilzunehmen, aber dem Bund nicht die Verpflichtung auferlegen, die Kantone gleichwertig zu behandeln - dazu aber mehr beim entsprechenden Gesetzesartikel.
+Die Cloud-Lösungen schaffen die Grundlage für den Einsatz innovativer Technologien. Wichtige Beispiele hierfür sind künstliche Intelligenz oder auch Datenanalysen, die ein enormes Potenzial aufweisen, um Verwaltungsprozesse zu optimieren und Dienstleistungen zu entwickeln. 
+Organisatorisch ist das Eidgenössische Finanzdepartement Auftraggeberin des Programms. Weiter werden ein Programm- und ein Fachausschuss mit Vertreterinnen und Vertretern der IKT-Leistungserbringer und -Leistungsbezüger sowie der Bundeskanzlei eingerichtet. Die Ausschüsse sollen sicherstellen, dass die IKT-Leistungserbringer angemessen beteiligt sind und die Bedürfnisse der Leistungsbezüger berücksichtigt werden. Aufgrund der Grösse und der Komplexität des Vorhabens wird zudem ein starkes, unabhängiges Qualitäts- und Risikomanagement aufgebaut, das über alle Verantwortungsstufen die Qualität der Arbeiten überprüft sowie die Risiken erfasst und bewertet. Die Realisierung soll in den Jahren 2025 bis 2032 erfolgen. Ab 2027 soll mit der Migration der Fachanwendungen aus der alten Systemlandschaft begonnen werden. Die Migrationsarbeiten sollen bis 2030 abgeschlossen sein.
+Der beantragte Verpflichtungskredit beläuft sich auf 246,9 Millionen Franken. Der Verpflichtungskredit wird in zwei Tranchen aufgeteilt. Die Freigabe der ersten Tranche von 103,2 Millionen Franken für die Jahre 2025 bis 2027 erfolgt durch die Bundesversammlung mit dem Bundesbeschluss. Die zweite Tranche von 143,7 Millionen Franken für die Jahre 2028 bis 2032 wird durch den Bundesrat freigegeben, sobald die entsprechenden Voraussetzungen erfüllt sind.
+Da es sich um ein IKT-Schlüsselprojekt handelt, wird es von den Finanzkommissionen, deren Subkommissionen und der Finanzdelegation eng begleitet. Die IKT-Schlüsselprojekte werden standardmässig überwacht, genauso wie beispielsweise Dazit oder Superb. Es gibt deshalb einen halbjährlichen Standbericht. Gleichzeitig gibt es auch Prüfungen durch die Eidgenössische Finanzkontrolle. Diese Prüfungen werden regelmässig durchgeführt und anschliessend auch der FinDel unterbreitet.
+In der Kommission war Eintreten unbestritten. In der Gesamtabstimmung wurde die Vorlage einstimmig angenommen. Bei den Minderheits- und Mehrheitsanträgen werde ich dann nochmals das Wort ergreifen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La déclaration de notre collègue Carlo Sommaruga me pousse à réagir. Je ne vois pas en quoi la formulation proposée par la minorité et par la majorité - finalement, quelle que soit la variante -, empêcherait notre autorité, le Parlement, à peut-être mandater des experts externes pour nous donner des avis. 
+Simplement, la majorité veut que ce soit la même règle pour tout le monde. On n'exclut pas la possibilité de confier des mandats à l'externe. Alors que la minorité voudrait qu'une partie de l'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La déclaration de notre collègue Carlo Sommaruga me pousse à réagir. Je ne vois pas en quoi la formulation proposée par la minorité et par la majorité - finalement, quelle que soit la variante -, empêcherait notre autorité, le Parlement, à peut-être mandater des experts externes pour nous donner des avis. 
+Simplement, la majorité veut que ce soit la même règle pour tout le monde. On n'exclut pas la possibilité de confier des mandats à l'externe. Alors que la minorité voudrait qu'une partie de l'administration, sous prétexte d'indépendance, puisse faire comme elle veut, sans respecter les règles imposées à l'essentiel de l'administration fédérale. Je crois que même si on fait partie d'un tribunal ou du Contrôle fédéral des finances, cela n'exclut pas d'être soumis à la loi comme tout le monde. 
+C'est la raison pour laquelle je vous invite vraiment à suivre la majorité de la commission.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broulis Pascal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je répéterai simplement qu'il n'y a qu'un seul budget. Le principe de l'universalité fait que l'on ne devrait pas avoir de passe-droits. Quand on commence à avoir des passe-droits et qu'il n'y a plus d'argent dans la caisse, comment fait-on? Les tribunaux envoient un bulletin pour les impôts aux contribuables pour payer le Contrôle fédéral des finances, pour payer les tribunaux et autres? Non. Le principe de l'universalité d'une seule caisse veut que l'on traite d'une façon équitable chaque pres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je répéterai simplement qu'il n'y a qu'un seul budget. Le principe de l'universalité fait que l'on ne devrait pas avoir de passe-droits. Quand on commence à avoir des passe-droits et qu'il n'y a plus d'argent dans la caisse, comment fait-on? Les tribunaux envoient un bulletin pour les impôts aux contribuables pour payer le Contrôle fédéral des finances, pour payer les tribunaux et autres? Non. Le principe de l'universalité d'une seule caisse veut que l'on traite d'une façon équitable chaque prestation. S'il n'y a pas assez, on augmente les impôts, on utilise la dette ou on fait des économies. C'est ainsi que cela fonctionne. Comme l'a très bien dit M. Juillard, cela n'empêchera jamais le Contrôle fédéral des finances ou les tribunaux de demander une rallonge s'ils constatent tout à coup une situation grave. Il y a des règles. Aujourd'hui, on traite d'un budget, il y aura le supplément II, un supplément budgétaire qui peut venir, mais ce sont les règles usuelles. Je vous encourage à confirmer cette pratique. Si chaque secteur commence à décider pour lui-même, on revient au Moyen-Age. C'est le principe de l'affectation de l'impôt. Quand on affecte l'impôt, on[NB]rentre[NB]automatiquement[NB]dans un modèle qui n'est plus démocratique. 
+Je vous encourage à soutenir la proposition de la majorité. [PAGE 1222] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20241216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vetroswiss est chargé du prélèvement, de la gestion et de l'utilisation de la taxe d'élimination anticipée. Son rapport de gestion livre tous les renseignements utiles quant à ces activités. Les décomptes erronés peuvent faire l'objet d'une contestation directement auprès de Vetroswiss ou auprès de l'Office fédéral de l'environnement. Le prélèvement, la gestion, l'utilisation et le montant de la taxe sont régis par l'ordonnance sur les emballages pour boissons. Les emballages pour boissons, tout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vetroswiss est chargé du prélèvement, de la gestion et de l'utilisation de la taxe d'élimination anticipée. Son rapport de gestion livre tous les renseignements utiles quant à ces activités. Les décomptes erronés peuvent faire l'objet d'une contestation directement auprès de Vetroswiss ou auprès de l'Office fédéral de l'environnement. Le prélèvement, la gestion, l'utilisation et le montant de la taxe sont régis par l'ordonnance sur les emballages pour boissons. Les emballages pour boissons, tout comme la taxe d'élimination anticipée, sont soumis à la TVA. Les recettes de cette taxe peuvent être utilisées pour la collecte, le transport et le recyclage du verre usagé, de même que pour des campagnes d'information, ainsi que pour couvrir les charges administratives.
+Les résultats d'un audit réalisé par le Contrôle fédéral des finances ont été publiés en octobre 2022. Le Contrôle fédéral des finances a examiné les tâches de surveillance quant au recyclage des déchets faisant l'objet de taxes et de contributions anticipées. Il a attesté que l'Office fédéral de l'environnement exerce une surveillance adéquate de son mandataire, Vetroswiss.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après deux passages de cet objet dans chacune des deux chambres, notre commission s'est réunie jeudi dernier afin de traiter des divergences restantes, soit plus d'une vingtaine. Le conseiller fédéral Rösti a été invité à participer en début de séance afin de répondre à diverses questions relatives au DETEC. Une délégation de la Direction du développement et de la coopération (DDC) a également été conviée afin de nous faire part de leur position sur les conséquences de la proposition Portmann, a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Après deux passages de cet objet dans chacune des deux chambres, notre commission s'est réunie jeudi dernier afin de traiter des divergences restantes, soit plus d'une vingtaine. Le conseiller fédéral Rösti a été invité à participer en début de séance afin de répondre à diverses questions relatives au DETEC. Une délégation de la Direction du développement et de la coopération (DDC) a également été conviée afin de nous faire part de leur position sur les conséquences de la proposition Portmann, adoptée au Parlement cette semaine.
+La commission s'est ensuite penchée sur le dépliant du budget 2025. Une proposition de concept visant à suivre l'ensemble des propositions du Conseil des Etats, sauf pour la défense et l'Office fédéral du personnel, a été rejetée, par 17 voix contre 8 - c'est la proposition individuelle Andrey, qui vous a également été transmise sur vos pupitres.
+Concernant la coopération internationale, les discussions ont, comme depuis le début du traitement du budget, porté sur un concept de réduction sur trois positions budgétaires, dont deux au DFAE et une au SECO. Notre conseil a validé en première lecture une réduction de 250 millions de francs, puis, en deuxième lecture, une réduction de 170 millions. C'est maintenant un concept, avec une réduction qui a été revue à la baisse et qui porte sur 125 millions, qui est proposé par la majorité de la commission.
+Pour le DFAE, à la page A1 du dépliant, à la position "Coopération au développement (bilatéral)", le montant du projet du Conseil fédéral se montait à 866 millions de francs. Lors du dernier traitement, le Conseil des Etats a décidé de réduire ce montant de 25 millions. Alors que notre conseil avait soutenu une réduction de 135 millions pour cette position en deuxième lecture, une nouvelle proposition de réduction plus modérée, de 90 millions, soutenue par la commission, par 16 voix contre 9, vous est soumise. La minorité Gredig vous demande de suivre la proposition du Conseil des Etats de réduire de 25 millions.
+Dans la position "Contributions à des organisations multilatérales", la somme initiale, selon le Conseil fédéral, était de 308,4 millions de francs. La commission, par 24 voix et 1 abstention, vous propose de confirmer votre vote, avec une coupe de 10 millions. La minorité Gredig vous demande de suivre la décision du Conseil des Etats, avec une coupe de 25 millions.
+Toujours dans le même concept, mais à la page A4 du dépliant, à la position "Coopération économique", le Conseil fédéral envisageait un montant de 397,7 millions de francs. Le Conseil des Etats propose de maintenir une réduction de 21 millions, alors que le Conseil national avait décidé d'une réduction de 25 millions. La commission, par 16 voix contre 9, propose de maintenir la décision du Conseil national, soit une réduction de 25 millions. La minorité Gredig vous demande de suivre la décision du Conseil des Etats d'une réduction de 21 millions.
+Concernant le DFI, à la page A2 du dépliant, pour le Secrétariat général du DFI, à la position "Contribution à Pro Helvetia", les deux chambres campent sur leurs positions: le Conseil des Etats ne voulant pas de réduction et le Conseil national ayant décidé d'une réduction de 1,5 million de francs. La commission propose, par 13 voix contre 12, de garder notre position de réduction de 1,5 million.
+Concernant l'Office fédéral de la culture, à la position "Culture du bâti", nos deux chambres ont maintenu leurs positions, visant à réduire le budget de 3 millions de francs pour le Conseil des Etats, et aucune réduction pour le Conseil national. La majorité de la commission vous propose de suivre la décision du Conseil des Etats, soit une réduction de 3 millions. La minorité Zybach propose de suivre la décision du Conseil national.
+Concernant l'OFAS, à la position "Accueil extra-familial pour enfants", la commission, par 12 voix contre 12 et 1 abstention avec la voix prépondérante de la présidente, vous demande de confirmer la décision du Conseil national, soit de majorer de 6,9 millions le budget de base du Conseil fédéral. La minorité Farinelli propose d'en rester au montant initial du Conseil fédéral, de 35,7 millions. La proposition du Conseil des Etats de réduire de 10 millions a été soumise au vote et rejetée, par 13 voix contre 9 et 3 abstentions.
+Au DFJP, page A2 du dépliant, pour l'Institut de droit comparé, alors que le Conseil national avait soutenu une coupe de 583[NB]000 francs, la commission propose de se rallier à la décision du Conseil des Etats, c'est-à-dire selon le Conseil fédéral, et donc de ne faire aucune coupe.
+Au DDPS, page A3 du dépliant, pour la Défense, position "Charges de fonctionnement (enveloppe budgétaire)", le Conseil fédéral avait porté la somme de 5,025 milliards de francs au budget. Notre conseil avait soutenu une coupe de 45 millions alors que le Conseil des Etats se contentait d'une coupe de 20 millions. Dans un premier vote, la commission a soutenu à l'unanimité une coupe à la baisse de 35 millions, contre la proposition du Conseil des Etats de moins 20 millions. La minorité Wettstein propose de soutenir la réduction de 45 millions décidée précédemment par notre conseil. Cette proposition a été refusée par notre commission, par 17 voix contre 8.
+Au niveau du plan financier, toujours pour la Défense, notre commission vous propose de maintenir la planification financière 2026-2028 selon la décision de notre conseil.
+Au DFF, page A3 du dépliant, pour l'Office fédéral de la douane et de la sécurité des frontières (OFDF), position "Revenus de fonctionnement (enveloppe budgétaire)", notre commission, unanime, vous demande de confirmer la décision de notre conseil, à savoir une majoration de 22 millions de francs des revenus de l'OFDF.
+Pour l'Office fédéral du personnel, à la position "Mesures salariales", alors que le Conseil des Etats soutient une réduction de 45 millions de francs, la commission vous propose, par 18 voix contre 7, de procéder à une coupe de 30 millions. La minorité Wermuth propose de rester au montant initial du budget.
+Pour l'Office fédéral des constructions et de la logistique, à la position "Investissements (enveloppe budgétaire)", les deux chambres campent également sur leurs positions. Alors que le Conseil des Etats maintient une coupe de 31 millions de francs, notre conseil avait décidé de ne rien couper. Par 18 voix contre 6 et 1 abstention, la commission vous propose de maintenir cette décision.
+En page A4 du dépliant, pour le Secrétariat général du DEFR, à la position "Bureau de la consommation", notre conseil avait, à deux reprises, soutenu une coupe de 145[NB]000 francs. Le Conseil des Etats a décidé de rester au montant initial du Conseil fédéral. Votre commission vous propose, par 15 voix contre 10, de nous rallier à la position du Conseil des Etats.
+Au Secrétariat d'Etat à l'économie, à la position "Charges de fonctionnement (enveloppe budgétaire)", le Conseil des Etats a procédé à une coupe de 2 millions de francs sur les 142,5 millions budgétés par le Conseil fédéral. Notre conseil a soutenu le budget initial. Votre commission, par 17 voix contre[NB]7, vous propose de maintenir notre décision et de ne procéder à aucune coupe. A la position "Encouragement innovation et coopération, domaine tourisme", notre conseil avait décidé d'une coupe de 1 million alors que le Conseil des Etats propose de ne rien couper. Votre commission, par 19 voix contre[NB]6, vous propose de maintenir notre décision, avec une coupe de 1 million. Pour la position "Nouvelle politique régionale", alors que le Conseil fédéral avait décidé de ne rien porter sur ce fonds pour 2025, notre conseil avait décidé d'ajouter la somme de 12,5 millions, soit le même montant qu'en 2024. Le Conseil des Etats propose de rester à la [PAGE 2400] position du Conseil fédéral. Votre commission, par 15 voix contre 6 et 4 abstentions, vous propose de maintenir notre décision, soit plus 12,5 millions. La minorité Farinelli vous propose de soutenir la décision du Conseil des Etats, c'est-à-dire selon le Conseil fédéral, soit aucune contribution à ce fonds. A la position "Coopération économique", comme indiqué précédemment, un concept de coupe avait été soutenu. Alors que le Conseil fédéral avait porté un montant de 397 millions au budget, notre conseil avait décidé, dans un premier temps, d'une coupe de 50 millions, pour diminuer cette coupe de moitié en deuxième lecture, portant la coupe à 25 millions. Le Conseil des Etats a pour sa part décidé d'une coupe de 21 millions. Par 16 voix contre 9, notre commission a décidé de maintenir la décision de notre conseil, soit moins 25 millions, contre la décision du Conseil des Etats. La minorité Gredig propose de rester au montant initial du Conseil fédéral de 397 millions.
+Au Secrétariat d'Etat à la formation, à la recherche et à l'innovation, à la position "Bourses à des étudiants étrangers en Suisse", alors que notre conseil avait, par deux fois, confirmé une coupe de 4,8 millions de francs sur les 9,8 millions au budget, le Conseil des Etats a décidé d'en rester au budget initial du Conseil fédéral. Une nouvelle proposition de coupe, plus modérée, à hauteur de 2 millions, a été soutenue par la commission, par 17 voix contre 8. La minorité Fehlmann Rielle propose de suivre la décision du Conseil des Etats, c'est-à-dire selon le Conseil fédéral.
+Au DETEC, page A5 du dépliant, pour l'Office fédéral des transports, à la position "Transport régional des voyageurs", le Conseil fédéral avait porté un montant de 1,126 milliard de francs au budget et notre conseil avait majoré ce montant de 7,7 millions. Le Conseil des Etats a décidé de rester au montant du budget initial. Notre commission, par 16 voix contre 3 et 2 abstentions, vous propose de maintenir la décision de notre conseil. A la position "Transport ferroviaire transfrontalier de voyageurs", concernant les trains de nuit, le Conseil des Etats a décidé d'une coupe de 19,6 millions. Notre conseil avait soutenu une coupe de 14,6 millions, portant le montant au budget à 15 millions. Notre commission vous propose unanimement de nous rallier à la décision du Conseil des Etats. A la position "Systèmes de propulsion alternatifs pour bus et bateaux", le Conseil des Etats a décidé une coupe de 15,3 millions alors que notre conseil était resté au montant initial du budget, soit 46,3 millions. Notre commission, à[NB]l'unanimité,[NB]vous[NB]propose[NB]de[NB]maintenir[NB]cette[NB]décision.
+A l'Office fédéral de l'énergie, position "Transfert de technologie", notre commission avait soutenu le budget du Conseil fédéral à hauteur de 20 millions de francs. Le Conseil des Etats a validé une coupe de 5 millions. A l'unanimité, votre commission[NB]vous[NB]propose[NB]de[NB]se[NB]rallier[NB]au[NB]Conseil[NB]des[NB]Etats.
+A l'Office fédéral de l'environnement, position "Animaux sauvages et chasse", une majoration de 500[NB]000 francs portée au budget avait été soutenue précédemment par le Conseil des Etats. Votre commission, par 22 voix contre 2 et 1 abstention,[NB]vous[NB]demande[NB]d'en[NB]rester[NB]au[NB]projet[NB]du[NB]Conseil[NB]fédéral.
+A la page A6 du dépliant, dans le groupe de comptes "Dépenses propres", le Conseil fédéral avait porté au budget un montant de 12,009 milliards de francs. Notre conseil avait soutenu cette proposition et le Conseil des Etats avait procédé à une coupe de 10 millions. Sans opposition, notre commission vous propose de nous rallier au Conseil des Etats.
+Pour le groupe "Dépenses de personnel", le Conseil fédéral avait proposé d'inscrire une somme de 6,618 milliards de francs au budget. Notre conseil avait soutenu une coupe de 70 millions et le Conseil des Etats une coupe de 40 millions. La majorité de votre commission vous propose de suivre le Conseil des Etats. La minorité Wermuth vous demande de soutenir le montant proposé par le Conseil fédéral. Mais, visiblement, cette minorité a été retirée. Cette coupe est à mettre en lien avec la coupe de 30 millions de francs proposée à l'Office fédéral du personnel, qui permet au final d'atteindre la réduction de 70 millions voulue par la majorité de la commission depuis le début de ces débats et soutenue par notre conseil.
+Pour le groupe "Dépenses de biens et services et dépenses d'exploitation", le Conseil fédéral avait proposé un montant de 4,702 milliards de francs. Notre conseil avait validé une coupe de 20 millions en première lecture, puis une coupe de 13 millions - soit une coupe plus modérée - en deuxième lecture. Le Conseil des Etats, pour sa part, souhaite en rester au montant initial. La commission, par 17 voix contre 8, vous propose de maintenir la décision du Conseil national, soit une coupe de 13 millions. Une minorité Wettstein propose de soutenir la version du Conseil des Etats, qui est celle du Conseil fédéral.
+Dans le groupe "Recherche de l'administration fédérale", le Conseil fédéral avait inscrit 354 millions de francs au budget. Le Conseil des Etats a décidé une coupe de 40 millions. Notre conseil ne prévoyait aucune coupe. Afin de trouver un compromis, la commission vous propose à l'unanimité une coupe de 20 millions.
+A l'arrêté fédéral Ib concernant le cadre financier inscrit au budget 2025, page C2 du dépliant, dans les conditions relatives au crédit "Actions humanitaires", la commission vous demande, par 13 voix contre 12, de maintenir la décision de notre conseil, qui ne veut pas accorder de moyens financiers à l'UNRWA. Une minorité Wermuth vous propose de suivre le Conseil des Etats et souhaite conditionner une aide à l'UNRWA à une consultation de la Commission de la politique extérieure.
+Pour la Défense, concernant les conditions-cadres du crédit "Charges et investissements en matière d'armement", sur les 530 millions de francs que nous avions ajoutés au budget, la commission vous demande, par 17 voix contre 5 et 3 abstentions, de confirmer la décision du Conseil national, selon lequel 200 millions doivent être consacrés à la défense aérienne terrestre à moyenne portée.
+Pour les "Dépenses de biens et services et dépenses d'exploitation", dans les groupes de comptes à la page C3 du dépliant, la commission vous propose à l'unanimité de suivre le Conseil des Etats au sujet des conditions d'application des coupes transversales, en excluant les autorités et les tribunaux, ainsi que le Contrôle fédéral des finances.
+Pour ce qui est de l'arrêté fédéral II concernant le plan financier pour les années 2026 à 2028, au DDPS, la commission vous demande, par 15 voix contre 9 et aucune abstention, de maintenir notre décision sur la planification des moyens pour la défense. Une minorité Gredig vous propose de suivre le Conseil des Etats. Au Département fédéral des finances, à la page D4 du dépliant, la commission vous propose, par 15 voix contre 10, de soutenir la version du Conseil national. Au DEFR, à la page D5 du dépliant, pour Suisse Tourisme, la commission vous demande, par 23 voix contre 1 et aucune abstention, de suivre la décision du Conseil national pour la planification financière.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20241217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich bitte Sie, Ihrer Kommissionsmehrheit zu folgen. Es ist so, dass der Eigentümer bei offenen Zolllagern und Zollfreilagern bereits heute angegeben werden muss. Das ist eine Bestimmung, die auf die Empfehlung der Eidgenössischen Finanzkontrolle (EFK) zurückgeht, und wenn Sie den letzten Bericht der EFK lesen, dann sehen Sie, dass hier doch deutliche Verbesserungen erreicht wurden. Es ist auch so, dass das BAZG bei Straftaten, beispielsweise wenn es um Informationen an inländische oder ausländis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich bitte Sie, Ihrer Kommissionsmehrheit zu folgen. Es ist so, dass der Eigentümer bei offenen Zolllagern und Zollfreilagern bereits heute angegeben werden muss. Das ist eine Bestimmung, die auf die Empfehlung der Eidgenössischen Finanzkontrolle (EFK) zurückgeht, und wenn Sie den letzten Bericht der EFK lesen, dann sehen Sie, dass hier doch deutliche Verbesserungen erreicht wurden. Es ist auch so, dass das BAZG bei Straftaten, beispielsweise wenn es um Informationen an inländische oder ausländische Behörden geht, bereits Amts- und Rechtshilfe leistet.
+Ich möchte Sie auch deshalb bitten, auf den Antrag der Minderheit Sommaruga Carlo zu verzichten, weil Sie sonst einen Unterschied zwischen den Zolllagern und den Inlandlagern schaffen. Die Zolllager wären viel strenger verwaltet als die Inlandlager. Bei einem Bankschliessfach zum Beispiel wissen Sie nicht, wer wirtschaftlich berechtigt ist. Das dürfte, Herr Sommaruga, geradezu das gleiche oder das noch grössere Problem sein.
+Ich bitte Sie, bei Artikel 67 Absatz 3 Buchstaben c und d der Mehrheit der Kommission zu folgen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie erwähnt führen wir heute die zweite Runde durch. Der Nationalrat hat dem Gesetz am 26.[NB]September 2024 mit 124 zu 53 Stimmen bei 5 Enthaltungen zugestimmt. Unser Rat hatte mit 34 zu 4 Stimmen bei 5 Enthaltungen beschlossen, nicht auf die Vorlage einzutreten. Somit hat sich Ihre Kommission nochmals intensiv mit der Vorlage auseinandergesetzt und ist wiederum zum Schluss gekommen, dass der Status quo besser ist als dieses Gesetz. Sie hat das Ergebnis der ersten Runde somit bestätigt und bean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wie erwähnt führen wir heute die zweite Runde durch. Der Nationalrat hat dem Gesetz am 26.[NB]September 2024 mit 124 zu 53 Stimmen bei 5 Enthaltungen zugestimmt. Unser Rat hatte mit 34 zu 4 Stimmen bei 5 Enthaltungen beschlossen, nicht auf die Vorlage einzutreten. Somit hat sich Ihre Kommission nochmals intensiv mit der Vorlage auseinandergesetzt und ist wiederum zum Schluss gekommen, dass der Status quo besser ist als dieses Gesetz. Sie hat das Ergebnis der ersten Runde somit bestätigt und beantragt Ihnen mit 9 zu 3 Stimmen wiederum Nichteintreten auf diese Vorlage.
+Zur Erinnerung nenne ich die vier wichtigsten Gründe, wieso wir nicht auf diese Vorlage eingetreten sind - es gäbe noch weitere,[NB]aber[NB]ich[NB]fokussiere[NB]lediglich[NB]auf[NB]die vier wichtigsten.
+1.[NB]Der Bundesrat will aus der privatrechtlichen Stiftung Movetia eine öffentlich-rechtliche Anstalt des Bundes machen. Wenn Sie sich die Liste der Bundesanstalten anschauen, dann sehen Sie sofort: Hier handelt es sich allesamt um Bundesaufgaben. Beim Austausch der Schülerinnen und Schüler geht es vornehmlich um kantonale Aufgaben. Die entsprechenden Kosten fallen in den Kantonen an, nicht in der Rechnung von Movetia, das ist klar. Aber de facto, wenn man die Gesamtbetrachtung macht, ist offensichtlich: Es handelt sich hier um eine Verbundaufgabe. Das war auch der Grund, wieso man vor einigen Jahren bei der Schaffung der Stiftung Movetia eine spezifische privatrechtliche Lösung wählte. Der Status quo ist ja noch nicht so alt, noch nicht einmal zehn Jahre.
+2.[NB]Wir verschieben die Gewichte deutlich in Richtung Bund. Das ist beim Thema Bildungsaustausch konzeptionell wie strategisch falsch. Diese Meinung hat die Kommission nach wie vor. Die Einbindung und Nähe zu den schulischen Akteuren und die Option, auch weitere Dritte einzubinden, sind aus Sicht der Kommission essenziell, und mit der Vorlage wird dieses Anliegen eher geschwächt als gestärkt. Die Kantone wären nur noch Konsultationspartner bei den Zielen und könnten drei Mitglieder für den Verwaltungsrat vorschlagen.
+3.[NB]Ursächlich für diese Vorlage ist auch ein Bericht der Eidgenössischen Finanzkontrolle (EFK). Die EFK moniert, dass man hier zwischen Amtsleitung und Stiftungsrat eine Personalunion hat. Das von der EFK monierte Problem kann nach Auffassung der Kommission problemlos korrigiert werden, indem man die Delegation in den Stiftungsrat ändert. Dafür braucht es nicht eine grundlegend neue Struktur.
+4.[NB]Wir hätten nun, wenn wir auf die Vorlage eintreten würden, bereits die dritte Umstrukturierung innerhalb von zehn Jahren. Das erscheint der Kommission unverhältnismässig und ein unnötiger Ressourcenverschleiss. Auch der Bundesrat selber schreibt auf Seite 8 der Botschaft, dass sich die Stiftung Movetia grundsätzlich bewährt habe.
+Diese vier Punkte sind für die Kommission unverändert gültig. Diese Vorbehalte konnten in der Zwischenzeit auch nicht entkräftet werden, auch nicht durch einen Zusatzbericht der Verwaltung. Zwei Elemente wurden in der Diskussion in der Kommission aufgrund zwischenzeitlicher Entwicklungen nochmals grundlegend angeschaut.
+1.[NB]Die Mehrkosten: Sie kennen die Finanzlage des Bundes. Es geht hier um jährliche Mehrkosten von 200[NB]000 Franken und einmalige Transformationskosten von 1 Million Franken. Man kann sagen, das sei nicht weltbewegend. Aber trotzdem: In einer Zeit, in der wir jeden Franken umdrehen müssen, ist die Kommission der Meinung, dass diese Mehrkosten erst recht nicht vertretbar sind, wenn kein inhaltlicher Mehrwert erkennbar ist.
+2.[NB]Die Assoziierung an Erasmus: Sie haben von den Beschlüssen des Bundesrates zum Verhandlungspaket mit der EU Kenntnis genommen. Es gibt ein Stabilisierungspaket mit einer Anpassung der bestehenden Abkommen und ein Weiterentwicklungspaket mit den drei neuen Abkommen Strom, Lebensmittelsicherheit und Gesundheit. Eine Erasmus-Assoziierung ist somit wieder möglich, wenn diesem Paket auch zugestimmt wird. Allerdings ist zu unterstreichen, dass die Schweiz völlig frei darüber entscheiden kann. Wir können uns assoziieren, wir müssen nicht. Im Unterschied zu Horizon hat das Parlament hierzu auch noch keine Finanzierungsbotschaft verabschiedet. Es ist auch offen, ob das Parlament angesichts der finanzpolitischen Grosswetterlage und angesichts der Tatsache, dass die heutige Lösung eigentlich gut funktioniert, überhaupt eine Assoziierung an Erasmus beschliesst. Das werden wir ja dann sehen. Wenn es aber zu einer Assoziierung kommen sollte, dann folgen konkrete EU-Anforderungen an die Organisation, welche Erasmus in der Schweiz umsetzen würde. Insbesondere muss diese Organisation unabhängig von der Bundesverwaltung sein. Aufgrund der Diskussion in der Kommission zeichnet sich ab, dass es, wenn es zu einer Assoziierung kommt, so oder so wieder Anpassungsbedarf geben wird.
+Aber der Bundesrat sagt klar, dass beide Rechtsformen grundsätzlich EU-kompatibel sind. Der Bundesrat schreibt im erwähnten Zusatzbericht des SBFI vom 3.[NB]Juni 2024 selbst, dass sich grundsätzlich sowohl die heutige Rechtsform als auch die vom Bundesrat vorgeschlagene öffentlich-rechtliche Anstalt mit den Anforderungen einer Assoziierung an Erasmus in Einklang bringen lasse. Es wird im Fall einer Assoziierung ohnehin einen organisatorischen Anpassungsbedarf geben. Der Bundesrat schätzt diesen Anpassungsbedarf im Rahmen der bestehenden Stiftung als grösser ein. Vor diesem Hintergrund macht es aus Sicht der Kommissionsmehrheit keinen Sinn, jetzt eine Organisationsreform zu starten. Besser ist es, die politischen Entscheide zum Europa-Dossier im Allgemeinen und zu Erasmus im Besonderen abzuwarten und je nach Ausgang die entsprechenden operativen und allenfalls auch gesetzgeberischen Reformen anzugehen. Darum macht es Sinn, das Geschäft nun definitiv zu stoppen. Die [PAGE 5] Sache kann später wieder an die Hand genommen werden, sofern es dann überhaupt nötig sein wird. Nur wegen den EFK-Empfehlungen muss Movetia nicht in eine neue Rechtsform überführt werden. Das ist für die Kommissionsmehrheit unverändert klar.
+Noch zur Haltung der Kantone: Wir haben in der ersten Runde auch Anhörungen durchgeführt. Insbesondere haben wir uns mit der Konferenz der kantonalen Erziehungsdirektorinnen und -direktoren (EDK) ausgetauscht. Die EDK ist mässig begeistert von dieser Übung, hat ihren anfänglichen Widerstand dann aber aufgegeben. Sie bezeichnete die Entwicklung der heutigen privatrechtlichen Stiftung Movetia als Erfolgsgeschichte, was auch im Kontrast zu den nun vorgebrachten angeblichen Effizienzgewinnen steht.
+Ich komme zum Schluss. Die Kommission hat mit 9 zu 3 Stimmen bei 0 Enthaltungen Nichteintreten beschlossen. Sie empfiehlt Ihnen somit Nichteintreten. 
+Ich danke Ihnen, wenn Sie der klaren Mehrheit Ihrer Kommission folgen und nicht auf das Geschäft eintreten.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comme à l'accoutumée, le présent rapport annuel a pour objectif de donner un aperçu des activités de la haute surveillance parlementaire exercée en 2024 par les Commissions de gestion et la Délégation des Commissions de gestion et d'exposer les principaux résultats de leurs travaux. Les principaux points forts de l'activité des Commissions de gestion en 2024 y sont résumés au chapitre[NB]3. L'accent du présent rapport est mis sur les travaux terminés durant l'année écoulée à propos desquels le p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comme à l'accoutumée, le présent rapport annuel a pour objectif de donner un aperçu des activités de la haute surveillance parlementaire exercée en 2024 par les Commissions de gestion et la Délégation des Commissions de gestion et d'exposer les principaux résultats de leurs travaux. Les principaux points forts de l'activité des Commissions de gestion en 2024 y sont résumés au chapitre[NB]3. L'accent du présent rapport est mis sur les travaux terminés durant l'année écoulée à propos desquels le public n'a pas encore été informé.
+Dans une optique de transparence, les Commissions de gestion communiquent également des informations, de manière sommaire, sur certaines activités en cours ainsi que sur les suites données à certaines inspections déjà portées à la connaissance du public par les Commissions de gestion, mais elles ne transmettent une information approfondie sur les résultats de ses travaux que lorsque ces derniers sont terminés. C'est important de le rappeler, parce que, souvent, nous sommes interpellés pour savoir où nous en sommes dans telle ou telle recherche. La règle est que nous informons le public seulement lorsque nous avons terminé.
+Après une année 2023 très chargée, la fréquence de publication des Commissions de gestion a diminué, car de nombreuses nouvelles investigations ont été initiées et n'ont, par conséquent, pas pu être achevées au cours de l'année sous revue. Les Commissions de gestion ont ainsi publié deux rapports d'enquête en 2024, portant sur la composition des cours des tribunaux fédéraux appelées à statuer ainsi que sur la surveillance des liens d'intérêts au sein des conseils d'administration des entreprises proches de la Confédération. En outre, les Commissions de gestion ont lancé, en 2024, trois nouvelles inspections pour lesquelles un mandat d'évaluation a été attribué au Contrôle parlementaire de l'administration (CPA).
+La première porte sur la planification des projets d'infrastructures ferroviaires, la deuxième sur les consulats honoraires et la troisième sur l'autonomie et le pilotage de la surveillance des prix. Sur la base des rapports d'évaluation du CPA, la commission compétente procédera ensuite à une appréciation sous l'angle de la haute surveillance parlementaire.
+Pendant l'année sous revue, les Commissions de gestion se sont réunies à 19 reprises en séance plénière. Le groupe de coordination a tenu une séance. Les sous-commissions et groupes de travail se sont réunis 77 fois au total, dont quinze fois pour des visites de service de l'administration. Quant à la Délégation des Commissions de gestion, elle s'est réunie à dix reprises. Cela représente, au total, pas moins de 107 séances que les Commissions de gestion ont consacrées à la haute surveillance. Lors de leur séance plénière commune du 23 janvier 2025, les Commissions de gestion ont adopté ce rapport à l'unanimité.
+Il est utile de rappeler la mission et les compétences des Commissions de gestion. Sur mandat des Chambres fédérales, les Commissions de gestion exercent la haute surveillance sur la gestion du Conseil fédéral et de l'administration fédérale, des Tribunaux fédéraux, de l'Autorité de surveillance du Ministère public de la Confédération, du Ministère public de la Confédération lui-même, ainsi que sur d'autres organes auxquels sont confiées des tâches de la Confédération. Dans l'exercice de leur mandat, les Commissions de gestion vérifient si les autorités fédérales agissent conformément à la Constitution et à la loi et si les missions assignées par le législateur ont été fidèlement accomplies - contrôle de la légalité. Elles veillent également à ce que les mesures prises par l'Etat soient judicieuses, elles s'assurent que les autorités font bon usage de leur marge d'appréciation - contrôle de l'opportunité - et examinent l'efficacité des mesures au regard des objectifs fixés par le législateur - contrôle dit d'efficacité.
+Pour mener à bien leur mission de haute surveillance, les Commissions de gestion disposent d'un droit à l'information étendu. Le droit à l'information des Commissions de gestion ne connaît que deux restrictions. Premièrement, les Commissions de gestion ne sont pas autorisées à consulter les procès-verbaux des séances du Conseil fédéral. Deuxièmement, les Commissions de gestion ne sont pas habilitées à demander des informations qui doivent demeurer secrètes pour des raisons relevant de la sécurité de l'Etat ou du renseignement ou pour d'autres raisons.
+Du fait de leur pouvoir d'investigation étendu, les Commissions de gestion et la Délégation des Commissions de gestion doivent garantir la confidentialité et traiter les informations confidentielles de manière responsable. En outre, les membres des commissions sont tenus d'observer le secret de fonction sur tous les faits dont ils ont eu connaissance dans le cadre de leur mandat.
+Les moyens auxquels les Commissions de gestion peuvent recourir pour influer sur les objets de leur surveillance sont essentiellement de nature politique. Nous ne sommes pas des tribunaux. En règle générale, les commissions font connaître leurs conclusions aux autorités responsables supérieures et leur adressent des recommandations par le biais de rapports. Ces rapports d'enquête sont généralement publiés, pour autant qu'aucun intérêt digne de protection ne s'y oppose. La loi donne aux autorités concernées le droit de donner leur avis avant la publication et les oblige ensuite à prendre position sur les recommandations qui leur ont été adressées.
+Quelques points forts de l'activité des Commissions de gestion en 2024: le début d'année 2024 a été marqué par le contexte du changement de législature et de la recomposition des Commissions de gestion. Comme à chaque début de législature, les commissions nouvellement constituées se sont informées sur les principales activités en cours au sein des différents départements et de la Chancellerie fédérale ainsi que sur les priorités et défis attendus par ces derniers pour les années à venir.
+En ce qui concerne les publications en 2024, à plusieurs reprises durant l'année sous revue, les Commissions de gestion ont informé publiquement sur leurs décisions ou conclusions. Un tableau récapitulatif de ces publications figure en fin du chapitre dans le rapport. Durant l'année, les Commissions de gestion ont notamment publié deux rapports.
+Le premier est en lien avec l'inspection concernant la procédure de désignation des juges appelés à statuer sur une affaire déterminée, également désignée comme composition [PAGE 83] des cours appelées à statuer. Dans ce rapport, les deux Commissions de gestion ont dressé un bilan de la mise en oeuvre des recommandations formulées en juin 2021. Les commissions ont en particulier constaté une amélioration significative de la transparence et de l'objectivité dans la composition des cours appelées à statuer, saluant les précisions apportées aux bases réglementaires à cet égard. Elles ont toutefois jugé qu'une partie de leurs recommandations n'avaient pas été mises en oeuvre par les tribunaux fédéraux et qu'un potentiel d'amélioration subsistait, notamment dans la pratique de communication du Tribunal[NB]fédéral[NB]et[NB]du[NB]Tribunal[NB]pénal fédéral. Par conséquent, les commissions ont poursuivi les échanges avec les tribunaux en 2024.
+De son côté, le 5 juillet 2024, la Commission de gestion du Conseil des Etats a publié une appréciation sur la mise en oeuvre des recommandations qu'elle avait formulées en 2018 concernant la surveillance des liens d'intérêts au sein des entreprises proches de la Confédération. Il s'agit notamment de la Poste, des Chemins de fer fédéraux, de Swisscom, de Skyguide et du groupe Ruag. La commission a constaté de clairs progrès de la part de ces derniers. Elle a à cet égard salué le développement des procédures d'annonce et de contrôle ainsi que les efforts déployés par les entreprises en matière de communication et de transparence.
+La Commission de gestion du Conseil des Etats a en revanche tiré un bilan plus contrasté de la surveillance exercée par les autorités fédérales compétentes sur ces liens d'intérêts, relevant notamment un potentiel d'amélioration dans la manière dont elles se saisissent des outils existants pour exercer leurs mandats.
+Ainsi, la commission attend que le thème des liens d'intérêts soit traité de manière plus régulière lors des entretiens périodiques menés par les autorités fédérales avec ces entreprises. La Commission de gestion a également appelé le Conseil fédéral à s'assurer que le traitement dans les départements des propositions de nomination aux conseils d'administration se fasse de façon plus homogène et proactive. Par ce rapport, la commission a mis un terme à son contrôle de suivi débuté en 2021. Comme vous pouvez bien l'imaginer, dans certains domaines, nous reprendrons encore des investigations.
+En août, les Commissions de gestion ont lancé trois inspections pour lesquelles elles ont chargé le CPA de réaliser une évaluation. La première porte sur la planification des projets d'infrastructures ferroviaires. Elle doit examiner le rôle de l'Office fédéral des transports et l'implication des cantons et des communes lors de la planification de la mise en oeuvre de tels projets. Le rapport d'évaluation sera présenté à la sous-commission compétente au début de l'année 2026. La deuxième évaluation menée par le CPA sur mandat des Commissions de gestion concerne les consulats honoraires suisses établis à l'étranger ainsi que les consulats honoraires étrangers présents en Suisse. Le rapport d'évaluation doit être présenté à la sous-commission compétente en juin 2025. Enfin, le CPA réalise une troisième évaluation portant sur l'autonomie et le pilotage de la surveillance des prix, dont il présentera le rapport à la sous-commission compétente de la Commission de gestion du Conseil national à la fin de l'année 2025 et au début de l'année 2026.
+Divers sujets transversaux ont également occupé les Commissions de gestion dans l'exercice de leurs activités de haute surveillance au cours de l'année sous revue.
+Dans le cadre de l'examen du rapport de gestion du Conseil fédéral 2023, les commissions ont par exemple abordé avec chacun des départements, ainsi qu'avec la Chancellerie fédérale, la question de la gestion des ressources en personnel de la Confédération, notamment pour les domaines professionnels souffrant d'une pénurie de main-d'oeuvre qualifiée. Dans la perspective des nombreux départs à la retraite attendus ces dix prochaines années, qui devraient concerner jusqu'à 30 pour cent du personnel de l'administration fédérale, les Commissions de gestion ont ainsi procédé à un état des lieux des mesures et stratégies mises en place par les départements et la Chancellerie fédérale pour affronter ce défi démographique.
+Autre sujet transversal, les Commissions de gestion se sont penchées en 2024 sur l'évolution récente des risques en matière de cybersécurité au sein de la Confédération. Elles ont en particulier approfondi la question de la répartition des compétences et de la coordination entre autorités fédérales à l'égard de cette thématique dans le contexte de la création d'un nouvel office fédéral de la cybersécurité au 1er janvier 2024.
+Les Commissions de gestion se sont aussi intéressées durant l'année 2024 à l'utilisation de l'intelligence artificielle par les départements et la Chancellerie fédérale. Les commissions se sont à ce titre penchées sur les divers mandats parallèles que le Conseil fédéral a attribués à la Chancellerie fédérale, à l'Office fédéral de la statistique et à l'Office fédéral de la communication en la matière.
+Enfin, à la suite de la clôture 2023 de leur grande inspection portant sur la gestion par les autorités fédérales de la pandémie de COVID-19 et en vue de la révision de la loi sur les épidémies, les Commissions de gestion ont demandé en juin 2024 au Conseil fédéral d'intégrer dans son message, prévu pour le deuxième trimestre 2025, un chapitre spécifique rendant compte de la mise en oeuvre de leurs recommandations.
+Par cette démarche, les Commissions de gestion souhaitent assurer la prise en compte exhaustive de l'ensemble des recommandations issues de leur inspection COVID-19 susceptibles[NB]d'être[NB]mises[NB]en[NB]oeuvre[NB]dans[NB]le[NB]cadre[NB]de cette révision.
+Durant l'année 2024, les Commissions de gestion ont par ailleurs initié et poursuivi des travaux de haute surveillance en lien avec différents dossiers ayant connu une certaine résonance médiatique en raison de leur sensibilité. Qu'il s'agisse des cyberattaques et fuites de données survenues en 2023 auprès de fournisseurs externes de la Confédération, de la suspension du programme C2Air, des erreurs de calcul de l'assurance-vieillesse et survivants annoncées par l'Office fédéral des assurances sociales en août 2024 ou encore des soupçons de signatures falsifiées lors de la récolte de paraphes pour des initiatives populaires et référendums, les Commissions de gestion ont à chaque fois rapidement eu des échanges avec les autorités fédérales concernées. Il s'agissait, par ce biais, pour les commissions, d'une part, d'examiner l'adéquation des mesures immédiates prises par les autorités et, d'autre part, de clarifier si la gestion des affaires par ces autorités présentait un potentiel d'amélioration à moyen ou à plus long terme.
+A l'instar des années dernières, nous ne passerons pas en revue tous les sujets ni tous les travaux des quatre sous-commissions de la Commission de gestion de chaque conseil. Cette année, nous avons décidé de ne vous relater que quelques faits saillants traités par la sous-commission des tribunaux et du Ministère public de la Confédération et par celle du Département fédéral des finances (DFF) et du Département fédéral de l'économie, de la formation et de la recherche (DEFR). Vu l'actualité, je tiens à préciser que les Commissions de gestion passent passablement de temps à suivre certains dossiers sensibles, notamment ceux du Département fédéral de la défense, de la protection de la population et des sports (DDPS). Ainsi, les sous-commissions concernées suivent depuis plusieurs années les projets principaux du département, notamment les moyens de communication, les drones ADS 15, l'acquisition du nouvel avion de combat F-35 ou encore les relations entre la Confédération[NB]et[NB]les[NB]entreprises en mains de cette dernière, comme Ruag.
+Comme vous le savez, il y a toujours deux départements de référence quand il s'agit de définir et contrôler les objectifs stratégiques de ces entreprises: le département de référence technique et le DFF. Vous pouvez vous imaginer que nous aurons encore passablement de travail concernant Ruag, notamment à la suite de la communication des rapports du Contrôle fédéral des finances commandés par la cheffe du DDPS.
+Les deux sous-commissions DFAE/DDPS des Commissions de gestion du Conseil des Etats et du Conseil national se concertent régulièrement et échangent leurs informations respectives, mais il s'agit bien d'affaires à suivre. [PAGE 84] 
+En ce qui concerne le DFAE, nous suivons attentivement notamment le dossier de l'efficacité de la coopération internationale. Concernant le Département fédéral de l'intérieur (DFI), nous avons clos plusieurs inspections en lien avec le COVID-19, que ce soit des indiscrétions ou des relations avec les cantons dans la gestion de la pandémie. Le dossier Carpostal a encore occupé la sous-commission DFI/DETEC, comme la gestion des chantiers ferroviaires, avec la récente découverte du doublement des budgets qui devront y être consacrés.
+En ce qui concerne le Département fédéral de justice et police, le domaine de l'asile a retenu l'attention des Commissions de gestion sous plusieurs angles, notamment la violence dans les centres fédéraux ou la répartition des requérants par canton.
+Avec la Chancellerie fédérale, nous suivons les dossiers de récolte de signatures pour les initiatives et référendums, de même que le nombre et l'utilité des commissions extra-parlementaires.
+J'aimerais enfin relever que, d'une manière générale, les relations sont constructives entre les Commissions de gestion et les membres du Conseil fédéral et de l'administration fédérale. De même, les échanges avec le Contrôle fédéral des finances sont réguliers, approfondis et profitables à une gestion moderne et transparente des affaires publiques. Au terme de mon tour d'horizon, je tiens à remercier particulièrement les collaboratrices et collaborateurs du secrétariat des Commissions de gestion et du CPA pour leur collaboration efficace.
+Monsieur le Président, je vous propose de céder maintenant la parole aux présidents de la sous-commission Tribunaux/MPC, Mme la conseillère aux Etats Marianne Binder-Keller, et de la sous-commission DFF/DEFR, M.[NB]le conseiller aux Etats Pirmin Schwander, ainsi qu'à la vice-présidente de la Délégation des Commissions de gestion, Mme la conseillère aux Etats Petra Gössi, dans l'ordre qu'il vous plaira.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besten Dank für die Diskussion, ich habe sie mit Interesse verfolgt. Das Thema Asyl weckt Emotionen. Vielleicht haben wir deshalb so oft eine ausserordentliche Asylsession. Für mich ist es schon die fünfte meiner Amtszeit. Aber ich bin gerne hier, um Rede und Antwort zu stehen und diese Diskussion mit Ihnen zu führen. Ich finde sie wichtig. Wenn wir hier aber Dinge beschliessen, die kontraproduktiv oder gar nicht umsetzbar sind, dann ist niemandem gedient - nicht der Bevölkerung, nicht den Kanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Besten Dank für die Diskussion, ich habe sie mit Interesse verfolgt. Das Thema Asyl weckt Emotionen. Vielleicht haben wir deshalb so oft eine ausserordentliche Asylsession. Für mich ist es schon die fünfte meiner Amtszeit. Aber ich bin gerne hier, um Rede und Antwort zu stehen und diese Diskussion mit Ihnen zu führen. Ich finde sie wichtig. Wenn wir hier aber Dinge beschliessen, die kontraproduktiv oder gar nicht umsetzbar sind, dann ist niemandem gedient - nicht der Bevölkerung, nicht den Kantonen und Gemeinden und auch nicht jenen Asylsuchenden, die sich ans Gesetz halten.
+Sie haben jetzt eine ganze Reihe von Vorstössen mit dem Ziel diskutiert, die irreguläre Migration einzuschränken und die Sicherheit in der Schweiz zu verbessern. Das will der Bundesrat auch erreichen. Für eine freiheitliche Gesellschaftsordnung ist es zentral, dass sich die Menschen sicher [PAGE 231] fühlen. Ich will, dass meine Töchter nachhause spazieren können, ohne über die Schulter schauen zu müssen. Darauf haben sie ein Anrecht. Darauf hat die Schweizer Bevölkerung ein Anrecht. Dafür zu sorgen ist unsere Pflicht, ist eine Kernaufgabe des Staates; das ist unsere Verantwortung. Ich setze mich dafür ein.
+Ich möchte Ihnen kurz einen Überblick darüber geben, was wir, der Bund und die Kantone, im Asylbereich in den letzten Jahren unternommen haben, um die Sicherheit zu verbessern, und auch darüber, was es gebracht hat - wobei "kurz" vielleicht zu viel versprochen ist; es ist nämlich eine lange Liste.
+Die Corona-Pandemie war eine schwierige Zeit in den Bundesasylzentren (BAZ), weil die Leute dort festsassen. Es gab damals deutlich mehr Vorfälle. Das SEM hat sofort und gut reagiert und das Projekt "Massnahmen für den Umgang mit renitenten Asylsuchenden" (Mara) aufgegleist. Dazu gehörten ein Konzept zur Gewaltprävention sowie die Einsetzung von Personen zur Konfliktprävention und muslimischen Seelsorgenden, ausserdem die Zusammenarbeit mit Fachärzten für Suchtmedizin sowie Aussenpatrouillen bei den BAZ. Die Wirkung war eindrücklich und hält bis heute an. Die Zahl der sicherheitsrelevanten Vorfälle pro 100[NB]000 Übernachtungen sank um fast 60 Prozent. Die absolute Zahl der Vorfälle in den BAZ ging auch im letzten Jahr im Vergleich zum Vorjahr nochmals weiter zurück.
+Weiter haben wir Anfang 2024 in allen Asylregionen Verantwortliche für Gewaltprävention und Personensicherheit eingesetzt. Diese neuen Stellen sind mit ehemaligen Polizeikadern besetzt. Sie sind zuständig für die Sensibilisierung, die Umsetzung des Gewaltpräventionskonzepts und auch für die Aus- und Weiterbildung des Sicherheitspersonals. Diese Personen stehen auch mit der lokalen Polizei in Kontakt. Die meisten BAZ haben zudem private Sicherheitsfirmen. Sie sind im öffentlichen Raum präsent. Sie intervenieren und können Straftaten anzeigen.
+Dann haben wir das 24-Stunden-Verfahren. Das SEM führte es im Frühling 2024 schweizweit ein. Dadurch können die Verfahren von Asylsuchenden aus Algerien, Marokko, Tunesien und Libyen viel schneller abgeschlossen werden. Diese Personen halten sich viel weniger lange in den BAZ auf. Wir können sie auch schneller zurückführen. Das entlastet das ganze System und macht die BAZ und die Umgebungen sicherer.
+Dann gibt es die runden Tische: Diese haben wir ebenfalls letztes Jahr eingeführt. Wir wollen, dass die involvierten Behörden viel enger zusammenarbeiten, besonders bei Intensivtätern, die zum Teil reihenweise Delikte begehen. Grundsätzlich sind ja die Kantone für die öffentliche Sicherheit und Ordnung zuständig. Bei den runden Tischen ist aber auch das SEM mit dabei, ebenso Sozial- oder Ausländerbehörden und die Standortgemeinden. Wir wollen mit den runden Tischen sicherstellen, dass die Kantone alle ausländerrechtlichen Zwangsmassnahmen ausschöpfen, also auch die Ausschaffungshaft. Wir haben nämlich festgestellt, dass die Kantone hier noch mehr machen können. Die Kantone ziehen hier mit. Im Rahmen der Gesamtstrategie Asyl werden wir zudem, und das geht noch einen Schritt weiter, ein Pilotprojekt starten. Ziel ist eine gesamtschweizerische Taskforce für ein schweizweites Case-Management bei Intensivtätern.
+Auf die Sicherheit achtet das SEM natürlich schon beim Eintritt von Asylsuchenden in die BAZ, dies gerade im Hinblick auf den Terrorismus. Das SEM macht bei allen Asylsuchenden eine standardisierte Sicherheitsüberprüfung. Das SEM fragt aufgrund der Fingerabdrücke und anderer Informationen sämtliche einschlägigen Datenbanken ab. Bei offenen Fragen schickt das SEM das Dossier zur weiteren Abklärung an den Nachrichtendienst des Bundes (NDB). Letztes Jahr hat der Nachrichtendienst 596 Asyldossiers und vier Gesuche für den Schutzstatus S unter die Lupe genommen.
+Das Thema Terrorismus beschäftigt uns vor allem ausserhalb des Asylbereichs, auch wenn dies mit Blick auf unsere Nachbarländer natürlich nicht völlig voneinander zu trennen ist. Auch die Terrorismusbekämpfung ist eine Verbundaufgabe: Bund und Kantone sind beide dafür verantwortlich. Die Schweiz hat ihr Instrumentarium in den letzten Jahren als Reaktion auf die Anschlagsserie in den Jahren 2015 und 2016 systematisch und schrittweise ausgebaut. Schwerpunkte sind die Bereiche Prävention und Repression. Bund und Kantone legen bei der Terrorismusprävention zum Beispiel einen Fokus auf Jugendliche und junge Erwachsene. Das ist offensichtlich der richtige Ansatz. Die Kantone haben in den letzten Jahren auch Fachstellen aufgebaut, um Radikalisierungen so früh wie möglich zu erkennen. Wir wissen aufgrund der wissenschaftlichen Forschung aber auch, dass die Kleinräumigkeit der Schweiz, das funktionierende Verbandsleben und die Jugendtreffs ganz wichtige Präventionsmassnahmen sind.
+Im Bereich Repression sind unsere Behörden ebenfalls aktiv, auch wenn ich immer wieder höre, das stimme nicht. Die Bundesanwaltschaft und das Fedpol ermitteln aktuell in etwa 120 Fällen. Es geht dabei insbesondere um terroristische Online-Propaganda, finanzielle Unterstützung terroristischer Organisationen von der Schweiz aus und dschihadistisch motivierte Reisen. Weitere Instrumente sind Einreiseverbote oder auch Ausweisungen - auch hier sind wir aktiv. Das Fedpol hat im letzten Jahr zum Beispiel 126 Einreiseverbote wegen Terrorismusverdachts ausgesprochen, so viele wie seit mehreren Jahren nicht. 
+Mit dem Bundesgesetz über polizeiliche Massnahmen zur Bekämpfung von Terrorismus haben wir ein weiteres wichtiges Instrument zur Hand. Im letzten Jahr kamen solche Massnahmen in vier Fällen zur Anwendung. Diese Instrumente sind keine Papiertiger, sondern es sind wichtige Instrumente, mit denen die Behörden arbeiten. In den nächsten Jahren kommen mit dem "Passenger Name Record" (PNR) und der nationalen polizeilichen Abfrageplattform (Polap) hoffentlich weitere Instrumente für den Kampf gegen den Terror hinzu. Ich setze zur Einführung dieser Instrumente auf Ihre Unterstützung. 
+Gleichzeitig sind wir an einer Ressourcenüberprüfung. Die Eidgenössische Finanzkontrolle schaut, ob die Bundesanwaltschaft, der NDB und das Fedpol genügend Ressourcen haben. Nach den ersten Anschlägen in Deutschland habe ich umgehend reagiert und den Auftrag erteilt, die Antiterrorstrategie nochmals grundsätzlich zu überprüfen. 
+Ein weiteres Thema in diesem Zusammenhang ist die grenzüberschreitende Kriminalität. Dies können beispielsweise Banden sein, die in die Schweiz kommen und hier in Häuser einbrechen. Was machen wir am besten dagegen? Wir müssen Informationen schnell und effizient mit unseren Nachbarländern austauschen, und wir müssen auch operativ eng zusammenarbeiten. Das machen wir schon heute. Wir wollen diese Zusammenarbeit aber weiter intensivieren, weil wir festgestellt haben, dass die grenzüberschreitende Zusammenarbeit, die gezielte Bekämpfung dieser Kriminalität zentral ist und eben Wirkung zeigt.
+Wir können auch über den Bereich Rückkehr sprechen. Sie wissen, dass die Schweiz hier sehr stark ist. Bei den Dublin-Überstellungen konnten wir uns um über 18 Prozent steigern. Letztes Jahr konnten wir auch zum ersten Mal die Zahlen der Kantone zu den Landesverweisungen auswerten. Schon da hatten wir drei Viertel aller im Vorjahr angeordneten Landesverweisungen vollzogen. Das werden noch mehr, und das hat mich positiv überrascht. Wie Sie wissen, haben wir auch fünf Straftäter nach Afghanistan zurückführen können. Das war vorher jahrelang nicht möglich. All dies trägt ebenfalls zur Sicherheit im Asylbereich bei. 
+Manchmal sind wir auf die Mitwirkung einer ausländischen Regierung oder der Kantone angewiesen. Zum Beispiel möchten wir seit Jahren ein besonderes Zentrum für renitente Asylsuchende in der Deutschschweiz einrichten, aber bisher hat sich kein Kanton dazu bereit erklärt. 
+Sie sehen also: Der Bundesrat nimmt seine Verantwortung wahr. Zusammen mit den Kantonen und Gemeinden machen wir, was im Rahmen der Bundesverfassung wirksam, sinnvoll und möglich ist. Aber was bringt es, wenn wir Asylsuchende in die Nothilfe schicken? Was bringt es, wenn wir sie, nur weil sie Asylsuchende sind, von ihren Familien trennen? Was bringt es, wenn wir Verdächtige unterschiedslos einsperren oder ein wirkungsloses Gesetzesdispositiv hochfahren? Das gibt zwar eine Schlagzeile, bringt aber nichts und ist [PAGE 232] sogar kontraproduktiv. Wir wecken nämlich falsche Erwartungen und machen der Bevölkerung etwas vor. 
+Ich will jetzt nicht in die weltpolitische Kiste greifen, aber wir sehen gerade viele Beispiele dieser Art von Politik: grosse Ankündigungen, keine oder gar eine negative Wirkung - und die Folge davon ist noch mehr Verunsicherung und Politikverdrossenheit, also das Gegenteil von dem, was Sie und der Bundesrat eigentlich erreichen wollen. 
+Der Bundesrat beschönigt nichts, verstehen Sie mich nicht falsch. Es stimmt, es gibt straffällige Asylsuchende, und ja, manche tauchen unter, das kann verunsichern. Es kommen auch nicht nur verfolgte Menschen auf der Suche nach Schutz zu uns, es kommen auch Menschen ohne Perspektive auf der Suche nach einer besseren Zukunft zu uns, auch solche, die sich nicht an unsere Rechtsordnung halten wollen. Es ist zwar eine Minderheit, aber Straftaten akzeptieren wir auch nicht von einer Minderheit. Es gehört zur Verantwortung des Bundesrates, etwas dagegen zu unternehmen, zusammen mit den anderen zuständigen Bundesbehörden, mit den Kantonen und Gemeinden und auch mit den Nachbarländern und unseren europäischen Partnerländern. Der Bundesrat nimmt diese Verantwortung ernst, darum unternehmen wir beim Thema Sicherheit so viel. 
+Die Mehrheit Ihrer Vorstösse bringt uns allerdings nicht weiter, im Gegenteil. Sie kennen zwar die schriftlichen Stellungnahmen des Bundesrates, doch ich gehe trotzdem auf jeden einzelnen Vorstoss hier ein.
+Zuerst zur Motion Schmid Pascal 24.3716, "Bevölkerung schützen. Kein Asylverfahren und kein Bleiberecht für Verbrecher", zunächst dies: Der Bundesrat teilt das Anliegen, dass wir Kriminalität auch bei Schutzsuchenden, vorläufig Aufgenommenen und Flüchtlingen nicht tolerieren dürfen. Die Bekämpfung von Kriminalität ist eine gemeinsame Verantwortung von Bund und Kantonen. Der Ausschluss oder der Widerruf von Asyl ist schon heute möglich. Das SEM respektive die Gerichte wenden dies auch an. Beim Status S gibt es vergleichbare Bestimmungen, und bei Rückführungen sind die Hürden für eine Ausschaffung tiefer, wenn jemand eine Landesverweisung bekommen hat. Darum konnten wir letztes Jahr auch mehrere Personen nach Afghanistan rückführen. Es gibt also bereits im geltenden Recht griffige Möglichkeiten, und Bund und Kantone nutzen diese auch. Sie prüfen dabei jeden einzelnen Fall und ergreifen die jeweils angemessenen und verhältnismässigen Massnahmen. 
+Was aber nicht geht, ist, alle Personen ohne Einzelfallprüfung vom Asylverfahren ausschliessen zu wollen. Das verbietet die Verfassung. Wer effektiv Schutz vor Verfolgung benötigt, muss diesen auch bekommen können, denn Menschenrechte gelten letztlich auch für Straftäter. Dazu gehört insbesondere das Non-Refoulement-Gebot. Es ist in unserer Verfassung verankert und zwingend. Wir dürfen niemanden in den Tod schicken. 
+Die Motion schafft neben den rechtlichen auch praktische Probleme. Was passiert mit den Menschen, die kein Bleiberecht haben, aber trotzdem nicht zurückgeführt werden? Sie landen in der Nothilfe, wo erst recht das Risiko besteht, dass sie kriminell werden. Den Kantonen tun Sie damit keinen Gefallen, denn sie müssen sich trotzdem um diese Menschen ohne jede Perspektive kümmern. 
+Diese Motion löst also keine Probleme, sondern schafft neue. Sie ist kontraproduktiv. Der Bundesrat beantragt daher, die Motion abzulehnen. 
+Damit komme ich zur Motion Riner 24.3734, "Bevölkerung schützen. Bewegungsfreiheit von Asylkriminellen konsequent einschränken". Wir können die Bewegungsfreiheit von Asylsuchenden unter gewissen Voraussetzungen schon heute einschränken. Ich habe es erwähnt, es stehen uns dafür strafrechtliche Massnahmen und die Administrativhaft zur Verfügung. Im Rahmen der runden Tische arbeiten wir mit den Kantonen daran, dass sie diese Möglichkeiten besser ausschöpfen. Die Motion Riner geht aber viel weiter: Sie will die Bewegungsfreiheit von Asylsuchenden sowie abgewiesenen Asylsuchenden und von Migrantinnen und Migranten ohne Aufenthaltsrecht systematisch bis zum Strafvollzug und bis zur Ausschaffung einschränken, sobald gegen sie ein Strafverfahren wegen eines Verbrechens oder Vergehens eingeleitet wurde. Auch dies ist eine pauschale Regelung ohne Einzelfallprüfung; sie widerspricht dem in unserer Verfassung verankerten Prinzip der Verhältnismässigkeit. 
+Die Motion ist aber nicht nur verfassungswidrig, sie ist praktisch gar nicht umsetzbar. Wir haben derzeit ein einziges besonderes Asylzentrum für renitente Asylsuchende. Das ist keine geschlossene Einrichtung, und kein einziger Kanton hat bislang einen zusätzlichen Standort zur Verfügung gestellt. Genau deshalb erörtern wir ja diese Fragen in der Gesamtstrategie Asyl zusammen mit den Kantonen und Gemeinden - sie müssen es am Schluss umsetzen und sie wissen am besten, wie das funktioniert. In den Gefängnissen hat es bei Weitem nicht genügend Platz für alle, die bloss einer Straftat verdächtigt werden. Der Bundesrat beantragt Ihnen deshalb, auch diese Motion abzulehnen.
+Wir kommen zur Motion Stark 24.4444, "Von Dänemark und Schweden lernen. Familiennachzug auf die Interessen der Schweiz ausrichten". Sie verlangt Einschränkungen beim Familiennachzug nach dem Vorbild von Dänemark und Schweden. Dadurch soll das Bevölkerungswachstum gebremst werden. Die vorgeschlagene Massnahme würde dies aber nicht erreichen. Nur eine geringe Anzahl von Personen kommt jährlich über den Familiennachzug in die Schweiz. Wie Sie wissen, sind die Regeln für den Familiennachzug schon heute sehr streng formuliert. Es gelten klare, strenge Voraussetzungen, die die Behörden im Einzelfall konsequent überprüfen. Auch diese Motion fordert aber wieder absolute Regeln, die unabhängig vom Einzelfall gelten sollen, und damit landen wir wieder bei der Bundesverfassung und beim Grundsatz der Verhältnismässigkeit. Auch hier erreichen Sie unter dem Strich das Gegenteil von dem, was Sie erreichen möchten. Wer seine Familie nachziehen will, muss bei uns einen Job haben, auf eigenen Beinen stehen, sich an unsere Regeln halten. Und was ist ein besserer Ansporn, sich zu integrieren, als eine Familie und Kinder, die die Schule besuchen? Wenn Sie diesen Menschen diese Perspektive nehmen, nehmen Sie ihnen die Perspektive ganz generell, und das ist gefährlich. Der Bundesrat empfiehlt deshalb auch diese Motion zur Ablehnung.
+Die Motion 24.4321, "Wer über sichere Drittstaaten einreist, wird an der Grenze zurückgewiesen", stammt ebenfalls von der SVP-Fraktion. Schon heute treten wir nicht auf Asylgesuche von Personen ein, die nicht auf den Schutz der Schweiz angewiesen sind, weil sie diesen in einem anderen Staat beanspruchen können. Das prüfen wir immer im Einzelfall. Diese Motion will nun, dass wir Geflüchteten, die aus einem Nachbarstaat einreisen, pauschal kein Asyl gewähren und sie an der Grenze ohne Asylverfahren zurückweisen. Entgegen der Behauptung der SVP-Fraktion würde dieses Vorgehen gegen die Flüchtlingskonvention verstossen. Bedenken Sie, weder im Rahmen der Definition des Flüchtlingsbegriffes noch bei den Ausschlussgründen gemäss Genfer Flüchtlingskonvention ist vorgesehen, dass Personen von der Flüchtlingseigenschaft ausgeschlossen werden können, nur weil sie durch einen sicheren Staat gereist sind. Diese Motion missachtet ausserdem das Non-Refoulement-Prinzip. Sie steht deshalb auch im Widerspruch zur Europäischen Menschenrechtskonvention und zur Bundesverfassung. 
+Auch hier kommt wieder die praktische Umsetzung hinzu. Das BAZG ist im Rahmen der Zollkontrollen an der Grenze präsent. Es kann aber nicht jede Person kontrolliert werden - dafür haben wir gar nicht die Ressourcen. Ebenso wenig können wir den Personen an der Grenze pauschal den Zugang zum Asylverfahren verweigern oder sie einfach zurückweisen. Unsere Nachbarländer würden entsprechende Rückweisungen erst gar nicht akzeptieren. Die Sekundärmigration einzudämmen ist eine Aufgabe, die gesamteuropäisch gelöst werden muss. Der Migrations- und Asylpakt der EU verfolgt genau dieses Ziel.
+Ich komme zur Motion 24.4508 der FDP-Liberalen Fraktion, "Unterstützung der Kantone beim Wegweisungsvollzug". Diese fordert, dass der Bundesrat Massnahmen prüft und umsetzt, um die Kantone beim Vollzug von Wegweisungen zu entlasten und zu unterstützen. Bereits heute arbeitet das SEM beim Vollzug der Wegweisungen intensiv mit den Kantonen zusammen. Das SEM und die Kantone überprüfen [PAGE 233] auch regelmässig, wo man was noch optimieren kann. Der Vollzug der Wegweisung ist eine Verbundaufgabe von Bund und Kantonen. Die Kantone sind dafür zuständig, rechtskräftige Wegweisungen zu vollziehen. Das SEM unterstützt die Kantone bei der Identifizierung und Papierbeschaffung der ausreisepflichtigen Personen sowie bei der Organisation der Ausreise. Zudem setzt der Bund bereits heute nebst den personellen Ressourcen auch bedeutende finanzielle Ressourcen zur Unterstützung der Kantone ein. Weiter können sich die Kantone bei Rückführungen auch gegenseitig personell unterstützen.
+Sie sehen: Bereits heute haben wir Instrumente, damit der Bund die Kantone im Vollzugsbereich unterstützen kann. Trotzdem prüft der Bundesrat zurzeit im Rahmen der Erfüllung der Motion Salzmann 23.3082 und im Rahmen der Gesamtstrategie Asyl weitere Optimierungsmassnahmen - auch im Bereich der Rückkehr. Die Motion rennt also offene Türen ein. Wir sind daran. Sie würden so nur die Verhandlungsposition des Bundes schwächen. Deshalb empfiehlt der Bundesrat diese Motion zur Ablehnung.
+Jetzt zur Motion 24.4323 der SVP-Fraktion, "Änderungen der internationalen Gesundheitsvorschriften. Den demokratischen Prozess gewährleisten": Das ist ein ganz anderes Thema. Es geht um die Änderungen der Internationalen Gesundheitsvorschriften. Ich vertrete hier das EDI, das dafür zuständig ist. Die Internationalen Gesundheitsvorschriften der WHO (IGV) von 2005 sind ein völkerrechtlich verbindliches Instrument. Die 196 Vertragsstaaten der IGV haben letztes Jahr Anpassungen beschlossen. Der Bundesrat führte dazu von November 2024 bis Ende Februar 2025 eine Vernehmlassung durch. Parallel zur Vernehmlassung wurden auch die zuständigen parlamentarischen Kommissionen konsultiert. Im Rahmen dieser Konsultationen wurden den beiden zuständigen Kommissionen des Nationalrates sowie der Kommission für soziale Sicherheit und Gesundheit[NB]des[NB]Ständerates[NB]Anträge unterbreitet, die mit der vorliegenden Motion identisch sind. Diese Anträge wurden in allen drei Parlamentskommissionen mit deutlicher Mehrheit abgelehnt.
+Nach Abschluss des Vernehmlassungsverfahrens wertet das EDI derzeit die Ergebnisse aus. Parallel dazu wird die juristische Frage der Abschlusskompetenz unter Berücksichtigung der bestehenden Delegationsnormen, der Tragweite und der Art der Anpassungen analysiert. Da wir uns mit diesen Arbeiten innerhalb der gesetzten Fristen bewegen, ist der Bundesrat der Ansicht, dass eine präventive Ablehnung der Änderungen, wie von der Motion gefordert, nicht nötig ist. Aus diesen Gründen beantragt der Bundesrat, die Motion abzulehnen.
+Schliesslich vertrete ich auch das EFD und komme zur Motion 25.3026 der SPK-N, "Intensivierung der Grenzkontrollen an der Schweizer Landesgrenze". Die Ständeratskommission hat eine gleichlautende Motion als Reaktion auf die Motion Chiesa angenommen. Diese fordert eine systematische Kontrolle an der Landesgrenze und Einreiseverweigerungen, ohne zu erklären, was sie unter "systematisch" genau versteht. Ihre Staatspolitische Kommission hat am 21.[NB]Februar ihrerseits eine gleichlautende Motion beschlossen. Damit beantragt sie dem Bundesrat eine Intensivierung der Kontrollen an der Grenze. Sie verlangt, dass diese im Rahmen des bestehenden Zolldispositivs an der Grenze und im Grenzraum durchgeführt werden; sie will also eine Wiedereinführung von Kontrollen an der Schengen-Binnengrenze. Zudem fordert die Kommissionsmotion, dass Personen, die keine Aufenthaltsberechtigung haben und keinen Asylantrag stellen, konsequent weggewiesen werden. Der Bundesrat beantragt Annahme der Motion, weil das BAZG diese unter Einhaltung aller Verpflichtungen der Schweiz als assoziierter Schengen-Staat umsetzen kann.
+Trotzdem noch ein Wort zu einer allfälligen Umsetzung: Eine Möglichkeit besteht darin, dass mehr Angehörige des BAZG Kontrollen durchführen. Dazu muss jedoch entsprechend geschultes Zollpersonal Zugriff auf die nötigen Datensysteme bekommen. Das EFD wird dem Bundesrat so bald als möglich einen entsprechenden Antrag stellen. Eine andere Möglichkeit besteht darin, dass die Kantone die Kontrollen auf ihrem Gebiet intensivieren, da ihnen die Polizeihoheit obliegt. Das BAZG kann sie dabei unterstützen. Diese Massnahmen werden zu einer höheren Kontrolldichte führen. In der aktuellen Migrationslage kann das BAZG die Motion mit dem zur Verfügung stehenden Personal massvoll umsetzen. Mittel- bis langfristig besteht aber Bedarf, nicht nur technische Überwachungsmittel anschaffen, sondern auch Personal anstellen zu können, wenn man bei den anderen Aufgaben des BAZG keine Abstriche in Kauf nehmen will. Der Bundesrat wird sich zu gegebener Zeit mit den möglichen Anträgen dazu befassen. 
+Ich danke für Ihre Geduld.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je n'ai jamais vu un lobbying aussi intense sur un dossier qui concerne l'armée; d'ailleurs, j'ai interpellé le Conseil fédéral sur cette question qui touche aux participations, aux entreprises qui sont quasi à 100 pour cent en main de la Confédération, pour savoir si un lobbying est autorisé ou pas. La Poste nous interpelle; c'est sympathique, mais elle dépend à 100 pour cent de la Confédération. J'aurais plutôt aimé que ce soit le conseiller fédéral Rösti qui nous parle de la Poste. 
+Sur Beyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je n'ai jamais vu un lobbying aussi intense sur un dossier qui concerne l'armée; d'ailleurs, j'ai interpellé le Conseil fédéral sur cette question qui touche aux participations, aux entreprises qui sont quasi à 100 pour cent en main de la Confédération, pour savoir si un lobbying est autorisé ou pas. La Poste nous interpelle; c'est sympathique, mais elle dépend à 100 pour cent de la Confédération. J'aurais plutôt aimé que ce soit le conseiller fédéral Rösti qui nous parle de la Poste. 
+Sur Beyond Gravity, j'aurais également aimé que ce soit la conseillère fédérale responsable de l'armée, voire la conseillère fédérale chargée de vendre Beyond Gravity, qui s'exprime. Non: ce sont des lettres qui viennent d'Economiesuisse, du président-directeur général de l'entreprise. Cela m'interpelle. On lit dans la presse que ces gens sont au bénéfice d'un bonus potentiel si l'on vend l'entreprise. Si tel est le cas, cela me pose un vrai problème. 
+Tout à l'heure, nous débattrons de la motion du conseiller national Roger Golay à propos des parachutes dorés. Si réellement l'on paie des gens des bonus pour vendre une entreprise, cela m'interpelle. 
+Je rappelle que le Contrôle fédéral des finances vient de nous délivrer deux rapports sur Ruag concernant de potentiels conflits d'intérêts, voire des malversations. Je me réjouis de voir ce que dira la justice, puisque des plaintes pénales ont été déposées. 
+Revenons à ce dossier. Tout d'abord, il y a une très grande inertie. Je suis entré au Conseil des Etats il y a à peu près une année. C'est vrai qu'on était dans un autre monde. On voulait regrouper les centres logistiques de l'armée en vendant des casernes. On a supprimé des places d'armes dans le domaine de l'aviation en les regroupant sur certains sites, à Emmen et à Payerne, dans le canton de Vaud. On a également décidé de se désengager d'entreprises qui fabriquent de la poudre et des munitions, comme Ruag Ammotec. On s'en mord les doigts. Je me réjouis de savoir ce qu'il se passera concernant le licenciement potentiel de 400 à 700 personnes. Quand je vous dis que le monde a changé: cela s'est encore accéléré avec l'arrivée de M.[NB]Trump. J'ai pu lire des déclarations sur ce sujet depuis à peu près une semaine: si l'Europe doit se défendre elle-même, si elle doit se coordonner, quel est l'enjeu par rapport aux F-35, puisque c'est une arme américaine, qui est en main américaine. Il y a aussi un enjeu territorial, puisque quatorze pays européens ont acheté le F-35 et qu'il y a donc une coordination de fait. 
+Si le monde a changé, on doit aussi être capable de comprendre les nouveaux enjeux. Dans le domaine aérospatial et dans le domaine des satellites, il y a à peine 48 heures, on a pu lire que M.[NB]Elon Musk est capable de bloquer l'Ukraine. Il presse sur un bouton et cela donne la possibilité ou pas d'avoir des informations sur le conflit. C'est quand même assez surprenant. Ce qui nous occupe ici se situe bien dans ce secteur. La Suisse ne sera jamais un pays lanceur de satellites. Par contre, la Suisse peut travailler en concertation, en coordination dans le domaine de la recherche, intelligemment, dans un monde globalisé qui est en train de se reconfigurer. 
+Les Chinois sont-ils nos amis? Je n'en sais rien. Les Américains sont-ils toujours nos amis? Je n'en sais toujours rien aujourd'hui. Ces questions sont sur la table. Ces prochains mois et ces prochaines années, il y aura un renforcement très important dans le domaine de la défense et dans le domaine de la dépense militaire. Pour le budget 2025, nous avons débloqué 530 millions de francs, ce qui n'est pas rien. J'attends de l'armée et du DDPS qu'on ait enfin une feuille de route pour savoir comment dépenser cet argent? 
+Peut-être que c'est dans le cadre de l'aérospatial, dans la recherche avec les EPF, les hautes écoles que nous avons sur le territoire suisse, y compris les HES - je rappelle que l'école d'ingénieurs d'Yverdon par exemple, de temps en temps, a lancé des petits satellites en coordination avec d'autres entreprises.
+Aujourd'hui, je pense qu'il est sain que l'on fasse un choix, parce qu'il n'est pas normal qu'on attende si longtemps. Le rapporteur, M.[NB]Juillard, a évoqué les sommes qui sont en jeu. Quand ce dossier est passé dans la commission du Conseil des Etats pour cette 52e législature, on parlait de 700 à 800 millions de francs; maintenant, on parle de 400 à 800 millions, potentiellement, pour la vente. On peut vendre partiellement; c'est pour cela que je crois que le texte défendu par M.[NB]Juillard au nom de la majorité de la commission est beaucoup plus intéressant que le texte de notre collègue Dittli, que je soutiens aussi, mais il faut faire un choix. On ne peut pas avoir les deux textes, puisqu'ils sont contradictoires.
+Le choix qui a été retenu par le Conseil national me plaît, parce qu'il donne la possibilité au Conseil fédéral de revenir avec une feuille de route. D'autant plus, comme je l'ai dit, que le monde a changé. On parle de Starlink versus Eutelsat - c'est le modèle européen - et on dit qu'Eutelsat est prévu pour 2030; on est dans le modèle.
+Je pense qu'on a une opportunité de pouvoir investir et d'avoir une stratégie positive pour notre pays dans le domaine de la recherche. C'est pour cela que je vous encourage à faire comme le Conseil national, d'accepter la motion et de demander ensuite au Conseil fédéral - puisque la motion est large - une feuille de route pour cette stratégie qui touche l'aérospatial et qui touche également l'avenir de la Suisse, en coordination avec d'autres pays européens.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hässig Patrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es geht hier um eine technische Sache, es ist nicht ganz unkompliziert, aber eben wichtig. Aktuell ist es so, dass die Kantone die [PAGE 250] Zivilschutz-Soll-Bestände eigenständig festlegen können. Das klingt im ersten Moment eigentlich gut. Nun beginnt es aus unserer Sicht jedoch zu hinken: Die Kantone sind nämlich auch frei, auf welchen Grundlagen oder Kriterien sie die Berechnung des Soll-Bestandes basieren. Wenn wir eine minimale Einheitlichkeit der Kriterien des Soll-Bestandes des Zivilsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es geht hier um eine technische Sache, es ist nicht ganz unkompliziert, aber eben wichtig. Aktuell ist es so, dass die Kantone die [PAGE 250] Zivilschutz-Soll-Bestände eigenständig festlegen können. Das klingt im ersten Moment eigentlich gut. Nun beginnt es aus unserer Sicht jedoch zu hinken: Die Kantone sind nämlich auch frei, auf welchen Grundlagen oder Kriterien sie die Berechnung des Soll-Bestandes basieren. Wenn wir eine minimale Einheitlichkeit der Kriterien des Soll-Bestandes des Zivilschutzes möchten, dann müssen Sie meiner Minderheit I zustimmen, sodass diese eingeführt und das in der Gesetzgebung korrigiert werden kann.
+Warum macht das Sinn? Neu sollen nun Personen aus dem Zivildienst für den Zivilschutz verpflichtet werden können, wenn die kantonalen Zivilschutzorganisationen ihre Soll-Bestände nicht erreichen. Wie Sie wissen, ist der Zivilschutz bei den Kantonen angesiedelt. Der Zivildienst hingegen ist das Instrument der zivilen Sicherheitspolitik des Bundes. Konkret heisst das Folgendes: Gemäss dem aktuellen Entwurf könnten die Kantone ihre Zivilschutz-Soll-Bestände eigenständig erhöhen, bis ihr Soll-Bestand höher ist als ihr Ist-Bestand, und sich daraufhin bei den Zivildienstbeständen des Bundes bedienen. Mehr noch, sie müssten dafür nicht einmal etwas bezahlen, denn die Mehrheit der Kommission will die Zivilschutzorganisationen von der Abgabe befreien, die alle anderen Zivildiensteinsatzbetriebe bezahlen müssen.
+Im Hinblick auf Ereignisse, die nicht das ganze Land, sondern einen oder mehrere Kantone betreffen, ist der Ausgleich von Unterbeständen des Zivilschutzes mit Mitteln des Bundes, also durch Zivis aus dem Zivildienst, grundsätzlich nicht angebracht, denn die Kantone können und müssen einander unterstützen. Hier braucht es keine Unterstützung durch Zivildienstleistende. Die Eidgenössische Finanzkontrolle (EFK) hat in ihrer Evaluation der Covid-19-Pandemie ein geringes Ausmass an interkantonaler Unterstützung im Zivilschutz festgestellt. Dieses Potenzial gilt es auszuschöpfen.
+Wenn nun also trotz dieser Ausgangslage Zivildienstleistende verpflichtet werden sollen, Ausbildungsdienste des Zivilschutzes zu leisten, dann müssen die Soll-Bestände der Kantone wenigstens aufgrund einheitlicher Kriterien berechnet werden, und zwar so, dass sie den nationalen Soll-Bestand gewährleisten, aber nicht überschreiten.
+Ebenfalls fordert meine Minderheit I, dass die Kantone dem Bundesamt für Bevölkerungsschutz die Zahlen zu den Beständen jährlich zur Verfügung stellen. Ebenfalls sollen die Grundlagen zur Feststellung des Soll-Bestandes nach jeder Aktualisierung zur Verfügung gestellt werden, und zwar nicht auf Anfrage, sondern eben bei jeder Aktualisierung. Bitte unterstützen Sie dazu die Minderheit I (Hässig Patrick) zu Artikel 36.
+Auch bei der Vorlage B bedarf es aus Sicht der Grünliberalen Fraktion noch einiger Verbesserungen, damit die Vorlage ausgewogen und zielgerichtet ausfällt. Einen Grundsatz gilt es dabei klar zu beachten, damit die Vorlage ausgewogen ist: Es sollen nur Zivildienstleistende für den Zivilschutz verpflichtet werden, wenn der Zivilschutz vorher seine eigenen personaltechnischen Möglichkeiten voll ausgeschöpft hat. Meine Minderheit I zu Artikel 31 korrigiert einen Fall, wo dieser Grundsatz nicht eingehalten wird. Der aktuelle Entwurf sieht nämlich vor, dass das Höchstalter der Schutzdienstpflicht von 36 auf 38 Jahre angehoben wird. Doch damit tatsächlich alle 14 Jahre Schutzdienst leisten, müsste das Höchstalter nicht auf 38, sondern auf 40 Jahre erhöht werden. Das wurde übrigens auch in verschiedenen Stellungnahmen im Rahmen des Vernehmlassungsverfahrens so gefordert.
+Der Zivilschutz ist die einzige Dienstorganisation, die eine Altersgrenze kennt. Im Militär und im Zivildienst hingegen leistet man einfach seinen Dienst und wird dann entlassen. Bitte unterstützen Sie deshalb die Minderheit I (Hässig Patrick) zu Artikel 31.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bertschy Kathrin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich bitte Sie namens meiner Minderheit, die Motion, welche das Depotbankmandat der Ausgleichsfonds aufkündigen will, abzulehnen. Die Motion ist irreführend. Sie verletzt die Rechtssicherheit, und was gefordert wird, liegt nicht in unserem Entscheidungsbereich. Es handelt sich hier um eine Motion, die bereits in der SGK-N behandelt wurde. Sie wurde dort abgelehnt. Die SGK-N, die für den Ausgleichsfonds der AHV zuständig ist, hat sich im November mit der Vergabe dieses Depotbankmandats beschäftigt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich bitte Sie namens meiner Minderheit, die Motion, welche das Depotbankmandat der Ausgleichsfonds aufkündigen will, abzulehnen. Die Motion ist irreführend. Sie verletzt die Rechtssicherheit, und was gefordert wird, liegt nicht in unserem Entscheidungsbereich. Es handelt sich hier um eine Motion, die bereits in der SGK-N behandelt wurde. Sie wurde dort abgelehnt. Die SGK-N, die für den Ausgleichsfonds der AHV zuständig ist, hat sich im November mit der Vergabe dieses Depotbankmandats beschäftigt. Sie hat Anhörungen durchgeführt, sie hat Antworten von der Bundesrätin eingefordert, und sie[NB]hat[NB]die[NB]Anträge[NB]zur[NB]gleichlautenden Motion allesamt abgelehnt.
+Zur Einbettung ist es wichtig zu wissen, dass das Mandat der globalen Depotbank für den AHV-Ausgleichsfonds Ende der Neunzigerjahre an die UBS vergeben wurde. Zwanzig Jahre später empfahl die Eidgenössische Finanzkontrolle, das Mandat auszuschreiben. Compenswiss machte das und entschied nach einem kompetitiven Auswahlverfahren auf der Grundlage sachlicher Kriterien. Sachliche Kriterien waren Erfahrung, technische Fähigkeiten, Ruf, Preis-Leistungs-Verhältnis. Compenswiss erteilte der State Street Bank den Zuschlag erteilt. In diesem Bereich ist es wichtig zu wissen, dass die State Street Bank weltweit die Nummer eins oder zwei ist und dass sie viel grösser ist als zum Beispiel die UBS. Die Vorteile liegen auf der Hand. Die AHV spart mit dieser Lösung in den kommenden fünf Jahren 3 bis 5 Millionen Franken zugunsten der Versicherten, und der Personalbedarf und die Fehlerquote sinken. Die State Street Bank ist schlicht erfahrener. 
+Eine Aufkündigung des Mandats, wie es die Motion verlangt, widerspricht erstens unserem Verständnis von Rechtssicherheit. Private Firmen sollen sich auf geregelte Beschaffungsprozesse verlassen können. Sie widerspricht auch unserem Verständnis von Rechtssicherheit, indem sie eine wichtige Bankengruppe diskriminiert, da künftig sämtliche in der Schweiz tätigen Auslandbanken von einem Depotbankmandat von Compenswiss ausgeschlossen wären. Die Auslandbanken sind aber ein wichtiger Pfeiler des Schweizer Bankenplatzes. 
+Zweitens liegt die Motion nicht in unserem Entscheidungsbereich. Die Vergabe des Mandats liegt im Kompetenzbereich des Compenswiss-Verwaltungsrates, welcher eine Ausschreibung gemacht und diese Vergabe nach sachlichen Kriterien beschlossen hat. 
+Drittens, und das ist fast das Wichtigste für mich, ist die Motion irreführend. Anders als dargestellt, verwaltet die Depotbank in keiner Weise die Vermögenswerte von Compenswiss. Compenswiss bleibt allein für die Verwaltung des[NB]Vermögens[NB]verantwortlich. Die Rolle einer globalen Depotbank ist hauptsächlich eine administrative. Sie übernimmt das Reporting, sie übernimmt die Performance-Berechnung, und sie übernimmt die Wahl der Unterdepotbanken in jedem Land. Compenswiss hat in über 120 Ländern Vermögenswerte hinterlegt. Es gibt also in jedem Land eine Unterdepotbank, welche diese Vermögenswerte lagert. Die US-Vermögenswerte des AHV-Ausgleichsfonds befinden sich in den USA, die japanischen befinden sich in Japan, die schweizerischen in der Schweiz. Ein Wechsel der Depotbank hat keine Auswirkungen auf die Wahl des Ortes bzw. des Landes, in dem die Vermögenswerte verwahrt werden. Mit dem Wechsel der Depotbank wurden auch keine Vermögenswerte aus der Schweiz in die USA transferiert. Das Einzige, was sich geändert hat, ist, dass die US-Vermögenswerte nicht mehr bei der UBS in den USA, sondern bei der State Street Bank in den USA lagern. 
+Jetzt wurde suggeriert, dass die Schweizer Vermögenswerte des AHV-Ausgleichsfonds infolge des Wechsels des Depotbankmandats von der UBS zur amerikanischen State Street Bank im Falle einer willkürlichen Handlung der US-Regierung schlechter geschützt seien. Auch das ist nicht der Fall. Wenn die USA aus irgendeinem Grund Sanktionen gegen die Schweiz verhängen würden, wäre die Ausgangslage für uns die gleiche, ob nun die UBS New York oder die State Street Bank die Depotbank ist. Die Schweizer Vermögenswerte wären im zweiten Fall vermutlich sogar besser geschützt, weil die US-Regierung eine amerikanische[NB]Bank[NB]vielleicht[NB]besser[NB]behandelt[NB]als eine schweizerische Bank. 
+Aus all diesen Gründen hat die SGK-N im November eine identische Motion abgelehnt. Nicht nur Compenswiss, auch der Bundesrat und Swiss Banking lehnen diese Motion ab, so wie Ihnen das die Minderheit der WAK-N beantragt. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compenswiss est chargé d'administrer la fortune et les liquidités de l'AVS, de l'AI et du régime des APG. Il a été dit que la décision prise par Compenswiss est une erreur politique, possiblement juridique. On voit que la question est sensible et c'est important que l'on puisse en discuter. Il est aussi important de mentionner qu'il est doté de la personnalité juridique et que cet établissement de droit public jouit ainsi d'une indépendance financière et organisationnelle. Le choix de la banque </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compenswiss est chargé d'administrer la fortune et les liquidités de l'AVS, de l'AI et du régime des APG. Il a été dit que la décision prise par Compenswiss est une erreur politique, possiblement juridique. On voit que la question est sensible et c'est important que l'on puisse en discuter. Il est aussi important de mentionner qu'il est doté de la personnalité juridique et que cet établissement de droit public jouit ainsi d'une indépendance financière et organisationnelle. Le choix de la banque dépositaire relève ainsi uniquement de sa compétence et une ingérence du Conseil fédéral à cet égard n'est pas opportune et ne serait pas conforme à la bonne gouvernance. J'ai aussi le sentiment que Compenswiss n'est pas une amicale de lobbyistes, mais un groupe d'experts qui prend ses décisions en bonne intelligence.
+Je tiens quand même à préciser qui est la banque dépositaire. Le mandat a donc été adjugé à "State Street Bank International" Munich, qui l'exécute au travers de sa succursale de Zurich. Cette dernière est soumise à la surveillance de la Finma. Elle est membre de l'"Asset Management Association Switzerland", qui est à son tour membre de l'Association suisse des banquiers. Au sein de cette Association suisse des banquiers, elle participe notamment au groupe de travail relatif aux banques dépositaires. Ce n'est pas juste une banque exotique qui n'est pas en lien avec le microcosme banquier ou financier de notre pays.
+Après 20 ans de collaboration avec le même prestataire, Compenswiss a, sur recommandation du Contrôle fédéral des finances, mis au concours le mandat de banque dépositaire. Après une procédure rigoureuse, le mandat a été attribué à "State Street Bank International" en raison de son expérience, de ses compétences techniques et de son rapport qualité-prix, de sa robustesse financière et aussi de sa réputation.
+Die Depotbank spielt eine rein administrative Rolle, die darin besteht, die Vermögenswerte ihrer Kunden sicher zu verwahren, die Performance-Berechnungen durchzuführen, ein einheitliches Berichtswesen und eine einheitliche Übersicht über die Vermögenswerte zu erstellen und die Abwicklung der Anlagegeschäfte zu überwachen. Der Wechsel der Depotbank hat nicht zu Übertragungen von Vermögenswerten des Ausgleichsfonds in die USA geführt. Die Vermögenswerte bleiben Eigentum von Compenswiss bzw. der AHV/IV/EO-Ausgleichsfonds. Die Wahl der globalen Depotbank hat daher keinen Einfluss darauf, in welchen Ländern die Wertpapiere verwahrt werden, und sie hat keine Auswirkungen auf die Risiken. 
+Même dans la situation improbable où la Suisse serait frappée de sanctions par un Etat étranger, le choix de la banque dépositaire globale n'aurait pas d'importance. En tout les cas, le pays concerné pourrait bloquer les actifs se trouvant dans sa juridiction, que la banque dépositaire globale soit "State Street Bank" ou UBS. Ce n'est donc pas lié au fait que la "State Street Bank" soit la banque dépositaire. Cela pourrait aussi être UBS ou encore une autre banque - il y aurait encore cette possibilité. 
+En cas de crise politique avec les Etats-Unis, il pourrait même être plus avantageux que la banque dépositaire soit américaine, comme cela a été mentionné, car le gouvernement pourrait possiblement hésiter à mettre en péril les activités de ses propres banques.
+Je précise peut-être encore que le mandat attribué à "State Street Bank" ne pourrait pas être dénoncé avant l'échéance de 5 ans, sous peine d'engendrer des coûts significatifs. 
+Je précise également que grâce à ce choix, les fonds de compensation de l'AVS, de l'AI et du régime des APG pourraient, entre autres, économiser entre 3 et 5 millions de francs - sur 5 ans, je le concède. [PAGE 328] 
+Imposer le transfert à une banque suisse plus chère et moins performante nuirait, dès lors, aux assurances et aux assurés. De plus, une dénonciation porterait atteinte à la réputation de la Confédération, avec des conséquences dommageables envers la place financière suisse. 
+En conclusion, l'objectif poursuivi par Compenswiss était de désigner le prestataire permettant à l'établissement de remplir sa mission de manière efficiente et économique et d'accomplir ses tâches dans le meilleur intérêt des trois assurances sociales et des personnes assurées. 
+Vous l'aurez compris: je vous invite, au nom du Conseil fédéral, à soutenir la proposition de la minorité Bertschy et à rejeter la motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuerst möchte ich mich für die interessante und sehr ausführliche Diskussion bedanken. Für mich ist es in der Tat wichtig und wertvoll, mit Ihnen über diese Dinge zu diskutieren und zu wissen, wo Sie Lösungsvorschläge und Ideen sehen. Ich gehe ja auch deshalb regelmässig zu den Kantonen und in die Gemeinden und habe die Mehrheit der Asylzentren besucht, um genau das zu tun, Herr Müller, was Sie von mir verlangen. Sie verlangen, dass ich die Probleme sehe und Ideen entwickle, wie man sie lösen ka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuerst möchte ich mich für die interessante und sehr ausführliche Diskussion bedanken. Für mich ist es in der Tat wichtig und wertvoll, mit Ihnen über diese Dinge zu diskutieren und zu wissen, wo Sie Lösungsvorschläge und Ideen sehen. Ich gehe ja auch deshalb regelmässig zu den Kantonen und in die Gemeinden und habe die Mehrheit der Asylzentren besucht, um genau das zu tun, Herr Müller, was Sie von mir verlangen. Sie verlangen, dass ich die Probleme sehe und Ideen entwickle, wie man sie lösen kann, und auch Vorschläge zu Ihren Handen mache. Das ist für mich das Ziel der ganzen Übung. 
+Aber es ist halt schon so: Nicht jede naheliegende Idee ist auch eine Lösung, schon gar nicht eine gute Lösung. Manches scheint vielleicht auf den ersten Blick vielversprechend; wenn wir es dann aber genauer anschauen, stellen wir fest, dass wir es gar nicht umsetzen können oder damit sogar das Gegenteil von dem bewirken, was wir eigentlich erreichen wollten. Damit ist jetzt wirklich niemandem gedient, nicht der Bevölkerung, nicht den Kantonen, nicht den Gemeinden und auch nicht denjenigen Asylsuchenden, die sich an das Gesetz halten. Wir haben es gehört: Es gibt sehr viele, die das tun. Wir setzen erst noch - und das finde ich ehrlich gesagt das Bedenklichste - das Vertrauen in die Politik aufs Spiel, wenn Vorstösse angenommen werden, die nicht umsetzbar und verfassungswidrig sind. Denn was ist das Resultat? Sie kommen zurück, sie werden kassiert, und dann wird die Bevölkerung erst recht sauer. 
+Sie haben jetzt sehr viele Vorstösse diskutiert, die die irreguläre Migration einschränken und die Sicherheit in der Schweiz verbessern wollen. Das will der Bundesrat auch! Ich habe es schon im Nationalrat gesagt, und ich betone es auch hier wieder: Wir sind dran. Die Bevölkerung soll sich sicher fühlen können. Dafür zu sorgen, ist eine Kernaufgabe des Staates. Das ist unsere Verantwortung, und ich setze mich dafür ein. Ich habe Ihnen zugehört. Man könnte meinen, der Bund tue nichts, Herr Müller. Sie haben das in etwa so dargestellt. Ich gebe Ihnen gerne einen Überblick darüber, was wir, der Bund und die Kantone, im Asylbereich in den letzten Jahren unternommen haben, um die Sicherheit zu verbessern. Sie können sich jetzt zurücklehnen, es ist eine lange Liste. Was noch wichtiger ist: Es sind Massnahmen, die funktionieren und die nachweislich eine Wirkung zeigen. Das ist doch das, was wir wollen.
+Die Corona-Pandemie war eine schwierige Zeit in den Bundesasylzentren (BAZ), weil die Leute dort festsassen. Wir hatten damals deutlich mehr sicherheitsrelevante Vorfälle. Das SEM hat sofort und gut reagiert und das Projekt "Massnahmen für den Umgang mit renitenten Asylsuchenden" (Mara) aufgegleist. Das SEM entwickelte Präventionskonzepte gegen Gewalt. Es stellte Fachpersonen ein, die präventiv tätig sind, um Konflikte zu entschärfen. Es stellte muslimische Seelsorgende ein. Das SEM intensivierte auch die Zusammenarbeit mit Fachärzten für Suchtmedizin. Die meisten BAZ haben zudem private Sicherheitsfirmen angestellt. Diese sind im öffentlichen Raum präsent, sie intervenieren und können Straftaten anzeigen. Die Wirkung war [PAGE 214] eindrücklich, und sie hält bis heute an. Die Zahl der sicherheitsrelevanten Vorfälle pro 100[NB]000 Übernachtungen sank um fast 60 Prozent. Auch die absolute Zahl der Vorfälle in den BAZ ist letztes Jahr im Vergleich zum Vorjahr noch einmal deutlich zurückgegangen.
+Weiter haben wir Anfang 2024 in allen Asylregionen Verantwortliche für Gewaltprävention und Personensicherheit eingesetzt. Das sind neue Stellen, besetzt mit ehemaligen Polizeikadern. Sie sind zuständig für die Sensibilisierung, die Umsetzung des erwähnten Gewaltpräventionskonzeptes und auch für die Aus- und Weiterbildung des Sicherheitspersonals. Sie stehen ausserdem in Kontakt mit der lokalen Polizei. Deswegen werden strafrechtlich relevante Vorfälle konsequent den zuständigen kantonalen Strafverfolgungsbehörden gemeldet.
+Ich komme zum 24-Stunden-Verfahren: Das SEM hat dieses Verfahren im Frühling 2024 schweizweit eingeführt. Dadurch kann das SEM die Verfahren von Asylsuchenden aus Algerien, Marokko, Tunesien und Libyen, Ländern mit einer sehr tiefen Schutzquote, viel schneller abschliessen. Diese Personen halten sich weniger lang in den BAZ auf, und wir können sie auch schneller zurückführen. Das entlastet das System und macht die BAZ und die Umgebung sicher.
+Zu den runden Tischen: Diese haben wir ebenfalls letztes Jahr eingeführt. Wir wollen, dass die involvierten Behörden enger zusammenarbeiten, besonders, Herr Fässler, bei den Intensivtätern, die wiederholt Delikte begehen. Grundsätzlich sind die Kantone für die öffentliche Sicherheit und Ordnung zuständig. An den runden Tischen sitzen sie aber mit dem SEM ebenso zusammen wie mit den Sozial- und Ausländerbehörden der Standortgemeinden, damit wir diese Sicherheitsprobleme gemeinsam diskutieren können. Wir wollen mit diesen runden Tischen erreichen, dass[NB]die[NB]Kantone[NB]die[NB]ausländerrechtlichen Zwangsmassnahmen ausschöpfen, also auch die Ausschaffungshaft. Wir haben nämlich festgestellt, dass die Kantone diesbezüglich noch viel mehr tun können. Die Möglichkeit dazu hätten sie schon heute.
+Im Rahmen der Gesamtstrategie Asyl tun wir noch viel mehr. Das ist, Frau Z'graggen, genau der Ort, wo wir die Auslegeordnung machen. Wir werden im Herbst eine Konferenz zur Auslegeordnung veranstalten, wie sie sowohl Herr Jositsch als auch Frau Moser verlangt haben. Wir arbeiten gerade bei dieser Gesamtstrategie Asyl mit den Kantonen und Gemeinden zusammen, weil sie die Strategie nachher umsetzen müssen. Besonders der Sicherheitsbereich steht ja unter ihrer Hoheit. Im Rahmen der Gesamtstrategie Asyl haben wir Projekte auch schon vorgezogen, z.[NB]B. ein Pilotprojekt für eine gesamtschweizerische Taskforce, die sich mit der Frage eines schweizweiten Case-Managements bei Intensivtätern befasst.
+Ganz konkret auf die Sicherheit achtet das SEM natürlich schon beim Eintritt von Asylsuchenden in ein BAZ. Gerade im Hinblick auf Terrorismus ist es wichtig, zu sagen, dass es dort systematische Sicherheitsüberprüfungen gibt; diese werden sogar vom Nachrichtendienst des Bundes (NDB) unterstützt. Wenn wir Zweifel haben, reichen wir die Asyldossiers an den NDB weiter; dort werden sie dann geprüft. Im letzten Jahr haben wir 590 Asyldossiers vom NDB prüfen lassen.
+Mit Blick auf unsere Nachbarländer sind Asyl und Terror leider nicht völlig voneinander zu trennen. Uns in der Schweiz beschäftigt das Terrorismusthema schon länger. Auch die Terrorismusbekämpfung ist eine Verbundaufgabe. Dabei stehen Bund und Kantone in der Verantwortung. Auch hier arbeiten wir mit dem NDB zusammen und haben ihm den Auftrag erteilt, alle Aktionspläne aufgrund der neuesten Erfahrungen, auch jener in Deutschland, zu überarbeiten. Wir legen hier den Fokus auf Jugendliche und junge Erwachsene, weil wir eben festgestellt haben, dass bei dieser Personengruppe eine neue, bedenkliche Entwicklung im Gange ist: die Radikalisierung junger Menschen, insbesondere über das Internet. Es ist aber auch immer wieder wichtig, zu betonen, dass Prävention hier entscheidend ist und dass uns die Kleinräumigkeit der Schweiz dabei hilft, solche Massnahmen erfolgreich umzusetzen. In diesem Sinne sind das funktionierende Verbandsleben und die Jugendtreffs enorm wichtige Dinge. Diese sind in den Gemeinden angesiedelt, nicht auf Bundesebene.
+Auch im Bereich der Repression sind unsere Behörden aktiv, das möchte ich nochmals deutlich sagen. Die Bundesanwaltschaft und das Fedpol ermitteln aktuell in etwa 120 Fällen. Es geht dabei insbesondere um terroristische Online-Propaganda, finanzielle Unterstützung terroristischer Organisationen usw. Das Fedpol hat auch 126 Einreiseverbote wegen Terrorismusverdacht ausgesprochen. Diese Instrumente sind keine Papiertiger, sondern werden vom Bund angewendet. Wenn hier behauptet wird, wir würden das nicht oder nicht konsequent tun, dann ist das nicht richtig. Aber wir brauchen zusätzliche Instrumente, das ist sehr wohl der Fall. Wir brauchen z.[NB]B. im Hinblick auf die Terrorismusbekämpfung die Projekte PNR und Polap; das sind zwei wichtige Projekte, die kommen. Ich zähle hier auf Ihre Unterstützung. 
+Dann machen wir auch eine Ressourcenüberprüfung. Die Eidgenössische Finanzkontrolle schaut, ob die Bundesanwaltschaft, der NDB und das Fedpol genügend Ressourcen haben, um für die innere Sicherheit zu sorgen. Wir haben sofort den Auftrag erteilt, die Antiterrorstrategie nochmals grundsätzlich zu überprüfen, auch da sind wir daran. Das sind alles im letzten Jahr ergriffene Massnahmen.
+Ein weiteres Thema in diesem Zusammenhang ist die grenzüberschreitende Kriminalität. Diese wird auch immer wieder mit Asylkriminalität verwechselt. Es ist enorm wichtig, dass wir Informationen mit unseren Nachbarländern schnell und effizient austauschen und operativ eng zusammenarbeiten. Das machen wir heute schon, und wir sind daran, das mit allen Nachbarländern zu intensivieren. Diese Massnahmen, diese grenzüberschreitenden, gezielten Einsätze, sind im Hinblick auf die Sicherheit unseres Landes mit Sicherheit wirksamer als ordentliche Grenzkontrollen an den Autobahnen. 
+Ich komme zu den Pendenzen: Es wurde zu Recht darauf hingewiesen, dass Pendenzen in unserem Asylsystem ein grosses Problem sind. Wir konnten die Pendenzen im letzten Jahr um 25 Prozent reduzieren. Wir konnten weiteres Personal ausbilden, einführen, anstellen, und die Pendenzen werden jetzt noch schneller behandelt. Wir gehen davon aus, dass wir im Laufe des nächsten Jahres am Punkt sind, an dem wir sagen können: Jedes Dossier wird behandelt, wir haben nichts mehr in der Schublade, worauf wir warten müssen. Das ist - da bin ich mit Ihnen völlig einig, Frau Gapany - die wichtigste Massnahme zur Entlastung der Kantone und Gemeinden. 
+Reden wir auch über Rückkehr. Sie wissen, dass die Schweiz da stark ist. Letztes Jahr konnten wir zum ersten Mal auch die Zahlen der Kantone zu den Landesverweisungen auswerten. Schon da hatten wir drei Viertel aller im Vorjahr angeordneten Landesverweisungen vollzogen, und es werden noch mehr. Das hat mich positiv überrascht. Wir stehen heute bei einer Rückkehrquote von 60 Prozent. Es scheint mir noch wichtig, dass Sie das wissen. Wenn ich Ihnen zuhöre, habe ich den Eindruck, dass Sie das nicht wissen.
+Im letzten Jahr sind mehr Menschen in die Maghreb-Länder Tunesien, Marokko und Algerien zurückgekehrt, als von dort zu uns in die Asylzentren gekommen sind. Das ist mit einer Riesenarbeit verbunden, die das SEM zusammen mit den Kantonen macht; sie haben hier deutlich aufgeholt.
+Andere Länder wie Deutschland oder Frankreich, die jetzt auch anfangen, solche Dinge zu machen, kommen zu uns, um zu schauen, wie das geht. Wir würden übrigens häufig gerne noch mehr tun - ich sage Ihnen das hier deutlich -, aber manchmal sind wir auf die Mitwirkung einer ausländischen Regierung oder auf die Mitwirkung von Kantonen angewiesen. Zum Beispiel möchten wir seit Jahren ein besonderes Zentrum für renitente Asylsuchende in der Deutschschweiz einrichten, aber bisher hat sich kein Kanton dazu bereit erklärt.
+Sie sehen, der Bundesrat nimmt seine Verantwortung wahr. Zusammen mit den Kantonen und Gemeinden machen wir, was im Rahmen der Verfassung sinnvoll, nützlich und vor allem wirksam ist. Aber was bringt es, wenn wir Asylsuchende in die Nothilfe schicken; wenn wir sie, nur weil sie Asylsuchende sind, von ihren Familien trennen; wenn wir [PAGE 215] Verdächtige unterschiedslos einsperren und ein teures, wirkungsloses Grenzdispositiv hochfahren? Was bringt das? Im schlimmsten Fall ist es kontraproduktiv. Die Folgen davon wären noch mehr Verunsicherung und Politikverdrossenheit in der Bevölkerung, also das Gegenteil von dem, was Sie und der Bundesrat eigentlich erreichen wollen.
+Lassen Sie mich noch etwas klarstellen, bevor ich auf die einzelnen Vorstösse eingehe. Es sind deren fünfzehn, ich werde fünfzehn Vorstösse kommentieren müssen. Ich werde mich dort etwas kürzer halten, deshalb auch diese längere Einführung. Der Bundesrat beschönigt nichts - er beschönigt nichts! Es stimmt, die Kriminalitätsrate ist bei Asylsuchenden überproportional hoch. Und ja, manche tauchen unter, und das verunsichert. Es kommen auch nicht nur verfolgte Menschen auf der Suche nach Schutz zu uns, das ist so: Es kommen auch Menschen ohne Perspektiven auf der Suche nach einer besseren Zukunft, auch solche, die sich nicht an unsere Rechtsordnung halten wollen; es kommen auch Süchtige zu uns. Es ist eine kleine Minderheit, aber Straftaten akzeptieren wir auch bei kleinen Minderheiten nicht.
+Ich habe Ihnen aufgezeigt, was der Bundesrat, was die Kantone und das SEM dagegen unternehmen. Jetzt möchte ich Ihnen aufzeigen, warum einige Ihrer Vorstösse nicht der Verfassung entsprechen, die menschenrechtlichen Verpflichtungen der Schweiz nicht einhalten und vor allem wirkungslos sind und keinen Sinn machen.
+Ich beginne mit der Motion Stark 24.4444, "Von Dänemark und Schweden lernen. Familiennachzug auf die Interessen der Schweiz ausrichten". Die Motion verlangt Einschränkungen beim Familiennachzug nach dem Vorbild von Dänemark und Schweden. Der Nationalrat hat am Montag eine gleichlautende Motion der SVP-Fraktion abgelehnt. Herr Stark will das Bevölkerungswachstum bremsen und deshalb die Bedingungen für den Familiennachzug einschränken. Mit den vorgeschlagenen Massnahmen kann er dieses Ziel aber nicht erreichen. Sie wissen, in der Schweiz sind die Regeln zum Familiennachzug schon heute streng. Es gelten klare und strenge Voraussetzungen, welche die Behörden im Einzelfall konsequent überprüfen. Diese Motion fordert aber absolute Regeln, die unabhängig vom Einzelfall gelten sollen; damit kollidiert die Motion mit der Bundesverfassung und dem Grundsatz der Verhältnismässigkeit. Unter dem Strich erreichen Sie das Gegenteil von dem, was Sie erreichen möchten. Wer seine Familie nachziehen will, muss bei uns einen Job haben. Er muss auf eigenen Beinen stehen, muss sich an unsere Regeln halten. Und was ist ein besserer Ansporn, sich zu integrieren, als zu wissen, dass man dann seine Familie nachziehen kann? Wenn Sie einer Person diese Perspektive nehmen, nehmen Sie ihr die Perspektive schlechthin, und das ist gefährlich. Der Bundesrat beantragt deshalb, diese Motion abzulehnen.
+Nun zur Motion Chiesa 24.4318, "Wer über sichere Drittstaaten einreist, wird an der Grenze zurückgewiesen": Die Motion möchte, dass wir Geflüchteten, die aus einem Nachbarstaat einreisen, kein Asyl gewähren und sie an der Grenze ohne Asylverfahren zurückweisen. Der Nationalrat hat am Montag eine gleichlautende Motion der SVP-Fraktion abgelehnt. Wir treten schon heute nicht auf ein Asylgesuch ein, wenn die Person in einem anderen Staat Schutz beanspruchen kann. Herr Schwander, ich weiss, dass Sie eine detailliertere Information darüber wünschen, wie wir das ganz genau handhaben, aber es ist so: Wenn Menschen in einem anderen Land Schutz haben können oder in einem anderen Land ein Gesuch gestellt haben, dann treten wir nicht darauf ein.
+Anders als der Motionär behauptet, ist ein pauschaler Ausschluss vom Asyl in der Flüchtlingskonvention auch dann nicht vorgesehen, wenn jemand über einen sicheren Drittstaat einreist. Zudem missachtet auch diese Motion das Non-Refoulement-Prinzip, und das steht eben im Widerspruch zur EMRK und zur Bundesverfassung. Dazu kommt eben auch die praktische Umsetzung. Das BAZG kann an der Grenze nicht jede Person kontrollieren, dafür haben wir nicht die Ressourcen. Und unsere Nachbarländer würden diese abgewiesenen Personen auch gar nicht zurücknehmen. Die Sekundärmigration können wir nur auf europäischer Ebene wirkungsvoll eindämmen. Der Migrations- und Asylpakt der EU verfolgt genau dieses Ziel. Ehrlich gesagt, wenn diese Vorlage dann kommt, setze ich auch auf Ihre Unterstützung. Das könnte noch eine umstrittene Vorlage sein; da brauchen wir Ihren Support. 
+Ich komme zur Motion Friedli Esther 24.4429, "Kein Asylverfahren und kein Bleiberecht für Verbrecher. Bevölkerung endlich schützen!". Der Nationalrat hat am Montag die gleichlautende Motion Schmid Pascal 24.3716 angenommen. Wer ein Verbrechen begangen hat und verurteilt wurde, soll vom Asyl ausgeschlossen werden und sein Aufenthaltsrecht verlieren. Der Bundesrat teilt das Anliegen, dass wir Kriminalität auch bei Schutzsuchenden, vorläufig Aufgenommenen und Flüchtlingen nicht tolerieren dürfen. Aber ich kann Ihnen sagen, Frau Friedli, dieses Anliegen haben Sie mit der obligatorischen Landesverweisung in Artikel 66a des Strafgesetzbuches bereits umgesetzt. Wer ein Verbrechen begeht, und die meisten Straftaten in diesem Katalog sind Verbrechen, bekommt grundsätzlich eine Landesverweisung und verliert damit sein Aufenthaltsrecht in der Schweiz. 2023 haben Gerichte im Ausländerbereich insgesamt 2250 Landesverweisungen ausgesprochen. Dazu gehört auch der Asylbereich. Daneben gibt es das Asylgesetz. Das SEM kann jemanden ebenfalls wegen einer Straftat vom Asyl ausschliessen. Bereits das geltende Recht enthält also griffige Regeln. Bund und Kantone nutzen diese auch. Sie prüfen dabei jeden Fall einzeln und ergreifen die jeweils angemessenen und verhältnismässigen Massnahmen. 
+Ihr Vorstoss geht aber zu weit. So können Personen nicht mehr mit einer Einzelprüfung behandelt werden. Sie werden generell vom Asylverfahren ausgeschlossen, und das steht im Konflikt mit unserer Verfassung. Ausserdem gilt das Non-Refoulement-Gebot, dieses ist ebenfalls in unserer Verfassung verankert und zwingend. Wir schicken in der Schweiz niemanden in den Tod. Das war bisher unsere Praxis. Der Bundesrat beantragt daher, die Motion abzulehnen.
+Dann komme ich zur Motion Schwander 24.4495, "Bevölkerung schützen. Bewegungsfreiheit von Asylkriminellen konsequent einschränken". Der Nationalrat hat am Montag die gleichlautende Motion Riner 24.3734 angenommen. Ich möchte kurz festhalten, was die Kantone heute schon machen - wohlgemerkt die Kantone, denn sie sind für die strafrechtlichen und für die administrativen Massnahmen zuständig. Erstens können die kantonalen Gerichte Untersuchungshaft anordnen und Freiheitsstrafen vollziehen, wenn jemand verurteilt ist. Zweitens können die Kantone auf der Grundlage des Ausländerrechts auch administrative Massnahmen ergreifen; das steht meistens im Zusammenhang mit Ausschaffungen oder Dublin-Überstellungen. Auch das tun die Kantone, im letzten Jahr in etwa 1700 Fällen. Drittens bietet das Ausländerrecht die Möglichkeit, jemanden ein- oder auszugrenzen. Die Behörden machen das auch, zum Beispiel, wenn jemand daran gehindert werden soll, mit Drogen zu handeln. Mit den runden Tischen, von denen ich vorhin gesprochen habe, wollen wir auch hier noch besser werden, zusammen mit den Kantonen.
+Herr Schwander möchte nun aber, wenn ich das richtig verstehe, pauschal auch alle Beschuldigten auf die eine oder andere Art festsetzen und kontrollieren. Das waren laut Kriminalstatistik im Jahr 2023 allein bei der Asylbevölkerung, also ohne die illegal Anwesenden, über 7000 Personen. Ich frage Sie, Herr Schwander: Wo im Kanton Schwyz dürfen wir ein besonderes Zentrum für 7000 Beschuldigte bauen? Sehr geehrte Damen und Herren aus der Deutschschweiz, wo wollen Sie diese Menschen unterbringen, wenn die Kantone uns nicht einmal einen Standort für ein Dutzend renitente Asylsuchende zur Verfügung stellen? Oder wollen Sie diese Menschen alle unter Hausarrest stellen? Haben Sie mit der Kantonspolizei, mit den Verantwortlichen Ihres Kantons darüber gesprochen, ob sie so eine Massnahme umsetzen könnten, ob sie das Personal dazu haben, ganz abgesehen davon, dass wir unsere ohnehin überlasteten Kantonspolizeien mit dieser Aufgabe schlicht überfordern würden?
+Das ist die praktische Seite. Es gibt noch andere Gründe, nämlich rechtliche. Dazu gehört auch hier der Grundsatz der Verhältnismässigkeit. Ein Automatismus ist nie verhältnismässig; Sie haben sich in diesem Rat schon öfter mit [PAGE 216] diesem Problem befasst. Dazu gehört auch die persönliche Freiheit, also auch die Bewegungsfreiheit, die nur unter ganz bestimmten Bedingungen eingeschränkt werden darf. Wenn bloss ein Verdacht vorliegt, dürfen Sie das nicht tun. Sie würden damit den Boden der Verfassung und auch unserer menschenrechtlichen Verpflichtungen aus der EMRK verlassen. Der Bundesrat beantragt Ihnen deshalb, auch diese Motion abzulehnen.
+Ich komme zur Motion Chiesa 23.4448, "Schutz der Schweizer Landesgrenzen". Sie wollen systematische Kontrollen an der Schweizer Landesgrenze. Es wurde hier schon mehrfach gesagt, dass nicht klar ist, was mit "systematisch" gemeint ist. Aber klar ist, glaube ich, uns allen: Kein Land kann seine Grenzen vollständig abriegeln. Man kann gar nicht viel mehr als ein paar wenige Prozent des Grenzverkehrs kontrollieren. Mehr als das haben wir übrigens auch vor Schengen nie gemacht. Pro Tag überqueren - ich sage das einfach nochmals, damit es klar ist - 2,2 Millionen Menschen die Schweizer Grenze. Würden wir alle oder sehr viel mehr als heute kontrollieren, hätten wir lange Staus. Die Wirtschaft und der Tourismus würden massiv darunter leiden. Wir kontrollieren mit dem BAZG heute Zigtausende, wenn nicht Hunderttausende von Menschen. Im letzten Jahr wurden vom BAZG pro Tag im Durchschnitt 80 aufgegriffen, weil sie rechtswidrig eingereist waren. Diese Kontrollen sind also ausgesprochen ineffizient. Ich möchte es nochmals sagen: Wir haben 400 Grenzübergänge in der Schweiz. Wenn Sie Feld- und Waldwege noch dazunehmen, sind es 2000. 
+Ich will das nicht verharmlosen: Die irreguläre Migration ist für die Schweiz und für Europa eine Herausforderung. Aber mit Grenzkontrollen lösen wir das nicht. Da macht man der Bevölkerung etwas vor. Wer das fordert, weckt falsche Erwartungen, die wir nicht einhalten werden, und fördert - das passiert, wie ich gesagt habe, genau mit solchen Massnahmen - auch das Misstrauen in die Politik. Der Bundesrat beantragt Ihnen daher die Ablehnung dieser Motion.
+Die SPK bittet Sie mit der Motion 25.3021, "Intensivierung der Grenzkontrollen an der Schweizer Landesgrenze", im Bereich des Grenzschutzes vorwärtszumachen. Sie will eine Intensivierung der bestehenden Kontrollen. Ich vertrete bei dieser Motion das EFD, das bekanntlich für die Kontrollen an der Grenze zuständig ist. Der Nationalrat hat am Montag einen gleichlautenden Vorstoss angenommen. Die beiden Kommissionen haben die Vorstösse als Reaktion auf die eben besprochene Motion Chiesa beschlossen. Ihre SPK beantragt dem Bundesrat damit eine Intensivierung der Kontrollen an der Grenze. Sie will das aber im Rahmen des bestehenden Zolldispositivs machen, also ohne Wiedereinführung von Schengen-Binnengrenzkontrollen. Ich sehe noch einen weiteren Vorteil bei dieser Motion gegenüber der Motion Chiesa: Sie definiert ein Ziel, sie sagt nicht einfach nur, es brauche mehr Kontrollen. Sie sagt, das Ziel sei, die innere Sicherheit zu verbessern. Wenn wir das zielgerichtet untersuchen und mit einem schon heute bestehenden System, dann macht das aus unserer Sicht sehr viel mehr Sinn. 
+Herr Zopfi hat mich gebeten, auch die Kosten dieser Motion darzulegen. Ich kann diese Frage noch nicht beantworten. Der Bundesrat muss sich zuerst Gedanken darüber machen, was eine sinnvolle, zielgerichtete Umsetzung wäre, wie die bereits vorgenommenen Kontrollen intensiviert werden könnten, sodass wir einen tatsächlichen Sicherheitsnutzen hätten, und dafür ist es zu früh. Aber es ist schon so, Sie werden früher oder später hier auch Mittel dafür sprechen müssen, denn es ist personalintensiv. 
+Dann kommen wir zur Motion de Quattro 23.3886, "Die Schweiz braucht eine Taskforce 'Asyl'". L'idée que contient la motion 23.3886, "La Suisse a besoin d'une task force 'Asile'", est correcte: le domaine de l'asile en Suisse représente un défi qui doit être relevé ensemble par la Confédération, les cantons et les communes. La société civile a également un rôle important à jouer. La coordination est ainsi primordiale, mais une coopération constructive et un échange dans le cadre institutionnel entre les trois niveaux politiques, aussi bien en situation normale qu'en période plus sensible, existent déjà.
+L'objectif visé par cette motion est donc déjà atteint.
+Nochmals: Die Gesamtstrategie Asyl macht genau das, Frau Gössi, was Sie vermissen: Sie kümmert sich um die Frage der Fristen, sie kümmert sich um die Frage der Pendenzen, sie kümmert sich um die Frage der Unterbringung und der Sicherheit. Sie macht das - ich sage es nochmals - zusammen mit der KKJPD, der SODK, dem Städteverband und dem Gemeindeverband. Wir setzen diese Motion um. Es ist nicht nötig, sie anzunehmen; wir sind daran. 
+Zur Motion Germann 24.3516, "Schaffung von Transitzonen zur Durchführung sämtlicher Asylverfahren gemäss Artikel 22 AsylG": Diese Motion wurde zurückgezogen, mehr sage ich nicht dazu. Wir haben schon einiges von Herrn Würth dazu gehört. 
+Ich komme zur Motion 24.4271 der Finanzkommission, "Beschleunigungspaket für das Asylwesen". Wie ich eingangs erwähnt habe, sind wir jetzt schon mit Hochdruck am Abbau der Pendenzen und arbeiten im Rahmen der Gesamtstrategie Asyl auch in diesem Bereich gemeinsam mit den Kantonen, Städten und Gemeinden an einer Verbesserung. Der Bundesrat ist deshalb mit dieser Motion einverstanden und nimmt sie gerne entgegen. 
+Dann kommen wir zur Motion 24.3059 der SVP-Fraktion und zur Motion Salzmann 24.3498, "Datenaustausch bei illegalen Migranten systematisieren"; das sind zwei gleichlautende Motionen. Die Haltung des Bundesrates hierzu ist immer noch die gleiche, wie er sie schon oft geäussert hat. Die Motion geht von der falschen Vorstellung aus, dass die illegale Zuwanderung mit systematischem Datenaustausch gebremst werden kann. Das trifft nicht zu. Sans-Papiers arbeiten bei uns in der Landwirtschaft, auf dem Bau und vor allem in der Reinigung, und das werden sie auch weiterhin tun, auch wenn Sie den Datenaustausch organisieren.
+Die Motion würde aber sicher dazu führen, dass mehr Menschen darauf verzichten, sich bei den Sozialversicherungen anzumelden. Menschen würden auch darauf verzichten, sich oder ihre Kinder medizinisch versorgen zu lassen, weil sie befürchten müssten, beim Migrationsamt gemeldet zu werden. Das wäre ein Problem für diese Kinder, aber auch ein Problem für die öffentliche Gesundheit. Die Kantone müssten zumindest vorübergehend zusätzliche Kosten für Menschen übernehmen, die sich bisher selber finanziert haben. 
+Ich komme zur Motion Schwander 24.3515. Sie verlangt, dass Personen, welche einen sicheren Drittstaat durchquert haben, per Definition keine Flüchtlinge sind. Auch hier hat der Motionär zugestanden, dass der Text nicht optimal ist; das rechne ich ihm hoch an. Aber es ist tatsächlich heute schon so, dass wir auf einen Drittel der Gesuche nicht eintreten, wenn andere Länder dafür zuständig sind oder zuständig sein können oder wenn die betreffenden Personen schon in einem anderen Land Unterschlupf gefunden haben. Aber, wie gesagt, wir müssen hier immer den Einzelfall anschauen und sicherstellen, dass wir niemanden in ein Land zurückschicken, in dem bei einer Rückführung Verfolgung, Folter oder andere schwere Menschenrechtsverletzungen drohen. Wir müssen das im Einvernehmen mit unseren Nachbarländern machen. Wenn sie diese Personen nicht zurücknehmen, geht es nicht. Der Bundesrat beantragt Ihnen deshalb, wie Ihre Kommission, die Motion abzulehnen.
+Ich komme zur Motion Fässler Daniel 24.3937. Deren Forderung ist tatsächlich neu. Sie verlangt den Vollzug von Wegweisungsverfügungen innerhalb der gesetzlichen Ausreisefrist. Wenn das SEM die Wegweisung aus der Schweiz verfügt, setzt es eine angemessene Ausreisefrist zwischen sieben und dreissig Tagen an. Die betroffene Person muss die Schweiz innerhalb dieser Ausreisefrist verlassen. Tut sie dies freiwillig, hat sie in der Regel Anspruch auf Rückkehrhilfe. Das ist wichtig. Erst nach Ablauf der Ausreisefrist kann die Wegweisungsverfügung auch zwangsweise durchgesetzt werden. Zuständig dafür sind die Kantone, wobei das SEM bei Bedarf Unterstützung für die zwangsweise Durchsetzung leistet. Die freiwillige Rückkehr hat aber grundsätzlich immer Vorrang; das ist für alle die beste Lösung. Sie entspricht der bewährten schweizerischen Rückkehrpolitik. 
+Ich möchte Sie daran erinnern, dass rund die Hälfte der Abgewiesenen diese Frist tatsächlich nutzt und freiwillig ausreist. Entsprechend ist es wichtig, dass die [PAGE 217] ausreisepflichtigen Personen die Möglichkeit haben, die Schweiz freiwillig zu verlassen und dann eben auch, wenn sie ankommen, die Rückkehrhilfe zu kassieren. Die Polizeibehörden der Kantone hätten einen deutlich höheren Personalaufwand, wenn sie Personen, die eigentlich freiwillig ausreisen würden, zukünftig ebenfalls zwangsweise zurückführen müssten. So verstehe ich diese Motion auf jeden Fall, und deshalb finden wir sie nicht gut. Es ist explizit nicht vorgesehen und aus Sicht des Bundesrates auch nicht zielführend, dass die Kantone die betroffenen Personen bereits während der angesetzten Ausreisefrist ausschaffen. 
+Der Bundesrat unterstützt aber die übergeordneten Anliegen des Motionärs: Der Wegweisungsvollzug soll laufend optimiert werden. Entsprechende Massnahmen werden bereits heute umgesetzt, und neue Massnahmen werden regelmässig geprüft, aktuell namentlich auch im Rahmen der Motion Salzmann 23.3082, "Rückführungsoffensive und konsequente Ausweisung von Straftätern und Gefährdern", oder im Zusammenhang mit der Gesamtstrategie Asyl. Es ist dort ein wichtiges Thema, weil es genau diese Schnittstelle zwischen Bundes- und Kantonskompetenzen betrifft.
+Ich komme zum Postulat Binder 24.3938. Dieses Postulat verlangt einen Bericht darüber, wie die Zusammenarbeit der zuständigen Behörden im Umgang mit kriminellen Asylsuchenden verbessert werden kann. Auch hier setzen wir bereits zahlreiche Massnahmen um, zum Beispiel die eingangs erwähnten runden Tische. Unsere Erfahrungen bestätigen, wie wichtig es ist, dass die involvierten Behörden gut zusammenarbeiten. Der verlangte Bericht ist für uns eine Chance, genau diese Resultate darzustellen und Ihnen die Schlussfolgerungen zu präsentieren. Ein solcher Bericht kann hier weitere wertvolle Einsichten liefern. Der Bundesrat empfiehlt Ihnen deshalb, dieses Postulat anzunehmen.
+Dasselbe gilt für das Postulat Z'graggen 24.3939. Die Postulantin will den Bundesrat beauftragen, eine Analyse der Asylverfahren ausgewählter europäischer Länder durchzuführen. Damit sind explizit auch aktuelle Reformen gemeint, die möglicherweise als Inspiration für Anpassungen in der Schweiz dienen könnten. Wie schon erwähnt, prüfen wir laufend, inwiefern Massnahmen in anderen Ländern auch für die Schweiz von Relevanz und Nutzen sein könnten. Migrationsanalysen gehören zu den Kerngeschäften des SEM, wir machen ja auch regelmässig Berichte darüber.
+Die Schweiz hat auch Einsitz in verschiedenen multilateralen Gremien. Ich selber bin regelmässig persönlich im direkten Austausch mit meinen europäischen Amtskolleginnen und Amtskollegen, etwa bei Treffen der Justiz- und Innenminister der Schengen-Staaten. Wir haben also Instrumente und das Know-how, und wir werden die gewünschte Analyse gerne erstellen. Sie ergänzt eben die Erkenntnisse, die wir im Rahmen der Gesamtstrategie Asyl mit den Kantonen und Gemeinden zusammen gewinnen werden.
+Es ist wirklich wichtig; ich verstehe das Bedürfnis nach einer Auslegeordnung, nach einer Strategie. Anfang Jahr habe ich selber die Erarbeitung einer solchen Gesamtstrategie in Auftrag gegeben, genau deshalb, weil ich realisiere, dass wir hier ein System, eine Auslegeordnung, eine Übersicht, brauchen. Ich möchte Ihnen dafür danken, dass Sie das unterstützen, letztlich auch mit diesen Vorstössen.
+Sie sehen, der Bundesrat ist wirklich offen für die Anliegen und auch gerne bereit, Verbesserungen im Asylsystem zu prüfen und umzusetzen. Wenn Sie Ideen haben, wie wir unser Asylsystem verbessern können, dann rennen Sie bei mir offene Türen ein. Ich bin der Erste, der daran interessiert ist. Ich werde aber keine Forderungen unterstützen, nur um ein Zeichen zu setzen. Ich werde keine Lösungen unterstützen, die unsere Verfassung verletzen. Das können Sie von mir nicht erwarten - und, mit Verlaub, daran ändert sich auch nichts, wenn Sie eine Forderung mehrfach einreichen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da der Bundesrat die Verordnung erst an einer der nächsten Sitzungen verabschieden wird, erfolgt diese Antwort summarisch. Der Bundesrat hat vom 26.[NB]Juni bis zum 17.[NB]Oktober 2024 eine Vernehmlassung zur CO2-Verordnung durchgeführt. Insgesamt wurden 202 Stellungnahmen eingereicht. Der Bundesrat wird die Stellungnahmen aus der Vernehmlassung und die Evaluation der Eidgenössischen Finanzkontrolle in seine Überlegungen einbeziehen. Er wird die Revision der CO2-Verordnung an einer seiner kommen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da der Bundesrat die Verordnung erst an einer der nächsten Sitzungen verabschieden wird, erfolgt diese Antwort summarisch. Der Bundesrat hat vom 26.[NB]Juni bis zum 17.[NB]Oktober 2024 eine Vernehmlassung zur CO2-Verordnung durchgeführt. Insgesamt wurden 202 Stellungnahmen eingereicht. Der Bundesrat wird die Stellungnahmen aus der Vernehmlassung und die Evaluation der Eidgenössischen Finanzkontrolle in seine Überlegungen einbeziehen. Er wird die Revision der CO2-Verordnung an einer seiner kommenden Sitzungen verabschieden. Das revidierte CO2-Gesetz ist gemäss dem Beschluss des Parlamentes seit dem 1.[NB]Januar 2025 in Kraft. Die Ausführungsbestimmungen in der CO2-Verordnung werden dementsprechend, soweit notwendig, rückwirkend auf den 1.[NB]Januar 2025 in Kraft gesetzt. Da die bisherigen Bestimmungen Ende 2024 ausgelaufen sind oder eine kontinuierliche Regulierung erfordern, ist eine rückwirkende Inkraftsetzung unausweichlich. Die CO2-Zielwerte für die Fahrzeuge sind seit der Verabschiedung des CO2-Gesetzes in der Frühjahrssession 2024 bekannt. Ohne Gesetzesänderung kann der Bundesrat nicht von diesen Zielwerten abweichen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je suis étonné de l'avis positif du Conseil fédéral sur cette motion, et ce, à de nombreux titres. Premièrement, nous allons créer un précédent. Quelle crédibilité gardons-nous si nous cédons aussi simplement au chantage d'une entreprise privée? En quelques semaines, sous la pression, nous allons injecter 100 millions de francs dans Nitrochemie par le biais de Ruag MRO, sans aucune garantie que les emplois restent en Suisse. Nitrochemie, en effet, n'a pas seulement un site à Wimmis, en Suisse, m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je suis étonné de l'avis positif du Conseil fédéral sur cette motion, et ce, à de nombreux titres. Premièrement, nous allons créer un précédent. Quelle crédibilité gardons-nous si nous cédons aussi simplement au chantage d'une entreprise privée? En quelques semaines, sous la pression, nous allons injecter 100 millions de francs dans Nitrochemie par le biais de Ruag MRO, sans aucune garantie que les emplois restent en Suisse. Nitrochemie, en effet, n'a pas seulement un site à Wimmis, en Suisse, mais également en Allemagne. J'ai posé la question en commission et j'ai obtenu une réponse assez claire: l'administration a admis qu'il n'y a aucune garantie écrite de la part de l'entreprise que les emplois actuellement à Wimmis resteront en Suisse. 
+Deuxièmement, en avons-nous les moyens? La Confédération devra économiser des milliards de francs ces prochaines années. Elle coupera dans tous les domaines, que ce soit dans la formation, l'agriculture ou les transports publics. En gros, presque partout, sauf dans le domaine de l'armée. Avons-nous véritablement 100 millions de francs à investir dans une entreprise privée, détenue conjointement, mais seulement en partie conjointement, puisque Rheinmetall détient 55 pour cent de cette entreprise et Ruag MRO seulement 45 pour cent? Rheinmetall, rappelons-le, est un immense conglomérat industriel: ce n'est pas qu'une entreprise suisse. C'est un conglomérat industriel allemand, qui emploie 30[NB]000 employés et fait presque 10 milliards d'euros de chiffre d'affaires par année. A notre avis, ceci n'est pas compréhensible. 
+Troisièmement, ne devrions-nous pas d'abord assainir Ruag MRO avant de lui donner des moyens supplémentaires? Il n'y a que quelques semaines qu'a éclaté l'immense scandale qui secoue l'entreprise depuis des années. Les rapports du Contrôle fédéral des finances montrent des problèmes de gestion et de gouvernance à tous les étages, sans parler de la fraude massive que l'entreprise semble avoir subie, dont[NB]la[NB]liste[NB]des délits potentiels énumérés par le Contrôle fédéral des finances est, en réalité, un simple résumé du code pénal. 
+Pour terminer, cette motion ne sert à rien. Cela a été dit en commission: Ruag MRO a, entre-temps, trouvé une solution avec l'aide moins importante, voire carrément sans l'aide de la Confédération. Je vous propose donc simplement de rejeter cette motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die SGK unseres Rates hat die Motion der SGK-N an ihrer Sitzung vom 25.[NB]Februar 2025 vorberaten und ersucht Sie mit 7 zu 5 Stimmen bei 1 Enthaltung um Ablehnung der Motion. Eine Minderheit will die Motion annehmen. Der Nationalrat hat den Vorstoss am 11.[NB]September 2024 angenommen.
+Die Motion beauftragt den Bundesrat, die gesetzlichen Grundlagen so anzupassen, dass die Vorsorgeeinrichtungen der zweiten Säule zur Offenlegung ihrer Verwaltungskosten verpflichtet sind. Die Motion wird mit eine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die SGK unseres Rates hat die Motion der SGK-N an ihrer Sitzung vom 25.[NB]Februar 2025 vorberaten und ersucht Sie mit 7 zu 5 Stimmen bei 1 Enthaltung um Ablehnung der Motion. Eine Minderheit will die Motion annehmen. Der Nationalrat hat den Vorstoss am 11.[NB]September 2024 angenommen.
+Die Motion beauftragt den Bundesrat, die gesetzlichen Grundlagen so anzupassen, dass die Vorsorgeeinrichtungen der zweiten Säule zur Offenlegung ihrer Verwaltungskosten verpflichtet sind. Die Motion wird mit einer Evaluation der Verwaltungskosten durch die EFK begründet. Ein besserer Zugang zu Informationen würde den Wettbewerb stärken.
+Das Anliegen dieser Motion ist richtig, es ist jedoch - und das ist wichtig - bereits erfüllt. Gemäss den bestehenden rechtlichen Bestimmungen, also gemäss Artikel 65 Absatz 3 des [PAGE 296] Bundesgesetzes über die berufliche Alters-, Hinterlassenen- und Invalidenvorsorge, müssen die Vorsorgeeinrichtungen ihre Verwaltungskosten nämlich vollständig in ihrer Betriebsrechnung ausweisen. Dabei müssen sie zwischen den Kosten für die allgemeine Verwaltung, für die Vermögensverwaltung, für Marketing und Werbung, für die Makler- und Brokertätigkeit, für die Revisionsstelle und den Experten für berufliche Vorsorge sowie für die Aufsichtsbehörde unterscheiden. Die obersten paritätischen Organe erstellen und genehmigen die Jahresrechnung und verantworten sowohl die Kosten als auch deren Finanzierung.
+Diese Zahlen müssen auf Wunsch auch den Versicherten zur Verfügung gestellt werden. Es genügt eine einfache Anfrage bei der Vorsorgeeinrichtung. Alle Versicherten erhalten die gewünschten Informationen problemlos. Viele Vorsorgeeinrichtungen kommunizieren diese Zahlen ihren Versicherten aktiv und/oder publizieren ihre Jahresrechnung im Internet. Zudem machen viele Vorsorgeeinrichtungen ihre Kosten nicht nur den Versicherten und Arbeitgebern, sondern auch der Öffentlichkeit zugänglich. Sie müssen diesbezügliche Anfragen von Versicherten und Arbeitgebern in jedem Fall beantworten.
+Die Verwaltungskosten unterscheiden sich von Vorsorgeeinrichtung zu Vorsorgeeinrichtung. Ab einer gewissen Grösse weisen Vorsorgeeinrichtungen naturgemäss tiefere Verwaltungskosten aus, während kleinere Einrichtungen, komplexe Einrichtungen mit vielen Mutationen oder Leistungen sowie Sammeleinrichtungen, die mehrere Vorsorgewerke umfassen, eher höhere ausweisen. Zudem sind die Vermögensverwaltungskosten stark von der Vermögensverteilung abhängig; ohne Analyse der Vermögensverteilung ist ein Kostenvergleich wenig aussagekräftig. Vor allem aber müssen Vorsorgeeinrichtungen nicht nur die Kosten, sondern auch die Rendite und das Risiko der Anlagen optimieren. Anlagen nur deshalb zu reduzieren, weil sie höhere Kosten aufweisen, würde die Leistungsfähigkeit des Vorsorgesystems schwächen und wäre sehr schlecht für[NB]die[NB]Versicherten.[NB]Die[NB]Vermögensverwaltungskosten liegen bei etwa 0,43 Prozent des verwalteten Vermögens und sind stabil.
+Die Minderheit, die die Motion zur Annahme beantragt, will einen Vergleich der Verwaltungskosten ähnlich wie bei den Krankenversicherern der obligatorischen Krankenpflegeversicherung ermöglichen. Neben der viel geringeren Anzahl von Krankenversicherern bestehen dort im Vergleich zu den Vorsorgeeinrichtungen aber wichtige Unterschiede. Die Krankenversicherer sind, im Gegensatz zu den Vorsorgeeinrichtungen, eben gerade nicht verpflichtet, ihren Versicherten Jahresrechnungen mit Anhang zur Verfügung zu stellen. Die Publikation von Kennzahlen durch das BAG ist also ein Ersatz dafür. Die Krankenversicherer sind Publikumsversicherer, und die Versicherten können ihren Krankenversicherer frei wählen. Solche Zahlen können bei der Krankenversicherung - neben der Prämienhöhe - für die Wahl des Versicherten von Interesse sein.
+Auch sind die Arbeitnehmer bei der zweiten Säule im obersten Organ der Vorsorgeeinrichtungen vertreten, führen also die Vorsorgeeinrichtungen mit und können dort die Kosten auch mit beeinflussen, im Gegensatz zur Krankenkasse, wo sie nichts zu sagen haben. Das BAG hat die Aufsicht über die Krankenversicherer, während das BSV diese bei den Vorsorgeeinrichtungen nicht hat und dem BSV die entsprechenden Zahlen auch nicht vorliegen.
+Ich möchte nochmals betonen, dass zahlreiche Einrichtungen ihre Kosten bereits heute freiwillig veröffentlichen und dass die Pensionskassen ihre Verwaltungskosten bereits gemäss geltendem Recht den Arbeitgebenden und Versicherten offenlegen müssen. Die Einführung einer allgemeinen Pflicht würde einen unverhältnismässigen Mehraufwand vor allem für die kleinen Einrichtungen und kleineren Stiftungen darstellen. 
+Aus diesen Gründen beantragt Ihnen die Mehrheit unserer Kommission, diese Motion abzulehnen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si la présente motion vise la publication des frais d'administration par les institutions de prévoyance, force est de constater que le principe est d'ores et déjà inscrit dans les bases légales en vigueur. L'organe suprême paritaire, ou encore le conseil de fondation, est informé du montant des frais et, cela a [PAGE 297] été[NB]mentionné,[NB]les assurés peuvent également s'informer à ce sujet.
+Die Kosten für die allgemeine Verwaltung, die Kosten für die Vermögensverwaltung, für Marketing, Werbu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si la présente motion vise la publication des frais d'administration par les institutions de prévoyance, force est de constater que le principe est d'ores et déjà inscrit dans les bases légales en vigueur. L'organe suprême paritaire, ou encore le conseil de fondation, est informé du montant des frais et, cela a [PAGE 297] été[NB]mentionné,[NB]les assurés peuvent également s'informer à ce sujet.
+Die Kosten für die allgemeine Verwaltung, die Kosten für die Vermögensverwaltung, für Marketing, Werbung, Makler- und Brokertätigkeit, die Entschädigung für die Revision und die Experten für berufliche Vorsorge sowie für die Aufsicht werden detailliert ausgewiesen. Die Darstellung in der Betriebsrechnung ist demnach detailliert, und Kosten wie jene für kollektive Kapitalanlagen, die vorher noch nicht transparent waren, müssen seit Anfang 2012 ebenfalls ausgewiesen werden.
+Die Verwaltungskosten unterscheiden sich von Vorsorgeeinrichtung zu Vorsorgeeinrichtung. Gemäss Pensionskassenstatistik betragen sie im Durchschnitt 186 Franken pro Versicherten. Vorsorgeeinrichtungen weisen ab einer gewissen Grösse wegen Skaleneffekten naturgemäss tiefere Verwaltungskosten auf, und kleinere Einrichtungen, komplexe Einrichtungen mit vielen Mutationen oder Leistungen sowie Sammeleinrichtungen, die mehrere Vorsorgewerke umfassen, weisen höhere Kosten auf.
+Je mentionne encore qu'il existe de grandes différences dans les frais de gestion de la fortune des institutions de prévoyance, qui dépendent fortement de la nature de la composition des placements. Les placements non liquides, comme des biens immobiliers, ainsi que des placements alternatifs, comme le capital-risque ou encore ceux relatifs à l'infrastructure, sont plus coûteux. En 2023, les frais de gestion moyens des placements se sont élevés à environ 0,43 pour cent de la fortune de prévoyance. De plus, la gestion de la fortune des investisseurs institutionnels tels que les institutions de prévoyance est soumise - je n'étonnerai personne en affirmant cela - à une concurrence mondiale, qui reste très compétitive. Une réduction importante des coûts est donc peu probable. Si les institutions de prévoyance devaient renoncer aux catégories de placements les plus coûteuses afin d'en réduire les coûts, cela aurait indubitablement un effet négatif sur la diversification des risques et, partant, sur le rendement escompté.
+En conclusion, les frais d'administration sont, aujourd'hui déjà, présentés de manière complète dans le compte d'exploitation, ce que confirme d'ailleurs le Contrôle fédéral des finances. Ils sont à la disposition de l'organe suprême paritaire, qui peut donc prendre des décisions efficaces et documentées. En outre, les assurés peuvent les demander en tout temps.
+Vu ces différentes considérations, je vous invite, au nom du Conseil fédéral, à suivre la majorité de votre commission et à rejeter la présente motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schaffner Barbara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist der Unterschied zwischen Geld, das Sie ausgeben, und Geld, das Sie nicht einnehmen? Macht es für Sie einen Unterschied, ob Sie am Eingang eines Ladens einen 10-Franken-Gutschein für ein bestimmtes Produkt erhalten oder ob es im Laden eine Aktion gibt und Sie an der Kasse 10 Franken weniger zahlen? Wenn ich Sie so frage, dann ist das wohl Hans was Heiri, wie man so schön sagt. Wenn wir aber über den Bundeshaushalt sprechen, dann schaut es plötzlich ganz anders aus: Es gibt die 10 Franken,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was ist der Unterschied zwischen Geld, das Sie ausgeben, und Geld, das Sie nicht einnehmen? Macht es für Sie einen Unterschied, ob Sie am Eingang eines Ladens einen 10-Franken-Gutschein für ein bestimmtes Produkt erhalten oder ob es im Laden eine Aktion gibt und Sie an der Kasse 10 Franken weniger zahlen? Wenn ich Sie so frage, dann ist das wohl Hans was Heiri, wie man so schön sagt. Wenn wir aber über den Bundeshaushalt sprechen, dann schaut es plötzlich ganz anders aus: Es gibt die 10 Franken, die Sie am Eingang des Ladens erhalten - das sind Subventionen, sie werden als Ausgaben verbucht. Die Aktion im Laden kann mit Steuervergünstigungen verglichen werden, sie erscheinen nicht in den Staatsausgaben.
+Im Gegensatz zur Aktion im Laden wissen wir aber bei den Steuervergünstigungen nicht, wie viel Geld an einzelne Unterstützte fliesst, denn der Aktionsrabatt beträgt nicht für alle Konsumentinnen und Konsumenten gleich viel. Diejenigen, die ein hohes Einkommen haben, erhalten vielleicht einen Rabatt von 20 Franken, bei Wenigerverdienenden beträgt der Rabatt nur 5 Franken, und wer kein steuerbares Einkommen hat, der geht komplett leer aus. Zudem tappen wir im Dunkeln, wie viel die gesamten Rabatte, das heisst die indirekten Steuersubventionen, den Staat und damit die anderen Steuerzahlenden kosten. Es ist also insgesamt eine sehr unbefriedigende, intransparente Situation.
+Wir sehen, wie stark diese ins Gewicht fällt, wenn wir uns die Grössenordnungen anschauen: Laut einem Bericht der Eidgenössischen Finanzkontrolle (EFK) aus dem Jahr 2005 führen Steuervergünstigungen zu Einnahmeausfällen von 2,5 Milliarden Franken pro Jahr; eine Studie im Auftrag des BFE führte zur Abschätzung von Steuerertragsreduktionen aufgrund von Abzügen für Gebäudesanierungen in der Höhe von rund 1,5 Milliarden Franken, wovon 50 bis 80 Prozent reine Mitnahmeeffekte sind; 2020 wurde dann eine Studie zu biodiversitätsschädigenden Subventionen publiziert, diese bezifferte Off-Budget-Subventionen mit negativen Effekten gar auf 14 Milliarden Franken; und in einem Postulatsbericht von 2021 wurde der Umfang von Steuererleichterungen sogar auf eine Höhe von 24 Milliarden Franken jährlich geschätzt. Diese Zahlen sind enorm, und doch fehlt uns ein vollständiges Bild, denn viele dieser Steuervergünstigungen werden nicht systematisch erfasst.
+Seit zwanzig Jahren, spätestens seit dem Bericht der EFK von 2005, ist bekannt, dass wir ein massives Transparenzproblem bei indirekten Subventionen haben. Mit meiner parlamentarischen Initiative stelle ich eigentlich eine bescheidene Forderung auf: Ich fordere keine Massnahmen, die den aktuellen, unbefriedigenden Zustand verbessern, sondern nur Massnahmen, die diesen Zustand nicht noch weiter verschlimmern. Es geht mir darum, zukünftig zu vermeiden, unnötige oder gar schädliche Steuererleichterungen zu gewähren.
+Das Ganze steht eigentlich heute schon im Subventionsgesetz. Artikel 7 Litera g lautet: "Auf Finanzhilfen in Form von steuerlichen Vergünstigungen wird in der Regel verzichtet." In der Praxis zeigt sich jedoch: Dieser Grundsatz wird sehr wenig beachtet. Steuerliche Vergünstigungen sind weiterhin ein beliebtes politisches Instrument, weil sie nicht als Subventionen erscheinen, und das, obwohl sie Millionen oder gar Milliarden von Franken kosten. Kürzlich haben wir hier zum Glück zwei parlamentarischen Initiativen keine Folge gegeben, die gerade wieder neue Steuervergünstigungen forderten.
+Ich möchte mit meiner Initiative dem zitierten Artikel 7 Litera g mehr Gewicht verschaffen und beantrage Ihnen deshalb, ihn mit einem Zusatz zu ergänzen, der verlangt, dass vor jeder neuen steuerlichen Vergünstigung zuerst geprüft werden muss, ob es nicht eine bessere Alternative gibt. Nur wenn [PAGE 514] nachgewiesen wird, dass eine Steuervergünstigung das effizienteste Instrument zur Zielerreichung ist, sollte sie eingeführt werden dürfen. Es sollte im Sinne aller sein, dass wir bestehende Probleme nicht weiter verstärken. 
+Umso mehr hat mich enttäuscht, dass die Finanzkommission der Initiative keine Folge gegeben hat, mit Argumenten wie: Es nützt ja sowieso nichts, es ist das falsche Instrument, wir wollen das zuerst genauer prüfen. 
+Ja, prüfen Sie es genauer: Geben Sie der parlamentarischen Initiative in der ersten Phase Folge, dann haben Sie die Gelegenheit dazu.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">de Montmollin Simone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaque année, à l'automne, sonne le glas de l'annonce des primes, un réveil brutal qui le sera vraisemblablement à nouveau cette année.
+Certes, les mesures de lutte contre l'explosion des coûts votées par le Parlement, comme l'introduction du Tardoc en 2026, contribueront à rééquilibrer le partage des charges et à contenir quelque peu cette augmentation; mais pour combien de temps?
+Vu les enjeux majeurs auquel notre système de santé est confronté, il est peu probable de voir l'enveloppe globale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaque année, à l'automne, sonne le glas de l'annonce des primes, un réveil brutal qui le sera vraisemblablement à nouveau cette année.
+Certes, les mesures de lutte contre l'explosion des coûts votées par le Parlement, comme l'introduction du Tardoc en 2026, contribueront à rééquilibrer le partage des charges et à contenir quelque peu cette augmentation; mais pour combien de temps?
+Vu les enjeux majeurs auquel notre système de santé est confronté, il est peu probable de voir l'enveloppe globale diminuer. Vieillissement de la population, pénurie de personnel soignant ou encore numérisations des soins ne sont que quelques exemples de défis à relever. Quelles nouvelles mesures, dans un système qui s'essouffle, permettront d'apporter des réponses durables à ces enjeux? Aucun système ne peut indéfiniment s'étendre pour suivre la courbe démographique et à la fois répondre à toutes les revendications et conceptions individuelles en matière de santé. Ce débat, plus philosophique, devrait également être mené. [PAGE 686] 
+Cependant, pour l'heure, ce postulat repose sur un constat récurrent: les coûts de la santé augmentent et continueront d'augmenter. Ils augmentent même de manière inquiétante pour certains soins et de manière inégale selon les régions, à l'exemple de l'imagerie médicale, comme le relevait le Contrôle fédéral des finances (CDF) il y a tout juste une semaine. Son rapport "Mécanismes visant un usage approprié de l'imagerie médicale" est sévère et montre les limites du système actuel: offre pléthorique, coûts en hausse, contrôles lacunaires et régulation insuffisante. Le CDF appelle à plus de contrôles et plus de réglementations. Est-ce la solution pour répondre aux enjeux d'avenir? On peut en douter à la lecture de l'étude basée sur les travaux d'Unisanté que l'Académie suisse des sciences médicales (ASSM) publiait le 21 février 2024: notre système de santé est certes performant, mais il est inefficace pour faire face aux défis à venir. Les raisons identifiées sont notamment: une vision fragmentée de la santé, une gouvernance trop morcelée, l'absence d'objectifs communs partagés, l'enchevêtrement des compétences entre Confédération et cantons et des mécanismes de gouvernance déséquilibrés où l'influence des acteurs s'exerce de manière inégale.
+Le présent postulat a une portée assez modeste, mais procède des mêmes constats: malgré les efforts fournis par les différents acteurs, malgré les adaptations ponctuelles de la loi fédérale sur l'assurance-maladie (LAMal), une vision globale coordonnée fait défaut pour faire face aux enjeux. Ce postulat vise donc à ce que le Conseil fédéral donne un signal clair quant à la nécessité de se pencher sur le pilotage de notre système de santé, et d'examiner les possibilités de l'envisager selon une réalité territoriale supracantonale, plutôt qu'en fonction de limites institutionnelles actuelles. Ce projet pilote pourra mettre en évidence les possibilités d'améliorer la coordination et l'efficacité, d'optimiser l'utilisation des ressources et des spécialisations et de réduire les inégalités, notamment régionales.
+Il est temps d'avoir le courage d'amorcer ce changement de paradigme. Ce postulat est une invite à entamer ce processus. Je vous remercie donc de lui réserver un bon accueil.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ihre Finanzkommission hat die Staatsrechnung 2024 intensiv beraten, an jeweils zweitägigen Sitzungen der vier Subkommissionen sowie an zwei Sitzungen der Gesamtkommission. An den Gesamtkommissionssitzungen nahmen die EFD-Vorsteherin und Bundespräsidentin, Karin Keller-Sutter, sowie die Direktorin der Eidgenössischen Finanzverwaltung, Sabine D'Amelio-Favez, durchgehend teil. Zur Behandlung der Rechnungen der einzelnen Departemente in den Subkommissionen nahmen die Generalsekretariate sowie die Ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ihre Finanzkommission hat die Staatsrechnung 2024 intensiv beraten, an jeweils zweitägigen Sitzungen der vier Subkommissionen sowie an zwei Sitzungen der Gesamtkommission. An den Gesamtkommissionssitzungen nahmen die EFD-Vorsteherin und Bundespräsidentin, Karin Keller-Sutter, sowie die Direktorin der Eidgenössischen Finanzverwaltung, Sabine D'Amelio-Favez, durchgehend teil. Zur Behandlung der Rechnungen der einzelnen Departemente in den Subkommissionen nahmen die Generalsekretariate sowie die Chefs und Chefinnen aller Ämter an den Sitzungen teil. Den Kommissionsmitgliedern wurden auf alle Fragen bereitwillig die verlangten Auskünfte erteilt und bei Bedarf schriftliche Informationen nachgereicht. Unterstützt wurden die Finanzkommission und die Subkommissionen durch das[NB]Sekretariat,[NB]das[NB]einmal[NB]mehr[NB]seine Leistungsfähigkeit und Dienstleistungsbereitschaft unter Beweis stellte - vielen Dank dafür.
+Im Folgenden werde ich eine knappe Zusammenfassung und Kommentierung der Staatsrechnung 2024 vornehmen und wesentliche Erkenntnisse der Finanzkommission einfliessen lassen. Für Einzelheiten muss ich Sie bitten, selbst in die Protokolle der Sitzungen Einblick zu nehmen. Querschnittfragen an alle Verwaltungseinheiten betrafen dieses Mal die Umsetzung der Querschnittkürzungen, die möglichen Sparpotenziale für das Entlastungspaket 2027 sowie die Praxis der externen Mandate. Die Generalsekretariate mussten zudem über die Entwicklung der Spesenentschädigungen in ihren Departementen Auskunft geben sowie über die zunehmende Produktion von Podcasts, beispielsweise zu deren Kosten und deren Nutzungszahlen.
+Die Staatsrechnung 2024 schliesst bei Gesamteinnahmen von 84,2 Milliarden Franken und Gesamtausgaben von 84,3 Milliarden Franken mit einem Finanzierungssaldo von minus 80 Millionen Franken ab, sie ist also fast ausgeglichen. Das sind 2,6 Milliarden Franken mehr als budgetiert. Nach vier Jahren mit negativen Abschlüssen, geprägt durch Covid und danach den Ausbruch des Ukraine-Kriegs, ist der Rechnungsabschluss des Bundes erstmals wieder praktisch ausgeglichen. Leider ist das eine vorübergehende Entwicklung, weil die Ausgaben in Zukunft stark ansteigen, insbesondere für die Armee und die Sicherheit sowie im Sozial- und Gesundheitssektor. Es ist also kein Zeichen[NB]einer[NB]Normalisierung[NB]der[NB]Entwicklung, sondern eher eine Verschnaufpause vor dem Effort eines Entlastungsprogramms.
+In der ordentlichen Rechnung resultierte ein erfreulicher struktureller Finanzierungssaldo von plus 1,3 Milliarden Franken. Mit diesem positiven Finanzierungssaldo werden die gesetzlichen Vorgaben im Zusammenhang mit der Schuldenbremse gut eingehalten. Der Saldo wird erstmals nicht mehr dem Ausgleichskonto, sondern dem Amortisationskonto zugeschrieben; dies gemäss den Änderungen im Finanzhaushaltgesetz - in Kraft seit dem 1.[NB]Februar 2023 -, die das Parlament zum Abbau der Covid-Schulden beschlossen hat. Auf dem Amortisationskonto werden bekanntlich die ausserordentlichen Ausgaben und Einnahmen verbucht, weshalb dessen Saldo durch die Covid-Krise stark negativ geworden ist. Seit dem Ausbruch des Ukraine-Kriegs im Jahr 2022 kommen zusätzlich die Ausgaben für Ukraine-Flüchtlinge in der Schweiz dazu. Diese machten 2024 wiederum 1,37 Milliarden Franken in Form von Globalpauschalen an die Kantone aus.
+[PAGE 377] Es waren auch ausserordentliche Einnahmen zu verzeichnen. Die grösste Position waren Sonderdividenden der Ruag aus Veräusserungserlösen.
+Unter dem Strich resultiert für 2024 ein ausserordentlicher Finanzierungssaldo von minus 897 Millionen Franken. Auch das ist deutlich besser als budgetiert, weil sich der[NB]vorgesehene[NB]einmalige Kapitalzuschuss an die SBB verzögert hat.
+Somit konnte der Trend zunehmender Negativbeträge im Amortisationskonto, der 2020 begonnen hatte, gestoppt werden. Das Konto war zuletzt 2019 mit 4,3 Milliarden Franken positiv. Dann kam die Covid-Krise, und die Schulden stiegen auf den Stand von minus 27,2 Milliarden Franken an. Mit der Rechnung 2024 kann diese Schuld erstmals wieder um 424 Millionen Franken auf den Stand von minus 26,8 Milliarden Franken reduziert werden. Es ist also noch ein weiter Weg bis zum Abbau der hohen ausserordentlichen Schulden, aber es ist trotzdem erfreulich und zeigt den positiven Effekt der Gesetzesanpassung im Bereich der Schuldenbremse vor zwei Jahren.
+Ein kurzer Blick auf die Ausgaben- und Einnahmenseite: Die Investitionsausgaben betrugen 2024 inklusive BIF und NAF 10,9 Milliarden Franken, sie waren ungefähr gleich hoch wie 2023. Die laufenden Ausgaben erhöhten sich gegenüber der Rechnung 2023 um 5 Prozent auf 79 Milliarden Franken - eine budgetmässige Punktlandung. Das mit Abstand grösste Wachstum verzeichnet die soziale Wohlfahrt mit 2[NB]Milliarden[NB]Franken. Die Gesamtausgaben stiegen um 4 Prozent, das Bruttoinlandprodukt um 2,2 Prozent. Das heisst, dass die Bundesausgaben stärker gewachsen sind als die Wirtschaftsleistung. Dies hat zu einer Erhöhung der Ausgabenquote, also der Ausgaben in Prozenten des BIP, um 0,1 Prozentpunkte auf 10,2 Prozent geführt. 2019 betrug die Ausgabenquote 9,9 Prozent. Mit dem Entlastungspaket[NB]müsste es gelingen, den Trend der wachsenden Ausgabenquote wieder zu brechen.
+Die laufenden Einnahmen erhöhten sich gegenüber der Rechnung 2023 um 5 Prozent auf 83,2 Milliarden Franken. Damit wurden die Budgeterwartungen um 1,2 Milliarden Franken oder 1,5 Prozent übertroffen. Unerwartet gross war im Bereich der direkten Bundessteuer der Gewinnsteuerertrag. Er stieg um 7,4 Prozent, vor allem aufgrund der[NB]erzielten[NB]Gewinne im Genfer Grosshandelssektor als Folge der hohen und volatilen Rohstoff- und Energiepreise im Zusammenhang mit dem Ausbruch des Ukraine-Kriegs. Dieses Thema wurde in der Finanzkommission vertieft. Zwei Erkenntnisse daraus gilt es festzuhalten. Erstens: Die hohen Gewinne werden nach einer gewissen Zeit wieder auf ein normales Niveau abflachen. Sie leisten somit keinen Beitrag zum langfristigen Entlastungspaket. Zweitens: Die Voraussetzungen für eine raschere Anpassung der Steuerertragsprognose des Bundes, insbesondere eine Berücksichtigung im Voranschlag, sind auf der Grundlage der Zahlen der provisorischen Veranlagungen der Kantone kaum gegeben. Die[NB]zuständige[NB]Subkommission verlangt deshalb von der Finanzverwaltung einen Bericht über den Austausch der Steuerdaten zwischen Bund und Kantonen mit Verbesserungsmöglichkeiten. 
+Schliesslich noch ein Blick auf die Zölle: 2024 war das erste Jahr nach Abschaffung der Industriezölle. Dies hatte einen Rückgang der Zolleinnahmen um 445 Millionen Franken zur Folge. 
+Noch ein Wort zum Personal: 2024 stieg der durchschnittliche Stellenbestand in der Bundesverwaltung ein weiteres Mal an, und zwar um umgerechnet 366 Vollzeitstellen (FTE) auf insgesamt 38[NB]962 Stellen; das entspricht einem Wachstum von 0,9 Prozent. Die Personalausgaben stiegen deutlich stärker an, um 2,9 Prozent auf 6,4 Milliarden Franken. Immerhin lagen sie noch 72 Millionen Franken unter dem Voranschlag. Aber man sieht: Die Lohnmassnahmen fielen bezüglich Kostenwachstum deutlich stärker ins Gewicht als das Personalwachstum selbst, obwohl der Teuerungsausgleich auf 1 Prozent beschränkt worden ist. 
+Noch ein Wort zur Eidgenössischen Finanzkontrolle (EFK): Sie prüft die Rechnung des Bundes als Revisionsstelle. Die EFK hält in ihrem Prüfbericht fest, dass nach ihrer Beurteilung die Jahresrechnung des Bundes 2024 den gesetzlichen Vorschriften und den Bestimmungen zur Schuldenbremse gemäss Artikel 126 der Bundesverfassung entspricht. Der Bundesversammlung wird deshalb empfohlen, die Jahresrechnung zu genehmigen. 
+Weiter empfiehlt die EFK, die Kreditüberschreitungen im Umfang von 1,633 Milliarden Franken zu genehmigen sowie die Bildung neuer Reserven in Höhe von 227 Millionen Franken zu beschliessen. Ebenso empfiehlt die EFK der Bundesversammlung, die beiden Sonderrechnungen 2024 für den Bahninfrastrukturfonds (BIF) sowie den Nationalstrassen- und Agglomerationsverkehrsfonds (NAF) zu genehmigen. Der EFK-Direktor wies dabei die Finanzkommission explizit darauf hin, dass bei beiden Fonds ab 2029 Finanzierungsengpässe drohen.
+Ich komme zum Antrag: Ihre Finanzkommission beantragt Ihnen einstimmig, die Bundesbeschlüsse I über die Eidgenössische Staatsrechnung für das Jahr 2024, II über die Rechnung des Bahninfrastrukturfonds für das Jahr 2024 und III über die Rechnung des Nationalstrassen- und Agglomerationsverkehrsfonds für das Jahr 2024 zu genehmigen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zybach Ursula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bundesrat hat im Februar 2025 über das provisorische Rechnungsergebnis 2024 informiert und am 21.[NB]März 2025 die Botschaft zur Staatsrechnung zuhanden des Parlamentes verabschiedet. Die vier Subkommissionen haben am 30.[NB]April und am[NB]2.[NB]Mai die Abschlüsse der Departemente und ihrer Ämter vertieft angeschaut. Die Departemente und Ämter hatten vorgängig Fragen erhalten, die sie mündlich beantworteten und die von den Subkommissionsmitgliedern mit weiteren Fragen ergänzt wurden. So ist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Bundesrat hat im Februar 2025 über das provisorische Rechnungsergebnis 2024 informiert und am 21.[NB]März 2025 die Botschaft zur Staatsrechnung zuhanden des Parlamentes verabschiedet. Die vier Subkommissionen haben am 30.[NB]April und am[NB]2.[NB]Mai die Abschlüsse der Departemente und ihrer Ämter vertieft angeschaut. Die Departemente und Ämter hatten vorgängig Fragen erhalten, die sie mündlich beantworteten und die von den Subkommissionsmitgliedern mit weiteren Fragen ergänzt wurden. So ist unter anderem gefragt worden, wie sie die Budgetkürzungen 2024 und 2025 in Sachen Personalkosten konkret umgesetzt haben oder wie sie die Spesenregelung handhaben. Zur besseren Übersicht hatten die Departemente im Vorfeld der Sitzung zudem eine Liste der externen Mandate erstellt. Am 19.[NB]und 20.[NB]Mai hat die Finanzkommission die Staatsrechnung gemeinsam mit dem Bericht der Eidgenössischen Finanzkontrolle (EFK) behandelt, und die Subkommissionen haben über die beiden Sitzungstage informiert.
+Die Staatsrechnung umfasst folgende Bereiche: die Bundesrechnung, die Sonderrechnung betreffend den Bahninfrastrukturfonds (BIF) und die Sonderrechnung betreffend den Nationalstrassen- und Agglomerationsverkehrsfonds (NAF).
+Die Bundesrechnung 2024 schliesst mit einem geringen Finanzierungsdefizit von 80 Millionen Franken ab. Im Voranschlag 2024 wurde ein ordentliches Finanzierungsdefizit von 500 Millionen Franken budgetiert. Im Budgetvollzug fielen erfreulicherweise ordentliche Mehreinnahmen von 1,1 Milliarden Franken an, was das Ergebnis verbessert hat.
+Die Einnahmen stiegen gegenüber 2023 um den beachtlichen Wert von 4,6 Milliarden Franken respektive 5,8 Prozent. Dieses Wachstum ist hauptsächlich auf folgende Einnahmequellen zurückzuführen: Bei den Einnahmen aus der direkten Bundessteuer wurde im Vergleich zum Vorjahr eine Zunahme um 2 Milliarden Franken respektive um 7 Prozent verzeichnet. Insbesondere die Einnahmen aus der Gewinnsteuer waren im Vergleich zum Vorjahr um 1,1 Milliarden Franken respektive 7,4 Prozent höher. Angestiegen sind aber auch die Einnahmen aus der Einkommenssteuer. Diese stiegen im Vergleich zum Vorjahr um 900 Millionen Franken. Der Anstieg der Einnahmen aus der Mehrwertsteuer um 1,8 Milliarden Franken ist hauptsächlich auf die Erhöhung der Steuersätze zur Stabilisierung der AHV zurückzuführen. Auch die Einnahmen aus der Verrechnungssteuer verzeichneten ein Wachstum, und zwar um rund 500 Millionen Franken. In den Jahren 2025 bis 2028 gibt es zudem temporäre Mehreinnahmen aus der Gewinnsteuer aus dem Kanton Genf. Der Grund dafür sind die hohen Gewinne der Grosshandelsunternehmen aus den Jahren 2022 und 2023, für die im Kanton Genf erst in den kommenden Jahren definitive und aussagekräftige Steuerrechnungen vorliegen werden.
+Gleichzeitig blieben die Ausgaben unter dem Budget, womit im ordentlichen Haushalt ein Finanzierungsüberschuss von 817 Millionen Franken resultiert. Im ausserordentlichen Haushalt hingegen überstiegen die Ausgaben die Einnahmen um rund 900 Millionen Franken, was auf die Ausgaben für die Schutzsuchenden aus der Ukraine zurückzuführen ist. 
+Im Budget 2024 waren zudem 1,15 Milliarden Franken als Kapitalzuschuss für die SBB vorgesehen. Da das Parlament aber erst letztes Jahr definitiv über den Zuschuss entschieden hat, wird dieser Betrag erst 2025 ausbezahlt. Er wurde auf 850 Millionen Franken reduziert. 
+Die Wirtschaftsleistung lag in der Schweiz 2024 unter ihrem Potenzial. Die Unterauslastung der Wirtschaft wurde auf 0,6 Prozent geschätzt. Die Schuldenbremse liess deshalb ein ordentliches Finanzierungsdefizit von 504 Millionen Franken zu. Der ordentliche Finanzierungssaldo war mit 817 Millionen Franken positiv. Somit ergab sich ein struktureller Überschuss von 1,3 Milliarden Franken. Der strukturelle Überschuss aus dem ordentlichen Haushalt konnte damit dem Amortisationskonto gutgeschrieben werden. Dem Amortisationskonto wurden weiter die ausserordentlichen Einnahmen gutgeschrieben und die ausserordentlichen Ausgaben belastet. Insgesamt war damit ein Abbau der Covid-19-bedingten Schulden um 400 Millionen Franken möglich. Damit beläuft sich der Fehlbetrag des Amortisationskontos auf 26,8 Milliarden Franken. Das Ausgleichskonto hat einen positiven Stand von rund 20 Milliarden Franken. Die Nettoverschuldung hat 2024 leicht abgenommen und beträgt 141,4 Milliarden Franken. 2024 konnten fast alle Ausgaben durch die eigenen Einnahmen finanziert werden. 
+Die EFK hat die Staatsrechnung geprüft und festgehalten, sie entspreche den gesetzlichen Vorgaben und auch den Vorgaben zur Schuldenbremse. Die EFK empfiehlt deshalb der Bundesversammlung, diese Jahresrechnung mit Kreditüberschreitungen im Umfang von 1,633 Milliarden Franken und die Bildung neuer Reserven im Umfang von 227 Millionen Franken zu genehmigen. Sie empfiehlt auch, die beiden Sonderrechnungen zu genehmigen.
+Die Vertreter der EFK wiesen darauf hin, dass die für die Eisenbahninfrastruktur geplanten Ausgaben für Unterhalt und Investitionen ansteigen werden und dass gleichzeitig die Einlagen gemäss Finanzplanung abnehmen werden. Gemäss der aktuellen Langfristplanung werden daher die Reserven des Bahninfrastrukturfonds (BIF) bis Ende 2028 vollständig aufgebraucht sein. Die im Schwerverkehrsabgabegesetz festgelegten Mindestreserven von 300 Millionen Franken können voraussichtlich nicht mehr eingehalten werden, sofern keine Massnahme zur Erhöhung der Einlagen beschlossen wird.
+Moniert hat die EFK in ihrem Bericht die eingeschränkte Nachvollziehbarkeit der Einnahmen aus der leistungsabhängigen Schwerverkehrsabgabe (LSVA). Sie werden über den European Electronic Toll Service (EETS) erfasst und betragen brutto 277 Millionen Franken. Für die einzelnen Buchungen fehlen Belege.
+Bei der Prüfung der im Jahr 2023 neu eingeführten E-Vignette, die über das Via-Portal verkauft wird, fehlten zudem Belegnachweise zu den Einnahmen von etwas mehr als 100 Millionen Franken. Die interne Revision des Bundesamtes für Zoll und Grenzsicherheit und die EFK konnten die Risiken einer Falschdarstellung in der Jahresrechnung 2024 mit arbeitsaufwendigen Prüfungen minimieren. Da die[NB]Einnahmen,[NB]die[NB]über[NB]diese Datenbank erfasst werden, stetig steigen, könnten potenzielle Auswirkungen dieses Mangels noch bedeutender werden; hier müssen wir also hinschauen.
+Ein weiterer Punkt, den ich aus dem spannenden Bericht der EFK herausgreifen möchte, ist die finanzielle Situation von Skyguide. Um die finanziellen Verluste, die in [PAGE 788] Zusammenhang mit der Bekämpfung der Covid-19-Pandemie entstanden, zu bewältigen, erhielt Skyguide im Jahr 2021 ein Darlehen in der Höhe von 250 Millionen Franken. Die Rückzahlung muss bis 2031 erfolgen. 2024 hat Skyguide aufgrund von Liquiditätsproblemen nur 15 Millionen anstatt der erwarteten 35 Millionen Franken amortisiert. Die finanzielle Situation der Zukunft ist abhängig vom Leistungsplan bzw. von den Gebühren für die Referenzperiode 2025-2029. Die finanzielle Situation von Skyguide bleibt somit kritisch.
+Bevor ich Ihnen nun die Abstimmungsresultate der Kommission bekannt gebe, möchte ich mich im Namen der Kommission für die umfassenden und präzisen Unterlagen und Auskünfte, die wir erhalten haben, bedanken. Der Dank geht insbesondere an Bundespräsidentin Karin Keller-Sutter und an die Eidgenössische Finanzverwaltung (EFV). Ebenfalls ganz besonders bedanke ich mich beim Kommissionssekretariat, das uns in den Finanzkommissionen sehr rasch, engagiert und äusserst kompetent unterstützt. Ein herzliches Dankeschön möchte ich hier aus dem Saal auch all denjenigen sagen, die ihre Steuererklärungen oder andere Dokumente richtig ausfüllen und damit Steuern und Abgaben für die Schweiz leisten. Sie haben mit ihren Steuern und Abgaben zu diesem Erfolg beigetragen - merci vielmals. Ich danke auch allen Mitarbeitenden der Bundesverwaltung und der angegliederten Betriebe, die sorgfältig mit den zur Verfügung stehenden Mitteln umgehen.
+Nun zu den Abstimmungsresultaten in der Kommission: Die Kommission hat mit 17 zu 0 Stimmen bei 8 Enthaltungen dem Bundesbeschluss I über die Eidgenössische Staatsrechnung für das Jahr 2024 zugestimmt. Die Ausführungen dazu werden wir sicher in den kommenden Fraktionsvoten hören. Die Bundesbeschlüsse II und III über die Rechnungen des BIF und des NAF für das Jahr 2024 wurden einstimmig angenommen. Auch der Ständerat hat die Beschlüsse gestern beraten und alle drei angenommen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schilliger Peter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich starte das Votum für die FDP-Liberale Fraktion mit einer grundsätzlichen Bewertung unseres Finanzhaushalts. Erstmals seit 2019 erzielte der Bund mit einem Finanzierungsdefizit von 80 Millionen Franken wieder ein fast ausgeglichenes Rechnungsergebnis. Im Vergleich zum Vorjahr sind sowohl die Einnahmen, plus 5,8 Prozent, als auch die Ausgaben, plus 4 Prozent, stark gestiegen. Im ordentlichen Haushalt verzeichnet der Bund einen Finanzierungsüberschuss von rund 800 Millionen Franken. Auf dieser </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich starte das Votum für die FDP-Liberale Fraktion mit einer grundsätzlichen Bewertung unseres Finanzhaushalts. Erstmals seit 2019 erzielte der Bund mit einem Finanzierungsdefizit von 80 Millionen Franken wieder ein fast ausgeglichenes Rechnungsergebnis. Im Vergleich zum Vorjahr sind sowohl die Einnahmen, plus 5,8 Prozent, als auch die Ausgaben, plus 4 Prozent, stark gestiegen. Im ordentlichen Haushalt verzeichnet der Bund einen Finanzierungsüberschuss von rund 800 Millionen Franken. Auf dieser Basis hat der Bundesrat die Arbeiten zum Voranschlag 2026 lanciert. Dank vorübergehend höheren Einnahmen aus den Gewinnsteuern sind für den Voranschlag 2026 voraussichtlich keine zusätzlichen Bereinigungsmassnahmen notwendig. Ohne Entlastungspaket 2027 käme es hingegen in den Folgejahren erneut zu Milliardendefiziten.
+Es sieht vorübergehend also besser aus, aber das ist keine Entwarnung. Das Entlastungspaket ist weiterhin notwendig, um die Vorgaben der Schuldenbremse in den kommenden Jahren einzuhalten und das anvisierte starke Wachstum der Armeeausgaben zu bewältigen. Ohne konkrete Massnahmen muss ab 2027 mit Defiziten in Milliardenhöhe gerechnet werden.
+In der Beratung der Finanzkommission konnten wir von der EFK zur Kenntnis nehmen, dass die Jahresrechnung des Bundes den gesetzlichen Vorgaben entspricht und die Vorgaben zur Schuldenbremse gemäss Artikel 126 der Bundesverfassung erfüllt sind. Die EFK empfiehlt der Bundesversammlung, diese Jahresrechnung und die Kreditüberschreitungen im Umfang von 1,633 Milliarden Franken zu genehmigen und die Bildung neuer Reserven von 227 Millionen Franken zu beschliessen.
+Auf sechs Punkte möchte ich in meinem Votum speziell aufmerksam machen:
+1.[NB]Die Einhaltung der Schuldenbremse: Abgestützt auf die Schuldenbremse hätten die ordentlichen Ausgaben 2024 gegenüber den ordentlichen Einnahmen um 504 Millionen Franken höher sein können. Effektiv erzielte der Bund einen Finanzierungsüberschuss von 817 Millionen Franken. Somit wurden im ordentlichen Haushalt rund 1,3 Milliarden Franken weniger ausgegeben, als die Schuldenbremse zugelassen hätte. Im ausserordentlichen Haushalt resultierte ein Finanzierungsdefizit von 897 Millionen Franken, welches hauptsächlich durch Zahlungen an die Kantone für Schutzsuchende aus der Ukraine entstand.
+2.[NB]Den grossen Überschuss in der konsolidierten Rechnung: Die konsolidierte Rechnung schafft eine Gesamtsicht auf alle Bundesaktivitäten, also nicht nur auf die Staatsrechnung; eingerechnet sind auch die bundesnahen Betriebe und die Sozialversicherungen. 2024 resultierte ein sehr gutes Gesamtergebnis von 11,3 Milliarden Franken. Die Quellen des Überschusses sind die Bundesverwaltung inklusive Fonds und ETH mit 1,7 Milliarden Franken, die Unternehmungen wie die Swisscom mit 2,1 Milliarden Franken und die Sozialversicherungen mit 7,5 Milliarden Franken.
+3.[NB]Die schlechte Finanzlage in der Sonderrechnung des BIF: Die geplanten Ausgaben für den Unterhalt und die Investitionen in die Eisenbahninfrastruktur steigen, die Einlagen nehmen gemäss Finanzplanung jedoch ab. Deshalb werden die geplanten Entnahmen aus dem Fonds ab 2027 höher sein als die erwarteten Einlagen. Gemäss der aktuellen Langfristplanung werden daher die Reserven des BIF bis Ende 2028 vollständig aufgebraucht sein. Die im Schwerverkehrsabgabegesetz festgelegten Mindestreserven von 300 Millionen Franken [PAGE 791] können voraussichtlich nicht mehr eingehalten werden, sofern keine Massnahme zur Erhöhung der Einlagen beschlossen wird. Die Ausfinanzierung des BIF und somit die Investitionsfähigkeit werden uns in den kommenden Jahren stark beschäftigen. Es ist die Aufgabe des Parlamentes, diese Ausfinanzierung sicherzustellen.
+4.[NB]Die Sonderrechnung des NAF mit negativer Tendenz: Die Gesamtbilanz des NAF weist im zweiten Jahr in Folge einen Rückgang der Reserve auf, von 3,67 auf 3,4 Milliarden Franken, also einen Rückgang um 268 Millionen Franken. Ein Anteil des Rückgangs, 110 Millionen Franken, ist hauptsächlich auf die Einnahmenverluste im Zusammenhang mit den 10 Prozent der Mineralölsteuer zurückzuführen. Da die Einnahmen aus dem Mineralölsteuerzuschlag laufend sinken werden, sind zwingend neue Einnahmequellen aus der Elektromobilität zu erschliessen.
+5.[NB]Die kritische finanzielle Situation der Skyguide: Um die finanziellen Verluste im Zusammenhang mit der Bekämpfung der Covid-19-Pandemie zu bewältigen, erhielt die Skyguide im Juli 2021 ein Darlehen in der Höhe von 250 Millionen Franken. Die Rückzahlung muss bis 2031 erfolgen. 2024 hat die Skyguide aufgrund von Liquiditätsproblemen nur 15 Millionen statt der erwarteten 35 Millionen Franken amortisiert. Die finanzielle Situation in der Zukunft ist abhängig vom Leistungsplan bzw. von den Gebühren für die Referenzperiode 2025-2029. Dieser Leistungsplan muss von der EU genehmigt werden. Wir erwarten vom Bundesrat, dass er die kritische Situation der Skyguide überwacht und aktiv begleitet.
+6.[NB]Die steigenden Lohnkosten in der Bundesverwaltung: Nebst einer Erhöhung der Anzahl Vollzeitstellen um 388 - das ist rund 1 Prozent - gegenüber dem Jahr 2023 ist auch der Jahresdurchschnittslohn um 1,2 Prozent auf rund 132[NB]000 Franken angestiegen. Dies ergab in der Summe ein Personalkostenwachstum von 2,2 Prozent. Für die kommenden Budgetvorlagen muss in diesem Kostenbereich eine Stagnation erreicht werden. Der entsprechende politische Auftrag wurde vielfach diskutiert und formuliert. Die Trendwende muss nun zwingend geschafft werden.
+Die FDP-Liberale Fraktion wird den Beschlüssen zustimmen und bedankt sich bei der Verwaltung, bei allen Mitarbeiterinnen und Mitarbeitern sowie beim Bundesrat für die verantwortungsvolle Geschäftsführung im vergangenen Jahr.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich schicke gleich voraus, dass die Grüne Fraktion den Anträgen zur Staatsrechnung 2024 und zu den Abschlüssen der beiden Infrastrukturfonds zustimmen wird.
+Wir haben es gehört: Die Staatsrechnung 2024 schliesst positiv ab. In der Erfolgsrechnung haben die Erträge die Aufwendungen um rund 2,1 Milliarden Franken übertroffen. Die ausserordentlichen Ausgaben, vorwiegend für die Schutzsuchenden aus der Ukraine, sind darin eingeschlossen. Wenn wir nur die ordentliche Rechnung anschauen, beträgt der P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich schicke gleich voraus, dass die Grüne Fraktion den Anträgen zur Staatsrechnung 2024 und zu den Abschlüssen der beiden Infrastrukturfonds zustimmen wird.
+Wir haben es gehört: Die Staatsrechnung 2024 schliesst positiv ab. In der Erfolgsrechnung haben die Erträge die Aufwendungen um rund 2,1 Milliarden Franken übertroffen. Die ausserordentlichen Ausgaben, vorwiegend für die Schutzsuchenden aus der Ukraine, sind darin eingeschlossen. Wenn wir nur die ordentliche Rechnung anschauen, beträgt der Positivsaldo sogar 3 Milliarden Franken. Für die Gesamtrechnung des Bundes hatten wir ein Defizit von 2,6 Milliarden Franken veranschlagt. Sie erinnern sich sicher an unsere Debatten im Dezember 2023, in der allerersten Session der laufenden Legislatur: Wir mussten bereits damals viele Kämpfe ausfechten, um die Schuldenbremse einzuhalten.
+Für die Grüne Fraktion gibt es drei Schlussfolgerungen aus diesem Jahresergebnis. Die erste Schlussfolgerung: Die Regeln der Schuldenbremse dürfen, ja müssen angepasst werden, damit wir Einnahmen und Ausgaben mittelfristig im Lot halten, wie es die Bundesverfassung vorgibt. Aktuell verringern wir ohne Not den sowieso schon sehr tiefen Schuldenstand laufend weiter. Es kann nicht genügend betont werden: Ein Schuldenstand von null ist nicht erstrebenswert. Wir erkaufen ihn mit dem Verzicht auf notwendige Investitionen in die Zukunft, etwa mit einer verzögerten Erneuerung der Infrastruktur, mit Kürzungen im Bereich von Bildung und Forschung, mit zu geringen Anstrengungen in Hinblick auf die Erreichung des Netto-null-Ziels und die Anpassung an die Klimaerhitzung. Wer auf einen Schuldenstand von null oder sogar auf ein Minus hinarbeitet, tut dies zulasten künftiger Generationen. Diese werden später entweder Mehraufwand oder einen Verlust an Lebensqualität haben.
+Die Schuldenbremse reformieren heisst nicht, sie infrage zu stellen. Es heisst insbesondere, dass wir aufgrund von über 20-jähriger Erfahrung mit Kreditresten rechnen und solche antizipieren dürfen. Auch im vergangenen Jahr hatten wir wieder 1,6 Milliarden Franken Kreditreste. Unser Vorschlag dazu lautet: Wir berechnen den Durchschnitt der Kreditreste aus den letzten fünf abgeschlossenen Rechnungsjahren und halbieren diese Zahl. Dieser Wert ist im Moment der Budgetierung eines neuen Jahres zusätzlich verfügbar. Mit der Halbierung sind wir immer noch auf der vorsichtigen Seite.
+Die zweite Schlussfolgerung: Wir sollten darauf zurückkommen, wie wir mit dem Abbau der Corona-Schulden umgehen. Vor drei Jahren hatte die Parlamentsmehrheit auf Anregung des damaligen Finanzministers beschlossen, die gesamte Schuld von 27 Milliarden Franken mit Kreditresten und allfälligen Nationalbankausschüttungen bis 2035 abzutragen, dies trotz prall gefülltem Ausgleichskonto. Sie tat es entgegen dem Rat diverser namhafter Ökonomen - Männer, auf die der Bundesrat sonst gerne hört. Bis zum vorletzten Jahr konnten wir bekanntlich mit dem Abbau noch nicht beginnen, weil wir weder ein positives Jahresergebnis noch Nationalbankausschüttungen hatten. Jetzt können wir zwar erstmals das Amortisationskonto wieder etwas entlasten, um etwas mehr als 400 Millionen Franken, aber gleichzeitig werden die wachsenden Rüstungsausgaben, welche die bürgerliche Ratsmehrheit unbedingt beschliessen will, keine Überschussplanung zulassen. 
+Wir Grünen sind darum der Meinung, dass der Bundesrat auf den Beschluss zum Corona-Schuldenabbau zurückkommen müsste und dem Parlament eine Korrektur im Sinne der damals diskutierten Moitié-moitié-Lösung vorschlagen sollte: Die eine Hälfte wird mit dem Ausgleichskonto beglichen, das ja genau für solche Fälle existiert, die andere Hälfte aus künftigen Überschüssen, die wir zwar kaum je planen, aber faktisch immer mal wieder erreichen werden.
+Die dritte Schlussfolgerung: Das Entlastungspaket 2027, das zeigt sich immer mehr, wird von allen Seiten bestritten. Selbst die FDP-Parteileitung droht mit dem Referendum, ironischerweise wegen der einzigen Massnahme, die einen gewissen Mehrertrag verspricht. Insbesondere stemmen sich jedoch wegen ihrer Zusatzaufwendungen alle Kantone gegen das Paket und mit vereinten Kräften auch der ganze Bildungs- und Forschungsbereich, die Umweltorganisationen, die Entwicklungsorganisationen, die Berggebiete, die Städte und viele mehr. Unser Rat an den Bundesrat: Übung abbrechen! Das Entlastungspaket 2027 hat nicht den Hauch einer Chance. Wenn wir es jetzt stoppen, kann der Bund gleichzeitig bei den Kantonen und bei der Konferenz der Kantonsregierungen punkten, denn dann ist der Weg frei für das viel wichtigere Projekt Entflechtung 27, also die neue Etappe des Finanzausgleichs zwischen Bund und Kantonen.
+Aktuell sind die Kantone ja vor den Kopf gestossen angesichts der Massnahmen, mit welchen sich der Bund entlasten will, deren Aufwand er aber an die Kantone und Gemeinden weitergibt. Ohne das Damoklesschwert dieses Entlastungspakets können Kantone und Bund auf Augenhöhe und sehr bald mit dem spannenden und wichtigen Projekt der künftigen Aufgabenteilung samt Finanzierungsentflechtung beginnen. Wir Grünen freuen uns auf dieses staatspolitisch hochrelevante Projekt, das im wahrsten Sinne des Wortes zukunftsweisend ist.
+Im Namen unserer Fraktion möchte ich mich bei allen bedanken, die uns umfassend dokumentiert und unterstützt haben, ganz besonders bei unseren Parlamentsdiensten, dem Eidgenössischen Finanzdepartement, insbesondere bei der EFV, und bei der EFK für die wie immer sehr wertvolle und unbestechliche Arbeit. Vielen Dank!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerne erstatte ich Ihnen Bericht aus der Finanzkommission. Die Vorberatung hat am 30.[NB]April und am 2.[NB]Mai in der Subkommission stattgefunden. Die Finanzkommission hat am 19.[NB]und am 20.[NB]Mai getagt. Es liegen sieben Nachtragskredite im Betrag von total 674,9 Millionen Franken vor. Sechs davon waren in der Kommission unbestritten; ich stelle sie kurz vor. 
+"Europarat, Strassburg": Das Eidgenössische Departement für auswärtige Angelegenheiten beantragt zusätzliche Mittel in der Höhe von </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerne erstatte ich Ihnen Bericht aus der Finanzkommission. Die Vorberatung hat am 30.[NB]April und am 2.[NB]Mai in der Subkommission stattgefunden. Die Finanzkommission hat am 19.[NB]und am 20.[NB]Mai getagt. Es liegen sieben Nachtragskredite im Betrag von total 674,9 Millionen Franken vor. Sechs davon waren in der Kommission unbestritten; ich stelle sie kurz vor. 
+"Europarat, Strassburg": Das Eidgenössische Departement für auswärtige Angelegenheiten beantragt zusätzliche Mittel in der Höhe von 1,8 Millionen Franken für den Europarat in Strassburg. Als Mitglied des Europarates hat die Schweiz die jährlichen Pflichtbeiträge zu entrichten. Wegen einer Budgeterhöhung sowie wegen einer Erhöhung des Schweizer Pflichtbeitrags wird dieser Nachtragskredit nötig. 
+"Bekämpfungsmassnahmen": Die Zunahme an bekämpfungspflichtigen Pflanzenkrankheiten und -schädlingen wie dem Japankäfer führt zu höheren Kosten für Bekämpfungsmassnahmen und für Abfindungen an geschädigte Betriebe. Der Bund muss sich an den Aufwänden der Kantone beteiligen und geschädigte Betriebe gemäss der Pflanzengesundheitsverordnung entschädigen. Zu einem Kreditmehrbedarf von 200[NB]000 Franken führt zudem die Empfehlung der EFK, die von den Kontrollorganisationen erhobenen Gebühren gemäss dem Bruttoprinzip beim Bund als Einnahmen zu verbuchen und nicht mehr vom Aufwand abzuziehen. Das Eidgenössische Departement für Wirtschaft, Bildung und Forschung beantragt deshalb einen Nachtragskredit in der Höhe von 1,6 Millionen Franken. 
+"Beihilfen Pflanzenbau": Der Umfang der Zuckerrübenfläche steigt wieder an, unterstützt durch die vom Parlament festgelegten Kulturbeiträge. Diese Ausgaben sind ja flächenabhängig. Die im Budget 2025 ausgewiesene Kürzung um 2 Millionen Franken basierte auf den Annahmen von März 2024. Die aktuellen Schätzungen deuten auf eine Zunahme der Flächen im Jahr 2025 hin, deshalb beantragt das WBF einen Zusatzkredit von 2,1 Millionen Franken. 
+Ich komme zu Agroscope, zur Position "Funktionsaufwand (Globalbudget)": Das Parlament hat Ende 2024 eine Kürzung bei der Ressortforschung von 20 Millionen Franken beschlossen. Der Anteil von Agroscope an dieser Kürzung betrug rund 7 Millionen Franken. Aufgrund des hohen Anteils an Personalkosten bei Agroscope wirken sich Einsparungen in dieser Grössenordnung direkt auf das Personal aus und gefährden so die Erfüllung von strategischen Aufgaben. Um die laufenden Arbeiten nicht zu gefährden, wurden die Sparvorhaben in der Höhe von 7 Millionen Franken teilweise umverteilt. Bei Agroscope bleibt so noch ein Kürzungsbeitrag in der Höhe von 3,1 Millionen Franken. Für die haushaltsneutralen Mittelverschiebungen vom Transferaufwand des Bundesamtes für Landwirtschaft zum Funktionsaufwand bei Agroscope beantragt das WBF einen vollständig kompensierten Nachtragskredit von 3,25 Millionen Franken.
+Ebenfalls aus dem WBF liegen zwei weitere Nachtragskredite vor. Für die Position "Europäisches Labor für Synchrotronstrahlung" beantragt das WBF 134[NB]000 Franken und für die Position "Europäische Molekularbiologie" 53[NB]000 Franken. Diese beiden wie auch die vier vorhin kurz ausgeführten Nachtragskredite wurden von der Kommission genehmigt. 
+Lange zu diskutieren gab hingegen der Nachtragskredit von 666 Millionen Franken für die EU-Forschungsprogramme. Zu diesem Nachtragskredit gibt es denn auch einen Minderheitsantrag Gafner, Sie sehen es auf der Fahne, sowie einen Antrag der Kommission für Wissenschaft, Bildung und Kultur. Beide Dokumente wurden Ihnen gestern verteilt. Die 666 Millionen Franken sind gemäss dem erzielten Verhandlungsergebnis ein Pflichtbeitrag für die Teilnahme an den Programmen Horizon Europe, Euratom und Digital Europe. Dieser Betrag ist für die rückwirkende Anwendung des Programmabkommens ab dem 1.[NB]Januar 2025 vorgesehen, falls das Abkommen bis am 15.[NB]November 2025 unterzeichnet werden kann. 
+Es hat sich in der Kommission die Frage gestellt, ob die Notwendigkeit besteht, den Betrag von 666 Millionen Franken bereits im Nachtrag I zu genehmigen, ob nicht genügend Zeit vorhanden gewesen wäre, ihn dem Parlament erst im Nachtrag II vorzulegen. Ausserdem wurde von einer Minderheit der Kommission die Höhe des Pflichtbeitrages infrage gestellt. Für dieses Traktandum war unter anderem Bundesrat Guy Parmelin mit seinem Team vor Ort und konnte Fragen beantworten. So haben sie ausgeführt, dass es stets die Absicht des Bundesrates und die Forderung des Parlamentes war, sich dem Programm so schnell wie möglich wieder anzuschliessen. Das Parlament hat im Jahr 2020 dem Bundesbeschluss zum Horizon-Paket denn auch zugestimmt. Das heisst, es gibt einen Auftrag aus dem Parlament, die Partizipation an diesem Programm wieder sicherzustellen. Erfreulicherweise kann nun die Schweiz bereits ab diesem Jahr wieder voll daran teilnehmen. Das ist grundsätzlich positiv und wird vom Forschungsstandort Schweiz und den Verbänden begrüsst. Es wäre sicher optimal gewesen, wenn wir das bei der Beratung des Voranschlags 2025 bereits gewusst hätten, doch es gab damals noch gar keinen Grund, anzunehmen, dass eine Assoziierung ab 2025 überhaupt möglich sein würde. Nun weiss man, dass es möglich ist. Es ist sinnvoll, diesen Betrag nun im Rahmen des Nachtrags I einzustellen und nicht bis zum Nachtrag II zu warten und unseren Forschungsstandort damit noch einmal ein halbes Jahr im Ungewissen zu lassen.
+Im Finanzhaushaltgesetz gibt es klare Regeln für Nachtragskredite und die Schuldenbremse. Gemäss Artikel 35 des Finanzhaushaltgesetzes ist klar, dass Nachtragskredite möglich sind und die Schuldenbremse einhalten, solange sie die im laufenden Jahr zu erwartenden Kreditreste nicht übersteigen. In den Jahren 2015 bis 2024 betrugen die Kreditreste im Durchschnitt 2,3 Milliarden Franken. Diese Zahl dient nun als Grundlage für die Berechnung. Der Betrag aller hier vorliegenden Nachtragskredite liegt bei 674,9 Millionen Franken und damit klar unter diesem Durchschnitt. Dem Nachtrag zu den EU-Forschungsprogrammen wurde in der Kommission mit 15 zu 8 Stimmen bei 1 Enthaltung zugestimmt.
+Ich komme nun zu den Verpflichtungskrediten. Das Bundesamt für Bauten und Logistik (BBL) beantragt die Erhöhung von vier bestehenden Infrastrukturkrediten um[NB]34,7[NB]Millionen Franken, nämlich bei den Positionen "Bundesasylzentrum Altstätten", "Bundesasylzentrum Le Grand-Saconnex", "Bern, Guisanplatz 1, Neubau Verwaltungsgebäude 2.[NB]Etappe" und "Zollikofen, Neubau Verwaltungsgebäude 4.[NB]Etappe". Diese vier Verpflichtungskredite waren in der Kommission unbestritten.
+"Ausbau 2025": Der Nachtragskredit für den BIF für den Ausbauschritt 2025 ist ein Nachtragskredit im Namen der Sonderrechnungen. Der Kredit ist haushaltsneutral, weil er über den BIF läuft. Es geht um drei Projekte. Die [PAGE 796] befürchteten Verzögerungen im Plangenehmigungsverfahren bei den Projekten "Bern West; Leistungssteigerung" und "Wankdorf Süd-Ostermundigen; Entflechtung" sind nicht eingetreten. Der Gerichtsentscheid bezüglich des Projektes "Cadenazzo Ovest-Ponte Ticino; Raddoppio binari" wurde nicht angefochten, weshalb der Bau in Angriff genommen werden kann. Insgesamt wird ein Nachtragskredit über 98,51 Millionen Franken beantragt.
+Zum Schluss komme ich noch zu den Kreditübertragungen. Aufgrund zeitlicher Verzögerungen bei der Realisation von Vorhaben aus dem Jahr 2024 sollen 881,1 Millionen Franken auf das laufende Jahr übertragen werden, davon 850 Millionen Franken im ausserordentlichen Haushalt. Die ausserordentlichen Ausgaben betreffen den einmaligen Kapitalzuschuss an die SBB von 850 Millionen Franken. Dieser war ursprünglich - wir haben das vorhin gerade noch einmal von Bundespräsidentin Karin Keller-Sutter erläutert erhalten - als Kredit von 1,15 Milliarden Franken geplant und im Jahr 2024 eingestellt, konnte wegen fehlender Gesetzesgrundlagen aber noch nicht ausbezahlt werden. Die restlichen Kreditübertragungen liegen zwischen 170[NB]000 und 8 Millionen Franken. Ich erspare es mir, Ihnen diese einzeln vorzustellen, sie waren in der Kommission unbestritten.
+In der Kommission gab es 15 Stimmen für die Annahme des Entwurfes des Bundesrates und 7 Stimmen dagegen. Die anderen Bundesbeschlüsse, über die es hier auch noch zu entscheiden gilt, wurden von der Kommission einstimmig angenommen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">357753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich spreche zu drei Themen. Zwei davon gehören zum Bereich des EDA, nämlich die Amtszeit der Schweiz im UNO-Sicherheitsrat und die Bürgenstock-Konferenz, eines gehört zum Bereich[NB]des[NB]VBS,[NB]nämlich[NB]die[NB]Ruag MRO und die Beurteilung der strategischen Ziele des Bundesrates in diesem Zusammenhang. 
+Zur Amtszeit der Schweiz im UNO-Sicherheitsrat: Am 31.[NB]Dezember 2024 ist die erste Amtszeit der Schweiz im UNO-Sicherheitsrat zu Ende gegangen. Ihre Kommission nahm zustimmend zur Kenntnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich spreche zu drei Themen. Zwei davon gehören zum Bereich des EDA, nämlich die Amtszeit der Schweiz im UNO-Sicherheitsrat und die Bürgenstock-Konferenz, eines gehört zum Bereich[NB]des[NB]VBS,[NB]nämlich[NB]die[NB]Ruag MRO und die Beurteilung der strategischen Ziele des Bundesrates in diesem Zusammenhang. 
+Zur Amtszeit der Schweiz im UNO-Sicherheitsrat: Am 31.[NB]Dezember 2024 ist die erste Amtszeit der Schweiz im UNO-Sicherheitsrat zu Ende gegangen. Ihre Kommission nahm zustimmend zur Kenntnis, dass der Bundesrat die Bilanz als grundsätzlich positiv beurteilt. Die Schweiz wurde als bereitwilliges und ernsthaftes Mitglied wahrgenommen, das die notwendigen Anstrengungen unternahm, um Brücken zu bauen. Die Schweiz hat in jedem der vier prioritären Themen konkrete Ergebnisse erzielt:
+1.[NB]Schaffung eines nachhaltigen Friedens;
+2.[NB]Schutz der Zivilbevölkerung;
+3.[NB]Handeln für die Klimasicherheit;
+4.[NB]Stärkung der Effizienz des Sicherheitsrates. Dieses Mandat hat der Schweiz auch Gelegenheit gegeben, die Arbeit der Vereinten Nationen in Genf hervorzuheben.
+Die Zusammenarbeit mit dem Parlament erfolgte gemäss dem im Postulatsbericht 19.3967 vorgesehenen Rahmen. Die beiden APK wurden regelmässig orientiert. In zwei dringlichen Fällen wurden die APK-Präsidenten zu wesentlichen Resolutionen konsultiert, nämlich zur Entsendung einer Polizeimission nach Haiti und zur Anerkennung Palästinas als Vollmitglied. Auch die Zusammenarbeit zwischen den Departementen funktionierte gut. Der Bundesrat konnte aufzeigen, dass die Schweiz in der Lage ist, den Anforderungen an ein nichtständiges Mitglied des Sicherheitsrates gerecht zu werden und glaubwürdig aufzutreten.
+Für die Finanzierung der Kandidatur und des Einsitzes wurden für die Zeit zwischen Mitte 2020 und Mitte 2025 insgesamt 24,5 Millionen Franken bewilligt. Dabei handelte es sich um die Vollkosten für die Kandidatur, die Vorbereitung und die Einsitznahme. Alle 25 temporären Stellen, die dafür geschaffen wurden, werden bis Mitte 2025 vollständig abgebaut sein. Das Budget wurde eingehalten. Die zuständige UNO-Abteilung im Staatssekretariat hat Massnahmen identifiziert, um die Resultate und das erworbene Know-how weiterhin fruchtbar zu machen. Erwähnt sei dabei insbesondere die kommende OSZE-Präsidentschaft der Schweiz. Ihre Kommission nahm mit Befriedigung Kenntnis von einer gelungenen Mission im UNO-Sicherheitsrat.
+Zur Bürgenstock-Konferenz: Die Bürgenstock-Konferenz, mit der die Schweiz das erste Mal eine Konferenz in dieser Grössenordnung ausrichtete, galt als Beitrag zum Frieden in der Ukraine. Es gelang dem Bundesrat, hundert Delegationen aus allen Regionen der Welt auf dem Bürgenstock zu versammeln. 55 Länder waren auf Stufe Staats- oder Regierungschef und 32 auf Ministerstufe vertreten. Insgesamt nahmen offiziell rund 950 Personen teil. Die Kosten beliefen sich für das EDA auf 4,8 Millionen Franken für die eigentliche Konferenz. Etwa 9 Millionen Franken gingen zulasten des EJPD für die Sicherheit. Die Konferenz wurde von der internationalen Gemeinschaft gewürdigt und verdankt.
+Für den Bundesrat stellte sich ein Jahr später die Frage, was die Konferenz denn bewirkt und ausgelöst hat. Der Bundesrat sieht folgende vier Punkte: [PAGE 475] 
+1.[NB]Die Schweiz konnte ihre Fähigkeiten als Gastgeberin und Organisatorin von hochrangigen Konferenzen unter Beweis stellen, und dies trotz einer sehr kurzen Vorbereitungszeit. Die Schweiz hatte knapp fünf Monate zur Verfügung, um die Konferenz vorzubereiten.
+2.[NB]Es gelang die Verabschiedung eines Schlussdokuments, eines "joint communiqué", das in diesem polarisierten weltpolitischen Umfeld von 90 Staaten mitgetragen wurde.
+3.[NB]Die Konferenz ermöglichte eine ehrliche Diskussion und eröffnete Perspektiven für verschiedene Friedensansätze.
+4.[NB]Die Friedenskonferenz war nützlich, um das Verständnis für unsere Neutralität und für den Mehrwert, den wir als neutrales Land für die internationale Gemeinschaft bringen, zu erhöhen. Vor allem aber beteiligt sich die Schweiz weiterhin an den Gesprächen über das weitere Vorgehen mit den zentralen Akteuren, insbesondere den USA, Frankreich, Grossbritannien, der Ukraine und Saudi-Arabien. Die Schweiz spricht auch mit Russland, wodurch unter anderem auch eine Brücke zum Vorsitz der OSZE 2026 gebaut werden kann.
+Ihre GPK nahm zustimmend zur Kenntnis, dass die Bürgenstock-Friedenskonferenz eine organisatorische, finanzielle und diplomatische Sonderleistung war. Dank der Zusammenarbeit aller relevanten Departemente der Bundesverwaltung und der Kantone war es ein erfolgreicher Beitrag zur Verständigung vieler Staaten hinsichtlich eines möglichen Friedens und des Wiederaufbaus in der Ukraine.
+Kommen wir nun zum VBS und zum Thema Ruag MRO. Mit besonderem Interesse hat Ihre Kommission den Bericht des Bundesrates über die Erreichung der strategischen Ziele der Ruag MRO im Geschäftsjahr 2024 angeschaut. Denn die Ereignisse rund um die Ruag MRO in den Vorjahren mit den Unregelmässigkeiten sowie den diesbezüglichen Abklärungen der Eidgenössischen Finanzkontrolle haben Handlungsbedarf seitens der Oberaufsicht aufgezeigt. Insbesondere beurteilt Ihre GPK die in den Berichten der Eidgenössischen Finanzkontrolle festgestellten Mängel als besorgniserregend.
+Nebst einer nicht wirksamen Compliance in der Ruag betreffen die festgestellten Mängel auch den Kernbereich der parlamentarischen Oberaufsicht der GPK, konkret die Führung und Steuerung der Ruag MRO durch den Eigner. Besonders schwer wiegt das mangelhafte Reporting der Ruag MRO zur Erreichung der strategischen Ziele bzw. die fehlende kritische Überprüfung dieses Reportings durch den Eigner. Deshalb befasste sich Ihre GPK besonders intensiv mit der Berichterstattung des Bundesrates zu diesen strategischen Zielen. Ihre GPK nahm Kenntnis davon, dass der Bundesrat zu folgender Beurteilung kommt:
+1.[NB]Die Ruag MRO hat die strategischen Ziele teilweise erreicht.
+2.[NB]Die Ruag MRO hat als Materialkompetenzzentrum und als industrielle Partnerin der Armee ihre Leistungen zugunsten der Armee mit der Betreuung von rund 130 Systemen für die Schweizer Armee gemäss den Anforderungen grösstenteils bedarfsgerecht erbracht.
+3.[NB]Das finanzielle Ergebnis hat sich im Vergleich zum Vorjahr verbessert, bleibt aber hinter den Erwartungen des Bundesrates zurück. Das Verhältnis des Ebit zum Gesamtumsatz konnte zum zweiten Mal in Folge gesteigert werden und betrug im Geschäftsjahr 3,8 Prozent. Der Bundesrat erwartet für eine nachhaltige finanzielle Stabilität eine Ebit-Marge von mindestens 5 Prozent.
+4.[NB]Der Bundesrat beurteilt die Ziele zum Compliance-Management, zur Vermeidung von aktiver und passiver Korruption sowie zur Einhaltung der Grundsätze der schweizerischen Aussen- und Exportkontrollpolitik als teilweise erreicht. 
+Der Bundesrat erwartet von der Ruag MRO, dass die Mängel zeitnah und nachhaltig behoben werden. Ihre GPK nahm auch Kenntnis davon, dass der Bundesrat intensiv daran ist, das Vertrauen in die Ruag MRO wiederherzustellen und die Empfehlungen aus den Finanzkontrollberichten umzusetzen. Positiv hervorzuheben ist die Neubesetzung mit dem neuen Verwaltungsratspräsidenten Jürg Röteli und dem neuen CEO der Ruag MRO, Ralf Müller.
+Ihre GPK ist mit dem Bericht des Bundesrates zur Zielerreichung in zwei Punkten nicht zufrieden. Erstens sind die strategischen Ziele teilweise sehr allgemein und zu wenig messbar gefasst, zweitens wurden alle Ziele entweder als erreicht oder als teilweise erreicht beurteilt. Aus Sicht der GPK hätten mindestens jene Ziele, die in direktem Zusammenhang mit den Finanzkontrollberichten standen, härter, also mit "nicht erreicht", beurteilt werden sollen. Hier erwartet Ihre GPK einen etwas sensibleren Umgang mit der Vereinbarung und der Beurteilung der strategischen Ziele durch den Bundesrat.
+Ansonsten nimmt Ihre GPK ihre Verantwortung als Oberaufsichtsbehörde im Case Ruag MRO weiterhin intensiv wahr, insbesondere für eine lückenlose Aufarbeitung der Ungereimtheiten und für die Wiederherstellung des Vertrauens in die Ruag MRO.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">357722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sommaruga Carlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En ma qualité de président de la sous-commission DFJP/ChF de la Commission de gestion, j'aborderai deux thèmes concernant le Département fédéral de justice et police (DFJP) et deux autres concernant la Chancellerie fédérale qui ont été approfondis en Commission de gestion plénière lors du traitement du rapport de gestion 2024 du Conseil fédéral.
+Pour ce qui est du DFJP, j'aborderai la thématique du statut S et la lutte contre la violence domestique. En ce qui concerne la thématique du statut S, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En ma qualité de président de la sous-commission DFJP/ChF de la Commission de gestion, j'aborderai deux thèmes concernant le Département fédéral de justice et police (DFJP) et deux autres concernant la Chancellerie fédérale qui ont été approfondis en Commission de gestion plénière lors du traitement du rapport de gestion 2024 du Conseil fédéral.
+Pour ce qui est du DFJP, j'aborderai la thématique du statut S et la lutte contre la violence domestique. En ce qui concerne la thématique du statut S, il convient de rappeler qu'il a été activé il y a plus de 3 ans après l'agression de l'Ukraine par la Russie, avec l'objectif d'éviter l'encombrement de la procédure d'asile ordinaire par les demandes des ressortissants et ressortissantes ukrainiennes fuyant la guerre et de fournir rapidement à ces personnes un logement, vu la difficulté de les prendre en charge individuellement. Le statut S a été prolongé lors de l'été 2024 jusqu'en mars 2026, cela en coordination avec l'Union européenne. La poursuite du statut S au-delà du 1er mars 2026 ou même son éventuelle abrogation avant cette date dépend essentiellement de l'évolution du conflit. Le DFJP a indiqué à la commission que le Conseil fédéral travaillait en étroite collaboration avec l'Union européenne dès lors qu'une approche différenciée entre les États Schengen-Dublin pourrait avoir des conséquences néfastes pour la Suisse, avec un afflux supplémentaire de demandeurs de protection en Suisse. Si, pour le moment, le statut S est maintenu, le SEM s'active à mettre en oeuvre la motion Friedli Esther demandant la limitation de l'octroi du statut S aux Ukrainiennes et aux Ukrainiens des régions non sûres. Actuellement, le SEM travaille également sur la définition de ce qu'est une région sûre dans le contexte de l'agression russe en Ukraine, ce qui est loin d'être simple. De même, le SEM travaille sur la mise en oeuvre des motions Paganini et Würth sur le retrait ou le non-renouvellement du statut S aux bénéficiaires qui, pendant une certaine durée, ont quitté la Suisse, ont obtenu le paiement de l'aide au retour, ont abusé du statut S ou ont obtenu le statut dans un autre État de l'espace Dublin.
+Dans le cadre d'un dialogue avec les cantons et les communes, le DFJP a d'ores et déjà préparé une stratégie sur les mesures à adopter en fin de régime du statut S. À ce stade des réflexions, qui peuvent évoluer en fonction de la situation sur le terrain, il est prévu que le statut S serait transformé en un statut de retour, avec un délai de retour en Ukraine de six mois pour celles et ceux qui dépendent de l'aide sociale et d'une année pour celles et ceux qui travaillent.
+En ce qui concerne les demandes de protection des ressortissants ukrainiens, il convient de signaler que le nombre de demandes s'est élevé à 16 616 en 2024, ce qui représente une baisse de 27,8 pour cent par rapport à 2023. À la fin 2024, le nombre de bénéficiaires du statut S était de 68[NB]070, contre 66[NB]083 à la fin 2023. Il est intéressant de relever que le taux de refus sur l'ensemble des statuts S délivrés est de 4 pour cent. Au cours des années, il y a eu une progression du taux de refus et il atteint actuellement 30 pour cent. Cette augmentation résulte d'un examen plus attentif des dossiers. Le statut S n'est pas octroyé aujourd'hui lorsqu'il n'est pas démontré par le requérant, de manière crédible, qu'il avait son centre de vie en Ukraine avant le 24 février 2022.
+En résumé, il apparait, d'une part, que l'avenir du statut S dépend essentiellement et directement de l'évolution du conflit en Ukraine et, d'autre part, que la gestion des requêtes et l'établissement des scénarios de sortie sont sous contrôle au sein du département. 
+La deuxième thématique relevant de la compétence du DFJP examinée par la Commission de gestion dans le cadre du rapport de gestion concerne la lutte contre les violences domestiques. La situation reste plus que préoccupante. En 2024, ce ne sont pas moins de 21[NB]000 cas de violences domestiques qui ont été enregistrés, un chiffre certainement incomplet vu le nombre d'actes de violence domestique qui ne sont pas signalés aux autorités. Dans ce contexte, en 2024, [PAGE 472] ce sont 26 femmes qui ont perdu la vie en raison de violences domestiques. Cela signifie qu'en Suisse, en moyenne, deux femmes meurent de féminicide par mois, un chiffre extrêmement élevé et intolérable.
+En raison de cette situation, la lutte contre la violence sexuelle et la violence domestique reste une autre priorité du DFJP. La feuille de route de la Confédération et des cantons contre la violence domestique adoptée en 2021 reste un élément central de l'action de la Confédération. Le DFJP procède à un monitoring régulier de sa mise en oeuvre. Le bilan de la mise en oeuvre et de l'impact de la feuille de route sur les violences domestiques est annoncé pour 2026 et sera réalisé en coordination avec le DFI. Le DFJP soutiendra l'éventuel nouveau plan d'action. 
+Au cours des débats en commission, le chef du DJFP a rappelé que, en matière de lutte contre la violence domestique, les communes ont aussi un rôle à jouer, en plus de la Confédération et des cantons, notamment dans les campagnes de prévention.
+La commission a souligné l'importante nécessité d'agir et de maintenir l'effort dans ce domaine. Elle s'est d'ailleurs inquiétée d'éventuelles coupes dans le domaine dans le cadre du paquet d'allègement 2027. Elle a pu être rassurée par les propos du chef du département qui a affirmé qu'à sa connaissance il n'y a pas de coupe prévue dans le domaine de la mise en oeuvre de la feuille de route contre la violence domestique tout en soulignant que l'essentiel des mesures relève de la compétence des cantons et des budgets cantonaux. Il convient de préciser que l'engagement du DFJP en matière de violences sexuelles ou domestiques ne s'arrête pas seulement à la feuille de route. Ce département a participé activement à l'élaboration du nouveau droit pénal sexuel qui est entré en vigueur le 1er juillet 2024, avec une notion plus large du viol et le principe "Non, c'est non".
+Toujours dans le cadre de la prévention des violences domestiques, il convient de signaler que le monitoring électronique pour la protection des victimes est actuellement en phase de test avec des projets pilotes dans les cantons. Les retours de ces expériences sont positifs selon le département. Une étude scientifique est en cours pour déterminer l'efficacité des mesures et celles qui peuvent être pérennisées à l'avenir dans le cadre d'une modification légale.
+Toujours dans le contexte de la violence domestique, les travaux pour la révision partielle de la loi sur les victimes fondée sur trois motions relatives aux prestations médicales devant être octroyées gratuitement aux victimes sont en cours. Le message devrait probablement être adopté par le Conseil fédéral cette année encore. Sur un point, la commission a exprimé son désappointement. Il s'agit des retards de mise en place de la ligne téléphonique d'urgence. La date a été renvoyée à deux reprises, ce qui est problématique. Cette situation insatisfaisante a été admise par le chef du département qui a confirmé que cette ligne devrait être opérationnelle en mai 2026.
+J'aborde maintenant les thématiques de la Chancellerie fédérale examinée par la Commission de gestion. Je me concentrerai, d'une part, sur la gestion du dossier de l'intégrité des signatures lors de la collecte de signatures, lors d'initiatives ou de référendums, et, d'autre part, sur la gouvernance numérique. Pour ce qui est du dossier sur l'intégrité de la récolte des signatures : depuis l'automne 2024, période pendant laquelle les cas suspects de falsification se sont multipliés, mais qui semble aussi avoir été le moment du pic du phénomène, l'action de la Chancellerie s'est articulée en cinq axes différents.
+Premièrement, la Chancellerie a procédé à un renforcement des contrôles non seulement des signatures validées par les communes, mais aussi de celles déclarées nulles. Cela afin de mieux comprendre les mécanismes de falsification.
+Deuxièmement, la Chancellerie fédérale a procédé au dépôt de quatre plaintes pénales auprès du Ministère public de la Confédération pour soupçon de fraude électorale. Cela concerne tant les signatures découvertes par la Chancellerie que celles signalées par les communes. Il faut quand même signaler ici que la grande majorité des signatures considérées comme falsifiées avaient été déclarées nulles par les communes. Dans un esprit de transparence à l'égard des Commissions de gestion, la Chancellerie fédérale informe régulièrement celles-ci des plaintes pénales juste avant l'information du public.
+Troisièmement, la Chancellerie a introduit un monitoring avec un formulaire en ligne facilitant la communication des cas suspects par les communes.
+Quatrièmement, la Chancellerie a mis en place un échange avec le monde scientifique autour des processus de contrôle des signatures par intelligence artificielle. La mise en place de mesures concrètes dans ce cadre est attendue pour fin 2025.
+Enfin, la Chancellerie fédérale a organisé une table ronde dont l'objectif était d'établir un code de conduite applicable volontairement par les acteurs politiques lors de la collecte de signatures. La volonté de la Chancellerie fédérale, jusqu'à une éventuelle modification de la loi sur les droits politiques qui pourrait être décidée par le Parlement, est de trouver, dans le cadre légal actuel, des solutions raisonnables et pouvant être acceptées par une majorité des acteurs. L'exercice s'est avéré compliqué, car les attentes des participants à la table ronde ont été très diverses, voire antinomiques. Dans le processus de contrôle de gestion, la Commission de gestion n'a pas constaté une quelconque volonté de la Chancellerie fédérale de restreindre les droits politiques, comme certaines critiques publiques le laissaient entendre. En parallèle, s'agissant du processus relatif à l'intégrité des signatures, la Chancellerie mène ses travaux relatifs au renforcement et à l'extension du vote électronique et à la collecte des signatures électroniques. Dans ces deux cas, la Chancellerie fédérale inscrit son activité dans le cadre des décisions du Conseil fédéral. 
+Le deuxième domaine d'activité de la Chancellerie fédérale examiné plus attentivement par la Commission de gestion est celui de la gouvernance numérique, pilotée par le secteur Transformation numérique et gouvernance de l'informatique (TNI). Ce secteur a pour fonction le soutien et la coordination de la transformation numérique de la Confédération et la mise à disposition de l'administration de services standards. L'activité du secteur TNI de la Chancellerie, en tant que centre de compétences en charge de la transformation numérique de la Confédération, a commencé son activité le 1er janvier 2021. Il a quatre tâches principales[NB]: repérage précoce des thèmes importants en lien avec la transformation numérique de l'administration[NB]; transformation et interopérabilité entre les divers acteurs du processus de numérisation[NB]; offre de solutions centralisées et standardisées[NB]; délivrance de services centraux à l'ensemble de l'administration fédérale, comme le contrôle de gestion pour les projets de transformation numérique.
+Il convient de préciser que la Chancellerie fédérale dispose dans ce domaine du pouvoir d'émettre des recommandations. Cela dit, au-delà de ces tâches centrales incombant à la Chancellerie, ce sont les départements qui sont responsables de la transformation digitale dans leurs domaines de compétences. Il s'agit donc pour la Chancellerie d'avoir un rôle de direction et d'organisation, mais non pas de[NB]responsabilité[NB]matérielle de la transformation digitale elle-même. 
+Au cours des quatre ans d'existence du secteur TNI à la Chancellerie fédérale, un certain nombre de choses ont été accomplies, notamment l'introduction de clouds dans l'administration fédérale, un nouveau standard unifié pour les pages Internet, l'élaboration d'outils open source, etc.
+Le processus de collaboration et le recours à des solutions communes commencent à être intégrés par les divers offices de l'administration, mais le défi reste important. De l'aveu même de la Chancellerie fédérale, les offices continuent trop souvent à utiliser des solutions informatiques individuelles. Il est vrai qu'un passage de solutions individuelles par office ou par département à des solutions collectives transversales entre les départements est un processus long et complexe. À titre d'exemple, il a été relaté à la commission que la mise à disposition d'un outil unique et unifié pour les procédures de consultation avait pris quatre ans, entre la décision de principe et la mise en oeuvre de l'outil. [PAGE 473] 
+Ce changement de paradigme voulant que les solutions collectives, informatiques et numériques deviennent la règle et que les solutions individuelles deviennent l'exception n'est de loin pas réalisé. Dans ce contexte, la Chancellerie fédérale a activé les secrétaires généraux des départements en automne 2024 afin de procéder à une évaluation fondée sur les rapports du Contrôle fédéral des finances en matière de projets informatiques. Dans cette évaluation, la question des finances et de la libération des fonds relatifs à divers projets est abordée, tout comme la façon d'accroître l'influence de la Chancellerie fédérale dans le rôle central de pilotage des orientations numériques dans les départements, ainsi que la problématique de la mise en oeuvre des directives de la Chancellerie fédérale dans les départements, qui ont de la peine à être suivies. L'objectif de l'évaluation est de formuler des propositions concrètes au Conseil fédéral d'ici la fin de l'année, afin de permettre une réalisation effective de l'objectif 8 de la ligne directrice 1 du programme de législature du Conseil fédéral, qui prévoit que la Confédération fournit ses prestations de manière efficace et promeut la transition numérique. 
+En résumé, pour le secteur TNI, qui fait face à des défis importants, il est nécessaire de poursuivre un examen attentif de son travail et de son développement.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">358842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit der Motion soll der Bundesrat beauftragt werden, das lebenslange Ruhegehalt sowie Kleinprivilegien zu reduzieren. Wie ich bereits bei der vorgängig behandelten Motion gesagt habe, hat sich der Bundesrat in seinem Bericht von Dezember 2021 über die zeitgemässe Besoldungs- und Ruhestandsregelung für Magistratspersonen in Erfüllung des Postulates Hegglin Peter ausführlich mit diesem Thema auseinandergesetzt und mögliche Varianten für Anpassungen im Bereich der Ruhestandsregelung für Magistratsp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit der Motion soll der Bundesrat beauftragt werden, das lebenslange Ruhegehalt sowie Kleinprivilegien zu reduzieren. Wie ich bereits bei der vorgängig behandelten Motion gesagt habe, hat sich der Bundesrat in seinem Bericht von Dezember 2021 über die zeitgemässe Besoldungs- und Ruhestandsregelung für Magistratspersonen in Erfüllung des Postulates Hegglin Peter ausführlich mit diesem Thema auseinandergesetzt und mögliche Varianten für Anpassungen im Bereich der Ruhestandsregelung für Magistratspersonen aufgezeigt. 
+Sowohl die Finanzdelegation als auch die Staatspolitische Kommission des Ständerates haben, gestützt auf diesen Bericht, keinen Handlungsbedarf erkannt. Weiter hat auch die Eidgenössische Finanzkontrolle in ihrem Bericht vom Mai 2021, in dem es ebenfalls um die Prüfung des Vollzugs beim Ruhegehalt für Magistratspersonen ging, die Feststellungen des Berichtes gestützt. Im Frühjahr 2024 hat der Bundesrat zudem entschieden, auf dienstlich nicht notwendige Leistungen zu verzichten. Es ist vorhin erwähnt worden: Er hat unter anderem entschieden, auf den Kauf der Seilbahn-Dauerfahrkarten oder auf die Theaterloge im Stadttheater Bern zu verzichten.
+Der Bundesrat beantragt folglich die Ablehnung der Motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">358847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit der Motion soll der Bundesrat beauftragt werden, das Ruhegehalt von Altbundesrätinnen und Altbundesräten auf 100[NB]000 Franken zu senken und damit mehr als zu halbieren. Die dadurch eingesparten finanziellen Mittel sollen, wie wir gehört haben, der AHV zugutekommen.
+Der Bundesrat hat sich in seinem Bericht vom 10.[NB]Dezember 2021 in Erfüllung des Postulates Hegglin Peter 20.4099 ausführlich mit dem Thema Ruhegehalt auseinandergesetzt und mögliche Varianten für Anpassungen im Bereich der Ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mit der Motion soll der Bundesrat beauftragt werden, das Ruhegehalt von Altbundesrätinnen und Altbundesräten auf 100[NB]000 Franken zu senken und damit mehr als zu halbieren. Die dadurch eingesparten finanziellen Mittel sollen, wie wir gehört haben, der AHV zugutekommen.
+Der Bundesrat hat sich in seinem Bericht vom 10.[NB]Dezember 2021 in Erfüllung des Postulates Hegglin Peter 20.4099 ausführlich mit dem Thema Ruhegehalt auseinandergesetzt und mögliche Varianten für Anpassungen im Bereich der Ruhestandsregelung für Magistratspersonen aufgezeigt. Der Bericht kam insbesondere zum Ergebnis, dass ein sicheres Einkommen nach der Amtszeit die Unabhängigkeit der Amtsträger stütze. Bei einem Rücktritt oder einer Nichtwiederwahl vor dem eigentlichen Pensionierungsalter bestehe kein finanzieller Druck, und es bestehe keine unmittelbare Notwendigkeit für eine berufliche Nachfolgelösung. Entscheidungen im Amt können auf diese Weise unabhängig von persönlichen und wirtschaftlichen Überlegungen getroffen werden. Auch soll das Verbleiben im oder das Ausscheiden aus dem Amt nicht von finanziellen Überlegungen abhängig gemacht werden.
+Sowohl die Finanzdelegation als auch die Staatspolitische Kommission des Ständerates haben gestützt auf den Bericht keinen Handlungsbedarf erkannt. Weiter hat auch die Eidgenössische Finanzkontrolle in ihrem Bericht vom Mai 2021 zur Prüfung des Vollzugs beim Ruhegehalt von Magistratspersonen die Feststellungen des Berichtes gestützt, dies insbesondere in Bezug auf die Unabhängigkeit der Magistratspersonen in ihrer Amtsausübung. Es sei ausserdem in Erinnerung zu rufen, dass das Ruhegehalt bei einem zusätzlichen hohen Erwerbs- oder Ersatzeinkommen gekürzt werde.
+Eine Senkung wird, sofern man der Motion folgt, nicht nur die Bundesrätinnen und Bundesräte betreffen, sondern eben alle Magistratspersonen, das heisst auch die Bundesrichterinnen und Bundesrichter und auch den Bundeskanzler. In Bezug auf die finanziellen Herausforderungen der AHV hätten die Einsparungen bei den Ruhegehältern der Magistratspersonen zudem einen kaum spürbaren Einfluss. Dieser würde sich im Promillebereich des gesamten Finanzvolumens bewegen.
+Aus Sicht des Bundesrates ist aufgrund der dargelegten Gründe eine Reduktion des Ruhegehaltes nicht angezeigt, und der Bundesrat beantragt folglich die Ablehnung der Motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">358714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selon les modalités habituelles de ce type de rapport et conformément à la décision des Commissions de gestion, je me concentrerai sur deux sujets, un par département.
+Le thème concernant le Département fédéral des affaires étrangères (DFAE) est la fin de la participation de la Suisse au Conseil de sécurité de l'Organisation des Nations Unies (ONU) après deux ans de mandat. Le 31 décembre 2024, le premier mandat de la Suisse au sein de ce conseil a donc pris fin. Le bilan est considéré comme pos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selon les modalités habituelles de ce type de rapport et conformément à la décision des Commissions de gestion, je me concentrerai sur deux sujets, un par département.
+Le thème concernant le Département fédéral des affaires étrangères (DFAE) est la fin de la participation de la Suisse au Conseil de sécurité de l'Organisation des Nations Unies (ONU) après deux ans de mandat. Le 31 décembre 2024, le premier mandat de la Suisse au sein de ce conseil a donc pris fin. Le bilan est considéré comme positif par le Conseil fédéral et de nombreux analystes. La Suisse a été perçue comme un membre préparé et sérieux, faisant l'effort nécessaire pour bâtir des ponts. Le bon accomplissement de ce mandat a renforcé le réseautage et la reconnaissance de la Suisse tant au sein de l'ONU que dans ses relations internationales. La question de la neutralité avait été largement débattue au regard de la candidature de la Suisse à un poste de membre non permanent. L'expérience a démontré que la Suisse a pu assumer ses fonctions sans remettre en cause sa neutralité, comme d'autres pays, à l'image de l'Irlande, l'avaient fait avant le nôtre. Des résultats concrets ont été obtenus pour chacune de nos quatre priorités thématiques, qui étaient, je le rappelle : construire une paix durable ; protéger la population civile ; agir pour la sécurité climatique ; renforcer l'efficience du Conseil de sécurité. Ce mandat a également donné l'occasion de mettre en avant le travail de l'ONU à Genève et, d'une manière plus générale, l'importance de la Genève internationale.
+La collaboration avec le Parlement s'est déroulée dans le cadre prévu dans le rapport de postulat 19.3967. Les deux Commissions de politique extérieure (CPE) ont été régulièrement informées. Dans deux cas urgents, les présidents des CPE ont été consultés au sujet des résolutions importantes. La collaboration entre les départements a également bien fonctionné. La Suisse a pu démontrer qu'elle était en mesure de répondre aux exigences demandées à un membre non permanent du Conseil de sécurité et d'être crédible. Le budget de 24,5 millions de francs alloué pour le financement de la candidature et du siège pour la période allant de mi-2020 à mi-2025 a été respecté. Par ailleurs, le département compétent de l'ONU au sein du Secrétariat d'État du DFAE a identifié des mesures pour que les résultats et le savoir-faire acquis continuent à porter leurs fruits, en particulier en faveur de la prochaine présidence suisse de l'Organisation pour la sécurité et la coopération en Europe.
+Parmi les éléments relevant du Département fédéral de la défense, de la protection de la population et des sports (DDPS), la gestion au sein de Ruag MRO a particulièrement retenu l'attention. En février 2025, le Contrôle fédéral des finances a en effet publié des rapports d'audit révélant de graves irrégularités au sein de Ruag MRO. À leur suite et de manière complémentaire à ces investigations, divers éclaircissements ont été demandés au DDPS par la Commission de gestion. Les Commissions de gestion, et plus particulièrement leurs sous-commissions en charge du suivi de ce département, poursuivront par ailleurs leurs analyses au cours des prochains mois, afin d'examiner plus en détail la gestion et le pilotage de Ruag MRO et la collaboration entre les deux représentants du propriétaire, à savoir le DDPS et l'Administration fédérale des finances. Il s'agira de déterminer si ces deux entités ont rempli leurs rôles de manière adéquate, et si les événements au sein de Ruag doivent mener à une adaptation du pilotage de Ruag MRO par la Confédération. Il conviendra aussi d'étudier si les enseignements déjà tirés sont bien pris en considération lors de l'examen de la forme juridique de Ruag MRO par le Conseil fédéral.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryser Franziska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Grüne Fraktion steht für mehr Transparenz. Deshalb unterstützen wir diese Vorlage, mit der die Transparenz über die Verwendung der finanziellen Mittel durch die paritätischen Kommissionen gestärkt werden soll. Es ist richtig, dass alle Personen, die einem allgemeinverbindlichen GAV unterstellt sind, bei Interesse Einsicht in die Jahresrechnung erhalten sollen. Denn auch Aussenseiter, also Arbeitnehmende oder Arbeitgebende, die nicht selber Mitglied bei einem Verband der Sozialpartner sind, f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Grüne Fraktion steht für mehr Transparenz. Deshalb unterstützen wir diese Vorlage, mit der die Transparenz über die Verwendung der finanziellen Mittel durch die paritätischen Kommissionen gestärkt werden soll. Es ist richtig, dass alle Personen, die einem allgemeinverbindlichen GAV unterstellt sind, bei Interesse Einsicht in die Jahresrechnung erhalten sollen. Denn auch Aussenseiter, also Arbeitnehmende oder Arbeitgebende, die nicht selber Mitglied bei einem Verband der Sozialpartner sind, finanzieren über die Vollzugskostenbeiträge die Umsetzung des GAV mit.
+Die Beratung in der Kommission hat zudem gezeigt, dass die Kontrollmechanismen gut funktionieren. Das SECO prüft, ob die Einnahmen durch die paritätischen Kommissionen korrekt eingesetzt werden, also beispielsweise für den Vollzug, die Weiterbildung von Arbeitnehmenden oder die Überprüfung von GAV-Vorschriften im Bereich der Arbeitssicherheit. Dazu gehört auch die Erhebung von Vollzugskostenbeiträgen bei Nichtmitgliedern respektive die Teilrückerstattung, wenn die Beiträge zur Deckung der Vollzugskosten bereits über die Mitgliederbeiträge geleistet wurden.
+Die Aufsicht durch das SECO wurde wiederum durch die EFK überprüft, und es wurden einige Verbesserungen angestossen. Das zeigt, dass das System der Aufsicht funktioniert. Es gilt jetzt zuerst einmal diese Verbesserungen abzuwarten.
+Den Antrag der Minderheit Pamini lehnen wir ab. Die Minderheit will in Artikel 5 Absatz 3 festschreiben, dass die Jahresrechnung allen Arbeitgebenden und allen Arbeitnehmenden, die dem allgemeinverbindlichen GAV unterstehen, zugestellt werden muss, und zwar egal, ob diese das wünschen oder nicht. Das ist unnötig für die Empfangenden, vor allem aber wäre es mit einem deutlichen Mehraufwand verbunden, den wir als nicht verhältnismässig erachten. Deshalb unterstützen wir hier den pragmatischen Ansatz des Bundesrates.
+Die Grüne Fraktion wird also auf dieses Geschäft eintreten und der Mehrheit der Kommission und dem Bundesrat folgen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burgherr Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziel dieser zweiten Vorlage ist eine erhöhte Transparenz bei der Verwendung der finanziellen Mittel von paritätischen Kommissionen. Mit dem Entwurf wird die Motion 21.3599 der WAK-N, "Transparenz über die finanziellen Mittel paritätischer Kommissionen", umgesetzt. Diese beauftragt den Bundesrat, die notwendigen Massnahmen vorzukehren, damit die paritätischen Kommissionen der für allgemeinverbindlich erklärten Gesamtarbeitsverträge (GAV) verpflichtet werden, ihre Jahresrechnungen über die Beiträg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziel dieser zweiten Vorlage ist eine erhöhte Transparenz bei der Verwendung der finanziellen Mittel von paritätischen Kommissionen. Mit dem Entwurf wird die Motion 21.3599 der WAK-N, "Transparenz über die finanziellen Mittel paritätischer Kommissionen", umgesetzt. Diese beauftragt den Bundesrat, die notwendigen Massnahmen vorzukehren, damit die paritätischen Kommissionen der für allgemeinverbindlich erklärten Gesamtarbeitsverträge (GAV) verpflichtet werden, ihre Jahresrechnungen über die Beiträge an die Vollzugskosten des GAV zu veröffentlichen.
+Einem GAV unterstellte Arbeitnehmer und Arbeitgeber sind häufig dazu verpflichtet, gewisse Beiträge an gemeinsame Institutionen zu entrichten. Deren Verwaltung wird von gemeinsamen paritätischen Kommissionen wahrgenommen, die als Vollzugsorgane des GAV agieren. Mit der Vorlage beantragt der Bundesrat, dass Arbeitgebern und Arbeitnehmern, die einem allgemeinverbindlichen GAV unterstellt sind, kostenlose Einsicht in die Jahresrechnung von paritätischen Kommissionen über die Beiträge an die Vollzugskosten des GAV gewährt wird. Bereits heute besteht die Möglichkeit, indirekt über das SECO Einsicht in die Jahresrechnung zu erhalten. Der Prozess kann jedoch langwierig und kostenpflichtig sein, und er beinhaltet einen Umweg über staatliche Behörden. [PAGE 1132] 
+Die Kommission unterstützt den Entwurf des Bundesrates ohne Gegenstimme. Die Transparenz- und Rechenschaftspflicht der paritätischen Kommissionen gegenüber den Sozialpartnern werden somit gestärkt. Da gemäss Bundesrat eine Pflicht zur Veröffentlichung der Jahresrechnungen, wie sie die Motion verlangte, gegen mehrere Grundsätze der Schweizer Rechtsordnung verstossen würde, beantragt der Bundesrat eine verhältnismässige Lösung, die ein Recht auf Einsichtnahme vorsieht.
+Die Gesetzesanpassung ist ein Schritt in die richtige Richtung, auch wenn das Misstrauen immer noch gross ist. Ein Antrag auf Einführung einer Pflicht zur elektronischen Einsichtsgewährung und ein Antrag, die Jahresrechnung einer Genehmigungspflicht zu unterstellen, fanden in der Kommission keine Mehrheit. Ein solcher Genehmigungsprozess wäre sehr aufwendig.
+Eine ausführliche Diskussion führte die Kommission über die Rückerstattung von Vollzugskostenbeiträgen, die nicht im Entwurf des Bundesrates enthalten ist. Da das SECO anhand einer Prüfung der EFK aktuell die entsprechenden Weisungen überarbeitet, verzichtete die Kommission darauf, diesbezügliche Anträge in die Vorlage aufzunehmen.
+Ich fasse zusammen: Die Änderungen des AVEG erhöhen die Transparenz über die Verwendung der finanziellen Mittel von paritätischen Kommissionen. Die Kommission beantragt Ihnen deshalb einstimmig, die Vorlage anzunehmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wermuth Cédric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich kann es relativ kurz machen bei dieser Vorlage. Die SP-Fraktion unterstützt selbstverständlich diese Vorlage, aber nicht die Anträge der Minderheiten. Wenn wir ehrlich sind, hat in dieser Debatte der Berg eine Maus geboren, aber für einmal bin ich relativ zufrieden und glücklich damit. 
+Die Diskussion in der Kommission war schon ein bisschen absurd, das muss ich Ihnen ehrlicherweise sagen, vor allem wenn wir sie vergleichen mit dem Hohelied auf die Sozialpartnerschaft, das beim vorherigen Ge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich kann es relativ kurz machen bei dieser Vorlage. Die SP-Fraktion unterstützt selbstverständlich diese Vorlage, aber nicht die Anträge der Minderheiten. Wenn wir ehrlich sind, hat in dieser Debatte der Berg eine Maus geboren, aber für einmal bin ich relativ zufrieden und glücklich damit. 
+Die Diskussion in der Kommission war schon ein bisschen absurd, das muss ich Ihnen ehrlicherweise sagen, vor allem wenn wir sie vergleichen mit dem Hohelied auf die Sozialpartnerschaft, das beim vorherigen Geschäft gesungen wurde. Es war schon etwas befremdend, welches Grundmisstrauen gegenüber den Arbeitgeberverbänden und Arbeitnehmerverbänden in der Kommission ausgesprochen wurde und welch abenteuerliche Thesen, die sich nicht erhärten liessen, zum Missbrauch dieser Gelder in den Raum gestellt wurden. Das verrät, meine ich, auch einen Mangel an Verständnis, wie in der Schweiz die tripartite Kommission und die Verwaltung des Arbeitsmarktes funktionieren. 
+Nichtsdestotrotz ist gegen mehr Transparenz selten etwas einzuwenden. Sie haben recht, es gibt einen Bericht der EFK. Es ist mir wichtig, hier auch klarzustellen, dass die EFK nicht gesagt hat, dass es Missbrauch gibt - das war nicht das, was sie gesagt hat -, sondern sie weist darauf hin, dass die Erhebungen und Kontrollen, wie sie heute durchgeführt werden, gewisse Aussagen über die Verwendung der Mittel nicht zulassen. Und es ist absolut nachvollziehbar, dass man das korrigieren und diese Empfehlungen in Zukunft umsetzen will. 
+Allerdings bitten wir Sie auch jetzt, den reduzierten Antrag der Minderheit Pamini abzulehnen, und zwar aus folgenden Gründen: Wenn Sie den gesamten Minderheitsantrag lesen, dann wissen Sie, woher bei dieser Minderheit der Wind weht: Hier geht es um die Verhinderung eines funktionierenden Systems der Kontrolle und der paritätischen Kommissionen, um nichts weniger. Mit den Absätzen 3bis und 3ter wäre es ein Bürokratiemonster sondergleichen. Und das bleibt es eben auch, wenn wir nur die Änderung bei Absatz 3 annehmen. Es geht hier teilweise auch um sehr kleine Organisationen, um extrem kleine Kommissionen. Das zeigt wiederum, dass die Kommission sich relativ wenig mit der Realität auf dem Terrain beschäftigt hat und eine sehr theoretische [PAGE 1134] Diskussion weit weg von den Realitäten geführt hat. Vielleicht will der Bundesrat dann noch Ausführungen dazu machen. Es wäre jetzt wirklich Mikromanagement, den Verbänden, die selber ja auch demokratisch organisiert sind, vorzuschreiben, in welcher Form sie die Jahresrechnung entsprechend zu veröffentlichen haben. 
+Ich glaube, wir haben jetzt eine Grundlage, bei der wir uns darauf einigen können, was für Transparenzbemühungen wir bei der Verwendung dieser Mittel der tripartiten Kommission einfordern. Das ist absolut nachvollziehbar; daran gibt es nichts auszusetzen. Ich bitte Sie aber in Bezug auf alles Weitere, jetzt wirklich die Umsetzung der Empfehlung der EFK abzuwarten und die Sozialpartner gerade in dieser schwierigen Zeit, in der es eben darum geht, sicherzustellen, dass sie das durchsetzen, was sie durchsetzen müssen, nicht mit unnötiger Bürokratie zu belasten, wo es niemandem etwas bringt. 
+Ich bitte Sie, dieser Vorlage im Sinne der Mehrheit zuzustimmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amoos Emmanuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réunie le 15 avril 2025, la Commission de l'économie et des redevances de notre conseil a étudié le projet du Conseil fédéral visant à adapter la loi fédérale pour étendre le champ d'application de la convention collective de travail (LECCT). L'objectif du projet est d'accroître la transparence sur les moyens financiers des commissions paritaires. Ce projet de loi avait été mandaté par le Parlement, qui avait accepté la motion 21.3599 de la Commission de l'économie et des redevances. Pour rappel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réunie le 15 avril 2025, la Commission de l'économie et des redevances de notre conseil a étudié le projet du Conseil fédéral visant à adapter la loi fédérale pour étendre le champ d'application de la convention collective de travail (LECCT). L'objectif du projet est d'accroître la transparence sur les moyens financiers des commissions paritaires. Ce projet de loi avait été mandaté par le Parlement, qui avait accepté la motion 21.3599 de la Commission de l'économie et des redevances. Pour rappel, cette motion avait été acceptée par notre conseil, par 118 voix contre 65 et 1 abstention. Le Conseil des États l'avait acceptée sans autre proposition. Enfin, le Conseil fédéral était opposé à la motion, argumentant que les objectifs de la motion pourraient être remplis au travers d'arrêtés, sans modifier la loi. La motion chargeait le Conseil fédéral de prendre les mesures nécessaires pour que les commissions paritaires des conventions collectives de travail (CCT) étendues soient tenues, d'une part, de publier leur rapport annuel comptable et, d'autre part, de rendre des comptes sur le but des moyens à disposition dans le capital du fonds et sur leur utilisation. Elle visait par ailleurs à ce que le Secrétariat d'État à l'économie (SECO) puisse confier l'audit financier au Contrôle fédéral des finances ou à d'autres experts.
+Dans son message, le Conseil fédéral montre que les deux dernières demandes faites dans la motion sont déjà remplies. En effet, les commissions paritaires des CCT fédérales étendues sont tenues de remettre chaque année au SECO leur comptabilité sur les contributions aux frais d'exécution des CCT en vertu des articles 3 et 5 alinéa 2 LECCT. Le SECO, en sa qualité d'autorité de surveillance, vérifie que ces contributions soient utilisées conformément à ses directives relatives aux contributions. S'agissant de la troisième demande, le SECO peut, en tant qu'autorité de surveillance des caisses de commissions paritaires, faire appel à des experts internes ou externes à l'administration fédérale pour effectuer l'audit financier. Il a déjà eu recours à cette possibilité.
+Il ne reste ainsi que le premier point de la motion à réaliser, soit la publication du rapport annuel des commissions paritaires. Durant les auditions, les partenaires sociaux ont relevé que ces rapports sont, aujourd'hui déjà, très fréquemment disponibles à la consultation. Toutefois, pour réaliser la motion, le Conseil fédéral propose d'introduire à l'article 5 de la loi deux nouveaux alinéas prévoyant un droit de consultation des comptes annuels des commissions paritaires pour les employeurs et travailleurs soumis à une CCT étendue. Lors de la séance de la commission, le projet n'a suscité aucune opposition.
+Nous avons une minorité à traiter, la minorité Pamini, qui propose d'accorder un droit de consultation des comptes annuels sous forme électronique. Cette proposition a été rejetée en commission, par 14 voix contre 8 et 3 abstentions. Le nouvel alinéa vise à ce que ces documents soient facilement consultables et laisse le soin aux commissions paritaires de décider sous quelle forme elles veulent transmettre ces informations.
+Au nom de la majorité de la commission, je vous remercie d'accepter le projet tel que présenté par le Conseil fédéral et de rejeter la proposition de la minorité.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schlatter Marionna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zunächst einige Worte zu meiner Minderheit zur Motion 25.3421 der UREK-S: Sie betrifft einzig Buchstabe c der Motion, also den Passus zur pauschalen Nichtübernahme der EU-Trinkwasserrichtlinie. Ich möchte diesen Passus gerne streichen, denn dieser ist eine Notfalllösung, ohne dass ein Notfall herrscht. Die Fachverbände und Wasserversorger haben uns in den Anhörungen in der Kommission klar aufgezeigt, dass die erwarteten EU-Höchstwerte für Trinkwasser in der Schweiz eingehalten werden. Dort, wo e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zunächst einige Worte zu meiner Minderheit zur Motion 25.3421 der UREK-S: Sie betrifft einzig Buchstabe c der Motion, also den Passus zur pauschalen Nichtübernahme der EU-Trinkwasserrichtlinie. Ich möchte diesen Passus gerne streichen, denn dieser ist eine Notfalllösung, ohne dass ein Notfall herrscht. Die Fachverbände und Wasserversorger haben uns in den Anhörungen in der Kommission klar aufgezeigt, dass die erwarteten EU-Höchstwerte für Trinkwasser in der Schweiz eingehalten werden. Dort, wo es punktuelle Probleme gibt, braucht es gezielte Unterstützung und Massnahmen an der Quelle und nicht eine pauschale Aufweichung der Standards.
+Die Schweiz sollte in zentralen Bereichen wie dem Handel oder der Lebensmittelsicherheit mit der EU kompatibel bleiben. Alles andere bringt unnötigerweise Unsicherheit und Unruhe für den Handel und auch für die Konsumentinnen und Konsumenten. Der Bund und vor allem die Kantone sind aktiv geworden. Ein Monitoring wurde aufgegleist, und es gibt zum Glück vielversprechende Hinweise, dass das St.[NB]Galler Problem ein isoliertes Problem ist. Genau deshalb braucht es keine pauschale Aufweichung von Grenzwerten oder gar eine generelle pauschale Nichtübernahme von EU-Richtlinien. Die Verwaltung hat uns auch bestätigt, dass bei der Festsetzung von Grenzwerten immer verschiedene Faktoren berücksichtigt werden, auch wirtschaftliche.
+Lassen Sie mich nun aber meine Motion begründen. PFAS, die sogenannten Ewigkeitschemikalien, sind überall, in unserem Wasser, in unseren Böden, in der Nahrung und im Blut jedes einzelnen Menschen in diesem Land. Sie sind praktisch nicht abbaubar, sie reichern sich an, und sie verursachen Schäden an der Umwelt und an der Gesundheit. Doch heute möchte ich primär nicht über Gesundheit sprechen, sondern über etwas, das uns in diesem Saal besonders interessieren muss, nämlich die Kosten. Gemäss Schätzungen belaufen sich allein die Sanierungskosten für belastetes Trinkwasser, Abwasser und Altlasten in der Schweiz in den nächsten 20 Jahren auf bis zu 26 Milliarden Franken. Das sind 1,3 Milliarden Franken pro Jahr, Jahr für Jahr, nur für die Sanierung stark belasteter Standorte, ohne eine generelle Verbesserung der Grundbelastung, die sich noch überall in der Umwelt befindet. Wer soll das bezahlen? 
+Die Kosten sind sehr hoch und bringen manche Gemeinde in finanzielle Schwierigkeiten. Nehmen wir die Gemeinde Uster mit 37[NB]000 Einwohnerinnen und Einwohnern. Der Boden auf einem Feuerwehrübungsgelände musste abgetragen werden. Es gab für das Projekt Mehrkosten von 600[NB]000 Franken. In Altstätten im Kanton St.[NB]Gallen kostete die Sanierung eines Brandübungsplatzes 17,3 Millionen Franken. In Chiasso setzte man aufgrund von erhöhten PFAS-Werten im Trinkwasser einen aktiven Kohlefilter für 1,7 Millionen Franken ein. In Egnach im Kanton Thurgau musste auf dem Gelände einer Firma nach einem Brand eine PFAS-Sanierung für 870[NB]000 Franken durchgeführt werden, und auf einem Industriegelände in Monthey im Kanton Wallis musste für 28 Millionen Franken Boden ausgehoben und eine hydraulische Sperre für 10 Millionen Franken eingebaut werden. Die Liste liesse sich weiterführen.
+Aber ich möchte auf die Frage zurückkommen, wer das bezahlt. Heute sind es vor allem die Kantone, die Gemeinden, der Bund, also am Ende die Steuerzahlenden, wir alle. Das ist weder gerecht und nachhaltig, noch entspricht es dem Grundsatz des Verursacherprinzips. Genau hier setzt meine Motion an. Mit einer Abgabe auf PFAS an der Quelle erreichen wir nämlich zweierlei:
+Erstens beschaffen wir damit Mittel, um die immensen Kosten für die öffentliche Hand zu decken und so nicht alle Folgekosten auf die Steuerzahlenden abzuwälzen. Es ist wie die CO2-Abgabe ein bewährtes schweizerisches Instrument. Mit der PFAS-Abgabe könnten wir das Problem ganz ohne Verbote, die es ja in diesem Rat schwer haben, in den Griff bekommen. 
+Zweitens setzen wir ein Marktsignal. Firmen, die auf sichere Alternativen setzen, haben einen Vorteil. Firmen, die in PFAS-freie Produkte investieren, werden gestärkt statt bestraft. Die Forschung erhält Aufträge. Aus einem toxischen Problem wird ein Innovationsprogramm. Schauen Sie doch über die Landesgrenzen hinaus. Die Welt bewegt sich. In der EU, in den USA, überall diskutiert man strengere Regeln. Es ist nur eine Frage der Zeit. Ermöglichen wir den Firmen, heute zu investieren, sichern wir die Marktanteile von morgen.
+Damit habe ich nur zwei der Argumente hervorgehoben und die Vermeidung der gesundheitlichen und ökologischen Schäden von morgen noch gar nicht erwähnt.
+Übrigens stellt auch die Eidgenössische Finanzkontrolle fest, dass das Verursacherprinzip bei problematischen Stoffen heute nur unzureichend greift. Da es sich oft um diffuse und zeitverzögerte Belastungen handelt, können Hersteller und Importeurinnen schlecht belangt werden. Aber es liegt in unserem Interesse als Gesetzgeber, das zu ändern; die Kosten, die an den Eigentümern der betroffenen Parzellen oder an der Allgemeinheit hängenbleiben, verlangen es. Das Verursacherprinzip hat auch mit Fairness, mit Verantwortung gegenüber den Steuerzahlenden, die keine Lasten in Milliardenhöhe tragen sollen, die sie nicht verursacht[NB]haben,[NB]und[NB]mit[NB]Verantwortung gegenüber unseren Kindern zu tun, die sauberes Wasser und eine gesunde Umwelt verdienen. 
+Ich danke Ihnen für die Unterstützung meiner Motion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dandrès Christian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je ne vais rien vous apprendre en vous disant que la majorité se serait bien passée des améliorations prévues dans cette loi. Contrairement à ce qu'a indiqué M.[NB]Buffat tout à l'heure, qui expliquait la position exemplaire de la Suisse, nous sommes franchement aux antipodes. Effectivement, rien n'effraie l'UDC dans cette affaire. Parce que, l'histoire, vous la connaissez[NB]: cela fait dix ans que le Parlement joue la montre pour ne pas soumettre les avocats atypiques - je précise[NB]: atypiqu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je ne vais rien vous apprendre en vous disant que la majorité se serait bien passée des améliorations prévues dans cette loi. Contrairement à ce qu'a indiqué M.[NB]Buffat tout à l'heure, qui expliquait la position exemplaire de la Suisse, nous sommes franchement aux antipodes. Effectivement, rien n'effraie l'UDC dans cette affaire. Parce que, l'histoire, vous la connaissez[NB]: cela fait dix ans que le Parlement joue la montre pour ne pas soumettre les avocats atypiques - je précise[NB]: atypiques - au même devoir de diligence que les intermédiaires financiers.
+Si j'ai insisté sur le mot atypique, c'est aussi parce que j'ai entendu tout à l'heure que cela allait renchérir les frais liés au mandat d'un avocat. Sérieusement, je pense que ce qui coûte cher, c'est d'abord le travail des avocats et le fait que leurs tarifs sont prohibitifs pour une bonne partie de la population. Ensuite, il faut relever que nous sommes en train de parler de moins de 10 pour cent des avocats. La majorité des avocats, lorsque vous allez les voir pour votre divorce, un problème de bail ou un problème de droit du travail, ne sont pas concernés par cette loi, et les coûts liés à ces règlementations ne vont pas être mutualisés au sein d'une étude lorsqu'une personne vient demander un conseil pour un divorce. On nous parle souvent de personnes différentes[NB]; or là, il est question d'avocats qui sont regroupés dans des cabinets d'affaires et qui travaillent de manière extrêmement précise. Je pense qu'il fallait replanter un minimum le décor.
+J'aimerais aussi relever que c'est exactement la même discussion que pour le secret bancaire. Cinquante ans de pression pour que, dans les années 1990, la Confédération dise enfin qu'il y a un problème et qu'il est temps de bouger pour que la Suisse ne développe pas des espaces de non-droit ou de soutien à des organisations criminelles. La résistance a été exactement la même qu'ici, sur la question des conseillers. En 2019, sous la pression du Gafi, le Conseil fédéral a dû plier et saisir l'Assemblée fédérale d'un projet pour assujettir les conseillers au dispositif antiblanchiment. Mais ce que le Conseil fédéral a donné de la main gauche, le Parlement l'a enterré de la main droite en 2021. Et pendant tout ce temps - parce que des personnes ont quand même été lésées -, de l'argent trempé dans de sales affaires, parfois même dans le sang des victimes du terrorisme et du crime organisé, continue à être blanchi en Suisse. Il n'y a pas un scandale auquel la place financière suisse ne soit pas liée[NB]: Panama Papers, Pandora Papers, sans parler du soutien massif de la place financière au régime de l'apartheid en Afrique du Sud. C'est de cela dont nous sommes en train de parler aujourd'hui.
+J'aimerais aussi faire un petit parallèle. Hier, nous avons discuté de Schengen, de la question du droit d'asile. À chaque fois, le discours de la majorité est tout à fait différent. Il n'y a pas de problème à réprimer des migrants en quête de protection ou de travail. Par contre, on aimerait continuer à recevoir l'argent de la corruption du régime de Poutine ou de ses alliés, comme Assad, qui a mis en place un narco-État. [PAGE 1444] Mais accueillir les victimes des atrocités commises par ces régimes qui soutiennent d'autres régimes tout aussi répugnants, c'est une autre affaire.
+J'aimerais rappeler encore un point, pour aborder maintenant le fond[NB]: cet argent a la puanteur du crime organisé, et cela doit nous brûler les doigts. C'est pour cela que nous devons revenir au projet du Conseil fédéral en acceptant les minorités du groupe des Verts et du groupe socialiste, qui vont dans le sens des exigences du Gafi et des standards internationaux. Nous devons arrêter ce petit jeu dont j'ai parlé tout à l'heure et qui consiste à aller toujours à reculons - c'est la retraite de Marignan - en assujettissant le moins de personnes possible et, quand on n'a pas le choix et qu'on doit assujettir, en limitant à chaque fois les actes au maximum pour essayer de faire en sorte que les mesures soient inefficaces et que quelques cabinets se fassent du fric sur le dos des victimes de la criminalité, ce qui est absolument inacceptable. Et qu'a fait le Conseil des États dans cette affaire[NB]? Il a prévu une liste impressionnante d'activités exclues du champ de la loi, non pas parce que la nature de la transaction ne présentait pas de risque, mais parce que le contexte présentait un risque limité. C'est du pur sophisme. Je vous donne deux exemples.
+À l'alinéa 4ter de l'article 2, il est dit que le risque de blanchiment est faible lorsqu'un avocat va aider à l'acquisition d'un bien financé par une donation ou une succession. Mais les mafieux meurent comme tout le monde, peut-être même souvent plus jeunes que le reste de la population, et leurs héritiers ont un intérêt tout particulier à pouvoir remettre cet argent dans le circuit légal. Si vous regardez la pratique, vous verrez que les successions sont l'un des coeurs du monstre, et c'est aussi par les successions qu'il est possible de remonter le fil des activités criminelles. Donc, on ne peut pas sortir cet élément de la loi antiblanchiment, c'est du délire[NB]!
+Autre exemple[NB]: les sénateurs veulent exclure une partie des activités immobilières en fixant la barre à 5 millions de francs pour le prix d'achat. Mais les mafieux ne vont évidemment pas s'exposer en achetant des tours de prestige à Bâle, Zurich ou à Genève[NB]; ils vont acheter des petits immeubles, dans des localités un peu excentrées, où cela ne va pas se voir, et tous ces petits immeubles de rendement ont un prix inférieur à 5 millions de francs. Avec cela, nous sortons du champ de la loi l'essentiel des activités et des risques posés.
+J'aimerais relever un point, parce qu'on explique que ce sera la catastrophe, que tout va s'effondrer. Il y a toujours eu ce discours, mais j'aimerais quand même rappeler ici que la loi sur le blanchiment d'argent, lorsqu'elle est entrée en vigueur, n'a pas fait s'écrouler la place financière, n'a pas réduit à zéro les bénéfices des intermédiaires financiers. Allez voir les quelques données qui sont publiées, notamment dans la presse économique. En revanche, si l'on ne collabore pas pleinement à la lutte contre la criminalité internationale, si, comme le veut la majorité de la commission, l'on rabote les mesures minimales posées par le Conseil fédéral, parce qu'en amont le lobby des avocats a déjà travaillé pour réduire les standards à rien - le Conseil fédéral a repris cela et maintenant, on va aller encore en dessous -, cela coûtera très cher au secteur, mais aussi à la position de la Suisse vis-à-vis de la communauté internationale, en plus de l'ignominie de soutenir des activités criminelles. Comme je l'ai expliqué tout à l'heure, on n'est pas en train de s'occuper du dealer du coin de rue, avec ces mesures. On a affaire à de grands groupes organisés, qui vont, par le biais d'avocats atypiques, essayer de faire du conseil pour s'insinuer dans toutes les petites failles qui existent - et elles ne sont pas petites, s'agissant effectivement de ce projet. 
+J'ai déjà parlé de la question immobilière. Je ne vais donc pas m'attarder sur ce sujet, mais je crois que l'on doit avoir une position de principe lorsque l'on parle de la question du secret professionnel et de l'activité de l'avocat. À quoi sert le secret professionnel[NB]? Il sert à protéger les justiciables et à assurer l'effectivité des droits. Il n'a pas pour fonction d'offrir des services de courtage offshore à des multinationales du crime. Le devoir de vigilance qui est donc prévu par ce projet est vraiment le minimum du minimum. Un avocat doit vérifier qui est l'ayant droit économique des structures, des trusts, des entreprises et des sociétés qu'il va créer. L'avocat vérifiera évidemment aussi l'arrière-fond des entreprises lorsque c'est lui qui les administre. Évidemment qu'il doit s'intéresser à l'arrière-fond économique - et je peux vous dire de manière absolument certaine qu'un avocat s'intéresse à cela[NB]; il s'y intéresse, parce que ce milieu, depuis des années, dit que, oui, il y a une infraction pénale du blanchiment et l'avocat peut tomber dedans. Il s'intéresse donc évidemment à la question. Ces informations, les avocats les ont, à l'évidence. Le fait de pouvoir simplement les communiquer, au besoin, et de pouvoir garder les documentations, c'est le minimum. Quel avocat ignore la situation de son client lorsqu'un client vient en lui disant qu'il a 100 millions de francs et lui demande de les administrer à sa place[NB]? Et quel client honnête s'offusquera et considérera que l'avocat qui poserait des questions pour la gestion de ses fonds aurait des pensées désastreuses[NB]? On est dans une dynamique où, en fait, on ne demande pas à un avocat de creuser pour déterrer les activités politiques ou les convictions religieuses de ses clients. Il s'agit de savoir d'où vient l'argent et pourquoi l'avocat est en charge de gérer effectivement cette fortune. Je pense donc qu'il faut accepter ce texte, parce que c'est un plus, mais on doit quand même revenir au minimum du minimum du minimum, qui est la proposition initiale du Conseil fédéral. 
+J'aimerais quand même terminer sur deux choses. Une fois que l'on aura adopté ce texte, il faudra encore qu'il soit appliqué. Peut-être avez-vous vu que, au mois de juillet de cette année, le Contrôle fédéral des finances a publié une étude dans laquelle il indique que le Bureau de communication en matière de blanchiment d'argent (MROS) n'a pas les moyens, aujourd'hui, de faire son travail et d'assurer le suivi des dénonciations qui lui parviennent. Il faut donc les deux choses[NB]: non seulement un dispositif légal qui soit à la hauteur, mais aussi une administration qui soit capable de suivre cela. Je précise qu'il y a un intérêt diplomatique et qu'il y a aussi un intérêt démocratique élémentaire, et de solidarité internationale, parce que l'argent du crime à l'extérieur ne doit pas profiter aussi en Suisse. 
+Derniers mots des derniers mots[NB]: honnêtement, pendant des années, on a sali la réputation de ce pays et de la majorité de la population parce qu'une partie des activités financières a été utilisée pour soutenir des crapules. On doit rompre avec cela. On a la possibilité aujourd'hui - et surtout si vous acceptez ces propositions de la minorité -, de marquer une petite rupture. Je crois que c'est le moment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les prescriptions visant à restreindre les PFAS sont en constante évolution. Les frais de mise en oeuvre de ces prescriptions sont couverts par les fabricants et les utilisateurs. Le principe du pollueur-payeur s'applique à l'assainissement des sites contaminés.
+En application de l'audit du Contrôle fédéral des finances, l'Office fédéral de l'environnement a analysé au travers d'une expertise juridique l'application du principe du pollueur-payeur. Cet avis de droit n'a identifié aucun vide jurid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les prescriptions visant à restreindre les PFAS sont en constante évolution. Les frais de mise en oeuvre de ces prescriptions sont couverts par les fabricants et les utilisateurs. Le principe du pollueur-payeur s'applique à l'assainissement des sites contaminés.
+En application de l'audit du Contrôle fédéral des finances, l'Office fédéral de l'environnement a analysé au travers d'une expertise juridique l'application du principe du pollueur-payeur. Cet avis de droit n'a identifié aucun vide juridique en la matière. [PAGE 1477]
+Durch die Abfallverordnung haben wir die Gewähr, dass das Verursacherprinzip - le principe du pollueur-payeur - berücksichtigt wird und allenfalls auch aus dem Vasa-Fonds Geld zur Sanierung verwendet werden kann. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danke, geschätzter Nationalrat Tuena, für diese Frage. Ich habe vorhin auf Französisch genau das gesagt: dass wir sämtliche Empfehlungen dieses Berichtes der Eidgenössischen Finanzkontrolle ernst nehmen werden. Das ist übrigens auch der Grund, warum wir, seit ich im Amt bin, nicht darauf gepocht haben, zusätzliche Stellen zu bekommen: Wir wollen zuerst eine saubere Grundlage, um Entscheide zu treffen. Die Eidgenössische Finanzkontrolle, Sie wissen das, ist sehr streng mit den eigenen Ressourcen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danke, geschätzter Nationalrat Tuena, für diese Frage. Ich habe vorhin auf Französisch genau das gesagt: dass wir sämtliche Empfehlungen dieses Berichtes der Eidgenössischen Finanzkontrolle ernst nehmen werden. Das ist übrigens auch der Grund, warum wir, seit ich im Amt bin, nicht darauf gepocht haben, zusätzliche Stellen zu bekommen: Wir wollen zuerst eine saubere Grundlage, um Entscheide zu treffen. Die Eidgenössische Finanzkontrolle, Sie wissen das, ist sehr streng mit den eigenen Ressourcen eines Amtes. Sie macht überall, wo sie Einsparungspotenzial oder Verschiebungspotenzial sieht, darauf aufmerksam. Das ist aus unserer Sicht wichtig; das wollen wir ernst nehmen. Die neue Direktorin hat das auch ganz klar so kommuniziert.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Sicherheitslage in Europa und auch in der Schweiz hat sich verschlechtert, das bestätigen alle Bedrohungsanalysen der letzten Zeit. Wir haben es mit komplexen Bedrohungen zu tun, die keine Grenzen kennen: mit organisierter Kriminalität, Terrorismus, Cyberkriminalität. Das Fedpol nimmt in diesen Bereichen für die Sicherheit unseres Landes eine zentrale Rolle ein. Das Fedpol trägt mit der Erfüllung seines gesetzlichen Auftrages entscheidend dazu bei, dass wir das sichere Land bleiben, das wir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Sicherheitslage in Europa und auch in der Schweiz hat sich verschlechtert, das bestätigen alle Bedrohungsanalysen der letzten Zeit. Wir haben es mit komplexen Bedrohungen zu tun, die keine Grenzen kennen: mit organisierter Kriminalität, Terrorismus, Cyberkriminalität. Das Fedpol nimmt in diesen Bereichen für die Sicherheit unseres Landes eine zentrale Rolle ein. Das Fedpol trägt mit der Erfüllung seines gesetzlichen Auftrages entscheidend dazu bei, dass wir das sichere Land bleiben, das wir sind und auch bleiben wollen.
+Der Aufwand und die Belastung in der inneren Sicherheit sind aber merklich angestiegen. Besonders betroffen ist die Bundeskriminalpolizei (BKP). Sie steht unter Druck. Die Zahl und die Komplexität der Fälle nehmen laufend zu. Das schlägt sich in der Arbeitsrealität spürbar nieder. Es überrascht deshalb nicht, dass in jüngster Zeit vermehrt Stimmen laut wurden, die auf die kritische Ressourcensituation gerade in diesem Bereich des Fedpol hinweisen. Zu diesen Stimmen gehört unter anderem der Bundesanwalt.
+Der Bundesrat nimmt diese Signale ernst - Sicherheit im eigenen Land ist ein hohes Gut. Es gibt in europäischen Staaten Beispiele, die zeigen, wo Probleme in der inneren Sicherheit hinführen können: zu zunehmender und offener Gewalt auf den Strassen.
+Sie hatten das Thema der Ressourcen beim Fedpol mit dem Postulat 23.4349 der FK-N ebenfalls aufgenommen. Der Bundesrat hat auf Grundlage dieses Postulates die Eidgenössische Finanzkontrolle beauftragt, die Ressourcensituation beim Fedpol zu prüfen. Der Prüfbericht liegt mittlerweile vor, und auch dort sind die Aussagen klar: Bei der BKP bestehe ein struktureller Ressourcenmangel. Der Personalbestand reiche nicht aus, um der steigenden Anzahl Fälle und den immer komplexeren Herausforderungen der heutigen Strafverfolgung gerecht zu werden. Das sind die Hauptaussagen des EFK-Prüfberichtes. Der Bundesrat wird noch in diesem Monat den Bericht in Erfüllung des Postulates der FK-N verabschieden. Grundlage dafür ist der Prüfbericht der Eidgenössischen Finanzkontrolle, aus dem der Bundesrat seine eigenen Schlüsse ziehen wird.
+Was ich Ihnen aber bereits sagen kann: Das EJPD definiert auf Basis der Resultate des EFK-Berichtes in Zusammenarbeit mit der Bundesanwaltschaft das weitere Vorgehen für einen möglichen Stellenaufbau, mit dem Ziel, die Ermittlungskapazitäten der BKP gezielt zu stärken. Am sinnvollsten wäre, wie es auch die vorliegende Motion verlangt, eine etappenweise personelle Verstärkung der BKP. Eine solche personelle Verstärkung müssen wir als EJPD in den ordentlichen Budgetprozess des Bundes eingeben und so beim Bundesrat die Genehmigung beantragen. Genau das werden wir auch tun, wobei zu beachten ist, dass entsprechende Mittel, falls sie denn vom Bundesrat genehmigt würden, frühestens ab 2027 zur Verfügung stünden. Sollten zusätzliche Ressourcen für das Fedpol und namentlich für die BKP gesprochen werden, könnten damit gezielt Stellen geschaffen werden, dort, wo die Not am grössten ist und wo sie den grössten Beitrag zur Sicherheit leisten könnten.
+Die Position und Schlussfolgerungen des Bundesrates zum Prüfbericht der EFK kann ich noch nicht vorwegnehmen; wie gesagt, wird sich der Bundesrat noch in diesem Monat dazu äussern. Der Bundesrat empfiehlt aber die vorliegende Motion zur Ablehnung. Die Gründe dafür sind primär grundsätzlicher Natur. Der Bundesrat will, dass die personelle und finanzielle Ausstattung der Bundesverwaltung über den ordentlichen Budgetprozess gesteuert wird. Das ist ein Grundsatzentscheid, der dem Bundesrat wichtig ist. Der Bundesrat anerkennt die Wichtigkeit der Arbeit des Fedpol für die innere Sicherheit des Landes. Er anerkennt auch den zunehmenden Druck aufgrund der allgemeinen Sicherheitslage. Der Bundesrat will aber Entscheide über Ressourcenzuteilungen im Rahmen der dafür üblichen Prozesse fällen. 
+Lassen Sie mich abschliessend noch auf folgenden Punkt hinweisen: Investitionen in die innere Sicherheit können sich lohnen, nicht nur punkto Sicherheit, sondern auch finanziell. Der konsequente Kampf gegen die internationale organisierte Kriminalität führt regelmässig zur Sicherstellung und Einziehung erheblicher Vermögenswerte. So blockierte die Bundesanwaltschaft etwa 2022 rund 117 Millionen Franken. 2021 beliefen sich die eingezogenen Beträge sogar auf 700 Millionen Franken, die direkt der Staatskasse zugutekamen. Dieser Aspekt ist bei der Diskussion über eine personelle Verstärkung von Ermittlungskapazitäten bei der Bundeskriminalpolizei, die direkt der Bundesanwaltschaft zugutekommen, ebenfalls zu berücksichtigen. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hurter Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frau Kommissionssprecherin, Sie haben zu Recht erwähnt, dass der Bericht der Eidgenössischen Finanzkontrolle bei unseren Beratungen noch nicht vorlag. Sie haben den Inhalt erwähnt, aber nicht, dass im [PAGE 1579] Bericht steht, dass in den letzten Jahren vor allem bei den Stabsstellen aufgebaut wurde. Ist das korrekt oder nicht?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De Ventura Linda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Handlungsfähigkeit des Bundesamtes für Polizei (Fedpol) ist zentral für die innere Sicherheit der Schweiz. Doch genau diese Handlungsfähigkeit ist gefährdet, weil das Fedpol über zu wenig personelle Ressourcen verfügt, um gegen schwere Kriminalität vorzugehen. Unsere Kommissionsmotion möchte das ändern und dafür sorgen, dass das Fedpol wieder ausreichend Ressourcen hat, um seinen Auftrag für die Sicherheit der Schweiz zu erfüllen.
+Was fordert die Kommissionsmotion? Der Bundesrat wird damit b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Handlungsfähigkeit des Bundesamtes für Polizei (Fedpol) ist zentral für die innere Sicherheit der Schweiz. Doch genau diese Handlungsfähigkeit ist gefährdet, weil das Fedpol über zu wenig personelle Ressourcen verfügt, um gegen schwere Kriminalität vorzugehen. Unsere Kommissionsmotion möchte das ändern und dafür sorgen, dass das Fedpol wieder ausreichend Ressourcen hat, um seinen Auftrag für die Sicherheit der Schweiz zu erfüllen.
+Was fordert die Kommissionsmotion? Der Bundesrat wird damit beauftragt, den Personalbestand des Fedpol über einen Zeitraum von zehn Jahren jährlich um 10 bis 20 Stellen aufzustocken. Bis ins Jahr 2035 sollen so 100 bis 200 neue Stellen geschaffen werden, gezielt in den Bereichen Ermittlungen, Analyse, IT-Forensik und internationale Zusammenarbeit. Ziel ist es, die schwere Kriminalität auf Bundesebene wirksam bekämpfen zu können.
+Die Schweiz gilt als sicheres und stabiles Land. Doch genau diese Stabilität, kombiniert mit unserer zentralen Lage und der Bedeutung unseres Finanzplatzes, macht uns auch anfällig für organisierte Kriminalität. Der Nachrichtendienst des Bundes ordnet die Bedrohung durch organisierte Kriminalität seit zwei Jahren auf der zweithöchsten Stufe ein. Die Schweiz ist nicht nur Transitland, sondern auch Zielmarkt und Geldwaschplatz. Menschenhandel, Zwangsprostitution, Scheinfirmen, Terrorismus, Geldwäscherei und digitale Angriffe sind auch bei uns Realität; der technologische Wandel und die zunehmende internationale Verflechtung verschärfen die Lage zusätzlich. So nehmen Drohungsmeldungen zu, und bei der Meldestelle für Geldwäscherei haben sich die Verdachtsmeldungen in den letzten zwei Jahren verdoppelt. Auch im Bereich der Kinderpornografie im Internet steigen die Zahlen weiter an. Gleichzeitig steigen die Anforderungen an die Ermittlung, insbesondere hinsichtlich der Gerichtsverwertbarkeit. 
+Die Situation ist umso ernster, als der Personalbestand in den letzten zehn Jahren um 10 Prozent zurückgegangen ist, obwohl die Fälle zunehmend schwieriger und komplexer werden. Die mangelnden Ressourcen haben Folgen. Die Aufsichtsbehörde über die Bundesanwaltschaft hält Mitte 2024 im Rahmen einer Inspektion fest, dass rund zwanzig Strafverfahren im Bereich kriminelle Organisationen nicht geführt werden konnten, schlicht wegen fehlenden Ermittlungsressourcen. Der Bundesanwalt bestätigt in seinem Jahresbericht, dass teilweise ganz auf Verfahren verzichtet werden musste oder sie nur mit Hilfe der kantonalen Polizeikorps weitergeführt werden konnten. Täter schwerster Kriminalität bleiben so auf freiem Fuss; das ist nicht akzeptabel.
+Die Mehrheit unserer Kommission ist daher überzeugt: Wir müssen handeln, und zwar jetzt - je schneller, desto besser. 
+Eine Minderheit unserer Kommission lehnt die Motion ab. Sie hält die Personalaufstockung für verfrüht und will zunächst den Bericht der Eidgenössischen Finanzkontrolle (EFK) sowie die angekündigte nationale Strategie zur Bekämpfung der organisierten Kriminalität abwarten. Der Bericht der EFK zur umfassenden Prüfung der Ressourcensituation beim Bundesamt für Polizei lag zum Zeitpunkt der Kommissionsberatung noch nicht vor. Unterdessen wurde er aber veröffentlicht. Die EFK kommt zum Schluss, dass die Bundeskriminalpolizei nicht genügend Personal habe, um ihren Auftrag zu erfüllen. Die Folgen seien Verzögerungen oder sogar der Verzicht auf Verfahren, mit direkten Auswirkungen auf die innere Sicherheit.
+So konnte die EFK beobachten, dass im gemeinsamen Steuerungsausschuss Ressourcen von Bundesanwaltschaft und Bundeskriminalpolizei auch grössere Fälle nicht weiterverfolgt werden konnten. Allein für die Zeit von Januar bis April 2025 umfasst die sogenannte Verzichtsliste 40 Fälle. In der Abteilung "Staatsschutz, Kriminelle Organisationen" bestanden zum Prüfungszeitpunkt 25 aufgeschobene Verfahren. Das kann aufgrund des Beschleunigungsgebots zu milderer Bestrafung der Täter führen. Die EFK befürwortet deshalb explizit einen schrittweisen Ausbau der Ermittlungsabteilungen bei der Bundeskriminalpolizei, sofern dieser mit den sicherheitspolitischen Prioritäten des Bundesrates abgestimmt erfolgt.
+Somit kommen die EFK, die Aufsichtsbehörde über die Bundesanwaltschaft, der Bundesanwalt, die Direktion des Fedpol und die Mehrheit unserer Kommission alle zum gleichen Schluss: Das Fedpol braucht dringend mehr Ressourcen, um schwere Kriminalität wirksam und erfolgreich zu bekämpfen. 
+Unsere Kommission empfiehlt Ihnen deshalb mit 13 zu 9 Stimmen bei 3 Enthaltungen, diese Motion anzunehmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madame de Quattro, comme vous l'avez déjà mentionné, notre commission n'avait pas le rapport du Contrôle fédéral des finances lors de notre discussion. Est-il juste qu'il est écrit dans ce rapport qu'on a surtout augmenté les postes dans le service d'état-major plutôt que les postes relatifs aux opérations[NB]?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pahud Yvan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Contrôle fédéral des finances, dans son rapport d'audit, soulève effectivement la question d'un renforcement du personnel, renforcement que je soutiens. Par contre, il met également en évidence de gros problèmes de fonctionnement et d'organisation. Si l'on accepte donc cette motion, mènerez-vous des réformes au sein de Fedpol pour un meilleur fonctionnement de Fedpol[NB]?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn Sie auch schon so lange hier sind wie ich - ich bin im vierzehnten Jahr hier -, haben Sie sicher bemerkt, dass ich mich nicht als Gesundheitspolitiker oder Gesundheitsexperte exponiert habe. Das muss man aber auch nicht sein - man muss kein Experte sein, um zur Erkenntnis zu gelangen, dass ein Gesundheitssystem, das für sich zu Recht in Anspruch nimmt, eine hochstehende Qualität zu haben, am Schluss auch bezahlbar sein muss. Über 2,2 Millionen Menschen in unserem Land können ihre Krankenkas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn Sie auch schon so lange hier sind wie ich - ich bin im vierzehnten Jahr hier -, haben Sie sicher bemerkt, dass ich mich nicht als Gesundheitspolitiker oder Gesundheitsexperte exponiert habe. Das muss man aber auch nicht sein - man muss kein Experte sein, um zur Erkenntnis zu gelangen, dass ein Gesundheitssystem, das für sich zu Recht in Anspruch nimmt, eine hochstehende Qualität zu haben, am Schluss auch bezahlbar sein muss. Über 2,2 Millionen Menschen in unserem Land können ihre Krankenkassenprämien nicht selbst bezahlen, und ihr Anteil steigt. Daher muss es ein gesellschaftliches Anliegen sein, Kosteneinsparungen dort realisieren zu wollen, wo sie sich ohne Qualitätsverlust erreichen lassen. Wir haben heute im Verlaufe des Vormittags anhand verschiedener Motionen darüber gesprochen, wo allfällige Kostenreduktionen im Gesundheitswesen denkbar wären. Ich verfolge diese politischen Diskussionen jetzt über Jahre hinweg und höre immer wieder viele gute Ideen dazu, wo es Einsparmöglichkeiten gibt und was man tun könnte. Umgesetzte und verbindliche Massnahmen sind indessen selten.
+Mit meiner Motion greife ich einen Regelungsbereich ausserhalb der zwischen Leistungserbringern und Krankenversicherern ausgehandelten Tarife für medizinische Leistungen auf. Mein Vorstoss zielt auf die sogenannten Amtstarife ab. Diese werden von der zuständigen Behörde, von der Verwaltung, vom Departement festgelegt und gelangen etwa für Medikamente, Laboranalysen und Hilfsmittel zur Anwendung. Für rund 60 Prozent der Kosten unserer Krankenversicherung sind die ausgehandelten Tarife relevant, also die von den Tarifpartnern - den Krankenversicherern und den Leistungserbringern - ausgehandelten Preise. Immerhin für 40 Prozent der Kosten sind es jedoch die durch den Bund bzw. durch die Verwaltung festgelegten Preise. Bei einem aktuellen Prämienvolumen von 40,5 Milliarden Franken machen 40 Prozent etwa 16 Milliarden Franken im Jahr aus, dies für Leistungen, bei denen die Behörde Tarife und Preise festlegt und bei denen es der Bund also in der Hand hätte, auf die Kostenentwicklung direkt Einfluss zu nehmen.
+Auf die einzelnen Bereiche der Amtstarife entfallen folgende Anteile an den Gesamtkosten: 6,6 Prozent entfallen auf Medikamente, die von den Ärzten abgegeben werden; 11,5 Prozent auf Medikamente, die von den Apotheken abgegeben werden; 4 Prozent auf Medikamente in den Spitälern; 4,5 Prozent auf Analysen sowie 0,4 Prozent auf Rettungstransporte. Sie sehen also ein ganzes Sammelsurium an Produkten und medizinischen Leistungen, deren Tarife und Preise nicht ausgehandelt werden, sondern durch den Bund bzw. durch die Verwaltung festgelegt werden dürfen.
+Ein Bericht der Eidgenössischen Finanzkontrolle aus dem Jahr 2024 widmete sich der Frage, ob die Prozesse zur Sicherstellung der Kostenrealität im medizinischen Tarifwesen genügend seien. Im KVG dürfen bekanntlich Tarife höchstens [PAGE 954] die effektiven und für eine effiziente Leistungserbringung erforderlichen Kosten decken. Das ist die zentrale Vorgabe, die im Bericht der Finanzkontrolle, der öffentlich ist, unter dem Begriff "Kostenrealität" zusammengefasst wird.
+Eine der Schlussfolgerungen, die dem Bericht zu entnehmen sind, ist die folgende: Die Eidgenössische Finanzkontrolle fand keine Hinweise, dass Verhandlungstarife eine bessere Tarifpflege ermöglichen als Amtstarife. Beim Vergleich allerdings mit den Amtstarifen fiel der Eidgenössischen Finanzkontrolle auf, dass dort die neuen Kompetenzen für Datenzugriffe nicht gelten. Obwohl also der Bund diese Tarifstrukturen selbst festlegt, hat er gegenüber den Leistungserbringern weniger Handhabe. Für eine zweckmässige und kostenreale Struktur ist er aber auf die Mitwirkung der Leistungserbringer angewiesen.
+Die Schlussfolgerung der Eidgenössischen Finanzkontrolle daraus ist: Das Eidgenössische Departement des Innern wird angehalten oder es wird ihm empfohlen, bei der nächsten Gesetzesrevision darauf hinzuwirken, auch bei den Amtstarifen mehr Kompetenzen zu erhalten, um bei Bedarf die erforderlichen Daten bei den Leistungserbringern einfordern zu können. Das ist an und für sich eine einfache Empfehlung, die durchaus dazu beitragen könnte, die Kostenrealität bei den Amtstarifen besser zu überwachen.
+Auf diese gesetzgeberische Lücke zielt mein Vorstoss; es ist nichts Spektakuläres. Der Vorstoss verlangt nicht - ich hätte das auch hineinschreiben können -, dass die den Amtstarifen unterliegenden medizinischen Leistungen und Produkte um 10 Prozent günstiger werden sollen. Der Vorstoss verlangt nur, aber immerhin, dass das Krankenversicherungsgesetz im Sinne des Berichtes der Finanzkontrolle derart zu ergänzen ist, dass der Bund auch bei den Amtstarifen eine Überwachung der Kosten, wenn diese übermässig steigen, durchführen kann, dies analog zu den Tarifpartnern in Artikel 47c.
+Was sagt der Bundesrat in der Stellungnahme zu diesem Vorstoss? Er anerkennt diesbezügliche Lücken im geltenden Krankenversicherungsgesetz. Er will aber eine Auslegeordnung vornehmen, bevor er eine Gesetzesanpassung in Erwägung zieht. In dieser Argumentation liegt ein Stück weit ein gewisser Widerspruch: Einerseits wird nicht von der Hand gewiesen, dass man über lückenhafte Grundlagen verfügt, um die Kostenrealität der Amtstarife überprüfen zu können. Andererseits schiebt man diese Gesetzesrevision hinaus und nimmt damit in Kauf, dass über längere Zeit die Grundlagen fehlen, um diese Überprüfung der Kostenrealität vorzunehmen.
+Ich erzähle Ihnen noch eine interessante Begebenheit: Wir bekommen vor einer Session ja Unmengen an Post, vor allem auch von der Gesundheitsbranche. Uns schreiben Vertreter von Apotheken, Spitälern, Heimen, Versicherungen und anderen Organisationen, was sie von unseren Vorstössen halten. Ich war natürlich gespannt, zu erfahren, was diese Organisationen - ohne sie beim Namen zu nennen - zu diesem Vorstoss sagen.
+Ein erster Verband unterstützt die Forderung. Er schreibt: "Es ist folgerichtig, dass der Bund bei den Amtstarifen ebenfalls seinen Beitrag an die Kostendämpfung zu leisten hat. Damit würden die gleichen Regeln für den Bund und die Tarifpartner gelten." Eine zweite nationale Organisation schreibt: "Die Motion hat zum Ziel, den Bund bei der Kostenüberwachung und -dämpfung verstärkt in die Verantwortung zu nehmen. Heute sind lediglich die Tarifpartner verpflichtet, Kosten zu monitoren und bei unberechtigter Mengenausweitung Massnahmen zu ergreifen." Ein paar Zeilen später schreibt die Organisation, auch für die Amtstarife brauche es eine Ergänzung im Krankenversicherungsgesetz, analog zu Artikel 47c. Auch dieser Verband unterstützt also die mit dem Vorstoss eingebrachte Forderung. Ein dritter, ebenfalls grosser Verband schreibt immerhin, er könne das Anliegen nach mehr Transparenz zur Kostenentwicklung in der obligatorischen Krankenversicherung nachvollziehen. Dem vorgeschlagenen Ansatz - der Ausweitung des Monitorings von Tarifverträgen auf die sogenannten Amtstarife - stehe er aber sehr kritisch gegenüber. Schliesslich sei es zentral, dass die bestehende Kostenüberwachung zur Sicherstellung der betriebswirtschaftlichen Tarife genutzt werde. Und die letzte Empfehlung, die ich bekommen habe - ich nehme an, Sie lesen jeweils auch all diese Schreiben, die Sie vor einer Session erreichen -, lehnt den Vorstoss rigoros ab. Der Verband lehnt diese Motion dezidiert ab, und er schreibt im letzten Satz, es könne nicht ausgeschlossen werden, dass die Überwachung der Kosten zu Kollateralschäden zulasten der Patientinnen und Patienten führen könnte. 
+Sie sehen also, die Organisationen, die sich zum Vorstoss gemeldet haben, beurteilen den Vorstoss unterschiedlich. Der Bundesrat schreibt zwar, er werde allenfalls später eine Gesetzesänderung vorlegen, aber ich möchte Sie bitten, diesen Vorstoss jetzt zu unterstützen und damit einem Nichtgesundheitspolitiker einmal die Möglichkeit einzuräumen, einen wenn auch kleinen Beitrag zur Kostendämpfung im Gesundheitswesen zu leisten.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La surveillance des coûts dans le domaine de la santé constitue une préoccupation centrale et pérenne. Il s'agit de surveiller l'évolution des coûts liés aux tarifs officiels, comme dans le cas de la liste de spécialités, la liste des médicaments avec tarif ou encore la liste des analyses pour les laboratoires. Le Conseil fédéral prend au sérieux les requêtes de l'auteur de la motion et il en a pris bonne note. 
+Cela étant, les bases légales en vigueur permettent déjà d'appliquer une surveillanc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La surveillance des coûts dans le domaine de la santé constitue une préoccupation centrale et pérenne. Il s'agit de surveiller l'évolution des coûts liés aux tarifs officiels, comme dans le cas de la liste de spécialités, la liste des médicaments avec tarif ou encore la liste des analyses pour les laboratoires. Le Conseil fédéral prend au sérieux les requêtes de l'auteur de la motion et il en a pris bonne note. 
+Cela étant, les bases légales en vigueur permettent déjà d'appliquer une surveillance générale de l'évolution des coûts des tarifs officiels. Tous les médicaments sont en principe soumis à un réexamen, à un rythme triennal, portant sur les critères d'efficacité, d'adéquation et d'économicité. Cette mesure permet de garantir que les exigences légales qui relèvent de la prise en charge des coûts par l'assurance obligatoire des soins sont bien respectées. Le réexamen des médicaments mené en 2024, par exemple, devrait permettre d'économiser un montant de l'ordre de 90 millions de francs, qui s'ajouteront aux 165 millions de francs économisés l'année précédente. Ces contrôles sont faits. En outre, des modèles de prix sont appliqués afin de continuer à freiner l'évolution des coûts des médicaments. 
+Par ailleurs, ce printemps, le Parlement a adopté des modèles d'impact budgétaire pour les médicaments générant un chiffre d'affaires élevé. Dans la liste des analyses, l'évolution des volumes et du chiffre d'affaires est suivie depuis 2008. Un rapport de monitorage complet est publié à ce sujet tous les trois ans et une fiche d'information présente chaque année les principaux chiffres clés. Ainsi, au 1er décembre 2020, le tarif des analyses PCR en microbiologie a été réduit. À partir de juillet 2022, le remboursement des tests de vitamine D a été limité et les tarifs de toutes les analyses de laboratoire ont été réduits de 10 pour cent au 1er août 2022, à l'exception des analyses rapides. Depuis leur introduction, ces mesures concernent la liste des analyses et ont donc permis d'économiser environ 560 millions de francs jusqu'à la fin de l'année 2023. 
+Concernant la liste des moyens et appareils, un premier rapport de monitorage sur l'évolution des coûts bruts des prestations à la charge de l'assurance obligatoire des soins a également été publié en octobre 2024. Le pool tarifaire de Sasis SA et les statistiques de l'assurance obligatoire des soins servent de bases de données pour observer l'évolution des volumes et du chiffre d'affaires. Il manque parfois une base juridique obligeant les acteurs concernés, en particulier les fournisseurs de prestations, à livrer aux autorités les données nécessaires à la mise à jour des tarifs officiels. Actuellement, pour obtenir des données, l'autorité chargée de mettre à jour les tarifs dépend de la bonne volonté des fournisseurs de prestations. À ce sujet, j'en conviens, la motion serait un plus. 
+En raison de la granularité insuffisante des données, il n'est actuellement pas possible d'effectuer un monitorage efficace des coûts des différents médicaments ou domaines d'indication, de même que des groupes spécifiques de patientes ou patients. Il serait pertinent d'obtenir des données exactes ou des données actualisées pour définir les tarifs et les montants des rémunérations de manière économique et de manière appropriée. Avec des données plus précises, il serait [PAGE 955] également possible de prendre des mesures ciblées en fonction de l'évolution des coûts.
+Dans le cadre des discussions relatives à l'initiative parlementaire Eder 16.411, le Conseil fédéral avait déjà exprimé le souhait de pouvoir collecter des données individuelles pour certaines positions tarifaires, mais le Parlement s'était toutefois opposé à cette idée au motif que la collecte de données individuelles auprès des assureurs-maladie devait d'abord faire ses preuves avant d'être étendue aux différentes positions tarifaires. En outre, le Contrôle fédéral des finances souligne, dans son rapport de décembre 2024, que, pour mieux gérer les tarifs officiels, il faut disposer de compétences supplémentaires pour accéder aux données des fournisseurs de prestations. Comme je viens de le dire, il manque certains accès aux données. 
+Le Conseil fédéral est disposé à dresser un état des lieux concernant la fourniture des données et, le cas échéant, à proposer au Parlement une modification de la loi. La surveillance des tarifs officiels est déjà possible aujourd'hui. Elle est effectuée en grande partie. Des lacunes juridiques existent concernant l'obligation de fournir des données - j'insiste[NB]: l'obligation de fournir des données, et non pas concernant le fait que l'on fasse le monitorage ou non. Le Conseil fédéral procédera donc à un état des lieux. Nous sommes arrivés à une situation où les éléments de la motion sont déjà pris en considération. Le Conseil fédéral vous propose donc de la rejeter. Nous avons régulièrement des discussions. Je ne sais pas si vous les avez aussi. Lorsque les éléments sont réunis, il faut accepter la motion ou la rejeter, sachant que les éléments qui permettent le monitorage sont d'ores et déjà possibles. 
+C'est dans ce cadre que le Conseil fédéral vous invite au rejet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20250924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le projet de loi que nous traitons aujourd'hui vise à adapter la loi fédérale permettant d'étendre le champ d'application de la convention collective de travail (LECCT). L'objectif du projet est d'accroître la transparence sur les moyens financiers des caisses des commissions paritaires (CP) des conventions collectives de travail (CCT) étendues au niveau fédéral. Il trouve son origine dans la motion 21.3599 de la Commission de l'économie et des redevances du Conseil national, "Transparence sur l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le projet de loi que nous traitons aujourd'hui vise à adapter la loi fédérale permettant d'étendre le champ d'application de la convention collective de travail (LECCT). L'objectif du projet est d'accroître la transparence sur les moyens financiers des caisses des commissions paritaires (CP) des conventions collectives de travail (CCT) étendues au niveau fédéral. Il trouve son origine dans la motion 21.3599 de la Commission de l'économie et des redevances du Conseil national, "Transparence sur les moyens financiers des commissions paritaires". Cette motion chargeait le Conseil fédéral de prendre deux types de mesures[NB]: premièrement, les mesures nécessaires pour que les caisses des CP des CCT étendues au niveau fédéral soient tenues, d'une part, de publier leur rapport annuel comptable et, d'autre part, de rendre des comptes sur le but des moyens à disposition dans le capital des fonds et sur leur utilisation[NB]; deuxièmement, les mesures permettant au Secrétariat d'État à l'économie (SECO) de confier l'audit financier au Contrôle fédéral des finances (CDF) ou à des experts autres, internes ou externes à l'administration.
+Le Conseil fédéral s'était opposé à la motion. Il faisait valoir, d'une part, que les deux premiers objectifs de la motion visant la transparence financière étaient d'ores et déjà réalisés, dès lors que les comptes de ces caisses pouvaient être sollicités en vertu de la loi sur la transparence auprès de l'autorité de surveillance, le SECO, et que la troisième demande relative à l'audit par le CDF était déjà réalisée, puisque celui-ci avait déjà planifié son programme et que ce dernier comportait un audit du système de contrôle des comptes des caisses des CP des CCT étendues. La motion fut néanmoins adoptée en 2022 par les deux chambres. 
+En 2023, le CDF a publié son rapport sur la surveillance exercée par le SECO sur les caisses des CP des CCT étendues au niveau fédéral. Le CDF a mis en exergue la bonne qualité de la surveillance exercée par le SECO, avec quelques recommandations d'amélioration des processus, acceptées par celui-ci.
+À la suite de cela, le Conseil fédéral a soumis le projet au Parlement. Ce projet du Conseil fédéral porte donc uniquement sur le premier point de la motion relatif à la publication du rapport annuel des comptes des CP. En effet, comme le rappelle le Conseil fédéral dans le message, les deux dernières demandes mentionnées dans la motion sont déjà remplies. En effet, en ce qui concerne le contrôle de l'utilisation des fonds, les CP des CCT étendues au niveau fédéral sont déjà tenues de remettre chaque année au SECO leur comptabilité sur les contributions aux frais d'exécution des CCT en vertu des articles 3 et 5 LECCT. Le SECO, en sa qualité d'autorité de surveillance, vérifie que ces contributions soient utilisées conformément aux directives relatives aux contributions.
+S'agissant de la demande relative aux audits, le SECO peut, en tant qu'autorité de surveillance, faire appel à des experts internes ou externes à l'administration fédérale pour effectuer l'audit financier. Il a d'ailleurs déjà eu recours à cette possibilité.
+Le projet du Conseil fédéral ne prévoit toutefois pas une obligation de publication des comptes des caisses des CP comme le demandait la motion, mais simplement un droit de consultation des comptes annuels des CP pour les employeurs et les travailleurs soumis à la CCT étendue au niveau fédéral. Cette solution a été retenue, car l'obligation de publication des comptes aurait violé des dispositions constitutionnelles et aurait créé une inégalité de traitement entre associations dès lors que les CP des CCT sont constituées sous forme d'associations et que les associations, contrairement aux sociétés cotées en bourse, n'ont pas d'obligation de publication des comptes. Cette solution proposée par le Conseil fédéral a été largement approuvée lors de la procédure de consultation.
+On peut encore signaler que, comme l'affirmait le Conseil fédéral dans sa réponse à la motion, lors des auditions des partenaires sociaux menées par la Commission de l'économie et des redevances du Conseil national, il a été confirmé par ceux-ci que les rapports financiers des caisses des CCT étendues au niveau fédéral sont, pour la plupart, aujourd'hui déjà, disponibles pour la consultation.
+Le projet a été traité en commission le 28 août dernier. Il a été adopté par la commission sans modification ni autre proposition, à l'unanimité. Il convient encore de rappeler qu'il avait également été adopté, sans modification, à l'unanimité, par le Conseil national en date du 17 juin 2024.
+Je vous invite donc, au nom de la commission, à entrer en matière et à adopter le projet.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">364841</t>
   </si>
   <si>
     <t xml:space="preserve">20251202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hegglin Peter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
   </si>
   <si>
     <t xml:space="preserve">Der Bundesrat hat uns für 2026 einen Voranschlag mit einem schuldenbremsenkonformen Budget mit einem Handlungsspielraum von 108 Millionen Franken unterbreitet. Dabei darf aber nicht übersehen werden, dass wir 2026 trotzdem ein Finanzierungsdefizit von 845 Millionen Franken haben, zumal sich der Bund dann in diesem Umfang neu verschulden muss. Dieses Ergebnis kommt aber auch nur dank umfangreichen Bereinigungsmassnahmen in den Jahren 2024 und 2025, der guten Einnahmenentwicklung und einer teilwei</t>
@@ -92,12 +3293,6 @@
     <t xml:space="preserve">365062</t>
   </si>
   <si>
-    <t xml:space="preserve">Binder-Keller Marianne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Die Einschätzung, dass das Fedpol mehr Mittel braucht, ist nicht aus der Luft gegriffen. Der Bundesrat hat die Ressourcensituation selbst analysiert, dies aufgrund eines Postulates, wie das auch der Vertreter der Minderheit II erwähnt hat. Die EFK überprüfte das dann und kam zum klaren Schluss, dass das Fedpol seinen Auftrag mit den aktuellen Mitteln nicht erfüllen kann.[NB]Es[NB]wurden[NB]auch strukturelle Defizite festgestellt - auch das wurde erwähnt -, die analysiert und angegangen worden si</t>
   </si>
   <si>
@@ -113,12 +3308,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zopfi Mathias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GL</t>
   </si>
   <si>
     <t xml:space="preserve">Der Antrag meiner Minderheit II dürfte vielen von Ihnen bekannt vorkommen. Diejenigen von Ihnen, die in der GPK sind, haben sich damit schon beschäftigt, und diejenigen von Ihnen, die in der SiK sind, haben sich auch bereits mit dieser Problematik beschäftigt. Die Minderheit II will mit ihrem Konzept, das sich dann auch im Finanzplan niederschlägt, jährlich zehn bis zwanzig Stellen beim Fedpol aufbauen, insbesondere im Bereich der Bundeskriminalpolizei. 
@@ -156,12 +3345,6 @@
   </si>
   <si>
     <t xml:space="preserve">365198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engler Stefan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR</t>
   </si>
   <si>
     <t xml:space="preserve">Angenommen - Adopté
@@ -693,15 +3876,6 @@
     <t xml:space="preserve">20251208</t>
   </si>
   <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keller-Sutter Karin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aufgrund eines Einstellungsfehlers in der Veranlagungssoftware konnte die kantonale Steuerverwaltung Genf für rund 60 Unternehmen, die in den vorangegangenen Steuerperioden noch nicht definitiv veranlagt worden waren, keine provisorischen Rechnungen gemäss Artikel 162 des Bundesgesetzes über die direkte Bundessteuer ausstellen. Dieser technische Fehler konnte mittlerweile behoben werden, sodass nun ordnungsgemäss provisorische Rechnungen ausgestellt werden können.
 Der Gesetzgeber hat die Finanza</t>
   </si>
@@ -716,12 +3890,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bürgi Roman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SZ</t>
   </si>
   <si>
     <t xml:space="preserve">Ich begründe meinen Minderheitsantrag zum Funktionsaufwand des Bundesamts für Polizei. Der Bundesrat beantragt ein Globalbudget von 294 Millionen Franken. Die Mehrheit der Kommission möchte diesen Betrag nun um weitere 1,8 Millionen Franken erhöhen. Die SVP-Fraktion lehnt diese Aufstockung ab und beantragt, dem Bundesrat zu folgen. 
@@ -740,12 +3908,6 @@
     <t xml:space="preserve">366005</t>
   </si>
   <si>
-    <t xml:space="preserve">Andrey Gerhard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ja, dieser wichtige EFK-Bericht ist der Finanzkommission natürlich bekannt. Ich würde Ihnen antworten: das eine tun, das andere nicht lassen. Ich bin mit Ihnen natürlich völlig einig, dass die Ressourcen möglichst effizient eingesetzt werden müssen. Aber wenn man genau hinschaut, auch bei den anderen Staatsebenen, sieht man, dass es sich tatsächlich um ein substanzielles Ressourcenproblem handelt. Entsprechend helfen wir da mit.
 Es ist eine spezielle Situation, dass Ihre Fraktion, die Law-and-Or</t>
   </si>
@@ -759,9 +3921,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fischer Benjamin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZH</t>
   </si>
   <si>
     <t xml:space="preserve">Geschätzter Kollege Andrey, ist Ihnen der EFK-Prüfbericht zur Ressourcensituation des Fedpol bekannt? Darin stellt die Eidgenössische Finanzkontrolle Mängel fest und hält auch klar fest, dass es ein Ressourcenproblem, aber auch ein grosses Potenzial gebe und[NB]man[NB]zuerst[NB]intern diese Ressourcen freispielen müsse, bevor das Parlament für das Fedpol wieder zusätzliche Gelder spricht. [PAGE 2103] 
@@ -817,12 +3976,6 @@
     <t xml:space="preserve">20251211</t>
   </si>
   <si>
-    <t xml:space="preserve">Gmür-Schönenberger Andrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hier geht es einmal mehr um unsere Sicherheit. Mit der Motion 25.3941 wird der Bundesrat beauftragt, den Personalbestand des Fedpol über einen Zeitraum von zehn Jahren schrittweise um 10 bis 20 Stellen pro Jahr aufzustocken. Bis 2035 sollen so 100 bis 200 zusätzliche Stellen geschaffen werden. Es fehlen nicht nur Ermittlerinnen und Ermittler, Analystinnen und Analysten sowie Fachpersonen für IT-Forensik, sondern auch Fachpersonen für internationale Zusammenarbeit. Die Motion wurde von der SiK de</t>
   </si>
   <si>
@@ -858,12 +4011,6 @@
     <t xml:space="preserve">367087</t>
   </si>
   <si>
-    <t xml:space="preserve">Jans Beat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mit dieser Motion ist ja vorgesehen, dass die Bundeskriminalpolizei (BKP) personell etappenweise verstärkt wird. Aus unserer Sicht ist das zwingend nötig. Sie und der Nationalrat sehen das erfreulicherweise gleich. Sie haben an der diesjährigen Budgetberatung in beiden Räten beschlossen, dass das Fedpol für das Jahr 2026 vorbehältlich der Schlussabstimmung 1,8 Millionen Franken mehr personelle Mittel bekommt; das entspricht zehn Ermittlerinnen und Ermittlern für die BKP. Das ist ein wichtiger Sc</t>
   </si>
   <si>
@@ -880,15 +4027,6 @@
     <t xml:space="preserve">367106</t>
   </si>
   <si>
-    <t xml:space="preserve">Dittli Josef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ich war in der Kommission zusammen mit Herrn Kollege Salzmann unter denen, die sich enthielten. Wir wollten die Motion aus dem Nationalrat abändern, und zwar dahin gehend, dass der Bund über alle Departemente hinweg eine Kompensation vornehmen soll. Nur setzte sich dieses Anliegen nicht durch, und wir konnten keine Minderheit für eine abgeänderte Motion einreichen. Deshalb enthielt ich mich in der Kommission.
 Mit Enthaltungen lösen wir das Problem der Motion jedoch nicht. Sie liegt jetzt vor uns</t>
   </si>
@@ -903,12 +4041,6 @@
     <t xml:space="preserve">367062</t>
   </si>
   <si>
-    <t xml:space="preserve">Juillard Charles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JU</t>
-  </si>
-  <si>
     <t xml:space="preserve">Je vais m'exprimer en tant que membre de la Commission de la politique de sécurité, mais aussi en tant que membre et ancien président de la Commission de gestion, puisque nous avons abordé la question des effectifs de Fedpol à plusieurs reprises lors des séances de la Commission de gestion, et que nous sommes arrivés à la conclusion qu'il y avait un vrai problème d'effectifs concernant les enquêteurs de Fedpol. C'est aussi dans cet esprit que nous avons écrit au Conseil fédéral pour qu'il envisa</t>
   </si>
   <si>
@@ -917,12 +4049,6 @@
   </si>
   <si>
     <t xml:space="preserve">367096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sommaruga Carlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GE</t>
   </si>
   <si>
     <t xml:space="preserve">Je prends la parole en tant que président de la sous-commission de la Commission de gestion qui s'occupe du DFJP et de la Chancellerie fédérale. Ce sujet, nous l'avons traité à plusieurs reprises et le faisons depuis fort longtemps. Nous avons entendu le procureur général de la Confédération, nous avons entendu l'ancienne et la nouvelle directrice de Fedpol et différentes autres personnes. Sur cette base-là, nous avons pu constater de manière claire que les personnes entendues relevaient qu'il y</t>
@@ -943,12 +4069,6 @@
   </si>
   <si>
     <t xml:space="preserve">20251215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parmelin Guy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VD</t>
   </si>
   <si>
     <t xml:space="preserve">Les temps actuels sont caractérisés par une forte incertitude et de grands défis, surtout sur le plan international, avec les tensions géopolitiques, la politique commerciale des États-Unis, des actualités comme l'imposition minimale de l'OCDE et j'en oublie. La réduction des droits de douane américains est un élément important, mais la situation va rester volatile. Avec toutes les actualités internationales, il est essentiel de ne pas perdre le focus sur notre pays, notre économie, nos travaill</t>
@@ -1017,12 +4137,6 @@
     <t xml:space="preserve">20251217</t>
   </si>
   <si>
-    <t xml:space="preserve">Rösti Albert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ich möchte einleitend klar festhalten, dass der Bundesrat und auch ich persönlich zur Dekarbonisierung und zum Fahrplan, den unser Volk verabschiedet hat, stehen. Da besteht kein Zweifel. Ich erinnere aber gleichzeitig daran, dass wir diese Debatte - und ich danke dafür, dass wir sie führen können, es ist eine wichtige Debatte - rund einen Monat nach der Klimakonferenz in Belém abhalten. In Belém ist es nicht gelungen, international mindestens einen Fahrplan, eine Roadmap mit verbindlichen Punkt</t>
   </si>
   <si>
@@ -1047,12 +4161,6 @@
   </si>
   <si>
     <t xml:space="preserve">368193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stark Jakob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TG</t>
   </si>
   <si>
     <t xml:space="preserve">Der Bundesrat beantragt, auf Finanzhilfen des Bundes im Bereich der Weiterbildung zu verzichten. Die Gründe sind folgende: Der Weiterbildungsmarkt ist weitgehend privatwirtschaftlich organisiert. Es gibt in diesem Bereich sehr namhafte Mitnahmeeffekte. Mehrfach schon gab es Kritik der Eidgenössischen Finanzkontrolle daran, wie und wofür diese Beiträge an die Organisationen der Weiterbildung gehen und wie ihre Wirkung ist. Schwergewichtig geht es hier ja um die Förderung der Grundkompetenzen, und</t>
@@ -1178,8 +4286,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I27" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I161" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I161"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="MeetingDate"/>
@@ -1523,581 +4631,581 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E3"/>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
         <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E12"/>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13"/>
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" t="s">
-        <v>85</v>
-      </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
         <v>111</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
       <c r="F22" t="s">
         <v>112</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
         <v>113</v>
@@ -2111,22 +5219,22 @@
         <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>116</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
         <v>118</v>
@@ -2140,78 +5248,80 @@
         <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24"/>
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
         <v>130</v>
@@ -2225,28 +5335,3846 @@
         <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>135</v>
+      </c>
+      <c r="I27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
         <v>133</v>
       </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>155</v>
+      </c>
+      <c r="I32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I33" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>162</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s">
+        <v>169</v>
+      </c>
+      <c r="I35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B37" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>175</v>
+      </c>
+      <c r="I37" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>179</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s">
+        <v>180</v>
+      </c>
+      <c r="I38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>186</v>
+      </c>
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>189</v>
+      </c>
+      <c r="I40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>193</v>
+      </c>
+      <c r="I41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>197</v>
+      </c>
+      <c r="I42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>202</v>
+      </c>
+      <c r="I43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s">
+        <v>206</v>
+      </c>
+      <c r="E44" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>208</v>
+      </c>
+      <c r="I44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+      <c r="E45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>213</v>
+      </c>
+      <c r="I45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" t="s">
+        <v>218</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>221</v>
+      </c>
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" t="s">
+        <v>228</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>229</v>
+      </c>
+      <c r="I48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>231</v>
+      </c>
+      <c r="B49" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>234</v>
+      </c>
+      <c r="I49" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" t="s">
+        <v>226</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s">
+        <v>238</v>
+      </c>
+      <c r="I50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B51" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>242</v>
+      </c>
+      <c r="E51" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" t="s">
+        <v>43</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>246</v>
+      </c>
+      <c r="I52" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s">
+        <v>251</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>252</v>
+      </c>
+      <c r="I53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s">
+        <v>255</v>
+      </c>
+      <c r="I54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>257</v>
+      </c>
+      <c r="B55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s">
+        <v>259</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>260</v>
+      </c>
+      <c r="I55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>262</v>
+      </c>
+      <c r="B56" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>259</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>263</v>
+      </c>
+      <c r="I56" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>265</v>
+      </c>
+      <c r="B57" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>259</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s">
+        <v>266</v>
+      </c>
+      <c r="I57" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>268</v>
+      </c>
+      <c r="B58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>269</v>
+      </c>
+      <c r="I58" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" t="s">
+        <v>272</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>275</v>
+      </c>
+      <c r="B60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>276</v>
+      </c>
+      <c r="I60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B61" t="s">
+        <v>279</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>280</v>
+      </c>
+      <c r="I61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>282</v>
+      </c>
+      <c r="B62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s">
+        <v>284</v>
+      </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s">
+        <v>228</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>285</v>
+      </c>
+      <c r="I62" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>287</v>
+      </c>
+      <c r="B63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" t="s">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s">
+        <v>218</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>288</v>
+      </c>
+      <c r="I63" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>290</v>
+      </c>
+      <c r="B64" t="s">
+        <v>283</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s">
+        <v>291</v>
+      </c>
+      <c r="E64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>292</v>
+      </c>
+      <c r="I64" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>294</v>
+      </c>
+      <c r="B65" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>296</v>
+      </c>
+      <c r="I65" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" t="s">
+        <v>283</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>300</v>
+      </c>
+      <c r="I66" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>302</v>
+      </c>
+      <c r="B67" t="s">
+        <v>283</v>
+      </c>
+      <c r="C67" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s">
+        <v>303</v>
+      </c>
+      <c r="E67" t="s">
+        <v>78</v>
+      </c>
+      <c r="F67" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>304</v>
+      </c>
+      <c r="I67" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>306</v>
+      </c>
+      <c r="B68" t="s">
+        <v>283</v>
+      </c>
+      <c r="C68" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" t="s">
+        <v>308</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>309</v>
+      </c>
+      <c r="I68" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>311</v>
+      </c>
+      <c r="B69" t="s">
+        <v>283</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E69" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" t="s">
+        <v>218</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s">
+        <v>312</v>
+      </c>
+      <c r="I69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>284</v>
+      </c>
+      <c r="E70" t="s">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s">
+        <v>228</v>
+      </c>
+      <c r="G70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s">
+        <v>315</v>
+      </c>
+      <c r="I70" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>317</v>
+      </c>
+      <c r="B71" t="s">
+        <v>318</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>319</v>
+      </c>
+      <c r="E71" t="s">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>320</v>
+      </c>
+      <c r="I71" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>322</v>
+      </c>
+      <c r="B72" t="s">
+        <v>318</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" t="s">
+        <v>323</v>
+      </c>
+      <c r="E72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
+        <v>324</v>
+      </c>
+      <c r="I72" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>326</v>
+      </c>
+      <c r="B73" t="s">
+        <v>318</v>
+      </c>
+      <c r="C73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" t="s">
+        <v>327</v>
+      </c>
+      <c r="E73" t="s">
+        <v>201</v>
+      </c>
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" t="s">
+        <v>328</v>
+      </c>
+      <c r="I73" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>330</v>
+      </c>
+      <c r="B74" t="s">
+        <v>318</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>331</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" t="s">
+        <v>332</v>
+      </c>
+      <c r="I74" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" t="s">
+        <v>318</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" t="s">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s">
+        <v>336</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
+        <v>337</v>
+      </c>
+      <c r="I75" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>339</v>
+      </c>
+      <c r="B76" t="s">
+        <v>318</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>340</v>
+      </c>
+      <c r="E76" t="s">
+        <v>341</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
+        <v>342</v>
+      </c>
+      <c r="I76" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>344</v>
+      </c>
+      <c r="B77" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" t="s">
+        <v>345</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>346</v>
+      </c>
+      <c r="I77" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>348</v>
+      </c>
+      <c r="B78" t="s">
+        <v>318</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s">
+        <v>349</v>
+      </c>
+      <c r="I78" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79" t="s">
+        <v>318</v>
+      </c>
+      <c r="C79" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>352</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="s">
+        <v>117</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s">
+        <v>353</v>
+      </c>
+      <c r="I79" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>355</v>
+      </c>
+      <c r="B80" t="s">
+        <v>356</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
+        <v>303</v>
+      </c>
+      <c r="E80" t="s">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s">
+        <v>357</v>
+      </c>
+      <c r="I80" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>359</v>
+      </c>
+      <c r="B81" t="s">
+        <v>360</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
+        <v>361</v>
+      </c>
+      <c r="E81" t="s">
+        <v>201</v>
+      </c>
+      <c r="F81" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s">
+        <v>362</v>
+      </c>
+      <c r="I81" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>364</v>
+      </c>
+      <c r="B82" t="s">
+        <v>360</v>
+      </c>
+      <c r="C82" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E82" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s">
+        <v>365</v>
+      </c>
+      <c r="I82" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>367</v>
+      </c>
+      <c r="B83" t="s">
+        <v>368</v>
+      </c>
+      <c r="C83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>369</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+      <c r="F83" t="s">
+        <v>98</v>
+      </c>
+      <c r="G83" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s">
+        <v>370</v>
+      </c>
+      <c r="I83" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>372</v>
+      </c>
+      <c r="B84" t="s">
+        <v>368</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>217</v>
+      </c>
+      <c r="E84" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s">
+        <v>218</v>
+      </c>
+      <c r="G84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s">
+        <v>373</v>
+      </c>
+      <c r="I84" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>375</v>
+      </c>
+      <c r="B85" t="s">
+        <v>368</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>187</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" t="s">
+        <v>188</v>
+      </c>
+      <c r="G85" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" t="s">
+        <v>376</v>
+      </c>
+      <c r="I85" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>378</v>
+      </c>
+      <c r="B86" t="s">
+        <v>368</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
+        <v>379</v>
+      </c>
+      <c r="E86" t="s">
+        <v>201</v>
+      </c>
+      <c r="F86" t="s">
+        <v>380</v>
+      </c>
+      <c r="G86" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" t="s">
+        <v>381</v>
+      </c>
+      <c r="I86" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>383</v>
+      </c>
+      <c r="B87" t="s">
+        <v>384</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
+        <v>103</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>385</v>
+      </c>
+      <c r="I87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>387</v>
+      </c>
+      <c r="B88" t="s">
+        <v>384</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
+        <v>388</v>
+      </c>
+      <c r="E88" t="s">
+        <v>201</v>
+      </c>
+      <c r="F88" t="s">
+        <v>341</v>
+      </c>
+      <c r="G88" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" t="s">
+        <v>389</v>
+      </c>
+      <c r="I88" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>391</v>
+      </c>
+      <c r="B89" t="s">
+        <v>384</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>187</v>
+      </c>
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" t="s">
+        <v>188</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>392</v>
+      </c>
+      <c r="I89" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>394</v>
+      </c>
+      <c r="B90" t="s">
+        <v>384</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
+        <v>303</v>
+      </c>
+      <c r="E90" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" t="s">
+        <v>98</v>
+      </c>
+      <c r="G90" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s">
+        <v>395</v>
+      </c>
+      <c r="I90" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>397</v>
+      </c>
+      <c r="B91" t="s">
+        <v>384</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s">
+        <v>398</v>
+      </c>
+      <c r="I91" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>400</v>
+      </c>
+      <c r="B92" t="s">
+        <v>384</v>
+      </c>
+      <c r="C92" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s">
+        <v>401</v>
+      </c>
+      <c r="E92" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" t="s">
+        <v>117</v>
+      </c>
+      <c r="G92" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" t="s">
+        <v>402</v>
+      </c>
+      <c r="I92" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>404</v>
+      </c>
+      <c r="B93" t="s">
+        <v>405</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>22</v>
+      </c>
+      <c r="H93" t="s">
+        <v>406</v>
+      </c>
+      <c r="I93" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>408</v>
+      </c>
+      <c r="B94" t="s">
+        <v>405</v>
+      </c>
+      <c r="C94" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" t="s">
+        <v>179</v>
+      </c>
+      <c r="E94" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" t="s">
+        <v>117</v>
+      </c>
+      <c r="G94" t="s">
+        <v>22</v>
+      </c>
+      <c r="H94" t="s">
+        <v>409</v>
+      </c>
+      <c r="I94" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>411</v>
+      </c>
+      <c r="B95" t="s">
+        <v>412</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>104</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>413</v>
+      </c>
+      <c r="I95" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>415</v>
+      </c>
+      <c r="B96" t="s">
+        <v>416</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s">
         <v>134</v>
       </c>
-      <c r="I27" t="s">
-        <v>135</v>
+      <c r="E96" t="s">
+        <v>78</v>
+      </c>
+      <c r="F96" t="s">
+        <v>104</v>
+      </c>
+      <c r="G96" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s">
+        <v>417</v>
+      </c>
+      <c r="I96" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>419</v>
+      </c>
+      <c r="B97" t="s">
+        <v>420</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" t="s">
+        <v>78</v>
+      </c>
+      <c r="F97" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s">
+        <v>421</v>
+      </c>
+      <c r="I97" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>423</v>
+      </c>
+      <c r="B98" t="s">
+        <v>424</v>
+      </c>
+      <c r="C98" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s">
+        <v>425</v>
+      </c>
+      <c r="I98" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>427</v>
+      </c>
+      <c r="B99" t="s">
+        <v>424</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s">
+        <v>401</v>
+      </c>
+      <c r="E99" t="s">
+        <v>201</v>
+      </c>
+      <c r="F99" t="s">
+        <v>117</v>
+      </c>
+      <c r="G99" t="s">
+        <v>22</v>
+      </c>
+      <c r="H99" t="s">
+        <v>428</v>
+      </c>
+      <c r="I99" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>430</v>
+      </c>
+      <c r="B100" t="s">
+        <v>431</v>
+      </c>
+      <c r="C100" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" t="s">
+        <v>432</v>
+      </c>
+      <c r="E100" t="s">
+        <v>341</v>
+      </c>
+      <c r="F100" t="s">
+        <v>43</v>
+      </c>
+      <c r="G100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s">
+        <v>433</v>
+      </c>
+      <c r="I100" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>435</v>
+      </c>
+      <c r="B101" t="s">
+        <v>436</v>
+      </c>
+      <c r="C101" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" t="s">
+        <v>437</v>
+      </c>
+      <c r="E101" t="s">
+        <v>341</v>
+      </c>
+      <c r="F101" t="s">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s">
+        <v>438</v>
+      </c>
+      <c r="I101" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>440</v>
+      </c>
+      <c r="B102" t="s">
+        <v>436</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" t="s">
+        <v>441</v>
+      </c>
+      <c r="I102" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>443</v>
+      </c>
+      <c r="B103" t="s">
+        <v>436</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s">
+        <v>444</v>
+      </c>
+      <c r="I103" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>446</v>
+      </c>
+      <c r="B104" t="s">
+        <v>447</v>
+      </c>
+      <c r="C104" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" t="s">
+        <v>345</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104" t="s">
+        <v>29</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>448</v>
+      </c>
+      <c r="I104" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>450</v>
+      </c>
+      <c r="B105" t="s">
+        <v>451</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" t="s">
+        <v>55</v>
+      </c>
+      <c r="E105" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" t="s">
+        <v>452</v>
+      </c>
+      <c r="I105" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>454</v>
+      </c>
+      <c r="B106" t="s">
+        <v>451</v>
+      </c>
+      <c r="C106" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s">
+        <v>295</v>
+      </c>
+      <c r="E106" t="s">
+        <v>78</v>
+      </c>
+      <c r="F106" t="s">
+        <v>188</v>
+      </c>
+      <c r="G106" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" t="s">
+        <v>455</v>
+      </c>
+      <c r="I106" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>457</v>
+      </c>
+      <c r="B107" t="s">
+        <v>451</v>
+      </c>
+      <c r="C107" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>22</v>
+      </c>
+      <c r="H107" t="s">
+        <v>458</v>
+      </c>
+      <c r="I107" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>460</v>
+      </c>
+      <c r="B108" t="s">
+        <v>461</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" t="s">
+        <v>462</v>
+      </c>
+      <c r="E108" t="s">
+        <v>341</v>
+      </c>
+      <c r="F108" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H108" t="s">
+        <v>463</v>
+      </c>
+      <c r="I108" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>465</v>
+      </c>
+      <c r="B109" t="s">
+        <v>466</v>
+      </c>
+      <c r="C109" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" t="s">
+        <v>467</v>
+      </c>
+      <c r="E109" t="s">
+        <v>201</v>
+      </c>
+      <c r="F109" t="s">
+        <v>468</v>
+      </c>
+      <c r="G109" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" t="s">
+        <v>469</v>
+      </c>
+      <c r="I109" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>471</v>
+      </c>
+      <c r="B110" t="s">
+        <v>472</v>
+      </c>
+      <c r="C110" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>188</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>473</v>
+      </c>
+      <c r="I110" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>475</v>
+      </c>
+      <c r="B111" t="s">
+        <v>476</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="s">
+        <v>477</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" t="s">
+        <v>478</v>
+      </c>
+      <c r="I111" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>480</v>
+      </c>
+      <c r="B112" t="s">
+        <v>476</v>
+      </c>
+      <c r="C112" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" t="s">
+        <v>481</v>
+      </c>
+      <c r="E112" t="s">
+        <v>201</v>
+      </c>
+      <c r="F112" t="s">
+        <v>163</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
+        <v>482</v>
+      </c>
+      <c r="I112" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>484</v>
+      </c>
+      <c r="B113" t="s">
+        <v>476</v>
+      </c>
+      <c r="C113" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" t="s">
+        <v>37</v>
+      </c>
+      <c r="F113" t="s">
+        <v>79</v>
+      </c>
+      <c r="G113" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" t="s">
+        <v>485</v>
+      </c>
+      <c r="I113" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>487</v>
+      </c>
+      <c r="B114" t="s">
+        <v>476</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" t="s">
+        <v>477</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" t="s">
+        <v>29</v>
+      </c>
+      <c r="G114" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" t="s">
+        <v>488</v>
+      </c>
+      <c r="I114" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>490</v>
+      </c>
+      <c r="B115" t="s">
+        <v>491</v>
+      </c>
+      <c r="C115" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s">
+        <v>206</v>
+      </c>
+      <c r="E115" t="s">
+        <v>201</v>
+      </c>
+      <c r="F115" t="s">
+        <v>207</v>
+      </c>
+      <c r="G115" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" t="s">
+        <v>492</v>
+      </c>
+      <c r="I115" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>494</v>
+      </c>
+      <c r="B116" t="s">
+        <v>491</v>
+      </c>
+      <c r="C116" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s">
+        <v>495</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" t="s">
+        <v>468</v>
+      </c>
+      <c r="G116" t="s">
+        <v>22</v>
+      </c>
+      <c r="H116" t="s">
+        <v>496</v>
+      </c>
+      <c r="I116" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>498</v>
+      </c>
+      <c r="B117" t="s">
+        <v>499</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" t="s">
+        <v>154</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>29</v>
+      </c>
+      <c r="G117" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" t="s">
+        <v>500</v>
+      </c>
+      <c r="I117" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>502</v>
+      </c>
+      <c r="B118" t="s">
+        <v>499</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>154</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" t="s">
+        <v>503</v>
+      </c>
+      <c r="I118" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>505</v>
+      </c>
+      <c r="B119" t="s">
+        <v>499</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" t="s">
+        <v>200</v>
+      </c>
+      <c r="E119" t="s">
+        <v>201</v>
+      </c>
+      <c r="F119" t="s">
+        <v>117</v>
+      </c>
+      <c r="G119" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" t="s">
+        <v>506</v>
+      </c>
+      <c r="I119" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>508</v>
+      </c>
+      <c r="B120" t="s">
+        <v>509</v>
+      </c>
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" t="s">
+        <v>510</v>
+      </c>
+      <c r="E120" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" t="s">
+        <v>104</v>
+      </c>
+      <c r="G120" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" t="s">
+        <v>511</v>
+      </c>
+      <c r="I120" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>513</v>
+      </c>
+      <c r="B121" t="s">
+        <v>509</v>
+      </c>
+      <c r="C121" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" t="s">
+        <v>514</v>
+      </c>
+      <c r="E121" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" t="s">
+        <v>73</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>515</v>
+      </c>
+      <c r="I121" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>517</v>
+      </c>
+      <c r="B122" t="s">
+        <v>509</v>
+      </c>
+      <c r="C122" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" t="s">
+        <v>518</v>
+      </c>
+      <c r="E122" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" t="s">
+        <v>73</v>
+      </c>
+      <c r="G122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>519</v>
+      </c>
+      <c r="I122" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>521</v>
+      </c>
+      <c r="B123" t="s">
+        <v>509</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" t="s">
+        <v>522</v>
+      </c>
+      <c r="E123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" t="s">
+        <v>48</v>
+      </c>
+      <c r="G123" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" t="s">
+        <v>523</v>
+      </c>
+      <c r="I123" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>525</v>
+      </c>
+      <c r="B124" t="s">
+        <v>526</v>
+      </c>
+      <c r="C124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" t="s">
+        <v>527</v>
+      </c>
+      <c r="E124" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
+        <v>528</v>
+      </c>
+      <c r="I124" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>530</v>
+      </c>
+      <c r="B125" t="s">
+        <v>531</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" t="s">
+        <v>532</v>
+      </c>
+      <c r="E125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" t="s">
+        <v>468</v>
+      </c>
+      <c r="G125" t="s">
+        <v>22</v>
+      </c>
+      <c r="H125" t="s">
+        <v>533</v>
+      </c>
+      <c r="I125" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>535</v>
+      </c>
+      <c r="B126" t="s">
+        <v>536</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" t="s">
+        <v>345</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" t="s">
+        <v>537</v>
+      </c>
+      <c r="I126" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>539</v>
+      </c>
+      <c r="B127" t="s">
+        <v>540</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" t="s">
+        <v>84</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
+        <v>541</v>
+      </c>
+      <c r="I127" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>543</v>
+      </c>
+      <c r="B128" t="s">
+        <v>540</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" t="s">
+        <v>84</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" t="s">
+        <v>544</v>
+      </c>
+      <c r="I128" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>546</v>
+      </c>
+      <c r="B129" t="s">
+        <v>540</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" t="s">
+        <v>547</v>
+      </c>
+      <c r="E129" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" t="s">
+        <v>308</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" t="s">
+        <v>548</v>
+      </c>
+      <c r="I129" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>549</v>
+      </c>
+      <c r="B130" t="s">
+        <v>540</v>
+      </c>
+      <c r="C130" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" t="s">
+        <v>550</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" t="s">
+        <v>308</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>551</v>
+      </c>
+      <c r="I130" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>553</v>
+      </c>
+      <c r="B131" t="s">
+        <v>540</v>
+      </c>
+      <c r="C131" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" t="s">
+        <v>547</v>
+      </c>
+      <c r="E131" t="s">
+        <v>28</v>
+      </c>
+      <c r="F131" t="s">
+        <v>308</v>
+      </c>
+      <c r="G131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" t="s">
+        <v>554</v>
+      </c>
+      <c r="I131" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>555</v>
+      </c>
+      <c r="B132" t="s">
+        <v>540</v>
+      </c>
+      <c r="C132" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" t="s">
+        <v>556</v>
+      </c>
+      <c r="E132" t="s">
+        <v>28</v>
+      </c>
+      <c r="F132" t="s">
+        <v>117</v>
+      </c>
+      <c r="G132" t="s">
+        <v>22</v>
+      </c>
+      <c r="H132" t="s">
+        <v>557</v>
+      </c>
+      <c r="I132" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>558</v>
+      </c>
+      <c r="B133" t="s">
+        <v>559</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>217</v>
+      </c>
+      <c r="E133" t="s">
+        <v>78</v>
+      </c>
+      <c r="F133" t="s">
+        <v>218</v>
+      </c>
+      <c r="G133" t="s">
+        <v>14</v>
+      </c>
+      <c r="H133" t="s">
+        <v>560</v>
+      </c>
+      <c r="I133" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>562</v>
+      </c>
+      <c r="B134" t="s">
+        <v>559</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134" t="s">
+        <v>21</v>
+      </c>
+      <c r="G134" t="s">
+        <v>22</v>
+      </c>
+      <c r="H134" t="s">
+        <v>563</v>
+      </c>
+      <c r="I134" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>565</v>
+      </c>
+      <c r="B135" t="s">
+        <v>566</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>495</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" t="s">
+        <v>468</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s">
+        <v>567</v>
+      </c>
+      <c r="I135" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>569</v>
+      </c>
+      <c r="B136" t="s">
+        <v>570</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s">
+        <v>303</v>
+      </c>
+      <c r="E136" t="s">
+        <v>78</v>
+      </c>
+      <c r="F136" t="s">
+        <v>98</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>571</v>
+      </c>
+      <c r="I136" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>573</v>
+      </c>
+      <c r="B137" t="s">
+        <v>570</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>212</v>
+      </c>
+      <c r="E137" t="s">
+        <v>78</v>
+      </c>
+      <c r="F137" t="s">
+        <v>73</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" t="s">
+        <v>574</v>
+      </c>
+      <c r="I137" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>576</v>
+      </c>
+      <c r="B138" t="s">
+        <v>570</v>
+      </c>
+      <c r="C138" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s">
+        <v>577</v>
+      </c>
+      <c r="E138" t="s">
+        <v>37</v>
+      </c>
+      <c r="F138" t="s">
+        <v>341</v>
+      </c>
+      <c r="G138" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" t="s">
+        <v>578</v>
+      </c>
+      <c r="I138" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>580</v>
+      </c>
+      <c r="B139" t="s">
+        <v>570</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s">
+        <v>303</v>
+      </c>
+      <c r="E139" t="s">
+        <v>78</v>
+      </c>
+      <c r="F139" t="s">
+        <v>98</v>
+      </c>
+      <c r="G139" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" t="s">
+        <v>581</v>
+      </c>
+      <c r="I139" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>583</v>
+      </c>
+      <c r="B140" t="s">
+        <v>570</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>217</v>
+      </c>
+      <c r="E140" t="s">
+        <v>78</v>
+      </c>
+      <c r="F140" t="s">
+        <v>218</v>
+      </c>
+      <c r="G140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" t="s">
+        <v>584</v>
+      </c>
+      <c r="I140" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>586</v>
+      </c>
+      <c r="B141" t="s">
+        <v>570</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>217</v>
+      </c>
+      <c r="E141" t="s">
+        <v>78</v>
+      </c>
+      <c r="F141" t="s">
+        <v>218</v>
+      </c>
+      <c r="G141" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" t="s">
+        <v>587</v>
+      </c>
+      <c r="I141" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>589</v>
+      </c>
+      <c r="B142" t="s">
+        <v>590</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" t="s">
+        <v>103</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142" t="s">
+        <v>104</v>
+      </c>
+      <c r="G142" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" t="s">
+        <v>591</v>
+      </c>
+      <c r="I142" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>593</v>
+      </c>
+      <c r="B143" t="s">
+        <v>590</v>
+      </c>
+      <c r="C143" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" t="s">
+        <v>594</v>
+      </c>
+      <c r="E143" t="s">
+        <v>28</v>
+      </c>
+      <c r="F143" t="s">
+        <v>251</v>
+      </c>
+      <c r="G143" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" t="s">
+        <v>595</v>
+      </c>
+      <c r="I143" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>597</v>
+      </c>
+      <c r="B144" t="s">
+        <v>590</v>
+      </c>
+      <c r="C144" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" t="s">
+        <v>36</v>
+      </c>
+      <c r="E144" t="s">
+        <v>37</v>
+      </c>
+      <c r="F144" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>598</v>
+      </c>
+      <c r="I144" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>600</v>
+      </c>
+      <c r="B145" t="s">
+        <v>590</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" t="s">
+        <v>601</v>
+      </c>
+      <c r="E145" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" t="s">
+        <v>602</v>
+      </c>
+      <c r="I145" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>603</v>
+      </c>
+      <c r="B146" t="s">
+        <v>590</v>
+      </c>
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" t="s">
+        <v>604</v>
+      </c>
+      <c r="E146" t="s">
+        <v>78</v>
+      </c>
+      <c r="F146" t="s">
+        <v>43</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" t="s">
+        <v>605</v>
+      </c>
+      <c r="I146" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>607</v>
+      </c>
+      <c r="B147" t="s">
+        <v>590</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>103</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" t="s">
+        <v>104</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>608</v>
+      </c>
+      <c r="I147" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>610</v>
+      </c>
+      <c r="B148" t="s">
+        <v>611</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>291</v>
+      </c>
+      <c r="E148" t="s">
+        <v>78</v>
+      </c>
+      <c r="F148" t="s">
+        <v>163</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" t="s">
+        <v>612</v>
+      </c>
+      <c r="I148" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>614</v>
+      </c>
+      <c r="B149" t="s">
+        <v>611</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>303</v>
+      </c>
+      <c r="E149" t="s">
+        <v>78</v>
+      </c>
+      <c r="F149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G149" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" t="s">
+        <v>615</v>
+      </c>
+      <c r="I149" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>617</v>
+      </c>
+      <c r="B150" t="s">
+        <v>611</v>
+      </c>
+      <c r="C150" t="s">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s">
+        <v>84</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" t="s">
+        <v>618</v>
+      </c>
+      <c r="I150" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>620</v>
+      </c>
+      <c r="B151" t="s">
+        <v>611</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s">
+        <v>206</v>
+      </c>
+      <c r="E151" t="s">
+        <v>201</v>
+      </c>
+      <c r="F151" t="s">
+        <v>207</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" t="s">
+        <v>621</v>
+      </c>
+      <c r="I151" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>623</v>
+      </c>
+      <c r="B152" t="s">
+        <v>611</v>
+      </c>
+      <c r="C152" t="s">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s">
+        <v>126</v>
+      </c>
+      <c r="E152" t="s">
+        <v>78</v>
+      </c>
+      <c r="F152" t="s">
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>22</v>
+      </c>
+      <c r="H152" t="s">
+        <v>624</v>
+      </c>
+      <c r="I152" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>626</v>
+      </c>
+      <c r="B153" t="s">
+        <v>611</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s">
+        <v>495</v>
+      </c>
+      <c r="E153" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" t="s">
+        <v>468</v>
+      </c>
+      <c r="G153" t="s">
+        <v>22</v>
+      </c>
+      <c r="H153" t="s">
+        <v>627</v>
+      </c>
+      <c r="I153" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>629</v>
+      </c>
+      <c r="B154" t="s">
+        <v>630</v>
+      </c>
+      <c r="C154" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" t="s">
+        <v>352</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154" t="s">
+        <v>117</v>
+      </c>
+      <c r="G154" t="s">
+        <v>22</v>
+      </c>
+      <c r="H154" t="s">
+        <v>631</v>
+      </c>
+      <c r="I154" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>633</v>
+      </c>
+      <c r="B155" t="s">
+        <v>634</v>
+      </c>
+      <c r="C155" t="s">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s">
+        <v>103</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155" t="s">
+        <v>104</v>
+      </c>
+      <c r="G155" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" t="s">
+        <v>635</v>
+      </c>
+      <c r="I155" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>637</v>
+      </c>
+      <c r="B156" t="s">
+        <v>638</v>
+      </c>
+      <c r="C156" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" t="s">
+        <v>345</v>
+      </c>
+      <c r="E156"/>
+      <c r="F156" t="s">
+        <v>29</v>
+      </c>
+      <c r="G156" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" t="s">
+        <v>639</v>
+      </c>
+      <c r="I156" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>641</v>
+      </c>
+      <c r="B157" t="s">
+        <v>638</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>187</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" t="s">
+        <v>188</v>
+      </c>
+      <c r="G157" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" t="s">
+        <v>642</v>
+      </c>
+      <c r="I157" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>644</v>
+      </c>
+      <c r="B158" t="s">
+        <v>638</v>
+      </c>
+      <c r="C158" t="s">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s">
+        <v>103</v>
+      </c>
+      <c r="E158"/>
+      <c r="F158" t="s">
+        <v>104</v>
+      </c>
+      <c r="G158" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" t="s">
+        <v>645</v>
+      </c>
+      <c r="I158" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>647</v>
+      </c>
+      <c r="B159" t="s">
+        <v>648</v>
+      </c>
+      <c r="C159" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" t="s">
+        <v>649</v>
+      </c>
+      <c r="E159" t="s">
+        <v>37</v>
+      </c>
+      <c r="F159" t="s">
+        <v>43</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s">
+        <v>650</v>
+      </c>
+      <c r="I159" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>652</v>
+      </c>
+      <c r="B160" t="s">
+        <v>648</v>
+      </c>
+      <c r="C160" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" t="s">
+        <v>653</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" t="s">
+        <v>43</v>
+      </c>
+      <c r="G160" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" t="s">
+        <v>654</v>
+      </c>
+      <c r="I160" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>656</v>
+      </c>
+      <c r="B161" t="s">
+        <v>648</v>
+      </c>
+      <c r="C161" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" t="s">
+        <v>657</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" t="s">
+        <v>104</v>
+      </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s">
+        <v>658</v>
+      </c>
+      <c r="I161" t="s">
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/Debats_CDF_EFK.xlsx
+++ b/Debats_CDF_EFK.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="672">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -904,6 +904,45 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">338578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giacometti Anna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il 27 marzo 2024 il Consiglio federale ha adottato il messaggio concernente il consuntivo della Confederazione svizzera per il 2023 a mano del Parlamento. La Commissione delle finanze ha esaminato il consuntivo nelle sue quattro sottocommissioni e nelle riunioni plenarie.
+La Commissione delle finanze ha preso atto del rapporto del Controllo federale delle finanze che raccomanda di approvare i conti annuali della Confederazione e dei due fondi FIF e Fostra.
+La modifica della legge federale sulle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il 27 marzo 2024 il Consiglio federale ha adottato il messaggio concernente il consuntivo della Confederazione svizzera per il 2023 a mano del Parlamento. La Commissione delle finanze ha esaminato il consuntivo nelle sue quattro sottocommissioni e nelle riunioni plenarie.
+La Commissione delle finanze ha preso atto del rapporto del Controllo federale delle finanze che raccomanda di approvare i conti annuali della Confederazione e dei due fondi FIF e Fostra.
+La modifica della legge federale sulle finanze della Confederazione (LFC) che semplifica e ottimizza la gestione delle finanze pubbliche, è entrata in vigore il 1° gennaio 2022 ed è stata applicata per la prima volta nel preventivo 2023. Il consuntivo 2023 è quindi la prima chiusura dei conti secondo la nuova legislazione. Le novità principali riguardano la soppressione del conto di finanziamento come conto autonomo, una gestione delle finanze pubbliche improntata al principio della conformità temporale - la costituzione e lo scioglimento di accantonamenti e delimitazioni sottostanno ora al freno all'indebitamento - e una nuova definizione del debito netto. La modifica della LFC ha richiesto un [PAGE 821] adeguamento una tantum del conto di compensazione e del conto di ammortamento.
+Per la seconda volta consecutiva e per la terza volta dal 2005, la Confederazione registra un deficit strutturale nel suo bilancio ordinario. Il consuntivo 2023 chiude con un deficit di finanziamento pari a 1,4 miliardi di franchi; questo significa che le entrate non sono bastate per finanziare le uscite e gli investimenti netti. 
+Circa la metà del deficit proviene dal bilancio ordinario e il resto da quello straordinario.
+Il freno all'indebitamento limita le uscite ordinarie al livello delle entrate ordinarie, tenendo conto della situazione economica. Per il 2023 il freno all'indebitamento avrebbe consentito alle uscite di superare le entrate di 238 milioni di franchi, pari allo 0,3 per cento delle entrate ordinarie. Il deficit ordinario di finanziamento per il 2023 ammonta però a 672 milioni di franchi. I rimanenti 434 milioni di deficit sono pertanto di natura strutturale e vengono addebitati al conto di compensazione. Il saldo al 31 dicembre 2023 è di 20,043 miliardi di franchi.
+Sul conto di ammortamento vengono addebitate le uscite e accreditate le entrate supplementari. A causa delle uscite legate alla pandemia di Covid-19, il conto di ammortamento presenta un saldo fortemente negativo. Il disavanzo del conto di ammortamento al 31 dicembre 2023 ammonta a 27,216 miliardi di franchi.
+L'economia svizzera è cresciuta dell'1,3 per cento in termini reali e del 2,3 per cento in termini nominali registrando, in entrambi i casi, un andamento meno dinamico di quello ipotizzato nel preventivo. Il calo degli investimenti e la crescita negativa a livello mondiale hanno neutralizzato gli impulsi positivi generati dai consumi privati. Per contro, l'indice nazionale dei prezzi al consumo è aumentato più del previsto, attestandosi al 2,1 per cento.
+Il debito netto è dato dal capitale di terzi al netto dei beni patrimoniali. Nel 2023 l'indebitamento netto è aumentato di 2,7 miliardi di franchi, attestandosi a 142 miliardi; questo è dovuto al deficit di finanziamento e a transazioni imputate direttamente al capitale proprio.
+Nel 2023 sono state contabilizzate entrate pari a 79,6 miliardi di franchi, il che corrisponde a una progressione del 5,2 per cento rispetto all'esercizio 2022. Le entrate della Confederazione sono aumentate sensibilmente, nonostante la mancata distribuzione degli utili della Banca nazionale svizzera. L'incremento è riconducibile principalmente alle maggiori entrate dall'imposta federale diretta e dall'imposta preventiva. Il reddito fiscale dell'imposta sul valore aggiunto è aumentato di 0,6 miliardi di franchi. Nell'ambito dell'imposta federale diretta è aumentato soprattutto il gettito dell'imposta sull'utile delle persone giuridiche, più 2,2 miliardi di franchi. Per[NB]quanto[NB]riguarda[NB]l'imposta preventiva, il forte aumento è riconducibile alla correzione di alcune stime riguardanti gli anni precedenti.
+Le entrate straordinarie ammontano a 310 milioni di franchi. La vendita di alcune unità operative di Ruag International Holding SA ha generato entrate straordinarie pari a 200 milioni di franchi. Altre entrate straordinarie derivano dai premi di rischio versati da Credit Suisse per i mutui a sostegno della liquidità, coperti da una garanzia della Confederazione.
+Le uscite complessive della Confederazione nel 2023 ammontano a 81 miliardi di franchi, rimanendo quindi stabili rispetto all'anno precedente. Già per il quarto anno consecutivo è stato necessario far valere un fabbisogno finanziario eccezionale. Rispetto agli esercizi precedenti, caratterizzati dalle uscite legate alla pandemia, esso è però sensibilmente inferiore.
+Le uscite ordinarie sono cresciute di 2,2 miliardi di franchi, dunque in maniera più marcata rispetto al PIL nominale pari al 2,3 per cento. Il contributo della Confederazione a favore della previdenza per la vecchiaia è aumentato di 459 milioni rispetto all'anno precedente, e quello destinato all'assicurazione per l'invalidità di 90 milioni di franchi. Sono aumentate anche le uscite per le riduzioni dei premi nell'assicurazione malattie e per le prestazioni complementari. Si osservano maggiori uscite per il settore della migrazione sebbene le uscite a favore delle persone provenienti dall'Ucraina siano state contabilizzate a titolo straordinario. 
+Le uscite legate alle finanze e alle imposte sono cresciute del 10 per cento, questo a causa dell'aumento dei tassi d'interesse e della partecipazione dei cantoni alle entrate dell'imposta federale diretta e dell'imposta preventiva. Infine, rispetto al 2022, la Confederazione ha speso 310 milioni di franchi in più per il Settore educazione e ricerca. Le uscite per le relazioni con l'estero e la cooperazione internazionale sono aumentate di 208 milioni di franchi, pari al 5,4 per cento.
+Per quanto concerne le uscite straordinarie, i contributi ai cantoni per le persone in cerca di protezione provenienti dall'Ucraina ammontano a 1,1 miliardi di franchi. Il piano di salvataggio per il Settore energia elettrica di 4 miliardi di franchi è rimasto inutilizzato e ha quindi potuto essere revocato.
+La vostra Commissione delle finanze propone, con 16 voti contro 8, di approvare il consuntivo 2023 e, all'unanimità, di approvare i conti speciali "Fondo per l'infrastruttura ferroviaria" e "Fondo per le strade nazionali e il traffico d'agglomerato". In tal modo segue la raccomandazione del Controllo federale delle finanze che, nel suo ruolo di revisore, si era espresso a favore dell'approvazione del conto annuale 2023 della Confederazione, dei sorpassi di credito per 2,25 miliardi di franchi e della costituzione di nuove riserve per 174 milioni di franchi.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">339510</t>
   </si>
   <si>
@@ -1010,9 +1049,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wehrli Laurent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RL</t>
   </si>
   <si>
     <t xml:space="preserve">Dans sa séance plénière de mai 2024, en présence du président et du secrétaire général du Tribunal fédéral, votre Commission de gestion a pris connaissance et étudié le rapport de gestion du Tribunal fédéral pour l'année 2023. Votre sous-commission de gestion, en charge notamment du suivi des tribunaux fédéraux et du Ministère public de la Confédération, l'avait précédemment fait lors de sa séance, qui a eu lieu à Lausanne le 8 mai 2024, en présence du président et de divers autres responsables.</t>
@@ -1105,9 +1141,6 @@
     <t xml:space="preserve">Engler Stefan</t>
   </si>
   <si>
-    <t xml:space="preserve">GR</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bei der Beratung dieses Geschäfts können wir uns kurzhalten. Ihre Staatspolitische Kommission hat die Motion Farinelli 23.3592, "Alle Berichte sollen zumindest eine Zusammenfassung in den drei Amtssprachen enthalten", vorgeprüft und ist zum Schluss gekommen, Ihnen die Annahme dieser Motion zu beantragen. Dasselbe hat der Nationalrat getan, und dasselbe will auch der Bundesrat tun, allerdings mit der Einschränkung, dass es sich um Berichte des Bundesrates und der Bundesverwaltung handeln müsse, d</t>
   </si>
   <si>
@@ -1118,6 +1151,27 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">341085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regazzi Fabio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visto che parliamo di un tema legato al multilinguismo permettetemi di rivolgermi a voi in italiano per qualche breve riflessione.
+Come ticinese so bene quanto sia importante sentirsi parte del tessuto nazionale svizzero a pieno titolo. Per questo sostengo con convinzione la mozione Farinelli, e ho sentito con piacere che anche la commissione competente la sostiene. L'autore della mozione chiede che tutti i rapporti presentati dall'amministrazione e dal Consiglio federale includano un breve rias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visto che parliamo di un tema legato al multilinguismo permettetemi di rivolgermi a voi in italiano per qualche breve riflessione.
+Come ticinese so bene quanto sia importante sentirsi parte del tessuto nazionale svizzero a pieno titolo. Per questo sostengo con convinzione la mozione Farinelli, e ho sentito con piacere che anche la commissione competente la sostiene. L'autore della mozione chiede che tutti i rapporti presentati dall'amministrazione e dal Consiglio federale includano un breve riassunto nelle tre lingue ufficiali della Svizzera. Questa proposta, che mi sembra ragionevole, è un buon compromesso. Non solo promuove la diversità linguistica del nostro paese, ma rafforza anche la trasparenza e l'accessibilità delle informazioni. Attualmente i riassunti dei rapporti, come l'ha ricordato il relatore, sono spesso disponibili solo in una o due lingue ufficiali, escludendo quindi una parte significativa della popolazione. Ricordo che quando si parla di Svizzera italiana non si deve pensare solo al canton Ticino o al Grigioni italiano, ma a quasi 700[NB]000 persone che in tutta la Svizzera parlano la lingua di Dante.
+Il modello adottato dal Controllo federale delle finanze, che include sempre una versione riassuntiva nelle lingue ufficiali, ha dimostrato l'efficacia di questa pratica. Estendere questo approccio a tutti i rapporti dell'amministrazione e del Consiglio federale standardizzerebbe e migliorerebbe ulteriormente la comunicazione istituzionale.
+In sintesi, sostenere questa mozione significa promuovere multilinguismo, trasparenza ed efficienza comunicativa. È un impegno concreto per una maggiore accessibilità delle informazioni governative e rappresenta una misura equa e rispettosa della diversità linguistica della Svizzera.
+Per questo motivo vi invito ad approvare la presente mozione.
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">341480</t>
   </si>
   <si>
@@ -1140,9 +1194,6 @@
   </si>
   <si>
     <t xml:space="preserve">Chiesa Marco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TI</t>
   </si>
   <si>
     <t xml:space="preserve">Künftig darf der medizinisch-technische Fortschritt nicht nur Berücksichtigung finden, wenn es zu teuer wird. Wie auch sonst im Markt müssen die Effizienzgewinne der Kundschaft bzw. den Kostenträgern, den Prämienzahlern und der öffentlichen Hand, weitergegeben werden. Die Tarifpartner müssen diesbezüglich aktiv werden und Lösungen finden, auch wenn dies nicht allen Beteiligten passt. Der Bundesrat muss subsidiär, regelmässig und zeitnah eingreifen, wenn die Tarifpartner den präzisierten gesetzli</t>
@@ -1402,9 +1453,6 @@
   </si>
   <si>
     <t xml:space="preserve">20240924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regazzi Fabio</t>
   </si>
   <si>
     <t xml:space="preserve">Ich danke dem Bundesrat für die Stellungnahme zu meiner Interpellation. Ich bin damit aber nicht zufrieden, daher möchte ich den Bundesrat um eine Klarstellung bitten. Es hat nämlich den Anschein, als ob der Kostenrahmen nur scheinbar eingehalten wird. Die Stellungnahme vermittelt den Eindruck, dass das Projekt inhaltlich und finanziell im Rahmen liegt, nur weil bisher nicht das gesamte Budget aufgewendet wurde. Der Verweis darauf, dass 71,8 Prozent der veranlagten Kosten verwendet wurden, sagt </t>
@@ -2859,6 +2907,29 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">356868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farinelli Alex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nome della Commissione delle finanze vi presento le considerazioni emerse durante l'esame del consuntivo 2024. Non ripeterò tutte le cifre già citate dalla collega. Vi posso dire che l'esame si è svolto in diverse sedute e ha incluso l'audizione del Consiglio federale, dei vari uffici federali rispettivamente del Controllo federale delle finanze e delle autorità della Confederazione. 
+Nel 2024, il consuntivo chiude con un disavanzo di finanziamento contenuto pari a 80 milioni di franchi. È il </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nome della Commissione delle finanze vi presento le considerazioni emerse durante l'esame del consuntivo 2024. Non ripeterò tutte le cifre già citate dalla collega. Vi posso dire che l'esame si è svolto in diverse sedute e ha incluso l'audizione del Consiglio federale, dei vari uffici federali rispettivamente del Controllo federale delle finanze e delle autorità della Confederazione. 
+Nel 2024, il consuntivo chiude con un disavanzo di finanziamento contenuto pari a 80 milioni di franchi. È il miglior risultato dal 2019 con un'eccedenza strutturale di 1,3 miliardi di franchi nel bilancio ordinario. Le entrate hanno superato le previsioni soprattutto grazie ad un forte incremento del gettito dell'imposta federale diretta e dell'IVA - questo è dovuto sia a fattori straordinari che strutturali -, mentre le spese sono rimaste sotto controllo. 
+La commissione prende atto con soddisfazione che i principi della legge sul freno all'indebitamento sono stati rispettati. Tuttavia desidera richiamare l'attenzione su alcuni elementi critici messi in evidenza dal Controllo federale delle finanze nei suoi rapporti di revisione. 
+Primo: il fondo dell'infrastruttura ferroviaria mostra segnali di squilibrio a medio termine. Le uscite previste supereranno le entrate già nel 2027. In assenza di misure correttive, le riserve minime legali non potranno più essere rispettate entro il 2028. Anche se non è oggetto diretto dalla revisione, la commissione sostiene la raccomandazione del Controllo federale delle finanze di monitorare attentamente l'evoluzione per garantire la sostenibilità finanziaria del fondo. 
+Secondo: persistono incertezze nella contabilizzazione delle entrate, in particolare riguardante la tassa sul traffico pesante commisurata alle prestazioni e l'e-vignetta, dove la mancanza di giustificativi completi limita la tracciabilità. Il Controllo federale delle finanze ha riconosciuto gli sforzi dell'amministrazione per contenere i rischi, ma ritiene necessaria una soluzione strutturale entro la fine di quest'anno. 
+Terzo: continuano ad essere presenti poste di bilancio segnate da un'elevata incertezza delle stime, come le riserve per i test Covid, i crediti Covid alle imprese o i costi di bonifica del deposito di munizioni di Mitholz. In tutti questi casi le stime sono state confermate come plausibili, ma devono essere sempre oggetto di un riesame continuo. 
+La commissione riconosce inoltre l'importanza della gestione prudente delle spese straordinarie legate al conflitto in Ucraina. Tale spese, ammesse nel bilancio straordinario per il 2024, dovranno progressivamente rientrare nel bilancio ordinario. A partire dal 2027, dovranno essere completamente assorbite da quest'ultimo. Si condivide quindi l'osservazione del Controllo federale delle finanze, che la classificazione delle spese straordinarie deve rimanere eccezionale e rigorosa, per non compromettere la credibilità del freno all'indebitamento e la stabilità delle finanze federali.
+Nel complesso, la commissione ritiene che il conto di Stato della Confederazione 2024 presenti un'immagine conforme alla legge. Pertanto, sostiene la raccomandazione del Controllo federale delle finanze di approvare la contabilità dello Stato. Propone a questo consiglio, con 17 voti favorevoli, 0 contrari e 8 astensioni, di approvare il consuntivo 2024. 
+Per quanto riguarda invece i fondi infrastrutturali legati all'infrastruttura ferroviaria e a quella stradale, ossia il FIF e il Fostra, essi sono stati approvati all'unanimità dei 25 consiglieri presenti in sala.
+In conclusione, mi permetto di ringraziare anch'io il Consiglio federale e la presidente della Confederazione per l'ottima collaborazione e il lavoro svolto, l'amministrazione federale delle finanze per averci supportato, il segretariato commissionale che è sempre a disposizione e il Controllo federale delle finanze che ci supporta in tutto quello che riguarda il controllo dei conti della Confederazione. 
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">357753</t>
   </si>
   <si>
@@ -4286,8 +4357,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I161" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I161"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I164" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I164"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="MeetingDate"/>
@@ -5646,42 +5717,42 @@
         <v>177</v>
       </c>
       <c r="B38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
         <v>178</v>
       </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>179</v>
       </c>
-      <c r="E38" t="s">
-        <v>28</v>
-      </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>180</v>
       </c>
       <c r="G38" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="H38" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I38" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B39" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
@@ -5693,147 +5764,147 @@
         <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I39" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H40" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
-      </c>
-      <c r="E41"/>
+        <v>194</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
       <c r="F41" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I41" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" t="s">
-        <v>37</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E42"/>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H42" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I42" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B43" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="F44" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H44" t="s">
         <v>208</v>
@@ -5856,39 +5927,39 @@
         <v>212</v>
       </c>
       <c r="E45" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="F45" t="s">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="G45" t="s">
         <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C46" t="s">
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E46" t="s">
         <v>78</v>
       </c>
       <c r="F46" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -5908,33 +5979,33 @@
         <v>222</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I47" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C48" t="s">
         <v>11</v>
@@ -5943,13 +6014,13 @@
         <v>227</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s">
         <v>228</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="H48" t="s">
         <v>229</v>
@@ -5963,36 +6034,36 @@
         <v>231</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F49" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
         <v>233</v>
       </c>
-      <c r="G49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>234</v>
-      </c>
-      <c r="I49" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B50" t="s">
         <v>236</v>
-      </c>
-      <c r="B50" t="s">
-        <v>226</v>
       </c>
       <c r="C50" t="s">
         <v>11</v>
@@ -6001,13 +6072,13 @@
         <v>237</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
         <v>238</v>
@@ -6021,19 +6092,19 @@
         <v>240</v>
       </c>
       <c r="B51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s">
         <v>241</v>
       </c>
-      <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s">
         <v>242</v>
-      </c>
-      <c r="E51" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" t="s">
-        <v>43</v>
       </c>
       <c r="G51" t="s">
         <v>14</v>
@@ -6050,46 +6121,48 @@
         <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52"/>
+        <v>246</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
       <c r="F52" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="G52" t="s">
         <v>22</v>
       </c>
       <c r="H52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E53" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="F53" t="s">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
@@ -6106,10 +6179,10 @@
         <v>254</v>
       </c>
       <c r="B54" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
         <v>20</v>
@@ -6142,24 +6215,24 @@
         <v>259</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F55" t="s">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="G55" t="s">
         <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B56" t="s">
         <v>258</v>
@@ -6168,36 +6241,34 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>259</v>
-      </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E56"/>
       <c r="F56" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I56" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -6209,99 +6280,103 @@
         <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I57" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58"/>
+        <v>268</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="G58" t="s">
         <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I58" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59"/>
+        <v>268</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I59" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B60" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I60" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C61" t="s">
         <v>19</v>
@@ -6314,36 +6389,34 @@
         <v>21</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H61" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="I61" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B62" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D62" t="s">
-        <v>284</v>
-      </c>
-      <c r="E62" t="s">
-        <v>78</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E62"/>
       <c r="F62" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H62" t="s">
         <v>285</v>
@@ -6357,77 +6430,75 @@
         <v>287</v>
       </c>
       <c r="B63" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>217</v>
-      </c>
-      <c r="E63" t="s">
-        <v>78</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E63"/>
       <c r="F63" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="G63" t="s">
         <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B64" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
         <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="G64" t="s">
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B65" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="E65" t="s">
         <v>78</v>
       </c>
       <c r="F65" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G65" t="s">
         <v>14</v>
@@ -6444,7 +6515,7 @@
         <v>298</v>
       </c>
       <c r="B66" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
@@ -6453,10 +6524,10 @@
         <v>299</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="G66" t="s">
         <v>14</v>
@@ -6473,7 +6544,7 @@
         <v>302</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
@@ -6485,7 +6556,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="G67" t="s">
         <v>14</v>
@@ -6502,7 +6573,7 @@
         <v>306</v>
       </c>
       <c r="B68" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C68" t="s">
         <v>11</v>
@@ -6511,39 +6582,39 @@
         <v>307</v>
       </c>
       <c r="E68" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="F68" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
         <v>308</v>
       </c>
-      <c r="G68" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>309</v>
-      </c>
-      <c r="I68" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B69" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C69" t="s">
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="E69" t="s">
         <v>78</v>
       </c>
       <c r="F69" t="s">
-        <v>218</v>
+        <v>98</v>
       </c>
       <c r="G69" t="s">
         <v>14</v>
@@ -6560,48 +6631,48 @@
         <v>314</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C70" t="s">
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F70" t="s">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="G70" t="s">
         <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I70" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B71" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="E71" t="s">
         <v>78</v>
       </c>
       <c r="F71" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="G71" t="s">
         <v>14</v>
@@ -6618,36 +6689,36 @@
         <v>322</v>
       </c>
       <c r="B72" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" t="s">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s">
+        <v>228</v>
+      </c>
+      <c r="G72" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" t="s">
         <v>323</v>
       </c>
-      <c r="E72" t="s">
-        <v>28</v>
-      </c>
-      <c r="F72" t="s">
-        <v>218</v>
-      </c>
-      <c r="G72" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>324</v>
-      </c>
-      <c r="I72" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>325</v>
+      </c>
+      <c r="B73" t="s">
         <v>326</v>
-      </c>
-      <c r="B73" t="s">
-        <v>318</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
@@ -6656,10 +6727,10 @@
         <v>327</v>
       </c>
       <c r="E73" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="F73" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="G73" t="s">
         <v>14</v>
@@ -6676,7 +6747,7 @@
         <v>330</v>
       </c>
       <c r="B74" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
@@ -6685,10 +6756,10 @@
         <v>331</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F74" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="G74" t="s">
         <v>14</v>
@@ -6705,7 +6776,7 @@
         <v>334</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C75" t="s">
         <v>19</v>
@@ -6714,154 +6785,156 @@
         <v>335</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="F75" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s">
         <v>336</v>
       </c>
-      <c r="G75" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>337</v>
-      </c>
-      <c r="I75" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>338</v>
+      </c>
+      <c r="B76" t="s">
+        <v>326</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
         <v>339</v>
       </c>
-      <c r="B76" t="s">
-        <v>318</v>
-      </c>
-      <c r="C76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s">
         <v>340</v>
       </c>
-      <c r="E76" t="s">
+      <c r="I76" t="s">
         <v>341</v>
-      </c>
-      <c r="F76" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" t="s">
-        <v>342</v>
-      </c>
-      <c r="I76" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>342</v>
+      </c>
+      <c r="B77" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" t="s">
+        <v>343</v>
+      </c>
+      <c r="E77" t="s">
+        <v>78</v>
+      </c>
+      <c r="F77" t="s">
         <v>344</v>
       </c>
-      <c r="B77" t="s">
-        <v>318</v>
-      </c>
-      <c r="C77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
         <v>345</v>
       </c>
-      <c r="E77"/>
-      <c r="F77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>346</v>
-      </c>
-      <c r="I77" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" t="s">
         <v>348</v>
       </c>
-      <c r="B78" t="s">
-        <v>318</v>
-      </c>
-      <c r="C78" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" t="s">
-        <v>55</v>
-      </c>
       <c r="E78" t="s">
-        <v>37</v>
+        <v>349</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I78" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B79" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
       </c>
       <c r="D79" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I79" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B80" t="s">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>303</v>
+        <v>55</v>
       </c>
       <c r="E80" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H80" t="s">
         <v>357</v>
@@ -6875,48 +6948,46 @@
         <v>359</v>
       </c>
       <c r="B81" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" t="s">
         <v>360</v>
       </c>
-      <c r="C81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>117</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
         <v>361</v>
       </c>
-      <c r="E81" t="s">
-        <v>201</v>
-      </c>
-      <c r="F81" t="s">
-        <v>73</v>
-      </c>
-      <c r="G81" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>362</v>
-      </c>
-      <c r="I81" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>363</v>
+      </c>
+      <c r="B82" t="s">
         <v>364</v>
       </c>
-      <c r="B82" t="s">
-        <v>360</v>
-      </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="G82" t="s">
         <v>14</v>
@@ -6942,10 +7013,10 @@
         <v>369</v>
       </c>
       <c r="E83" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="G83" t="s">
         <v>14</v>
@@ -6965,16 +7036,16 @@
         <v>368</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="E84" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
       <c r="G84" t="s">
         <v>14</v>
@@ -6991,48 +7062,48 @@
         <v>375</v>
       </c>
       <c r="B85" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>187</v>
+        <v>377</v>
       </c>
       <c r="E85" t="s">
         <v>28</v>
       </c>
       <c r="F85" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="G85" t="s">
         <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I85" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B86" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C86" t="s">
         <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>379</v>
+        <v>223</v>
       </c>
       <c r="E86" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="F86" t="s">
-        <v>380</v>
+        <v>180</v>
       </c>
       <c r="G86" t="s">
         <v>14</v>
@@ -7049,46 +7120,48 @@
         <v>383</v>
       </c>
       <c r="B87" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C87" t="s">
         <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>103</v>
-      </c>
-      <c r="E87"/>
+        <v>194</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
       <c r="F87" t="s">
-        <v>104</v>
+        <v>195</v>
       </c>
       <c r="G87" t="s">
         <v>14</v>
       </c>
       <c r="H87" t="s">
+        <v>384</v>
+      </c>
+      <c r="I87" t="s">
         <v>385</v>
-      </c>
-      <c r="I87" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B88" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
       </c>
       <c r="D88" t="s">
+        <v>387</v>
+      </c>
+      <c r="E88" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" t="s">
         <v>388</v>
-      </c>
-      <c r="E88" t="s">
-        <v>201</v>
-      </c>
-      <c r="F88" t="s">
-        <v>341</v>
       </c>
       <c r="G88" t="s">
         <v>14</v>
@@ -7105,133 +7178,133 @@
         <v>391</v>
       </c>
       <c r="B89" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>187</v>
-      </c>
-      <c r="E89" t="s">
-        <v>28</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E89"/>
       <c r="F89" t="s">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
         <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I89" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B90" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C90" t="s">
         <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
       <c r="E90" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="F90" t="s">
-        <v>98</v>
+        <v>349</v>
       </c>
       <c r="G90" t="s">
         <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I90" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B91" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="E91" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="G91" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="I91" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B92" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C92" t="s">
         <v>11</v>
       </c>
       <c r="D92" t="s">
-        <v>401</v>
+        <v>311</v>
       </c>
       <c r="E92" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="F92" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G92" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I92" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B93" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D93" t="s">
-        <v>345</v>
-      </c>
-      <c r="E93"/>
+        <v>126</v>
+      </c>
+      <c r="E93" t="s">
+        <v>78</v>
+      </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G93" t="s">
         <v>22</v>
@@ -7248,16 +7321,16 @@
         <v>408</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D94" t="s">
+        <v>409</v>
+      </c>
+      <c r="E94" t="s">
         <v>179</v>
-      </c>
-      <c r="E94" t="s">
-        <v>28</v>
       </c>
       <c r="F94" t="s">
         <v>117</v>
@@ -7266,60 +7339,60 @@
         <v>22</v>
       </c>
       <c r="H94" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I94" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B95" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>103</v>
+        <v>353</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I95" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B96" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D96" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="E96" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F96" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H96" t="s">
         <v>417</v>
@@ -7339,16 +7412,14 @@
         <v>11</v>
       </c>
       <c r="D97" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" t="s">
-        <v>78</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E97"/>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="G97" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
         <v>421</v>
@@ -7365,14 +7436,16 @@
         <v>424</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D98" t="s">
-        <v>84</v>
-      </c>
-      <c r="E98"/>
+        <v>134</v>
+      </c>
+      <c r="E98" t="s">
+        <v>78</v>
+      </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="G98" t="s">
         <v>14</v>
@@ -7389,48 +7462,46 @@
         <v>427</v>
       </c>
       <c r="B99" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C99" t="s">
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>401</v>
+        <v>126</v>
       </c>
       <c r="E99" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="F99" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="G99" t="s">
         <v>22</v>
       </c>
       <c r="H99" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I99" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B100" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
       </c>
       <c r="D100" t="s">
-        <v>432</v>
-      </c>
-      <c r="E100" t="s">
-        <v>341</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E100"/>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
         <v>14</v>
@@ -7447,49 +7518,51 @@
         <v>435</v>
       </c>
       <c r="B101" t="s">
+        <v>432</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>409</v>
+      </c>
+      <c r="E101" t="s">
+        <v>179</v>
+      </c>
+      <c r="F101" t="s">
+        <v>117</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s">
         <v>436</v>
       </c>
-      <c r="C101" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="I101" t="s">
         <v>437</v>
-      </c>
-      <c r="E101" t="s">
-        <v>341</v>
-      </c>
-      <c r="F101" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" t="s">
-        <v>438</v>
-      </c>
-      <c r="I101" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>438</v>
+      </c>
+      <c r="B102" t="s">
+        <v>439</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" t="s">
         <v>440</v>
       </c>
-      <c r="B102" t="s">
-        <v>436</v>
-      </c>
-      <c r="C102" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E102"/>
+      <c r="E102" t="s">
+        <v>349</v>
+      </c>
       <c r="F102" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G102" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
         <v>441</v>
@@ -7503,76 +7576,76 @@
         <v>443</v>
       </c>
       <c r="B103" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D103" t="s">
-        <v>84</v>
-      </c>
-      <c r="E103"/>
+        <v>445</v>
+      </c>
+      <c r="E103" t="s">
+        <v>349</v>
+      </c>
       <c r="F103" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I103" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B104" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
       </c>
       <c r="D104" t="s">
-        <v>345</v>
+        <v>20</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H104" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I104" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B105" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s">
-        <v>55</v>
-      </c>
-      <c r="E105" t="s">
-        <v>37</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E105"/>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
         <v>452</v>
@@ -7586,75 +7659,75 @@
         <v>454</v>
       </c>
       <c r="B106" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D106" t="s">
-        <v>295</v>
-      </c>
-      <c r="E106" t="s">
-        <v>78</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="E106"/>
       <c r="F106" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
         <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I106" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B107" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
-        <v>20</v>
-      </c>
-      <c r="E107"/>
+        <v>55</v>
+      </c>
+      <c r="E107" t="s">
+        <v>37</v>
+      </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G107" t="s">
         <v>22</v>
       </c>
       <c r="H107" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="I107" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B108" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D108" t="s">
-        <v>462</v>
+        <v>303</v>
       </c>
       <c r="E108" t="s">
-        <v>341</v>
+        <v>78</v>
       </c>
       <c r="F108" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="G108" t="s">
         <v>14</v>
@@ -7671,225 +7744,223 @@
         <v>465</v>
       </c>
       <c r="B109" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D109" t="s">
-        <v>467</v>
-      </c>
-      <c r="E109" t="s">
-        <v>201</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E109"/>
       <c r="F109" t="s">
-        <v>468</v>
+        <v>21</v>
       </c>
       <c r="G109" t="s">
         <v>22</v>
       </c>
       <c r="H109" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I109" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>468</v>
+      </c>
+      <c r="B110" t="s">
+        <v>469</v>
+      </c>
+      <c r="C110" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" t="s">
+        <v>470</v>
+      </c>
+      <c r="E110" t="s">
+        <v>349</v>
+      </c>
+      <c r="F110" t="s">
+        <v>43</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
         <v>471</v>
       </c>
-      <c r="B110" t="s">
+      <c r="I110" t="s">
         <v>472</v>
-      </c>
-      <c r="C110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s">
-        <v>187</v>
-      </c>
-      <c r="E110" t="s">
-        <v>28</v>
-      </c>
-      <c r="F110" t="s">
-        <v>188</v>
-      </c>
-      <c r="G110" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" t="s">
-        <v>473</v>
-      </c>
-      <c r="I110" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>473</v>
+      </c>
+      <c r="B111" t="s">
+        <v>474</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" t="s">
         <v>475</v>
       </c>
-      <c r="B111" t="s">
+      <c r="E111" t="s">
+        <v>179</v>
+      </c>
+      <c r="F111" t="s">
         <v>476</v>
       </c>
-      <c r="C111" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="G111" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" t="s">
         <v>477</v>
       </c>
-      <c r="E111" t="s">
-        <v>11</v>
-      </c>
-      <c r="F111" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>478</v>
-      </c>
-      <c r="I111" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>479</v>
+      </c>
+      <c r="B112" t="s">
         <v>480</v>
       </c>
-      <c r="B112" t="s">
-        <v>476</v>
-      </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D112" t="s">
+        <v>194</v>
+      </c>
+      <c r="E112" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" t="s">
+        <v>195</v>
+      </c>
+      <c r="G112" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" t="s">
         <v>481</v>
       </c>
-      <c r="E112" t="s">
-        <v>201</v>
-      </c>
-      <c r="F112" t="s">
-        <v>163</v>
-      </c>
-      <c r="G112" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>482</v>
-      </c>
-      <c r="I112" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>483</v>
+      </c>
+      <c r="B113" t="s">
         <v>484</v>
       </c>
-      <c r="B113" t="s">
-        <v>476</v>
-      </c>
       <c r="C113" t="s">
         <v>19</v>
       </c>
       <c r="D113" t="s">
-        <v>168</v>
+        <v>485</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
         <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I113" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B114" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="C114" t="s">
         <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="G114" t="s">
         <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="I114" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B115" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="E115" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="G115" t="s">
         <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I115" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B116" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>468</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
         <v>496</v>
@@ -7903,20 +7974,22 @@
         <v>498</v>
       </c>
       <c r="B117" t="s">
+        <v>484</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" t="s">
         <v>499</v>
       </c>
-      <c r="C117" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" t="s">
-        <v>154</v>
-      </c>
-      <c r="E117"/>
+      <c r="E117" t="s">
+        <v>179</v>
+      </c>
       <c r="F117" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="H117" t="s">
         <v>500</v>
@@ -7930,104 +8003,102 @@
         <v>502</v>
       </c>
       <c r="B118" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D118" t="s">
-        <v>154</v>
-      </c>
-      <c r="E118"/>
+        <v>212</v>
+      </c>
+      <c r="E118" t="s">
+        <v>179</v>
+      </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="G118" t="s">
         <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I118" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B119" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>200</v>
+        <v>507</v>
       </c>
       <c r="E119" t="s">
-        <v>201</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>117</v>
+        <v>476</v>
       </c>
       <c r="G119" t="s">
         <v>22</v>
       </c>
       <c r="H119" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="I119" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B120" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C120" t="s">
         <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>510</v>
-      </c>
-      <c r="E120" t="s">
-        <v>37</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E120"/>
       <c r="F120" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="G120" t="s">
         <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I120" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B121" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
       </c>
       <c r="D121" t="s">
-        <v>514</v>
-      </c>
-      <c r="E121" t="s">
-        <v>28</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="E121"/>
       <c r="F121" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
         <v>14</v>
@@ -8044,36 +8115,36 @@
         <v>517</v>
       </c>
       <c r="B122" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
       </c>
       <c r="D122" t="s">
+        <v>207</v>
+      </c>
+      <c r="E122" t="s">
+        <v>179</v>
+      </c>
+      <c r="F122" t="s">
+        <v>117</v>
+      </c>
+      <c r="G122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" t="s">
         <v>518</v>
       </c>
-      <c r="E122" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" t="s">
-        <v>73</v>
-      </c>
-      <c r="G122" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>519</v>
-      </c>
-      <c r="I122" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>520</v>
+      </c>
+      <c r="B123" t="s">
         <v>521</v>
-      </c>
-      <c r="B123" t="s">
-        <v>509</v>
       </c>
       <c r="C123" t="s">
         <v>19</v>
@@ -8082,13 +8153,13 @@
         <v>522</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="G123" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
         <v>523</v>
@@ -8102,440 +8173,440 @@
         <v>525</v>
       </c>
       <c r="B124" t="s">
+        <v>521</v>
+      </c>
+      <c r="C124" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" t="s">
         <v>526</v>
       </c>
-      <c r="C124" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
+        <v>28</v>
+      </c>
+      <c r="F124" t="s">
+        <v>73</v>
+      </c>
+      <c r="G124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" t="s">
         <v>527</v>
       </c>
-      <c r="E124" t="s">
-        <v>37</v>
-      </c>
-      <c r="F124" t="s">
-        <v>43</v>
-      </c>
-      <c r="G124" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>528</v>
-      </c>
-      <c r="I124" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>529</v>
+      </c>
+      <c r="B125" t="s">
+        <v>521</v>
+      </c>
+      <c r="C125" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" t="s">
         <v>530</v>
-      </c>
-      <c r="B125" t="s">
-        <v>531</v>
-      </c>
-      <c r="C125" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" t="s">
-        <v>532</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>468</v>
+        <v>73</v>
       </c>
       <c r="G125" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="I125" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B126" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="C126" t="s">
         <v>19</v>
       </c>
       <c r="D126" t="s">
-        <v>345</v>
-      </c>
-      <c r="E126"/>
+        <v>534</v>
+      </c>
+      <c r="E126" t="s">
+        <v>11</v>
+      </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G126" t="s">
         <v>22</v>
       </c>
       <c r="H126" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="I126" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>537</v>
+      </c>
+      <c r="B127" t="s">
+        <v>538</v>
+      </c>
+      <c r="C127" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" t="s">
         <v>539</v>
       </c>
-      <c r="B127" t="s">
+      <c r="E127" t="s">
+        <v>37</v>
+      </c>
+      <c r="F127" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" t="s">
         <v>540</v>
       </c>
-      <c r="C127" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" t="s">
-        <v>84</v>
-      </c>
-      <c r="E127"/>
-      <c r="F127" t="s">
-        <v>13</v>
-      </c>
-      <c r="G127" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>541</v>
-      </c>
-      <c r="I127" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>542</v>
+      </c>
+      <c r="B128" t="s">
         <v>543</v>
       </c>
-      <c r="B128" t="s">
-        <v>540</v>
-      </c>
       <c r="C128" t="s">
         <v>19</v>
       </c>
       <c r="D128" t="s">
-        <v>84</v>
-      </c>
-      <c r="E128"/>
+        <v>544</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
       <c r="F128" t="s">
-        <v>13</v>
+        <v>476</v>
       </c>
       <c r="G128" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H128" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I128" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B129" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="C129" t="s">
         <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>547</v>
-      </c>
-      <c r="E129" t="s">
-        <v>28</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="E129"/>
       <c r="F129" t="s">
-        <v>308</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H129" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I129" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B130" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C130" t="s">
         <v>19</v>
       </c>
       <c r="D130" t="s">
-        <v>550</v>
-      </c>
-      <c r="E130" t="s">
-        <v>11</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E130"/>
       <c r="F130" t="s">
-        <v>308</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
         <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="I130" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B131" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C131" t="s">
         <v>19</v>
       </c>
       <c r="D131" t="s">
-        <v>547</v>
-      </c>
-      <c r="E131" t="s">
-        <v>28</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E131"/>
       <c r="F131" t="s">
-        <v>308</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="I131" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B132" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="C132" t="s">
         <v>19</v>
       </c>
       <c r="D132" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E132" t="s">
         <v>28</v>
       </c>
       <c r="F132" t="s">
-        <v>117</v>
+        <v>316</v>
       </c>
       <c r="G132" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="I132" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B133" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C133" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" t="s">
+        <v>562</v>
+      </c>
+      <c r="E133" t="s">
         <v>11</v>
       </c>
-      <c r="D133" t="s">
-        <v>217</v>
-      </c>
-      <c r="E133" t="s">
-        <v>78</v>
-      </c>
       <c r="F133" t="s">
-        <v>218</v>
+        <v>316</v>
       </c>
       <c r="G133" t="s">
         <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="I133" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B134" t="s">
+        <v>552</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" t="s">
         <v>559</v>
       </c>
-      <c r="C134" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" t="s">
-        <v>20</v>
-      </c>
-      <c r="E134"/>
+      <c r="E134" t="s">
+        <v>28</v>
+      </c>
       <c r="F134" t="s">
-        <v>21</v>
+        <v>316</v>
       </c>
       <c r="G134" t="s">
         <v>22</v>
       </c>
       <c r="H134" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="I134" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B135" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D135" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F135" t="s">
-        <v>468</v>
+        <v>117</v>
       </c>
       <c r="G135" t="s">
         <v>22</v>
       </c>
       <c r="H135" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="I135" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B136" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C136" t="s">
         <v>11</v>
       </c>
       <c r="D136" t="s">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="E136" t="s">
         <v>78</v>
       </c>
       <c r="F136" t="s">
-        <v>98</v>
+        <v>180</v>
       </c>
       <c r="G136" t="s">
         <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I136" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B137" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
       </c>
       <c r="D137" t="s">
-        <v>212</v>
-      </c>
-      <c r="E137" t="s">
-        <v>78</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E137"/>
       <c r="F137" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="G137" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H137" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="I137" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B138" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="C138" t="s">
         <v>11</v>
       </c>
       <c r="D138" t="s">
-        <v>577</v>
+        <v>507</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>341</v>
+        <v>476</v>
       </c>
       <c r="G138" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H138" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="I138" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B139" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="C139" t="s">
         <v>11</v>
       </c>
       <c r="D139" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="E139" t="s">
         <v>78</v>
@@ -8547,485 +8618,491 @@
         <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="I139" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B140" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="C140" t="s">
         <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E140" t="s">
         <v>78</v>
       </c>
       <c r="F140" t="s">
-        <v>218</v>
+        <v>73</v>
       </c>
       <c r="G140" t="s">
         <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="I140" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B141" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>217</v>
+        <v>589</v>
       </c>
       <c r="E141" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F141" t="s">
-        <v>218</v>
+        <v>349</v>
       </c>
       <c r="G141" t="s">
         <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="I141" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B142" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>103</v>
-      </c>
-      <c r="E142"/>
+        <v>311</v>
+      </c>
+      <c r="E142" t="s">
+        <v>78</v>
+      </c>
       <c r="F142" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G142" t="s">
         <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I142" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B143" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>594</v>
+        <v>223</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="F143" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="G143" t="s">
         <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I143" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B144" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C144" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D144" t="s">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I144" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B145" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="C145" t="s">
         <v>19</v>
       </c>
       <c r="D145" t="s">
-        <v>601</v>
-      </c>
-      <c r="E145" t="s">
-        <v>28</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E145"/>
       <c r="F145" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="G145" t="s">
         <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I145" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B146" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="C146" t="s">
         <v>19</v>
       </c>
       <c r="D146" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E146" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="G146" t="s">
         <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I146" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B147" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="C147" t="s">
         <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>103</v>
-      </c>
-      <c r="E147"/>
+        <v>36</v>
+      </c>
+      <c r="E147" t="s">
+        <v>37</v>
+      </c>
       <c r="F147" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="G147" t="s">
         <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="I147" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B148" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D148" t="s">
-        <v>291</v>
+        <v>613</v>
       </c>
       <c r="E148" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="F148" t="s">
-        <v>163</v>
+        <v>43</v>
       </c>
       <c r="G148" t="s">
         <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="I148" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B149" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D149" t="s">
-        <v>303</v>
+        <v>616</v>
       </c>
       <c r="E149" t="s">
         <v>78</v>
       </c>
       <c r="F149" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="G149" t="s">
         <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="I149" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B150" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D150" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="E150"/>
       <c r="F150" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="G150" t="s">
         <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="I150" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B151" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C151" t="s">
         <v>11</v>
       </c>
       <c r="D151" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="E151" t="s">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="F151" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="G151" t="s">
         <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="I151" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>626</v>
+      </c>
+      <c r="B152" t="s">
         <v>623</v>
-      </c>
-      <c r="B152" t="s">
-        <v>611</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>126</v>
+        <v>311</v>
       </c>
       <c r="E152" t="s">
         <v>78</v>
       </c>
       <c r="F152" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="G152" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="I152" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B153" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C153" t="s">
         <v>11</v>
       </c>
       <c r="D153" t="s">
-        <v>495</v>
-      </c>
-      <c r="E153" t="s">
-        <v>11</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E153"/>
       <c r="F153" t="s">
-        <v>468</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="I153" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B154" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C154" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D154" t="s">
-        <v>352</v>
-      </c>
-      <c r="E154"/>
+        <v>212</v>
+      </c>
+      <c r="E154" t="s">
+        <v>179</v>
+      </c>
       <c r="F154" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="G154" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I154" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B155" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="C155" t="s">
         <v>11</v>
       </c>
       <c r="D155" t="s">
-        <v>103</v>
-      </c>
-      <c r="E155"/>
+        <v>126</v>
+      </c>
+      <c r="E155" t="s">
+        <v>78</v>
+      </c>
       <c r="F155" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="G155" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H155" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I155" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B156" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D156" t="s">
-        <v>345</v>
-      </c>
-      <c r="E156"/>
+        <v>507</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>476</v>
       </c>
       <c r="G156" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H156" t="s">
         <v>639</v>
@@ -9039,36 +9116,34 @@
         <v>641</v>
       </c>
       <c r="B157" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D157" t="s">
-        <v>187</v>
-      </c>
-      <c r="E157" t="s">
-        <v>28</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E157"/>
       <c r="F157" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H157" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="I157" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B158" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="C158" t="s">
         <v>11</v>
@@ -9084,59 +9159,57 @@
         <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="I158" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B159" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C159" t="s">
         <v>19</v>
       </c>
       <c r="D159" t="s">
-        <v>649</v>
-      </c>
-      <c r="E159" t="s">
-        <v>37</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="E159"/>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
         <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I159" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B160" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D160" t="s">
-        <v>653</v>
+        <v>194</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F160" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="G160" t="s">
         <v>14</v>
@@ -9153,17 +9226,15 @@
         <v>656</v>
       </c>
       <c r="B161" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D161" t="s">
-        <v>657</v>
-      </c>
-      <c r="E161" t="s">
-        <v>28</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E161"/>
       <c r="F161" t="s">
         <v>104</v>
       </c>
@@ -9171,10 +9242,97 @@
         <v>14</v>
       </c>
       <c r="H161" t="s">
+        <v>657</v>
+      </c>
+      <c r="I161" t="s">
         <v>658</v>
       </c>
-      <c r="I161" t="s">
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
         <v>659</v>
+      </c>
+      <c r="B162" t="s">
+        <v>660</v>
+      </c>
+      <c r="C162" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" t="s">
+        <v>661</v>
+      </c>
+      <c r="E162" t="s">
+        <v>37</v>
+      </c>
+      <c r="F162" t="s">
+        <v>43</v>
+      </c>
+      <c r="G162" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" t="s">
+        <v>662</v>
+      </c>
+      <c r="I162" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>664</v>
+      </c>
+      <c r="B163" t="s">
+        <v>660</v>
+      </c>
+      <c r="C163" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" t="s">
+        <v>665</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" t="s">
+        <v>43</v>
+      </c>
+      <c r="G163" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" t="s">
+        <v>666</v>
+      </c>
+      <c r="I163" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>668</v>
+      </c>
+      <c r="B164" t="s">
+        <v>660</v>
+      </c>
+      <c r="C164" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" t="s">
+        <v>669</v>
+      </c>
+      <c r="E164" t="s">
+        <v>28</v>
+      </c>
+      <c r="F164" t="s">
+        <v>104</v>
+      </c>
+      <c r="G164" t="s">
+        <v>14</v>
+      </c>
+      <c r="H164" t="s">
+        <v>670</v>
+      </c>
+      <c r="I164" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>
